--- a/Covid_19_Dataset_and_References/References/48.xlsx
+++ b/Covid_19_Dataset_and_References/References/48.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="188">
   <si>
     <t>Doi</t>
   </si>
@@ -949,6 +949,114 @@
   </si>
   <si>
     <t>[Ryan P%Barbaro%NULL%2,  Graeme%MacLaren%NULL%2,  Philip S%Boonstra%NULL%2,  Theodore J%Iwashyna%NULL%2,  Arthur S%Slutsky%NULL%2,  Eddy%Fan%NULL%2,  Robert H%Bartlett%NULL%2,  Joseph E%Tonna%NULL%2,  Robert%Hyslop%NULL%2,  Jeffrey J%Fanning%NULL%2,  Peter T%Rycus%NULL%2,  Steve J%Hyer%NULL%2,  Marc M%Anders%NULL%2,  Cara L%Agerstrand%NULL%2,  Katarzyna%Hryniewicz%NULL%2,  Rodrigo%Diaz%NULL%2,  Roberto%Lorusso%NULL%2,  Alain%Combes%NULL%2,  Daniel%Brodie%NULL%5,  Peta%Alexander%NULL%2,  Nicholas%Barrett%NULL%2,  Jan%Bělohlávek%NULL%2,  Dale%Fisher%NULL%2,  John%Fraser%NULL%2,  Ali Ait%Hssain%NULL%2,  Jae Sung%Jung%NULL%2,  Michael%McMullan%NULL%2,  Yatin%Mehta%NULL%2,  Mark T.%Ogino%NULL%2,  Matthew L.%Paden%NULL%2,  Kiran%Shekar%NULL%2,  Christine%Stead%NULL%2,  Yasir%Abu-Omar%NULL%2,  Vanni%Agnoletti%NULL%2,  Anzila%Akbar%NULL%2,  Huda%Alfoudri%NULL%2,  Carlos%Alviar%NULL%2,  Vladimir%Aronsky%NULL%2,  Erin%August%NULL%2,  Georg%Auzinger%NULL%2,  Hilda%Aveja%NULL%2,  Rhonda%Bakken%NULL%2,  Joan%Balcells%NULL%2,  Sripal%Bangalore%NULL%0,  Bernard W.%Barnes%NULL%2,  Alaiza%Bautista%NULL%2,  Lorraine L.%Bellows%NULL%2,  Felipe%Beltran%NULL%2,  Peyman%Benharash%NULL%2,  Marco%Benni%NULL%2,  Jennifer%Berg%NULL%2,  Pietro%Bertini%NULL%2,  Pablo%Blanco-Schweizer%NULL%2,  Melissa%Brunsvold%NULL%2,  Jenny%Budd%NULL%2,  Debra%Camp%NULL%2,  Mark%Caridi-Scheible%NULL%0,  Edmund%Carton%NULL%2,  Elena%Casanova-Ghosh%NULL%2,  Anthony%Castleberry%NULL%2,  Christopher T.%Chipongian%NULL%2,  Chang Woo%Choi%NULL%2,  Alessandro%Circelli%NULL%2,  Elliott%Cohen%NULL%2,  Michael%Collins%NULL%2,  Scott%Copus%NULL%2,  Jill%Coy%NULL%2,  Brandon%Crist%NULL%2,  Leonora%Cruz%NULL%2,  Mirosław%Czuczwar%NULL%2,  Mani%Daneshmand%NULL%2,  Daniel%Davis II%NULL%2,  Kim%De la Cruz%NULL%2,  Cyndie%Devers%NULL%2,  Toni%Duculan%NULL%2,  Lucian%Durham%NULL%2,  Subbarao%Elapavaluru%NULL%2,  Carlos V.%Elzo Kraemer%NULL%2,  EDMÍLSON CARDOSO%Filho%NULL%2,  Jillian%Fitzgerald%NULL%2,  Giuseppe%Foti%NULL%2,  Matthew%Fox%NULL%2,  David%Fritschen%NULL%2,  David%Fullerton%NULL%2,  Elton%Gelandt%NULL%2,  Stacy%Gerle%NULL%2,  Marco%Giani%NULL%2,  Si Guim%Goh%NULL%2,  Sara%Govener%NULL%2,  Julie%Grone%NULL%2,  Miles%Guber%NULL%2,  Vadim%Gudzenko%NULL%2,  Daniel%Gutteridge%NULL%2,  Jennifer%Guy%NULL%2,  Jonathan%Haft%NULL%2,  Cameron%Hall%NULL%2,  Ibrahim Fawzy%Hassan%NULL%2,  Rubén%Herrán%NULL%2,  Hitoshi%Hirose%NULL%3,  Abdulsalam Saif%Ibrahim%NULL%2,  Don%Igielski%NULL%2,  Felicia A.%Ivascu%NULL%2,  Jaume%Izquierdo Blasco%NULL%2,  Julie%Jackson%NULL%2,  Harsh%Jain%NULL%2,  Bhavini%Jaiswal%NULL%2,  Andrea C.%Johnson%NULL%2,  Jenniver A.%Jurynec%NULL%2,  Norma M%Kellter%NULL%2,  Adam%Kohl%NULL%2,  Zachary%Kon%NULL%2,  Markus%Kredel%NULL%2,  Karen%Kriska%NULL%2,  Chandra%Kunavarapu%NULL%2,  Oude%Lansink-Hartgring%NULL%2,  Jeliene%LaRocque%NULL%2,  Sharon Beth%Larson%NULL%2,  Tracie%Layne%NULL%2,  Stephane%Ledot%NULL%2,  Napolitan%Lena%NULL%2,  Jonathan%Lillie%NULL%2,  Gösta%Lotz%NULL%2,  Mark%Lucas%NULL%2,  Lee%Ludwigson%NULL%2,  Jacinta J.%Maas%NULL%2,  Joanna%Maertens%NULL%2,  David%Mast%NULL%2,  Scott%McCardle%NULL%2,  Bernard%McDonald%NULL%2,  Allison%McLarty%NULL%2,  Chelsea%McMahon%NULL%2,  Patrick%Meybohm%NULL%2,  Bart%Meyns%NULL%2,  Casey%Miller%NULL%2,  Fernando%Moraes Neto%NULL%2,  Kelly%Morris%NULL%2,  Ralf%Muellenbach%NULL%2,  Meghan%Nicholson%NULL%2,  Serena%O'Brien%NULL%2,  Kathryn%O'Keefe%NULL%2,  Tawnya%Ogston%NULL%2,  Gary%Oldenburg%NULL%2,  Fabiana M.%Oliveira%NULL%2,  Emily%Oppel%NULL%2,  Diego%Pardo%NULL%4,  Diego%Pardo%NULL%0,  Sara J.%Parker%NULL%2,  Finn M.%Pedersen%NULL%2,  Crescens%Pellecchia%NULL%2,  Jose A.S.%Pelligrini%NULL%2,  Thao T.N.%Pham%NULL%2,  Ann R.%Phillips%NULL%2,  Tasneem%Pirani%NULL%2,  Paweł%Piwowarczyk%NULL%2,  Robert%Plambeck%NULL%2,  William%Pruett%NULL%2,  Brittany%Quandt%NULL%2,  Kollengode%Ramanathan%NULL%2,  Alejandro%Rey%NULL%2,  Christian%Reyher%NULL%2,  Jordi%Riera del Brio%NULL%2,  Rachel%Roberts%NULL%2,  David%Roe%NULL%2,  Peter P.%Roeleveld%NULL%2,  Janet%Rudy%NULL%2,  Luis F.%Rueda%NULL%2,  Emanuele%Russo%NULL%2,  Jesús%Sánchez Ballesteros%NULL%2,  Nancy%Satou%NULL%2,  Mauricio Guidi%Saueressig%NULL%2,  Paul C.%Saunders%NULL%2,  Margaret%Schlotterbeck%NULL%2,  Patricia%Schwarz%NULL%2,  Nicole%Scriven%NULL%2,  Alexis%Serra%NULL%2,  Mohammad%Shamsah%NULL%2,  Lucy%Sim%NULL%2,  Alexandra%Smart%NULL%2,  Adam%Smith%NULL%2,  Deane%Smith%NULL%2,  Maggie%Smith%NULL%2,  Neel%Sodha%NULL%2,  Michael%Sonntagbauer%NULL%2,  Marc%Sorenson%NULL%2,  Eric B%Stallkamp%NULL%2,  Allison%Stewart%NULL%2,  Kathy%Swartz%NULL%2,  Koji%Takeda%NULL%2,  Shaun%Thompson%NULL%2,  Bridget%Toy%NULL%2,  Divina%Tuazon%NULL%2,  Makoto%Uchiyama%NULL%2,  Obiora I.%Udeozo%NULL%2,  Scott%van Poppel%NULL%2,  Corey%Ventetuolo%NULL%2,  Leen%Vercaemst%NULL%2,  Nguyen V.%Vinh Chau%NULL%2,  I-Wen%Wang%NULL%2,  Carrie%Williamson%NULL%2,  Brock%Wilson%NULL%2,  Helen%Winkels%NULL%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+In December 2019, coronavirus disease 2019 (COVID-19) outbreak was reported from Wuhan, China.
+ Information on the clinical course and prognosis of COVID-19 was not thoroughly described.
+ We described the clinical courses and prognosis in COVID-19 patients.
+Methods
+id="Par2"&gt;Retrospective case series of COVID-19 patients from Zhongnan Hospital of Wuhan University in Wuhan and Xishui Hospital, Hubei Province, China, up to February 10, 2020. Epidemiological, demographic, and clinical data were collected.
+ The clinical course of survivors and non-survivors were compared.
+ Risk factors for death were analyzed.
+Results
+id="Par3"&gt;A total of 107 discharged patients with COVID-19 were enrolled.
+ The clinical course of COVID-19 presented as a tri-phasic pattern.
+ Week 1 after illness onset was characterized by fever, cough, dyspnea, lymphopenia, and radiological multi-lobar pulmonary infiltrates.
+ In severe cases, thrombocytopenia, acute kidney injury, acute myocardial injury, and adult respiratory distress syndrome were observed.
+ During week 2, in mild cases, fever, cough, and systemic symptoms began to resolve and platelet count rose to normal range, but lymphopenia persisted.
+ In severe cases, leukocytosis, neutrophilia, and deteriorating multi-organ dysfunction were dominant.
+ By week 3, mild cases had clinically resolved except for lymphopenia.
+ However, severe cases showed persistent lymphopenia, severe acute respiratory dyspnea syndrome, refractory shock, anuric acute kidney injury, coagulopathy, thrombocytopenia, and death.
+ Older age and male sex were independent risk factors for poor outcome of the illness.
+Conclusions
+id="Par4"&gt;A period of 7–13 days after illness onset is the critical stage in the COVID-19 course.
+ Age and male gender were independent risk factors for death of COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,   Yimei%Yin%18256985@qq.com%1,   Chang%Hu%1391369733@qq.com%0,   Xing%Liu%375117565@qq.com%1,   Xingguo%Zhang%zhangxinguo7909@163.com%1,   Shuliang%Zhou%350925556@qq.com%1,   Mingzhi%Jian%Jmzhak@aliyun.com%1,   Haibo%Xu%xuhaibo1120@hotmail.com%0,   John%Prowle%j.prowle@qmul.ac.uk%1,   Bo%Hu%hobbier1979@163.com%0,   Yirong%Li%liyirong838@163.com%0,   Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+In December 2019, coronavirus disease 2019 (COVID-19) outbreak was reported from Wuhan, China.
+ Information on the clinical course and prognosis of COVID-19 was not thoroughly described.
+ We described the clinical courses and prognosis in COVID-19 patients.
+Methods
+Retrospective case series of COVID-19 patients from Zhongnan Hospital of Wuhan University in Wuhan and Xishui Hospital, Hubei Province, China, up to February 10, 2020. Epidemiological, demographic, and clinical data were collected.
+ The clinical course of survivors and non-survivors were compared.
+ Risk factors for death were analyzed.
+Results
+id="Par3"&gt;A total of 107 discharged patients with COVID-19 were enrolled.
+ The clinical course of COVID-19 presented as a tri-phasic pattern.
+ Week 1 after illness onset was characterized by fever, cough, dyspnea, lymphopenia, and radiological multi-lobar pulmonary infiltrates.
+ In severe cases, thrombocytopenia, acute kidney injury, acute myocardial injury, and adult respiratory distress syndrome were observed.
+ During week 2, in mild cases, fever, cough, and systemic symptoms began to resolve and platelet count rose to normal range, but lymphopenia persisted.
+ In severe cases, leukocytosis, neutrophilia, and deteriorating multi-organ dysfunction were dominant.
+ By week 3, mild cases had clinically resolved except for lymphopenia.
+ However, severe cases showed persistent lymphopenia, severe acute respiratory dyspnea syndrome, refractory shock, anuric acute kidney injury, coagulopathy, thrombocytopenia, and death.
+ Older age and male sex were independent risk factors for poor outcome of the illness.
+Conclusions
+id="Par4"&gt;A period of 7–13 days after illness onset is the critical stage in the COVID-19 course.
+ Age and male gender were independent risk factors for death of COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,    Yimei%Yin%18256985@qq.com%1,    Chang%Hu%1391369733@qq.com%1,    Xing%Liu%375117565@qq.com%1,    Xingguo%Zhang%zhangxinguo7909@163.com%1,    Shuliang%Zhou%350925556@qq.com%1,    Mingzhi%Jian%Jmzhak@aliyun.com%1,    Haibo%Xu%xuhaibo1120@hotmail.com%1,    John%Prowle%j.prowle@qmul.ac.uk%1,    Bo%Hu%hobbier1979@163.com%2,    Yirong%Li%liyirong838@163.com%3,    Zhiyong%Peng%Pengzy5@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+In December 2019, coronavirus disease 2019 (COVID-19) outbreak was reported from Wuhan, China.
+ Information on the clinical course and prognosis of COVID-19 was not thoroughly described.
+ We described the clinical courses and prognosis in COVID-19 patients.
+Methods
+Retrospective case series of COVID-19 patients from Zhongnan Hospital of Wuhan University in Wuhan and Xishui Hospital, Hubei Province, China, up to February 10, 2020. Epidemiological, demographic, and clinical data were collected.
+ The clinical course of survivors and non-survivors were compared.
+ Risk factors for death were analyzed.
+Results
+A total of 107 discharged patients with COVID-19 were enrolled.
+ The clinical course of COVID-19 presented as a tri-phasic pattern.
+ Week 1 after illness onset was characterized by fever, cough, dyspnea, lymphopenia, and radiological multi-lobar pulmonary infiltrates.
+ In severe cases, thrombocytopenia, acute kidney injury, acute myocardial injury, and adult respiratory distress syndrome were observed.
+ During week 2, in mild cases, fever, cough, and systemic symptoms began to resolve and platelet count rose to normal range, but lymphopenia persisted.
+ In severe cases, leukocytosis, neutrophilia, and deteriorating multi-organ dysfunction were dominant.
+ By week 3, mild cases had clinically resolved except for lymphopenia.
+ However, severe cases showed persistent lymphopenia, severe acute respiratory dyspnea syndrome, refractory shock, anuric acute kidney injury, coagulopathy, thrombocytopenia, and death.
+ Older age and male sex were independent risk factors for poor outcome of the illness.
+Conclusions
+id="Par4"&gt;A period of 7–13 days after illness onset is the critical stage in the COVID-19 course.
+ Age and male gender were independent risk factors for death of COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,     Yimei%Yin%18256985@qq.com%1,     Chang%Hu%1391369733@qq.com%2,     Xing%Liu%375117565@qq.com%1,     Xingguo%Zhang%zhangxinguo7909@163.com%1,     Shuliang%Zhou%350925556@qq.com%1,     Mingzhi%Jian%Jmzhak@aliyun.com%1,     Haibo%Xu%xuhaibo1120@hotmail.com%3,     John%Prowle%j.prowle@qmul.ac.uk%1,     Bo%Hu%hobbier1979@163.com%1,     Yirong%Li%liyirong838@163.com%1,     Zhiyong%Peng%Pengzy5@hotmail.com%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+In December 2019, coronavirus disease 2019 (COVID-19) outbreak was reported from Wuhan, China.
+ Information on the clinical course and prognosis of COVID-19 was not thoroughly described.
+ We described the clinical courses and prognosis in COVID-19 patients.
+Methods
+Retrospective case series of COVID-19 patients from Zhongnan Hospital of Wuhan University in Wuhan and Xishui Hospital, Hubei Province, China, up to February 10, 2020. Epidemiological, demographic, and clinical data were collected.
+ The clinical course of survivors and non-survivors were compared.
+ Risk factors for death were analyzed.
+Results
+A total of 107 discharged patients with COVID-19 were enrolled.
+ The clinical course of COVID-19 presented as a tri-phasic pattern.
+ Week 1 after illness onset was characterized by fever, cough, dyspnea, lymphopenia, and radiological multi-lobar pulmonary infiltrates.
+ In severe cases, thrombocytopenia, acute kidney injury, acute myocardial injury, and adult respiratory distress syndrome were observed.
+ During week 2, in mild cases, fever, cough, and systemic symptoms began to resolve and platelet count rose to normal range, but lymphopenia persisted.
+ In severe cases, leukocytosis, neutrophilia, and deteriorating multi-organ dysfunction were dominant.
+ By week 3, mild cases had clinically resolved except for lymphopenia.
+ However, severe cases showed persistent lymphopenia, severe acute respiratory dyspnea syndrome, refractory shock, anuric acute kidney injury, coagulopathy, thrombocytopenia, and death.
+ Older age and male sex were independent risk factors for poor outcome of the illness.
+Conclusions
+A period of 7–13 days after illness onset is the critical stage in the COVID-19 course.
+ Age and male gender were independent risk factors for death of COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,      Yimei%Yin%18256985@qq.com%1,      Chang%Hu%1391369733@qq.com%1,      Xing%Liu%375117565@qq.com%1,      Xingguo%Zhang%zhangxinguo7909@163.com%1,      Shuliang%Zhou%350925556@qq.com%1,      Mingzhi%Jian%Jmzhak@aliyun.com%1,      Haibo%Xu%xuhaibo1120@hotmail.com%1,      John%Prowle%j.prowle@qmul.ac.uk%1,      Bo%Hu%hobbier1979@163.com%1,      Yirong%Li%liyirong838@163.com%1,      Zhiyong%Peng%Pengzy5@hotmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1694,10 +1802,10 @@
         <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>

--- a/Covid_19_Dataset_and_References/References/48.xlsx
+++ b/Covid_19_Dataset_and_References/References/48.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="180">
   <si>
     <t>Doi</t>
   </si>
@@ -949,114 +949,6 @@
   </si>
   <si>
     <t>[Ryan P%Barbaro%NULL%2,  Graeme%MacLaren%NULL%2,  Philip S%Boonstra%NULL%2,  Theodore J%Iwashyna%NULL%2,  Arthur S%Slutsky%NULL%2,  Eddy%Fan%NULL%2,  Robert H%Bartlett%NULL%2,  Joseph E%Tonna%NULL%2,  Robert%Hyslop%NULL%2,  Jeffrey J%Fanning%NULL%2,  Peter T%Rycus%NULL%2,  Steve J%Hyer%NULL%2,  Marc M%Anders%NULL%2,  Cara L%Agerstrand%NULL%2,  Katarzyna%Hryniewicz%NULL%2,  Rodrigo%Diaz%NULL%2,  Roberto%Lorusso%NULL%2,  Alain%Combes%NULL%2,  Daniel%Brodie%NULL%5,  Peta%Alexander%NULL%2,  Nicholas%Barrett%NULL%2,  Jan%Bělohlávek%NULL%2,  Dale%Fisher%NULL%2,  John%Fraser%NULL%2,  Ali Ait%Hssain%NULL%2,  Jae Sung%Jung%NULL%2,  Michael%McMullan%NULL%2,  Yatin%Mehta%NULL%2,  Mark T.%Ogino%NULL%2,  Matthew L.%Paden%NULL%2,  Kiran%Shekar%NULL%2,  Christine%Stead%NULL%2,  Yasir%Abu-Omar%NULL%2,  Vanni%Agnoletti%NULL%2,  Anzila%Akbar%NULL%2,  Huda%Alfoudri%NULL%2,  Carlos%Alviar%NULL%2,  Vladimir%Aronsky%NULL%2,  Erin%August%NULL%2,  Georg%Auzinger%NULL%2,  Hilda%Aveja%NULL%2,  Rhonda%Bakken%NULL%2,  Joan%Balcells%NULL%2,  Sripal%Bangalore%NULL%0,  Bernard W.%Barnes%NULL%2,  Alaiza%Bautista%NULL%2,  Lorraine L.%Bellows%NULL%2,  Felipe%Beltran%NULL%2,  Peyman%Benharash%NULL%2,  Marco%Benni%NULL%2,  Jennifer%Berg%NULL%2,  Pietro%Bertini%NULL%2,  Pablo%Blanco-Schweizer%NULL%2,  Melissa%Brunsvold%NULL%2,  Jenny%Budd%NULL%2,  Debra%Camp%NULL%2,  Mark%Caridi-Scheible%NULL%0,  Edmund%Carton%NULL%2,  Elena%Casanova-Ghosh%NULL%2,  Anthony%Castleberry%NULL%2,  Christopher T.%Chipongian%NULL%2,  Chang Woo%Choi%NULL%2,  Alessandro%Circelli%NULL%2,  Elliott%Cohen%NULL%2,  Michael%Collins%NULL%2,  Scott%Copus%NULL%2,  Jill%Coy%NULL%2,  Brandon%Crist%NULL%2,  Leonora%Cruz%NULL%2,  Mirosław%Czuczwar%NULL%2,  Mani%Daneshmand%NULL%2,  Daniel%Davis II%NULL%2,  Kim%De la Cruz%NULL%2,  Cyndie%Devers%NULL%2,  Toni%Duculan%NULL%2,  Lucian%Durham%NULL%2,  Subbarao%Elapavaluru%NULL%2,  Carlos V.%Elzo Kraemer%NULL%2,  EDMÍLSON CARDOSO%Filho%NULL%2,  Jillian%Fitzgerald%NULL%2,  Giuseppe%Foti%NULL%2,  Matthew%Fox%NULL%2,  David%Fritschen%NULL%2,  David%Fullerton%NULL%2,  Elton%Gelandt%NULL%2,  Stacy%Gerle%NULL%2,  Marco%Giani%NULL%2,  Si Guim%Goh%NULL%2,  Sara%Govener%NULL%2,  Julie%Grone%NULL%2,  Miles%Guber%NULL%2,  Vadim%Gudzenko%NULL%2,  Daniel%Gutteridge%NULL%2,  Jennifer%Guy%NULL%2,  Jonathan%Haft%NULL%2,  Cameron%Hall%NULL%2,  Ibrahim Fawzy%Hassan%NULL%2,  Rubén%Herrán%NULL%2,  Hitoshi%Hirose%NULL%3,  Abdulsalam Saif%Ibrahim%NULL%2,  Don%Igielski%NULL%2,  Felicia A.%Ivascu%NULL%2,  Jaume%Izquierdo Blasco%NULL%2,  Julie%Jackson%NULL%2,  Harsh%Jain%NULL%2,  Bhavini%Jaiswal%NULL%2,  Andrea C.%Johnson%NULL%2,  Jenniver A.%Jurynec%NULL%2,  Norma M%Kellter%NULL%2,  Adam%Kohl%NULL%2,  Zachary%Kon%NULL%2,  Markus%Kredel%NULL%2,  Karen%Kriska%NULL%2,  Chandra%Kunavarapu%NULL%2,  Oude%Lansink-Hartgring%NULL%2,  Jeliene%LaRocque%NULL%2,  Sharon Beth%Larson%NULL%2,  Tracie%Layne%NULL%2,  Stephane%Ledot%NULL%2,  Napolitan%Lena%NULL%2,  Jonathan%Lillie%NULL%2,  Gösta%Lotz%NULL%2,  Mark%Lucas%NULL%2,  Lee%Ludwigson%NULL%2,  Jacinta J.%Maas%NULL%2,  Joanna%Maertens%NULL%2,  David%Mast%NULL%2,  Scott%McCardle%NULL%2,  Bernard%McDonald%NULL%2,  Allison%McLarty%NULL%2,  Chelsea%McMahon%NULL%2,  Patrick%Meybohm%NULL%2,  Bart%Meyns%NULL%2,  Casey%Miller%NULL%2,  Fernando%Moraes Neto%NULL%2,  Kelly%Morris%NULL%2,  Ralf%Muellenbach%NULL%2,  Meghan%Nicholson%NULL%2,  Serena%O'Brien%NULL%2,  Kathryn%O'Keefe%NULL%2,  Tawnya%Ogston%NULL%2,  Gary%Oldenburg%NULL%2,  Fabiana M.%Oliveira%NULL%2,  Emily%Oppel%NULL%2,  Diego%Pardo%NULL%4,  Diego%Pardo%NULL%0,  Sara J.%Parker%NULL%2,  Finn M.%Pedersen%NULL%2,  Crescens%Pellecchia%NULL%2,  Jose A.S.%Pelligrini%NULL%2,  Thao T.N.%Pham%NULL%2,  Ann R.%Phillips%NULL%2,  Tasneem%Pirani%NULL%2,  Paweł%Piwowarczyk%NULL%2,  Robert%Plambeck%NULL%2,  William%Pruett%NULL%2,  Brittany%Quandt%NULL%2,  Kollengode%Ramanathan%NULL%2,  Alejandro%Rey%NULL%2,  Christian%Reyher%NULL%2,  Jordi%Riera del Brio%NULL%2,  Rachel%Roberts%NULL%2,  David%Roe%NULL%2,  Peter P.%Roeleveld%NULL%2,  Janet%Rudy%NULL%2,  Luis F.%Rueda%NULL%2,  Emanuele%Russo%NULL%2,  Jesús%Sánchez Ballesteros%NULL%2,  Nancy%Satou%NULL%2,  Mauricio Guidi%Saueressig%NULL%2,  Paul C.%Saunders%NULL%2,  Margaret%Schlotterbeck%NULL%2,  Patricia%Schwarz%NULL%2,  Nicole%Scriven%NULL%2,  Alexis%Serra%NULL%2,  Mohammad%Shamsah%NULL%2,  Lucy%Sim%NULL%2,  Alexandra%Smart%NULL%2,  Adam%Smith%NULL%2,  Deane%Smith%NULL%2,  Maggie%Smith%NULL%2,  Neel%Sodha%NULL%2,  Michael%Sonntagbauer%NULL%2,  Marc%Sorenson%NULL%2,  Eric B%Stallkamp%NULL%2,  Allison%Stewart%NULL%2,  Kathy%Swartz%NULL%2,  Koji%Takeda%NULL%2,  Shaun%Thompson%NULL%2,  Bridget%Toy%NULL%2,  Divina%Tuazon%NULL%2,  Makoto%Uchiyama%NULL%2,  Obiora I.%Udeozo%NULL%2,  Scott%van Poppel%NULL%2,  Corey%Ventetuolo%NULL%2,  Leen%Vercaemst%NULL%2,  Nguyen V.%Vinh Chau%NULL%2,  I-Wen%Wang%NULL%2,  Carrie%Williamson%NULL%2,  Brock%Wilson%NULL%2,  Helen%Winkels%NULL%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-In December 2019, coronavirus disease 2019 (COVID-19) outbreak was reported from Wuhan, China.
- Information on the clinical course and prognosis of COVID-19 was not thoroughly described.
- We described the clinical courses and prognosis in COVID-19 patients.
-Methods
-id="Par2"&gt;Retrospective case series of COVID-19 patients from Zhongnan Hospital of Wuhan University in Wuhan and Xishui Hospital, Hubei Province, China, up to February 10, 2020. Epidemiological, demographic, and clinical data were collected.
- The clinical course of survivors and non-survivors were compared.
- Risk factors for death were analyzed.
-Results
-id="Par3"&gt;A total of 107 discharged patients with COVID-19 were enrolled.
- The clinical course of COVID-19 presented as a tri-phasic pattern.
- Week 1 after illness onset was characterized by fever, cough, dyspnea, lymphopenia, and radiological multi-lobar pulmonary infiltrates.
- In severe cases, thrombocytopenia, acute kidney injury, acute myocardial injury, and adult respiratory distress syndrome were observed.
- During week 2, in mild cases, fever, cough, and systemic symptoms began to resolve and platelet count rose to normal range, but lymphopenia persisted.
- In severe cases, leukocytosis, neutrophilia, and deteriorating multi-organ dysfunction were dominant.
- By week 3, mild cases had clinically resolved except for lymphopenia.
- However, severe cases showed persistent lymphopenia, severe acute respiratory dyspnea syndrome, refractory shock, anuric acute kidney injury, coagulopathy, thrombocytopenia, and death.
- Older age and male sex were independent risk factors for poor outcome of the illness.
-Conclusions
-id="Par4"&gt;A period of 7–13 days after illness onset is the critical stage in the COVID-19 course.
- Age and male gender were independent risk factors for death of COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Dawei%Wang%wdw_syr@163.com%1,   Yimei%Yin%18256985@qq.com%1,   Chang%Hu%1391369733@qq.com%0,   Xing%Liu%375117565@qq.com%1,   Xingguo%Zhang%zhangxinguo7909@163.com%1,   Shuliang%Zhou%350925556@qq.com%1,   Mingzhi%Jian%Jmzhak@aliyun.com%1,   Haibo%Xu%xuhaibo1120@hotmail.com%0,   John%Prowle%j.prowle@qmul.ac.uk%1,   Bo%Hu%hobbier1979@163.com%0,   Yirong%Li%liyirong838@163.com%0,   Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-In December 2019, coronavirus disease 2019 (COVID-19) outbreak was reported from Wuhan, China.
- Information on the clinical course and prognosis of COVID-19 was not thoroughly described.
- We described the clinical courses and prognosis in COVID-19 patients.
-Methods
-Retrospective case series of COVID-19 patients from Zhongnan Hospital of Wuhan University in Wuhan and Xishui Hospital, Hubei Province, China, up to February 10, 2020. Epidemiological, demographic, and clinical data were collected.
- The clinical course of survivors and non-survivors were compared.
- Risk factors for death were analyzed.
-Results
-id="Par3"&gt;A total of 107 discharged patients with COVID-19 were enrolled.
- The clinical course of COVID-19 presented as a tri-phasic pattern.
- Week 1 after illness onset was characterized by fever, cough, dyspnea, lymphopenia, and radiological multi-lobar pulmonary infiltrates.
- In severe cases, thrombocytopenia, acute kidney injury, acute myocardial injury, and adult respiratory distress syndrome were observed.
- During week 2, in mild cases, fever, cough, and systemic symptoms began to resolve and platelet count rose to normal range, but lymphopenia persisted.
- In severe cases, leukocytosis, neutrophilia, and deteriorating multi-organ dysfunction were dominant.
- By week 3, mild cases had clinically resolved except for lymphopenia.
- However, severe cases showed persistent lymphopenia, severe acute respiratory dyspnea syndrome, refractory shock, anuric acute kidney injury, coagulopathy, thrombocytopenia, and death.
- Older age and male sex were independent risk factors for poor outcome of the illness.
-Conclusions
-id="Par4"&gt;A period of 7–13 days after illness onset is the critical stage in the COVID-19 course.
- Age and male gender were independent risk factors for death of COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Dawei%Wang%wdw_syr@163.com%1,    Yimei%Yin%18256985@qq.com%1,    Chang%Hu%1391369733@qq.com%1,    Xing%Liu%375117565@qq.com%1,    Xingguo%Zhang%zhangxinguo7909@163.com%1,    Shuliang%Zhou%350925556@qq.com%1,    Mingzhi%Jian%Jmzhak@aliyun.com%1,    Haibo%Xu%xuhaibo1120@hotmail.com%1,    John%Prowle%j.prowle@qmul.ac.uk%1,    Bo%Hu%hobbier1979@163.com%2,    Yirong%Li%liyirong838@163.com%3,    Zhiyong%Peng%Pengzy5@hotmail.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-In December 2019, coronavirus disease 2019 (COVID-19) outbreak was reported from Wuhan, China.
- Information on the clinical course and prognosis of COVID-19 was not thoroughly described.
- We described the clinical courses and prognosis in COVID-19 patients.
-Methods
-Retrospective case series of COVID-19 patients from Zhongnan Hospital of Wuhan University in Wuhan and Xishui Hospital, Hubei Province, China, up to February 10, 2020. Epidemiological, demographic, and clinical data were collected.
- The clinical course of survivors and non-survivors were compared.
- Risk factors for death were analyzed.
-Results
-A total of 107 discharged patients with COVID-19 were enrolled.
- The clinical course of COVID-19 presented as a tri-phasic pattern.
- Week 1 after illness onset was characterized by fever, cough, dyspnea, lymphopenia, and radiological multi-lobar pulmonary infiltrates.
- In severe cases, thrombocytopenia, acute kidney injury, acute myocardial injury, and adult respiratory distress syndrome were observed.
- During week 2, in mild cases, fever, cough, and systemic symptoms began to resolve and platelet count rose to normal range, but lymphopenia persisted.
- In severe cases, leukocytosis, neutrophilia, and deteriorating multi-organ dysfunction were dominant.
- By week 3, mild cases had clinically resolved except for lymphopenia.
- However, severe cases showed persistent lymphopenia, severe acute respiratory dyspnea syndrome, refractory shock, anuric acute kidney injury, coagulopathy, thrombocytopenia, and death.
- Older age and male sex were independent risk factors for poor outcome of the illness.
-Conclusions
-id="Par4"&gt;A period of 7–13 days after illness onset is the critical stage in the COVID-19 course.
- Age and male gender were independent risk factors for death of COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Dawei%Wang%wdw_syr@163.com%1,     Yimei%Yin%18256985@qq.com%1,     Chang%Hu%1391369733@qq.com%2,     Xing%Liu%375117565@qq.com%1,     Xingguo%Zhang%zhangxinguo7909@163.com%1,     Shuliang%Zhou%350925556@qq.com%1,     Mingzhi%Jian%Jmzhak@aliyun.com%1,     Haibo%Xu%xuhaibo1120@hotmail.com%3,     John%Prowle%j.prowle@qmul.ac.uk%1,     Bo%Hu%hobbier1979@163.com%1,     Yirong%Li%liyirong838@163.com%1,     Zhiyong%Peng%Pengzy5@hotmail.com%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-In December 2019, coronavirus disease 2019 (COVID-19) outbreak was reported from Wuhan, China.
- Information on the clinical course and prognosis of COVID-19 was not thoroughly described.
- We described the clinical courses and prognosis in COVID-19 patients.
-Methods
-Retrospective case series of COVID-19 patients from Zhongnan Hospital of Wuhan University in Wuhan and Xishui Hospital, Hubei Province, China, up to February 10, 2020. Epidemiological, demographic, and clinical data were collected.
- The clinical course of survivors and non-survivors were compared.
- Risk factors for death were analyzed.
-Results
-A total of 107 discharged patients with COVID-19 were enrolled.
- The clinical course of COVID-19 presented as a tri-phasic pattern.
- Week 1 after illness onset was characterized by fever, cough, dyspnea, lymphopenia, and radiological multi-lobar pulmonary infiltrates.
- In severe cases, thrombocytopenia, acute kidney injury, acute myocardial injury, and adult respiratory distress syndrome were observed.
- During week 2, in mild cases, fever, cough, and systemic symptoms began to resolve and platelet count rose to normal range, but lymphopenia persisted.
- In severe cases, leukocytosis, neutrophilia, and deteriorating multi-organ dysfunction were dominant.
- By week 3, mild cases had clinically resolved except for lymphopenia.
- However, severe cases showed persistent lymphopenia, severe acute respiratory dyspnea syndrome, refractory shock, anuric acute kidney injury, coagulopathy, thrombocytopenia, and death.
- Older age and male sex were independent risk factors for poor outcome of the illness.
-Conclusions
-A period of 7–13 days after illness onset is the critical stage in the COVID-19 course.
- Age and male gender were independent risk factors for death of COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Dawei%Wang%wdw_syr@163.com%1,      Yimei%Yin%18256985@qq.com%1,      Chang%Hu%1391369733@qq.com%1,      Xing%Liu%375117565@qq.com%1,      Xingguo%Zhang%zhangxinguo7909@163.com%1,      Shuliang%Zhou%350925556@qq.com%1,      Mingzhi%Jian%Jmzhak@aliyun.com%1,      Haibo%Xu%xuhaibo1120@hotmail.com%1,      John%Prowle%j.prowle@qmul.ac.uk%1,      Bo%Hu%hobbier1979@163.com%1,      Yirong%Li%liyirong838@163.com%1,      Zhiyong%Peng%Pengzy5@hotmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1802,10 +1694,10 @@
         <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>

--- a/Covid_19_Dataset_and_References/References/48.xlsx
+++ b/Covid_19_Dataset_and_References/References/48.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="210">
   <si>
     <t>Doi</t>
   </si>
@@ -949,6 +949,96 @@
   </si>
   <si>
     <t>[Ryan P%Barbaro%NULL%2,  Graeme%MacLaren%NULL%2,  Philip S%Boonstra%NULL%2,  Theodore J%Iwashyna%NULL%2,  Arthur S%Slutsky%NULL%2,  Eddy%Fan%NULL%2,  Robert H%Bartlett%NULL%2,  Joseph E%Tonna%NULL%2,  Robert%Hyslop%NULL%2,  Jeffrey J%Fanning%NULL%2,  Peter T%Rycus%NULL%2,  Steve J%Hyer%NULL%2,  Marc M%Anders%NULL%2,  Cara L%Agerstrand%NULL%2,  Katarzyna%Hryniewicz%NULL%2,  Rodrigo%Diaz%NULL%2,  Roberto%Lorusso%NULL%2,  Alain%Combes%NULL%2,  Daniel%Brodie%NULL%5,  Peta%Alexander%NULL%2,  Nicholas%Barrett%NULL%2,  Jan%Bělohlávek%NULL%2,  Dale%Fisher%NULL%2,  John%Fraser%NULL%2,  Ali Ait%Hssain%NULL%2,  Jae Sung%Jung%NULL%2,  Michael%McMullan%NULL%2,  Yatin%Mehta%NULL%2,  Mark T.%Ogino%NULL%2,  Matthew L.%Paden%NULL%2,  Kiran%Shekar%NULL%2,  Christine%Stead%NULL%2,  Yasir%Abu-Omar%NULL%2,  Vanni%Agnoletti%NULL%2,  Anzila%Akbar%NULL%2,  Huda%Alfoudri%NULL%2,  Carlos%Alviar%NULL%2,  Vladimir%Aronsky%NULL%2,  Erin%August%NULL%2,  Georg%Auzinger%NULL%2,  Hilda%Aveja%NULL%2,  Rhonda%Bakken%NULL%2,  Joan%Balcells%NULL%2,  Sripal%Bangalore%NULL%0,  Bernard W.%Barnes%NULL%2,  Alaiza%Bautista%NULL%2,  Lorraine L.%Bellows%NULL%2,  Felipe%Beltran%NULL%2,  Peyman%Benharash%NULL%2,  Marco%Benni%NULL%2,  Jennifer%Berg%NULL%2,  Pietro%Bertini%NULL%2,  Pablo%Blanco-Schweizer%NULL%2,  Melissa%Brunsvold%NULL%2,  Jenny%Budd%NULL%2,  Debra%Camp%NULL%2,  Mark%Caridi-Scheible%NULL%0,  Edmund%Carton%NULL%2,  Elena%Casanova-Ghosh%NULL%2,  Anthony%Castleberry%NULL%2,  Christopher T.%Chipongian%NULL%2,  Chang Woo%Choi%NULL%2,  Alessandro%Circelli%NULL%2,  Elliott%Cohen%NULL%2,  Michael%Collins%NULL%2,  Scott%Copus%NULL%2,  Jill%Coy%NULL%2,  Brandon%Crist%NULL%2,  Leonora%Cruz%NULL%2,  Mirosław%Czuczwar%NULL%2,  Mani%Daneshmand%NULL%2,  Daniel%Davis II%NULL%2,  Kim%De la Cruz%NULL%2,  Cyndie%Devers%NULL%2,  Toni%Duculan%NULL%2,  Lucian%Durham%NULL%2,  Subbarao%Elapavaluru%NULL%2,  Carlos V.%Elzo Kraemer%NULL%2,  EDMÍLSON CARDOSO%Filho%NULL%2,  Jillian%Fitzgerald%NULL%2,  Giuseppe%Foti%NULL%2,  Matthew%Fox%NULL%2,  David%Fritschen%NULL%2,  David%Fullerton%NULL%2,  Elton%Gelandt%NULL%2,  Stacy%Gerle%NULL%2,  Marco%Giani%NULL%2,  Si Guim%Goh%NULL%2,  Sara%Govener%NULL%2,  Julie%Grone%NULL%2,  Miles%Guber%NULL%2,  Vadim%Gudzenko%NULL%2,  Daniel%Gutteridge%NULL%2,  Jennifer%Guy%NULL%2,  Jonathan%Haft%NULL%2,  Cameron%Hall%NULL%2,  Ibrahim Fawzy%Hassan%NULL%2,  Rubén%Herrán%NULL%2,  Hitoshi%Hirose%NULL%3,  Abdulsalam Saif%Ibrahim%NULL%2,  Don%Igielski%NULL%2,  Felicia A.%Ivascu%NULL%2,  Jaume%Izquierdo Blasco%NULL%2,  Julie%Jackson%NULL%2,  Harsh%Jain%NULL%2,  Bhavini%Jaiswal%NULL%2,  Andrea C.%Johnson%NULL%2,  Jenniver A.%Jurynec%NULL%2,  Norma M%Kellter%NULL%2,  Adam%Kohl%NULL%2,  Zachary%Kon%NULL%2,  Markus%Kredel%NULL%2,  Karen%Kriska%NULL%2,  Chandra%Kunavarapu%NULL%2,  Oude%Lansink-Hartgring%NULL%2,  Jeliene%LaRocque%NULL%2,  Sharon Beth%Larson%NULL%2,  Tracie%Layne%NULL%2,  Stephane%Ledot%NULL%2,  Napolitan%Lena%NULL%2,  Jonathan%Lillie%NULL%2,  Gösta%Lotz%NULL%2,  Mark%Lucas%NULL%2,  Lee%Ludwigson%NULL%2,  Jacinta J.%Maas%NULL%2,  Joanna%Maertens%NULL%2,  David%Mast%NULL%2,  Scott%McCardle%NULL%2,  Bernard%McDonald%NULL%2,  Allison%McLarty%NULL%2,  Chelsea%McMahon%NULL%2,  Patrick%Meybohm%NULL%2,  Bart%Meyns%NULL%2,  Casey%Miller%NULL%2,  Fernando%Moraes Neto%NULL%2,  Kelly%Morris%NULL%2,  Ralf%Muellenbach%NULL%2,  Meghan%Nicholson%NULL%2,  Serena%O'Brien%NULL%2,  Kathryn%O'Keefe%NULL%2,  Tawnya%Ogston%NULL%2,  Gary%Oldenburg%NULL%2,  Fabiana M.%Oliveira%NULL%2,  Emily%Oppel%NULL%2,  Diego%Pardo%NULL%4,  Diego%Pardo%NULL%0,  Sara J.%Parker%NULL%2,  Finn M.%Pedersen%NULL%2,  Crescens%Pellecchia%NULL%2,  Jose A.S.%Pelligrini%NULL%2,  Thao T.N.%Pham%NULL%2,  Ann R.%Phillips%NULL%2,  Tasneem%Pirani%NULL%2,  Paweł%Piwowarczyk%NULL%2,  Robert%Plambeck%NULL%2,  William%Pruett%NULL%2,  Brittany%Quandt%NULL%2,  Kollengode%Ramanathan%NULL%2,  Alejandro%Rey%NULL%2,  Christian%Reyher%NULL%2,  Jordi%Riera del Brio%NULL%2,  Rachel%Roberts%NULL%2,  David%Roe%NULL%2,  Peter P.%Roeleveld%NULL%2,  Janet%Rudy%NULL%2,  Luis F.%Rueda%NULL%2,  Emanuele%Russo%NULL%2,  Jesús%Sánchez Ballesteros%NULL%2,  Nancy%Satou%NULL%2,  Mauricio Guidi%Saueressig%NULL%2,  Paul C.%Saunders%NULL%2,  Margaret%Schlotterbeck%NULL%2,  Patricia%Schwarz%NULL%2,  Nicole%Scriven%NULL%2,  Alexis%Serra%NULL%2,  Mohammad%Shamsah%NULL%2,  Lucy%Sim%NULL%2,  Alexandra%Smart%NULL%2,  Adam%Smith%NULL%2,  Deane%Smith%NULL%2,  Maggie%Smith%NULL%2,  Neel%Sodha%NULL%2,  Michael%Sonntagbauer%NULL%2,  Marc%Sorenson%NULL%2,  Eric B%Stallkamp%NULL%2,  Allison%Stewart%NULL%2,  Kathy%Swartz%NULL%2,  Koji%Takeda%NULL%2,  Shaun%Thompson%NULL%2,  Bridget%Toy%NULL%2,  Divina%Tuazon%NULL%2,  Makoto%Uchiyama%NULL%2,  Obiora I.%Udeozo%NULL%2,  Scott%van Poppel%NULL%2,  Corey%Ventetuolo%NULL%2,  Leen%Vercaemst%NULL%2,  Nguyen V.%Vinh Chau%NULL%2,  I-Wen%Wang%NULL%2,  Carrie%Williamson%NULL%2,  Brock%Wilson%NULL%2,  Helen%Winkels%NULL%2]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,   Dhaval%Kolte%NULL%1,   Mary E.%Cadigan%NULL%1,   Elizabeth%Laikhter%NULL%1,   Kevin%Sinclair%NULL%1,   Eugene%Pomerantsev%NULL%1,   Michael A.%Fifer%NULL%1,   Thoralf M.%Sundt%NULL%1,   Robert W.%Yeh%NULL%1,   Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,  Cabrini%Luca%coreGivesNoEmail%1,  Castelli%Antonio%coreGivesNoEmail%1,  Cecconi%Maurizio%coreGivesNoEmail%1,  Cereda%Danilo%coreGivesNoEmail%1,  Coluccello%Antonio%coreGivesNoEmail%1,  Foti%Giuseppe%coreGivesNoEmail%1,  Fumagalli%Roberto%coreGivesNoEmail%1,  Grasselli%Giacomo%coreGivesNoEmail%1,  Iotti%Giorgio%coreGivesNoEmail%1,  Latronico%Nicola%coreGivesNoEmail%1,  Lorini%Luca%coreGivesNoEmail%1,  Merler%Stefano%coreGivesNoEmail%1,  Natalini%Giuseppe%coreGivesNoEmail%1,  Pesenti%Antonio%coreGivesNoEmail%1,  Piatti%Alessandra%coreGivesNoEmail%1,  Ranieri%Marco Vito%coreGivesNoEmail%1,  Scandroglio%Anna Mara%coreGivesNoEmail%1,  Storti%Enrico%coreGivesNoEmail%1,  Zanella%Alberto%coreGivesNoEmail%1,  Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,   Yeming%Wang%NULL%0,   Xingwang%Li%NULL%0,   Lili%Ren%NULL%0,   Jianping%Zhao%NULL%0,   Yi%Hu%NULL%0,   Li%Zhang%NULL%0,   Guohui%Fan%NULL%0,   Jiuyang%Xu%NULL%0,   Xiaoying%Gu%NULL%0,   Zhenshun%Cheng%NULL%0,   Ting%Yu%NULL%0,   Jiaan%Xia%NULL%0,   Yuan%Wei%NULL%0,   Wenjuan%Wu%NULL%0,   Xuelei%Xie%NULL%0,   Wen%Yin%NULL%0,   Hui%Li%NULL%0,   Min%Liu%NULL%0,   Yan%Xiao%NULL%0,   Hong%Gao%NULL%0,   Li%Guo%NULL%0,   Jungang%Xie%NULL%0,   Guangfa%Wang%NULL%0,   Rongmeng%Jiang%NULL%0,   Zhancheng%Gao%NULL%0,   Qi%Jin%NULL%0,   Jianwei%Wang%wangjw28@163.com%0,   Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,   Yi%Xiang%NULL%0,   Wei%Fang%NULL%0,   Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,   Boqun%Li%279685211@qq.com%0,   Boqun%Li%279685211@qq.com%0,   Yanjun%Hu%huyanjun@163.com%0,   Chunhui%Lang%NULL%0,   Daoqiu%Huang%NULL%0,   Qiuyan%Sun%NULL%0,   Yan%Xiong%NULL%0,   Xia%Huang%NULL%0,   Jinglong%Lv%NULL%0,   Yaling%Luo%NULL%0,   Li%Shen%NULL%0,   Haoran%Yang%NULL%0,   Gu%Huang%NULL%0,   Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,   Mark%Caridi-Scheible%NULL%0,   James M.%Blum%NULL%0,   Chad%Robichaux%NULL%0,   Colleen%Kraft%NULL%0,   Jesse T.%Jacob%NULL%0,   Craig S.%Jabaley%NULL%0,   David%Carpenter%NULL%0,   Roberta%Kaplow%NULL%0,   Alfonso C.%Hernandez-Romieu%NULL%0,   Max W.%Adelman%NULL%0,   Greg S.%Martin%NULL%0,   Craig M.%Coopersmith%NULL%0,   David J.%Murphy%NULL%0,   NULL%NULL%NULL%0,    S.%Auld%null%1,    M.% Caridi-Scheible%null%1,    J. M.% Blum%null%1,    C. J.% Robichaux%null%1,    C. S.% Kraft%null%1,    J. T.% Jacob%null%1,    C. S.% Jabaley%null%1,    D.% Carpenter%null%1,    R.% Kaplow%null%1,    A. C.% Hernandez%null%1,    M. W.% Adelman%null%1,    G. S.% Martin%null%1,    C. M.% Coopersmith%null%1,    D. J.% Murphy%null%1,      % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,  S.%Auld%null%1,  M.% Caridi-Scheible%null%1,  J. M.% Blum%null%1,  C. J.% Robichaux%null%1,  C. S.% Kraft%null%1,  J. T.% Jacob%null%1,  C. S.% Jabaley%null%1,  D.% Carpenter%null%1,  R.% Kaplow%null%1,  A. C.% Hernandez%null%1,  M. W.% Adelman%null%1,  G. S.% Martin%null%1,  C. M.% Coopersmith%null%1,  D. J.% Murphy%null%1,    % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,   Bijan J.%Ghassemieh%NULL%0,   Michelle%Nichols%NULL%0,   Richard%Kim%NULL%0,   Keith R.%Jerome%NULL%0,   Arun K.%Nalla%NULL%0,   Alexander L.%Greninger%NULL%0,   Sudhakar%Pipavath%NULL%0,   Mark M.%Wurfel%NULL%0,   Laura%Evans%NULL%0,   Patricia A.%Kritek%NULL%0,   T. Eoin%West%NULL%0,   Andrew%Luks%NULL%0,   Anthony%Gerbino%NULL%0,   Chris R.%Dale%NULL%0,   Jason D.%Goldman%NULL%0,   Shane%O’Mahony%NULL%0,   Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,   Tangkai%Qi%NULL%0,   Li%Liu%NULL%0,   Yun%Ling%NULL%0,   Zhiping%Qian%NULL%0,   Tao%Li%NULL%0,   Feng%Li%NULL%0,   Qingnian%Xu%NULL%0,   Yuyi%Zhang%NULL%0,   Shuibao%Xu%NULL%0,   Zhigang%Song%NULL%0,   Yigang%Zeng%NULL%0,   Yinzhong%Shen%NULL%0,   Yuxin%Shi%NULL%0,   Tongyu%Zhu%NULL%0,   Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,   Min%Zhou%NULL%0,   Xuan%Dong%NULL%0,   Jieming%Qu%NULL%0,   Fengyun%Gong%NULL%0,   Yang%Han%NULL%0,   Yang%Qiu%NULL%0,   Jingli%Wang%NULL%0,   Ying%Liu%NULL%0,   Yuan%Wei%NULL%0,   Jia'an%Xia%NULL%0,   Ting%Yu%NULL%0,   Xinxin%Zhang%NULL%0,   Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,   Zheng-yi%Ni%NULL%0,   Zheng-yi%Ni%NULL%0,   Yu%Hu%NULL%0,   Wen-hua%Liang%NULL%0,   Chun-quan%Ou%NULL%0,   Jian-xing%He%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chun-liang%Lei%NULL%0,   David S.C.%Hui%NULL%0,   Bin%Du%NULL%0,   Lan-juan%Li%NULL%0,   Guang%Zeng%NULL%0,   Kwok-Yung%Yuen%NULL%0,   Ru-chong%Chen%NULL%0,   Chun-li%Tang%NULL%0,   Tao%Wang%NULL%0,   Ping-yan%Chen%NULL%0,   Jie%Xiang%NULL%0,   Shi-yue%Li%NULL%0,   Jin-lin%Wang%NULL%0,   Zi-jing%Liang%NULL%0,   Yi-xiang%Peng%NULL%0,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Ya-hua%Hu%NULL%0,   Peng%Peng%NULL%0,   Jian-ming%Wang%NULL%0,   Ji-yang%Liu%NULL%0,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhi-jian%Zheng%NULL%0,   Shao-qin%Qiu%NULL%0,   Jie%Luo%NULL%0,   Chang-jiang%Ye%NULL%0,   Shao-yong%Zhu%NULL%0,   Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,   Yuanyuan%Xing%NULL%1,   Yu%Xiao%NULL%1,   Liping%Deng%NULL%0,   Qiu%Zhao%NULL%1,   Hongling%Wang%NULL%1,   Yong%Xiong%NULL%0,   Zhenshun%Cheng%NULL%0,   Shicheng%Gao%NULL%0,   Ke%Liang%NULL%0,   Mingqi%Luo%NULL%0,   Tielong%Chen%NULL%1,   Shihui%Song%NULL%0,   Zhiyong%Ma%NULL%0,   Xiaoping%Chen%NULL%0,   Ruiying%Zheng%NULL%1,   Qian%Cao%NULL%1,   Fan%Wang%fanndywang@foxmail.com%1,   Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,   N -B%Yang%NULL%1,   F%Ding%NULL%1,   A H Y%Ma%NULL%1,   Z -Y%Wang%NULL%2,   Y -F%Shen%NULL%1,   C -W%Shi%NULL%1,   X%Lian%NULL%1,   J -G%Chu%NULL%1,   L%Chen%chxmin@hotmail.com%1,   Z -Y%Wang%NULL%0,   D -W%Ren%NULL%1,   G -X%Li%NULL%1,   X -Q%Chen%chxmin@hotmail.com%1,   H -J%Shen%NULL%1,   X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,   Hugues%Spillemaeker%NULL%1,   Maéva%Kyheng%NULL%1,   Cassandre%Belin‐Vincent%NULL%1,   Cédric%Delhaye%NULL%1,   Adeline%Piérache%NULL%1,   Tom%Denimal%NULL%1,   Basile%Verdier%NULL%1,   Nicolas%Debry%NULL%1,   Mouhamed%Moussa%NULL%1,   Guillaume%Schurtz%NULL%1,   Sina%Porouchani%NULL%1,   Alessandro%Cosenza%NULL%1,   Francis%Juthier%NULL%1,   Thibault%Pamart%NULL%1,   Marjorie%Richardson%NULL%1,   Augustin%Coisne%NULL%1,   Adrien%Hertault%NULL%1,   Jonathan%Sobocinski%NULL%1,   Thomas%Modine%NULL%1,   François%Pontana%NULL%1,   Alain%Duhamel%NULL%0,   Julien%Labreuche%NULL%0,   Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1,  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1,  Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,   Yimei%Yin%18256985@qq.com%1,   Chang%Hu%1391369733@qq.com%2,   Xing%Liu%375117565@qq.com%1,   Xingguo%Zhang%zhangxinguo7909@163.com%1,   Shuliang%Zhou%350925556@qq.com%1,   Mingzhi%Jian%Jmzhak@aliyun.com%1,   Haibo%Xu%xuhaibo1120@hotmail.com%1,   John%Prowle%j.prowle@qmul.ac.uk%1,   Bo%Hu%hobbier1979@163.com%1,   Yirong%Li%liyirong838@163.com%2,   Zhiyong%Peng%Pengzy5@hotmail.com%3]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,   Xiao-Xin%Wu%NULL%0,   Xian-Gao%Jiang%NULL%0,   Kai-Jin%Xu%NULL%0,   Ling-Jun%Ying%NULL%0,   Chun-Lian%Ma%NULL%0,   Shi-Bo%Li%NULL%0,   Hua-Ying%Wang%NULL%0,   Sheng%Zhang%NULL%0,   Hai-Nv%Gao%NULL%0,   Ji-Fang%Sheng%NULL%0,   Hong-Liu%Cai%NULL%0,   Yun-Qing%Qiu%NULL%0,   Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,   Chang%Hu%NULL%0,   Linjie%Luo%NULL%1,   Fang%Fang%NULL%1,   Yongfeng%Chen%NULL%1,   Jianguo%Li%NULL%1,   Zhiyong%Peng%NULL%0,   Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,   Chun%Liao%lc7spring@163.com%1,   Qi-hong%Fan%1187286305@qq.com%1,   Hong-bo%Chen%hbchen@hust.edu.cn%1,   Xue-gong%Zhao%NULL%1,   Zhong-guo%Xie%NULL%1,   Xi-lin%Li%NULL%1,   Chun-xi%Chen%NULL%1,   Xiao-xia%Lu%NULL%1,   Zhi-sheng%Liu%NULL%1,   Wei%Lu%NULL%1,   Chun-bao%Chen%NULL%1,   Rong%Jiao%NULL%1,   Ai-ming%Zhang%NULL%1,   Jin-tang%Wang%NULL%1,   Xi-wei%Ding%NULL%1,   Yao-guang%Zeng%NULL%1,   Li-ping%Cheng%NULL%1,   Qing-feng%Huang%NULL%1,   Jiang%Wu%NULL%0,   Xi-chang%Luo%NULL%1,   Zhu-jun%Wang%NULL%1,   Yan-yan%Zhong%NULL%1,   Yan%Bai%yanbaixh@hust.edu.cn%1,   Xiao-yan%Wu%xwu@hust.edu.cn%1,   Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%0,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%0,   Jie%Xiang%NULL%0,   Yeming%Wang%NULL%0,   Bin%Song%NULL%0,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%0,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%0,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%0,   Yi%Zhang%NULL%0,   Hua%Chen%NULL%0,   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,   Mengqi%Tu%NULL%1,   Shipei%Wang%NULL%1,   Sichao%Chen%NULL%1,   Wei%Zhou%NULL%2,   Danyang%Chen%NULL%1,   Lin%Zhou%NULL%1,   Min%Wang%NULL%1,   Yan%Zhao%NULL%1,   Wen%Zeng%NULL%1,   Qi%Huang%NULL%1,   Hai'bo%Xu%NULL%1,   Zeming%Liu%NULL%1,   Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,   Yuan%Yu%NULL%0,   Jiqian%Xu%NULL%0,   Huaqing%Shu%NULL%0,   Jia'an%Xia%NULL%0,   Hong%Liu%NULL%0,   Yongran%Wu%NULL%0,   Lu%Zhang%NULL%0,   Zhui%Yu%NULL%0,   Minghao%Fang%NULL%0,   Ting%Yu%NULL%0,   Yaxin%Wang%NULL%0,   Shangwen%Pan%NULL%0,   Xiaojing%Zou%NULL%0,   Shiying%Yuan%NULL%0,   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,   Wei-jie%Guan%NULL%1,   Cai-chen%Li%NULL%0,   Yi-min%Li%NULL%0,   Heng-rui%Liang%NULL%0,   Yi%Zhao%NULL%0,   Xiao-qing%Liu%NULL%0,   Ling%Sang%NULL%0,   Ru-chong%Chen%NULL%0,   Chun-li%Tang%NULL%0,   Tao%Wang%NULL%0,   Wei%Wang%NULL%0,   Qi-hua%He%NULL%1,   Zi-sheng%Chen%NULL%0,   Sook-San%Wong%NULL%1,   Mark%Zanin%NULL%1,   Jun%Liu%NULL%0,   Xin%Xu%NULL%0,   Jun%Huang%NULL%1,   Jian-fu%Li%NULL%0,   Li-min%Ou%NULL%0,   Bo%Cheng%NULL%0,   Shan%Xiong%NULL%0,   Zhan-hong%Xie%NULL%1,   Zheng-yi%Ni%NULL%0,   Yu%Hu%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chun-liang%Lei%NULL%0,   Yi-xiang%Peng%NULL%0,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Ya-hua%Hu%NULL%0,   Peng%Peng%NULL%0,   Jian-ming%Wang%NULL%0,   Ji-yang%Liu%NULL%0,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhi-jian%Zheng%NULL%0,   Shao-qin%Qiu%NULL%0,   Jie%Luo%NULL%0,   Chang-jiang%Ye%NULL%0,   Shao-yong%Zhu%NULL%0,   Lin-ling%Cheng%NULL%0,   Feng%Ye%NULL%0,   Shi-yue%Li%NULL%0,   Jin-ping%Zheng%NULL%0,   Nuo-fu%Zhang%NULL%0,   Nan-shan%Zhong%NULL%0,   Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,   Simon A%Jones%NULL%0,   Jie%Yang%NULL%0,   Harish%Rajagopalan%NULL%0,   Luke%O’Donnell%NULL%0,   Yelena%Chernyak%NULL%0,   Katie A%Tobin%NULL%0,   Robert J%Cerfolio%NULL%0,   Fritz%Francois%NULL%0,   Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0,   Stephanie%Bialek%NULL%0,   Ellen%Boundy%NULL%0,   Virginia%Bowen%NULL%0,   Nancy%Chow%NULL%0,   Amanda%Cohn%NULL%0,   Nicole%Dowling%NULL%0,   Sascha%Ellington%NULL%0,   Ryan%Gierke%NULL%0,   Aron%Hall%NULL%0,   Jessica%MacNeil%NULL%0,   Priti%Patel%NULL%0,   Georgina%Peacock%NULL%0,   Tamara%Pilishvili%NULL%0,   Hilda%Razzaghi%NULL%0,   Nia%Reed%NULL%0,   Matthew%Ritchey%NULL%0,   Erin%Sauber-Schatz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,   Pedro%Póvoa%NULL%1,   Vicente%Souza-Dantas%NULL%1,   André C.%Kalil%NULL%1,   Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,   Graeme%MacLaren%NULL%1,   Philip S%Boonstra%NULL%1,   Theodore J%Iwashyna%NULL%1,   Arthur S%Slutsky%NULL%1,   Eddy%Fan%NULL%1,   Robert H%Bartlett%NULL%1,   Joseph E%Tonna%NULL%1,   Robert%Hyslop%NULL%1,   Jeffrey J%Fanning%NULL%1,   Peter T%Rycus%NULL%1,   Steve J%Hyer%NULL%1,   Marc M%Anders%NULL%1,   Cara L%Agerstrand%NULL%1,   Katarzyna%Hryniewicz%NULL%1,   Rodrigo%Diaz%NULL%1,   Roberto%Lorusso%NULL%1,   Alain%Combes%NULL%0,   Daniel%Brodie%NULL%1,   Peta%Alexander%NULL%1,   Nicholas%Barrett%NULL%1,   Jan%Bělohlávek%NULL%1,   Dale%Fisher%NULL%1,   John%Fraser%NULL%1,   Ali Ait%Hssain%NULL%1,   Jae Sung%Jung%NULL%1,   Michael%McMullan%NULL%1,   Yatin%Mehta%NULL%1,   Mark T.%Ogino%NULL%1,   Matthew L.%Paden%NULL%1,   Kiran%Shekar%NULL%1,   Christine%Stead%NULL%1,   Yasir%Abu-Omar%NULL%1,   Vanni%Agnoletti%NULL%1,   Anzila%Akbar%NULL%1,   Huda%Alfoudri%NULL%1,   Carlos%Alviar%NULL%1,   Vladimir%Aronsky%NULL%1,   Erin%August%NULL%1,   Georg%Auzinger%NULL%1,   Hilda%Aveja%NULL%1,   Rhonda%Bakken%NULL%1,   Joan%Balcells%NULL%1,   Sripal%Bangalore%NULL%0,   Bernard W.%Barnes%NULL%1,   Alaiza%Bautista%NULL%1,   Lorraine L.%Bellows%NULL%1,   Felipe%Beltran%NULL%1,   Peyman%Benharash%NULL%1,   Marco%Benni%NULL%1,   Jennifer%Berg%NULL%1,   Pietro%Bertini%NULL%1,   Pablo%Blanco-Schweizer%NULL%1,   Melissa%Brunsvold%NULL%1,   Jenny%Budd%NULL%1,   Debra%Camp%NULL%1,   Mark%Caridi-Scheible%NULL%0,   Edmund%Carton%NULL%1,   Elena%Casanova-Ghosh%NULL%1,   Anthony%Castleberry%NULL%1,   Christopher T.%Chipongian%NULL%1,   Chang Woo%Choi%NULL%1,   Alessandro%Circelli%NULL%1,   Elliott%Cohen%NULL%1,   Michael%Collins%NULL%1,   Scott%Copus%NULL%1,   Jill%Coy%NULL%1,   Brandon%Crist%NULL%1,   Leonora%Cruz%NULL%1,   Mirosław%Czuczwar%NULL%1,   Mani%Daneshmand%NULL%1,   Daniel%Davis II%NULL%1,   Kim%De la Cruz%NULL%1,   Cyndie%Devers%NULL%1,   Toni%Duculan%NULL%1,   Lucian%Durham%NULL%1,   Subbarao%Elapavaluru%NULL%1,   Carlos V.%Elzo Kraemer%NULL%1,   EDMÍLSON CARDOSO%Filho%NULL%1,   Jillian%Fitzgerald%NULL%1,   Giuseppe%Foti%NULL%1,   Matthew%Fox%NULL%1,   David%Fritschen%NULL%1,   David%Fullerton%NULL%1,   Elton%Gelandt%NULL%1,   Stacy%Gerle%NULL%1,   Marco%Giani%NULL%1,   Si Guim%Goh%NULL%1,   Sara%Govener%NULL%1,   Julie%Grone%NULL%1,   Miles%Guber%NULL%1,   Vadim%Gudzenko%NULL%1,   Daniel%Gutteridge%NULL%1,   Jennifer%Guy%NULL%1,   Jonathan%Haft%NULL%1,   Cameron%Hall%NULL%1,   Ibrahim Fawzy%Hassan%NULL%1,   Rubén%Herrán%NULL%1,   Hitoshi%Hirose%NULL%2,   Abdulsalam Saif%Ibrahim%NULL%1,   Don%Igielski%NULL%1,   Felicia A.%Ivascu%NULL%1,   Jaume%Izquierdo Blasco%NULL%1,   Julie%Jackson%NULL%1,   Harsh%Jain%NULL%1,   Bhavini%Jaiswal%NULL%1,   Andrea C.%Johnson%NULL%1,   Jenniver A.%Jurynec%NULL%1,   Norma M%Kellter%NULL%1,   Adam%Kohl%NULL%1,   Zachary%Kon%NULL%1,   Markus%Kredel%NULL%1,   Karen%Kriska%NULL%1,   Chandra%Kunavarapu%NULL%1,   Oude%Lansink-Hartgring%NULL%1,   Jeliene%LaRocque%NULL%1,   Sharon Beth%Larson%NULL%1,   Tracie%Layne%NULL%1,   Stephane%Ledot%NULL%1,   Napolitan%Lena%NULL%1,   Jonathan%Lillie%NULL%1,   Gösta%Lotz%NULL%1,   Mark%Lucas%NULL%1,   Lee%Ludwigson%NULL%1,   Jacinta J.%Maas%NULL%1,   Joanna%Maertens%NULL%1,   David%Mast%NULL%1,   Scott%McCardle%NULL%1,   Bernard%McDonald%NULL%1,   Allison%McLarty%NULL%1,   Chelsea%McMahon%NULL%1,   Patrick%Meybohm%NULL%1,   Bart%Meyns%NULL%1,   Casey%Miller%NULL%1,   Fernando%Moraes Neto%NULL%1,   Kelly%Morris%NULL%1,   Ralf%Muellenbach%NULL%1,   Meghan%Nicholson%NULL%1,   Serena%O'Brien%NULL%1,   Kathryn%O'Keefe%NULL%1,   Tawnya%Ogston%NULL%1,   Gary%Oldenburg%NULL%1,   Fabiana M.%Oliveira%NULL%1,   Emily%Oppel%NULL%1,   Diego%Pardo%NULL%2,   Diego%Pardo%NULL%0,   Sara J.%Parker%NULL%1,   Finn M.%Pedersen%NULL%1,   Crescens%Pellecchia%NULL%1,   Jose A.S.%Pelligrini%NULL%1,   Thao T.N.%Pham%NULL%1,   Ann R.%Phillips%NULL%1,   Tasneem%Pirani%NULL%1,   Paweł%Piwowarczyk%NULL%1,   Robert%Plambeck%NULL%1,   William%Pruett%NULL%1,   Brittany%Quandt%NULL%1,   Kollengode%Ramanathan%NULL%1,   Alejandro%Rey%NULL%1,   Christian%Reyher%NULL%1,   Jordi%Riera del Brio%NULL%1,   Rachel%Roberts%NULL%1,   David%Roe%NULL%1,   Peter P.%Roeleveld%NULL%1,   Janet%Rudy%NULL%1,   Luis F.%Rueda%NULL%1,   Emanuele%Russo%NULL%1,   Jesús%Sánchez Ballesteros%NULL%1,   Nancy%Satou%NULL%1,   Mauricio Guidi%Saueressig%NULL%1,   Paul C.%Saunders%NULL%1,   Margaret%Schlotterbeck%NULL%1,   Patricia%Schwarz%NULL%1,   Nicole%Scriven%NULL%1,   Alexis%Serra%NULL%1,   Mohammad%Shamsah%NULL%1,   Lucy%Sim%NULL%1,   Alexandra%Smart%NULL%1,   Adam%Smith%NULL%1,   Deane%Smith%NULL%1,   Maggie%Smith%NULL%1,   Neel%Sodha%NULL%1,   Michael%Sonntagbauer%NULL%1,   Marc%Sorenson%NULL%1,   Eric B%Stallkamp%NULL%1,   Allison%Stewart%NULL%1,   Kathy%Swartz%NULL%1,   Koji%Takeda%NULL%1,   Shaun%Thompson%NULL%1,   Bridget%Toy%NULL%1,   Divina%Tuazon%NULL%1,   Makoto%Uchiyama%NULL%1,   Obiora I.%Udeozo%NULL%1,   Scott%van Poppel%NULL%1,   Corey%Ventetuolo%NULL%1,   Leen%Vercaemst%NULL%1,   Nguyen V.%Vinh Chau%NULL%1,   I-Wen%Wang%NULL%1,   Carrie%Williamson%NULL%1,   Brock%Wilson%NULL%1,   Helen%Winkels%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1292,6 +1382,9 @@
       <c r="H1" t="s">
         <v>44</v>
       </c>
+      <c r="I1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1318,6 +1411,9 @@
       <c r="H2" t="s">
         <v>45</v>
       </c>
+      <c r="I2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
@@ -1333,7 +1429,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="F3" t="s">
         <v>49</v>
@@ -1343,6 +1439,9 @@
       </c>
       <c r="H3" t="s">
         <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4">
@@ -1359,16 +1458,19 @@
         <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -1385,7 +1487,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1395,6 +1497,9 @@
       </c>
       <c r="H5" t="s">
         <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="6">
@@ -1411,7 +1516,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1421,6 +1526,9 @@
       </c>
       <c r="H6" t="s">
         <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="7">
@@ -1448,6 +1556,9 @@
       <c r="H7" t="s">
         <v>45</v>
       </c>
+      <c r="I7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
@@ -1463,16 +1574,19 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="H8" t="s">
         <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="9">
@@ -1489,7 +1603,7 @@
         <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="F9" t="s">
         <v>69</v>
@@ -1499,6 +1613,9 @@
       </c>
       <c r="H9" t="s">
         <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="10">
@@ -1515,7 +1632,7 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
         <v>73</v>
@@ -1525,6 +1642,9 @@
       </c>
       <c r="H10" t="s">
         <v>74</v>
+      </c>
+      <c r="I10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="11">
@@ -1541,7 +1661,7 @@
         <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="F11" t="s">
         <v>78</v>
@@ -1551,6 +1671,9 @@
       </c>
       <c r="H11" t="s">
         <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="12">
@@ -1567,7 +1690,7 @@
         <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="F12" t="s">
         <v>82</v>
@@ -1577,6 +1700,9 @@
       </c>
       <c r="H12" t="s">
         <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="13">
@@ -1593,7 +1719,7 @@
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="F13" t="s">
         <v>86</v>
@@ -1603,6 +1729,9 @@
       </c>
       <c r="H13" t="s">
         <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1748,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1629,6 +1758,9 @@
       </c>
       <c r="H14" t="s">
         <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="15">
@@ -1645,7 +1777,7 @@
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -1655,6 +1787,9 @@
       </c>
       <c r="H15" t="s">
         <v>95</v>
+      </c>
+      <c r="I15" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="16">
@@ -1671,16 +1806,19 @@
         <v>166</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
         <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17">
@@ -1697,7 +1835,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -1707,6 +1845,9 @@
       </c>
       <c r="H17" t="s">
         <v>100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="18">
@@ -1734,6 +1875,9 @@
       <c r="H18" t="s">
         <v>45</v>
       </c>
+      <c r="I18" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
@@ -1749,7 +1893,7 @@
         <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F19" t="s">
         <v>104</v>
@@ -1759,6 +1903,9 @@
       </c>
       <c r="H19" t="s">
         <v>105</v>
+      </c>
+      <c r="I19" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="20">
@@ -1775,7 +1922,7 @@
         <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="F20" t="s">
         <v>109</v>
@@ -1785,6 +1932,9 @@
       </c>
       <c r="H20" t="s">
         <v>110</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="21">
@@ -1801,7 +1951,7 @@
         <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="F21" t="s">
         <v>114</v>
@@ -1811,6 +1961,9 @@
       </c>
       <c r="H21" t="s">
         <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="22">
@@ -1827,7 +1980,7 @@
         <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="F22" t="s">
         <v>118</v>
@@ -1837,6 +1990,9 @@
       </c>
       <c r="H22" t="s">
         <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="23">
@@ -1853,7 +2009,7 @@
         <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="F23" t="s">
         <v>122</v>
@@ -1863,6 +2019,9 @@
       </c>
       <c r="H23" t="s">
         <v>123</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="24">
@@ -1879,7 +2038,7 @@
         <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="F24" t="s">
         <v>127</v>
@@ -1889,6 +2048,9 @@
       </c>
       <c r="H24" t="s">
         <v>45</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="25">
@@ -1905,7 +2067,7 @@
         <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="F25" t="s">
         <v>131</v>
@@ -1915,6 +2077,9 @@
       </c>
       <c r="H25" t="s">
         <v>132</v>
+      </c>
+      <c r="I25" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="26">
@@ -1931,7 +2096,7 @@
         <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -1941,6 +2106,9 @@
       </c>
       <c r="H26" t="s">
         <v>137</v>
+      </c>
+      <c r="I26" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="27">
@@ -1957,7 +2125,7 @@
         <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="F27" t="s">
         <v>140</v>
@@ -1967,6 +2135,9 @@
       </c>
       <c r="H27" t="s">
         <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="28">
@@ -1983,7 +2154,7 @@
         <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="F28" t="s">
         <v>144</v>
@@ -1993,6 +2164,9 @@
       </c>
       <c r="H28" t="s">
         <v>145</v>
+      </c>
+      <c r="I28" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="29">
@@ -2009,7 +2183,7 @@
         <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F29" t="s">
         <v>149</v>
@@ -2019,6 +2193,9 @@
       </c>
       <c r="H29" t="s">
         <v>45</v>
+      </c>
+      <c r="I29" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/48.xlsx
+++ b/Covid_19_Dataset_and_References/References/48.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E30878-F898-4A07-8921-25E8193A54D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="261">
   <si>
     <t>Doi</t>
   </si>
@@ -175,9 +182,6 @@
 Integrating a multidisciplinary Heart Team into institutional practice is feasible and provides a formalized approach to evaluating complex coronary artery disease patients.
  The comprehensive assessment of surgical, anatomical, and other risk scores using a decision aid may guide appropriate, evidence‐based management within this team‐based construct.
 </t>
-  </si>
-  <si>
-    <t>[Michael N.%Young%NULL%1, Dhaval%Kolte%NULL%1, Mary E.%Cadigan%NULL%1, Elizabeth%Laikhter%NULL%1, Kevin%Sinclair%NULL%1, Eugene%Pomerantsev%NULL%1, Michael A.%Fifer%NULL%1, Thoralf M.%Sundt%NULL%1, Robert W.%Yeh%NULL%1, Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
   </si>
   <si>
     <t>PMC7428540</t>
@@ -222,9 +226,6 @@
 </t>
   </si>
   <si>
-    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%0, Xingwang%Li%NULL%1, Lili%Ren%NULL%0, Jianping%Zhao%NULL%1, Yi%Hu%NULL%1, Li%Zhang%NULL%0, Guohui%Fan%NULL%0, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%0, Zhenshun%Cheng%NULL%2, Ting%Yu%NULL%0, Jiaan%Xia%NULL%1, Yuan%Wei%NULL%0, Wenjuan%Wu%NULL%1, Xuelei%Xie%NULL%1, Wen%Yin%NULL%1, Hui%Li%NULL%0, Min%Liu%NULL%0, Yan%Xiao%NULL%1, Hong%Gao%NULL%1, Li%Guo%NULL%1, Jungang%Xie%NULL%1, Guangfa%Wang%NULL%1, Rongmeng%Jiang%NULL%1, Zhancheng%Gao%NULL%1, Qi%Jin%NULL%1, Jianwei%Wang%wangjw28@163.com%1, Bin%Cao%caobin_ben@163.com%0]</t>
-  </si>
-  <si>
     <t>PMC7159299</t>
   </si>
   <si>
@@ -249,9 +250,6 @@
  Further studies are required to explore the role of Kaletra and TCM in the treatment of COVID‐19.</t>
   </si>
   <si>
-    <t>[Suxin%Wan%NULL%0, Yi%Xiang%NULL%0, Wei%Fang%NULL%0, Yu%Zheng%yuzheng1@cdutcm.edu.cn%0, Boqun%Li%279685211@qq.com%0, Boqun%Li%279685211@qq.com%0, Yanjun%Hu%huyanjun@163.com%0, Chunhui%Lang%NULL%0, Daoqiu%Huang%NULL%0, Qiuyan%Sun%NULL%0, Yan%Xiong%NULL%0, Xia%Huang%NULL%0, Jinglong%Lv%NULL%0, Yaling%Luo%NULL%0, Li%Shen%NULL%0, Haoran%Yang%NULL%0, Gu%Huang%NULL%0, Ruishan%Yang%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7228368</t>
   </si>
   <si>
@@ -262,12 +260,6 @@
   </si>
   <si>
     <t xml:space="preserve">We report preliminary data from a cohort of adults admitted to COVID-designated intensive care units from March 6 through April 17, 2020 across an academic healthcare system. Among 217 critically ill patients, mortality for those who required mechanical ventilation was 29.7% (49/165), with 8.5% (14/165) of patients still on the ventilator at the time of this report. Overall mortality to date in this critically ill cohort is 25.8% (56/217), and 40.1% (87/217) patients have survived to hospital discharge. Despite multiple reports of mortality rates exceeding 50% among critically ill adults with COVID-19, particularly among those requiring mechanical ventilation, our early experience indicates that many patients survive their critical illness. </t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0, Mark%Caridi-Scheible%NULL%2, James M.%Blum%NULL%1, Chad%Robichaux%NULL%1, Colleen%Kraft%NULL%1, Jesse T.%Jacob%NULL%1, Craig S.%Jabaley%NULL%1, David%Carpenter%NULL%1, Roberta%Kaplow%NULL%1, Alfonso C.%Hernandez-Romieu%NULL%1, Max W.%Adelman%NULL%1, Greg S.%Martin%NULL%1, Craig M.%Coopersmith%NULL%1, David J.%Murphy%NULL%1, NULL%NULL%NULL%0,  S.%Auld%null%1,  M.% Caridi-Scheible%null%1,  J. M.% Blum%null%1,  C. J.% Robichaux%null%1,  C. S.% Kraft%null%1,  J. T.% Jacob%null%1,  C. S.% Jabaley%null%1,  D.% Carpenter%null%1,  R.% Kaplow%null%1,  A. C.% Hernandez%null%1,  M. W.% Adelman%null%1,  G. S.% Martin%null%1,  C. M.% Coopersmith%null%1,  D. J.% Murphy%null%1,    % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
-  </si>
-  <si>
-    <t>medrxiv doi</t>
   </si>
   <si>
     <t>2020-04-26</t>
@@ -298,9 +290,6 @@
 </t>
   </si>
   <si>
-    <t>[Pavan K.%Bhatraju%NULL%0, Bijan J.%Ghassemieh%NULL%1, Michelle%Nichols%NULL%1, Richard%Kim%NULL%1, Keith R.%Jerome%NULL%1, Arun K.%Nalla%NULL%1, Alexander L.%Greninger%NULL%1, Sudhakar%Pipavath%NULL%1, Mark M.%Wurfel%NULL%1, Laura%Evans%NULL%1, Patricia A.%Kritek%NULL%1, T. Eoin%West%NULL%1, Andrew%Luks%NULL%1, Anthony%Gerbino%NULL%1, Chris R.%Dale%NULL%1, Jason D.%Goldman%NULL%1, Shane%O’Mahony%NULL%1, Carmen%Mikacenic%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7143164</t>
   </si>
   <si>
@@ -311,9 +300,6 @@
               •
               Most of the COVID-19 cases are mild.
 </t>
-  </si>
-  <si>
-    <t>[Jun%Chen%NULL%0, Tangkai%Qi%NULL%1, Li%Liu%NULL%1, Yun%Ling%NULL%1, Zhiping%Qian%NULL%1, Tao%Li%NULL%1, Feng%Li%NULL%1, Qingnian%Xu%NULL%1, Yuyi%Zhang%NULL%1, Shuibao%Xu%NULL%1, Zhigang%Song%NULL%1, Yigang%Zeng%NULL%1, Yinzhong%Shen%NULL%0, Yuxin%Shi%NULL%1, Tongyu%Zhu%NULL%1, Hongzhou%Lu%NULL%1]</t>
   </si>
   <si>
     <t>PMC7102530</t>
@@ -348,9 +334,6 @@
 </t>
   </si>
   <si>
-    <t>[Nanshan%Chen%NULL%0, Min%Zhou%NULL%0, Xuan%Dong%NULL%0, Jieming%Qu%NULL%0, Fengyun%Gong%NULL%0, Yang%Han%NULL%0, Yang%Qiu%NULL%0, Jingli%Wang%NULL%0, Ying%Liu%NULL%0, Yuan%Wei%NULL%0, Jia'an%Xia%NULL%0, Ting%Yu%NULL%0, Xinxin%Zhang%NULL%0, Li%Zhang%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7135076</t>
   </si>
   <si>
@@ -380,9 +363,6 @@
 </t>
   </si>
   <si>
-    <t>[Wei-jie%Guan%NULL%0, Zheng-yi%Ni%NULL%0, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%0, Wen-hua%Liang%NULL%0, Chun-quan%Ou%NULL%0, Jian-xing%He%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%0, David S.C.%Hui%NULL%0, Bin%Du%NULL%0, Lan-juan%Li%NULL%0, Guang%Zeng%NULL%0, Kwok-Yung%Yuen%NULL%0, Ru-chong%Chen%NULL%0, Chun-li%Tang%NULL%0, Tao%Wang%NULL%0, Ping-yan%Chen%NULL%0, Jie%Xiang%NULL%0, Shi-yue%Li%NULL%0, Jin-lin%Wang%NULL%0, Zi-jing%Liang%NULL%0, Yi-xiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Ya-hua%Hu%NULL%0, Peng%Peng%NULL%0, Jian-ming%Wang%NULL%0, Ji-yang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhi-jian%Zheng%NULL%0, Shao-qin%Qiu%NULL%0, Jie%Luo%NULL%0, Chang-jiang%Ye%NULL%0, Shao-yong%Zhu%NULL%0, Nan-shan%Zhong%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7092819</t>
   </si>
   <si>
@@ -403,9 +383,6 @@
 Nearly 50% COVID-19 patients could not reach obvious clinical and radiological remission within 10 days after hospitalization.
  The patients with male sex, anorexia and no fever on admission predicted poor efficacy.
 </t>
-  </si>
-  <si>
-    <t>[Pingzheng%Mo%NULL%0, Yuanyuan%Xing%NULL%0, Yu%Xiao%NULL%1, Liping%Deng%NULL%1, Qiu%Zhao%NULL%1, Hongling%Wang%NULL%1, Yong%Xiong%NULL%1, Zhenshun%Cheng%NULL%0, Shicheng%Gao%NULL%1, Ke%Liang%NULL%1, Mingqi%Luo%NULL%1, Tielong%Chen%NULL%1, Shihui%Song%NULL%1, Zhiyong%Ma%NULL%1, Xiaoping%Chen%NULL%1, Ruiying%Zheng%NULL%1, Qian%Cao%NULL%1, Fan%Wang%fanndywang@foxmail.com%1, Yongxi%Zhang%znact1936@126.com%1]</t>
   </si>
   <si>
     <t>PMC7184444</t>
@@ -436,9 +413,6 @@
 </t>
   </si>
   <si>
-    <t>[G -Q%Qian%NULL%0, N -B%Yang%NULL%1, F%Ding%NULL%1, A H Y%Ma%NULL%1, Z -Y%Wang%NULL%2, Y -F%Shen%NULL%1, C -W%Shi%NULL%1, X%Lian%NULL%1, J -G%Chu%NULL%1, L%Chen%chxmin@hotmail.com%1, Z -Y%Wang%NULL%0, D -W%Ren%NULL%1, G -X%Li%NULL%1, X -Q%Chen%chxmin@hotmail.com%1, H -J%Shen%NULL%1, X -M%Chen%chxmin@hotmail.com%1]</t>
-  </si>
-  <si>
     <t>PMC7184349</t>
   </si>
   <si>
@@ -463,9 +437,6 @@
 gov.
  Unique identifier: NCT02628509.
 </t>
-  </si>
-  <si>
-    <t>[Flavien%Vincent%NULL%1, Hugues%Spillemaeker%NULL%1, Maéva%Kyheng%NULL%1, Cassandre%Belin‐Vincent%NULL%1, Cédric%Delhaye%NULL%1, Adeline%Piérache%NULL%1, Tom%Denimal%NULL%1, Basile%Verdier%NULL%1, Nicolas%Debry%NULL%1, Mouhamed%Moussa%NULL%1, Guillaume%Schurtz%NULL%1, Sina%Porouchani%NULL%1, Alessandro%Cosenza%NULL%1, Francis%Juthier%NULL%1, Thibault%Pamart%NULL%1, Marjorie%Richardson%NULL%1, Augustin%Coisne%NULL%1, Adrien%Hertault%NULL%1, Jonathan%Sobocinski%NULL%1, Thomas%Modine%NULL%1, François%Pontana%NULL%1, Alain%Duhamel%NULL%1, Julien%Labreuche%NULL%1, Eric%Van Belle%ericvanbelle@aol.com%1]</t>
   </si>
   <si>
     <t>PMC7335526</t>
@@ -501,9 +472,6 @@
 </t>
   </si>
   <si>
-    <t>[Dawei%Wang%wdw_syr@163.com%1, Yimei%Yin%18256985@qq.com%1, Chang%Hu%1391369733@qq.com%2, Xing%Liu%375117565@qq.com%1, Xingguo%Zhang%zhangxinguo7909@163.com%1, Shuliang%Zhou%350925556@qq.com%1, Mingzhi%Jian%Jmzhak@aliyun.com%1, Haibo%Xu%xuhaibo1120@hotmail.com%1, John%Prowle%j.prowle@qmul.ac.uk%1, Bo%Hu%hobbier1979@163.com%0, Yirong%Li%liyirong838@163.com%1, Zhiyong%Peng%Pengzy5@hotmail.com%2]</t>
-  </si>
-  <si>
     <t>PMC7192564</t>
   </si>
   <si>
@@ -536,9 +504,6 @@
 </t>
   </si>
   <si>
-    <t>[Xiao-Wei%Xu%NULL%0, Xiao-Xin%Wu%NULL%1, Xian-Gao%Jiang%NULL%1, Kai-Jin%Xu%NULL%1, Ling-Jun%Ying%NULL%1, Chun-Lian%Ma%NULL%1, Shi-Bo%Li%NULL%1, Hua-Ying%Wang%NULL%1, Sheng%Zhang%NULL%1, Hai-Nv%Gao%NULL%1, Ji-Fang%Sheng%NULL%1, Hong-Liu%Cai%NULL%1, Yun-Qing%Qiu%NULL%1, Lan-Juan%Li%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7224340</t>
   </si>
   <si>
@@ -566,9 +531,6 @@
 </t>
   </si>
   <si>
-    <t>[Guqin%Zhang%NULL%0, Chang%Hu%NULL%0, Linjie%Luo%NULL%1, Fang%Fang%NULL%0, Yongfeng%Chen%NULL%1, Jianguo%Li%NULL%1, Zhiyong%Peng%NULL%0, Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
-  </si>
-  <si>
     <t>PMC7194884</t>
   </si>
   <si>
@@ -593,9 +555,6 @@
  It was concluded that children were susceptible to COVID-19 like adults, while the clinical presentations and outcomes were more favorable in children.
  However, children less than 3 years old accounted for majority cases and critical cases lied in this age group, which demanded extra attentions during home caring and hospitalization treatment.
 </t>
-  </si>
-  <si>
-    <t>[Fang%Zheng%fangzheng99@sina.cn%1, Chun%Liao%lc7spring@163.com%1, Qi-hong%Fan%1187286305@qq.com%1, Hong-bo%Chen%hbchen@hust.edu.cn%1, Xue-gong%Zhao%NULL%1, Zhong-guo%Xie%NULL%1, Xi-lin%Li%NULL%1, Chun-xi%Chen%NULL%1, Xiao-xia%Lu%NULL%1, Zhi-sheng%Liu%NULL%1, Wei%Lu%NULL%1, Chun-bao%Chen%NULL%1, Rong%Jiao%NULL%1, Ai-ming%Zhang%NULL%1, Jin-tang%Wang%NULL%1, Xi-wei%Ding%NULL%1, Yao-guang%Zeng%NULL%1, Li-ping%Cheng%NULL%1, Qing-feng%Huang%NULL%1, Jiang%Wu%NULL%0, Xi-chang%Luo%NULL%1, Zhu-jun%Wang%NULL%1, Yan-yan%Zhong%NULL%1, Yan%Bai%yanbaixh@hust.edu.cn%1, Xiao-yan%Wu%xwu@hust.edu.cn%1, Run-ming%Jin%jinrunm@qq.com%1]</t>
   </si>
   <si>
     <t>PMC7095065</t>
@@ -624,9 +583,6 @@
 </t>
   </si>
   <si>
-    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%0, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%0, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%0, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%0, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%0, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%0, Yi%Zhang%NULL%0, Hua%Chen%NULL%0, Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7270627</t>
   </si>
   <si>
@@ -634,9 +590,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>[Yihui%Huang%NULL%0, Mengqi%Tu%NULL%1, Shipei%Wang%NULL%1, Sichao%Chen%NULL%1, Wei%Zhou%NULL%1, Danyang%Chen%NULL%1, Lin%Zhou%NULL%1, Min%Wang%NULL%1, Yan%Zhao%NULL%1, Wen%Zeng%NULL%1, Qi%Huang%NULL%1, Hai'bo%Xu%NULL%1, Zeming%Liu%NULL%1, Liang%Guo%NULL%1]</t>
   </si>
   <si>
     <t>PMC7102650</t>
@@ -674,9 +627,6 @@
 </t>
   </si>
   <si>
-    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%0, Jia'an%Xia%NULL%0, Hong%Liu%NULL%0, Yongran%Wu%NULL%0, Lu%Zhang%NULL%0, Zhui%Yu%NULL%0, Minghao%Fang%NULL%0, Ting%Yu%NULL%0, Yaxin%Wang%NULL%0, Shangwen%Pan%NULL%0, Xiaojing%Zou%NULL%0, Shiying%Yuan%NULL%0, You%Shang%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7102538</t>
   </si>
   <si>
@@ -701,9 +651,6 @@
 There were more severe cases and poorer outcomes for COVID-19 patients treated in Hubei, which might be attributed to the prolonged duration of symptom onset to hospitalisation in the epicentre.
  Future studies to determine the reason for delaying hospitalisation are warranted.
 </t>
-  </si>
-  <si>
-    <t>[Wen-hua%Liang%NULL%0, Wei-jie%Guan%NULL%0, Cai-chen%Li%NULL%1, Yi-min%Li%NULL%1, Heng-rui%Liang%NULL%1, Yi%Zhao%NULL%1, Xiao-qing%Liu%NULL%1, Ling%Sang%NULL%1, Ru-chong%Chen%NULL%0, Chun-li%Tang%NULL%0, Tao%Wang%NULL%0, Wei%Wang%NULL%1, Qi-hua%He%NULL%1, Zi-sheng%Chen%NULL%1, Sook-San%Wong%NULL%1, Mark%Zanin%NULL%1, Jun%Liu%NULL%1, Xin%Xu%NULL%1, Jun%Huang%NULL%1, Jian-fu%Li%NULL%1, Li-min%Ou%NULL%1, Bo%Cheng%NULL%1, Shan%Xiong%NULL%1, Zhan-hong%Xie%NULL%1, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%0, Yi-xiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Ya-hua%Hu%NULL%0, Peng%Peng%NULL%0, Jian-ming%Wang%NULL%0, Ji-yang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhi-jian%Zheng%NULL%0, Shao-qin%Qiu%NULL%0, Jie%Luo%NULL%0, Chang-jiang%Ye%NULL%0, Shao-yong%Zhu%NULL%0, Lin-ling%Cheng%NULL%1, Feng%Ye%NULL%1, Shi-yue%Li%NULL%0, Jin-ping%Zheng%NULL%1, Nuo-fu%Zhang%NULL%1, Nan-shan%Zhong%NULL%0, Jian-xing%He%NULL%0]</t>
   </si>
   <si>
     <t>PMC7144336</t>
@@ -744,9 +691,6 @@
 </t>
   </si>
   <si>
-    <t>[Christopher M%Petrilli%NULL%0, Simon A%Jones%NULL%1, Jie%Yang%NULL%0, Harish%Rajagopalan%NULL%1, Luke%O’Donnell%NULL%1, Yelena%Chernyak%NULL%1, Katie A%Tobin%NULL%1, Robert J%Cerfolio%NULL%1, Fritz%Francois%NULL%1, Leora I%Horwitz%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7243801</t>
   </si>
   <si>
@@ -754,9 +698,6 @@
   </si>
   <si>
     <t>Severe Outcomes Among Patients with Coronavirus Disease 2019 (COVID-19) — United States, February 12–March 16, 2020</t>
-  </si>
-  <si>
-    <t>[NULL%NULL%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0, Stephanie%Bialek%NULL%1, Ellen%Boundy%NULL%1, Virginia%Bowen%NULL%1, Nancy%Chow%NULL%1, Amanda%Cohn%NULL%1, Nicole%Dowling%NULL%1, Sascha%Ellington%NULL%0, Ryan%Gierke%NULL%1, Aron%Hall%NULL%1, Jessica%MacNeil%NULL%1, Priti%Patel%NULL%1, Georgina%Peacock%NULL%1, Tamara%Pilishvili%NULL%1, Hilda%Razzaghi%NULL%1, Nia%Reed%NULL%1, Matthew%Ritchey%NULL%1, Erin%Sauber-Schatz%NULL%1]</t>
   </si>
   <si>
     <t>PMC7725513</t>
@@ -783,9 +724,6 @@
 Conclusions
 This systematic review, including approximately 69 000 ICU patients, demonstrates that COVID-19 infection in critically ill patients is associated with great need for life-sustaining interventions, high mortality, and prolonged length of ICU stay.
 </t>
-  </si>
-  <si>
-    <t>[Rodrigo B.%Serafim%NULL%1, Pedro%Póvoa%NULL%1, Vicente%Souza-Dantas%NULL%1, André C.%Kalil%NULL%1, Jorge I.F.%Salluh%NULL%1]</t>
   </si>
   <si>
     <t>PMC7582054</t>
@@ -819,13 +757,7 @@
 </t>
   </si>
   <si>
-    <t>[Ryan P%Barbaro%NULL%1, Graeme%MacLaren%NULL%1, Philip S%Boonstra%NULL%1, Theodore J%Iwashyna%NULL%1, Arthur S%Slutsky%NULL%1, Eddy%Fan%NULL%1, Robert H%Bartlett%NULL%1, Joseph E%Tonna%NULL%1, Robert%Hyslop%NULL%1, Jeffrey J%Fanning%NULL%1, Peter T%Rycus%NULL%1, Steve J%Hyer%NULL%1, Marc M%Anders%NULL%1, Cara L%Agerstrand%NULL%1, Katarzyna%Hryniewicz%NULL%1, Rodrigo%Diaz%NULL%1, Roberto%Lorusso%NULL%1, Alain%Combes%NULL%1, Daniel%Brodie%NULL%1, Peta%Alexander%NULL%1, Nicholas%Barrett%NULL%1, Jan%Bělohlávek%NULL%1, Dale%Fisher%NULL%1, John%Fraser%NULL%1, Ali Ait%Hssain%NULL%1, Jae Sung%Jung%NULL%1, Michael%McMullan%NULL%1, Yatin%Mehta%NULL%1, Mark T.%Ogino%NULL%1, Matthew L.%Paden%NULL%1, Kiran%Shekar%NULL%1, Christine%Stead%NULL%1, Yasir%Abu-Omar%NULL%1, Vanni%Agnoletti%NULL%1, Anzila%Akbar%NULL%1, Huda%Alfoudri%NULL%1, Carlos%Alviar%NULL%1, Vladimir%Aronsky%NULL%1, Erin%August%NULL%1, Georg%Auzinger%NULL%1, Hilda%Aveja%NULL%1, Rhonda%Bakken%NULL%1, Joan%Balcells%NULL%1, Sripal%Bangalore%NULL%1, Bernard W.%Barnes%NULL%1, Alaiza%Bautista%NULL%1, Lorraine L.%Bellows%NULL%1, Felipe%Beltran%NULL%1, Peyman%Benharash%NULL%1, Marco%Benni%NULL%1, Jennifer%Berg%NULL%1, Pietro%Bertini%NULL%1, Pablo%Blanco-Schweizer%NULL%1, Melissa%Brunsvold%NULL%1, Jenny%Budd%NULL%1, Debra%Camp%NULL%1, Mark%Caridi-Scheible%NULL%0, Edmund%Carton%NULL%1, Elena%Casanova-Ghosh%NULL%1, Anthony%Castleberry%NULL%1, Christopher T.%Chipongian%NULL%1, Chang Woo%Choi%NULL%1, Alessandro%Circelli%NULL%1, Elliott%Cohen%NULL%1, Michael%Collins%NULL%1, Scott%Copus%NULL%1, Jill%Coy%NULL%1, Brandon%Crist%NULL%1, Leonora%Cruz%NULL%1, Mirosław%Czuczwar%NULL%1, Mani%Daneshmand%NULL%1, Daniel%Davis II%NULL%1, Kim%De la Cruz%NULL%1, Cyndie%Devers%NULL%1, Toni%Duculan%NULL%1, Lucian%Durham%NULL%1, Subbarao%Elapavaluru%NULL%1, Carlos V.%Elzo Kraemer%NULL%1, EDMÍLSON CARDOSO%Filho%NULL%1, Jillian%Fitzgerald%NULL%1, Giuseppe%Foti%NULL%1, Matthew%Fox%NULL%1, David%Fritschen%NULL%1, David%Fullerton%NULL%1, Elton%Gelandt%NULL%1, Stacy%Gerle%NULL%1, Marco%Giani%NULL%1, Si Guim%Goh%NULL%1, Sara%Govener%NULL%1, Julie%Grone%NULL%1, Miles%Guber%NULL%1, Vadim%Gudzenko%NULL%1, Daniel%Gutteridge%NULL%1, Jennifer%Guy%NULL%1, Jonathan%Haft%NULL%1, Cameron%Hall%NULL%1, Ibrahim Fawzy%Hassan%NULL%1, Rubén%Herrán%NULL%1, Hitoshi%Hirose%NULL%1, Abdulsalam Saif%Ibrahim%NULL%1, Don%Igielski%NULL%1, Felicia A.%Ivascu%NULL%1, Jaume%Izquierdo Blasco%NULL%1, Julie%Jackson%NULL%1, Harsh%Jain%NULL%1, Bhavini%Jaiswal%NULL%1, Andrea C.%Johnson%NULL%1, Jenniver A.%Jurynec%NULL%1, Norma M%Kellter%NULL%1, Adam%Kohl%NULL%1, Zachary%Kon%NULL%1, Markus%Kredel%NULL%1, Karen%Kriska%NULL%1, Chandra%Kunavarapu%NULL%1, Oude%Lansink-Hartgring%NULL%1, Jeliene%LaRocque%NULL%1, Sharon Beth%Larson%NULL%1, Tracie%Layne%NULL%1, Stephane%Ledot%NULL%1, Napolitan%Lena%NULL%1, Jonathan%Lillie%NULL%1, Gösta%Lotz%NULL%1, Mark%Lucas%NULL%1, Lee%Ludwigson%NULL%1, Jacinta J.%Maas%NULL%1, Joanna%Maertens%NULL%1, David%Mast%NULL%1, Scott%McCardle%NULL%1, Bernard%McDonald%NULL%1, Allison%McLarty%NULL%1, Chelsea%McMahon%NULL%1, Patrick%Meybohm%NULL%1, Bart%Meyns%NULL%1, Casey%Miller%NULL%1, Fernando%Moraes Neto%NULL%1, Kelly%Morris%NULL%1, Ralf%Muellenbach%NULL%1, Meghan%Nicholson%NULL%1, Serena%O'Brien%NULL%1, Kathryn%O'Keefe%NULL%1, Tawnya%Ogston%NULL%1, Gary%Oldenburg%NULL%1, Fabiana M.%Oliveira%NULL%1, Emily%Oppel%NULL%1, Diego%Pardo%NULL%2, Diego%Pardo%NULL%0, Sara J.%Parker%NULL%1, Finn M.%Pedersen%NULL%1, Crescens%Pellecchia%NULL%1, Jose A.S.%Pelligrini%NULL%1, Thao T.N.%Pham%NULL%1, Ann R.%Phillips%NULL%1, Tasneem%Pirani%NULL%1, Paweł%Piwowarczyk%NULL%1, Robert%Plambeck%NULL%1, William%Pruett%NULL%1, Brittany%Quandt%NULL%1, Kollengode%Ramanathan%NULL%1, Alejandro%Rey%NULL%1, Christian%Reyher%NULL%1, Jordi%Riera del Brio%NULL%1, Rachel%Roberts%NULL%1, David%Roe%NULL%1, Peter P.%Roeleveld%NULL%1, Janet%Rudy%NULL%1, Luis F.%Rueda%NULL%1, Emanuele%Russo%NULL%1, Jesús%Sánchez Ballesteros%NULL%1, Nancy%Satou%NULL%1, Mauricio Guidi%Saueressig%NULL%1, Paul C.%Saunders%NULL%1, Margaret%Schlotterbeck%NULL%1, Patricia%Schwarz%NULL%1, Nicole%Scriven%NULL%1, Alexis%Serra%NULL%1, Mohammad%Shamsah%NULL%1, Lucy%Sim%NULL%1, Alexandra%Smart%NULL%1, Adam%Smith%NULL%1, Deane%Smith%NULL%1, Maggie%Smith%NULL%1, Neel%Sodha%NULL%1, Michael%Sonntagbauer%NULL%1, Marc%Sorenson%NULL%1, Eric B%Stallkamp%NULL%1, Allison%Stewart%NULL%1, Kathy%Swartz%NULL%1, Koji%Takeda%NULL%1, Shaun%Thompson%NULL%1, Bridget%Toy%NULL%1, Divina%Tuazon%NULL%1, Makoto%Uchiyama%NULL%1, Obiora I.%Udeozo%NULL%1, Scott%van Poppel%NULL%1, Corey%Ventetuolo%NULL%1, Leen%Vercaemst%NULL%1, Nguyen V.%Vinh Chau%NULL%1, I-Wen%Wang%NULL%1, Carrie%Williamson%NULL%1, Brock%Wilson%NULL%1, Helen%Winkels%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7518880</t>
-  </si>
-  <si>
-    <t>[Michael N.%Young%NULL%1,  Dhaval%Kolte%NULL%1,  Mary E.%Cadigan%NULL%1,  Elizabeth%Laikhter%NULL%1,  Kevin%Sinclair%NULL%1,  Eugene%Pomerantsev%NULL%1,  Michael A.%Fifer%NULL%1,  Thoralf M.%Sundt%NULL%1,  Robert W.%Yeh%NULL%1,  Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
   </si>
   <si>
     <t>Baseline Characteristics and Outcomes of 1591 Patients Infected With SARS-CoV-2 Admitted to ICUs of the Lombardy Region, Italy</t>
@@ -848,42 +780,6 @@
  Among the 1581 patients with ICU disposition data available as of March 25, 2020, 920 patients (58% [95% CI, 56%-61%]) were still in the ICU, 256 (16% [95% CI, 14%-18%]) were discharged from the ICU, and 405 (26% [95% CI, 23%-28%]) had died in the ICU.
  Older patients (n\u2009=\u2009786; age \u226564 years) had higher mortality than younger patients (n\u2009=\u2009795; age \u226463 years) (36% vs 15%; difference, 21% [95% CI, 17%-26%]; P\u2009\u0026lt;\u2009.001).
 \r\n\r\nConclusions and Relevance  In this case series of critically ill patients with laboratory-confirmed COVID-19 admitted to ICUs in Lombardy, Italy, the majority were older men, a large proportion required mechanical ventilation and high levels of PEEP, and ICU mortality was 26%</t>
-  </si>
-  <si>
-    <t>[Antonelli%Massimo%coreGivesNoEmail%0, Cabrini%Luca%coreGivesNoEmail%0, Castelli%Antonio%coreGivesNoEmail%0, Cecconi%Maurizio%coreGivesNoEmail%0, Cereda%Danilo%coreGivesNoEmail%0, Coluccello%Antonio%coreGivesNoEmail%0, Foti%Giuseppe%coreGivesNoEmail%0, Fumagalli%Roberto%coreGivesNoEmail%0, Grasselli%Giacomo%coreGivesNoEmail%0, Iotti%Giorgio%coreGivesNoEmail%0, Latronico%Nicola%coreGivesNoEmail%0, Lorini%Luca%coreGivesNoEmail%0, Merler%Stefano%coreGivesNoEmail%0, Natalini%Giuseppe%coreGivesNoEmail%0, Pesenti%Antonio%coreGivesNoEmail%0, Piatti%Alessandra%coreGivesNoEmail%0, Ranieri%Marco Vito%coreGivesNoEmail%0, Scandroglio%Anna Mara%coreGivesNoEmail%0, Storti%Enrico%coreGivesNoEmail%0, Zanella%Alberto%coreGivesNoEmail%0, Zangrillo%Alberto%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>CORE</t>
-  </si>
-  <si>
-    <t>[Chaolin%Huang%NULL%0,  Yeming%Wang%NULL%0,  Xingwang%Li%NULL%0,  Lili%Ren%NULL%0,  Jianping%Zhao%NULL%0,  Yi%Hu%NULL%0,  Li%Zhang%NULL%0,  Guohui%Fan%NULL%0,  Jiuyang%Xu%NULL%0,  Xiaoying%Gu%NULL%0,  Zhenshun%Cheng%NULL%0,  Ting%Yu%NULL%0,  Jiaan%Xia%NULL%0,  Yuan%Wei%NULL%0,  Wenjuan%Wu%NULL%0,  Xuelei%Xie%NULL%0,  Wen%Yin%NULL%0,  Hui%Li%NULL%0,  Min%Liu%NULL%0,  Yan%Xiao%NULL%0,  Hong%Gao%NULL%0,  Li%Guo%NULL%0,  Jungang%Xie%NULL%0,  Guangfa%Wang%NULL%0,  Rongmeng%Jiang%NULL%0,  Zhancheng%Gao%NULL%0,  Qi%Jin%NULL%0,  Jianwei%Wang%wangjw28@163.com%0,  Bin%Cao%caobin_ben@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Suxin%Wan%NULL%0,  Yi%Xiang%NULL%0,  Wei%Fang%NULL%0,  Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,  Boqun%Li%279685211@qq.com%0,  Boqun%Li%279685211@qq.com%0,  Yanjun%Hu%huyanjun@163.com%0,  Chunhui%Lang%NULL%0,  Daoqiu%Huang%NULL%0,  Qiuyan%Sun%NULL%0,  Yan%Xiong%NULL%0,  Xia%Huang%NULL%0,  Jinglong%Lv%NULL%0,  Yaling%Luo%NULL%0,  Li%Shen%NULL%0,  Haoran%Yang%NULL%0,  Gu%Huang%NULL%0,  Ruishan%Yang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,  Mark%Caridi-Scheible%NULL%0,  James M.%Blum%NULL%0,  Chad%Robichaux%NULL%0,  Colleen%Kraft%NULL%0,  Jesse T.%Jacob%NULL%0,  Craig S.%Jabaley%NULL%0,  David%Carpenter%NULL%0,  Roberta%Kaplow%NULL%0,  Alfonso C.%Hernandez-Romieu%NULL%0,  Max W.%Adelman%NULL%0,  Greg S.%Martin%NULL%0,  Craig M.%Coopersmith%NULL%0,  David J.%Murphy%NULL%0,  NULL%NULL%NULL%0,   S.%Auld%null%1,   M.% Caridi-Scheible%null%1,   J. M.% Blum%null%1,   C. J.% Robichaux%null%1,   C. S.% Kraft%null%1,   J. T.% Jacob%null%1,   C. S.% Jabaley%null%1,   D.% Carpenter%null%1,   R.% Kaplow%null%1,   A. C.% Hernandez%null%1,   M. W.% Adelman%null%1,   G. S.% Martin%null%1,   C. M.% Coopersmith%null%1,   D. J.% Murphy%null%1,     % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
-  </si>
-  <si>
-    <t>[Pavan K.%Bhatraju%NULL%0,  Bijan J.%Ghassemieh%NULL%0,  Michelle%Nichols%NULL%0,  Richard%Kim%NULL%0,  Keith R.%Jerome%NULL%0,  Arun K.%Nalla%NULL%0,  Alexander L.%Greninger%NULL%0,  Sudhakar%Pipavath%NULL%0,  Mark M.%Wurfel%NULL%0,  Laura%Evans%NULL%0,  Patricia A.%Kritek%NULL%0,  T. Eoin%West%NULL%0,  Andrew%Luks%NULL%0,  Anthony%Gerbino%NULL%0,  Chris R.%Dale%NULL%0,  Jason D.%Goldman%NULL%0,  Shane%O’Mahony%NULL%0,  Carmen%Mikacenic%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jun%Chen%NULL%0,  Tangkai%Qi%NULL%0,  Li%Liu%NULL%0,  Yun%Ling%NULL%0,  Zhiping%Qian%NULL%0,  Tao%Li%NULL%0,  Feng%Li%NULL%0,  Qingnian%Xu%NULL%0,  Yuyi%Zhang%NULL%0,  Shuibao%Xu%NULL%0,  Zhigang%Song%NULL%0,  Yigang%Zeng%NULL%0,  Yinzhong%Shen%NULL%0,  Yuxin%Shi%NULL%0,  Tongyu%Zhu%NULL%0,  Hongzhou%Lu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Nanshan%Chen%NULL%0,  Min%Zhou%NULL%0,  Xuan%Dong%NULL%0,  Jieming%Qu%NULL%0,  Fengyun%Gong%NULL%0,  Yang%Han%NULL%0,  Yang%Qiu%NULL%0,  Jingli%Wang%NULL%0,  Ying%Liu%NULL%0,  Yuan%Wei%NULL%0,  Jia'an%Xia%NULL%0,  Ting%Yu%NULL%0,  Xinxin%Zhang%NULL%0,  Li%Zhang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Wei-jie%Guan%NULL%0,  Zheng-yi%Ni%NULL%0,  Zheng-yi%Ni%NULL%0,  Yu%Hu%NULL%0,  Wen-hua%Liang%NULL%0,  Chun-quan%Ou%NULL%0,  Jian-xing%He%NULL%0,  Lei%Liu%NULL%0,  Hong%Shan%NULL%0,  Chun-liang%Lei%NULL%0,  David S.C.%Hui%NULL%0,  Bin%Du%NULL%0,  Lan-juan%Li%NULL%0,  Guang%Zeng%NULL%0,  Kwok-Yung%Yuen%NULL%0,  Ru-chong%Chen%NULL%0,  Chun-li%Tang%NULL%0,  Tao%Wang%NULL%0,  Ping-yan%Chen%NULL%0,  Jie%Xiang%NULL%0,  Shi-yue%Li%NULL%0,  Jin-lin%Wang%NULL%0,  Zi-jing%Liang%NULL%0,  Yi-xiang%Peng%NULL%0,  Li%Wei%NULL%0,  Yong%Liu%NULL%0,  Ya-hua%Hu%NULL%0,  Peng%Peng%NULL%0,  Jian-ming%Wang%NULL%0,  Ji-yang%Liu%NULL%0,  Zhong%Chen%NULL%0,  Gang%Li%NULL%0,  Zhi-jian%Zheng%NULL%0,  Shao-qin%Qiu%NULL%0,  Jie%Luo%NULL%0,  Chang-jiang%Ye%NULL%0,  Shao-yong%Zhu%NULL%0,  Nan-shan%Zhong%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Pingzheng%Mo%NULL%0,  Yuanyuan%Xing%NULL%0,  Yu%Xiao%NULL%0,  Liping%Deng%NULL%0,  Qiu%Zhao%NULL%0,  Hongling%Wang%NULL%0,  Yong%Xiong%NULL%0,  Zhenshun%Cheng%NULL%0,  Shicheng%Gao%NULL%0,  Ke%Liang%NULL%0,  Mingqi%Luo%NULL%0,  Tielong%Chen%NULL%0,  Shihui%Song%NULL%0,  Zhiyong%Ma%NULL%0,  Xiaoping%Chen%NULL%0,  Ruiying%Zheng%NULL%0,  Qian%Cao%NULL%0,  Fan%Wang%fanndywang@foxmail.com%0,  Yongxi%Zhang%znact1936@126.com%0]</t>
-  </si>
-  <si>
-    <t>[G -Q%Qian%NULL%0,  N -B%Yang%NULL%1,  F%Ding%NULL%1,  A H Y%Ma%NULL%1,  Z -Y%Wang%NULL%2,  Y -F%Shen%NULL%1,  C -W%Shi%NULL%1,  X%Lian%NULL%1,  J -G%Chu%NULL%1,  L%Chen%chxmin@hotmail.com%1,  Z -Y%Wang%NULL%0,  D -W%Ren%NULL%1,  G -X%Li%NULL%1,  X -Q%Chen%chxmin@hotmail.com%1,  H -J%Shen%NULL%1,  X -M%Chen%chxmin@hotmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Flavien%Vincent%NULL%1,  Hugues%Spillemaeker%NULL%1,  Maéva%Kyheng%NULL%1,  Cassandre%Belin‐Vincent%NULL%1,  Cédric%Delhaye%NULL%1,  Adeline%Piérache%NULL%1,  Tom%Denimal%NULL%1,  Basile%Verdier%NULL%1,  Nicolas%Debry%NULL%1,  Mouhamed%Moussa%NULL%1,  Guillaume%Schurtz%NULL%1,  Sina%Porouchani%NULL%1,  Alessandro%Cosenza%NULL%1,  Francis%Juthier%NULL%1,  Thibault%Pamart%NULL%1,  Marjorie%Richardson%NULL%1,  Augustin%Coisne%NULL%1,  Adrien%Hertault%NULL%1,  Jonathan%Sobocinski%NULL%1,  Thomas%Modine%NULL%1,  François%Pontana%NULL%1,  Alain%Duhamel%NULL%0,  Julien%Labreuche%NULL%0,  Eric%Van Belle%ericvanbelle@aol.com%1]</t>
   </si>
   <si>
     <t>Fisiopatologia da insufici\u00eancia card\u00edaca em pacientes com COVID-19</t>
@@ -912,170 +808,437 @@
  Conclus\u00f5es: apesar dos avan\u00e7os no conhecimento da etiopatogenia desta doen\u00e7a, ainda \u00e9 necess\u00e1rio esclarecer com precis\u00e3o os mecanismos fisiopatol\u00f3gicos que determinam a apresenta\u00e7\u00e3o da insufici\u00eancia card\u00edaca, embora se reconhe\u00e7a a influ\u00eancia da resposta inflamat\u00f3ria inadequada, induzida por citocinas, na apresenta\u00e7\u00e3o de dano mioc\u00e1rdico</t>
   </si>
   <si>
-    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0, Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0, Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0, Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Dawei%Wang%wdw_syr@163.com%1,  Yimei%Yin%18256985@qq.com%1,  Chang%Hu%1391369733@qq.com%0,  Xing%Liu%375117565@qq.com%1,  Xingguo%Zhang%zhangxinguo7909@163.com%1,  Shuliang%Zhou%350925556@qq.com%1,  Mingzhi%Jian%Jmzhak@aliyun.com%1,  Haibo%Xu%xuhaibo1120@hotmail.com%0,  John%Prowle%j.prowle@qmul.ac.uk%1,  Bo%Hu%hobbier1979@163.com%0,  Yirong%Li%liyirong838@163.com%4,  Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
-  </si>
-  <si>
-    <t>[Xiao-Wei%Xu%NULL%0,  Xiao-Xin%Wu%NULL%0,  Xian-Gao%Jiang%NULL%0,  Kai-Jin%Xu%NULL%0,  Ling-Jun%Ying%NULL%0,  Chun-Lian%Ma%NULL%0,  Shi-Bo%Li%NULL%0,  Hua-Ying%Wang%NULL%0,  Sheng%Zhang%NULL%0,  Hai-Nv%Gao%NULL%0,  Ji-Fang%Sheng%NULL%0,  Hong-Liu%Cai%NULL%0,  Yun-Qing%Qiu%NULL%0,  Lan-Juan%Li%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Guqin%Zhang%NULL%0,  Chang%Hu%NULL%0,  Linjie%Luo%NULL%0,  Fang%Fang%NULL%0,  Yongfeng%Chen%NULL%0,  Jianguo%Li%NULL%0,  Zhiyong%Peng%NULL%0,  Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Fang%Zheng%fangzheng99@sina.cn%1,  Chun%Liao%lc7spring@163.com%1,  Qi-hong%Fan%1187286305@qq.com%1,  Hong-bo%Chen%hbchen@hust.edu.cn%1,  Xue-gong%Zhao%NULL%1,  Zhong-guo%Xie%NULL%1,  Xi-lin%Li%NULL%1,  Chun-xi%Chen%NULL%1,  Xiao-xia%Lu%NULL%1,  Zhi-sheng%Liu%NULL%1,  Wei%Lu%NULL%1,  Chun-bao%Chen%NULL%1,  Rong%Jiao%NULL%1,  Ai-ming%Zhang%NULL%1,  Jin-tang%Wang%NULL%1,  Xi-wei%Ding%NULL%1,  Yao-guang%Zeng%NULL%1,  Li-ping%Cheng%NULL%1,  Qing-feng%Huang%NULL%1,  Jiang%Wu%NULL%0,  Xi-chang%Luo%NULL%1,  Zhu-jun%Wang%NULL%1,  Yan-yan%Zhong%NULL%1,  Yan%Bai%yanbaixh@hust.edu.cn%1,  Xiao-yan%Wu%xwu@hust.edu.cn%1,  Run-ming%Jin%jinrunm@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%0,  Ting%Yu%NULL%0,  Ronghui%Du%NULL%0,  Guohui%Fan%NULL%0,  Ying%Liu%NULL%0,  Zhibo%Liu%NULL%0,  Jie%Xiang%NULL%0,  Yeming%Wang%NULL%0,  Bin%Song%NULL%0,  Xiaoying%Gu%NULL%0,  Lulu%Guan%NULL%0,  Yuan%Wei%NULL%0,  Hui%Li%NULL%0,  Xudong%Wu%NULL%0,  Jiuyang%Xu%NULL%0,  Shengjin%Tu%NULL%0,  Yi%Zhang%NULL%0,  Hua%Chen%NULL%0,  Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yihui%Huang%NULL%2,  Mengqi%Tu%NULL%2,  Shipei%Wang%NULL%2,  Sichao%Chen%NULL%2,  Wei%Zhou%NULL%0,  Danyang%Chen%NULL%2,  Lin%Zhou%NULL%2,  Min%Wang%NULL%2,  Yan%Zhao%NULL%4,  Wen%Zeng%NULL%2,  Qi%Huang%NULL%2,  Hai'bo%Xu%NULL%2,  Zeming%Liu%NULL%2,  Liang%Guo%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,  Yuan%Yu%NULL%0,  Jiqian%Xu%NULL%0,  Huaqing%Shu%NULL%0,  Jia'an%Xia%NULL%0,  Hong%Liu%NULL%0,  Yongran%Wu%NULL%0,  Lu%Zhang%NULL%0,  Zhui%Yu%NULL%0,  Minghao%Fang%NULL%0,  Ting%Yu%NULL%0,  Yaxin%Wang%NULL%0,  Shangwen%Pan%NULL%0,  Xiaojing%Zou%NULL%0,  Shiying%Yuan%NULL%0,  You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Wen-hua%Liang%NULL%2,  Wei-jie%Guan%NULL%0,  Cai-chen%Li%NULL%0,  Yi-min%Li%NULL%0,  Heng-rui%Liang%NULL%0,  Yi%Zhao%NULL%0,  Xiao-qing%Liu%NULL%0,  Ling%Sang%NULL%0,  Ru-chong%Chen%NULL%0,  Chun-li%Tang%NULL%0,  Tao%Wang%NULL%0,  Wei%Wang%NULL%0,  Qi-hua%He%NULL%2,  Zi-sheng%Chen%NULL%0,  Sook-San%Wong%NULL%2,  Mark%Zanin%NULL%2,  Jun%Liu%NULL%0,  Xin%Xu%NULL%0,  Jun%Huang%NULL%2,  Jian-fu%Li%NULL%0,  Li-min%Ou%NULL%0,  Bo%Cheng%NULL%0,  Shan%Xiong%NULL%0,  Zhan-hong%Xie%NULL%2,  Zheng-yi%Ni%NULL%0,  Yu%Hu%NULL%0,  Lei%Liu%NULL%0,  Hong%Shan%NULL%0,  Chun-liang%Lei%NULL%0,  Yi-xiang%Peng%NULL%0,  Li%Wei%NULL%0,  Yong%Liu%NULL%0,  Ya-hua%Hu%NULL%0,  Peng%Peng%NULL%0,  Jian-ming%Wang%NULL%0,  Ji-yang%Liu%NULL%0,  Zhong%Chen%NULL%0,  Gang%Li%NULL%0,  Zhi-jian%Zheng%NULL%0,  Shao-qin%Qiu%NULL%0,  Jie%Luo%NULL%0,  Chang-jiang%Ye%NULL%0,  Shao-yong%Zhu%NULL%0,  Lin-ling%Cheng%NULL%0,  Feng%Ye%NULL%0,  Shi-yue%Li%NULL%0,  Jin-ping%Zheng%NULL%0,  Nuo-fu%Zhang%NULL%0,  Nan-shan%Zhong%NULL%0,  Jian-xing%He%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Christopher M%Petrilli%NULL%0,  Simon A%Jones%NULL%0,  Jie%Yang%NULL%0,  Harish%Rajagopalan%NULL%0,  Luke%O’Donnell%NULL%0,  Yelena%Chernyak%NULL%0,  Katie A%Tobin%NULL%0,  Robert J%Cerfolio%NULL%0,  Fritz%Francois%NULL%0,  Leora I%Horwitz%NULL%0]</t>
-  </si>
-  <si>
-    <t>[NULL%NULL%NULL%0,  NULL%NULL%NULL%0,  NULL%NULL%NULL%0,  Stephanie%Bialek%NULL%0,  Ellen%Boundy%NULL%0,  Virginia%Bowen%NULL%0,  Nancy%Chow%NULL%0,  Amanda%Cohn%NULL%0,  Nicole%Dowling%NULL%0,  Sascha%Ellington%NULL%0,  Ryan%Gierke%NULL%0,  Aron%Hall%NULL%0,  Jessica%MacNeil%NULL%0,  Priti%Patel%NULL%0,  Georgina%Peacock%NULL%0,  Tamara%Pilishvili%NULL%0,  Hilda%Razzaghi%NULL%0,  Nia%Reed%NULL%0,  Matthew%Ritchey%NULL%0,  Erin%Sauber-Schatz%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Rodrigo B.%Serafim%NULL%1,  Pedro%Póvoa%NULL%1,  Vicente%Souza-Dantas%NULL%1,  André C.%Kalil%NULL%1,  Jorge I.F.%Salluh%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ryan P%Barbaro%NULL%2,  Graeme%MacLaren%NULL%2,  Philip S%Boonstra%NULL%2,  Theodore J%Iwashyna%NULL%2,  Arthur S%Slutsky%NULL%2,  Eddy%Fan%NULL%2,  Robert H%Bartlett%NULL%2,  Joseph E%Tonna%NULL%2,  Robert%Hyslop%NULL%2,  Jeffrey J%Fanning%NULL%2,  Peter T%Rycus%NULL%2,  Steve J%Hyer%NULL%2,  Marc M%Anders%NULL%2,  Cara L%Agerstrand%NULL%2,  Katarzyna%Hryniewicz%NULL%2,  Rodrigo%Diaz%NULL%2,  Roberto%Lorusso%NULL%2,  Alain%Combes%NULL%2,  Daniel%Brodie%NULL%5,  Peta%Alexander%NULL%2,  Nicholas%Barrett%NULL%2,  Jan%Bělohlávek%NULL%2,  Dale%Fisher%NULL%2,  John%Fraser%NULL%2,  Ali Ait%Hssain%NULL%2,  Jae Sung%Jung%NULL%2,  Michael%McMullan%NULL%2,  Yatin%Mehta%NULL%2,  Mark T.%Ogino%NULL%2,  Matthew L.%Paden%NULL%2,  Kiran%Shekar%NULL%2,  Christine%Stead%NULL%2,  Yasir%Abu-Omar%NULL%2,  Vanni%Agnoletti%NULL%2,  Anzila%Akbar%NULL%2,  Huda%Alfoudri%NULL%2,  Carlos%Alviar%NULL%2,  Vladimir%Aronsky%NULL%2,  Erin%August%NULL%2,  Georg%Auzinger%NULL%2,  Hilda%Aveja%NULL%2,  Rhonda%Bakken%NULL%2,  Joan%Balcells%NULL%2,  Sripal%Bangalore%NULL%0,  Bernard W.%Barnes%NULL%2,  Alaiza%Bautista%NULL%2,  Lorraine L.%Bellows%NULL%2,  Felipe%Beltran%NULL%2,  Peyman%Benharash%NULL%2,  Marco%Benni%NULL%2,  Jennifer%Berg%NULL%2,  Pietro%Bertini%NULL%2,  Pablo%Blanco-Schweizer%NULL%2,  Melissa%Brunsvold%NULL%2,  Jenny%Budd%NULL%2,  Debra%Camp%NULL%2,  Mark%Caridi-Scheible%NULL%0,  Edmund%Carton%NULL%2,  Elena%Casanova-Ghosh%NULL%2,  Anthony%Castleberry%NULL%2,  Christopher T.%Chipongian%NULL%2,  Chang Woo%Choi%NULL%2,  Alessandro%Circelli%NULL%2,  Elliott%Cohen%NULL%2,  Michael%Collins%NULL%2,  Scott%Copus%NULL%2,  Jill%Coy%NULL%2,  Brandon%Crist%NULL%2,  Leonora%Cruz%NULL%2,  Mirosław%Czuczwar%NULL%2,  Mani%Daneshmand%NULL%2,  Daniel%Davis II%NULL%2,  Kim%De la Cruz%NULL%2,  Cyndie%Devers%NULL%2,  Toni%Duculan%NULL%2,  Lucian%Durham%NULL%2,  Subbarao%Elapavaluru%NULL%2,  Carlos V.%Elzo Kraemer%NULL%2,  EDMÍLSON CARDOSO%Filho%NULL%2,  Jillian%Fitzgerald%NULL%2,  Giuseppe%Foti%NULL%2,  Matthew%Fox%NULL%2,  David%Fritschen%NULL%2,  David%Fullerton%NULL%2,  Elton%Gelandt%NULL%2,  Stacy%Gerle%NULL%2,  Marco%Giani%NULL%2,  Si Guim%Goh%NULL%2,  Sara%Govener%NULL%2,  Julie%Grone%NULL%2,  Miles%Guber%NULL%2,  Vadim%Gudzenko%NULL%2,  Daniel%Gutteridge%NULL%2,  Jennifer%Guy%NULL%2,  Jonathan%Haft%NULL%2,  Cameron%Hall%NULL%2,  Ibrahim Fawzy%Hassan%NULL%2,  Rubén%Herrán%NULL%2,  Hitoshi%Hirose%NULL%3,  Abdulsalam Saif%Ibrahim%NULL%2,  Don%Igielski%NULL%2,  Felicia A.%Ivascu%NULL%2,  Jaume%Izquierdo Blasco%NULL%2,  Julie%Jackson%NULL%2,  Harsh%Jain%NULL%2,  Bhavini%Jaiswal%NULL%2,  Andrea C.%Johnson%NULL%2,  Jenniver A.%Jurynec%NULL%2,  Norma M%Kellter%NULL%2,  Adam%Kohl%NULL%2,  Zachary%Kon%NULL%2,  Markus%Kredel%NULL%2,  Karen%Kriska%NULL%2,  Chandra%Kunavarapu%NULL%2,  Oude%Lansink-Hartgring%NULL%2,  Jeliene%LaRocque%NULL%2,  Sharon Beth%Larson%NULL%2,  Tracie%Layne%NULL%2,  Stephane%Ledot%NULL%2,  Napolitan%Lena%NULL%2,  Jonathan%Lillie%NULL%2,  Gösta%Lotz%NULL%2,  Mark%Lucas%NULL%2,  Lee%Ludwigson%NULL%2,  Jacinta J.%Maas%NULL%2,  Joanna%Maertens%NULL%2,  David%Mast%NULL%2,  Scott%McCardle%NULL%2,  Bernard%McDonald%NULL%2,  Allison%McLarty%NULL%2,  Chelsea%McMahon%NULL%2,  Patrick%Meybohm%NULL%2,  Bart%Meyns%NULL%2,  Casey%Miller%NULL%2,  Fernando%Moraes Neto%NULL%2,  Kelly%Morris%NULL%2,  Ralf%Muellenbach%NULL%2,  Meghan%Nicholson%NULL%2,  Serena%O'Brien%NULL%2,  Kathryn%O'Keefe%NULL%2,  Tawnya%Ogston%NULL%2,  Gary%Oldenburg%NULL%2,  Fabiana M.%Oliveira%NULL%2,  Emily%Oppel%NULL%2,  Diego%Pardo%NULL%4,  Diego%Pardo%NULL%0,  Sara J.%Parker%NULL%2,  Finn M.%Pedersen%NULL%2,  Crescens%Pellecchia%NULL%2,  Jose A.S.%Pelligrini%NULL%2,  Thao T.N.%Pham%NULL%2,  Ann R.%Phillips%NULL%2,  Tasneem%Pirani%NULL%2,  Paweł%Piwowarczyk%NULL%2,  Robert%Plambeck%NULL%2,  William%Pruett%NULL%2,  Brittany%Quandt%NULL%2,  Kollengode%Ramanathan%NULL%2,  Alejandro%Rey%NULL%2,  Christian%Reyher%NULL%2,  Jordi%Riera del Brio%NULL%2,  Rachel%Roberts%NULL%2,  David%Roe%NULL%2,  Peter P.%Roeleveld%NULL%2,  Janet%Rudy%NULL%2,  Luis F.%Rueda%NULL%2,  Emanuele%Russo%NULL%2,  Jesús%Sánchez Ballesteros%NULL%2,  Nancy%Satou%NULL%2,  Mauricio Guidi%Saueressig%NULL%2,  Paul C.%Saunders%NULL%2,  Margaret%Schlotterbeck%NULL%2,  Patricia%Schwarz%NULL%2,  Nicole%Scriven%NULL%2,  Alexis%Serra%NULL%2,  Mohammad%Shamsah%NULL%2,  Lucy%Sim%NULL%2,  Alexandra%Smart%NULL%2,  Adam%Smith%NULL%2,  Deane%Smith%NULL%2,  Maggie%Smith%NULL%2,  Neel%Sodha%NULL%2,  Michael%Sonntagbauer%NULL%2,  Marc%Sorenson%NULL%2,  Eric B%Stallkamp%NULL%2,  Allison%Stewart%NULL%2,  Kathy%Swartz%NULL%2,  Koji%Takeda%NULL%2,  Shaun%Thompson%NULL%2,  Bridget%Toy%NULL%2,  Divina%Tuazon%NULL%2,  Makoto%Uchiyama%NULL%2,  Obiora I.%Udeozo%NULL%2,  Scott%van Poppel%NULL%2,  Corey%Ventetuolo%NULL%2,  Leen%Vercaemst%NULL%2,  Nguyen V.%Vinh Chau%NULL%2,  I-Wen%Wang%NULL%2,  Carrie%Williamson%NULL%2,  Brock%Wilson%NULL%2,  Helen%Winkels%NULL%2]</t>
-  </si>
-  <si>
     <t>Other found locations</t>
   </si>
   <si>
-    <t>[Michael N.%Young%NULL%1,   Dhaval%Kolte%NULL%1,   Mary E.%Cadigan%NULL%1,   Elizabeth%Laikhter%NULL%1,   Kevin%Sinclair%NULL%1,   Eugene%Pomerantsev%NULL%1,   Michael A.%Fifer%NULL%1,   Thoralf M.%Sundt%NULL%1,   Robert W.%Yeh%NULL%1,   Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
-  </si>
-  <si>
     <t>_PMC</t>
   </si>
   <si>
-    <t>[Antonelli%Massimo%coreGivesNoEmail%0,  Cabrini%Luca%coreGivesNoEmail%1,  Castelli%Antonio%coreGivesNoEmail%1,  Cecconi%Maurizio%coreGivesNoEmail%1,  Cereda%Danilo%coreGivesNoEmail%1,  Coluccello%Antonio%coreGivesNoEmail%1,  Foti%Giuseppe%coreGivesNoEmail%1,  Fumagalli%Roberto%coreGivesNoEmail%1,  Grasselli%Giacomo%coreGivesNoEmail%1,  Iotti%Giorgio%coreGivesNoEmail%1,  Latronico%Nicola%coreGivesNoEmail%1,  Lorini%Luca%coreGivesNoEmail%1,  Merler%Stefano%coreGivesNoEmail%1,  Natalini%Giuseppe%coreGivesNoEmail%1,  Pesenti%Antonio%coreGivesNoEmail%1,  Piatti%Alessandra%coreGivesNoEmail%1,  Ranieri%Marco Vito%coreGivesNoEmail%1,  Scandroglio%Anna Mara%coreGivesNoEmail%1,  Storti%Enrico%coreGivesNoEmail%1,  Zanella%Alberto%coreGivesNoEmail%1,  Zangrillo%Alberto%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Chaolin%Huang%NULL%0,   Yeming%Wang%NULL%0,   Xingwang%Li%NULL%0,   Lili%Ren%NULL%0,   Jianping%Zhao%NULL%0,   Yi%Hu%NULL%0,   Li%Zhang%NULL%0,   Guohui%Fan%NULL%0,   Jiuyang%Xu%NULL%0,   Xiaoying%Gu%NULL%0,   Zhenshun%Cheng%NULL%0,   Ting%Yu%NULL%0,   Jiaan%Xia%NULL%0,   Yuan%Wei%NULL%0,   Wenjuan%Wu%NULL%0,   Xuelei%Xie%NULL%0,   Wen%Yin%NULL%0,   Hui%Li%NULL%0,   Min%Liu%NULL%0,   Yan%Xiao%NULL%0,   Hong%Gao%NULL%0,   Li%Guo%NULL%0,   Jungang%Xie%NULL%0,   Guangfa%Wang%NULL%0,   Rongmeng%Jiang%NULL%0,   Zhancheng%Gao%NULL%0,   Qi%Jin%NULL%0,   Jianwei%Wang%wangjw28@163.com%0,   Bin%Cao%caobin_ben@163.com%0]</t>
-  </si>
-  <si>
     <t>_PMC_elsevier</t>
   </si>
   <si>
-    <t>[Suxin%Wan%NULL%0,   Yi%Xiang%NULL%0,   Wei%Fang%NULL%0,   Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,   Boqun%Li%279685211@qq.com%0,   Boqun%Li%279685211@qq.com%0,   Yanjun%Hu%huyanjun@163.com%0,   Chunhui%Lang%NULL%0,   Daoqiu%Huang%NULL%0,   Qiuyan%Sun%NULL%0,   Yan%Xiong%NULL%0,   Xia%Huang%NULL%0,   Jinglong%Lv%NULL%0,   Yaling%Luo%NULL%0,   Li%Shen%NULL%0,   Haoran%Yang%NULL%0,   Gu%Huang%NULL%0,   Ruishan%Yang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,   Mark%Caridi-Scheible%NULL%0,   James M.%Blum%NULL%0,   Chad%Robichaux%NULL%0,   Colleen%Kraft%NULL%0,   Jesse T.%Jacob%NULL%0,   Craig S.%Jabaley%NULL%0,   David%Carpenter%NULL%0,   Roberta%Kaplow%NULL%0,   Alfonso C.%Hernandez-Romieu%NULL%0,   Max W.%Adelman%NULL%0,   Greg S.%Martin%NULL%0,   Craig M.%Coopersmith%NULL%0,   David J.%Murphy%NULL%0,   NULL%NULL%NULL%0,    S.%Auld%null%1,    M.% Caridi-Scheible%null%1,    J. M.% Blum%null%1,    C. J.% Robichaux%null%1,    C. S.% Kraft%null%1,    J. T.% Jacob%null%1,    C. S.% Jabaley%null%1,    D.% Carpenter%null%1,    R.% Kaplow%null%1,    A. C.% Hernandez%null%1,    M. W.% Adelman%null%1,    G. S.% Martin%null%1,    C. M.% Coopersmith%null%1,    D. J.% Murphy%null%1,      % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,  S.%Auld%null%1,  M.% Caridi-Scheible%null%1,  J. M.% Blum%null%1,  C. J.% Robichaux%null%1,  C. S.% Kraft%null%1,  J. T.% Jacob%null%1,  C. S.% Jabaley%null%1,  D.% Carpenter%null%1,  R.% Kaplow%null%1,  A. C.% Hernandez%null%1,  M. W.% Adelman%null%1,  G. S.% Martin%null%1,  C. M.% Coopersmith%null%1,  D. J.% Murphy%null%1,    % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
-  </si>
-  <si>
     <t>medrxiv/biorxiv doi</t>
   </si>
   <si>
-    <t>[Pavan K.%Bhatraju%NULL%0,   Bijan J.%Ghassemieh%NULL%0,   Michelle%Nichols%NULL%0,   Richard%Kim%NULL%0,   Keith R.%Jerome%NULL%0,   Arun K.%Nalla%NULL%0,   Alexander L.%Greninger%NULL%0,   Sudhakar%Pipavath%NULL%0,   Mark M.%Wurfel%NULL%0,   Laura%Evans%NULL%0,   Patricia A.%Kritek%NULL%0,   T. Eoin%West%NULL%0,   Andrew%Luks%NULL%0,   Anthony%Gerbino%NULL%0,   Chris R.%Dale%NULL%0,   Jason D.%Goldman%NULL%0,   Shane%O’Mahony%NULL%0,   Carmen%Mikacenic%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jun%Chen%NULL%0,   Tangkai%Qi%NULL%0,   Li%Liu%NULL%0,   Yun%Ling%NULL%0,   Zhiping%Qian%NULL%0,   Tao%Li%NULL%0,   Feng%Li%NULL%0,   Qingnian%Xu%NULL%0,   Yuyi%Zhang%NULL%0,   Shuibao%Xu%NULL%0,   Zhigang%Song%NULL%0,   Yigang%Zeng%NULL%0,   Yinzhong%Shen%NULL%0,   Yuxin%Shi%NULL%0,   Tongyu%Zhu%NULL%0,   Hongzhou%Lu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Nanshan%Chen%NULL%0,   Min%Zhou%NULL%0,   Xuan%Dong%NULL%0,   Jieming%Qu%NULL%0,   Fengyun%Gong%NULL%0,   Yang%Han%NULL%0,   Yang%Qiu%NULL%0,   Jingli%Wang%NULL%0,   Ying%Liu%NULL%0,   Yuan%Wei%NULL%0,   Jia'an%Xia%NULL%0,   Ting%Yu%NULL%0,   Xinxin%Zhang%NULL%0,   Li%Zhang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Wei-jie%Guan%NULL%0,   Zheng-yi%Ni%NULL%0,   Zheng-yi%Ni%NULL%0,   Yu%Hu%NULL%0,   Wen-hua%Liang%NULL%0,   Chun-quan%Ou%NULL%0,   Jian-xing%He%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chun-liang%Lei%NULL%0,   David S.C.%Hui%NULL%0,   Bin%Du%NULL%0,   Lan-juan%Li%NULL%0,   Guang%Zeng%NULL%0,   Kwok-Yung%Yuen%NULL%0,   Ru-chong%Chen%NULL%0,   Chun-li%Tang%NULL%0,   Tao%Wang%NULL%0,   Ping-yan%Chen%NULL%0,   Jie%Xiang%NULL%0,   Shi-yue%Li%NULL%0,   Jin-lin%Wang%NULL%0,   Zi-jing%Liang%NULL%0,   Yi-xiang%Peng%NULL%0,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Ya-hua%Hu%NULL%0,   Peng%Peng%NULL%0,   Jian-ming%Wang%NULL%0,   Ji-yang%Liu%NULL%0,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhi-jian%Zheng%NULL%0,   Shao-qin%Qiu%NULL%0,   Jie%Luo%NULL%0,   Chang-jiang%Ye%NULL%0,   Shao-yong%Zhu%NULL%0,   Nan-shan%Zhong%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Pingzheng%Mo%NULL%0,   Yuanyuan%Xing%NULL%1,   Yu%Xiao%NULL%1,   Liping%Deng%NULL%0,   Qiu%Zhao%NULL%1,   Hongling%Wang%NULL%1,   Yong%Xiong%NULL%0,   Zhenshun%Cheng%NULL%0,   Shicheng%Gao%NULL%0,   Ke%Liang%NULL%0,   Mingqi%Luo%NULL%0,   Tielong%Chen%NULL%1,   Shihui%Song%NULL%0,   Zhiyong%Ma%NULL%0,   Xiaoping%Chen%NULL%0,   Ruiying%Zheng%NULL%1,   Qian%Cao%NULL%1,   Fan%Wang%fanndywang@foxmail.com%1,   Yongxi%Zhang%znact1936@126.com%0]</t>
-  </si>
-  <si>
-    <t>[G -Q%Qian%NULL%0,   N -B%Yang%NULL%1,   F%Ding%NULL%1,   A H Y%Ma%NULL%1,   Z -Y%Wang%NULL%2,   Y -F%Shen%NULL%1,   C -W%Shi%NULL%1,   X%Lian%NULL%1,   J -G%Chu%NULL%1,   L%Chen%chxmin@hotmail.com%1,   Z -Y%Wang%NULL%0,   D -W%Ren%NULL%1,   G -X%Li%NULL%1,   X -Q%Chen%chxmin@hotmail.com%1,   H -J%Shen%NULL%1,   X -M%Chen%chxmin@hotmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Flavien%Vincent%NULL%1,   Hugues%Spillemaeker%NULL%1,   Maéva%Kyheng%NULL%1,   Cassandre%Belin‐Vincent%NULL%1,   Cédric%Delhaye%NULL%1,   Adeline%Piérache%NULL%1,   Tom%Denimal%NULL%1,   Basile%Verdier%NULL%1,   Nicolas%Debry%NULL%1,   Mouhamed%Moussa%NULL%1,   Guillaume%Schurtz%NULL%1,   Sina%Porouchani%NULL%1,   Alessandro%Cosenza%NULL%1,   Francis%Juthier%NULL%1,   Thibault%Pamart%NULL%1,   Marjorie%Richardson%NULL%1,   Augustin%Coisne%NULL%1,   Adrien%Hertault%NULL%1,   Jonathan%Sobocinski%NULL%1,   Thomas%Modine%NULL%1,   François%Pontana%NULL%1,   Alain%Duhamel%NULL%0,   Julien%Labreuche%NULL%0,   Eric%Van Belle%ericvanbelle@aol.com%1]</t>
-  </si>
-  <si>
-    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1,  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1,  Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Dawei%Wang%wdw_syr@163.com%1,   Yimei%Yin%18256985@qq.com%1,   Chang%Hu%1391369733@qq.com%2,   Xing%Liu%375117565@qq.com%1,   Xingguo%Zhang%zhangxinguo7909@163.com%1,   Shuliang%Zhou%350925556@qq.com%1,   Mingzhi%Jian%Jmzhak@aliyun.com%1,   Haibo%Xu%xuhaibo1120@hotmail.com%1,   John%Prowle%j.prowle@qmul.ac.uk%1,   Bo%Hu%hobbier1979@163.com%1,   Yirong%Li%liyirong838@163.com%2,   Zhiyong%Peng%Pengzy5@hotmail.com%3]</t>
-  </si>
-  <si>
     <t>_PMC_Springer</t>
   </si>
   <si>
-    <t>[Xiao-Wei%Xu%NULL%0,   Xiao-Xin%Wu%NULL%0,   Xian-Gao%Jiang%NULL%0,   Kai-Jin%Xu%NULL%0,   Ling-Jun%Ying%NULL%0,   Chun-Lian%Ma%NULL%0,   Shi-Bo%Li%NULL%0,   Hua-Ying%Wang%NULL%0,   Sheng%Zhang%NULL%0,   Hai-Nv%Gao%NULL%0,   Ji-Fang%Sheng%NULL%0,   Hong-Liu%Cai%NULL%0,   Yun-Qing%Qiu%NULL%0,   Lan-Juan%Li%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Guqin%Zhang%NULL%0,   Chang%Hu%NULL%0,   Linjie%Luo%NULL%1,   Fang%Fang%NULL%1,   Yongfeng%Chen%NULL%1,   Jianguo%Li%NULL%1,   Zhiyong%Peng%NULL%0,   Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Fang%Zheng%fangzheng99@sina.cn%1,   Chun%Liao%lc7spring@163.com%1,   Qi-hong%Fan%1187286305@qq.com%1,   Hong-bo%Chen%hbchen@hust.edu.cn%1,   Xue-gong%Zhao%NULL%1,   Zhong-guo%Xie%NULL%1,   Xi-lin%Li%NULL%1,   Chun-xi%Chen%NULL%1,   Xiao-xia%Lu%NULL%1,   Zhi-sheng%Liu%NULL%1,   Wei%Lu%NULL%1,   Chun-bao%Chen%NULL%1,   Rong%Jiao%NULL%1,   Ai-ming%Zhang%NULL%1,   Jin-tang%Wang%NULL%1,   Xi-wei%Ding%NULL%1,   Yao-guang%Zeng%NULL%1,   Li-ping%Cheng%NULL%1,   Qing-feng%Huang%NULL%1,   Jiang%Wu%NULL%0,   Xi-chang%Luo%NULL%1,   Zhu-jun%Wang%NULL%1,   Yan-yan%Zhong%NULL%1,   Yan%Bai%yanbaixh@hust.edu.cn%1,   Xiao-yan%Wu%xwu@hust.edu.cn%1,   Run-ming%Jin%jinrunm@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%0,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%0,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%0,   Jie%Xiang%NULL%0,   Yeming%Wang%NULL%0,   Bin%Song%NULL%0,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%0,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%0,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%0,   Yi%Zhang%NULL%0,   Hua%Chen%NULL%0,   Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yihui%Huang%NULL%0,   Mengqi%Tu%NULL%1,   Shipei%Wang%NULL%1,   Sichao%Chen%NULL%1,   Wei%Zhou%NULL%2,   Danyang%Chen%NULL%1,   Lin%Zhou%NULL%1,   Min%Wang%NULL%1,   Yan%Zhao%NULL%1,   Wen%Zeng%NULL%1,   Qi%Huang%NULL%1,   Hai'bo%Xu%NULL%1,   Zeming%Liu%NULL%1,   Liang%Guo%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,   Yuan%Yu%NULL%0,   Jiqian%Xu%NULL%0,   Huaqing%Shu%NULL%0,   Jia'an%Xia%NULL%0,   Hong%Liu%NULL%0,   Yongran%Wu%NULL%0,   Lu%Zhang%NULL%0,   Zhui%Yu%NULL%0,   Minghao%Fang%NULL%0,   Ting%Yu%NULL%0,   Yaxin%Wang%NULL%0,   Shangwen%Pan%NULL%0,   Xiaojing%Zou%NULL%0,   Shiying%Yuan%NULL%0,   You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Wen-hua%Liang%NULL%2,   Wei-jie%Guan%NULL%1,   Cai-chen%Li%NULL%0,   Yi-min%Li%NULL%0,   Heng-rui%Liang%NULL%0,   Yi%Zhao%NULL%0,   Xiao-qing%Liu%NULL%0,   Ling%Sang%NULL%0,   Ru-chong%Chen%NULL%0,   Chun-li%Tang%NULL%0,   Tao%Wang%NULL%0,   Wei%Wang%NULL%0,   Qi-hua%He%NULL%1,   Zi-sheng%Chen%NULL%0,   Sook-San%Wong%NULL%1,   Mark%Zanin%NULL%1,   Jun%Liu%NULL%0,   Xin%Xu%NULL%0,   Jun%Huang%NULL%1,   Jian-fu%Li%NULL%0,   Li-min%Ou%NULL%0,   Bo%Cheng%NULL%0,   Shan%Xiong%NULL%0,   Zhan-hong%Xie%NULL%1,   Zheng-yi%Ni%NULL%0,   Yu%Hu%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chun-liang%Lei%NULL%0,   Yi-xiang%Peng%NULL%0,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Ya-hua%Hu%NULL%0,   Peng%Peng%NULL%0,   Jian-ming%Wang%NULL%0,   Ji-yang%Liu%NULL%0,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhi-jian%Zheng%NULL%0,   Shao-qin%Qiu%NULL%0,   Jie%Luo%NULL%0,   Chang-jiang%Ye%NULL%0,   Shao-yong%Zhu%NULL%0,   Lin-ling%Cheng%NULL%0,   Feng%Ye%NULL%0,   Shi-yue%Li%NULL%0,   Jin-ping%Zheng%NULL%0,   Nuo-fu%Zhang%NULL%0,   Nan-shan%Zhong%NULL%0,   Jian-xing%He%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Christopher M%Petrilli%NULL%0,   Simon A%Jones%NULL%0,   Jie%Yang%NULL%0,   Harish%Rajagopalan%NULL%0,   Luke%O’Donnell%NULL%0,   Yelena%Chernyak%NULL%0,   Katie A%Tobin%NULL%0,   Robert J%Cerfolio%NULL%0,   Fritz%Francois%NULL%0,   Leora I%Horwitz%NULL%0]</t>
-  </si>
-  <si>
-    <t>[NULL%NULL%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0,   Stephanie%Bialek%NULL%0,   Ellen%Boundy%NULL%0,   Virginia%Bowen%NULL%0,   Nancy%Chow%NULL%0,   Amanda%Cohn%NULL%0,   Nicole%Dowling%NULL%0,   Sascha%Ellington%NULL%0,   Ryan%Gierke%NULL%0,   Aron%Hall%NULL%0,   Jessica%MacNeil%NULL%0,   Priti%Patel%NULL%0,   Georgina%Peacock%NULL%0,   Tamara%Pilishvili%NULL%0,   Hilda%Razzaghi%NULL%0,   Nia%Reed%NULL%0,   Matthew%Ritchey%NULL%0,   Erin%Sauber-Schatz%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Rodrigo B.%Serafim%NULL%1,   Pedro%Póvoa%NULL%1,   Vicente%Souza-Dantas%NULL%1,   André C.%Kalil%NULL%1,   Jorge I.F.%Salluh%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ryan P%Barbaro%NULL%2,   Graeme%MacLaren%NULL%1,   Philip S%Boonstra%NULL%1,   Theodore J%Iwashyna%NULL%1,   Arthur S%Slutsky%NULL%1,   Eddy%Fan%NULL%1,   Robert H%Bartlett%NULL%1,   Joseph E%Tonna%NULL%1,   Robert%Hyslop%NULL%1,   Jeffrey J%Fanning%NULL%1,   Peter T%Rycus%NULL%1,   Steve J%Hyer%NULL%1,   Marc M%Anders%NULL%1,   Cara L%Agerstrand%NULL%1,   Katarzyna%Hryniewicz%NULL%1,   Rodrigo%Diaz%NULL%1,   Roberto%Lorusso%NULL%1,   Alain%Combes%NULL%0,   Daniel%Brodie%NULL%1,   Peta%Alexander%NULL%1,   Nicholas%Barrett%NULL%1,   Jan%Bělohlávek%NULL%1,   Dale%Fisher%NULL%1,   John%Fraser%NULL%1,   Ali Ait%Hssain%NULL%1,   Jae Sung%Jung%NULL%1,   Michael%McMullan%NULL%1,   Yatin%Mehta%NULL%1,   Mark T.%Ogino%NULL%1,   Matthew L.%Paden%NULL%1,   Kiran%Shekar%NULL%1,   Christine%Stead%NULL%1,   Yasir%Abu-Omar%NULL%1,   Vanni%Agnoletti%NULL%1,   Anzila%Akbar%NULL%1,   Huda%Alfoudri%NULL%1,   Carlos%Alviar%NULL%1,   Vladimir%Aronsky%NULL%1,   Erin%August%NULL%1,   Georg%Auzinger%NULL%1,   Hilda%Aveja%NULL%1,   Rhonda%Bakken%NULL%1,   Joan%Balcells%NULL%1,   Sripal%Bangalore%NULL%0,   Bernard W.%Barnes%NULL%1,   Alaiza%Bautista%NULL%1,   Lorraine L.%Bellows%NULL%1,   Felipe%Beltran%NULL%1,   Peyman%Benharash%NULL%1,   Marco%Benni%NULL%1,   Jennifer%Berg%NULL%1,   Pietro%Bertini%NULL%1,   Pablo%Blanco-Schweizer%NULL%1,   Melissa%Brunsvold%NULL%1,   Jenny%Budd%NULL%1,   Debra%Camp%NULL%1,   Mark%Caridi-Scheible%NULL%0,   Edmund%Carton%NULL%1,   Elena%Casanova-Ghosh%NULL%1,   Anthony%Castleberry%NULL%1,   Christopher T.%Chipongian%NULL%1,   Chang Woo%Choi%NULL%1,   Alessandro%Circelli%NULL%1,   Elliott%Cohen%NULL%1,   Michael%Collins%NULL%1,   Scott%Copus%NULL%1,   Jill%Coy%NULL%1,   Brandon%Crist%NULL%1,   Leonora%Cruz%NULL%1,   Mirosław%Czuczwar%NULL%1,   Mani%Daneshmand%NULL%1,   Daniel%Davis II%NULL%1,   Kim%De la Cruz%NULL%1,   Cyndie%Devers%NULL%1,   Toni%Duculan%NULL%1,   Lucian%Durham%NULL%1,   Subbarao%Elapavaluru%NULL%1,   Carlos V.%Elzo Kraemer%NULL%1,   EDMÍLSON CARDOSO%Filho%NULL%1,   Jillian%Fitzgerald%NULL%1,   Giuseppe%Foti%NULL%1,   Matthew%Fox%NULL%1,   David%Fritschen%NULL%1,   David%Fullerton%NULL%1,   Elton%Gelandt%NULL%1,   Stacy%Gerle%NULL%1,   Marco%Giani%NULL%1,   Si Guim%Goh%NULL%1,   Sara%Govener%NULL%1,   Julie%Grone%NULL%1,   Miles%Guber%NULL%1,   Vadim%Gudzenko%NULL%1,   Daniel%Gutteridge%NULL%1,   Jennifer%Guy%NULL%1,   Jonathan%Haft%NULL%1,   Cameron%Hall%NULL%1,   Ibrahim Fawzy%Hassan%NULL%1,   Rubén%Herrán%NULL%1,   Hitoshi%Hirose%NULL%2,   Abdulsalam Saif%Ibrahim%NULL%1,   Don%Igielski%NULL%1,   Felicia A.%Ivascu%NULL%1,   Jaume%Izquierdo Blasco%NULL%1,   Julie%Jackson%NULL%1,   Harsh%Jain%NULL%1,   Bhavini%Jaiswal%NULL%1,   Andrea C.%Johnson%NULL%1,   Jenniver A.%Jurynec%NULL%1,   Norma M%Kellter%NULL%1,   Adam%Kohl%NULL%1,   Zachary%Kon%NULL%1,   Markus%Kredel%NULL%1,   Karen%Kriska%NULL%1,   Chandra%Kunavarapu%NULL%1,   Oude%Lansink-Hartgring%NULL%1,   Jeliene%LaRocque%NULL%1,   Sharon Beth%Larson%NULL%1,   Tracie%Layne%NULL%1,   Stephane%Ledot%NULL%1,   Napolitan%Lena%NULL%1,   Jonathan%Lillie%NULL%1,   Gösta%Lotz%NULL%1,   Mark%Lucas%NULL%1,   Lee%Ludwigson%NULL%1,   Jacinta J.%Maas%NULL%1,   Joanna%Maertens%NULL%1,   David%Mast%NULL%1,   Scott%McCardle%NULL%1,   Bernard%McDonald%NULL%1,   Allison%McLarty%NULL%1,   Chelsea%McMahon%NULL%1,   Patrick%Meybohm%NULL%1,   Bart%Meyns%NULL%1,   Casey%Miller%NULL%1,   Fernando%Moraes Neto%NULL%1,   Kelly%Morris%NULL%1,   Ralf%Muellenbach%NULL%1,   Meghan%Nicholson%NULL%1,   Serena%O'Brien%NULL%1,   Kathryn%O'Keefe%NULL%1,   Tawnya%Ogston%NULL%1,   Gary%Oldenburg%NULL%1,   Fabiana M.%Oliveira%NULL%1,   Emily%Oppel%NULL%1,   Diego%Pardo%NULL%2,   Diego%Pardo%NULL%0,   Sara J.%Parker%NULL%1,   Finn M.%Pedersen%NULL%1,   Crescens%Pellecchia%NULL%1,   Jose A.S.%Pelligrini%NULL%1,   Thao T.N.%Pham%NULL%1,   Ann R.%Phillips%NULL%1,   Tasneem%Pirani%NULL%1,   Paweł%Piwowarczyk%NULL%1,   Robert%Plambeck%NULL%1,   William%Pruett%NULL%1,   Brittany%Quandt%NULL%1,   Kollengode%Ramanathan%NULL%1,   Alejandro%Rey%NULL%1,   Christian%Reyher%NULL%1,   Jordi%Riera del Brio%NULL%1,   Rachel%Roberts%NULL%1,   David%Roe%NULL%1,   Peter P.%Roeleveld%NULL%1,   Janet%Rudy%NULL%1,   Luis F.%Rueda%NULL%1,   Emanuele%Russo%NULL%1,   Jesús%Sánchez Ballesteros%NULL%1,   Nancy%Satou%NULL%1,   Mauricio Guidi%Saueressig%NULL%1,   Paul C.%Saunders%NULL%1,   Margaret%Schlotterbeck%NULL%1,   Patricia%Schwarz%NULL%1,   Nicole%Scriven%NULL%1,   Alexis%Serra%NULL%1,   Mohammad%Shamsah%NULL%1,   Lucy%Sim%NULL%1,   Alexandra%Smart%NULL%1,   Adam%Smith%NULL%1,   Deane%Smith%NULL%1,   Maggie%Smith%NULL%1,   Neel%Sodha%NULL%1,   Michael%Sonntagbauer%NULL%1,   Marc%Sorenson%NULL%1,   Eric B%Stallkamp%NULL%1,   Allison%Stewart%NULL%1,   Kathy%Swartz%NULL%1,   Koji%Takeda%NULL%1,   Shaun%Thompson%NULL%1,   Bridget%Toy%NULL%1,   Divina%Tuazon%NULL%1,   Makoto%Uchiyama%NULL%1,   Obiora I.%Udeozo%NULL%1,   Scott%van Poppel%NULL%1,   Corey%Ventetuolo%NULL%1,   Leen%Vercaemst%NULL%1,   Nguyen V.%Vinh Chau%NULL%1,   I-Wen%Wang%NULL%1,   Carrie%Williamson%NULL%1,   Brock%Wilson%NULL%1,   Helen%Winkels%NULL%1]</t>
+    <t>[Michael N.%Young%NULL%1,    Dhaval%Kolte%NULL%1,    Mary E.%Cadigan%NULL%1,    Elizabeth%Laikhter%NULL%1,    Kevin%Sinclair%NULL%1,    Eugene%Pomerantsev%NULL%1,    Michael A.%Fifer%NULL%1,    Thoralf M.%Sundt%NULL%1,    Robert W.%Yeh%NULL%1,    Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,   Cabrini%Luca%coreGivesNoEmail%0,   Castelli%Antonio%coreGivesNoEmail%0,   Cecconi%Maurizio%coreGivesNoEmail%0,   Cereda%Danilo%coreGivesNoEmail%0,   Coluccello%Antonio%coreGivesNoEmail%0,   Foti%Giuseppe%coreGivesNoEmail%0,   Fumagalli%Roberto%coreGivesNoEmail%0,   Grasselli%Giacomo%coreGivesNoEmail%0,   Iotti%Giorgio%coreGivesNoEmail%0,   Latronico%Nicola%coreGivesNoEmail%0,   Lorini%Luca%coreGivesNoEmail%0,   Merler%Stefano%coreGivesNoEmail%0,   Natalini%Giuseppe%coreGivesNoEmail%0,   Pesenti%Antonio%coreGivesNoEmail%0,   Piatti%Alessandra%coreGivesNoEmail%0,   Ranieri%Marco Vito%coreGivesNoEmail%0,   Scandroglio%Anna Mara%coreGivesNoEmail%0,   Storti%Enrico%coreGivesNoEmail%0,   Zanella%Alberto%coreGivesNoEmail%0,   Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,    Yeming%Wang%NULL%0,    Xingwang%Li%NULL%0,    Lili%Ren%NULL%0,    Jianping%Zhao%NULL%0,    Yi%Hu%NULL%0,    Li%Zhang%NULL%0,    Guohui%Fan%NULL%0,    Jiuyang%Xu%NULL%0,    Xiaoying%Gu%NULL%0,    Zhenshun%Cheng%NULL%0,    Ting%Yu%NULL%0,    Jiaan%Xia%NULL%0,    Yuan%Wei%NULL%0,    Wenjuan%Wu%NULL%0,    Xuelei%Xie%NULL%0,    Wen%Yin%NULL%0,    Hui%Li%NULL%0,    Min%Liu%NULL%0,    Yan%Xiao%NULL%0,    Hong%Gao%NULL%0,    Li%Guo%NULL%0,    Jungang%Xie%NULL%0,    Guangfa%Wang%NULL%0,    Rongmeng%Jiang%NULL%0,    Zhancheng%Gao%NULL%0,    Qi%Jin%NULL%0,    Jianwei%Wang%wangjw28@163.com%0,    Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,    Yi%Xiang%NULL%0,    Wei%Fang%NULL%0,    Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,    Boqun%Li%279685211@qq.com%0,    Boqun%Li%279685211@qq.com%0,    Yanjun%Hu%huyanjun@163.com%0,    Chunhui%Lang%NULL%0,    Daoqiu%Huang%NULL%0,    Qiuyan%Sun%NULL%0,    Yan%Xiong%NULL%0,    Xia%Huang%NULL%0,    Jinglong%Lv%NULL%0,    Yaling%Luo%NULL%0,    Li%Shen%NULL%0,    Haoran%Yang%NULL%0,    Gu%Huang%NULL%0,    Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,    Mark%Caridi-Scheible%NULL%0,    James M.%Blum%NULL%0,    Chad%Robichaux%NULL%0,    Colleen%Kraft%NULL%0,    Jesse T.%Jacob%NULL%0,    Craig S.%Jabaley%NULL%0,    David%Carpenter%NULL%0,    Roberta%Kaplow%NULL%0,    Alfonso C.%Hernandez-Romieu%NULL%0,    Max W.%Adelman%NULL%0,    Greg S.%Martin%NULL%0,    Craig M.%Coopersmith%NULL%0,    David J.%Murphy%NULL%0,    NULL%NULL%NULL%0,     S.%Auld%null%1,     M.% Caridi-Scheible%null%1,     J. M.% Blum%null%1,     C. J.% Robichaux%null%1,     C. S.% Kraft%null%1,     J. T.% Jacob%null%1,     C. S.% Jabaley%null%1,     D.% Carpenter%null%1,     R.% Kaplow%null%1,     A. C.% Hernandez%null%1,     M. W.% Adelman%null%1,     G. S.% Martin%null%1,     C. M.% Coopersmith%null%1,     D. J.% Murphy%null%1,       % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,   S.%Auld%null%1,   M.% Caridi-Scheible%null%1,   J. M.% Blum%null%1,   C. J.% Robichaux%null%1,   C. S.% Kraft%null%1,   J. T.% Jacob%null%1,   C. S.% Jabaley%null%1,   D.% Carpenter%null%1,   R.% Kaplow%null%1,   A. C.% Hernandez%null%1,   M. W.% Adelman%null%1,   G. S.% Martin%null%1,   C. M.% Coopersmith%null%1,   D. J.% Murphy%null%1,     % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,    Bijan J.%Ghassemieh%NULL%0,    Michelle%Nichols%NULL%0,    Richard%Kim%NULL%0,    Keith R.%Jerome%NULL%0,    Arun K.%Nalla%NULL%0,    Alexander L.%Greninger%NULL%0,    Sudhakar%Pipavath%NULL%0,    Mark M.%Wurfel%NULL%0,    Laura%Evans%NULL%0,    Patricia A.%Kritek%NULL%0,    T. Eoin%West%NULL%0,    Andrew%Luks%NULL%0,    Anthony%Gerbino%NULL%0,    Chris R.%Dale%NULL%0,    Jason D.%Goldman%NULL%0,    Shane%O’Mahony%NULL%0,    Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,    Tangkai%Qi%NULL%1,    Li%Liu%NULL%0,    Yun%Ling%NULL%0,    Zhiping%Qian%NULL%0,    Tao%Li%NULL%0,    Feng%Li%NULL%0,    Qingnian%Xu%NULL%0,    Yuyi%Zhang%NULL%0,    Shuibao%Xu%NULL%1,    Zhigang%Song%NULL%0,    Yigang%Zeng%NULL%1,    Yinzhong%Shen%NULL%1,    Yuxin%Shi%NULL%0,    Tongyu%Zhu%NULL%0,    Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,    Min%Zhou%NULL%0,    Xuan%Dong%NULL%0,    Jieming%Qu%NULL%0,    Fengyun%Gong%NULL%0,    Yang%Han%NULL%0,    Yang%Qiu%NULL%0,    Jingli%Wang%NULL%0,    Ying%Liu%NULL%0,    Yuan%Wei%NULL%0,    Jia'an%Xia%NULL%0,    Ting%Yu%NULL%0,    Xinxin%Zhang%NULL%0,    Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,    Zheng-yi%Ni%NULL%0,    Zheng-yi%Ni%NULL%0,    Yu%Hu%NULL%0,    Wen-hua%Liang%NULL%0,    Chun-quan%Ou%NULL%0,    Jian-xing%He%NULL%0,    Lei%Liu%NULL%0,    Hong%Shan%NULL%0,    Chun-liang%Lei%NULL%0,    David S.C.%Hui%NULL%0,    Bin%Du%NULL%0,    Lan-juan%Li%NULL%0,    Guang%Zeng%NULL%0,    Kwok-Yung%Yuen%NULL%0,    Ru-chong%Chen%NULL%0,    Chun-li%Tang%NULL%0,    Tao%Wang%NULL%0,    Ping-yan%Chen%NULL%0,    Jie%Xiang%NULL%0,    Shi-yue%Li%NULL%0,    Jin-lin%Wang%NULL%0,    Zi-jing%Liang%NULL%0,    Yi-xiang%Peng%NULL%0,    Li%Wei%NULL%0,    Yong%Liu%NULL%0,    Ya-hua%Hu%NULL%0,    Peng%Peng%NULL%0,    Jian-ming%Wang%NULL%0,    Ji-yang%Liu%NULL%0,    Zhong%Chen%NULL%0,    Gang%Li%NULL%0,    Zhi-jian%Zheng%NULL%0,    Shao-qin%Qiu%NULL%0,    Jie%Luo%NULL%0,    Chang-jiang%Ye%NULL%0,    Shao-yong%Zhu%NULL%0,    Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,    Yuanyuan%Xing%NULL%0,    Yu%Xiao%NULL%0,    Liping%Deng%NULL%0,    Qiu%Zhao%NULL%0,    Hongling%Wang%NULL%0,    Yong%Xiong%NULL%0,    Zhenshun%Cheng%NULL%0,    Shicheng%Gao%NULL%0,    Ke%Liang%NULL%0,    Mingqi%Luo%NULL%0,    Tielong%Chen%NULL%0,    Shihui%Song%NULL%0,    Zhiyong%Ma%NULL%0,    Xiaoping%Chen%NULL%0,    Ruiying%Zheng%NULL%0,    Qian%Cao%NULL%0,    Fan%Wang%fanndywang@foxmail.com%0,    Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,    N -B%Yang%NULL%1,    F%Ding%NULL%1,    A H Y%Ma%NULL%1,    Z -Y%Wang%NULL%2,    Y -F%Shen%NULL%1,    C -W%Shi%NULL%1,    X%Lian%NULL%1,    J -G%Chu%NULL%1,    L%Chen%chxmin@hotmail.com%1,    Z -Y%Wang%NULL%0,    D -W%Ren%NULL%1,    G -X%Li%NULL%1,    X -Q%Chen%chxmin@hotmail.com%1,    H -J%Shen%NULL%1,    X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,    Hugues%Spillemaeker%NULL%1,    Maéva%Kyheng%NULL%1,    Cassandre%Belin‐Vincent%NULL%1,    Cédric%Delhaye%NULL%1,    Adeline%Piérache%NULL%1,    Tom%Denimal%NULL%1,    Basile%Verdier%NULL%1,    Nicolas%Debry%NULL%1,    Mouhamed%Moussa%NULL%1,    Guillaume%Schurtz%NULL%1,    Sina%Porouchani%NULL%1,    Alessandro%Cosenza%NULL%1,    Francis%Juthier%NULL%1,    Thibault%Pamart%NULL%1,    Marjorie%Richardson%NULL%1,    Augustin%Coisne%NULL%1,    Adrien%Hertault%NULL%1,    Jonathan%Sobocinski%NULL%1,    Thomas%Modine%NULL%1,    François%Pontana%NULL%1,    Alain%Duhamel%NULL%1,    Julien%Labreuche%NULL%1,    Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,   Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,    Yimei%Yin%18256985@qq.com%1,    Chang%Hu%1391369733@qq.com%0,    Xing%Liu%375117565@qq.com%1,    Xingguo%Zhang%zhangxinguo7909@163.com%1,    Shuliang%Zhou%350925556@qq.com%1,    Mingzhi%Jian%Jmzhak@aliyun.com%1,    Haibo%Xu%xuhaibo1120@hotmail.com%0,    John%Prowle%j.prowle@qmul.ac.uk%1,    Bo%Hu%hobbier1979@163.com%0,    Yirong%Li%liyirong838@163.com%0,    Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,    Xiao-Xin%Wu%NULL%1,    Xian-Gao%Jiang%NULL%1,    Kai-Jin%Xu%NULL%1,    Ling-Jun%Ying%NULL%1,    Chun-Lian%Ma%NULL%1,    Shi-Bo%Li%NULL%1,    Hua-Ying%Wang%NULL%1,    Sheng%Zhang%NULL%0,    Hai-Nv%Gao%NULL%2,    Ji-Fang%Sheng%NULL%1,    Hong-Liu%Cai%NULL%1,    Yun-Qing%Qiu%NULL%1,    Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,    Chang%Hu%NULL%0,    Linjie%Luo%NULL%0,    Fang%Fang%NULL%0,    Yongfeng%Chen%NULL%0,    Jianguo%Li%NULL%0,    Zhiyong%Peng%NULL%0,    Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,    Chun%Liao%lc7spring@163.com%1,    Qi-hong%Fan%1187286305@qq.com%1,    Hong-bo%Chen%hbchen@hust.edu.cn%1,    Xue-gong%Zhao%NULL%1,    Zhong-guo%Xie%NULL%1,    Xi-lin%Li%NULL%1,    Chun-xi%Chen%NULL%1,    Xiao-xia%Lu%NULL%1,    Zhi-sheng%Liu%NULL%1,    Wei%Lu%NULL%1,    Chun-bao%Chen%NULL%1,    Rong%Jiao%NULL%1,    Ai-ming%Zhang%NULL%1,    Jin-tang%Wang%NULL%1,    Xi-wei%Ding%NULL%1,    Yao-guang%Zeng%NULL%1,    Li-ping%Cheng%NULL%1,    Qing-feng%Huang%NULL%1,    Jiang%Wu%NULL%0,    Xi-chang%Luo%NULL%1,    Zhu-jun%Wang%NULL%1,    Yan-yan%Zhong%NULL%1,    Yan%Bai%yanbaixh@hust.edu.cn%1,    Xiao-yan%Wu%xwu@hust.edu.cn%1,    Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,    Ting%Yu%NULL%0,    Ronghui%Du%NULL%0,    Guohui%Fan%NULL%0,    Ying%Liu%NULL%0,    Zhibo%Liu%NULL%0,    Jie%Xiang%NULL%0,    Yeming%Wang%NULL%0,    Bin%Song%NULL%0,    Xiaoying%Gu%NULL%0,    Lulu%Guan%NULL%0,    Yuan%Wei%NULL%0,    Hui%Li%NULL%0,    Xudong%Wu%NULL%0,    Jiuyang%Xu%NULL%0,    Shengjin%Tu%NULL%0,    Yi%Zhang%NULL%0,    Hua%Chen%NULL%0,    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,    Mengqi%Tu%NULL%1,    Shipei%Wang%NULL%1,    Sichao%Chen%NULL%1,    Wei%Zhou%NULL%0,    Danyang%Chen%NULL%1,    Lin%Zhou%NULL%1,    Min%Wang%NULL%1,    Yan%Zhao%NULL%1,    Wen%Zeng%NULL%1,    Qi%Huang%NULL%0,    Hai'bo%Xu%NULL%1,    Zeming%Liu%NULL%1,    Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,    Yuan%Yu%NULL%0,    Jiqian%Xu%NULL%0,    Huaqing%Shu%NULL%0,    Jia'an%Xia%NULL%0,    Hong%Liu%NULL%0,    Yongran%Wu%NULL%0,    Lu%Zhang%NULL%0,    Zhui%Yu%NULL%0,    Minghao%Fang%NULL%0,    Ting%Yu%NULL%0,    Yaxin%Wang%NULL%0,    Shangwen%Pan%NULL%0,    Xiaojing%Zou%NULL%0,    Shiying%Yuan%NULL%0,    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,    Wei-jie%Guan%NULL%1,    Cai-chen%Li%NULL%1,    Yi-min%Li%NULL%1,    Heng-rui%Liang%NULL%1,    Yi%Zhao%NULL%0,    Xiao-qing%Liu%NULL%1,    Ling%Sang%NULL%0,    Ru-chong%Chen%NULL%0,    Chun-li%Tang%NULL%0,    Tao%Wang%NULL%0,    Wei%Wang%NULL%0,    Qi-hua%He%NULL%1,    Zi-sheng%Chen%NULL%1,    Sook-San%Wong%NULL%1,    Mark%Zanin%NULL%1,    Jun%Liu%NULL%1,    Xin%Xu%NULL%1,    Jun%Huang%NULL%1,    Jian-fu%Li%NULL%1,    Li-min%Ou%NULL%1,    Bo%Cheng%NULL%1,    Shan%Xiong%NULL%1,    Zhan-hong%Xie%NULL%1,    Zheng-yi%Ni%NULL%0,    Yu%Hu%NULL%0,    Lei%Liu%NULL%0,    Hong%Shan%NULL%0,    Chun-liang%Lei%NULL%0,    Yi-xiang%Peng%NULL%0,    Li%Wei%NULL%0,    Yong%Liu%NULL%0,    Ya-hua%Hu%NULL%0,    Peng%Peng%NULL%0,    Jian-ming%Wang%NULL%0,    Ji-yang%Liu%NULL%0,    Zhong%Chen%NULL%0,    Gang%Li%NULL%0,    Zhi-jian%Zheng%NULL%0,    Shao-qin%Qiu%NULL%0,    Jie%Luo%NULL%0,    Chang-jiang%Ye%NULL%0,    Shao-yong%Zhu%NULL%0,    Lin-ling%Cheng%NULL%1,    Feng%Ye%NULL%0,    Shi-yue%Li%NULL%0,    Jin-ping%Zheng%NULL%1,    Nuo-fu%Zhang%NULL%1,    Nan-shan%Zhong%NULL%0,    Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,    Simon A%Jones%NULL%0,    Jie%Yang%NULL%0,    Harish%Rajagopalan%NULL%0,    Luke%O’Donnell%NULL%0,    Yelena%Chernyak%NULL%0,    Katie A%Tobin%NULL%0,    Robert J%Cerfolio%NULL%0,    Fritz%Francois%NULL%0,    Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0,    Stephanie%Bialek%NULL%1,    Ellen%Boundy%NULL%1,    Virginia%Bowen%NULL%1,    Nancy%Chow%NULL%0,    Amanda%Cohn%NULL%1,    Nicole%Dowling%NULL%1,    Sascha%Ellington%NULL%1,    Ryan%Gierke%NULL%0,    Aron%Hall%NULL%0,    Jessica%MacNeil%NULL%1,    Priti%Patel%NULL%1,    Georgina%Peacock%NULL%1,    Tamara%Pilishvili%NULL%0,    Hilda%Razzaghi%NULL%1,    Nia%Reed%NULL%1,    Matthew%Ritchey%NULL%0,    Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,    Pedro%Póvoa%NULL%1,    Vicente%Souza-Dantas%NULL%1,    André C.%Kalil%NULL%1,    Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,    Graeme%MacLaren%NULL%1,    Philip S%Boonstra%NULL%1,    Theodore J%Iwashyna%NULL%1,    Arthur S%Slutsky%NULL%1,    Eddy%Fan%NULL%1,    Robert H%Bartlett%NULL%1,    Joseph E%Tonna%NULL%1,    Robert%Hyslop%NULL%1,    Jeffrey J%Fanning%NULL%1,    Peter T%Rycus%NULL%1,    Steve J%Hyer%NULL%1,    Marc M%Anders%NULL%1,    Cara L%Agerstrand%NULL%1,    Katarzyna%Hryniewicz%NULL%1,    Rodrigo%Diaz%NULL%1,    Roberto%Lorusso%NULL%1,    Alain%Combes%NULL%1,    Daniel%Brodie%NULL%1,    Peta%Alexander%NULL%1,    Nicholas%Barrett%NULL%0,    Jan%Bělohlávek%NULL%1,    Dale%Fisher%NULL%1,    John%Fraser%NULL%1,    Ali Ait%Hssain%NULL%0,    Jae Sung%Jung%NULL%1,    Michael%McMullan%NULL%1,    Yatin%Mehta%NULL%1,    Mark T.%Ogino%NULL%1,    Matthew L.%Paden%NULL%1,    Kiran%Shekar%NULL%1,    Christine%Stead%NULL%1,    Yasir%Abu-Omar%NULL%1,    Vanni%Agnoletti%NULL%1,    Anzila%Akbar%NULL%1,    Huda%Alfoudri%NULL%1,    Carlos%Alviar%NULL%1,    Vladimir%Aronsky%NULL%1,    Erin%August%NULL%1,    Georg%Auzinger%NULL%1,    Hilda%Aveja%NULL%1,    Rhonda%Bakken%NULL%1,    Joan%Balcells%NULL%1,    Sripal%Bangalore%NULL%1,    Bernard W.%Barnes%NULL%1,    Alaiza%Bautista%NULL%1,    Lorraine L.%Bellows%NULL%1,    Felipe%Beltran%NULL%1,    Peyman%Benharash%NULL%1,    Marco%Benni%NULL%1,    Jennifer%Berg%NULL%1,    Pietro%Bertini%NULL%1,    Pablo%Blanco-Schweizer%NULL%1,    Melissa%Brunsvold%NULL%1,    Jenny%Budd%NULL%1,    Debra%Camp%NULL%1,    Mark%Caridi-Scheible%NULL%0,    Edmund%Carton%NULL%1,    Elena%Casanova-Ghosh%NULL%1,    Anthony%Castleberry%NULL%1,    Christopher T.%Chipongian%NULL%1,    Chang Woo%Choi%NULL%1,    Alessandro%Circelli%NULL%1,    Elliott%Cohen%NULL%1,    Michael%Collins%NULL%1,    Scott%Copus%NULL%1,    Jill%Coy%NULL%1,    Brandon%Crist%NULL%1,    Leonora%Cruz%NULL%1,    Mirosław%Czuczwar%NULL%1,    Mani%Daneshmand%NULL%1,    Daniel%Davis II%NULL%1,    Kim%De la Cruz%NULL%1,    Cyndie%Devers%NULL%1,    Toni%Duculan%NULL%1,    Lucian%Durham%NULL%1,    Subbarao%Elapavaluru%NULL%1,    Carlos V.%Elzo Kraemer%NULL%1,    EDMÍLSON CARDOSO%Filho%NULL%1,    Jillian%Fitzgerald%NULL%1,    Giuseppe%Foti%NULL%1,    Matthew%Fox%NULL%1,    David%Fritschen%NULL%1,    David%Fullerton%NULL%1,    Elton%Gelandt%NULL%1,    Stacy%Gerle%NULL%1,    Marco%Giani%NULL%1,    Si Guim%Goh%NULL%1,    Sara%Govener%NULL%1,    Julie%Grone%NULL%1,    Miles%Guber%NULL%1,    Vadim%Gudzenko%NULL%1,    Daniel%Gutteridge%NULL%1,    Jennifer%Guy%NULL%1,    Jonathan%Haft%NULL%1,    Cameron%Hall%NULL%1,    Ibrahim Fawzy%Hassan%NULL%1,    Rubén%Herrán%NULL%1,    Hitoshi%Hirose%NULL%2,    Abdulsalam Saif%Ibrahim%NULL%1,    Don%Igielski%NULL%1,    Felicia A.%Ivascu%NULL%1,    Jaume%Izquierdo Blasco%NULL%1,    Julie%Jackson%NULL%1,    Harsh%Jain%NULL%1,    Bhavini%Jaiswal%NULL%1,    Andrea C.%Johnson%NULL%1,    Jenniver A.%Jurynec%NULL%1,    Norma M%Kellter%NULL%1,    Adam%Kohl%NULL%1,    Zachary%Kon%NULL%1,    Markus%Kredel%NULL%1,    Karen%Kriska%NULL%1,    Chandra%Kunavarapu%NULL%1,    Oude%Lansink-Hartgring%NULL%1,    Jeliene%LaRocque%NULL%1,    Sharon Beth%Larson%NULL%1,    Tracie%Layne%NULL%1,    Stephane%Ledot%NULL%1,    Napolitan%Lena%NULL%1,    Jonathan%Lillie%NULL%1,    Gösta%Lotz%NULL%1,    Mark%Lucas%NULL%1,    Lee%Ludwigson%NULL%1,    Jacinta J.%Maas%NULL%1,    Joanna%Maertens%NULL%1,    David%Mast%NULL%1,    Scott%McCardle%NULL%1,    Bernard%McDonald%NULL%1,    Allison%McLarty%NULL%1,    Chelsea%McMahon%NULL%1,    Patrick%Meybohm%NULL%1,    Bart%Meyns%NULL%1,    Casey%Miller%NULL%1,    Fernando%Moraes Neto%NULL%1,    Kelly%Morris%NULL%1,    Ralf%Muellenbach%NULL%1,    Meghan%Nicholson%NULL%1,    Serena%O'Brien%NULL%1,    Kathryn%O'Keefe%NULL%1,    Tawnya%Ogston%NULL%1,    Gary%Oldenburg%NULL%1,    Fabiana M.%Oliveira%NULL%1,    Emily%Oppel%NULL%1,    Diego%Pardo%NULL%2,    Diego%Pardo%NULL%0,    Sara J.%Parker%NULL%1,    Finn M.%Pedersen%NULL%1,    Crescens%Pellecchia%NULL%1,    Jose A.S.%Pelligrini%NULL%1,    Thao T.N.%Pham%NULL%1,    Ann R.%Phillips%NULL%1,    Tasneem%Pirani%NULL%1,    Paweł%Piwowarczyk%NULL%1,    Robert%Plambeck%NULL%1,    William%Pruett%NULL%1,    Brittany%Quandt%NULL%1,    Kollengode%Ramanathan%NULL%1,    Alejandro%Rey%NULL%1,    Christian%Reyher%NULL%1,    Jordi%Riera del Brio%NULL%1,    Rachel%Roberts%NULL%1,    David%Roe%NULL%1,    Peter P.%Roeleveld%NULL%1,    Janet%Rudy%NULL%1,    Luis F.%Rueda%NULL%1,    Emanuele%Russo%NULL%1,    Jesús%Sánchez Ballesteros%NULL%1,    Nancy%Satou%NULL%1,    Mauricio Guidi%Saueressig%NULL%1,    Paul C.%Saunders%NULL%1,    Margaret%Schlotterbeck%NULL%1,    Patricia%Schwarz%NULL%1,    Nicole%Scriven%NULL%1,    Alexis%Serra%NULL%1,    Mohammad%Shamsah%NULL%1,    Lucy%Sim%NULL%1,    Alexandra%Smart%NULL%1,    Adam%Smith%NULL%1,    Deane%Smith%NULL%1,    Maggie%Smith%NULL%1,    Neel%Sodha%NULL%1,    Michael%Sonntagbauer%NULL%1,    Marc%Sorenson%NULL%1,    Eric B%Stallkamp%NULL%1,    Allison%Stewart%NULL%1,    Kathy%Swartz%NULL%1,    Koji%Takeda%NULL%1,    Shaun%Thompson%NULL%1,    Bridget%Toy%NULL%1,    Divina%Tuazon%NULL%1,    Makoto%Uchiyama%NULL%1,    Obiora I.%Udeozo%NULL%1,    Scott%van Poppel%NULL%1,    Corey%Ventetuolo%NULL%1,    Leen%Vercaemst%NULL%1,    Nguyen V.%Vinh Chau%NULL%1,    I-Wen%Wang%NULL%1,    Carrie%Williamson%NULL%1,    Brock%Wilson%NULL%1,    Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,     Dhaval%Kolte%NULL%1,     Mary E.%Cadigan%NULL%1,     Elizabeth%Laikhter%NULL%1,     Kevin%Sinclair%NULL%1,     Eugene%Pomerantsev%NULL%1,     Michael A.%Fifer%NULL%1,     Thoralf M.%Sundt%NULL%1,     Robert W.%Yeh%NULL%1,     Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,    Cabrini%Luca%coreGivesNoEmail%0,    Castelli%Antonio%coreGivesNoEmail%0,    Cecconi%Maurizio%coreGivesNoEmail%0,    Cereda%Danilo%coreGivesNoEmail%0,    Coluccello%Antonio%coreGivesNoEmail%0,    Foti%Giuseppe%coreGivesNoEmail%0,    Fumagalli%Roberto%coreGivesNoEmail%0,    Grasselli%Giacomo%coreGivesNoEmail%0,    Iotti%Giorgio%coreGivesNoEmail%0,    Latronico%Nicola%coreGivesNoEmail%0,    Lorini%Luca%coreGivesNoEmail%0,    Merler%Stefano%coreGivesNoEmail%0,    Natalini%Giuseppe%coreGivesNoEmail%0,    Pesenti%Antonio%coreGivesNoEmail%0,    Piatti%Alessandra%coreGivesNoEmail%0,    Ranieri%Marco Vito%coreGivesNoEmail%0,    Scandroglio%Anna Mara%coreGivesNoEmail%0,    Storti%Enrico%coreGivesNoEmail%0,    Zanella%Alberto%coreGivesNoEmail%0,    Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,     Yeming%Wang%NULL%0,     Xingwang%Li%NULL%0,     Lili%Ren%NULL%0,     Jianping%Zhao%NULL%0,     Yi%Hu%NULL%0,     Li%Zhang%NULL%0,     Guohui%Fan%NULL%0,     Jiuyang%Xu%NULL%0,     Xiaoying%Gu%NULL%0,     Zhenshun%Cheng%NULL%0,     Ting%Yu%NULL%0,     Jiaan%Xia%NULL%0,     Yuan%Wei%NULL%0,     Wenjuan%Wu%NULL%0,     Xuelei%Xie%NULL%0,     Wen%Yin%NULL%0,     Hui%Li%NULL%0,     Min%Liu%NULL%0,     Yan%Xiao%NULL%0,     Hong%Gao%NULL%0,     Li%Guo%NULL%0,     Jungang%Xie%NULL%0,     Guangfa%Wang%NULL%0,     Rongmeng%Jiang%NULL%0,     Zhancheng%Gao%NULL%0,     Qi%Jin%NULL%0,     Jianwei%Wang%wangjw28@163.com%0,     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,     Yi%Xiang%NULL%0,     Wei%Fang%NULL%0,     Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,     Boqun%Li%279685211@qq.com%0,     Boqun%Li%279685211@qq.com%0,     Yanjun%Hu%huyanjun@163.com%0,     Chunhui%Lang%NULL%0,     Daoqiu%Huang%NULL%0,     Qiuyan%Sun%NULL%0,     Yan%Xiong%NULL%0,     Xia%Huang%NULL%0,     Jinglong%Lv%NULL%0,     Yaling%Luo%NULL%0,     Li%Shen%NULL%0,     Haoran%Yang%NULL%0,     Gu%Huang%NULL%0,     Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,     Mark%Caridi-Scheible%NULL%0,     James M.%Blum%NULL%0,     Chad%Robichaux%NULL%0,     Colleen%Kraft%NULL%0,     Jesse T.%Jacob%NULL%0,     Craig S.%Jabaley%NULL%0,     David%Carpenter%NULL%0,     Roberta%Kaplow%NULL%0,     Alfonso C.%Hernandez-Romieu%NULL%0,     Max W.%Adelman%NULL%0,     Greg S.%Martin%NULL%0,     Craig M.%Coopersmith%NULL%0,     David J.%Murphy%NULL%0,     NULL%NULL%NULL%0,      S.%Auld%null%1,      M.% Caridi-Scheible%null%1,      J. M.% Blum%null%1,      C. J.% Robichaux%null%1,      C. S.% Kraft%null%1,      J. T.% Jacob%null%1,      C. S.% Jabaley%null%1,      D.% Carpenter%null%1,      R.% Kaplow%null%1,      A. C.% Hernandez%null%1,      M. W.% Adelman%null%1,      G. S.% Martin%null%1,      C. M.% Coopersmith%null%1,      D. J.% Murphy%null%1,        % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,    S.%Auld%null%1,    M.% Caridi-Scheible%null%1,    J. M.% Blum%null%1,    C. J.% Robichaux%null%1,    C. S.% Kraft%null%1,    J. T.% Jacob%null%1,    C. S.% Jabaley%null%1,    D.% Carpenter%null%1,    R.% Kaplow%null%1,    A. C.% Hernandez%null%1,    M. W.% Adelman%null%1,    G. S.% Martin%null%1,    C. M.% Coopersmith%null%1,    D. J.% Murphy%null%1,      % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,     Bijan J.%Ghassemieh%NULL%0,     Michelle%Nichols%NULL%0,     Richard%Kim%NULL%0,     Keith R.%Jerome%NULL%0,     Arun K.%Nalla%NULL%0,     Alexander L.%Greninger%NULL%0,     Sudhakar%Pipavath%NULL%0,     Mark M.%Wurfel%NULL%0,     Laura%Evans%NULL%0,     Patricia A.%Kritek%NULL%0,     T. Eoin%West%NULL%0,     Andrew%Luks%NULL%0,     Anthony%Gerbino%NULL%0,     Chris R.%Dale%NULL%0,     Jason D.%Goldman%NULL%0,     Shane%O’Mahony%NULL%0,     Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,     Tangkai%Qi%NULL%1,     Li%Liu%NULL%0,     Yun%Ling%NULL%0,     Zhiping%Qian%NULL%0,     Tao%Li%NULL%0,     Feng%Li%NULL%0,     Qingnian%Xu%NULL%0,     Yuyi%Zhang%NULL%0,     Shuibao%Xu%NULL%1,     Zhigang%Song%NULL%0,     Yigang%Zeng%NULL%1,     Yinzhong%Shen%NULL%1,     Yuxin%Shi%NULL%0,     Tongyu%Zhu%NULL%0,     Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,     Min%Zhou%NULL%0,     Xuan%Dong%NULL%0,     Jieming%Qu%NULL%0,     Fengyun%Gong%NULL%0,     Yang%Han%NULL%0,     Yang%Qiu%NULL%0,     Jingli%Wang%NULL%0,     Ying%Liu%NULL%0,     Yuan%Wei%NULL%0,     Jia'an%Xia%NULL%0,     Ting%Yu%NULL%0,     Xinxin%Zhang%NULL%0,     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,     Zheng-yi%Ni%NULL%0,     Zheng-yi%Ni%NULL%0,     Yu%Hu%NULL%0,     Wen-hua%Liang%NULL%0,     Chun-quan%Ou%NULL%0,     Jian-xing%He%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chun-liang%Lei%NULL%0,     David S.C.%Hui%NULL%0,     Bin%Du%NULL%0,     Lan-juan%Li%NULL%0,     Guang%Zeng%NULL%0,     Kwok-Yung%Yuen%NULL%0,     Ru-chong%Chen%NULL%0,     Chun-li%Tang%NULL%0,     Tao%Wang%NULL%0,     Ping-yan%Chen%NULL%0,     Jie%Xiang%NULL%0,     Shi-yue%Li%NULL%0,     Jin-lin%Wang%NULL%0,     Zi-jing%Liang%NULL%0,     Yi-xiang%Peng%NULL%0,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Ya-hua%Hu%NULL%0,     Peng%Peng%NULL%0,     Jian-ming%Wang%NULL%0,     Ji-yang%Liu%NULL%0,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhi-jian%Zheng%NULL%0,     Shao-qin%Qiu%NULL%0,     Jie%Luo%NULL%0,     Chang-jiang%Ye%NULL%0,     Shao-yong%Zhu%NULL%0,     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,     Yuanyuan%Xing%NULL%0,     Yu%Xiao%NULL%0,     Liping%Deng%NULL%0,     Qiu%Zhao%NULL%0,     Hongling%Wang%NULL%0,     Yong%Xiong%NULL%0,     Zhenshun%Cheng%NULL%0,     Shicheng%Gao%NULL%0,     Ke%Liang%NULL%0,     Mingqi%Luo%NULL%0,     Tielong%Chen%NULL%0,     Shihui%Song%NULL%0,     Zhiyong%Ma%NULL%0,     Xiaoping%Chen%NULL%0,     Ruiying%Zheng%NULL%0,     Qian%Cao%NULL%0,     Fan%Wang%fanndywang@foxmail.com%0,     Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,     N -B%Yang%NULL%1,     F%Ding%NULL%1,     A H Y%Ma%NULL%1,     Z -Y%Wang%NULL%2,     Y -F%Shen%NULL%1,     C -W%Shi%NULL%1,     X%Lian%NULL%1,     J -G%Chu%NULL%1,     L%Chen%chxmin@hotmail.com%1,     Z -Y%Wang%NULL%0,     D -W%Ren%NULL%1,     G -X%Li%NULL%1,     X -Q%Chen%chxmin@hotmail.com%1,     H -J%Shen%NULL%1,     X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,     Hugues%Spillemaeker%NULL%1,     Maéva%Kyheng%NULL%1,     Cassandre%Belin‐Vincent%NULL%1,     Cédric%Delhaye%NULL%1,     Adeline%Piérache%NULL%1,     Tom%Denimal%NULL%1,     Basile%Verdier%NULL%1,     Nicolas%Debry%NULL%1,     Mouhamed%Moussa%NULL%1,     Guillaume%Schurtz%NULL%1,     Sina%Porouchani%NULL%1,     Alessandro%Cosenza%NULL%1,     Francis%Juthier%NULL%1,     Thibault%Pamart%NULL%1,     Marjorie%Richardson%NULL%1,     Augustin%Coisne%NULL%1,     Adrien%Hertault%NULL%1,     Jonathan%Sobocinski%NULL%1,     Thomas%Modine%NULL%1,     François%Pontana%NULL%1,     Alain%Duhamel%NULL%1,     Julien%Labreuche%NULL%2,     Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,    Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,     Yimei%Yin%18256985@qq.com%1,     Chang%Hu%1391369733@qq.com%0,     Xing%Liu%375117565@qq.com%1,     Xingguo%Zhang%zhangxinguo7909@163.com%1,     Shuliang%Zhou%350925556@qq.com%1,     Mingzhi%Jian%Jmzhak@aliyun.com%1,     Haibo%Xu%xuhaibo1120@hotmail.com%0,     John%Prowle%j.prowle@qmul.ac.uk%1,     Bo%Hu%hobbier1979@163.com%0,     Yirong%Li%liyirong838@163.com%0,     Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,     Xiao-Xin%Wu%NULL%1,     Xian-Gao%Jiang%NULL%1,     Kai-Jin%Xu%NULL%1,     Ling-Jun%Ying%NULL%1,     Chun-Lian%Ma%NULL%1,     Shi-Bo%Li%NULL%1,     Hua-Ying%Wang%NULL%1,     Sheng%Zhang%NULL%0,     Hai-Nv%Gao%NULL%1,     Ji-Fang%Sheng%NULL%1,     Hong-Liu%Cai%NULL%1,     Yun-Qing%Qiu%NULL%1,     Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,     Chang%Hu%NULL%0,     Linjie%Luo%NULL%0,     Fang%Fang%NULL%0,     Yongfeng%Chen%NULL%0,     Jianguo%Li%NULL%0,     Zhiyong%Peng%NULL%0,     Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,     Chun%Liao%lc7spring@163.com%1,     Qi-hong%Fan%1187286305@qq.com%1,     Hong-bo%Chen%hbchen@hust.edu.cn%1,     Xue-gong%Zhao%NULL%1,     Zhong-guo%Xie%NULL%1,     Xi-lin%Li%NULL%1,     Chun-xi%Chen%NULL%1,     Xiao-xia%Lu%NULL%1,     Zhi-sheng%Liu%NULL%1,     Wei%Lu%NULL%1,     Chun-bao%Chen%NULL%1,     Rong%Jiao%NULL%1,     Ai-ming%Zhang%NULL%1,     Jin-tang%Wang%NULL%1,     Xi-wei%Ding%NULL%1,     Yao-guang%Zeng%NULL%1,     Li-ping%Cheng%NULL%1,     Qing-feng%Huang%NULL%1,     Jiang%Wu%NULL%0,     Xi-chang%Luo%NULL%1,     Zhu-jun%Wang%NULL%1,     Yan-yan%Zhong%NULL%1,     Yan%Bai%yanbaixh@hust.edu.cn%1,     Xiao-yan%Wu%xwu@hust.edu.cn%1,     Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,     Ting%Yu%NULL%0,     Ronghui%Du%NULL%0,     Guohui%Fan%NULL%0,     Ying%Liu%NULL%0,     Zhibo%Liu%NULL%0,     Jie%Xiang%NULL%0,     Yeming%Wang%NULL%0,     Bin%Song%NULL%0,     Xiaoying%Gu%NULL%0,     Lulu%Guan%NULL%0,     Yuan%Wei%NULL%0,     Hui%Li%NULL%0,     Xudong%Wu%NULL%0,     Jiuyang%Xu%NULL%0,     Shengjin%Tu%NULL%0,     Yi%Zhang%NULL%0,     Hua%Chen%NULL%0,     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,     Mengqi%Tu%NULL%1,     Shipei%Wang%NULL%1,     Sichao%Chen%NULL%1,     Wei%Zhou%NULL%0,     Danyang%Chen%NULL%1,     Lin%Zhou%NULL%1,     Min%Wang%NULL%1,     Yan%Zhao%NULL%1,     Wen%Zeng%NULL%1,     Qi%Huang%NULL%0,     Hai'bo%Xu%NULL%1,     Zeming%Liu%NULL%1,     Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,     Yuan%Yu%NULL%0,     Jiqian%Xu%NULL%0,     Huaqing%Shu%NULL%0,     Jia'an%Xia%NULL%0,     Hong%Liu%NULL%0,     Yongran%Wu%NULL%0,     Lu%Zhang%NULL%0,     Zhui%Yu%NULL%0,     Minghao%Fang%NULL%0,     Ting%Yu%NULL%0,     Yaxin%Wang%NULL%0,     Shangwen%Pan%NULL%0,     Xiaojing%Zou%NULL%0,     Shiying%Yuan%NULL%0,     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,     Wei-jie%Guan%NULL%1,     Cai-chen%Li%NULL%1,     Yi-min%Li%NULL%1,     Heng-rui%Liang%NULL%1,     Yi%Zhao%NULL%0,     Xiao-qing%Liu%NULL%1,     Ling%Sang%NULL%0,     Ru-chong%Chen%NULL%0,     Chun-li%Tang%NULL%0,     Tao%Wang%NULL%0,     Wei%Wang%NULL%0,     Qi-hua%He%NULL%1,     Zi-sheng%Chen%NULL%1,     Sook-San%Wong%NULL%1,     Mark%Zanin%NULL%1,     Jun%Liu%NULL%1,     Xin%Xu%NULL%1,     Jun%Huang%NULL%1,     Jian-fu%Li%NULL%1,     Li-min%Ou%NULL%1,     Bo%Cheng%NULL%1,     Shan%Xiong%NULL%1,     Zhan-hong%Xie%NULL%1,     Zheng-yi%Ni%NULL%0,     Yu%Hu%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chun-liang%Lei%NULL%0,     Yi-xiang%Peng%NULL%0,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Ya-hua%Hu%NULL%0,     Peng%Peng%NULL%0,     Jian-ming%Wang%NULL%0,     Ji-yang%Liu%NULL%0,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhi-jian%Zheng%NULL%0,     Shao-qin%Qiu%NULL%0,     Jie%Luo%NULL%0,     Chang-jiang%Ye%NULL%0,     Shao-yong%Zhu%NULL%0,     Lin-ling%Cheng%NULL%1,     Feng%Ye%NULL%0,     Shi-yue%Li%NULL%0,     Jin-ping%Zheng%NULL%1,     Nuo-fu%Zhang%NULL%1,     Nan-shan%Zhong%NULL%0,     Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,     Simon A%Jones%NULL%0,     Jie%Yang%NULL%0,     Harish%Rajagopalan%NULL%0,     Luke%O’Donnell%NULL%0,     Yelena%Chernyak%NULL%0,     Katie A%Tobin%NULL%0,     Robert J%Cerfolio%NULL%0,     Fritz%Francois%NULL%0,     Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0,     Stephanie%Bialek%NULL%1,     Ellen%Boundy%NULL%1,     Virginia%Bowen%NULL%1,     Nancy%Chow%NULL%0,     Amanda%Cohn%NULL%1,     Nicole%Dowling%NULL%1,     Sascha%Ellington%NULL%1,     Ryan%Gierke%NULL%0,     Aron%Hall%NULL%0,     Jessica%MacNeil%NULL%1,     Priti%Patel%NULL%1,     Georgina%Peacock%NULL%1,     Tamara%Pilishvili%NULL%0,     Hilda%Razzaghi%NULL%1,     Nia%Reed%NULL%1,     Matthew%Ritchey%NULL%0,     Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,     Pedro%Póvoa%NULL%1,     Vicente%Souza-Dantas%NULL%1,     André C.%Kalil%NULL%1,     Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,     Graeme%MacLaren%NULL%2,     Philip S%Boonstra%NULL%2,     Theodore J%Iwashyna%NULL%2,     Arthur S%Slutsky%NULL%2,     Eddy%Fan%NULL%2,     Robert H%Bartlett%NULL%2,     Joseph E%Tonna%NULL%2,     Robert%Hyslop%NULL%2,     Jeffrey J%Fanning%NULL%2,     Peter T%Rycus%NULL%2,     Steve J%Hyer%NULL%2,     Marc M%Anders%NULL%2,     Cara L%Agerstrand%NULL%2,     Katarzyna%Hryniewicz%NULL%2,     Rodrigo%Diaz%NULL%2,     Roberto%Lorusso%NULL%2,     Alain%Combes%NULL%2,     Daniel%Brodie%NULL%3,     Peta%Alexander%NULL%2,     Nicholas%Barrett%NULL%0,     Jan%Bělohlávek%NULL%2,     Dale%Fisher%NULL%2,     John%Fraser%NULL%2,     Ali Ait%Hssain%NULL%0,     Jae Sung%Jung%NULL%2,     Michael%McMullan%NULL%2,     Yatin%Mehta%NULL%2,     Mark T.%Ogino%NULL%2,     Matthew L.%Paden%NULL%2,     Kiran%Shekar%NULL%2,     Christine%Stead%NULL%2,     Yasir%Abu-Omar%NULL%2,     Vanni%Agnoletti%NULL%2,     Anzila%Akbar%NULL%2,     Huda%Alfoudri%NULL%2,     Carlos%Alviar%NULL%2,     Vladimir%Aronsky%NULL%2,     Erin%August%NULL%2,     Georg%Auzinger%NULL%2,     Hilda%Aveja%NULL%2,     Rhonda%Bakken%NULL%2,     Joan%Balcells%NULL%2,     Sripal%Bangalore%NULL%2,     Bernard W.%Barnes%NULL%2,     Alaiza%Bautista%NULL%2,     Lorraine L.%Bellows%NULL%2,     Felipe%Beltran%NULL%2,     Peyman%Benharash%NULL%2,     Marco%Benni%NULL%2,     Jennifer%Berg%NULL%2,     Pietro%Bertini%NULL%2,     Pablo%Blanco-Schweizer%NULL%2,     Melissa%Brunsvold%NULL%2,     Jenny%Budd%NULL%2,     Debra%Camp%NULL%2,     Mark%Caridi-Scheible%NULL%0,     Edmund%Carton%NULL%2,     Elena%Casanova-Ghosh%NULL%2,     Anthony%Castleberry%NULL%2,     Christopher T.%Chipongian%NULL%2,     Chang Woo%Choi%NULL%2,     Alessandro%Circelli%NULL%2,     Elliott%Cohen%NULL%2,     Michael%Collins%NULL%2,     Scott%Copus%NULL%2,     Jill%Coy%NULL%2,     Brandon%Crist%NULL%2,     Leonora%Cruz%NULL%2,     Mirosław%Czuczwar%NULL%2,     Mani%Daneshmand%NULL%2,     Daniel%Davis II%NULL%2,     Kim%De la Cruz%NULL%2,     Cyndie%Devers%NULL%2,     Toni%Duculan%NULL%2,     Lucian%Durham%NULL%2,     Subbarao%Elapavaluru%NULL%2,     Carlos V.%Elzo Kraemer%NULL%2,     EDMÍLSON CARDOSO%Filho%NULL%2,     Jillian%Fitzgerald%NULL%2,     Giuseppe%Foti%NULL%2,     Matthew%Fox%NULL%2,     David%Fritschen%NULL%2,     David%Fullerton%NULL%2,     Elton%Gelandt%NULL%2,     Stacy%Gerle%NULL%2,     Marco%Giani%NULL%2,     Si Guim%Goh%NULL%2,     Sara%Govener%NULL%2,     Julie%Grone%NULL%2,     Miles%Guber%NULL%2,     Vadim%Gudzenko%NULL%2,     Daniel%Gutteridge%NULL%2,     Jennifer%Guy%NULL%2,     Jonathan%Haft%NULL%2,     Cameron%Hall%NULL%2,     Ibrahim Fawzy%Hassan%NULL%2,     Rubén%Herrán%NULL%2,     Hitoshi%Hirose%NULL%2,     Abdulsalam Saif%Ibrahim%NULL%2,     Don%Igielski%NULL%2,     Felicia A.%Ivascu%NULL%2,     Jaume%Izquierdo Blasco%NULL%2,     Julie%Jackson%NULL%2,     Harsh%Jain%NULL%2,     Bhavini%Jaiswal%NULL%2,     Andrea C.%Johnson%NULL%2,     Jenniver A.%Jurynec%NULL%2,     Norma M%Kellter%NULL%2,     Adam%Kohl%NULL%2,     Zachary%Kon%NULL%2,     Markus%Kredel%NULL%2,     Karen%Kriska%NULL%2,     Chandra%Kunavarapu%NULL%2,     Oude%Lansink-Hartgring%NULL%2,     Jeliene%LaRocque%NULL%2,     Sharon Beth%Larson%NULL%2,     Tracie%Layne%NULL%2,     Stephane%Ledot%NULL%2,     Napolitan%Lena%NULL%2,     Jonathan%Lillie%NULL%2,     Gösta%Lotz%NULL%2,     Mark%Lucas%NULL%2,     Lee%Ludwigson%NULL%2,     Jacinta J.%Maas%NULL%2,     Joanna%Maertens%NULL%2,     David%Mast%NULL%2,     Scott%McCardle%NULL%2,     Bernard%McDonald%NULL%2,     Allison%McLarty%NULL%2,     Chelsea%McMahon%NULL%2,     Patrick%Meybohm%NULL%2,     Bart%Meyns%NULL%2,     Casey%Miller%NULL%2,     Fernando%Moraes Neto%NULL%2,     Kelly%Morris%NULL%2,     Ralf%Muellenbach%NULL%2,     Meghan%Nicholson%NULL%2,     Serena%O'Brien%NULL%2,     Kathryn%O'Keefe%NULL%2,     Tawnya%Ogston%NULL%2,     Gary%Oldenburg%NULL%2,     Fabiana M.%Oliveira%NULL%2,     Emily%Oppel%NULL%2,     Diego%Pardo%NULL%4,     Diego%Pardo%NULL%0,     Sara J.%Parker%NULL%2,     Finn M.%Pedersen%NULL%2,     Crescens%Pellecchia%NULL%2,     Jose A.S.%Pelligrini%NULL%2,     Thao T.N.%Pham%NULL%2,     Ann R.%Phillips%NULL%2,     Tasneem%Pirani%NULL%2,     Paweł%Piwowarczyk%NULL%2,     Robert%Plambeck%NULL%2,     William%Pruett%NULL%2,     Brittany%Quandt%NULL%2,     Kollengode%Ramanathan%NULL%2,     Alejandro%Rey%NULL%2,     Christian%Reyher%NULL%2,     Jordi%Riera del Brio%NULL%2,     Rachel%Roberts%NULL%2,     David%Roe%NULL%2,     Peter P.%Roeleveld%NULL%2,     Janet%Rudy%NULL%2,     Luis F.%Rueda%NULL%2,     Emanuele%Russo%NULL%2,     Jesús%Sánchez Ballesteros%NULL%2,     Nancy%Satou%NULL%2,     Mauricio Guidi%Saueressig%NULL%2,     Paul C.%Saunders%NULL%2,     Margaret%Schlotterbeck%NULL%2,     Patricia%Schwarz%NULL%2,     Nicole%Scriven%NULL%2,     Alexis%Serra%NULL%2,     Mohammad%Shamsah%NULL%2,     Lucy%Sim%NULL%2,     Alexandra%Smart%NULL%2,     Adam%Smith%NULL%2,     Deane%Smith%NULL%2,     Maggie%Smith%NULL%2,     Neel%Sodha%NULL%2,     Michael%Sonntagbauer%NULL%2,     Marc%Sorenson%NULL%2,     Eric B%Stallkamp%NULL%2,     Allison%Stewart%NULL%2,     Kathy%Swartz%NULL%2,     Koji%Takeda%NULL%2,     Shaun%Thompson%NULL%2,     Bridget%Toy%NULL%2,     Divina%Tuazon%NULL%2,     Makoto%Uchiyama%NULL%2,     Obiora I.%Udeozo%NULL%2,     Scott%van Poppel%NULL%2,     Corey%Ventetuolo%NULL%2,     Leen%Vercaemst%NULL%2,     Nguyen V.%Vinh Chau%NULL%2,     I-Wen%Wang%NULL%2,     Carrie%Williamson%NULL%2,     Brock%Wilson%NULL%2,     Helen%Winkels%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,      Dhaval%Kolte%NULL%1,      Mary E.%Cadigan%NULL%1,      Elizabeth%Laikhter%NULL%1,      Kevin%Sinclair%NULL%1,      Eugene%Pomerantsev%NULL%1,      Michael A.%Fifer%NULL%1,      Thoralf M.%Sundt%NULL%1,      Robert W.%Yeh%NULL%1,      Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,     Cabrini%Luca%coreGivesNoEmail%4,     Castelli%Antonio%coreGivesNoEmail%4,     Cecconi%Maurizio%coreGivesNoEmail%4,     Cereda%Danilo%coreGivesNoEmail%4,     Coluccello%Antonio%coreGivesNoEmail%4,     Foti%Giuseppe%coreGivesNoEmail%4,     Fumagalli%Roberto%coreGivesNoEmail%4,     Grasselli%Giacomo%coreGivesNoEmail%4,     Iotti%Giorgio%coreGivesNoEmail%4,     Latronico%Nicola%coreGivesNoEmail%4,     Lorini%Luca%coreGivesNoEmail%4,     Merler%Stefano%coreGivesNoEmail%4,     Natalini%Giuseppe%coreGivesNoEmail%4,     Pesenti%Antonio%coreGivesNoEmail%4,     Piatti%Alessandra%coreGivesNoEmail%4,     Ranieri%Marco Vito%coreGivesNoEmail%4,     Scandroglio%Anna Mara%coreGivesNoEmail%4,     Storti%Enrico%coreGivesNoEmail%4,     Zanella%Alberto%coreGivesNoEmail%4,     Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,      Yeming%Wang%NULL%0,      Xingwang%Li%NULL%0,      Lili%Ren%NULL%0,      Jianping%Zhao%NULL%0,      Yi%Hu%NULL%0,      Li%Zhang%NULL%0,      Guohui%Fan%NULL%0,      Jiuyang%Xu%NULL%0,      Xiaoying%Gu%NULL%0,      Zhenshun%Cheng%NULL%0,      Ting%Yu%NULL%0,      Jiaan%Xia%NULL%0,      Yuan%Wei%NULL%0,      Wenjuan%Wu%NULL%0,      Xuelei%Xie%NULL%0,      Wen%Yin%NULL%0,      Hui%Li%NULL%0,      Min%Liu%NULL%0,      Yan%Xiao%NULL%0,      Hong%Gao%NULL%0,      Li%Guo%NULL%0,      Jungang%Xie%NULL%0,      Guangfa%Wang%NULL%0,      Rongmeng%Jiang%NULL%0,      Zhancheng%Gao%NULL%0,      Qi%Jin%NULL%0,      Jianwei%Wang%wangjw28@163.com%0,      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,      Yi%Xiang%NULL%0,      Wei%Fang%NULL%0,      Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,      Boqun%Li%279685211@qq.com%0,      Boqun%Li%279685211@qq.com%0,      Yanjun%Hu%huyanjun@163.com%0,      Chunhui%Lang%NULL%0,      Daoqiu%Huang%NULL%0,      Qiuyan%Sun%NULL%0,      Yan%Xiong%NULL%0,      Xia%Huang%NULL%0,      Jinglong%Lv%NULL%0,      Yaling%Luo%NULL%0,      Li%Shen%NULL%0,      Haoran%Yang%NULL%0,      Gu%Huang%NULL%0,      Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,      Mark%Caridi-Scheible%NULL%0,      James M.%Blum%NULL%0,      Chad%Robichaux%NULL%0,      Colleen%Kraft%NULL%0,      Jesse T.%Jacob%NULL%0,      Craig S.%Jabaley%NULL%0,      David%Carpenter%NULL%0,      Roberta%Kaplow%NULL%0,      Alfonso C.%Hernandez-Romieu%NULL%0,      Max W.%Adelman%NULL%0,      Greg S.%Martin%NULL%0,      Craig M.%Coopersmith%NULL%0,      David J.%Murphy%NULL%0,      NULL%NULL%NULL%0,       S.%Auld%null%1,       M.% Caridi-Scheible%null%1,       J. M.% Blum%null%1,       C. J.% Robichaux%null%1,       C. S.% Kraft%null%1,       J. T.% Jacob%null%1,       C. S.% Jabaley%null%1,       D.% Carpenter%null%1,       R.% Kaplow%null%1,       A. C.% Hernandez%null%1,       M. W.% Adelman%null%1,       G. S.% Martin%null%1,       C. M.% Coopersmith%null%1,       D. J.% Murphy%null%1,         % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,     S.%Auld%null%1,     M.% Caridi-Scheible%null%1,     J. M.% Blum%null%1,     C. J.% Robichaux%null%1,     C. S.% Kraft%null%1,     J. T.% Jacob%null%1,     C. S.% Jabaley%null%1,     D.% Carpenter%null%1,     R.% Kaplow%null%1,     A. C.% Hernandez%null%1,     M. W.% Adelman%null%1,     G. S.% Martin%null%1,     C. M.% Coopersmith%null%1,     D. J.% Murphy%null%1,       % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,      Bijan J.%Ghassemieh%NULL%0,      Michelle%Nichols%NULL%0,      Richard%Kim%NULL%0,      Keith R.%Jerome%NULL%0,      Arun K.%Nalla%NULL%0,      Alexander L.%Greninger%NULL%0,      Sudhakar%Pipavath%NULL%0,      Mark M.%Wurfel%NULL%0,      Laura%Evans%NULL%0,      Patricia A.%Kritek%NULL%0,      T. Eoin%West%NULL%0,      Andrew%Luks%NULL%0,      Anthony%Gerbino%NULL%0,      Chris R.%Dale%NULL%0,      Jason D.%Goldman%NULL%0,      Shane%O’Mahony%NULL%0,      Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,      Tangkai%Qi%NULL%1,      Li%Liu%NULL%0,      Yun%Ling%NULL%0,      Zhiping%Qian%NULL%0,      Tao%Li%NULL%0,      Feng%Li%NULL%0,      Qingnian%Xu%NULL%0,      Yuyi%Zhang%NULL%0,      Shuibao%Xu%NULL%1,      Zhigang%Song%NULL%0,      Yigang%Zeng%NULL%1,      Yinzhong%Shen%NULL%1,      Yuxin%Shi%NULL%0,      Tongyu%Zhu%NULL%0,      Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,      Min%Zhou%NULL%0,      Xuan%Dong%NULL%0,      Jieming%Qu%NULL%0,      Fengyun%Gong%NULL%0,      Yang%Han%NULL%0,      Yang%Qiu%NULL%0,      Jingli%Wang%NULL%0,      Ying%Liu%NULL%0,      Yuan%Wei%NULL%0,      Jia'an%Xia%NULL%0,      Ting%Yu%NULL%0,      Xinxin%Zhang%NULL%0,      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,      Zheng-yi%Ni%NULL%0,      Zheng-yi%Ni%NULL%0,      Yu%Hu%NULL%0,      Wen-hua%Liang%NULL%0,      Chun-quan%Ou%NULL%0,      Jian-xing%He%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chun-liang%Lei%NULL%0,      David S.C.%Hui%NULL%0,      Bin%Du%NULL%0,      Lan-juan%Li%NULL%0,      Guang%Zeng%NULL%0,      Kwok-Yung%Yuen%NULL%0,      Ru-chong%Chen%NULL%0,      Chun-li%Tang%NULL%0,      Tao%Wang%NULL%0,      Ping-yan%Chen%NULL%0,      Jie%Xiang%NULL%0,      Shi-yue%Li%NULL%0,      Jin-lin%Wang%NULL%0,      Zi-jing%Liang%NULL%0,      Yi-xiang%Peng%NULL%0,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Ya-hua%Hu%NULL%0,      Peng%Peng%NULL%0,      Jian-ming%Wang%NULL%0,      Ji-yang%Liu%NULL%0,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhi-jian%Zheng%NULL%0,      Shao-qin%Qiu%NULL%0,      Jie%Luo%NULL%0,      Chang-jiang%Ye%NULL%0,      Shao-yong%Zhu%NULL%0,      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,      Yuanyuan%Xing%NULL%0,      Yu%Xiao%NULL%0,      Liping%Deng%NULL%0,      Qiu%Zhao%NULL%0,      Hongling%Wang%NULL%0,      Yong%Xiong%NULL%0,      Zhenshun%Cheng%NULL%0,      Shicheng%Gao%NULL%0,      Ke%Liang%NULL%0,      Mingqi%Luo%NULL%0,      Tielong%Chen%NULL%0,      Shihui%Song%NULL%0,      Zhiyong%Ma%NULL%0,      Xiaoping%Chen%NULL%0,      Ruiying%Zheng%NULL%0,      Qian%Cao%NULL%0,      Fan%Wang%fanndywang@foxmail.com%0,      Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,      N -B%Yang%NULL%1,      F%Ding%NULL%1,      A H Y%Ma%NULL%1,      Z -Y%Wang%NULL%2,      Y -F%Shen%NULL%1,      C -W%Shi%NULL%1,      X%Lian%NULL%1,      J -G%Chu%NULL%1,      L%Chen%chxmin@hotmail.com%1,      Z -Y%Wang%NULL%0,      D -W%Ren%NULL%1,      G -X%Li%NULL%1,      X -Q%Chen%chxmin@hotmail.com%1,      H -J%Shen%NULL%1,      X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,      Hugues%Spillemaeker%NULL%1,      Maéva%Kyheng%NULL%1,      Cassandre%Belin‐Vincent%NULL%1,      Cédric%Delhaye%NULL%1,      Adeline%Piérache%NULL%1,      Tom%Denimal%NULL%1,      Basile%Verdier%NULL%1,      Nicolas%Debry%NULL%1,      Mouhamed%Moussa%NULL%1,      Guillaume%Schurtz%NULL%1,      Sina%Porouchani%NULL%1,      Alessandro%Cosenza%NULL%1,      Francis%Juthier%NULL%1,      Thibault%Pamart%NULL%1,      Marjorie%Richardson%NULL%1,      Augustin%Coisne%NULL%1,      Adrien%Hertault%NULL%1,      Jonathan%Sobocinski%NULL%1,      Thomas%Modine%NULL%1,      François%Pontana%NULL%1,      Alain%Duhamel%NULL%1,      Julien%Labreuche%NULL%2,      Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,     Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,      Yimei%Yin%18256985@qq.com%1,      Chang%Hu%1391369733@qq.com%0,      Xing%Liu%375117565@qq.com%1,      Xingguo%Zhang%zhangxinguo7909@163.com%1,      Shuliang%Zhou%350925556@qq.com%1,      Mingzhi%Jian%Jmzhak@aliyun.com%1,      Haibo%Xu%xuhaibo1120@hotmail.com%0,      John%Prowle%j.prowle@qmul.ac.uk%1,      Bo%Hu%hobbier1979@163.com%0,      Yirong%Li%liyirong838@163.com%0,      Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,      Xiao-Xin%Wu%NULL%1,      Xian-Gao%Jiang%NULL%1,      Kai-Jin%Xu%NULL%1,      Ling-Jun%Ying%NULL%1,      Chun-Lian%Ma%NULL%1,      Shi-Bo%Li%NULL%1,      Hua-Ying%Wang%NULL%1,      Sheng%Zhang%NULL%1,      Hai-Nv%Gao%NULL%1,      Ji-Fang%Sheng%NULL%1,      Hong-Liu%Cai%NULL%1,      Yun-Qing%Qiu%NULL%1,      Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,      Chang%Hu%NULL%0,      Linjie%Luo%NULL%0,      Fang%Fang%NULL%0,      Yongfeng%Chen%NULL%0,      Jianguo%Li%NULL%0,      Zhiyong%Peng%NULL%0,      Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,      Chun%Liao%lc7spring@163.com%1,      Qi-hong%Fan%1187286305@qq.com%1,      Hong-bo%Chen%hbchen@hust.edu.cn%1,      Xue-gong%Zhao%NULL%1,      Zhong-guo%Xie%NULL%1,      Xi-lin%Li%NULL%1,      Chun-xi%Chen%NULL%1,      Xiao-xia%Lu%NULL%1,      Zhi-sheng%Liu%NULL%1,      Wei%Lu%NULL%1,      Chun-bao%Chen%NULL%1,      Rong%Jiao%NULL%1,      Ai-ming%Zhang%NULL%1,      Jin-tang%Wang%NULL%1,      Xi-wei%Ding%NULL%1,      Yao-guang%Zeng%NULL%1,      Li-ping%Cheng%NULL%1,      Qing-feng%Huang%NULL%1,      Jiang%Wu%NULL%0,      Xi-chang%Luo%NULL%1,      Zhu-jun%Wang%NULL%1,      Yan-yan%Zhong%NULL%1,      Yan%Bai%yanbaixh@hust.edu.cn%1,      Xiao-yan%Wu%xwu@hust.edu.cn%1,      Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,      Ting%Yu%NULL%0,      Ronghui%Du%NULL%0,      Guohui%Fan%NULL%0,      Ying%Liu%NULL%0,      Zhibo%Liu%NULL%0,      Jie%Xiang%NULL%0,      Yeming%Wang%NULL%0,      Bin%Song%NULL%0,      Xiaoying%Gu%NULL%0,      Lulu%Guan%NULL%0,      Yuan%Wei%NULL%0,      Hui%Li%NULL%0,      Xudong%Wu%NULL%0,      Jiuyang%Xu%NULL%0,      Shengjin%Tu%NULL%0,      Yi%Zhang%NULL%0,      Hua%Chen%NULL%0,      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,      Mengqi%Tu%NULL%1,      Shipei%Wang%NULL%1,      Sichao%Chen%NULL%1,      Wei%Zhou%NULL%0,      Danyang%Chen%NULL%1,      Lin%Zhou%NULL%1,      Min%Wang%NULL%1,      Yan%Zhao%NULL%1,      Wen%Zeng%NULL%1,      Qi%Huang%NULL%0,      Hai'bo%Xu%NULL%1,      Zeming%Liu%NULL%1,      Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,      Yuan%Yu%NULL%0,      Jiqian%Xu%NULL%0,      Huaqing%Shu%NULL%0,      Jia'an%Xia%NULL%0,      Hong%Liu%NULL%0,      Yongran%Wu%NULL%0,      Lu%Zhang%NULL%0,      Zhui%Yu%NULL%0,      Minghao%Fang%NULL%0,      Ting%Yu%NULL%0,      Yaxin%Wang%NULL%0,      Shangwen%Pan%NULL%0,      Xiaojing%Zou%NULL%0,      Shiying%Yuan%NULL%0,      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,      Wei-jie%Guan%NULL%1,      Cai-chen%Li%NULL%1,      Yi-min%Li%NULL%1,      Heng-rui%Liang%NULL%1,      Yi%Zhao%NULL%0,      Xiao-qing%Liu%NULL%1,      Ling%Sang%NULL%0,      Ru-chong%Chen%NULL%0,      Chun-li%Tang%NULL%0,      Tao%Wang%NULL%0,      Wei%Wang%NULL%0,      Qi-hua%He%NULL%1,      Zi-sheng%Chen%NULL%1,      Sook-San%Wong%NULL%1,      Mark%Zanin%NULL%1,      Jun%Liu%NULL%1,      Xin%Xu%NULL%1,      Jun%Huang%NULL%1,      Jian-fu%Li%NULL%1,      Li-min%Ou%NULL%1,      Bo%Cheng%NULL%1,      Shan%Xiong%NULL%1,      Zhan-hong%Xie%NULL%1,      Zheng-yi%Ni%NULL%0,      Yu%Hu%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chun-liang%Lei%NULL%0,      Yi-xiang%Peng%NULL%0,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Ya-hua%Hu%NULL%0,      Peng%Peng%NULL%0,      Jian-ming%Wang%NULL%0,      Ji-yang%Liu%NULL%0,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhi-jian%Zheng%NULL%0,      Shao-qin%Qiu%NULL%0,      Jie%Luo%NULL%0,      Chang-jiang%Ye%NULL%0,      Shao-yong%Zhu%NULL%0,      Lin-ling%Cheng%NULL%1,      Feng%Ye%NULL%0,      Shi-yue%Li%NULL%0,      Jin-ping%Zheng%NULL%1,      Nuo-fu%Zhang%NULL%1,      Nan-shan%Zhong%NULL%0,      Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,      Simon A%Jones%NULL%0,      Jie%Yang%NULL%0,      Harish%Rajagopalan%NULL%0,      Luke%O’Donnell%NULL%0,      Yelena%Chernyak%NULL%0,      Katie A%Tobin%NULL%0,      Robert J%Cerfolio%NULL%0,      Fritz%Francois%NULL%0,      Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0,      Stephanie%Bialek%NULL%1,      Ellen%Boundy%NULL%1,      Virginia%Bowen%NULL%1,      Nancy%Chow%NULL%0,      Amanda%Cohn%NULL%1,      Nicole%Dowling%NULL%1,      Sascha%Ellington%NULL%1,      Ryan%Gierke%NULL%0,      Aron%Hall%NULL%0,      Jessica%MacNeil%NULL%1,      Priti%Patel%NULL%1,      Georgina%Peacock%NULL%1,      Tamara%Pilishvili%NULL%0,      Hilda%Razzaghi%NULL%1,      Nia%Reed%NULL%1,      Matthew%Ritchey%NULL%0,      Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,      Pedro%Póvoa%NULL%1,      Vicente%Souza-Dantas%NULL%1,      André C.%Kalil%NULL%1,      Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,      Graeme%MacLaren%NULL%2,      Philip S%Boonstra%NULL%2,      Theodore J%Iwashyna%NULL%2,      Arthur S%Slutsky%NULL%2,      Eddy%Fan%NULL%2,      Robert H%Bartlett%NULL%2,      Joseph E%Tonna%NULL%2,      Robert%Hyslop%NULL%2,      Jeffrey J%Fanning%NULL%2,      Peter T%Rycus%NULL%2,      Steve J%Hyer%NULL%2,      Marc M%Anders%NULL%2,      Cara L%Agerstrand%NULL%2,      Katarzyna%Hryniewicz%NULL%2,      Rodrigo%Diaz%NULL%2,      Roberto%Lorusso%NULL%2,      Alain%Combes%NULL%2,      Daniel%Brodie%NULL%3,      Peta%Alexander%NULL%2,      Nicholas%Barrett%NULL%0,      Jan%Bělohlávek%NULL%2,      Dale%Fisher%NULL%2,      John%Fraser%NULL%2,      Ali Ait%Hssain%NULL%0,      Jae Sung%Jung%NULL%2,      Michael%McMullan%NULL%2,      Yatin%Mehta%NULL%2,      Mark T.%Ogino%NULL%2,      Matthew L.%Paden%NULL%2,      Kiran%Shekar%NULL%2,      Christine%Stead%NULL%2,      Yasir%Abu-Omar%NULL%2,      Vanni%Agnoletti%NULL%2,      Anzila%Akbar%NULL%2,      Huda%Alfoudri%NULL%2,      Carlos%Alviar%NULL%2,      Vladimir%Aronsky%NULL%2,      Erin%August%NULL%2,      Georg%Auzinger%NULL%2,      Hilda%Aveja%NULL%2,      Rhonda%Bakken%NULL%2,      Joan%Balcells%NULL%2,      Sripal%Bangalore%NULL%2,      Bernard W.%Barnes%NULL%2,      Alaiza%Bautista%NULL%2,      Lorraine L.%Bellows%NULL%2,      Felipe%Beltran%NULL%2,      Peyman%Benharash%NULL%2,      Marco%Benni%NULL%2,      Jennifer%Berg%NULL%2,      Pietro%Bertini%NULL%2,      Pablo%Blanco-Schweizer%NULL%2,      Melissa%Brunsvold%NULL%2,      Jenny%Budd%NULL%2,      Debra%Camp%NULL%2,      Mark%Caridi-Scheible%NULL%0,      Edmund%Carton%NULL%2,      Elena%Casanova-Ghosh%NULL%2,      Anthony%Castleberry%NULL%2,      Christopher T.%Chipongian%NULL%2,      Chang Woo%Choi%NULL%2,      Alessandro%Circelli%NULL%2,      Elliott%Cohen%NULL%2,      Michael%Collins%NULL%2,      Scott%Copus%NULL%2,      Jill%Coy%NULL%2,      Brandon%Crist%NULL%2,      Leonora%Cruz%NULL%2,      Mirosław%Czuczwar%NULL%2,      Mani%Daneshmand%NULL%2,      Daniel%Davis II%NULL%2,      Kim%De la Cruz%NULL%2,      Cyndie%Devers%NULL%2,      Toni%Duculan%NULL%2,      Lucian%Durham%NULL%2,      Subbarao%Elapavaluru%NULL%2,      Carlos V.%Elzo Kraemer%NULL%2,      EDMÍLSON CARDOSO%Filho%NULL%2,      Jillian%Fitzgerald%NULL%2,      Giuseppe%Foti%NULL%2,      Matthew%Fox%NULL%2,      David%Fritschen%NULL%2,      David%Fullerton%NULL%2,      Elton%Gelandt%NULL%2,      Stacy%Gerle%NULL%2,      Marco%Giani%NULL%2,      Si Guim%Goh%NULL%2,      Sara%Govener%NULL%2,      Julie%Grone%NULL%2,      Miles%Guber%NULL%2,      Vadim%Gudzenko%NULL%2,      Daniel%Gutteridge%NULL%2,      Jennifer%Guy%NULL%2,      Jonathan%Haft%NULL%2,      Cameron%Hall%NULL%2,      Ibrahim Fawzy%Hassan%NULL%2,      Rubén%Herrán%NULL%2,      Hitoshi%Hirose%NULL%2,      Abdulsalam Saif%Ibrahim%NULL%2,      Don%Igielski%NULL%2,      Felicia A.%Ivascu%NULL%2,      Jaume%Izquierdo Blasco%NULL%2,      Julie%Jackson%NULL%2,      Harsh%Jain%NULL%2,      Bhavini%Jaiswal%NULL%2,      Andrea C.%Johnson%NULL%2,      Jenniver A.%Jurynec%NULL%2,      Norma M%Kellter%NULL%2,      Adam%Kohl%NULL%2,      Zachary%Kon%NULL%2,      Markus%Kredel%NULL%2,      Karen%Kriska%NULL%2,      Chandra%Kunavarapu%NULL%2,      Oude%Lansink-Hartgring%NULL%2,      Jeliene%LaRocque%NULL%2,      Sharon Beth%Larson%NULL%2,      Tracie%Layne%NULL%2,      Stephane%Ledot%NULL%2,      Napolitan%Lena%NULL%2,      Jonathan%Lillie%NULL%2,      Gösta%Lotz%NULL%2,      Mark%Lucas%NULL%2,      Lee%Ludwigson%NULL%2,      Jacinta J.%Maas%NULL%2,      Joanna%Maertens%NULL%2,      David%Mast%NULL%2,      Scott%McCardle%NULL%2,      Bernard%McDonald%NULL%2,      Allison%McLarty%NULL%2,      Chelsea%McMahon%NULL%2,      Patrick%Meybohm%NULL%2,      Bart%Meyns%NULL%2,      Casey%Miller%NULL%2,      Fernando%Moraes Neto%NULL%2,      Kelly%Morris%NULL%2,      Ralf%Muellenbach%NULL%2,      Meghan%Nicholson%NULL%2,      Serena%O'Brien%NULL%2,      Kathryn%O'Keefe%NULL%2,      Tawnya%Ogston%NULL%2,      Gary%Oldenburg%NULL%2,      Fabiana M.%Oliveira%NULL%2,      Emily%Oppel%NULL%2,      Diego%Pardo%NULL%4,      Diego%Pardo%NULL%0,      Sara J.%Parker%NULL%2,      Finn M.%Pedersen%NULL%2,      Crescens%Pellecchia%NULL%2,      Jose A.S.%Pelligrini%NULL%2,      Thao T.N.%Pham%NULL%2,      Ann R.%Phillips%NULL%2,      Tasneem%Pirani%NULL%2,      Paweł%Piwowarczyk%NULL%2,      Robert%Plambeck%NULL%2,      William%Pruett%NULL%2,      Brittany%Quandt%NULL%2,      Kollengode%Ramanathan%NULL%2,      Alejandro%Rey%NULL%2,      Christian%Reyher%NULL%2,      Jordi%Riera del Brio%NULL%2,      Rachel%Roberts%NULL%2,      David%Roe%NULL%2,      Peter P.%Roeleveld%NULL%2,      Janet%Rudy%NULL%2,      Luis F.%Rueda%NULL%2,      Emanuele%Russo%NULL%2,      Jesús%Sánchez Ballesteros%NULL%2,      Nancy%Satou%NULL%2,      Mauricio Guidi%Saueressig%NULL%2,      Paul C.%Saunders%NULL%2,      Margaret%Schlotterbeck%NULL%2,      Patricia%Schwarz%NULL%2,      Nicole%Scriven%NULL%2,      Alexis%Serra%NULL%2,      Mohammad%Shamsah%NULL%2,      Lucy%Sim%NULL%2,      Alexandra%Smart%NULL%2,      Adam%Smith%NULL%2,      Deane%Smith%NULL%2,      Maggie%Smith%NULL%2,      Neel%Sodha%NULL%2,      Michael%Sonntagbauer%NULL%2,      Marc%Sorenson%NULL%2,      Eric B%Stallkamp%NULL%2,      Allison%Stewart%NULL%2,      Kathy%Swartz%NULL%2,      Koji%Takeda%NULL%2,      Shaun%Thompson%NULL%2,      Bridget%Toy%NULL%2,      Divina%Tuazon%NULL%2,      Makoto%Uchiyama%NULL%2,      Obiora I.%Udeozo%NULL%2,      Scott%van Poppel%NULL%2,      Corey%Ventetuolo%NULL%2,      Leen%Vercaemst%NULL%2,      Nguyen V.%Vinh Chau%NULL%2,      I-Wen%Wang%NULL%2,      Carrie%Williamson%NULL%2,      Brock%Wilson%NULL%2,      Helen%Winkels%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,       Dhaval%Kolte%NULL%1,       Mary E.%Cadigan%NULL%1,       Elizabeth%Laikhter%NULL%1,       Kevin%Sinclair%NULL%1,       Eugene%Pomerantsev%NULL%1,       Michael A.%Fifer%NULL%1,       Thoralf M.%Sundt%NULL%1,       Robert W.%Yeh%NULL%1,       Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,      Cabrini%Luca%coreGivesNoEmail%4,      Castelli%Antonio%coreGivesNoEmail%4,      Cecconi%Maurizio%coreGivesNoEmail%4,      Cereda%Danilo%coreGivesNoEmail%4,      Coluccello%Antonio%coreGivesNoEmail%4,      Foti%Giuseppe%coreGivesNoEmail%4,      Fumagalli%Roberto%coreGivesNoEmail%4,      Grasselli%Giacomo%coreGivesNoEmail%4,      Iotti%Giorgio%coreGivesNoEmail%4,      Latronico%Nicola%coreGivesNoEmail%4,      Lorini%Luca%coreGivesNoEmail%4,      Merler%Stefano%coreGivesNoEmail%4,      Natalini%Giuseppe%coreGivesNoEmail%4,      Pesenti%Antonio%coreGivesNoEmail%4,      Piatti%Alessandra%coreGivesNoEmail%4,      Ranieri%Marco Vito%coreGivesNoEmail%4,      Scandroglio%Anna Mara%coreGivesNoEmail%4,      Storti%Enrico%coreGivesNoEmail%4,      Zanella%Alberto%coreGivesNoEmail%4,      Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,       Yeming%Wang%NULL%0,       Xingwang%Li%NULL%0,       Lili%Ren%NULL%0,       Jianping%Zhao%NULL%0,       Yi%Hu%NULL%0,       Li%Zhang%NULL%0,       Guohui%Fan%NULL%0,       Jiuyang%Xu%NULL%0,       Xiaoying%Gu%NULL%0,       Zhenshun%Cheng%NULL%0,       Ting%Yu%NULL%0,       Jiaan%Xia%NULL%0,       Yuan%Wei%NULL%0,       Wenjuan%Wu%NULL%0,       Xuelei%Xie%NULL%0,       Wen%Yin%NULL%0,       Hui%Li%NULL%0,       Min%Liu%NULL%0,       Yan%Xiao%NULL%0,       Hong%Gao%NULL%0,       Li%Guo%NULL%0,       Jungang%Xie%NULL%0,       Guangfa%Wang%NULL%0,       Rongmeng%Jiang%NULL%0,       Zhancheng%Gao%NULL%0,       Qi%Jin%NULL%0,       Jianwei%Wang%wangjw28@163.com%0,       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,       Yi%Xiang%NULL%0,       Wei%Fang%NULL%0,       Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,       Boqun%Li%279685211@qq.com%0,       Boqun%Li%279685211@qq.com%0,       Yanjun%Hu%huyanjun@163.com%0,       Chunhui%Lang%NULL%0,       Daoqiu%Huang%NULL%0,       Qiuyan%Sun%NULL%0,       Yan%Xiong%NULL%0,       Xia%Huang%NULL%0,       Jinglong%Lv%NULL%0,       Yaling%Luo%NULL%0,       Li%Shen%NULL%0,       Haoran%Yang%NULL%0,       Gu%Huang%NULL%0,       Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,       Mark%Caridi-Scheible%NULL%0,       James M.%Blum%NULL%0,       Chad%Robichaux%NULL%0,       Colleen%Kraft%NULL%0,       Jesse T.%Jacob%NULL%0,       Craig S.%Jabaley%NULL%0,       David%Carpenter%NULL%0,       Roberta%Kaplow%NULL%0,       Alfonso C.%Hernandez-Romieu%NULL%0,       Max W.%Adelman%NULL%0,       Greg S.%Martin%NULL%0,       Craig M.%Coopersmith%NULL%0,       David J.%Murphy%NULL%0,       NULL%NULL%NULL%0,        S.%Auld%null%1,        M.% Caridi-Scheible%null%1,        J. M.% Blum%null%1,        C. J.% Robichaux%null%1,        C. S.% Kraft%null%1,        J. T.% Jacob%null%1,        C. S.% Jabaley%null%1,        D.% Carpenter%null%1,        R.% Kaplow%null%1,        A. C.% Hernandez%null%1,        M. W.% Adelman%null%1,        G. S.% Martin%null%1,        C. M.% Coopersmith%null%1,        D. J.% Murphy%null%1,          % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,      S.%Auld%null%1,      M.% Caridi-Scheible%null%1,      J. M.% Blum%null%1,      C. J.% Robichaux%null%1,      C. S.% Kraft%null%1,      J. T.% Jacob%null%1,      C. S.% Jabaley%null%1,      D.% Carpenter%null%1,      R.% Kaplow%null%1,      A. C.% Hernandez%null%1,      M. W.% Adelman%null%1,      G. S.% Martin%null%1,      C. M.% Coopersmith%null%1,      D. J.% Murphy%null%1,        % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,       Bijan J.%Ghassemieh%NULL%0,       Michelle%Nichols%NULL%0,       Richard%Kim%NULL%0,       Keith R.%Jerome%NULL%0,       Arun K.%Nalla%NULL%0,       Alexander L.%Greninger%NULL%0,       Sudhakar%Pipavath%NULL%0,       Mark M.%Wurfel%NULL%0,       Laura%Evans%NULL%0,       Patricia A.%Kritek%NULL%0,       T. Eoin%West%NULL%0,       Andrew%Luks%NULL%0,       Anthony%Gerbino%NULL%0,       Chris R.%Dale%NULL%0,       Jason D.%Goldman%NULL%0,       Shane%O’Mahony%NULL%0,       Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,       Tangkai%Qi%NULL%1,       Li%Liu%NULL%0,       Yun%Ling%NULL%0,       Zhiping%Qian%NULL%0,       Tao%Li%NULL%0,       Feng%Li%NULL%0,       Qingnian%Xu%NULL%0,       Yuyi%Zhang%NULL%0,       Shuibao%Xu%NULL%1,       Zhigang%Song%NULL%0,       Yigang%Zeng%NULL%1,       Yinzhong%Shen%NULL%1,       Yuxin%Shi%NULL%0,       Tongyu%Zhu%NULL%0,       Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,       Min%Zhou%NULL%0,       Xuan%Dong%NULL%0,       Jieming%Qu%NULL%0,       Fengyun%Gong%NULL%0,       Yang%Han%NULL%0,       Yang%Qiu%NULL%0,       Jingli%Wang%NULL%0,       Ying%Liu%NULL%0,       Yuan%Wei%NULL%0,       Jia'an%Xia%NULL%0,       Ting%Yu%NULL%0,       Xinxin%Zhang%NULL%0,       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,       Zheng-yi%Ni%NULL%0,       Zheng-yi%Ni%NULL%0,       Yu%Hu%NULL%0,       Wen-hua%Liang%NULL%0,       Chun-quan%Ou%NULL%0,       Jian-xing%He%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chun-liang%Lei%NULL%0,       David S.C.%Hui%NULL%0,       Bin%Du%NULL%0,       Lan-juan%Li%NULL%0,       Guang%Zeng%NULL%0,       Kwok-Yung%Yuen%NULL%0,       Ru-chong%Chen%NULL%0,       Chun-li%Tang%NULL%0,       Tao%Wang%NULL%0,       Ping-yan%Chen%NULL%0,       Jie%Xiang%NULL%0,       Shi-yue%Li%NULL%0,       Jin-lin%Wang%NULL%0,       Zi-jing%Liang%NULL%0,       Yi-xiang%Peng%NULL%0,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Ya-hua%Hu%NULL%0,       Peng%Peng%NULL%0,       Jian-ming%Wang%NULL%0,       Ji-yang%Liu%NULL%0,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhi-jian%Zheng%NULL%0,       Shao-qin%Qiu%NULL%0,       Jie%Luo%NULL%0,       Chang-jiang%Ye%NULL%0,       Shao-yong%Zhu%NULL%0,       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,       Yuanyuan%Xing%NULL%0,       Yu%Xiao%NULL%0,       Liping%Deng%NULL%0,       Qiu%Zhao%NULL%0,       Hongling%Wang%NULL%0,       Yong%Xiong%NULL%0,       Zhenshun%Cheng%NULL%0,       Shicheng%Gao%NULL%0,       Ke%Liang%NULL%0,       Mingqi%Luo%NULL%0,       Tielong%Chen%NULL%0,       Shihui%Song%NULL%0,       Zhiyong%Ma%NULL%0,       Xiaoping%Chen%NULL%0,       Ruiying%Zheng%NULL%0,       Qian%Cao%NULL%0,       Fan%Wang%fanndywang@foxmail.com%0,       Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,       N -B%Yang%NULL%1,       F%Ding%NULL%1,       A H Y%Ma%NULL%1,       Z -Y%Wang%NULL%2,       Y -F%Shen%NULL%1,       C -W%Shi%NULL%1,       X%Lian%NULL%1,       J -G%Chu%NULL%1,       L%Chen%chxmin@hotmail.com%1,       Z -Y%Wang%NULL%0,       D -W%Ren%NULL%1,       G -X%Li%NULL%1,       X -Q%Chen%chxmin@hotmail.com%1,       H -J%Shen%NULL%1,       X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,       Hugues%Spillemaeker%NULL%1,       Maéva%Kyheng%NULL%1,       Cassandre%Belin‐Vincent%NULL%1,       Cédric%Delhaye%NULL%1,       Adeline%Piérache%NULL%1,       Tom%Denimal%NULL%1,       Basile%Verdier%NULL%1,       Nicolas%Debry%NULL%1,       Mouhamed%Moussa%NULL%1,       Guillaume%Schurtz%NULL%1,       Sina%Porouchani%NULL%1,       Alessandro%Cosenza%NULL%1,       Francis%Juthier%NULL%1,       Thibault%Pamart%NULL%1,       Marjorie%Richardson%NULL%1,       Augustin%Coisne%NULL%1,       Adrien%Hertault%NULL%1,       Jonathan%Sobocinski%NULL%1,       Thomas%Modine%NULL%1,       François%Pontana%NULL%1,       Alain%Duhamel%NULL%1,       Julien%Labreuche%NULL%2,       Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,      Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,       Yimei%Yin%18256985@qq.com%1,       Chang%Hu%1391369733@qq.com%0,       Xing%Liu%375117565@qq.com%1,       Xingguo%Zhang%zhangxinguo7909@163.com%1,       Shuliang%Zhou%350925556@qq.com%1,       Mingzhi%Jian%Jmzhak@aliyun.com%1,       Haibo%Xu%xuhaibo1120@hotmail.com%0,       John%Prowle%j.prowle@qmul.ac.uk%1,       Bo%Hu%hobbier1979@163.com%0,       Yirong%Li%liyirong838@163.com%0,       Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,       Xiao-Xin%Wu%NULL%1,       Xian-Gao%Jiang%NULL%1,       Kai-Jin%Xu%NULL%1,       Ling-Jun%Ying%NULL%1,       Chun-Lian%Ma%NULL%1,       Shi-Bo%Li%NULL%1,       Hua-Ying%Wang%NULL%1,       Sheng%Zhang%NULL%1,       Hai-Nv%Gao%NULL%1,       Ji-Fang%Sheng%NULL%1,       Hong-Liu%Cai%NULL%1,       Yun-Qing%Qiu%NULL%1,       Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,       Chang%Hu%NULL%0,       Linjie%Luo%NULL%0,       Fang%Fang%NULL%0,       Yongfeng%Chen%NULL%0,       Jianguo%Li%NULL%0,       Zhiyong%Peng%NULL%0,       Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,       Chun%Liao%lc7spring@163.com%1,       Qi-hong%Fan%1187286305@qq.com%1,       Hong-bo%Chen%hbchen@hust.edu.cn%1,       Xue-gong%Zhao%NULL%1,       Zhong-guo%Xie%NULL%1,       Xi-lin%Li%NULL%1,       Chun-xi%Chen%NULL%1,       Xiao-xia%Lu%NULL%1,       Zhi-sheng%Liu%NULL%1,       Wei%Lu%NULL%1,       Chun-bao%Chen%NULL%1,       Rong%Jiao%NULL%1,       Ai-ming%Zhang%NULL%1,       Jin-tang%Wang%NULL%1,       Xi-wei%Ding%NULL%1,       Yao-guang%Zeng%NULL%1,       Li-ping%Cheng%NULL%1,       Qing-feng%Huang%NULL%1,       Jiang%Wu%NULL%0,       Xi-chang%Luo%NULL%1,       Zhu-jun%Wang%NULL%1,       Yan-yan%Zhong%NULL%1,       Yan%Bai%yanbaixh@hust.edu.cn%1,       Xiao-yan%Wu%xwu@hust.edu.cn%1,       Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,       Ting%Yu%NULL%0,       Ronghui%Du%NULL%0,       Guohui%Fan%NULL%0,       Ying%Liu%NULL%0,       Zhibo%Liu%NULL%0,       Jie%Xiang%NULL%0,       Yeming%Wang%NULL%0,       Bin%Song%NULL%0,       Xiaoying%Gu%NULL%0,       Lulu%Guan%NULL%0,       Yuan%Wei%NULL%0,       Hui%Li%NULL%0,       Xudong%Wu%NULL%0,       Jiuyang%Xu%NULL%0,       Shengjin%Tu%NULL%0,       Yi%Zhang%NULL%0,       Hua%Chen%NULL%0,       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,       Mengqi%Tu%NULL%1,       Shipei%Wang%NULL%1,       Sichao%Chen%NULL%1,       Wei%Zhou%NULL%0,       Danyang%Chen%NULL%1,       Lin%Zhou%NULL%1,       Min%Wang%NULL%1,       Yan%Zhao%NULL%1,       Wen%Zeng%NULL%1,       Qi%Huang%NULL%0,       Hai'bo%Xu%NULL%1,       Zeming%Liu%NULL%1,       Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,       Yuan%Yu%NULL%0,       Jiqian%Xu%NULL%0,       Huaqing%Shu%NULL%0,       Jia'an%Xia%NULL%0,       Hong%Liu%NULL%0,       Yongran%Wu%NULL%0,       Lu%Zhang%NULL%0,       Zhui%Yu%NULL%0,       Minghao%Fang%NULL%0,       Ting%Yu%NULL%0,       Yaxin%Wang%NULL%0,       Shangwen%Pan%NULL%0,       Xiaojing%Zou%NULL%0,       Shiying%Yuan%NULL%0,       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,       Wei-jie%Guan%NULL%1,       Cai-chen%Li%NULL%1,       Yi-min%Li%NULL%1,       Heng-rui%Liang%NULL%1,       Yi%Zhao%NULL%0,       Xiao-qing%Liu%NULL%1,       Ling%Sang%NULL%0,       Ru-chong%Chen%NULL%0,       Chun-li%Tang%NULL%0,       Tao%Wang%NULL%0,       Wei%Wang%NULL%0,       Qi-hua%He%NULL%1,       Zi-sheng%Chen%NULL%1,       Sook-San%Wong%NULL%1,       Mark%Zanin%NULL%1,       Jun%Liu%NULL%1,       Xin%Xu%NULL%1,       Jun%Huang%NULL%1,       Jian-fu%Li%NULL%1,       Li-min%Ou%NULL%1,       Bo%Cheng%NULL%1,       Shan%Xiong%NULL%1,       Zhan-hong%Xie%NULL%1,       Zheng-yi%Ni%NULL%0,       Yu%Hu%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chun-liang%Lei%NULL%0,       Yi-xiang%Peng%NULL%0,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Ya-hua%Hu%NULL%0,       Peng%Peng%NULL%0,       Jian-ming%Wang%NULL%0,       Ji-yang%Liu%NULL%0,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhi-jian%Zheng%NULL%0,       Shao-qin%Qiu%NULL%0,       Jie%Luo%NULL%0,       Chang-jiang%Ye%NULL%0,       Shao-yong%Zhu%NULL%0,       Lin-ling%Cheng%NULL%1,       Feng%Ye%NULL%0,       Shi-yue%Li%NULL%0,       Jin-ping%Zheng%NULL%1,       Nuo-fu%Zhang%NULL%1,       Nan-shan%Zhong%NULL%0,       Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,       Simon A%Jones%NULL%0,       Jie%Yang%NULL%0,       Harish%Rajagopalan%NULL%0,       Luke%O’Donnell%NULL%0,       Yelena%Chernyak%NULL%0,       Katie A%Tobin%NULL%0,       Robert J%Cerfolio%NULL%0,       Fritz%Francois%NULL%0,       Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0,       Stephanie%Bialek%NULL%1,       Ellen%Boundy%NULL%1,       Virginia%Bowen%NULL%1,       Nancy%Chow%NULL%0,       Amanda%Cohn%NULL%1,       Nicole%Dowling%NULL%1,       Sascha%Ellington%NULL%1,       Ryan%Gierke%NULL%0,       Aron%Hall%NULL%0,       Jessica%MacNeil%NULL%1,       Priti%Patel%NULL%1,       Georgina%Peacock%NULL%1,       Tamara%Pilishvili%NULL%0,       Hilda%Razzaghi%NULL%1,       Nia%Reed%NULL%1,       Matthew%Ritchey%NULL%0,       Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,       Pedro%Póvoa%NULL%1,       Vicente%Souza-Dantas%NULL%1,       André C.%Kalil%NULL%1,       Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,       Graeme%MacLaren%NULL%2,       Philip S%Boonstra%NULL%2,       Theodore J%Iwashyna%NULL%2,       Arthur S%Slutsky%NULL%2,       Eddy%Fan%NULL%2,       Robert H%Bartlett%NULL%2,       Joseph E%Tonna%NULL%2,       Robert%Hyslop%NULL%2,       Jeffrey J%Fanning%NULL%2,       Peter T%Rycus%NULL%2,       Steve J%Hyer%NULL%2,       Marc M%Anders%NULL%2,       Cara L%Agerstrand%NULL%2,       Katarzyna%Hryniewicz%NULL%2,       Rodrigo%Diaz%NULL%2,       Roberto%Lorusso%NULL%2,       Alain%Combes%NULL%2,       Daniel%Brodie%NULL%3,       Peta%Alexander%NULL%2,       Nicholas%Barrett%NULL%0,       Jan%Bělohlávek%NULL%2,       Dale%Fisher%NULL%2,       John%Fraser%NULL%2,       Ali Ait%Hssain%NULL%0,       Jae Sung%Jung%NULL%2,       Michael%McMullan%NULL%2,       Yatin%Mehta%NULL%2,       Mark T.%Ogino%NULL%2,       Matthew L.%Paden%NULL%2,       Kiran%Shekar%NULL%2,       Christine%Stead%NULL%2,       Yasir%Abu-Omar%NULL%2,       Vanni%Agnoletti%NULL%2,       Anzila%Akbar%NULL%2,       Huda%Alfoudri%NULL%2,       Carlos%Alviar%NULL%2,       Vladimir%Aronsky%NULL%2,       Erin%August%NULL%2,       Georg%Auzinger%NULL%2,       Hilda%Aveja%NULL%2,       Rhonda%Bakken%NULL%2,       Joan%Balcells%NULL%2,       Sripal%Bangalore%NULL%2,       Bernard W.%Barnes%NULL%2,       Alaiza%Bautista%NULL%2,       Lorraine L.%Bellows%NULL%2,       Felipe%Beltran%NULL%2,       Peyman%Benharash%NULL%2,       Marco%Benni%NULL%2,       Jennifer%Berg%NULL%2,       Pietro%Bertini%NULL%2,       Pablo%Blanco-Schweizer%NULL%2,       Melissa%Brunsvold%NULL%2,       Jenny%Budd%NULL%2,       Debra%Camp%NULL%2,       Mark%Caridi-Scheible%NULL%0,       Edmund%Carton%NULL%2,       Elena%Casanova-Ghosh%NULL%2,       Anthony%Castleberry%NULL%2,       Christopher T.%Chipongian%NULL%2,       Chang Woo%Choi%NULL%2,       Alessandro%Circelli%NULL%2,       Elliott%Cohen%NULL%2,       Michael%Collins%NULL%2,       Scott%Copus%NULL%2,       Jill%Coy%NULL%2,       Brandon%Crist%NULL%2,       Leonora%Cruz%NULL%2,       Mirosław%Czuczwar%NULL%2,       Mani%Daneshmand%NULL%2,       Daniel%Davis II%NULL%2,       Kim%De la Cruz%NULL%2,       Cyndie%Devers%NULL%2,       Toni%Duculan%NULL%2,       Lucian%Durham%NULL%2,       Subbarao%Elapavaluru%NULL%2,       Carlos V.%Elzo Kraemer%NULL%2,       EDMÍLSON CARDOSO%Filho%NULL%2,       Jillian%Fitzgerald%NULL%2,       Giuseppe%Foti%NULL%2,       Matthew%Fox%NULL%2,       David%Fritschen%NULL%2,       David%Fullerton%NULL%2,       Elton%Gelandt%NULL%2,       Stacy%Gerle%NULL%2,       Marco%Giani%NULL%2,       Si Guim%Goh%NULL%2,       Sara%Govener%NULL%2,       Julie%Grone%NULL%2,       Miles%Guber%NULL%2,       Vadim%Gudzenko%NULL%2,       Daniel%Gutteridge%NULL%2,       Jennifer%Guy%NULL%2,       Jonathan%Haft%NULL%2,       Cameron%Hall%NULL%2,       Ibrahim Fawzy%Hassan%NULL%2,       Rubén%Herrán%NULL%2,       Hitoshi%Hirose%NULL%2,       Abdulsalam Saif%Ibrahim%NULL%2,       Don%Igielski%NULL%2,       Felicia A.%Ivascu%NULL%2,       Jaume%Izquierdo Blasco%NULL%2,       Julie%Jackson%NULL%2,       Harsh%Jain%NULL%2,       Bhavini%Jaiswal%NULL%2,       Andrea C.%Johnson%NULL%2,       Jenniver A.%Jurynec%NULL%2,       Norma M%Kellter%NULL%2,       Adam%Kohl%NULL%2,       Zachary%Kon%NULL%2,       Markus%Kredel%NULL%2,       Karen%Kriska%NULL%2,       Chandra%Kunavarapu%NULL%2,       Oude%Lansink-Hartgring%NULL%2,       Jeliene%LaRocque%NULL%2,       Sharon Beth%Larson%NULL%2,       Tracie%Layne%NULL%2,       Stephane%Ledot%NULL%2,       Napolitan%Lena%NULL%2,       Jonathan%Lillie%NULL%2,       Gösta%Lotz%NULL%2,       Mark%Lucas%NULL%2,       Lee%Ludwigson%NULL%2,       Jacinta J.%Maas%NULL%2,       Joanna%Maertens%NULL%2,       David%Mast%NULL%2,       Scott%McCardle%NULL%2,       Bernard%McDonald%NULL%2,       Allison%McLarty%NULL%2,       Chelsea%McMahon%NULL%2,       Patrick%Meybohm%NULL%2,       Bart%Meyns%NULL%2,       Casey%Miller%NULL%2,       Fernando%Moraes Neto%NULL%2,       Kelly%Morris%NULL%2,       Ralf%Muellenbach%NULL%2,       Meghan%Nicholson%NULL%2,       Serena%O'Brien%NULL%2,       Kathryn%O'Keefe%NULL%2,       Tawnya%Ogston%NULL%2,       Gary%Oldenburg%NULL%2,       Fabiana M.%Oliveira%NULL%2,       Emily%Oppel%NULL%2,       Diego%Pardo%NULL%4,       Diego%Pardo%NULL%0,       Sara J.%Parker%NULL%2,       Finn M.%Pedersen%NULL%2,       Crescens%Pellecchia%NULL%2,       Jose A.S.%Pelligrini%NULL%2,       Thao T.N.%Pham%NULL%2,       Ann R.%Phillips%NULL%2,       Tasneem%Pirani%NULL%2,       Paweł%Piwowarczyk%NULL%2,       Robert%Plambeck%NULL%2,       William%Pruett%NULL%2,       Brittany%Quandt%NULL%2,       Kollengode%Ramanathan%NULL%2,       Alejandro%Rey%NULL%2,       Christian%Reyher%NULL%2,       Jordi%Riera del Brio%NULL%2,       Rachel%Roberts%NULL%2,       David%Roe%NULL%2,       Peter P.%Roeleveld%NULL%2,       Janet%Rudy%NULL%2,       Luis F.%Rueda%NULL%2,       Emanuele%Russo%NULL%2,       Jesús%Sánchez Ballesteros%NULL%2,       Nancy%Satou%NULL%2,       Mauricio Guidi%Saueressig%NULL%2,       Paul C.%Saunders%NULL%2,       Margaret%Schlotterbeck%NULL%2,       Patricia%Schwarz%NULL%2,       Nicole%Scriven%NULL%2,       Alexis%Serra%NULL%2,       Mohammad%Shamsah%NULL%2,       Lucy%Sim%NULL%2,       Alexandra%Smart%NULL%2,       Adam%Smith%NULL%2,       Deane%Smith%NULL%2,       Maggie%Smith%NULL%2,       Neel%Sodha%NULL%2,       Michael%Sonntagbauer%NULL%2,       Marc%Sorenson%NULL%2,       Eric B%Stallkamp%NULL%2,       Allison%Stewart%NULL%2,       Kathy%Swartz%NULL%2,       Koji%Takeda%NULL%2,       Shaun%Thompson%NULL%2,       Bridget%Toy%NULL%2,       Divina%Tuazon%NULL%2,       Makoto%Uchiyama%NULL%2,       Obiora I.%Udeozo%NULL%2,       Scott%van Poppel%NULL%2,       Corey%Ventetuolo%NULL%2,       Leen%Vercaemst%NULL%2,       Nguyen V.%Vinh Chau%NULL%2,       I-Wen%Wang%NULL%2,       Carrie%Williamson%NULL%2,       Brock%Wilson%NULL%2,       Helen%Winkels%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,        Dhaval%Kolte%NULL%1,        Mary E.%Cadigan%NULL%1,        Elizabeth%Laikhter%NULL%1,        Kevin%Sinclair%NULL%1,        Eugene%Pomerantsev%NULL%1,        Michael A.%Fifer%NULL%1,        Thoralf M.%Sundt%NULL%1,        Robert W.%Yeh%NULL%1,        Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,       Cabrini%Luca%coreGivesNoEmail%4,       Castelli%Antonio%coreGivesNoEmail%4,       Cecconi%Maurizio%coreGivesNoEmail%4,       Cereda%Danilo%coreGivesNoEmail%4,       Coluccello%Antonio%coreGivesNoEmail%4,       Foti%Giuseppe%coreGivesNoEmail%4,       Fumagalli%Roberto%coreGivesNoEmail%4,       Grasselli%Giacomo%coreGivesNoEmail%4,       Iotti%Giorgio%coreGivesNoEmail%4,       Latronico%Nicola%coreGivesNoEmail%4,       Lorini%Luca%coreGivesNoEmail%4,       Merler%Stefano%coreGivesNoEmail%4,       Natalini%Giuseppe%coreGivesNoEmail%4,       Pesenti%Antonio%coreGivesNoEmail%4,       Piatti%Alessandra%coreGivesNoEmail%4,       Ranieri%Marco Vito%coreGivesNoEmail%4,       Scandroglio%Anna Mara%coreGivesNoEmail%4,       Storti%Enrico%coreGivesNoEmail%4,       Zanella%Alberto%coreGivesNoEmail%4,       Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,        Yeming%Wang%NULL%0,        Xingwang%Li%NULL%0,        Lili%Ren%NULL%0,        Jianping%Zhao%NULL%0,        Yi%Hu%NULL%0,        Li%Zhang%NULL%0,        Guohui%Fan%NULL%0,        Jiuyang%Xu%NULL%0,        Xiaoying%Gu%NULL%0,        Zhenshun%Cheng%NULL%0,        Ting%Yu%NULL%0,        Jiaan%Xia%NULL%0,        Yuan%Wei%NULL%0,        Wenjuan%Wu%NULL%0,        Xuelei%Xie%NULL%0,        Wen%Yin%NULL%0,        Hui%Li%NULL%0,        Min%Liu%NULL%0,        Yan%Xiao%NULL%0,        Hong%Gao%NULL%0,        Li%Guo%NULL%0,        Jungang%Xie%NULL%0,        Guangfa%Wang%NULL%0,        Rongmeng%Jiang%NULL%0,        Zhancheng%Gao%NULL%0,        Qi%Jin%NULL%0,        Jianwei%Wang%wangjw28@163.com%0,        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,        Yi%Xiang%NULL%0,        Wei%Fang%NULL%0,        Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,        Boqun%Li%279685211@qq.com%0,        Boqun%Li%279685211@qq.com%0,        Yanjun%Hu%huyanjun@163.com%0,        Chunhui%Lang%NULL%0,        Daoqiu%Huang%NULL%0,        Qiuyan%Sun%NULL%0,        Yan%Xiong%NULL%0,        Xia%Huang%NULL%0,        Jinglong%Lv%NULL%0,        Yaling%Luo%NULL%0,        Li%Shen%NULL%0,        Haoran%Yang%NULL%0,        Gu%Huang%NULL%0,        Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,        Mark%Caridi-Scheible%NULL%0,        James M.%Blum%NULL%0,        Chad%Robichaux%NULL%0,        Colleen%Kraft%NULL%0,        Jesse T.%Jacob%NULL%0,        Craig S.%Jabaley%NULL%0,        David%Carpenter%NULL%0,        Roberta%Kaplow%NULL%0,        Alfonso C.%Hernandez-Romieu%NULL%0,        Max W.%Adelman%NULL%0,        Greg S.%Martin%NULL%0,        Craig M.%Coopersmith%NULL%0,        David J.%Murphy%NULL%0,        NULL%NULL%NULL%0,         S.%Auld%null%1,         M.% Caridi-Scheible%null%1,         J. M.% Blum%null%1,         C. J.% Robichaux%null%1,         C. S.% Kraft%null%1,         J. T.% Jacob%null%1,         C. S.% Jabaley%null%1,         D.% Carpenter%null%1,         R.% Kaplow%null%1,         A. C.% Hernandez%null%1,         M. W.% Adelman%null%1,         G. S.% Martin%null%1,         C. M.% Coopersmith%null%1,         D. J.% Murphy%null%1,           % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,       S.%Auld%null%1,       M.% Caridi-Scheible%null%1,       J. M.% Blum%null%1,       C. J.% Robichaux%null%1,       C. S.% Kraft%null%1,       J. T.% Jacob%null%1,       C. S.% Jabaley%null%1,       D.% Carpenter%null%1,       R.% Kaplow%null%1,       A. C.% Hernandez%null%1,       M. W.% Adelman%null%1,       G. S.% Martin%null%1,       C. M.% Coopersmith%null%1,       D. J.% Murphy%null%1,         % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,        Bijan J.%Ghassemieh%NULL%0,        Michelle%Nichols%NULL%0,        Richard%Kim%NULL%0,        Keith R.%Jerome%NULL%0,        Arun K.%Nalla%NULL%0,        Alexander L.%Greninger%NULL%0,        Sudhakar%Pipavath%NULL%0,        Mark M.%Wurfel%NULL%0,        Laura%Evans%NULL%0,        Patricia A.%Kritek%NULL%0,        T. Eoin%West%NULL%0,        Andrew%Luks%NULL%0,        Anthony%Gerbino%NULL%0,        Chris R.%Dale%NULL%0,        Jason D.%Goldman%NULL%0,        Shane%O’Mahony%NULL%0,        Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,        Tangkai%Qi%NULL%1,        Li%Liu%NULL%0,        Yun%Ling%NULL%0,        Zhiping%Qian%NULL%0,        Tao%Li%NULL%0,        Feng%Li%NULL%0,        Qingnian%Xu%NULL%0,        Yuyi%Zhang%NULL%0,        Shuibao%Xu%NULL%1,        Zhigang%Song%NULL%0,        Yigang%Zeng%NULL%1,        Yinzhong%Shen%NULL%1,        Yuxin%Shi%NULL%0,        Tongyu%Zhu%NULL%0,        Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,        Min%Zhou%NULL%0,        Xuan%Dong%NULL%0,        Jieming%Qu%NULL%0,        Fengyun%Gong%NULL%0,        Yang%Han%NULL%0,        Yang%Qiu%NULL%0,        Jingli%Wang%NULL%0,        Ying%Liu%NULL%0,        Yuan%Wei%NULL%0,        Jia'an%Xia%NULL%0,        Ting%Yu%NULL%0,        Xinxin%Zhang%NULL%0,        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,        Zheng-yi%Ni%NULL%0,        Zheng-yi%Ni%NULL%0,        Yu%Hu%NULL%0,        Wen-hua%Liang%NULL%0,        Chun-quan%Ou%NULL%0,        Jian-xing%He%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chun-liang%Lei%NULL%0,        David S.C.%Hui%NULL%0,        Bin%Du%NULL%0,        Lan-juan%Li%NULL%0,        Guang%Zeng%NULL%0,        Kwok-Yung%Yuen%NULL%0,        Ru-chong%Chen%NULL%0,        Chun-li%Tang%NULL%0,        Tao%Wang%NULL%0,        Ping-yan%Chen%NULL%0,        Jie%Xiang%NULL%0,        Shi-yue%Li%NULL%0,        Jin-lin%Wang%NULL%0,        Zi-jing%Liang%NULL%0,        Yi-xiang%Peng%NULL%0,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Ya-hua%Hu%NULL%0,        Peng%Peng%NULL%0,        Jian-ming%Wang%NULL%0,        Ji-yang%Liu%NULL%0,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhi-jian%Zheng%NULL%0,        Shao-qin%Qiu%NULL%0,        Jie%Luo%NULL%0,        Chang-jiang%Ye%NULL%0,        Shao-yong%Zhu%NULL%0,        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,        Yuanyuan%Xing%NULL%0,        Yu%Xiao%NULL%0,        Liping%Deng%NULL%0,        Qiu%Zhao%NULL%0,        Hongling%Wang%NULL%0,        Yong%Xiong%NULL%0,        Zhenshun%Cheng%NULL%0,        Shicheng%Gao%NULL%0,        Ke%Liang%NULL%0,        Mingqi%Luo%NULL%0,        Tielong%Chen%NULL%0,        Shihui%Song%NULL%0,        Zhiyong%Ma%NULL%0,        Xiaoping%Chen%NULL%0,        Ruiying%Zheng%NULL%0,        Qian%Cao%NULL%0,        Fan%Wang%fanndywang@foxmail.com%0,        Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,        N -B%Yang%NULL%1,        F%Ding%NULL%1,        A H Y%Ma%NULL%1,        Z -Y%Wang%NULL%2,        Y -F%Shen%NULL%1,        C -W%Shi%NULL%1,        X%Lian%NULL%1,        J -G%Chu%NULL%1,        L%Chen%chxmin@hotmail.com%1,        Z -Y%Wang%NULL%0,        D -W%Ren%NULL%1,        G -X%Li%NULL%1,        X -Q%Chen%chxmin@hotmail.com%1,        H -J%Shen%NULL%1,        X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,        Hugues%Spillemaeker%NULL%1,        Maéva%Kyheng%NULL%1,        Cassandre%Belin‐Vincent%NULL%1,        Cédric%Delhaye%NULL%1,        Adeline%Piérache%NULL%1,        Tom%Denimal%NULL%1,        Basile%Verdier%NULL%1,        Nicolas%Debry%NULL%1,        Mouhamed%Moussa%NULL%1,        Guillaume%Schurtz%NULL%1,        Sina%Porouchani%NULL%1,        Alessandro%Cosenza%NULL%1,        Francis%Juthier%NULL%1,        Thibault%Pamart%NULL%1,        Marjorie%Richardson%NULL%1,        Augustin%Coisne%NULL%1,        Adrien%Hertault%NULL%1,        Jonathan%Sobocinski%NULL%1,        Thomas%Modine%NULL%1,        François%Pontana%NULL%1,        Alain%Duhamel%NULL%1,        Julien%Labreuche%NULL%2,        Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,       Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,        Yimei%Yin%18256985@qq.com%1,        Chang%Hu%1391369733@qq.com%0,        Xing%Liu%375117565@qq.com%1,        Xingguo%Zhang%zhangxinguo7909@163.com%1,        Shuliang%Zhou%350925556@qq.com%1,        Mingzhi%Jian%Jmzhak@aliyun.com%1,        Haibo%Xu%xuhaibo1120@hotmail.com%0,        John%Prowle%j.prowle@qmul.ac.uk%1,        Bo%Hu%hobbier1979@163.com%0,        Yirong%Li%liyirong838@163.com%0,        Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,        Xiao-Xin%Wu%NULL%1,        Xian-Gao%Jiang%NULL%1,        Kai-Jin%Xu%NULL%1,        Ling-Jun%Ying%NULL%1,        Chun-Lian%Ma%NULL%1,        Shi-Bo%Li%NULL%1,        Hua-Ying%Wang%NULL%1,        Sheng%Zhang%NULL%1,        Hai-Nv%Gao%NULL%1,        Ji-Fang%Sheng%NULL%1,        Hong-Liu%Cai%NULL%1,        Yun-Qing%Qiu%NULL%1,        Lan-Juan%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,        Chang%Hu%NULL%0,        Linjie%Luo%NULL%0,        Fang%Fang%NULL%0,        Yongfeng%Chen%NULL%0,        Jianguo%Li%NULL%0,        Zhiyong%Peng%NULL%0,        Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,        Chun%Liao%lc7spring@163.com%1,        Qi-hong%Fan%1187286305@qq.com%1,        Hong-bo%Chen%hbchen@hust.edu.cn%1,        Xue-gong%Zhao%NULL%1,        Zhong-guo%Xie%NULL%1,        Xi-lin%Li%NULL%1,        Chun-xi%Chen%NULL%1,        Xiao-xia%Lu%NULL%1,        Zhi-sheng%Liu%NULL%1,        Wei%Lu%NULL%1,        Chun-bao%Chen%NULL%1,        Rong%Jiao%NULL%1,        Ai-ming%Zhang%NULL%1,        Jin-tang%Wang%NULL%1,        Xi-wei%Ding%NULL%1,        Yao-guang%Zeng%NULL%1,        Li-ping%Cheng%NULL%1,        Qing-feng%Huang%NULL%1,        Jiang%Wu%NULL%0,        Xi-chang%Luo%NULL%1,        Zhu-jun%Wang%NULL%1,        Yan-yan%Zhong%NULL%1,        Yan%Bai%yanbaixh@hust.edu.cn%1,        Xiao-yan%Wu%xwu@hust.edu.cn%1,        Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%0,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%0,        Jie%Xiang%NULL%0,        Yeming%Wang%NULL%0,        Bin%Song%NULL%0,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%0,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%0,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%0,        Yi%Zhang%NULL%0,        Hua%Chen%NULL%0,        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,        Mengqi%Tu%NULL%1,        Shipei%Wang%NULL%1,        Sichao%Chen%NULL%1,        Wei%Zhou%NULL%0,        Danyang%Chen%NULL%1,        Lin%Zhou%NULL%1,        Min%Wang%NULL%1,        Yan%Zhao%NULL%1,        Wen%Zeng%NULL%1,        Qi%Huang%NULL%0,        Hai'bo%Xu%NULL%1,        Zeming%Liu%NULL%1,        Liang%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,        Yuan%Yu%NULL%0,        Jiqian%Xu%NULL%0,        Huaqing%Shu%NULL%0,        Jia'an%Xia%NULL%0,        Hong%Liu%NULL%0,        Yongran%Wu%NULL%0,        Lu%Zhang%NULL%0,        Zhui%Yu%NULL%0,        Minghao%Fang%NULL%0,        Ting%Yu%NULL%0,        Yaxin%Wang%NULL%0,        Shangwen%Pan%NULL%0,        Xiaojing%Zou%NULL%0,        Shiying%Yuan%NULL%0,        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,        Wei-jie%Guan%NULL%1,        Cai-chen%Li%NULL%1,        Yi-min%Li%NULL%1,        Heng-rui%Liang%NULL%1,        Yi%Zhao%NULL%0,        Xiao-qing%Liu%NULL%1,        Ling%Sang%NULL%0,        Ru-chong%Chen%NULL%0,        Chun-li%Tang%NULL%0,        Tao%Wang%NULL%0,        Wei%Wang%NULL%0,        Qi-hua%He%NULL%1,        Zi-sheng%Chen%NULL%1,        Sook-San%Wong%NULL%1,        Mark%Zanin%NULL%1,        Jun%Liu%NULL%1,        Xin%Xu%NULL%1,        Jun%Huang%NULL%1,        Jian-fu%Li%NULL%1,        Li-min%Ou%NULL%1,        Bo%Cheng%NULL%1,        Shan%Xiong%NULL%1,        Zhan-hong%Xie%NULL%1,        Zheng-yi%Ni%NULL%0,        Yu%Hu%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chun-liang%Lei%NULL%0,        Yi-xiang%Peng%NULL%0,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Ya-hua%Hu%NULL%0,        Peng%Peng%NULL%0,        Jian-ming%Wang%NULL%0,        Ji-yang%Liu%NULL%0,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhi-jian%Zheng%NULL%0,        Shao-qin%Qiu%NULL%0,        Jie%Luo%NULL%0,        Chang-jiang%Ye%NULL%0,        Shao-yong%Zhu%NULL%0,        Lin-ling%Cheng%NULL%1,        Feng%Ye%NULL%0,        Shi-yue%Li%NULL%0,        Jin-ping%Zheng%NULL%1,        Nuo-fu%Zhang%NULL%1,        Nan-shan%Zhong%NULL%0,        Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,        Simon A%Jones%NULL%0,        Jie%Yang%NULL%0,        Harish%Rajagopalan%NULL%0,        Luke%O’Donnell%NULL%0,        Yelena%Chernyak%NULL%0,        Katie A%Tobin%NULL%0,        Robert J%Cerfolio%NULL%0,        Fritz%Francois%NULL%0,        Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0,        Stephanie%Bialek%NULL%1,        Ellen%Boundy%NULL%1,        Virginia%Bowen%NULL%1,        Nancy%Chow%NULL%0,        Amanda%Cohn%NULL%1,        Nicole%Dowling%NULL%1,        Sascha%Ellington%NULL%1,        Ryan%Gierke%NULL%0,        Aron%Hall%NULL%0,        Jessica%MacNeil%NULL%1,        Priti%Patel%NULL%1,        Georgina%Peacock%NULL%1,        Tamara%Pilishvili%NULL%0,        Hilda%Razzaghi%NULL%1,        Nia%Reed%NULL%1,        Matthew%Ritchey%NULL%0,        Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,        Pedro%Póvoa%NULL%1,        Vicente%Souza-Dantas%NULL%1,        André C.%Kalil%NULL%1,        Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,        Graeme%MacLaren%NULL%2,        Philip S%Boonstra%NULL%2,        Theodore J%Iwashyna%NULL%2,        Arthur S%Slutsky%NULL%2,        Eddy%Fan%NULL%2,        Robert H%Bartlett%NULL%2,        Joseph E%Tonna%NULL%2,        Robert%Hyslop%NULL%2,        Jeffrey J%Fanning%NULL%2,        Peter T%Rycus%NULL%2,        Steve J%Hyer%NULL%2,        Marc M%Anders%NULL%2,        Cara L%Agerstrand%NULL%2,        Katarzyna%Hryniewicz%NULL%2,        Rodrigo%Diaz%NULL%2,        Roberto%Lorusso%NULL%2,        Alain%Combes%NULL%2,        Daniel%Brodie%NULL%3,        Peta%Alexander%NULL%2,        Nicholas%Barrett%NULL%0,        Jan%Bělohlávek%NULL%2,        Dale%Fisher%NULL%2,        John%Fraser%NULL%2,        Ali Ait%Hssain%NULL%0,        Jae Sung%Jung%NULL%2,        Michael%McMullan%NULL%2,        Yatin%Mehta%NULL%2,        Mark T.%Ogino%NULL%2,        Matthew L.%Paden%NULL%2,        Kiran%Shekar%NULL%2,        Christine%Stead%NULL%2,        Yasir%Abu-Omar%NULL%2,        Vanni%Agnoletti%NULL%2,        Anzila%Akbar%NULL%2,        Huda%Alfoudri%NULL%2,        Carlos%Alviar%NULL%2,        Vladimir%Aronsky%NULL%2,        Erin%August%NULL%2,        Georg%Auzinger%NULL%2,        Hilda%Aveja%NULL%2,        Rhonda%Bakken%NULL%2,        Joan%Balcells%NULL%2,        Sripal%Bangalore%NULL%2,        Bernard W.%Barnes%NULL%2,        Alaiza%Bautista%NULL%2,        Lorraine L.%Bellows%NULL%2,        Felipe%Beltran%NULL%2,        Peyman%Benharash%NULL%2,        Marco%Benni%NULL%2,        Jennifer%Berg%NULL%2,        Pietro%Bertini%NULL%2,        Pablo%Blanco-Schweizer%NULL%2,        Melissa%Brunsvold%NULL%2,        Jenny%Budd%NULL%2,        Debra%Camp%NULL%2,        Mark%Caridi-Scheible%NULL%0,        Edmund%Carton%NULL%2,        Elena%Casanova-Ghosh%NULL%2,        Anthony%Castleberry%NULL%2,        Christopher T.%Chipongian%NULL%2,        Chang Woo%Choi%NULL%2,        Alessandro%Circelli%NULL%2,        Elliott%Cohen%NULL%2,        Michael%Collins%NULL%2,        Scott%Copus%NULL%2,        Jill%Coy%NULL%2,        Brandon%Crist%NULL%2,        Leonora%Cruz%NULL%2,        Mirosław%Czuczwar%NULL%2,        Mani%Daneshmand%NULL%2,        Daniel%Davis II%NULL%2,        Kim%De la Cruz%NULL%2,        Cyndie%Devers%NULL%2,        Toni%Duculan%NULL%2,        Lucian%Durham%NULL%2,        Subbarao%Elapavaluru%NULL%2,        Carlos V.%Elzo Kraemer%NULL%2,        EDMÍLSON CARDOSO%Filho%NULL%2,        Jillian%Fitzgerald%NULL%2,        Giuseppe%Foti%NULL%2,        Matthew%Fox%NULL%2,        David%Fritschen%NULL%2,        David%Fullerton%NULL%2,        Elton%Gelandt%NULL%2,        Stacy%Gerle%NULL%2,        Marco%Giani%NULL%2,        Si Guim%Goh%NULL%2,        Sara%Govener%NULL%2,        Julie%Grone%NULL%2,        Miles%Guber%NULL%2,        Vadim%Gudzenko%NULL%2,        Daniel%Gutteridge%NULL%2,        Jennifer%Guy%NULL%2,        Jonathan%Haft%NULL%2,        Cameron%Hall%NULL%2,        Ibrahim Fawzy%Hassan%NULL%2,        Rubén%Herrán%NULL%2,        Hitoshi%Hirose%NULL%2,        Abdulsalam Saif%Ibrahim%NULL%2,        Don%Igielski%NULL%2,        Felicia A.%Ivascu%NULL%2,        Jaume%Izquierdo Blasco%NULL%2,        Julie%Jackson%NULL%2,        Harsh%Jain%NULL%2,        Bhavini%Jaiswal%NULL%2,        Andrea C.%Johnson%NULL%2,        Jenniver A.%Jurynec%NULL%2,        Norma M%Kellter%NULL%2,        Adam%Kohl%NULL%2,        Zachary%Kon%NULL%2,        Markus%Kredel%NULL%2,        Karen%Kriska%NULL%2,        Chandra%Kunavarapu%NULL%2,        Oude%Lansink-Hartgring%NULL%2,        Jeliene%LaRocque%NULL%2,        Sharon Beth%Larson%NULL%2,        Tracie%Layne%NULL%2,        Stephane%Ledot%NULL%2,        Napolitan%Lena%NULL%2,        Jonathan%Lillie%NULL%2,        Gösta%Lotz%NULL%2,        Mark%Lucas%NULL%2,        Lee%Ludwigson%NULL%2,        Jacinta J.%Maas%NULL%2,        Joanna%Maertens%NULL%2,        David%Mast%NULL%2,        Scott%McCardle%NULL%2,        Bernard%McDonald%NULL%2,        Allison%McLarty%NULL%2,        Chelsea%McMahon%NULL%2,        Patrick%Meybohm%NULL%2,        Bart%Meyns%NULL%2,        Casey%Miller%NULL%2,        Fernando%Moraes Neto%NULL%2,        Kelly%Morris%NULL%2,        Ralf%Muellenbach%NULL%2,        Meghan%Nicholson%NULL%2,        Serena%O'Brien%NULL%2,        Kathryn%O'Keefe%NULL%2,        Tawnya%Ogston%NULL%2,        Gary%Oldenburg%NULL%2,        Fabiana M.%Oliveira%NULL%2,        Emily%Oppel%NULL%2,        Diego%Pardo%NULL%4,        Diego%Pardo%NULL%0,        Sara J.%Parker%NULL%2,        Finn M.%Pedersen%NULL%2,        Crescens%Pellecchia%NULL%2,        Jose A.S.%Pelligrini%NULL%2,        Thao T.N.%Pham%NULL%2,        Ann R.%Phillips%NULL%2,        Tasneem%Pirani%NULL%2,        Paweł%Piwowarczyk%NULL%2,        Robert%Plambeck%NULL%2,        William%Pruett%NULL%2,        Brittany%Quandt%NULL%2,        Kollengode%Ramanathan%NULL%2,        Alejandro%Rey%NULL%2,        Christian%Reyher%NULL%2,        Jordi%Riera del Brio%NULL%2,        Rachel%Roberts%NULL%2,        David%Roe%NULL%2,        Peter P.%Roeleveld%NULL%2,        Janet%Rudy%NULL%2,        Luis F.%Rueda%NULL%2,        Emanuele%Russo%NULL%2,        Jesús%Sánchez Ballesteros%NULL%2,        Nancy%Satou%NULL%2,        Mauricio Guidi%Saueressig%NULL%2,        Paul C.%Saunders%NULL%2,        Margaret%Schlotterbeck%NULL%2,        Patricia%Schwarz%NULL%2,        Nicole%Scriven%NULL%2,        Alexis%Serra%NULL%2,        Mohammad%Shamsah%NULL%2,        Lucy%Sim%NULL%2,        Alexandra%Smart%NULL%2,        Adam%Smith%NULL%2,        Deane%Smith%NULL%2,        Maggie%Smith%NULL%2,        Neel%Sodha%NULL%2,        Michael%Sonntagbauer%NULL%2,        Marc%Sorenson%NULL%2,        Eric B%Stallkamp%NULL%2,        Allison%Stewart%NULL%2,        Kathy%Swartz%NULL%2,        Koji%Takeda%NULL%2,        Shaun%Thompson%NULL%2,        Bridget%Toy%NULL%2,        Divina%Tuazon%NULL%2,        Makoto%Uchiyama%NULL%2,        Obiora I.%Udeozo%NULL%2,        Scott%van Poppel%NULL%2,        Corey%Ventetuolo%NULL%2,        Leen%Vercaemst%NULL%2,        Nguyen V.%Vinh Chau%NULL%2,        I-Wen%Wang%NULL%2,        Carrie%Williamson%NULL%2,        Brock%Wilson%NULL%2,        Helen%Winkels%NULL%2]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="mmmm d, yyyy"/>
-    <numFmt numFmtId="165" formatCode="yyyy mmm d"/>
-    <numFmt numFmtId="166" formatCode="d mmmm yyyy"/>
-    <numFmt numFmtId="167" formatCode="yyyy mmmm d"/>
-    <numFmt numFmtId="168" formatCode="mmmm yyyy"/>
-    <numFmt numFmtId="169" formatCode="d mmm yyyy"/>
-    <numFmt numFmtId="170" formatCode="yyyy mmm"/>
-    <numFmt numFmtId="171" formatCode="yyyy mmmm"/>
+    <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="yyyy\ mmm\ d"/>
+    <numFmt numFmtId="166" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="yyyy\ mmmm\ d"/>
+    <numFmt numFmtId="168" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="170" formatCode="yyyy\ mmm"/>
+    <numFmt numFmtId="171" formatCode="yyyy\ mmmm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1083,78 +1246,61 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="171" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1344,20 +1490,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,15 +1534,15 @@
         <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>43903.0</v>
+      <c r="B2" s="2">
+        <v>43903</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -1412,15 +1563,15 @@
         <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
-        <v>43942.0</v>
+      <c r="B3" s="4">
+        <v>43942</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
@@ -1429,114 +1580,114 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
         <v>49</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
-        <v>51</v>
-      </c>
       <c r="I3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
-        <v>43949.0</v>
+      <c r="B4" s="4">
+        <v>43949</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="H4" t="s">
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
-        <v>43876.0</v>
+      <c r="B5" s="4">
+        <v>43876</v>
       </c>
       <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
-        <v>43911.0</v>
+      <c r="B6" s="6">
+        <v>43911</v>
       </c>
       <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
       <c r="I6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
-        <v>43949.0</v>
+      <c r="B7" s="4">
+        <v>43949</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -1557,305 +1708,305 @@
         <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8">
-        <v>43972.0</v>
+      <c r="B9" s="7">
+        <v>43972</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
         <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <v>43876</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" t="s">
         <v>70</v>
       </c>
-      <c r="D10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5">
-        <v>43876.0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" t="s">
-        <v>191</v>
-      </c>
-      <c r="F11" t="s">
-        <v>78</v>
-      </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
         <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5">
-        <v>43951.0</v>
+      <c r="B12" s="4">
+        <v>43951</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
         <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5">
-        <v>44536.0</v>
+      <c r="B13" s="4">
+        <v>44536</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
         <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9">
-        <v>44013.0</v>
+      <c r="B14" s="8">
+        <v>44013</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
         <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5">
-        <v>43907.0</v>
+      <c r="B15" s="4">
+        <v>43907</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3">
-        <v>43868.0</v>
+      <c r="B16" s="2">
+        <v>43868</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="H16" t="s">
         <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5">
-        <v>43951.0</v>
+      <c r="B17" s="4">
+        <v>43951</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="10">
-        <v>43908.0</v>
+      <c r="B18" s="9">
+        <v>43908</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -1876,355 +2027,355 @@
         <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5">
-        <v>43880.0</v>
+      <c r="B19" s="4">
+        <v>43880</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="11">
-        <v>43922.0</v>
+      <c r="B21" s="10">
+        <v>43922</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
         <v>45</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5">
-        <v>43918.0</v>
+      <c r="B22" s="4">
+        <v>43918</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
         <v>45</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="12">
-        <v>43952.0</v>
+      <c r="B24" s="11">
+        <v>43952</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
         <v>45</v>
       </c>
       <c r="I24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="F25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" t="s">
         <v>131</v>
       </c>
-      <c r="G25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" t="s">
-        <v>132</v>
-      </c>
-      <c r="I25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="8">
-        <v>43973.0</v>
+      <c r="B26" s="7">
+        <v>43973</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="I26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="5">
-        <v>43917.0</v>
+      <c r="B27" s="4">
+        <v>43917</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
         <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="14">
-        <v>44197.0</v>
+      <c r="B28" s="13">
+        <v>44197</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="F28" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="I28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="5">
-        <v>44114.0</v>
+      <c r="B29" s="4">
+        <v>44114</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
         <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
-    <hyperlink r:id="rId2" ref="A4"/>
-    <hyperlink r:id="rId3" ref="A5"/>
-    <hyperlink r:id="rId4" ref="A6"/>
-    <hyperlink r:id="rId5" ref="A7"/>
-    <hyperlink r:id="rId6" ref="A8"/>
-    <hyperlink r:id="rId7" ref="A9"/>
-    <hyperlink r:id="rId8" ref="A10"/>
-    <hyperlink r:id="rId9" ref="A11"/>
-    <hyperlink r:id="rId10" ref="A12"/>
-    <hyperlink r:id="rId11" ref="A13"/>
-    <hyperlink r:id="rId12" ref="A14"/>
-    <hyperlink r:id="rId13" ref="A15"/>
-    <hyperlink r:id="rId14" ref="A17"/>
-    <hyperlink r:id="rId15" ref="A18"/>
-    <hyperlink r:id="rId16" ref="A19"/>
-    <hyperlink r:id="rId17" ref="A20"/>
-    <hyperlink r:id="rId18" ref="A21"/>
-    <hyperlink r:id="rId19" ref="A22"/>
-    <hyperlink r:id="rId20" ref="A23"/>
-    <hyperlink r:id="rId21" ref="A24"/>
-    <hyperlink r:id="rId22" ref="A26"/>
-    <hyperlink r:id="rId23" ref="A27"/>
-    <hyperlink r:id="rId24" ref="A28"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
   </hyperlinks>
-  <drawing r:id="rId25"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/48.xlsx
+++ b/Covid_19_Dataset_and_References/References/48.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="324">
   <si>
     <t>Doi</t>
   </si>
@@ -1199,6 +1199,195 @@
   </si>
   <si>
     <t>[Ryan P%Barbaro%NULL%2,        Graeme%MacLaren%NULL%2,        Philip S%Boonstra%NULL%2,        Theodore J%Iwashyna%NULL%2,        Arthur S%Slutsky%NULL%2,        Eddy%Fan%NULL%2,        Robert H%Bartlett%NULL%2,        Joseph E%Tonna%NULL%2,        Robert%Hyslop%NULL%2,        Jeffrey J%Fanning%NULL%2,        Peter T%Rycus%NULL%2,        Steve J%Hyer%NULL%2,        Marc M%Anders%NULL%2,        Cara L%Agerstrand%NULL%2,        Katarzyna%Hryniewicz%NULL%2,        Rodrigo%Diaz%NULL%2,        Roberto%Lorusso%NULL%2,        Alain%Combes%NULL%2,        Daniel%Brodie%NULL%3,        Peta%Alexander%NULL%2,        Nicholas%Barrett%NULL%0,        Jan%Bělohlávek%NULL%2,        Dale%Fisher%NULL%2,        John%Fraser%NULL%2,        Ali Ait%Hssain%NULL%0,        Jae Sung%Jung%NULL%2,        Michael%McMullan%NULL%2,        Yatin%Mehta%NULL%2,        Mark T.%Ogino%NULL%2,        Matthew L.%Paden%NULL%2,        Kiran%Shekar%NULL%2,        Christine%Stead%NULL%2,        Yasir%Abu-Omar%NULL%2,        Vanni%Agnoletti%NULL%2,        Anzila%Akbar%NULL%2,        Huda%Alfoudri%NULL%2,        Carlos%Alviar%NULL%2,        Vladimir%Aronsky%NULL%2,        Erin%August%NULL%2,        Georg%Auzinger%NULL%2,        Hilda%Aveja%NULL%2,        Rhonda%Bakken%NULL%2,        Joan%Balcells%NULL%2,        Sripal%Bangalore%NULL%2,        Bernard W.%Barnes%NULL%2,        Alaiza%Bautista%NULL%2,        Lorraine L.%Bellows%NULL%2,        Felipe%Beltran%NULL%2,        Peyman%Benharash%NULL%2,        Marco%Benni%NULL%2,        Jennifer%Berg%NULL%2,        Pietro%Bertini%NULL%2,        Pablo%Blanco-Schweizer%NULL%2,        Melissa%Brunsvold%NULL%2,        Jenny%Budd%NULL%2,        Debra%Camp%NULL%2,        Mark%Caridi-Scheible%NULL%0,        Edmund%Carton%NULL%2,        Elena%Casanova-Ghosh%NULL%2,        Anthony%Castleberry%NULL%2,        Christopher T.%Chipongian%NULL%2,        Chang Woo%Choi%NULL%2,        Alessandro%Circelli%NULL%2,        Elliott%Cohen%NULL%2,        Michael%Collins%NULL%2,        Scott%Copus%NULL%2,        Jill%Coy%NULL%2,        Brandon%Crist%NULL%2,        Leonora%Cruz%NULL%2,        Mirosław%Czuczwar%NULL%2,        Mani%Daneshmand%NULL%2,        Daniel%Davis II%NULL%2,        Kim%De la Cruz%NULL%2,        Cyndie%Devers%NULL%2,        Toni%Duculan%NULL%2,        Lucian%Durham%NULL%2,        Subbarao%Elapavaluru%NULL%2,        Carlos V.%Elzo Kraemer%NULL%2,        EDMÍLSON CARDOSO%Filho%NULL%2,        Jillian%Fitzgerald%NULL%2,        Giuseppe%Foti%NULL%2,        Matthew%Fox%NULL%2,        David%Fritschen%NULL%2,        David%Fullerton%NULL%2,        Elton%Gelandt%NULL%2,        Stacy%Gerle%NULL%2,        Marco%Giani%NULL%2,        Si Guim%Goh%NULL%2,        Sara%Govener%NULL%2,        Julie%Grone%NULL%2,        Miles%Guber%NULL%2,        Vadim%Gudzenko%NULL%2,        Daniel%Gutteridge%NULL%2,        Jennifer%Guy%NULL%2,        Jonathan%Haft%NULL%2,        Cameron%Hall%NULL%2,        Ibrahim Fawzy%Hassan%NULL%2,        Rubén%Herrán%NULL%2,        Hitoshi%Hirose%NULL%2,        Abdulsalam Saif%Ibrahim%NULL%2,        Don%Igielski%NULL%2,        Felicia A.%Ivascu%NULL%2,        Jaume%Izquierdo Blasco%NULL%2,        Julie%Jackson%NULL%2,        Harsh%Jain%NULL%2,        Bhavini%Jaiswal%NULL%2,        Andrea C.%Johnson%NULL%2,        Jenniver A.%Jurynec%NULL%2,        Norma M%Kellter%NULL%2,        Adam%Kohl%NULL%2,        Zachary%Kon%NULL%2,        Markus%Kredel%NULL%2,        Karen%Kriska%NULL%2,        Chandra%Kunavarapu%NULL%2,        Oude%Lansink-Hartgring%NULL%2,        Jeliene%LaRocque%NULL%2,        Sharon Beth%Larson%NULL%2,        Tracie%Layne%NULL%2,        Stephane%Ledot%NULL%2,        Napolitan%Lena%NULL%2,        Jonathan%Lillie%NULL%2,        Gösta%Lotz%NULL%2,        Mark%Lucas%NULL%2,        Lee%Ludwigson%NULL%2,        Jacinta J.%Maas%NULL%2,        Joanna%Maertens%NULL%2,        David%Mast%NULL%2,        Scott%McCardle%NULL%2,        Bernard%McDonald%NULL%2,        Allison%McLarty%NULL%2,        Chelsea%McMahon%NULL%2,        Patrick%Meybohm%NULL%2,        Bart%Meyns%NULL%2,        Casey%Miller%NULL%2,        Fernando%Moraes Neto%NULL%2,        Kelly%Morris%NULL%2,        Ralf%Muellenbach%NULL%2,        Meghan%Nicholson%NULL%2,        Serena%O'Brien%NULL%2,        Kathryn%O'Keefe%NULL%2,        Tawnya%Ogston%NULL%2,        Gary%Oldenburg%NULL%2,        Fabiana M.%Oliveira%NULL%2,        Emily%Oppel%NULL%2,        Diego%Pardo%NULL%4,        Diego%Pardo%NULL%0,        Sara J.%Parker%NULL%2,        Finn M.%Pedersen%NULL%2,        Crescens%Pellecchia%NULL%2,        Jose A.S.%Pelligrini%NULL%2,        Thao T.N.%Pham%NULL%2,        Ann R.%Phillips%NULL%2,        Tasneem%Pirani%NULL%2,        Paweł%Piwowarczyk%NULL%2,        Robert%Plambeck%NULL%2,        William%Pruett%NULL%2,        Brittany%Quandt%NULL%2,        Kollengode%Ramanathan%NULL%2,        Alejandro%Rey%NULL%2,        Christian%Reyher%NULL%2,        Jordi%Riera del Brio%NULL%2,        Rachel%Roberts%NULL%2,        David%Roe%NULL%2,        Peter P.%Roeleveld%NULL%2,        Janet%Rudy%NULL%2,        Luis F.%Rueda%NULL%2,        Emanuele%Russo%NULL%2,        Jesús%Sánchez Ballesteros%NULL%2,        Nancy%Satou%NULL%2,        Mauricio Guidi%Saueressig%NULL%2,        Paul C.%Saunders%NULL%2,        Margaret%Schlotterbeck%NULL%2,        Patricia%Schwarz%NULL%2,        Nicole%Scriven%NULL%2,        Alexis%Serra%NULL%2,        Mohammad%Shamsah%NULL%2,        Lucy%Sim%NULL%2,        Alexandra%Smart%NULL%2,        Adam%Smith%NULL%2,        Deane%Smith%NULL%2,        Maggie%Smith%NULL%2,        Neel%Sodha%NULL%2,        Michael%Sonntagbauer%NULL%2,        Marc%Sorenson%NULL%2,        Eric B%Stallkamp%NULL%2,        Allison%Stewart%NULL%2,        Kathy%Swartz%NULL%2,        Koji%Takeda%NULL%2,        Shaun%Thompson%NULL%2,        Bridget%Toy%NULL%2,        Divina%Tuazon%NULL%2,        Makoto%Uchiyama%NULL%2,        Obiora I.%Udeozo%NULL%2,        Scott%van Poppel%NULL%2,        Corey%Ventetuolo%NULL%2,        Leen%Vercaemst%NULL%2,        Nguyen V.%Vinh Chau%NULL%2,        I-Wen%Wang%NULL%2,        Carrie%Williamson%NULL%2,        Brock%Wilson%NULL%2,        Helen%Winkels%NULL%2]</t>
+  </si>
+  <si>
+    <t>"Risk Factors Associated With Acute Respiratory Distress Syndrome and Death in Patients With Coronavirus Disease 2019 Pneumonia in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0, Xiaoyan%Chen%xref no email%0, Yanping%Cai%xref no email%0, Jia\u2019an%Xia%xref no email%0, Xing%Zhou%xref no email%0, Sha%Xu%xref no email%0, Hanping%Huang%xref no email%0, Li%Zhang%xref no email%0, Xia%Zhou%xref no email%0, Chunling%Du%xref no email%0, Yuye%Zhang%xref no email%0, Juan%Song%xref no email%0, Sijiao%Wang%xref no email%0, Yencheng%Chao%xref no email%0, Zeyong%Yang%xref no email%0, Jie%Xu%xref no email%0, Xin%Zhou%xref no email%0, Dechang%Chen%xref no email%0, Weining%Xiong%xref no email%0, Lei%Xu%xref no email%0, Feng%Zhou%xref no email%0, Jinjun%Jiang%xref no email%0, Chunxue%Bai%xref no email%0, Junhua%Zheng%xref no email%0, Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,         Dhaval%Kolte%NULL%1,         Mary E.%Cadigan%NULL%1,         Elizabeth%Laikhter%NULL%1,         Kevin%Sinclair%NULL%1,         Eugene%Pomerantsev%NULL%1,         Michael A.%Fifer%NULL%1,         Thoralf M.%Sundt%NULL%1,         Robert W.%Yeh%NULL%1,         Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,        Cabrini%Luca%coreGivesNoEmail%1,        Castelli%Antonio%coreGivesNoEmail%1,        Cecconi%Maurizio%coreGivesNoEmail%1,        Cereda%Danilo%coreGivesNoEmail%1,        Coluccello%Antonio%coreGivesNoEmail%1,        Foti%Giuseppe%coreGivesNoEmail%1,        Fumagalli%Roberto%coreGivesNoEmail%1,        Grasselli%Giacomo%coreGivesNoEmail%1,        Iotti%Giorgio%coreGivesNoEmail%1,        Latronico%Nicola%coreGivesNoEmail%1,        Lorini%Luca%coreGivesNoEmail%1,        Merler%Stefano%coreGivesNoEmail%1,        Natalini%Giuseppe%coreGivesNoEmail%1,        Pesenti%Antonio%coreGivesNoEmail%1,        Piatti%Alessandra%coreGivesNoEmail%1,        Ranieri%Marco Vito%coreGivesNoEmail%1,        Scandroglio%Anna Mara%coreGivesNoEmail%1,        Storti%Enrico%coreGivesNoEmail%1,        Zanella%Alberto%coreGivesNoEmail%1,        Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,         Yeming%Wang%NULL%0,         Xingwang%Li%NULL%0,         Lili%Ren%NULL%0,         Jianping%Zhao%NULL%0,         Yi%Hu%NULL%0,         Li%Zhang%NULL%0,         Guohui%Fan%NULL%0,         Jiuyang%Xu%NULL%0,         Xiaoying%Gu%NULL%0,         Zhenshun%Cheng%NULL%0,         Ting%Yu%NULL%0,         Jiaan%Xia%NULL%0,         Yuan%Wei%NULL%0,         Wenjuan%Wu%NULL%0,         Xuelei%Xie%NULL%0,         Wen%Yin%NULL%0,         Hui%Li%NULL%0,         Min%Liu%NULL%0,         Yan%Xiao%NULL%0,         Hong%Gao%NULL%0,         Li%Guo%NULL%0,         Jungang%Xie%NULL%0,         Guangfa%Wang%NULL%0,         Rongmeng%Jiang%NULL%0,         Zhancheng%Gao%NULL%0,         Qi%Jin%NULL%0,         Jianwei%Wang%wangjw28@163.com%0,         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,         Yi%Xiang%NULL%0,         Wei%Fang%NULL%0,         Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,         Boqun%Li%279685211@qq.com%0,         Boqun%Li%279685211@qq.com%0,         Yanjun%Hu%huyanjun@163.com%0,         Chunhui%Lang%NULL%0,         Daoqiu%Huang%NULL%0,         Qiuyan%Sun%NULL%0,         Yan%Xiong%NULL%0,         Xia%Huang%NULL%0,         Jinglong%Lv%NULL%0,         Yaling%Luo%NULL%0,         Li%Shen%NULL%0,         Haoran%Yang%NULL%0,         Gu%Huang%NULL%0,         Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Characteristics and Outcomes of 21 Critically Ill Patients With COVID-19 in Washington State"</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0, Eric%Yim%xref no email%0, Lindy%Klaff%xref no email%0, Sharukh%Lokhandwala%xref no email%0, Francis X.%Riedo%xref no email%0, Maria%Chong%xref no email%0, Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,         Mark%Caridi-Scheible%NULL%0,         James M.%Blum%NULL%0,         Chad%Robichaux%NULL%0,         Colleen%Kraft%NULL%0,         Jesse T.%Jacob%NULL%0,         Craig S.%Jabaley%NULL%0,         David%Carpenter%NULL%0,         Roberta%Kaplow%NULL%0,         Alfonso C.%Hernandez-Romieu%NULL%0,         Max W.%Adelman%NULL%0,         Greg S.%Martin%NULL%0,         Craig M.%Coopersmith%NULL%0,         David J.%Murphy%NULL%0,         NULL%NULL%NULL%0,          S.%Auld%null%1,          M.% Caridi-Scheible%null%1,          J. M.% Blum%null%1,          C. J.% Robichaux%null%1,          C. S.% Kraft%null%1,          J. T.% Jacob%null%1,          C. S.% Jabaley%null%1,          D.% Carpenter%null%1,          R.% Kaplow%null%1,          A. C.% Hernandez%null%1,          M. W.% Adelman%null%1,          G. S.% Martin%null%1,          C. M.% Coopersmith%null%1,          D. J.% Murphy%null%1,            % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,        S.%Auld%null%1,        M.% Caridi-Scheible%null%1,        J. M.% Blum%null%1,        C. J.% Robichaux%null%1,        C. S.% Kraft%null%1,        J. T.% Jacob%null%1,        C. S.% Jabaley%null%1,        D.% Carpenter%null%1,        R.% Kaplow%null%1,        A. C.% Hernandez%null%1,        M. W.% Adelman%null%1,        G. S.% Martin%null%1,        C. M.% Coopersmith%null%1,        D. J.% Murphy%null%1,          % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,         Bijan J.%Ghassemieh%NULL%2,         Michelle%Nichols%NULL%2,         Richard%Kim%NULL%2,         Keith R.%Jerome%NULL%2,         Arun K.%Nalla%NULL%2,         Alexander L.%Greninger%NULL%2,         Sudhakar%Pipavath%NULL%2,         Mark M.%Wurfel%NULL%2,         Laura%Evans%NULL%2,         Patricia A.%Kritek%NULL%2,         T. Eoin%West%NULL%2,         Andrew%Luks%NULL%2,         Anthony%Gerbino%NULL%2,         Chris R.%Dale%NULL%2,         Jason D.%Goldman%NULL%2,         Shane%O’Mahony%NULL%2,         Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,         Tangkai%Qi%NULL%0,         Li%Liu%NULL%0,         Yun%Ling%NULL%0,         Zhiping%Qian%NULL%0,         Tao%Li%NULL%0,         Feng%Li%NULL%0,         Qingnian%Xu%NULL%0,         Yuyi%Zhang%NULL%0,         Shuibao%Xu%NULL%0,         Zhigang%Song%NULL%0,         Yigang%Zeng%NULL%0,         Yinzhong%Shen%NULL%0,         Yuxin%Shi%NULL%0,         Tongyu%Zhu%NULL%0,         Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,         Min%Zhou%NULL%0,         Xuan%Dong%NULL%0,         Jieming%Qu%NULL%0,         Fengyun%Gong%NULL%0,         Yang%Han%NULL%0,         Yang%Qiu%NULL%0,         Jingli%Wang%NULL%0,         Ying%Liu%NULL%0,         Yuan%Wei%NULL%0,         Jia'an%Xia%NULL%0,         Ting%Yu%NULL%0,         Xinxin%Zhang%NULL%0,         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,         Zheng-yi%Ni%NULL%0,         Zheng-yi%Ni%NULL%0,         Yu%Hu%NULL%0,         Wen-hua%Liang%NULL%0,         Chun-quan%Ou%NULL%0,         Jian-xing%He%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chun-liang%Lei%NULL%0,         David S.C.%Hui%NULL%0,         Bin%Du%NULL%0,         Lan-juan%Li%NULL%0,         Guang%Zeng%NULL%0,         Kwok-Yung%Yuen%NULL%0,         Ru-chong%Chen%NULL%0,         Chun-li%Tang%NULL%0,         Tao%Wang%NULL%0,         Ping-yan%Chen%NULL%0,         Jie%Xiang%NULL%0,         Shi-yue%Li%NULL%0,         Jin-lin%Wang%NULL%0,         Zi-jing%Liang%NULL%0,         Yi-xiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Ya-hua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jian-ming%Wang%NULL%0,         Ji-yang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhi-jian%Zheng%NULL%0,         Shao-qin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Chang-jiang%Ye%NULL%0,         Shao-yong%Zhu%NULL%0,         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,         Yuanyuan%Xing%NULL%0,         Yu%Xiao%NULL%0,         Liping%Deng%NULL%0,         Qiu%Zhao%NULL%0,         Hongling%Wang%NULL%0,         Yong%Xiong%NULL%0,         Zhenshun%Cheng%NULL%0,         Shicheng%Gao%NULL%0,         Ke%Liang%NULL%0,         Mingqi%Luo%NULL%0,         Tielong%Chen%NULL%0,         Shihui%Song%NULL%0,         Zhiyong%Ma%NULL%0,         Xiaoping%Chen%NULL%0,         Ruiying%Zheng%NULL%0,         Qian%Cao%NULL%0,         Fan%Wang%fanndywang@foxmail.com%0,         Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,         N -B%Yang%NULL%0,         F%Ding%NULL%0,         A H Y%Ma%NULL%0,         Z -Y%Wang%NULL%0,         Y -F%Shen%NULL%0,         C -W%Shi%NULL%0,         X%Lian%NULL%0,         J -G%Chu%NULL%0,         L%Chen%chxmin@hotmail.com%0,         Z -Y%Wang%NULL%0,         D -W%Ren%NULL%0,         G -X%Li%NULL%0,         X -Q%Chen%chxmin@hotmail.com%0,         H -J%Shen%NULL%0,         X -M%Chen%chxmin@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,         Hugues%Spillemaeker%NULL%1,         Maéva%Kyheng%NULL%1,         Cassandre%Belin‐Vincent%NULL%1,         Cédric%Delhaye%NULL%1,         Adeline%Piérache%NULL%1,         Tom%Denimal%NULL%1,         Basile%Verdier%NULL%1,         Nicolas%Debry%NULL%1,         Mouhamed%Moussa%NULL%1,         Guillaume%Schurtz%NULL%1,         Sina%Porouchani%NULL%1,         Alessandro%Cosenza%NULL%1,         Francis%Juthier%NULL%1,         Thibault%Pamart%NULL%1,         Marjorie%Richardson%NULL%1,         Augustin%Coisne%NULL%1,         Adrien%Hertault%NULL%1,         Jonathan%Sobocinski%NULL%1,         Thomas%Modine%NULL%1,         François%Pontana%NULL%1,         Alain%Duhamel%NULL%2,         Julien%Labreuche%NULL%2,         Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,        Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,         Yimei%Yin%18256985@qq.com%1,         Chang%Hu%1391369733@qq.com%0,         Xing%Liu%375117565@qq.com%1,         Xingguo%Zhang%zhangxinguo7909@163.com%1,         Shuliang%Zhou%350925556@qq.com%1,         Mingzhi%Jian%Jmzhak@aliyun.com%1,         Haibo%Xu%xuhaibo1120@hotmail.com%0,         John%Prowle%j.prowle@qmul.ac.uk%1,         Bo%Hu%hobbier1979@163.com%0,         Yirong%Li%liyirong838@163.com%1,         Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>"Epidemiologic Features and Clinical Findings of COVID-19-Infected Patients in Suzhou"</t>
+  </si>
+  <si>
+    <t>[Wentao%Xu%xref no email%1, Shuang%Qu%xref no email%1, Mengying%Xing%xref no email%1, Ming%Zhang%xref no email%1, Geng%Lu%xref no email%1, Zhicong%Liao%xref no email%1, Kimberly%Griffin%xref no email%1, Jun%Wang%xref no email%1, Ke%Zen%xref no email%1, Bing%Yao%xref no email%1, Hongwei%Liang%xref no email%1, Jianping%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-04-05</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,         Xiao-Xin%Wu%NULL%0,         Xian-Gao%Jiang%NULL%0,         Kai-Jin%Xu%NULL%0,         Ling-Jun%Ying%NULL%0,         Chun-Lian%Ma%NULL%0,         Shi-Bo%Li%NULL%0,         Hua-Ying%Wang%NULL%0,         Sheng%Zhang%NULL%0,         Hai-Nv%Gao%NULL%0,         Ji-Fang%Sheng%NULL%0,         Hong-Liu%Cai%NULL%0,         Yun-Qing%Qiu%NULL%0,         Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,         Chang%Hu%NULL%0,         Linjie%Luo%NULL%0,         Fang%Fang%NULL%0,         Yongfeng%Chen%NULL%0,         Jianguo%Li%NULL%0,         Zhiyong%Peng%NULL%0,         Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,         Chun%Liao%lc7spring@163.com%1,         Qi-hong%Fan%1187286305@qq.com%1,         Hong-bo%Chen%hbchen@hust.edu.cn%1,         Xue-gong%Zhao%NULL%1,         Zhong-guo%Xie%NULL%1,         Xi-lin%Li%NULL%1,         Chun-xi%Chen%NULL%1,         Xiao-xia%Lu%NULL%1,         Zhi-sheng%Liu%NULL%1,         Wei%Lu%NULL%1,         Chun-bao%Chen%NULL%1,         Rong%Jiao%NULL%1,         Ai-ming%Zhang%NULL%1,         Jin-tang%Wang%NULL%1,         Xi-wei%Ding%NULL%1,         Yao-guang%Zeng%NULL%1,         Li-ping%Cheng%NULL%1,         Qing-feng%Huang%NULL%1,         Jiang%Wu%NULL%0,         Xi-chang%Luo%NULL%1,         Zhu-jun%Wang%NULL%1,         Yan-yan%Zhong%NULL%1,         Yan%Bai%yanbaixh@hust.edu.cn%1,         Xiao-yan%Wu%xwu@hust.edu.cn%1,         Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,         Ting%Yu%NULL%0,         Ronghui%Du%NULL%0,         Guohui%Fan%NULL%0,         Ying%Liu%NULL%0,         Zhibo%Liu%NULL%0,         Jie%Xiang%NULL%0,         Yeming%Wang%NULL%0,         Bin%Song%NULL%0,         Xiaoying%Gu%NULL%0,         Lulu%Guan%NULL%0,         Yuan%Wei%NULL%0,         Hui%Li%NULL%0,         Xudong%Wu%NULL%0,         Jiuyang%Xu%NULL%0,         Shengjin%Tu%NULL%0,         Yi%Zhang%NULL%0,         Hua%Chen%NULL%0,         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,         Mengqi%Tu%NULL%0,         Shipei%Wang%NULL%0,         Sichao%Chen%NULL%0,         Wei%Zhou%NULL%0,         Danyang%Chen%NULL%0,         Lin%Zhou%NULL%0,         Min%Wang%NULL%0,         Yan%Zhao%NULL%0,         Wen%Zeng%NULL%0,         Qi%Huang%NULL%0,         Hai'bo%Xu%NULL%0,         Zeming%Liu%NULL%0,         Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,         Yuan%Yu%NULL%0,         Jiqian%Xu%NULL%0,         Huaqing%Shu%NULL%0,         Jia'an%Xia%NULL%0,         Hong%Liu%NULL%0,         Yongran%Wu%NULL%0,         Lu%Zhang%NULL%0,         Zhui%Yu%NULL%0,         Minghao%Fang%NULL%0,         Ting%Yu%NULL%0,         Yaxin%Wang%NULL%0,         Shangwen%Pan%NULL%0,         Xiaojing%Zou%NULL%0,         Shiying%Yuan%NULL%0,         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,         Wei-jie%Guan%NULL%2,         Cai-chen%Li%NULL%3,         Yi-min%Li%NULL%3,         Heng-rui%Liang%NULL%3,         Yi%Zhao%NULL%3,         Xiao-qing%Liu%NULL%3,         Ling%Sang%NULL%0,         Ru-chong%Chen%NULL%0,         Chun-li%Tang%NULL%0,         Tao%Wang%NULL%0,         Wei%Wang%NULL%0,         Qi-hua%He%NULL%2,         Zi-sheng%Chen%NULL%3,         Sook-San%Wong%NULL%2,         Mark%Zanin%NULL%2,         Jun%Liu%NULL%0,         Xin%Xu%NULL%0,         Jun%Huang%NULL%2,         Jian-fu%Li%NULL%3,         Li-min%Ou%NULL%3,         Bo%Cheng%NULL%3,         Shan%Xiong%NULL%3,         Zhan-hong%Xie%NULL%2,         Zheng-yi%Ni%NULL%0,         Yu%Hu%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chun-liang%Lei%NULL%0,         Yi-xiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Ya-hua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jian-ming%Wang%NULL%0,         Ji-yang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhi-jian%Zheng%NULL%0,         Shao-qin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Chang-jiang%Ye%NULL%0,         Shao-yong%Zhu%NULL%0,         Lin-ling%Cheng%NULL%3,         Feng%Ye%NULL%5,         Shi-yue%Li%NULL%0,         Jin-ping%Zheng%NULL%3,         Nuo-fu%Zhang%NULL%3,         Nan-shan%Zhong%NULL%0,         Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,         Simon A%Jones%NULL%1,         Jie%Yang%NULL%0,         Harish%Rajagopalan%NULL%1,         Luke%O’Donnell%NULL%1,         Yelena%Chernyak%NULL%1,         Katie A%Tobin%NULL%1,         Robert J%Cerfolio%NULL%1,         Fritz%Francois%NULL%1,         Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0,         Stephanie%Bialek%NULL%1,         Ellen%Boundy%NULL%1,         Virginia%Bowen%NULL%1,         Nancy%Chow%NULL%0,         Amanda%Cohn%NULL%1,         Nicole%Dowling%NULL%1,         Sascha%Ellington%NULL%1,         Ryan%Gierke%NULL%0,         Aron%Hall%NULL%0,         Jessica%MacNeil%NULL%1,         Priti%Patel%NULL%1,         Georgina%Peacock%NULL%1,         Tamara%Pilishvili%NULL%0,         Hilda%Razzaghi%NULL%1,         Nia%Reed%NULL%1,         Matthew%Ritchey%NULL%0,         Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,         Pedro%Póvoa%NULL%1,         Vicente%Souza-Dantas%NULL%1,         André C.%Kalil%NULL%1,         Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,         Graeme%MacLaren%NULL%1,         Philip S%Boonstra%NULL%1,         Theodore J%Iwashyna%NULL%1,         Arthur S%Slutsky%NULL%1,         Eddy%Fan%NULL%1,         Robert H%Bartlett%NULL%1,         Joseph E%Tonna%NULL%1,         Robert%Hyslop%NULL%1,         Jeffrey J%Fanning%NULL%1,         Peter T%Rycus%NULL%1,         Steve J%Hyer%NULL%1,         Marc M%Anders%NULL%1,         Cara L%Agerstrand%NULL%1,         Katarzyna%Hryniewicz%NULL%1,         Rodrigo%Diaz%NULL%1,         Roberto%Lorusso%NULL%1,         Alain%Combes%NULL%1,         Daniel%Brodie%NULL%4,         Peta%Alexander%NULL%1,         Nicholas%Barrett%NULL%1,         Jan%Bělohlávek%NULL%1,         Dale%Fisher%NULL%1,         John%Fraser%NULL%1,         Ali Ait%Hssain%NULL%1,         Jae Sung%Jung%NULL%1,         Michael%McMullan%NULL%1,         Yatin%Mehta%NULL%1,         Mark T.%Ogino%NULL%1,         Matthew L.%Paden%NULL%1,         Kiran%Shekar%NULL%1,         Christine%Stead%NULL%1,         Yasir%Abu-Omar%NULL%1,         Vanni%Agnoletti%NULL%1,         Anzila%Akbar%NULL%1,         Huda%Alfoudri%NULL%1,         Carlos%Alviar%NULL%1,         Vladimir%Aronsky%NULL%1,         Erin%August%NULL%1,         Georg%Auzinger%NULL%1,         Hilda%Aveja%NULL%1,         Rhonda%Bakken%NULL%1,         Joan%Balcells%NULL%1,         Sripal%Bangalore%NULL%1,         Bernard W.%Barnes%NULL%1,         Alaiza%Bautista%NULL%1,         Lorraine L.%Bellows%NULL%1,         Felipe%Beltran%NULL%1,         Peyman%Benharash%NULL%1,         Marco%Benni%NULL%1,         Jennifer%Berg%NULL%1,         Pietro%Bertini%NULL%1,         Pablo%Blanco-Schweizer%NULL%1,         Melissa%Brunsvold%NULL%1,         Jenny%Budd%NULL%1,         Debra%Camp%NULL%1,         Mark%Caridi-Scheible%NULL%0,         Edmund%Carton%NULL%1,         Elena%Casanova-Ghosh%NULL%1,         Anthony%Castleberry%NULL%1,         Christopher T.%Chipongian%NULL%1,         Chang Woo%Choi%NULL%1,         Alessandro%Circelli%NULL%1,         Elliott%Cohen%NULL%1,         Michael%Collins%NULL%1,         Scott%Copus%NULL%1,         Jill%Coy%NULL%1,         Brandon%Crist%NULL%1,         Leonora%Cruz%NULL%1,         Mirosław%Czuczwar%NULL%1,         Mani%Daneshmand%NULL%1,         Daniel%Davis II%NULL%1,         Kim%De la Cruz%NULL%1,         Cyndie%Devers%NULL%1,         Toni%Duculan%NULL%1,         Lucian%Durham%NULL%1,         Subbarao%Elapavaluru%NULL%1,         Carlos V.%Elzo Kraemer%NULL%1,         EDMÍLSON CARDOSO%Filho%NULL%1,         Jillian%Fitzgerald%NULL%1,         Giuseppe%Foti%NULL%1,         Matthew%Fox%NULL%1,         David%Fritschen%NULL%1,         David%Fullerton%NULL%1,         Elton%Gelandt%NULL%1,         Stacy%Gerle%NULL%1,         Marco%Giani%NULL%1,         Si Guim%Goh%NULL%1,         Sara%Govener%NULL%1,         Julie%Grone%NULL%1,         Miles%Guber%NULL%1,         Vadim%Gudzenko%NULL%1,         Daniel%Gutteridge%NULL%1,         Jennifer%Guy%NULL%1,         Jonathan%Haft%NULL%1,         Cameron%Hall%NULL%1,         Ibrahim Fawzy%Hassan%NULL%1,         Rubén%Herrán%NULL%1,         Hitoshi%Hirose%NULL%1,         Abdulsalam Saif%Ibrahim%NULL%1,         Don%Igielski%NULL%1,         Felicia A.%Ivascu%NULL%1,         Jaume%Izquierdo Blasco%NULL%1,         Julie%Jackson%NULL%1,         Harsh%Jain%NULL%1,         Bhavini%Jaiswal%NULL%1,         Andrea C.%Johnson%NULL%1,         Jenniver A.%Jurynec%NULL%1,         Norma M%Kellter%NULL%1,         Adam%Kohl%NULL%1,         Zachary%Kon%NULL%1,         Markus%Kredel%NULL%1,         Karen%Kriska%NULL%1,         Chandra%Kunavarapu%NULL%1,         Oude%Lansink-Hartgring%NULL%1,         Jeliene%LaRocque%NULL%1,         Sharon Beth%Larson%NULL%1,         Tracie%Layne%NULL%1,         Stephane%Ledot%NULL%1,         Napolitan%Lena%NULL%1,         Jonathan%Lillie%NULL%1,         Gösta%Lotz%NULL%1,         Mark%Lucas%NULL%1,         Lee%Ludwigson%NULL%1,         Jacinta J.%Maas%NULL%1,         Joanna%Maertens%NULL%1,         David%Mast%NULL%1,         Scott%McCardle%NULL%1,         Bernard%McDonald%NULL%1,         Allison%McLarty%NULL%1,         Chelsea%McMahon%NULL%1,         Patrick%Meybohm%NULL%1,         Bart%Meyns%NULL%1,         Casey%Miller%NULL%1,         Fernando%Moraes Neto%NULL%1,         Kelly%Morris%NULL%1,         Ralf%Muellenbach%NULL%1,         Meghan%Nicholson%NULL%1,         Serena%O'Brien%NULL%1,         Kathryn%O'Keefe%NULL%1,         Tawnya%Ogston%NULL%1,         Gary%Oldenburg%NULL%1,         Fabiana M.%Oliveira%NULL%1,         Emily%Oppel%NULL%1,         Diego%Pardo%NULL%2,         Diego%Pardo%NULL%0,         Sara J.%Parker%NULL%1,         Finn M.%Pedersen%NULL%1,         Crescens%Pellecchia%NULL%1,         Jose A.S.%Pelligrini%NULL%1,         Thao T.N.%Pham%NULL%1,         Ann R.%Phillips%NULL%1,         Tasneem%Pirani%NULL%1,         Paweł%Piwowarczyk%NULL%1,         Robert%Plambeck%NULL%1,         William%Pruett%NULL%1,         Brittany%Quandt%NULL%1,         Kollengode%Ramanathan%NULL%1,         Alejandro%Rey%NULL%1,         Christian%Reyher%NULL%1,         Jordi%Riera del Brio%NULL%1,         Rachel%Roberts%NULL%1,         David%Roe%NULL%1,         Peter P.%Roeleveld%NULL%1,         Janet%Rudy%NULL%1,         Luis F.%Rueda%NULL%1,         Emanuele%Russo%NULL%1,         Jesús%Sánchez Ballesteros%NULL%1,         Nancy%Satou%NULL%1,         Mauricio Guidi%Saueressig%NULL%1,         Paul C.%Saunders%NULL%1,         Margaret%Schlotterbeck%NULL%1,         Patricia%Schwarz%NULL%1,         Nicole%Scriven%NULL%1,         Alexis%Serra%NULL%1,         Mohammad%Shamsah%NULL%1,         Lucy%Sim%NULL%1,         Alexandra%Smart%NULL%1,         Adam%Smith%NULL%1,         Deane%Smith%NULL%1,         Maggie%Smith%NULL%1,         Neel%Sodha%NULL%1,         Michael%Sonntagbauer%NULL%1,         Marc%Sorenson%NULL%1,         Eric B%Stallkamp%NULL%1,         Allison%Stewart%NULL%1,         Kathy%Swartz%NULL%1,         Koji%Takeda%NULL%1,         Shaun%Thompson%NULL%1,         Bridget%Toy%NULL%1,         Divina%Tuazon%NULL%1,         Makoto%Uchiyama%NULL%1,         Obiora I.%Udeozo%NULL%1,         Scott%van Poppel%NULL%1,         Corey%Ventetuolo%NULL%1,         Leen%Vercaemst%NULL%1,         Nguyen V.%Vinh Chau%NULL%1,         I-Wen%Wang%NULL%1,         Carrie%Williamson%NULL%1,         Brock%Wilson%NULL%1,         Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,  Xiaoyan%Chen%xref no email%0,  Yanping%Cai%xref no email%0,  Jia\u2019an%Xia%xref no email%0,  Xing%Zhou%xref no email%0,  Sha%Xu%xref no email%0,  Hanping%Huang%xref no email%0,  Li%Zhang%xref no email%0,  Xia%Zhou%xref no email%0,  Chunling%Du%xref no email%0,  Yuye%Zhang%xref no email%0,  Juan%Song%xref no email%0,  Sijiao%Wang%xref no email%0,  Yencheng%Chao%xref no email%0,  Zeyong%Yang%xref no email%0,  Jie%Xu%xref no email%0,  Xin%Zhou%xref no email%0,  Dechang%Chen%xref no email%0,  Weining%Xiong%xref no email%0,  Lei%Xu%xref no email%0,  Feng%Zhou%xref no email%0,  Jinjun%Jiang%xref no email%0,  Chunxue%Bai%xref no email%0,  Junhua%Zheng%xref no email%0,  Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,          Dhaval%Kolte%NULL%1,          Mary E.%Cadigan%NULL%1,          Elizabeth%Laikhter%NULL%1,          Kevin%Sinclair%NULL%1,          Eugene%Pomerantsev%NULL%1,          Michael A.%Fifer%NULL%1,          Thoralf M.%Sundt%NULL%1,          Robert W.%Yeh%NULL%1,          Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,         Cabrini%Luca%coreGivesNoEmail%1,         Castelli%Antonio%coreGivesNoEmail%1,         Cecconi%Maurizio%coreGivesNoEmail%1,         Cereda%Danilo%coreGivesNoEmail%1,         Coluccello%Antonio%coreGivesNoEmail%1,         Foti%Giuseppe%coreGivesNoEmail%1,         Fumagalli%Roberto%coreGivesNoEmail%1,         Grasselli%Giacomo%coreGivesNoEmail%1,         Iotti%Giorgio%coreGivesNoEmail%1,         Latronico%Nicola%coreGivesNoEmail%1,         Lorini%Luca%coreGivesNoEmail%1,         Merler%Stefano%coreGivesNoEmail%1,         Natalini%Giuseppe%coreGivesNoEmail%1,         Pesenti%Antonio%coreGivesNoEmail%1,         Piatti%Alessandra%coreGivesNoEmail%1,         Ranieri%Marco Vito%coreGivesNoEmail%1,         Scandroglio%Anna Mara%coreGivesNoEmail%1,         Storti%Enrico%coreGivesNoEmail%1,         Zanella%Alberto%coreGivesNoEmail%1,         Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,          Yeming%Wang%NULL%0,          Xingwang%Li%NULL%0,          Lili%Ren%NULL%0,          Jianping%Zhao%NULL%0,          Yi%Hu%NULL%0,          Li%Zhang%NULL%0,          Guohui%Fan%NULL%0,          Jiuyang%Xu%NULL%0,          Xiaoying%Gu%NULL%0,          Zhenshun%Cheng%NULL%0,          Ting%Yu%NULL%0,          Jiaan%Xia%NULL%0,          Yuan%Wei%NULL%0,          Wenjuan%Wu%NULL%0,          Xuelei%Xie%NULL%0,          Wen%Yin%NULL%0,          Hui%Li%NULL%0,          Min%Liu%NULL%0,          Yan%Xiao%NULL%0,          Hong%Gao%NULL%0,          Li%Guo%NULL%0,          Jungang%Xie%NULL%0,          Guangfa%Wang%NULL%0,          Rongmeng%Jiang%NULL%0,          Zhancheng%Gao%NULL%0,          Qi%Jin%NULL%0,          Jianwei%Wang%wangjw28@163.com%0,          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,          Yi%Xiang%NULL%0,          Wei%Fang%NULL%0,          Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,          Boqun%Li%279685211@qq.com%0,          Boqun%Li%279685211@qq.com%0,          Yanjun%Hu%huyanjun@163.com%0,          Chunhui%Lang%NULL%0,          Daoqiu%Huang%NULL%0,          Qiuyan%Sun%NULL%0,          Yan%Xiong%NULL%0,          Xia%Huang%NULL%0,          Jinglong%Lv%NULL%0,          Yaling%Luo%NULL%0,          Li%Shen%NULL%0,          Haoran%Yang%NULL%0,          Gu%Huang%NULL%0,          Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,  Eric%Yim%xref no email%0,  Lindy%Klaff%xref no email%0,  Sharukh%Lokhandwala%xref no email%0,  Francis X.%Riedo%xref no email%0,  Maria%Chong%xref no email%0,  Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,          Mark%Caridi-Scheible%NULL%0,          James M.%Blum%NULL%0,          Chad%Robichaux%NULL%0,          Colleen%Kraft%NULL%0,          Jesse T.%Jacob%NULL%0,          Craig S.%Jabaley%NULL%0,          David%Carpenter%NULL%0,          Roberta%Kaplow%NULL%0,          Alfonso C.%Hernandez-Romieu%NULL%0,          Max W.%Adelman%NULL%0,          Greg S.%Martin%NULL%0,          Craig M.%Coopersmith%NULL%0,          David J.%Murphy%NULL%0,          NULL%NULL%NULL%0,           S.%Auld%null%1,           M.% Caridi-Scheible%null%1,           J. M.% Blum%null%1,           C. J.% Robichaux%null%1,           C. S.% Kraft%null%1,           J. T.% Jacob%null%1,           C. S.% Jabaley%null%1,           D.% Carpenter%null%1,           R.% Kaplow%null%1,           A. C.% Hernandez%null%1,           M. W.% Adelman%null%1,           G. S.% Martin%null%1,           C. M.% Coopersmith%null%1,           D. J.% Murphy%null%1,             % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,         S.%Auld%null%1,         M.% Caridi-Scheible%null%1,         J. M.% Blum%null%1,         C. J.% Robichaux%null%1,         C. S.% Kraft%null%1,         J. T.% Jacob%null%1,         C. S.% Jabaley%null%1,         D.% Carpenter%null%1,         R.% Kaplow%null%1,         A. C.% Hernandez%null%1,         M. W.% Adelman%null%1,         G. S.% Martin%null%1,         C. M.% Coopersmith%null%1,         D. J.% Murphy%null%1,           % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,          Bijan J.%Ghassemieh%NULL%2,          Michelle%Nichols%NULL%2,          Richard%Kim%NULL%2,          Keith R.%Jerome%NULL%2,          Arun K.%Nalla%NULL%2,          Alexander L.%Greninger%NULL%2,          Sudhakar%Pipavath%NULL%2,          Mark M.%Wurfel%NULL%2,          Laura%Evans%NULL%2,          Patricia A.%Kritek%NULL%2,          T. Eoin%West%NULL%2,          Andrew%Luks%NULL%2,          Anthony%Gerbino%NULL%2,          Chris R.%Dale%NULL%2,          Jason D.%Goldman%NULL%2,          Shane%O’Mahony%NULL%2,          Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,          Tangkai%Qi%NULL%0,          Li%Liu%NULL%0,          Yun%Ling%NULL%0,          Zhiping%Qian%NULL%0,          Tao%Li%NULL%0,          Feng%Li%NULL%0,          Qingnian%Xu%NULL%0,          Yuyi%Zhang%NULL%0,          Shuibao%Xu%NULL%0,          Zhigang%Song%NULL%0,          Yigang%Zeng%NULL%0,          Yinzhong%Shen%NULL%0,          Yuxin%Shi%NULL%0,          Tongyu%Zhu%NULL%0,          Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,          Min%Zhou%NULL%0,          Xuan%Dong%NULL%0,          Jieming%Qu%NULL%0,          Fengyun%Gong%NULL%0,          Yang%Han%NULL%0,          Yang%Qiu%NULL%0,          Jingli%Wang%NULL%0,          Ying%Liu%NULL%0,          Yuan%Wei%NULL%0,          Jia'an%Xia%NULL%0,          Ting%Yu%NULL%0,          Xinxin%Zhang%NULL%0,          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,          Zheng-yi%Ni%NULL%0,          Zheng-yi%Ni%NULL%0,          Yu%Hu%NULL%0,          Wen-hua%Liang%NULL%0,          Chun-quan%Ou%NULL%0,          Jian-xing%He%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chun-liang%Lei%NULL%0,          David S.C.%Hui%NULL%0,          Bin%Du%NULL%0,          Lan-juan%Li%NULL%0,          Guang%Zeng%NULL%0,          Kwok-Yung%Yuen%NULL%0,          Ru-chong%Chen%NULL%0,          Chun-li%Tang%NULL%0,          Tao%Wang%NULL%0,          Ping-yan%Chen%NULL%0,          Jie%Xiang%NULL%0,          Shi-yue%Li%NULL%0,          Jin-lin%Wang%NULL%0,          Zi-jing%Liang%NULL%0,          Yi-xiang%Peng%NULL%0,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Ya-hua%Hu%NULL%0,          Peng%Peng%NULL%0,          Jian-ming%Wang%NULL%0,          Ji-yang%Liu%NULL%0,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhi-jian%Zheng%NULL%0,          Shao-qin%Qiu%NULL%0,          Jie%Luo%NULL%0,          Chang-jiang%Ye%NULL%0,          Shao-yong%Zhu%NULL%0,          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,          Yuanyuan%Xing%NULL%0,          Yu%Xiao%NULL%0,          Liping%Deng%NULL%0,          Qiu%Zhao%NULL%0,          Hongling%Wang%NULL%0,          Yong%Xiong%NULL%0,          Zhenshun%Cheng%NULL%0,          Shicheng%Gao%NULL%0,          Ke%Liang%NULL%0,          Mingqi%Luo%NULL%0,          Tielong%Chen%NULL%0,          Shihui%Song%NULL%0,          Zhiyong%Ma%NULL%0,          Xiaoping%Chen%NULL%0,          Ruiying%Zheng%NULL%0,          Qian%Cao%NULL%0,          Fan%Wang%fanndywang@foxmail.com%0,          Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,          N -B%Yang%NULL%0,          F%Ding%NULL%0,          A H Y%Ma%NULL%0,          Z -Y%Wang%NULL%0,          Y -F%Shen%NULL%0,          C -W%Shi%NULL%0,          X%Lian%NULL%0,          J -G%Chu%NULL%0,          L%Chen%chxmin@hotmail.com%0,          Z -Y%Wang%NULL%0,          D -W%Ren%NULL%0,          G -X%Li%NULL%0,          X -Q%Chen%chxmin@hotmail.com%0,          H -J%Shen%NULL%0,          X -M%Chen%chxmin@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,          Hugues%Spillemaeker%NULL%1,          Maéva%Kyheng%NULL%1,          Cassandre%Belin‐Vincent%NULL%1,          Cédric%Delhaye%NULL%1,          Adeline%Piérache%NULL%1,          Tom%Denimal%NULL%1,          Basile%Verdier%NULL%1,          Nicolas%Debry%NULL%1,          Mouhamed%Moussa%NULL%1,          Guillaume%Schurtz%NULL%1,          Sina%Porouchani%NULL%1,          Alessandro%Cosenza%NULL%1,          Francis%Juthier%NULL%1,          Thibault%Pamart%NULL%1,          Marjorie%Richardson%NULL%1,          Augustin%Coisne%NULL%1,          Adrien%Hertault%NULL%1,          Jonathan%Sobocinski%NULL%1,          Thomas%Modine%NULL%1,          François%Pontana%NULL%1,          Alain%Duhamel%NULL%2,          Julien%Labreuche%NULL%2,          Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,         Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,         Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,         Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,          Yimei%Yin%18256985@qq.com%1,          Chang%Hu%1391369733@qq.com%0,          Xing%Liu%375117565@qq.com%1,          Xingguo%Zhang%zhangxinguo7909@163.com%1,          Shuliang%Zhou%350925556@qq.com%1,          Mingzhi%Jian%Jmzhak@aliyun.com%1,          Haibo%Xu%xuhaibo1120@hotmail.com%0,          John%Prowle%j.prowle@qmul.ac.uk%1,          Bo%Hu%hobbier1979@163.com%0,          Yirong%Li%liyirong838@163.com%1,          Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wentao%Xu%xref no email%1,  Shuang%Qu%xref no email%1,  Mengying%Xing%xref no email%1,  Ming%Zhang%xref no email%1,  Geng%Lu%xref no email%1,  Zhicong%Liao%xref no email%1,  Kimberly%Griffin%xref no email%1,  Jun%Wang%xref no email%1,  Ke%Zen%xref no email%1,  Bing%Yao%xref no email%1,  Hongwei%Liang%xref no email%1,  Jianping%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,          Xiao-Xin%Wu%NULL%0,          Xian-Gao%Jiang%NULL%0,          Kai-Jin%Xu%NULL%0,          Ling-Jun%Ying%NULL%0,          Chun-Lian%Ma%NULL%0,          Shi-Bo%Li%NULL%0,          Hua-Ying%Wang%NULL%0,          Sheng%Zhang%NULL%0,          Hai-Nv%Gao%NULL%0,          Ji-Fang%Sheng%NULL%0,          Hong-Liu%Cai%NULL%0,          Yun-Qing%Qiu%NULL%0,          Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,          Chang%Hu%NULL%0,          Linjie%Luo%NULL%0,          Fang%Fang%NULL%0,          Yongfeng%Chen%NULL%0,          Jianguo%Li%NULL%0,          Zhiyong%Peng%NULL%0,          Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,          Chun%Liao%lc7spring@163.com%1,          Qi-hong%Fan%1187286305@qq.com%1,          Hong-bo%Chen%hbchen@hust.edu.cn%1,          Xue-gong%Zhao%NULL%1,          Zhong-guo%Xie%NULL%1,          Xi-lin%Li%NULL%1,          Chun-xi%Chen%NULL%1,          Xiao-xia%Lu%NULL%1,          Zhi-sheng%Liu%NULL%1,          Wei%Lu%NULL%1,          Chun-bao%Chen%NULL%1,          Rong%Jiao%NULL%1,          Ai-ming%Zhang%NULL%1,          Jin-tang%Wang%NULL%1,          Xi-wei%Ding%NULL%1,          Yao-guang%Zeng%NULL%1,          Li-ping%Cheng%NULL%1,          Qing-feng%Huang%NULL%1,          Jiang%Wu%NULL%0,          Xi-chang%Luo%NULL%1,          Zhu-jun%Wang%NULL%1,          Yan-yan%Zhong%NULL%1,          Yan%Bai%yanbaixh@hust.edu.cn%1,          Xiao-yan%Wu%xwu@hust.edu.cn%1,          Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%0,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%0,          Jie%Xiang%NULL%0,          Yeming%Wang%NULL%0,          Bin%Song%NULL%0,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%0,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%0,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%0,          Yi%Zhang%NULL%0,          Hua%Chen%NULL%0,          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,          Mengqi%Tu%NULL%0,          Shipei%Wang%NULL%0,          Sichao%Chen%NULL%0,          Wei%Zhou%NULL%0,          Danyang%Chen%NULL%0,          Lin%Zhou%NULL%0,          Min%Wang%NULL%0,          Yan%Zhao%NULL%0,          Wen%Zeng%NULL%0,          Qi%Huang%NULL%0,          Hai'bo%Xu%NULL%0,          Zeming%Liu%NULL%0,          Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,          Yuan%Yu%NULL%0,          Jiqian%Xu%NULL%0,          Huaqing%Shu%NULL%0,          Jia'an%Xia%NULL%0,          Hong%Liu%NULL%0,          Yongran%Wu%NULL%0,          Lu%Zhang%NULL%0,          Zhui%Yu%NULL%0,          Minghao%Fang%NULL%0,          Ting%Yu%NULL%0,          Yaxin%Wang%NULL%0,          Shangwen%Pan%NULL%0,          Xiaojing%Zou%NULL%0,          Shiying%Yuan%NULL%0,          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,          Wei-jie%Guan%NULL%2,          Cai-chen%Li%NULL%3,          Yi-min%Li%NULL%3,          Heng-rui%Liang%NULL%3,          Yi%Zhao%NULL%3,          Xiao-qing%Liu%NULL%3,          Ling%Sang%NULL%0,          Ru-chong%Chen%NULL%0,          Chun-li%Tang%NULL%0,          Tao%Wang%NULL%0,          Wei%Wang%NULL%0,          Qi-hua%He%NULL%2,          Zi-sheng%Chen%NULL%3,          Sook-San%Wong%NULL%2,          Mark%Zanin%NULL%2,          Jun%Liu%NULL%0,          Xin%Xu%NULL%0,          Jun%Huang%NULL%2,          Jian-fu%Li%NULL%3,          Li-min%Ou%NULL%3,          Bo%Cheng%NULL%3,          Shan%Xiong%NULL%3,          Zhan-hong%Xie%NULL%2,          Zheng-yi%Ni%NULL%0,          Yu%Hu%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chun-liang%Lei%NULL%0,          Yi-xiang%Peng%NULL%0,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Ya-hua%Hu%NULL%0,          Peng%Peng%NULL%0,          Jian-ming%Wang%NULL%0,          Ji-yang%Liu%NULL%0,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhi-jian%Zheng%NULL%0,          Shao-qin%Qiu%NULL%0,          Jie%Luo%NULL%0,          Chang-jiang%Ye%NULL%0,          Shao-yong%Zhu%NULL%0,          Lin-ling%Cheng%NULL%3,          Feng%Ye%NULL%5,          Shi-yue%Li%NULL%0,          Jin-ping%Zheng%NULL%3,          Nuo-fu%Zhang%NULL%3,          Nan-shan%Zhong%NULL%0,          Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,          Simon A%Jones%NULL%1,          Jie%Yang%NULL%0,          Harish%Rajagopalan%NULL%1,          Luke%O’Donnell%NULL%1,          Yelena%Chernyak%NULL%1,          Katie A%Tobin%NULL%1,          Robert J%Cerfolio%NULL%1,          Fritz%Francois%NULL%1,          Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0,          Stephanie%Bialek%NULL%1,          Ellen%Boundy%NULL%1,          Virginia%Bowen%NULL%1,          Nancy%Chow%NULL%0,          Amanda%Cohn%NULL%1,          Nicole%Dowling%NULL%1,          Sascha%Ellington%NULL%1,          Ryan%Gierke%NULL%0,          Aron%Hall%NULL%0,          Jessica%MacNeil%NULL%1,          Priti%Patel%NULL%1,          Georgina%Peacock%NULL%1,          Tamara%Pilishvili%NULL%0,          Hilda%Razzaghi%NULL%1,          Nia%Reed%NULL%1,          Matthew%Ritchey%NULL%0,          Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,          Pedro%Póvoa%NULL%1,          Vicente%Souza-Dantas%NULL%1,          André C.%Kalil%NULL%1,          Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,          Graeme%MacLaren%NULL%1,          Philip S%Boonstra%NULL%1,          Theodore J%Iwashyna%NULL%1,          Arthur S%Slutsky%NULL%1,          Eddy%Fan%NULL%1,          Robert H%Bartlett%NULL%1,          Joseph E%Tonna%NULL%1,          Robert%Hyslop%NULL%1,          Jeffrey J%Fanning%NULL%1,          Peter T%Rycus%NULL%1,          Steve J%Hyer%NULL%1,          Marc M%Anders%NULL%1,          Cara L%Agerstrand%NULL%1,          Katarzyna%Hryniewicz%NULL%1,          Rodrigo%Diaz%NULL%1,          Roberto%Lorusso%NULL%1,          Alain%Combes%NULL%1,          Daniel%Brodie%NULL%4,          Peta%Alexander%NULL%1,          Nicholas%Barrett%NULL%1,          Jan%Bělohlávek%NULL%1,          Dale%Fisher%NULL%1,          John%Fraser%NULL%1,          Ali Ait%Hssain%NULL%1,          Jae Sung%Jung%NULL%1,          Michael%McMullan%NULL%1,          Yatin%Mehta%NULL%1,          Mark T.%Ogino%NULL%1,          Matthew L.%Paden%NULL%1,          Kiran%Shekar%NULL%1,          Christine%Stead%NULL%1,          Yasir%Abu-Omar%NULL%1,          Vanni%Agnoletti%NULL%1,          Anzila%Akbar%NULL%1,          Huda%Alfoudri%NULL%1,          Carlos%Alviar%NULL%1,          Vladimir%Aronsky%NULL%1,          Erin%August%NULL%1,          Georg%Auzinger%NULL%1,          Hilda%Aveja%NULL%1,          Rhonda%Bakken%NULL%1,          Joan%Balcells%NULL%1,          Sripal%Bangalore%NULL%1,          Bernard W.%Barnes%NULL%1,          Alaiza%Bautista%NULL%1,          Lorraine L.%Bellows%NULL%1,          Felipe%Beltran%NULL%1,          Peyman%Benharash%NULL%1,          Marco%Benni%NULL%1,          Jennifer%Berg%NULL%1,          Pietro%Bertini%NULL%1,          Pablo%Blanco-Schweizer%NULL%1,          Melissa%Brunsvold%NULL%1,          Jenny%Budd%NULL%1,          Debra%Camp%NULL%1,          Mark%Caridi-Scheible%NULL%0,          Edmund%Carton%NULL%1,          Elena%Casanova-Ghosh%NULL%1,          Anthony%Castleberry%NULL%1,          Christopher T.%Chipongian%NULL%1,          Chang Woo%Choi%NULL%1,          Alessandro%Circelli%NULL%1,          Elliott%Cohen%NULL%1,          Michael%Collins%NULL%1,          Scott%Copus%NULL%1,          Jill%Coy%NULL%1,          Brandon%Crist%NULL%1,          Leonora%Cruz%NULL%1,          Mirosław%Czuczwar%NULL%1,          Mani%Daneshmand%NULL%1,          Daniel%Davis II%NULL%1,          Kim%De la Cruz%NULL%1,          Cyndie%Devers%NULL%1,          Toni%Duculan%NULL%1,          Lucian%Durham%NULL%1,          Subbarao%Elapavaluru%NULL%1,          Carlos V.%Elzo Kraemer%NULL%1,          EDMÍLSON CARDOSO%Filho%NULL%1,          Jillian%Fitzgerald%NULL%1,          Giuseppe%Foti%NULL%1,          Matthew%Fox%NULL%1,          David%Fritschen%NULL%1,          David%Fullerton%NULL%1,          Elton%Gelandt%NULL%1,          Stacy%Gerle%NULL%1,          Marco%Giani%NULL%1,          Si Guim%Goh%NULL%1,          Sara%Govener%NULL%1,          Julie%Grone%NULL%1,          Miles%Guber%NULL%1,          Vadim%Gudzenko%NULL%1,          Daniel%Gutteridge%NULL%1,          Jennifer%Guy%NULL%1,          Jonathan%Haft%NULL%1,          Cameron%Hall%NULL%1,          Ibrahim Fawzy%Hassan%NULL%1,          Rubén%Herrán%NULL%1,          Hitoshi%Hirose%NULL%1,          Abdulsalam Saif%Ibrahim%NULL%1,          Don%Igielski%NULL%1,          Felicia A.%Ivascu%NULL%1,          Jaume%Izquierdo Blasco%NULL%1,          Julie%Jackson%NULL%1,          Harsh%Jain%NULL%1,          Bhavini%Jaiswal%NULL%1,          Andrea C.%Johnson%NULL%1,          Jenniver A.%Jurynec%NULL%1,          Norma M%Kellter%NULL%1,          Adam%Kohl%NULL%1,          Zachary%Kon%NULL%1,          Markus%Kredel%NULL%1,          Karen%Kriska%NULL%1,          Chandra%Kunavarapu%NULL%1,          Oude%Lansink-Hartgring%NULL%1,          Jeliene%LaRocque%NULL%1,          Sharon Beth%Larson%NULL%1,          Tracie%Layne%NULL%1,          Stephane%Ledot%NULL%1,          Napolitan%Lena%NULL%1,          Jonathan%Lillie%NULL%1,          Gösta%Lotz%NULL%1,          Mark%Lucas%NULL%1,          Lee%Ludwigson%NULL%1,          Jacinta J.%Maas%NULL%1,          Joanna%Maertens%NULL%1,          David%Mast%NULL%1,          Scott%McCardle%NULL%1,          Bernard%McDonald%NULL%1,          Allison%McLarty%NULL%1,          Chelsea%McMahon%NULL%1,          Patrick%Meybohm%NULL%1,          Bart%Meyns%NULL%1,          Casey%Miller%NULL%1,          Fernando%Moraes Neto%NULL%1,          Kelly%Morris%NULL%1,          Ralf%Muellenbach%NULL%1,          Meghan%Nicholson%NULL%1,          Serena%O'Brien%NULL%1,          Kathryn%O'Keefe%NULL%1,          Tawnya%Ogston%NULL%1,          Gary%Oldenburg%NULL%1,          Fabiana M.%Oliveira%NULL%1,          Emily%Oppel%NULL%1,          Diego%Pardo%NULL%2,          Diego%Pardo%NULL%0,          Sara J.%Parker%NULL%1,          Finn M.%Pedersen%NULL%1,          Crescens%Pellecchia%NULL%1,          Jose A.S.%Pelligrini%NULL%1,          Thao T.N.%Pham%NULL%1,          Ann R.%Phillips%NULL%1,          Tasneem%Pirani%NULL%1,          Paweł%Piwowarczyk%NULL%1,          Robert%Plambeck%NULL%1,          William%Pruett%NULL%1,          Brittany%Quandt%NULL%1,          Kollengode%Ramanathan%NULL%1,          Alejandro%Rey%NULL%1,          Christian%Reyher%NULL%1,          Jordi%Riera del Brio%NULL%1,          Rachel%Roberts%NULL%1,          David%Roe%NULL%1,          Peter P.%Roeleveld%NULL%1,          Janet%Rudy%NULL%1,          Luis F.%Rueda%NULL%1,          Emanuele%Russo%NULL%1,          Jesús%Sánchez Ballesteros%NULL%1,          Nancy%Satou%NULL%1,          Mauricio Guidi%Saueressig%NULL%1,          Paul C.%Saunders%NULL%1,          Margaret%Schlotterbeck%NULL%1,          Patricia%Schwarz%NULL%1,          Nicole%Scriven%NULL%1,          Alexis%Serra%NULL%1,          Mohammad%Shamsah%NULL%1,          Lucy%Sim%NULL%1,          Alexandra%Smart%NULL%1,          Adam%Smith%NULL%1,          Deane%Smith%NULL%1,          Maggie%Smith%NULL%1,          Neel%Sodha%NULL%1,          Michael%Sonntagbauer%NULL%1,          Marc%Sorenson%NULL%1,          Eric B%Stallkamp%NULL%1,          Allison%Stewart%NULL%1,          Kathy%Swartz%NULL%1,          Koji%Takeda%NULL%1,          Shaun%Thompson%NULL%1,          Bridget%Toy%NULL%1,          Divina%Tuazon%NULL%1,          Makoto%Uchiyama%NULL%1,          Obiora I.%Udeozo%NULL%1,          Scott%van Poppel%NULL%1,          Corey%Ventetuolo%NULL%1,          Leen%Vercaemst%NULL%1,          Nguyen V.%Vinh Chau%NULL%1,          I-Wen%Wang%NULL%1,          Carrie%Williamson%NULL%1,          Brock%Wilson%NULL%1,          Helen%Winkels%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1545,22 +1734,22 @@
         <v>43903</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="I2" t="s">
         <v>103</v>
@@ -1580,7 +1769,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -1609,7 +1798,7 @@
         <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1638,7 +1827,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1667,7 +1856,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -1690,22 +1879,22 @@
         <v>43949</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="I7" t="s">
         <v>103</v>
@@ -1725,7 +1914,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1754,7 +1943,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1783,7 +1972,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -1812,7 +2001,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1841,7 +2030,7 @@
         <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1870,7 +2059,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -1899,7 +2088,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -1928,7 +2117,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -1957,7 +2146,7 @@
         <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -1986,7 +2175,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="F17" t="s">
         <v>86</v>
@@ -2009,22 +2198,22 @@
         <v>43908</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>312</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="I18" t="s">
         <v>103</v>
@@ -2044,7 +2233,7 @@
         <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
@@ -2073,7 +2262,7 @@
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -2102,7 +2291,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="F21" t="s">
         <v>98</v>
@@ -2131,7 +2320,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="F22" t="s">
         <v>101</v>
@@ -2160,7 +2349,7 @@
         <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="F23" t="s">
         <v>104</v>
@@ -2189,7 +2378,7 @@
         <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="F24" t="s">
         <v>108</v>
@@ -2218,7 +2407,7 @@
         <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>256</v>
+        <v>319</v>
       </c>
       <c r="F25" t="s">
         <v>111</v>
@@ -2247,7 +2436,7 @@
         <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>257</v>
+        <v>320</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -2276,7 +2465,7 @@
         <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -2305,7 +2494,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
@@ -2334,7 +2523,7 @@
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="F29" t="s">
         <v>125</v>

--- a/Covid_19_Dataset_and_References/References/48.xlsx
+++ b/Covid_19_Dataset_and_References/References/48.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="380">
   <si>
     <t>Doi</t>
   </si>
@@ -1388,6 +1388,174 @@
   </si>
   <si>
     <t>[Ryan P%Barbaro%NULL%2,          Graeme%MacLaren%NULL%1,          Philip S%Boonstra%NULL%1,          Theodore J%Iwashyna%NULL%1,          Arthur S%Slutsky%NULL%1,          Eddy%Fan%NULL%1,          Robert H%Bartlett%NULL%1,          Joseph E%Tonna%NULL%1,          Robert%Hyslop%NULL%1,          Jeffrey J%Fanning%NULL%1,          Peter T%Rycus%NULL%1,          Steve J%Hyer%NULL%1,          Marc M%Anders%NULL%1,          Cara L%Agerstrand%NULL%1,          Katarzyna%Hryniewicz%NULL%1,          Rodrigo%Diaz%NULL%1,          Roberto%Lorusso%NULL%1,          Alain%Combes%NULL%1,          Daniel%Brodie%NULL%4,          Peta%Alexander%NULL%1,          Nicholas%Barrett%NULL%1,          Jan%Bělohlávek%NULL%1,          Dale%Fisher%NULL%1,          John%Fraser%NULL%1,          Ali Ait%Hssain%NULL%1,          Jae Sung%Jung%NULL%1,          Michael%McMullan%NULL%1,          Yatin%Mehta%NULL%1,          Mark T.%Ogino%NULL%1,          Matthew L.%Paden%NULL%1,          Kiran%Shekar%NULL%1,          Christine%Stead%NULL%1,          Yasir%Abu-Omar%NULL%1,          Vanni%Agnoletti%NULL%1,          Anzila%Akbar%NULL%1,          Huda%Alfoudri%NULL%1,          Carlos%Alviar%NULL%1,          Vladimir%Aronsky%NULL%1,          Erin%August%NULL%1,          Georg%Auzinger%NULL%1,          Hilda%Aveja%NULL%1,          Rhonda%Bakken%NULL%1,          Joan%Balcells%NULL%1,          Sripal%Bangalore%NULL%1,          Bernard W.%Barnes%NULL%1,          Alaiza%Bautista%NULL%1,          Lorraine L.%Bellows%NULL%1,          Felipe%Beltran%NULL%1,          Peyman%Benharash%NULL%1,          Marco%Benni%NULL%1,          Jennifer%Berg%NULL%1,          Pietro%Bertini%NULL%1,          Pablo%Blanco-Schweizer%NULL%1,          Melissa%Brunsvold%NULL%1,          Jenny%Budd%NULL%1,          Debra%Camp%NULL%1,          Mark%Caridi-Scheible%NULL%0,          Edmund%Carton%NULL%1,          Elena%Casanova-Ghosh%NULL%1,          Anthony%Castleberry%NULL%1,          Christopher T.%Chipongian%NULL%1,          Chang Woo%Choi%NULL%1,          Alessandro%Circelli%NULL%1,          Elliott%Cohen%NULL%1,          Michael%Collins%NULL%1,          Scott%Copus%NULL%1,          Jill%Coy%NULL%1,          Brandon%Crist%NULL%1,          Leonora%Cruz%NULL%1,          Mirosław%Czuczwar%NULL%1,          Mani%Daneshmand%NULL%1,          Daniel%Davis II%NULL%1,          Kim%De la Cruz%NULL%1,          Cyndie%Devers%NULL%1,          Toni%Duculan%NULL%1,          Lucian%Durham%NULL%1,          Subbarao%Elapavaluru%NULL%1,          Carlos V.%Elzo Kraemer%NULL%1,          EDMÍLSON CARDOSO%Filho%NULL%1,          Jillian%Fitzgerald%NULL%1,          Giuseppe%Foti%NULL%1,          Matthew%Fox%NULL%1,          David%Fritschen%NULL%1,          David%Fullerton%NULL%1,          Elton%Gelandt%NULL%1,          Stacy%Gerle%NULL%1,          Marco%Giani%NULL%1,          Si Guim%Goh%NULL%1,          Sara%Govener%NULL%1,          Julie%Grone%NULL%1,          Miles%Guber%NULL%1,          Vadim%Gudzenko%NULL%1,          Daniel%Gutteridge%NULL%1,          Jennifer%Guy%NULL%1,          Jonathan%Haft%NULL%1,          Cameron%Hall%NULL%1,          Ibrahim Fawzy%Hassan%NULL%1,          Rubén%Herrán%NULL%1,          Hitoshi%Hirose%NULL%1,          Abdulsalam Saif%Ibrahim%NULL%1,          Don%Igielski%NULL%1,          Felicia A.%Ivascu%NULL%1,          Jaume%Izquierdo Blasco%NULL%1,          Julie%Jackson%NULL%1,          Harsh%Jain%NULL%1,          Bhavini%Jaiswal%NULL%1,          Andrea C.%Johnson%NULL%1,          Jenniver A.%Jurynec%NULL%1,          Norma M%Kellter%NULL%1,          Adam%Kohl%NULL%1,          Zachary%Kon%NULL%1,          Markus%Kredel%NULL%1,          Karen%Kriska%NULL%1,          Chandra%Kunavarapu%NULL%1,          Oude%Lansink-Hartgring%NULL%1,          Jeliene%LaRocque%NULL%1,          Sharon Beth%Larson%NULL%1,          Tracie%Layne%NULL%1,          Stephane%Ledot%NULL%1,          Napolitan%Lena%NULL%1,          Jonathan%Lillie%NULL%1,          Gösta%Lotz%NULL%1,          Mark%Lucas%NULL%1,          Lee%Ludwigson%NULL%1,          Jacinta J.%Maas%NULL%1,          Joanna%Maertens%NULL%1,          David%Mast%NULL%1,          Scott%McCardle%NULL%1,          Bernard%McDonald%NULL%1,          Allison%McLarty%NULL%1,          Chelsea%McMahon%NULL%1,          Patrick%Meybohm%NULL%1,          Bart%Meyns%NULL%1,          Casey%Miller%NULL%1,          Fernando%Moraes Neto%NULL%1,          Kelly%Morris%NULL%1,          Ralf%Muellenbach%NULL%1,          Meghan%Nicholson%NULL%1,          Serena%O'Brien%NULL%1,          Kathryn%O'Keefe%NULL%1,          Tawnya%Ogston%NULL%1,          Gary%Oldenburg%NULL%1,          Fabiana M.%Oliveira%NULL%1,          Emily%Oppel%NULL%1,          Diego%Pardo%NULL%2,          Diego%Pardo%NULL%0,          Sara J.%Parker%NULL%1,          Finn M.%Pedersen%NULL%1,          Crescens%Pellecchia%NULL%1,          Jose A.S.%Pelligrini%NULL%1,          Thao T.N.%Pham%NULL%1,          Ann R.%Phillips%NULL%1,          Tasneem%Pirani%NULL%1,          Paweł%Piwowarczyk%NULL%1,          Robert%Plambeck%NULL%1,          William%Pruett%NULL%1,          Brittany%Quandt%NULL%1,          Kollengode%Ramanathan%NULL%1,          Alejandro%Rey%NULL%1,          Christian%Reyher%NULL%1,          Jordi%Riera del Brio%NULL%1,          Rachel%Roberts%NULL%1,          David%Roe%NULL%1,          Peter P.%Roeleveld%NULL%1,          Janet%Rudy%NULL%1,          Luis F.%Rueda%NULL%1,          Emanuele%Russo%NULL%1,          Jesús%Sánchez Ballesteros%NULL%1,          Nancy%Satou%NULL%1,          Mauricio Guidi%Saueressig%NULL%1,          Paul C.%Saunders%NULL%1,          Margaret%Schlotterbeck%NULL%1,          Patricia%Schwarz%NULL%1,          Nicole%Scriven%NULL%1,          Alexis%Serra%NULL%1,          Mohammad%Shamsah%NULL%1,          Lucy%Sim%NULL%1,          Alexandra%Smart%NULL%1,          Adam%Smith%NULL%1,          Deane%Smith%NULL%1,          Maggie%Smith%NULL%1,          Neel%Sodha%NULL%1,          Michael%Sonntagbauer%NULL%1,          Marc%Sorenson%NULL%1,          Eric B%Stallkamp%NULL%1,          Allison%Stewart%NULL%1,          Kathy%Swartz%NULL%1,          Koji%Takeda%NULL%1,          Shaun%Thompson%NULL%1,          Bridget%Toy%NULL%1,          Divina%Tuazon%NULL%1,          Makoto%Uchiyama%NULL%1,          Obiora I.%Udeozo%NULL%1,          Scott%van Poppel%NULL%1,          Corey%Ventetuolo%NULL%1,          Leen%Vercaemst%NULL%1,          Nguyen V.%Vinh Chau%NULL%1,          I-Wen%Wang%NULL%1,          Carrie%Williamson%NULL%1,          Brock%Wilson%NULL%1,          Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,   Xiaoyan%Chen%xref no email%0,   Yanping%Cai%xref no email%0,   Jia\u2019an%Xia%xref no email%0,   Xing%Zhou%xref no email%0,   Sha%Xu%xref no email%0,   Hanping%Huang%xref no email%0,   Li%Zhang%xref no email%0,   Xia%Zhou%xref no email%0,   Chunling%Du%xref no email%0,   Yuye%Zhang%xref no email%0,   Juan%Song%xref no email%0,   Sijiao%Wang%xref no email%0,   Yencheng%Chao%xref no email%0,   Zeyong%Yang%xref no email%0,   Jie%Xu%xref no email%0,   Xin%Zhou%xref no email%0,   Dechang%Chen%xref no email%0,   Weining%Xiong%xref no email%0,   Lei%Xu%xref no email%0,   Feng%Zhou%xref no email%0,   Jinjun%Jiang%xref no email%0,   Chunxue%Bai%xref no email%0,   Junhua%Zheng%xref no email%0,   Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,           Dhaval%Kolte%NULL%1,           Mary E.%Cadigan%NULL%1,           Elizabeth%Laikhter%NULL%1,           Kevin%Sinclair%NULL%1,           Eugene%Pomerantsev%NULL%1,           Michael A.%Fifer%NULL%1,           Thoralf M.%Sundt%NULL%1,           Robert W.%Yeh%NULL%1,           Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,          Cabrini%Luca%coreGivesNoEmail%1,          Castelli%Antonio%coreGivesNoEmail%1,          Cecconi%Maurizio%coreGivesNoEmail%1,          Cereda%Danilo%coreGivesNoEmail%1,          Coluccello%Antonio%coreGivesNoEmail%1,          Foti%Giuseppe%coreGivesNoEmail%1,          Fumagalli%Roberto%coreGivesNoEmail%1,          Grasselli%Giacomo%coreGivesNoEmail%1,          Iotti%Giorgio%coreGivesNoEmail%1,          Latronico%Nicola%coreGivesNoEmail%1,          Lorini%Luca%coreGivesNoEmail%1,          Merler%Stefano%coreGivesNoEmail%1,          Natalini%Giuseppe%coreGivesNoEmail%1,          Pesenti%Antonio%coreGivesNoEmail%1,          Piatti%Alessandra%coreGivesNoEmail%1,          Ranieri%Marco Vito%coreGivesNoEmail%1,          Scandroglio%Anna Mara%coreGivesNoEmail%1,          Storti%Enrico%coreGivesNoEmail%1,          Zanella%Alberto%coreGivesNoEmail%1,          Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,           Yeming%Wang%NULL%0,           Xingwang%Li%NULL%0,           Lili%Ren%NULL%0,           Jianping%Zhao%NULL%0,           Yi%Hu%NULL%0,           Li%Zhang%NULL%0,           Guohui%Fan%NULL%0,           Jiuyang%Xu%NULL%0,           Xiaoying%Gu%NULL%0,           Zhenshun%Cheng%NULL%0,           Ting%Yu%NULL%0,           Jiaan%Xia%NULL%0,           Yuan%Wei%NULL%0,           Wenjuan%Wu%NULL%0,           Xuelei%Xie%NULL%0,           Wen%Yin%NULL%0,           Hui%Li%NULL%0,           Min%Liu%NULL%0,           Yan%Xiao%NULL%0,           Hong%Gao%NULL%0,           Li%Guo%NULL%0,           Jungang%Xie%NULL%0,           Guangfa%Wang%NULL%0,           Rongmeng%Jiang%NULL%0,           Zhancheng%Gao%NULL%0,           Qi%Jin%NULL%0,           Jianwei%Wang%wangjw28@163.com%0,           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,           Yi%Xiang%NULL%0,           Wei%Fang%NULL%0,           Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,           Boqun%Li%279685211@qq.com%0,           Boqun%Li%279685211@qq.com%0,           Yanjun%Hu%huyanjun@163.com%0,           Chunhui%Lang%NULL%0,           Daoqiu%Huang%NULL%0,           Qiuyan%Sun%NULL%0,           Yan%Xiong%NULL%0,           Xia%Huang%NULL%0,           Jinglong%Lv%NULL%0,           Yaling%Luo%NULL%0,           Li%Shen%NULL%0,           Haoran%Yang%NULL%0,           Gu%Huang%NULL%0,           Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,   Eric%Yim%xref no email%0,   Lindy%Klaff%xref no email%0,   Sharukh%Lokhandwala%xref no email%0,   Francis X.%Riedo%xref no email%0,   Maria%Chong%xref no email%0,   Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,           Mark%Caridi-Scheible%NULL%0,           James M.%Blum%NULL%0,           Chad%Robichaux%NULL%0,           Colleen%Kraft%NULL%0,           Jesse T.%Jacob%NULL%0,           Craig S.%Jabaley%NULL%0,           David%Carpenter%NULL%0,           Roberta%Kaplow%NULL%0,           Alfonso C.%Hernandez-Romieu%NULL%0,           Max W.%Adelman%NULL%0,           Greg S.%Martin%NULL%0,           Craig M.%Coopersmith%NULL%0,           David J.%Murphy%NULL%0,           NULL%NULL%NULL%0,            S.%Auld%null%1,            M.% Caridi-Scheible%null%1,            J. M.% Blum%null%1,            C. J.% Robichaux%null%1,            C. S.% Kraft%null%1,            J. T.% Jacob%null%1,            C. S.% Jabaley%null%1,            D.% Carpenter%null%1,            R.% Kaplow%null%1,            A. C.% Hernandez%null%1,            M. W.% Adelman%null%1,            G. S.% Martin%null%1,            C. M.% Coopersmith%null%1,            D. J.% Murphy%null%1,              % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,          S.%Auld%null%1,          M.% Caridi-Scheible%null%1,          J. M.% Blum%null%1,          C. J.% Robichaux%null%1,          C. S.% Kraft%null%1,          J. T.% Jacob%null%1,          C. S.% Jabaley%null%1,          D.% Carpenter%null%1,          R.% Kaplow%null%1,          A. C.% Hernandez%null%1,          M. W.% Adelman%null%1,          G. S.% Martin%null%1,          C. M.% Coopersmith%null%1,          D. J.% Murphy%null%1,            % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,           Bijan J.%Ghassemieh%NULL%2,           Michelle%Nichols%NULL%2,           Richard%Kim%NULL%2,           Keith R.%Jerome%NULL%2,           Arun K.%Nalla%NULL%2,           Alexander L.%Greninger%NULL%2,           Sudhakar%Pipavath%NULL%2,           Mark M.%Wurfel%NULL%2,           Laura%Evans%NULL%2,           Patricia A.%Kritek%NULL%2,           T. Eoin%West%NULL%2,           Andrew%Luks%NULL%2,           Anthony%Gerbino%NULL%2,           Chris R.%Dale%NULL%2,           Jason D.%Goldman%NULL%2,           Shane%O’Mahony%NULL%2,           Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,           Tangkai%Qi%NULL%0,           Li%Liu%NULL%0,           Yun%Ling%NULL%0,           Zhiping%Qian%NULL%0,           Tao%Li%NULL%0,           Feng%Li%NULL%0,           Qingnian%Xu%NULL%0,           Yuyi%Zhang%NULL%0,           Shuibao%Xu%NULL%0,           Zhigang%Song%NULL%0,           Yigang%Zeng%NULL%0,           Yinzhong%Shen%NULL%0,           Yuxin%Shi%NULL%0,           Tongyu%Zhu%NULL%0,           Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,           Min%Zhou%NULL%0,           Xuan%Dong%NULL%0,           Jieming%Qu%NULL%0,           Fengyun%Gong%NULL%0,           Yang%Han%NULL%0,           Yang%Qiu%NULL%0,           Jingli%Wang%NULL%0,           Ying%Liu%NULL%0,           Yuan%Wei%NULL%0,           Jia'an%Xia%NULL%0,           Ting%Yu%NULL%0,           Xinxin%Zhang%NULL%0,           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,           Zheng-yi%Ni%NULL%0,           Zheng-yi%Ni%NULL%0,           Yu%Hu%NULL%0,           Wen-hua%Liang%NULL%0,           Chun-quan%Ou%NULL%0,           Jian-xing%He%NULL%0,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chun-liang%Lei%NULL%0,           David S.C.%Hui%NULL%0,           Bin%Du%NULL%0,           Lan-juan%Li%NULL%0,           Guang%Zeng%NULL%0,           Kwok-Yung%Yuen%NULL%0,           Ru-chong%Chen%NULL%0,           Chun-li%Tang%NULL%0,           Tao%Wang%NULL%0,           Ping-yan%Chen%NULL%0,           Jie%Xiang%NULL%0,           Shi-yue%Li%NULL%0,           Jin-lin%Wang%NULL%0,           Zi-jing%Liang%NULL%0,           Yi-xiang%Peng%NULL%0,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Ya-hua%Hu%NULL%0,           Peng%Peng%NULL%0,           Jian-ming%Wang%NULL%0,           Ji-yang%Liu%NULL%0,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhi-jian%Zheng%NULL%0,           Shao-qin%Qiu%NULL%0,           Jie%Luo%NULL%0,           Chang-jiang%Ye%NULL%0,           Shao-yong%Zhu%NULL%0,           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,           Yuanyuan%Xing%NULL%0,           Yu%Xiao%NULL%0,           Liping%Deng%NULL%0,           Qiu%Zhao%NULL%0,           Hongling%Wang%NULL%0,           Yong%Xiong%NULL%0,           Zhenshun%Cheng%NULL%0,           Shicheng%Gao%NULL%0,           Ke%Liang%NULL%0,           Mingqi%Luo%NULL%0,           Tielong%Chen%NULL%0,           Shihui%Song%NULL%0,           Zhiyong%Ma%NULL%0,           Xiaoping%Chen%NULL%0,           Ruiying%Zheng%NULL%0,           Qian%Cao%NULL%0,           Fan%Wang%fanndywang@foxmail.com%0,           Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,           N -B%Yang%NULL%0,           F%Ding%NULL%0,           A H Y%Ma%NULL%0,           Z -Y%Wang%NULL%0,           Y -F%Shen%NULL%0,           C -W%Shi%NULL%0,           X%Lian%NULL%0,           J -G%Chu%NULL%0,           L%Chen%chxmin@hotmail.com%0,           Z -Y%Wang%NULL%0,           D -W%Ren%NULL%0,           G -X%Li%NULL%0,           X -Q%Chen%chxmin@hotmail.com%0,           H -J%Shen%NULL%0,           X -M%Chen%chxmin@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,           Hugues%Spillemaeker%NULL%1,           Maéva%Kyheng%NULL%1,           Cassandre%Belin‐Vincent%NULL%1,           Cédric%Delhaye%NULL%1,           Adeline%Piérache%NULL%1,           Tom%Denimal%NULL%1,           Basile%Verdier%NULL%1,           Nicolas%Debry%NULL%1,           Mouhamed%Moussa%NULL%1,           Guillaume%Schurtz%NULL%1,           Sina%Porouchani%NULL%1,           Alessandro%Cosenza%NULL%1,           Francis%Juthier%NULL%1,           Thibault%Pamart%NULL%1,           Marjorie%Richardson%NULL%1,           Augustin%Coisne%NULL%1,           Adrien%Hertault%NULL%1,           Jonathan%Sobocinski%NULL%1,           Thomas%Modine%NULL%1,           François%Pontana%NULL%1,           Alain%Duhamel%NULL%2,           Julien%Labreuche%NULL%2,           Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,          Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,          Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,          Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,           Yimei%Yin%18256985@qq.com%1,           Chang%Hu%1391369733@qq.com%0,           Xing%Liu%375117565@qq.com%1,           Xingguo%Zhang%zhangxinguo7909@163.com%1,           Shuliang%Zhou%350925556@qq.com%1,           Mingzhi%Jian%Jmzhak@aliyun.com%1,           Haibo%Xu%xuhaibo1120@hotmail.com%0,           John%Prowle%j.prowle@qmul.ac.uk%1,           Bo%Hu%hobbier1979@163.com%0,           Yirong%Li%liyirong838@163.com%1,           Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wentao%Xu%xref no email%1,   Shuang%Qu%xref no email%1,   Mengying%Xing%xref no email%1,   Ming%Zhang%xref no email%1,   Geng%Lu%xref no email%1,   Zhicong%Liao%xref no email%1,   Kimberly%Griffin%xref no email%1,   Jun%Wang%xref no email%1,   Ke%Zen%xref no email%1,   Bing%Yao%xref no email%1,   Hongwei%Liang%xref no email%1,   Jianping%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,           Xiao-Xin%Wu%NULL%0,           Xian-Gao%Jiang%NULL%0,           Kai-Jin%Xu%NULL%0,           Ling-Jun%Ying%NULL%0,           Chun-Lian%Ma%NULL%0,           Shi-Bo%Li%NULL%0,           Hua-Ying%Wang%NULL%0,           Sheng%Zhang%NULL%0,           Hai-Nv%Gao%NULL%0,           Ji-Fang%Sheng%NULL%0,           Hong-Liu%Cai%NULL%0,           Yun-Qing%Qiu%NULL%0,           Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,           Chang%Hu%NULL%0,           Linjie%Luo%NULL%0,           Fang%Fang%NULL%0,           Yongfeng%Chen%NULL%0,           Jianguo%Li%NULL%0,           Zhiyong%Peng%NULL%0,           Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,           Chun%Liao%lc7spring@163.com%1,           Qi-hong%Fan%1187286305@qq.com%1,           Hong-bo%Chen%hbchen@hust.edu.cn%1,           Xue-gong%Zhao%NULL%1,           Zhong-guo%Xie%NULL%1,           Xi-lin%Li%NULL%1,           Chun-xi%Chen%NULL%1,           Xiao-xia%Lu%NULL%1,           Zhi-sheng%Liu%NULL%1,           Wei%Lu%NULL%1,           Chun-bao%Chen%NULL%1,           Rong%Jiao%NULL%1,           Ai-ming%Zhang%NULL%1,           Jin-tang%Wang%NULL%1,           Xi-wei%Ding%NULL%1,           Yao-guang%Zeng%NULL%1,           Li-ping%Cheng%NULL%1,           Qing-feng%Huang%NULL%1,           Jiang%Wu%NULL%0,           Xi-chang%Luo%NULL%1,           Zhu-jun%Wang%NULL%1,           Yan-yan%Zhong%NULL%1,           Yan%Bai%yanbaixh@hust.edu.cn%1,           Xiao-yan%Wu%xwu@hust.edu.cn%1,           Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,           Ting%Yu%NULL%0,           Ronghui%Du%NULL%0,           Guohui%Fan%NULL%0,           Ying%Liu%NULL%0,           Zhibo%Liu%NULL%0,           Jie%Xiang%NULL%0,           Yeming%Wang%NULL%0,           Bin%Song%NULL%0,           Xiaoying%Gu%NULL%0,           Lulu%Guan%NULL%0,           Yuan%Wei%NULL%0,           Hui%Li%NULL%0,           Xudong%Wu%NULL%0,           Jiuyang%Xu%NULL%0,           Shengjin%Tu%NULL%0,           Yi%Zhang%NULL%0,           Hua%Chen%NULL%0,           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,           Mengqi%Tu%NULL%0,           Shipei%Wang%NULL%0,           Sichao%Chen%NULL%0,           Wei%Zhou%NULL%0,           Danyang%Chen%NULL%0,           Lin%Zhou%NULL%0,           Min%Wang%NULL%0,           Yan%Zhao%NULL%0,           Wen%Zeng%NULL%0,           Qi%Huang%NULL%0,           Hai'bo%Xu%NULL%0,           Zeming%Liu%NULL%0,           Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,           Yuan%Yu%NULL%0,           Jiqian%Xu%NULL%0,           Huaqing%Shu%NULL%0,           Jia'an%Xia%NULL%0,           Hong%Liu%NULL%0,           Yongran%Wu%NULL%0,           Lu%Zhang%NULL%0,           Zhui%Yu%NULL%0,           Minghao%Fang%NULL%0,           Ting%Yu%NULL%0,           Yaxin%Wang%NULL%0,           Shangwen%Pan%NULL%0,           Xiaojing%Zou%NULL%0,           Shiying%Yuan%NULL%0,           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,           Wei-jie%Guan%NULL%2,           Cai-chen%Li%NULL%3,           Yi-min%Li%NULL%3,           Heng-rui%Liang%NULL%3,           Yi%Zhao%NULL%3,           Xiao-qing%Liu%NULL%3,           Ling%Sang%NULL%0,           Ru-chong%Chen%NULL%0,           Chun-li%Tang%NULL%0,           Tao%Wang%NULL%0,           Wei%Wang%NULL%0,           Qi-hua%He%NULL%2,           Zi-sheng%Chen%NULL%3,           Sook-San%Wong%NULL%2,           Mark%Zanin%NULL%2,           Jun%Liu%NULL%0,           Xin%Xu%NULL%0,           Jun%Huang%NULL%2,           Jian-fu%Li%NULL%3,           Li-min%Ou%NULL%3,           Bo%Cheng%NULL%3,           Shan%Xiong%NULL%3,           Zhan-hong%Xie%NULL%2,           Zheng-yi%Ni%NULL%0,           Yu%Hu%NULL%0,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chun-liang%Lei%NULL%0,           Yi-xiang%Peng%NULL%0,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Ya-hua%Hu%NULL%0,           Peng%Peng%NULL%0,           Jian-ming%Wang%NULL%0,           Ji-yang%Liu%NULL%0,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhi-jian%Zheng%NULL%0,           Shao-qin%Qiu%NULL%0,           Jie%Luo%NULL%0,           Chang-jiang%Ye%NULL%0,           Shao-yong%Zhu%NULL%0,           Lin-ling%Cheng%NULL%3,           Feng%Ye%NULL%5,           Shi-yue%Li%NULL%0,           Jin-ping%Zheng%NULL%3,           Nuo-fu%Zhang%NULL%3,           Nan-shan%Zhong%NULL%0,           Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,           Simon A%Jones%NULL%1,           Jie%Yang%NULL%0,           Harish%Rajagopalan%NULL%1,           Luke%O’Donnell%NULL%1,           Yelena%Chernyak%NULL%1,           Katie A%Tobin%NULL%1,           Robert J%Cerfolio%NULL%1,           Fritz%Francois%NULL%1,           Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0,           Stephanie%Bialek%NULL%1,           Ellen%Boundy%NULL%1,           Virginia%Bowen%NULL%1,           Nancy%Chow%NULL%0,           Amanda%Cohn%NULL%1,           Nicole%Dowling%NULL%1,           Sascha%Ellington%NULL%1,           Ryan%Gierke%NULL%0,           Aron%Hall%NULL%0,           Jessica%MacNeil%NULL%1,           Priti%Patel%NULL%1,           Georgina%Peacock%NULL%1,           Tamara%Pilishvili%NULL%0,           Hilda%Razzaghi%NULL%1,           Nia%Reed%NULL%1,           Matthew%Ritchey%NULL%0,           Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,           Pedro%Póvoa%NULL%1,           Vicente%Souza-Dantas%NULL%1,           André C.%Kalil%NULL%1,           Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,           Graeme%MacLaren%NULL%1,           Philip S%Boonstra%NULL%1,           Theodore J%Iwashyna%NULL%1,           Arthur S%Slutsky%NULL%1,           Eddy%Fan%NULL%1,           Robert H%Bartlett%NULL%1,           Joseph E%Tonna%NULL%1,           Robert%Hyslop%NULL%1,           Jeffrey J%Fanning%NULL%1,           Peter T%Rycus%NULL%1,           Steve J%Hyer%NULL%1,           Marc M%Anders%NULL%1,           Cara L%Agerstrand%NULL%1,           Katarzyna%Hryniewicz%NULL%1,           Rodrigo%Diaz%NULL%1,           Roberto%Lorusso%NULL%1,           Alain%Combes%NULL%1,           Daniel%Brodie%NULL%4,           Peta%Alexander%NULL%1,           Nicholas%Barrett%NULL%1,           Jan%Bělohlávek%NULL%1,           Dale%Fisher%NULL%1,           John%Fraser%NULL%1,           Ali Ait%Hssain%NULL%1,           Jae Sung%Jung%NULL%1,           Michael%McMullan%NULL%1,           Yatin%Mehta%NULL%1,           Mark T.%Ogino%NULL%1,           Matthew L.%Paden%NULL%1,           Kiran%Shekar%NULL%1,           Christine%Stead%NULL%1,           Yasir%Abu-Omar%NULL%1,           Vanni%Agnoletti%NULL%1,           Anzila%Akbar%NULL%1,           Huda%Alfoudri%NULL%1,           Carlos%Alviar%NULL%1,           Vladimir%Aronsky%NULL%1,           Erin%August%NULL%1,           Georg%Auzinger%NULL%1,           Hilda%Aveja%NULL%1,           Rhonda%Bakken%NULL%1,           Joan%Balcells%NULL%1,           Sripal%Bangalore%NULL%1,           Bernard W.%Barnes%NULL%1,           Alaiza%Bautista%NULL%1,           Lorraine L.%Bellows%NULL%1,           Felipe%Beltran%NULL%1,           Peyman%Benharash%NULL%1,           Marco%Benni%NULL%1,           Jennifer%Berg%NULL%1,           Pietro%Bertini%NULL%1,           Pablo%Blanco-Schweizer%NULL%1,           Melissa%Brunsvold%NULL%1,           Jenny%Budd%NULL%1,           Debra%Camp%NULL%1,           Mark%Caridi-Scheible%NULL%0,           Edmund%Carton%NULL%1,           Elena%Casanova-Ghosh%NULL%1,           Anthony%Castleberry%NULL%1,           Christopher T.%Chipongian%NULL%1,           Chang Woo%Choi%NULL%1,           Alessandro%Circelli%NULL%1,           Elliott%Cohen%NULL%1,           Michael%Collins%NULL%1,           Scott%Copus%NULL%1,           Jill%Coy%NULL%1,           Brandon%Crist%NULL%1,           Leonora%Cruz%NULL%1,           Mirosław%Czuczwar%NULL%1,           Mani%Daneshmand%NULL%1,           Daniel%Davis II%NULL%1,           Kim%De la Cruz%NULL%1,           Cyndie%Devers%NULL%1,           Toni%Duculan%NULL%1,           Lucian%Durham%NULL%1,           Subbarao%Elapavaluru%NULL%1,           Carlos V.%Elzo Kraemer%NULL%1,           EDMÍLSON CARDOSO%Filho%NULL%1,           Jillian%Fitzgerald%NULL%1,           Giuseppe%Foti%NULL%1,           Matthew%Fox%NULL%1,           David%Fritschen%NULL%1,           David%Fullerton%NULL%1,           Elton%Gelandt%NULL%1,           Stacy%Gerle%NULL%1,           Marco%Giani%NULL%1,           Si Guim%Goh%NULL%1,           Sara%Govener%NULL%1,           Julie%Grone%NULL%1,           Miles%Guber%NULL%1,           Vadim%Gudzenko%NULL%1,           Daniel%Gutteridge%NULL%1,           Jennifer%Guy%NULL%1,           Jonathan%Haft%NULL%1,           Cameron%Hall%NULL%1,           Ibrahim Fawzy%Hassan%NULL%1,           Rubén%Herrán%NULL%1,           Hitoshi%Hirose%NULL%1,           Abdulsalam Saif%Ibrahim%NULL%1,           Don%Igielski%NULL%1,           Felicia A.%Ivascu%NULL%1,           Jaume%Izquierdo Blasco%NULL%1,           Julie%Jackson%NULL%1,           Harsh%Jain%NULL%1,           Bhavini%Jaiswal%NULL%1,           Andrea C.%Johnson%NULL%1,           Jenniver A.%Jurynec%NULL%1,           Norma M%Kellter%NULL%1,           Adam%Kohl%NULL%1,           Zachary%Kon%NULL%1,           Markus%Kredel%NULL%1,           Karen%Kriska%NULL%1,           Chandra%Kunavarapu%NULL%1,           Oude%Lansink-Hartgring%NULL%1,           Jeliene%LaRocque%NULL%1,           Sharon Beth%Larson%NULL%1,           Tracie%Layne%NULL%1,           Stephane%Ledot%NULL%1,           Napolitan%Lena%NULL%1,           Jonathan%Lillie%NULL%1,           Gösta%Lotz%NULL%1,           Mark%Lucas%NULL%1,           Lee%Ludwigson%NULL%1,           Jacinta J.%Maas%NULL%1,           Joanna%Maertens%NULL%1,           David%Mast%NULL%1,           Scott%McCardle%NULL%1,           Bernard%McDonald%NULL%1,           Allison%McLarty%NULL%1,           Chelsea%McMahon%NULL%1,           Patrick%Meybohm%NULL%1,           Bart%Meyns%NULL%1,           Casey%Miller%NULL%1,           Fernando%Moraes Neto%NULL%1,           Kelly%Morris%NULL%1,           Ralf%Muellenbach%NULL%1,           Meghan%Nicholson%NULL%1,           Serena%O'Brien%NULL%1,           Kathryn%O'Keefe%NULL%1,           Tawnya%Ogston%NULL%1,           Gary%Oldenburg%NULL%1,           Fabiana M.%Oliveira%NULL%1,           Emily%Oppel%NULL%1,           Diego%Pardo%NULL%2,           Diego%Pardo%NULL%0,           Sara J.%Parker%NULL%1,           Finn M.%Pedersen%NULL%1,           Crescens%Pellecchia%NULL%1,           Jose A.S.%Pelligrini%NULL%1,           Thao T.N.%Pham%NULL%1,           Ann R.%Phillips%NULL%1,           Tasneem%Pirani%NULL%1,           Paweł%Piwowarczyk%NULL%1,           Robert%Plambeck%NULL%1,           William%Pruett%NULL%1,           Brittany%Quandt%NULL%1,           Kollengode%Ramanathan%NULL%1,           Alejandro%Rey%NULL%1,           Christian%Reyher%NULL%1,           Jordi%Riera del Brio%NULL%1,           Rachel%Roberts%NULL%1,           David%Roe%NULL%1,           Peter P.%Roeleveld%NULL%1,           Janet%Rudy%NULL%1,           Luis F.%Rueda%NULL%1,           Emanuele%Russo%NULL%1,           Jesús%Sánchez Ballesteros%NULL%1,           Nancy%Satou%NULL%1,           Mauricio Guidi%Saueressig%NULL%1,           Paul C.%Saunders%NULL%1,           Margaret%Schlotterbeck%NULL%1,           Patricia%Schwarz%NULL%1,           Nicole%Scriven%NULL%1,           Alexis%Serra%NULL%1,           Mohammad%Shamsah%NULL%1,           Lucy%Sim%NULL%1,           Alexandra%Smart%NULL%1,           Adam%Smith%NULL%1,           Deane%Smith%NULL%1,           Maggie%Smith%NULL%1,           Neel%Sodha%NULL%1,           Michael%Sonntagbauer%NULL%1,           Marc%Sorenson%NULL%1,           Eric B%Stallkamp%NULL%1,           Allison%Stewart%NULL%1,           Kathy%Swartz%NULL%1,           Koji%Takeda%NULL%1,           Shaun%Thompson%NULL%1,           Bridget%Toy%NULL%1,           Divina%Tuazon%NULL%1,           Makoto%Uchiyama%NULL%1,           Obiora I.%Udeozo%NULL%1,           Scott%van Poppel%NULL%1,           Corey%Ventetuolo%NULL%1,           Leen%Vercaemst%NULL%1,           Nguyen V.%Vinh Chau%NULL%1,           I-Wen%Wang%NULL%1,           Carrie%Williamson%NULL%1,           Brock%Wilson%NULL%1,           Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,    Xiaoyan%Chen%xref no email%0,    Yanping%Cai%xref no email%0,    Jia\u2019an%Xia%xref no email%0,    Xing%Zhou%xref no email%0,    Sha%Xu%xref no email%0,    Hanping%Huang%xref no email%0,    Li%Zhang%xref no email%0,    Xia%Zhou%xref no email%0,    Chunling%Du%xref no email%0,    Yuye%Zhang%xref no email%0,    Juan%Song%xref no email%0,    Sijiao%Wang%xref no email%0,    Yencheng%Chao%xref no email%0,    Zeyong%Yang%xref no email%0,    Jie%Xu%xref no email%0,    Xin%Zhou%xref no email%0,    Dechang%Chen%xref no email%0,    Weining%Xiong%xref no email%0,    Lei%Xu%xref no email%0,    Feng%Zhou%xref no email%0,    Jinjun%Jiang%xref no email%0,    Chunxue%Bai%xref no email%0,    Junhua%Zheng%xref no email%0,    Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,            Dhaval%Kolte%NULL%1,            Mary E.%Cadigan%NULL%1,            Elizabeth%Laikhter%NULL%1,            Kevin%Sinclair%NULL%1,            Eugene%Pomerantsev%NULL%1,            Michael A.%Fifer%NULL%1,            Thoralf M.%Sundt%NULL%1,            Robert W.%Yeh%NULL%1,            Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,           Cabrini%Luca%coreGivesNoEmail%1,           Castelli%Antonio%coreGivesNoEmail%1,           Cecconi%Maurizio%coreGivesNoEmail%1,           Cereda%Danilo%coreGivesNoEmail%1,           Coluccello%Antonio%coreGivesNoEmail%1,           Foti%Giuseppe%coreGivesNoEmail%1,           Fumagalli%Roberto%coreGivesNoEmail%1,           Grasselli%Giacomo%coreGivesNoEmail%1,           Iotti%Giorgio%coreGivesNoEmail%1,           Latronico%Nicola%coreGivesNoEmail%1,           Lorini%Luca%coreGivesNoEmail%1,           Merler%Stefano%coreGivesNoEmail%1,           Natalini%Giuseppe%coreGivesNoEmail%1,           Pesenti%Antonio%coreGivesNoEmail%1,           Piatti%Alessandra%coreGivesNoEmail%1,           Ranieri%Marco Vito%coreGivesNoEmail%1,           Scandroglio%Anna Mara%coreGivesNoEmail%1,           Storti%Enrico%coreGivesNoEmail%1,           Zanella%Alberto%coreGivesNoEmail%1,           Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,            Yeming%Wang%NULL%0,            Xingwang%Li%NULL%0,            Lili%Ren%NULL%0,            Jianping%Zhao%NULL%0,            Yi%Hu%NULL%0,            Li%Zhang%NULL%0,            Guohui%Fan%NULL%0,            Jiuyang%Xu%NULL%0,            Xiaoying%Gu%NULL%0,            Zhenshun%Cheng%NULL%0,            Ting%Yu%NULL%0,            Jiaan%Xia%NULL%0,            Yuan%Wei%NULL%0,            Wenjuan%Wu%NULL%0,            Xuelei%Xie%NULL%0,            Wen%Yin%NULL%0,            Hui%Li%NULL%0,            Min%Liu%NULL%0,            Yan%Xiao%NULL%0,            Hong%Gao%NULL%0,            Li%Guo%NULL%0,            Jungang%Xie%NULL%0,            Guangfa%Wang%NULL%0,            Rongmeng%Jiang%NULL%0,            Zhancheng%Gao%NULL%0,            Qi%Jin%NULL%0,            Jianwei%Wang%wangjw28@163.com%0,            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,            Yi%Xiang%NULL%0,            Wei%Fang%NULL%0,            Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,            Boqun%Li%279685211@qq.com%0,            Boqun%Li%279685211@qq.com%0,            Yanjun%Hu%huyanjun@163.com%0,            Chunhui%Lang%NULL%0,            Daoqiu%Huang%NULL%0,            Qiuyan%Sun%NULL%0,            Yan%Xiong%NULL%0,            Xia%Huang%NULL%0,            Jinglong%Lv%NULL%0,            Yaling%Luo%NULL%0,            Li%Shen%NULL%0,            Haoran%Yang%NULL%0,            Gu%Huang%NULL%0,            Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,    Eric%Yim%xref no email%0,    Lindy%Klaff%xref no email%0,    Sharukh%Lokhandwala%xref no email%0,    Francis X.%Riedo%xref no email%0,    Maria%Chong%xref no email%0,    Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,            Mark%Caridi-Scheible%NULL%3,            James M.%Blum%NULL%2,            Chad%Robichaux%NULL%2,            Colleen%Kraft%NULL%2,            Jesse T.%Jacob%NULL%2,            Craig S.%Jabaley%NULL%2,            David%Carpenter%NULL%2,            Roberta%Kaplow%NULL%2,            Alfonso C.%Hernandez-Romieu%NULL%2,            Max W.%Adelman%NULL%2,            Greg S.%Martin%NULL%2,            Craig M.%Coopersmith%NULL%2,            David J.%Murphy%NULL%2,            NULL%NULL%NULL%0,             S.%Auld%null%1,             M.% Caridi-Scheible%null%1,             J. M.% Blum%null%1,             C. J.% Robichaux%null%1,             C. S.% Kraft%null%1,             J. T.% Jacob%null%1,             C. S.% Jabaley%null%1,             D.% Carpenter%null%1,             R.% Kaplow%null%1,             A. C.% Hernandez%null%1,             M. W.% Adelman%null%1,             G. S.% Martin%null%1,             C. M.% Coopersmith%null%1,             D. J.% Murphy%null%1,               % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,           S.%Auld%null%1,           M.% Caridi-Scheible%null%1,           J. M.% Blum%null%1,           C. J.% Robichaux%null%1,           C. S.% Kraft%null%1,           J. T.% Jacob%null%1,           C. S.% Jabaley%null%1,           D.% Carpenter%null%1,           R.% Kaplow%null%1,           A. C.% Hernandez%null%1,           M. W.% Adelman%null%1,           G. S.% Martin%null%1,           C. M.% Coopersmith%null%1,           D. J.% Murphy%null%1,             % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,            Bijan J.%Ghassemieh%NULL%2,            Michelle%Nichols%NULL%2,            Richard%Kim%NULL%2,            Keith R.%Jerome%NULL%2,            Arun K.%Nalla%NULL%2,            Alexander L.%Greninger%NULL%2,            Sudhakar%Pipavath%NULL%2,            Mark M.%Wurfel%NULL%2,            Laura%Evans%NULL%2,            Patricia A.%Kritek%NULL%2,            T. Eoin%West%NULL%2,            Andrew%Luks%NULL%2,            Anthony%Gerbino%NULL%2,            Chris R.%Dale%NULL%2,            Jason D.%Goldman%NULL%2,            Shane%O’Mahony%NULL%2,            Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,            Tangkai%Qi%NULL%0,            Li%Liu%NULL%0,            Yun%Ling%NULL%0,            Zhiping%Qian%NULL%0,            Tao%Li%NULL%0,            Feng%Li%NULL%0,            Qingnian%Xu%NULL%0,            Yuyi%Zhang%NULL%0,            Shuibao%Xu%NULL%0,            Zhigang%Song%NULL%0,            Yigang%Zeng%NULL%0,            Yinzhong%Shen%NULL%0,            Yuxin%Shi%NULL%0,            Tongyu%Zhu%NULL%0,            Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,            Min%Zhou%NULL%0,            Xuan%Dong%NULL%0,            Jieming%Qu%NULL%0,            Fengyun%Gong%NULL%0,            Yang%Han%NULL%0,            Yang%Qiu%NULL%0,            Jingli%Wang%NULL%0,            Ying%Liu%NULL%0,            Yuan%Wei%NULL%0,            Jia'an%Xia%NULL%0,            Ting%Yu%NULL%0,            Xinxin%Zhang%NULL%0,            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,            Zheng-yi%Ni%NULL%0,            Zheng-yi%Ni%NULL%0,            Yu%Hu%NULL%0,            Wen-hua%Liang%NULL%0,            Chun-quan%Ou%NULL%0,            Jian-xing%He%NULL%0,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chun-liang%Lei%NULL%0,            David S.C.%Hui%NULL%0,            Bin%Du%NULL%0,            Lan-juan%Li%NULL%0,            Guang%Zeng%NULL%0,            Kwok-Yung%Yuen%NULL%0,            Ru-chong%Chen%NULL%0,            Chun-li%Tang%NULL%0,            Tao%Wang%NULL%0,            Ping-yan%Chen%NULL%0,            Jie%Xiang%NULL%0,            Shi-yue%Li%NULL%0,            Jin-lin%Wang%NULL%0,            Zi-jing%Liang%NULL%0,            Yi-xiang%Peng%NULL%0,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Ya-hua%Hu%NULL%0,            Peng%Peng%NULL%0,            Jian-ming%Wang%NULL%0,            Ji-yang%Liu%NULL%0,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhi-jian%Zheng%NULL%0,            Shao-qin%Qiu%NULL%0,            Jie%Luo%NULL%0,            Chang-jiang%Ye%NULL%0,            Shao-yong%Zhu%NULL%0,            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,            Yuanyuan%Xing%NULL%0,            Yu%Xiao%NULL%0,            Liping%Deng%NULL%0,            Qiu%Zhao%NULL%0,            Hongling%Wang%NULL%0,            Yong%Xiong%NULL%0,            Zhenshun%Cheng%NULL%0,            Shicheng%Gao%NULL%0,            Ke%Liang%NULL%0,            Mingqi%Luo%NULL%0,            Tielong%Chen%NULL%0,            Shihui%Song%NULL%0,            Zhiyong%Ma%NULL%0,            Xiaoping%Chen%NULL%0,            Ruiying%Zheng%NULL%0,            Qian%Cao%NULL%0,            Fan%Wang%fanndywang@foxmail.com%0,            Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,            N -B%Yang%NULL%0,            F%Ding%NULL%0,            A H Y%Ma%NULL%0,            Z -Y%Wang%NULL%0,            Y -F%Shen%NULL%0,            C -W%Shi%NULL%0,            X%Lian%NULL%0,            J -G%Chu%NULL%0,            L%Chen%chxmin@hotmail.com%0,            Z -Y%Wang%NULL%0,            D -W%Ren%NULL%0,            G -X%Li%NULL%0,            X -Q%Chen%chxmin@hotmail.com%0,            H -J%Shen%NULL%0,            X -M%Chen%chxmin@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,            Hugues%Spillemaeker%NULL%1,            Maéva%Kyheng%NULL%1,            Cassandre%Belin‐Vincent%NULL%1,            Cédric%Delhaye%NULL%1,            Adeline%Piérache%NULL%1,            Tom%Denimal%NULL%1,            Basile%Verdier%NULL%1,            Nicolas%Debry%NULL%1,            Mouhamed%Moussa%NULL%1,            Guillaume%Schurtz%NULL%1,            Sina%Porouchani%NULL%1,            Alessandro%Cosenza%NULL%1,            Francis%Juthier%NULL%1,            Thibault%Pamart%NULL%1,            Marjorie%Richardson%NULL%1,            Augustin%Coisne%NULL%1,            Adrien%Hertault%NULL%1,            Jonathan%Sobocinski%NULL%1,            Thomas%Modine%NULL%1,            François%Pontana%NULL%1,            Alain%Duhamel%NULL%2,            Julien%Labreuche%NULL%2,            Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,           Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,           Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,           Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,            Yimei%Yin%18256985@qq.com%1,            Chang%Hu%1391369733@qq.com%3,            Xing%Liu%375117565@qq.com%1,            Xingguo%Zhang%zhangxinguo7909@163.com%1,            Shuliang%Zhou%350925556@qq.com%1,            Mingzhi%Jian%Jmzhak@aliyun.com%1,            Haibo%Xu%xuhaibo1120@hotmail.com%0,            John%Prowle%j.prowle@qmul.ac.uk%1,            Bo%Hu%hobbier1979@163.com%0,            Yirong%Li%liyirong838@163.com%1,            Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wentao%Xu%xref no email%1,    Shuang%Qu%xref no email%1,    Mengying%Xing%xref no email%1,    Ming%Zhang%xref no email%1,    Geng%Lu%xref no email%1,    Zhicong%Liao%xref no email%1,    Kimberly%Griffin%xref no email%1,    Jun%Wang%xref no email%0,    Ke%Zen%xref no email%1,    Bing%Yao%xref no email%1,    Hongwei%Liang%xref no email%1,    Jianping%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,            Xiao-Xin%Wu%NULL%0,            Xian-Gao%Jiang%NULL%0,            Kai-Jin%Xu%NULL%0,            Ling-Jun%Ying%NULL%0,            Chun-Lian%Ma%NULL%0,            Shi-Bo%Li%NULL%0,            Hua-Ying%Wang%NULL%0,            Sheng%Zhang%NULL%0,            Hai-Nv%Gao%NULL%0,            Ji-Fang%Sheng%NULL%0,            Hong-Liu%Cai%NULL%0,            Yun-Qing%Qiu%NULL%0,            Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,            Chang%Hu%NULL%0,            Linjie%Luo%NULL%2,            Fang%Fang%NULL%0,            Yongfeng%Chen%NULL%2,            Jianguo%Li%NULL%2,            Zhiyong%Peng%NULL%0,            Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,            Chun%Liao%lc7spring@163.com%1,            Qi-hong%Fan%1187286305@qq.com%1,            Hong-bo%Chen%hbchen@hust.edu.cn%1,            Xue-gong%Zhao%NULL%1,            Zhong-guo%Xie%NULL%1,            Xi-lin%Li%NULL%1,            Chun-xi%Chen%NULL%1,            Xiao-xia%Lu%NULL%1,            Zhi-sheng%Liu%NULL%1,            Wei%Lu%NULL%1,            Chun-bao%Chen%NULL%1,            Rong%Jiao%NULL%1,            Ai-ming%Zhang%NULL%1,            Jin-tang%Wang%NULL%1,            Xi-wei%Ding%NULL%1,            Yao-guang%Zeng%NULL%1,            Li-ping%Cheng%NULL%1,            Qing-feng%Huang%NULL%1,            Jiang%Wu%NULL%0,            Xi-chang%Luo%NULL%1,            Zhu-jun%Wang%NULL%1,            Yan-yan%Zhong%NULL%1,            Yan%Bai%yanbaixh@hust.edu.cn%1,            Xiao-yan%Wu%xwu@hust.edu.cn%1,            Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,            Ting%Yu%NULL%0,            Ronghui%Du%NULL%0,            Guohui%Fan%NULL%0,            Ying%Liu%NULL%0,            Zhibo%Liu%NULL%0,            Jie%Xiang%NULL%0,            Yeming%Wang%NULL%0,            Bin%Song%NULL%0,            Xiaoying%Gu%NULL%0,            Lulu%Guan%NULL%0,            Yuan%Wei%NULL%0,            Hui%Li%NULL%0,            Xudong%Wu%NULL%0,            Jiuyang%Xu%NULL%0,            Shengjin%Tu%NULL%0,            Yi%Zhang%NULL%0,            Hua%Chen%NULL%0,            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,            Mengqi%Tu%NULL%0,            Shipei%Wang%NULL%0,            Sichao%Chen%NULL%0,            Wei%Zhou%NULL%0,            Danyang%Chen%NULL%0,            Lin%Zhou%NULL%0,            Min%Wang%NULL%0,            Yan%Zhao%NULL%0,            Wen%Zeng%NULL%0,            Qi%Huang%NULL%0,            Hai'bo%Xu%NULL%0,            Zeming%Liu%NULL%0,            Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,            Yuan%Yu%NULL%0,            Jiqian%Xu%NULL%0,            Huaqing%Shu%NULL%0,            Jia'an%Xia%NULL%0,            Hong%Liu%NULL%0,            Yongran%Wu%NULL%0,            Lu%Zhang%NULL%0,            Zhui%Yu%NULL%0,            Minghao%Fang%NULL%0,            Ting%Yu%NULL%0,            Yaxin%Wang%NULL%0,            Shangwen%Pan%NULL%0,            Xiaojing%Zou%NULL%0,            Shiying%Yuan%NULL%0,            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,            Wei-jie%Guan%NULL%2,            Cai-chen%Li%NULL%3,            Yi-min%Li%NULL%3,            Heng-rui%Liang%NULL%3,            Yi%Zhao%NULL%3,            Xiao-qing%Liu%NULL%3,            Ling%Sang%NULL%0,            Ru-chong%Chen%NULL%0,            Chun-li%Tang%NULL%0,            Tao%Wang%NULL%0,            Wei%Wang%NULL%0,            Qi-hua%He%NULL%2,            Zi-sheng%Chen%NULL%3,            Sook-San%Wong%NULL%2,            Mark%Zanin%NULL%2,            Jun%Liu%NULL%0,            Xin%Xu%NULL%0,            Jun%Huang%NULL%2,            Jian-fu%Li%NULL%3,            Li-min%Ou%NULL%3,            Bo%Cheng%NULL%3,            Shan%Xiong%NULL%3,            Zhan-hong%Xie%NULL%2,            Zheng-yi%Ni%NULL%0,            Yu%Hu%NULL%0,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chun-liang%Lei%NULL%0,            Yi-xiang%Peng%NULL%0,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Ya-hua%Hu%NULL%0,            Peng%Peng%NULL%0,            Jian-ming%Wang%NULL%0,            Ji-yang%Liu%NULL%0,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhi-jian%Zheng%NULL%0,            Shao-qin%Qiu%NULL%0,            Jie%Luo%NULL%0,            Chang-jiang%Ye%NULL%0,            Shao-yong%Zhu%NULL%0,            Lin-ling%Cheng%NULL%3,            Feng%Ye%NULL%5,            Shi-yue%Li%NULL%0,            Jin-ping%Zheng%NULL%3,            Nuo-fu%Zhang%NULL%3,            Nan-shan%Zhong%NULL%0,            Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,            Simon A%Jones%NULL%1,            Jie%Yang%NULL%0,            Harish%Rajagopalan%NULL%1,            Luke%O’Donnell%NULL%1,            Yelena%Chernyak%NULL%1,            Katie A%Tobin%NULL%1,            Robert J%Cerfolio%NULL%1,            Fritz%Francois%NULL%1,            Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0,            Stephanie%Bialek%NULL%1,            Ellen%Boundy%NULL%1,            Virginia%Bowen%NULL%1,            Nancy%Chow%NULL%2,            Amanda%Cohn%NULL%1,            Nicole%Dowling%NULL%1,            Sascha%Ellington%NULL%1,            Ryan%Gierke%NULL%2,            Aron%Hall%NULL%2,            Jessica%MacNeil%NULL%1,            Priti%Patel%NULL%1,            Georgina%Peacock%NULL%1,            Tamara%Pilishvili%NULL%2,            Hilda%Razzaghi%NULL%1,            Nia%Reed%NULL%1,            Matthew%Ritchey%NULL%2,            Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,            Pedro%Póvoa%NULL%1,            Vicente%Souza-Dantas%NULL%1,            André C.%Kalil%NULL%1,            Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,            Graeme%MacLaren%NULL%1,            Philip S%Boonstra%NULL%1,            Theodore J%Iwashyna%NULL%1,            Arthur S%Slutsky%NULL%1,            Eddy%Fan%NULL%1,            Robert H%Bartlett%NULL%1,            Joseph E%Tonna%NULL%1,            Robert%Hyslop%NULL%1,            Jeffrey J%Fanning%NULL%1,            Peter T%Rycus%NULL%1,            Steve J%Hyer%NULL%1,            Marc M%Anders%NULL%1,            Cara L%Agerstrand%NULL%1,            Katarzyna%Hryniewicz%NULL%1,            Rodrigo%Diaz%NULL%1,            Roberto%Lorusso%NULL%1,            Alain%Combes%NULL%1,            Daniel%Brodie%NULL%4,            Peta%Alexander%NULL%1,            Nicholas%Barrett%NULL%1,            Jan%Bělohlávek%NULL%1,            Dale%Fisher%NULL%1,            John%Fraser%NULL%1,            Ali Ait%Hssain%NULL%1,            Jae Sung%Jung%NULL%1,            Michael%McMullan%NULL%1,            Yatin%Mehta%NULL%1,            Mark T.%Ogino%NULL%1,            Matthew L.%Paden%NULL%1,            Kiran%Shekar%NULL%1,            Christine%Stead%NULL%1,            Yasir%Abu-Omar%NULL%1,            Vanni%Agnoletti%NULL%1,            Anzila%Akbar%NULL%1,            Huda%Alfoudri%NULL%1,            Carlos%Alviar%NULL%1,            Vladimir%Aronsky%NULL%1,            Erin%August%NULL%1,            Georg%Auzinger%NULL%1,            Hilda%Aveja%NULL%1,            Rhonda%Bakken%NULL%1,            Joan%Balcells%NULL%1,            Sripal%Bangalore%NULL%1,            Bernard W.%Barnes%NULL%1,            Alaiza%Bautista%NULL%1,            Lorraine L.%Bellows%NULL%1,            Felipe%Beltran%NULL%1,            Peyman%Benharash%NULL%1,            Marco%Benni%NULL%1,            Jennifer%Berg%NULL%1,            Pietro%Bertini%NULL%1,            Pablo%Blanco-Schweizer%NULL%1,            Melissa%Brunsvold%NULL%1,            Jenny%Budd%NULL%1,            Debra%Camp%NULL%1,            Mark%Caridi-Scheible%NULL%0,            Edmund%Carton%NULL%1,            Elena%Casanova-Ghosh%NULL%1,            Anthony%Castleberry%NULL%1,            Christopher T.%Chipongian%NULL%1,            Chang Woo%Choi%NULL%1,            Alessandro%Circelli%NULL%1,            Elliott%Cohen%NULL%1,            Michael%Collins%NULL%1,            Scott%Copus%NULL%1,            Jill%Coy%NULL%1,            Brandon%Crist%NULL%1,            Leonora%Cruz%NULL%1,            Mirosław%Czuczwar%NULL%1,            Mani%Daneshmand%NULL%1,            Daniel%Davis II%NULL%1,            Kim%De la Cruz%NULL%1,            Cyndie%Devers%NULL%1,            Toni%Duculan%NULL%1,            Lucian%Durham%NULL%1,            Subbarao%Elapavaluru%NULL%1,            Carlos V.%Elzo Kraemer%NULL%1,            EDMÍLSON CARDOSO%Filho%NULL%1,            Jillian%Fitzgerald%NULL%1,            Giuseppe%Foti%NULL%1,            Matthew%Fox%NULL%1,            David%Fritschen%NULL%1,            David%Fullerton%NULL%1,            Elton%Gelandt%NULL%1,            Stacy%Gerle%NULL%1,            Marco%Giani%NULL%1,            Si Guim%Goh%NULL%1,            Sara%Govener%NULL%1,            Julie%Grone%NULL%1,            Miles%Guber%NULL%1,            Vadim%Gudzenko%NULL%1,            Daniel%Gutteridge%NULL%1,            Jennifer%Guy%NULL%1,            Jonathan%Haft%NULL%1,            Cameron%Hall%NULL%1,            Ibrahim Fawzy%Hassan%NULL%1,            Rubén%Herrán%NULL%1,            Hitoshi%Hirose%NULL%1,            Abdulsalam Saif%Ibrahim%NULL%1,            Don%Igielski%NULL%1,            Felicia A.%Ivascu%NULL%1,            Jaume%Izquierdo Blasco%NULL%1,            Julie%Jackson%NULL%1,            Harsh%Jain%NULL%1,            Bhavini%Jaiswal%NULL%1,            Andrea C.%Johnson%NULL%1,            Jenniver A.%Jurynec%NULL%1,            Norma M%Kellter%NULL%1,            Adam%Kohl%NULL%1,            Zachary%Kon%NULL%1,            Markus%Kredel%NULL%1,            Karen%Kriska%NULL%1,            Chandra%Kunavarapu%NULL%1,            Oude%Lansink-Hartgring%NULL%1,            Jeliene%LaRocque%NULL%1,            Sharon Beth%Larson%NULL%1,            Tracie%Layne%NULL%1,            Stephane%Ledot%NULL%1,            Napolitan%Lena%NULL%1,            Jonathan%Lillie%NULL%1,            Gösta%Lotz%NULL%1,            Mark%Lucas%NULL%1,            Lee%Ludwigson%NULL%1,            Jacinta J.%Maas%NULL%1,            Joanna%Maertens%NULL%1,            David%Mast%NULL%1,            Scott%McCardle%NULL%1,            Bernard%McDonald%NULL%1,            Allison%McLarty%NULL%1,            Chelsea%McMahon%NULL%1,            Patrick%Meybohm%NULL%1,            Bart%Meyns%NULL%1,            Casey%Miller%NULL%1,            Fernando%Moraes Neto%NULL%1,            Kelly%Morris%NULL%1,            Ralf%Muellenbach%NULL%1,            Meghan%Nicholson%NULL%1,            Serena%O'Brien%NULL%1,            Kathryn%O'Keefe%NULL%1,            Tawnya%Ogston%NULL%1,            Gary%Oldenburg%NULL%1,            Fabiana M.%Oliveira%NULL%1,            Emily%Oppel%NULL%1,            Diego%Pardo%NULL%2,            Diego%Pardo%NULL%0,            Sara J.%Parker%NULL%1,            Finn M.%Pedersen%NULL%1,            Crescens%Pellecchia%NULL%1,            Jose A.S.%Pelligrini%NULL%1,            Thao T.N.%Pham%NULL%1,            Ann R.%Phillips%NULL%1,            Tasneem%Pirani%NULL%1,            Paweł%Piwowarczyk%NULL%1,            Robert%Plambeck%NULL%1,            William%Pruett%NULL%1,            Brittany%Quandt%NULL%1,            Kollengode%Ramanathan%NULL%1,            Alejandro%Rey%NULL%1,            Christian%Reyher%NULL%1,            Jordi%Riera del Brio%NULL%1,            Rachel%Roberts%NULL%1,            David%Roe%NULL%1,            Peter P.%Roeleveld%NULL%1,            Janet%Rudy%NULL%1,            Luis F.%Rueda%NULL%1,            Emanuele%Russo%NULL%1,            Jesús%Sánchez Ballesteros%NULL%1,            Nancy%Satou%NULL%1,            Mauricio Guidi%Saueressig%NULL%1,            Paul C.%Saunders%NULL%1,            Margaret%Schlotterbeck%NULL%1,            Patricia%Schwarz%NULL%1,            Nicole%Scriven%NULL%1,            Alexis%Serra%NULL%1,            Mohammad%Shamsah%NULL%1,            Lucy%Sim%NULL%1,            Alexandra%Smart%NULL%1,            Adam%Smith%NULL%1,            Deane%Smith%NULL%1,            Maggie%Smith%NULL%1,            Neel%Sodha%NULL%1,            Michael%Sonntagbauer%NULL%1,            Marc%Sorenson%NULL%1,            Eric B%Stallkamp%NULL%1,            Allison%Stewart%NULL%1,            Kathy%Swartz%NULL%1,            Koji%Takeda%NULL%1,            Shaun%Thompson%NULL%1,            Bridget%Toy%NULL%1,            Divina%Tuazon%NULL%1,            Makoto%Uchiyama%NULL%1,            Obiora I.%Udeozo%NULL%1,            Scott%van Poppel%NULL%1,            Corey%Ventetuolo%NULL%1,            Leen%Vercaemst%NULL%1,            Nguyen V.%Vinh Chau%NULL%1,            I-Wen%Wang%NULL%1,            Carrie%Williamson%NULL%1,            Brock%Wilson%NULL%1,            Helen%Winkels%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1908,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1769,7 +1937,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -1798,7 +1966,7 @@
         <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1827,7 +1995,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1856,7 +2024,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -1885,7 +2053,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>301</v>
+        <v>357</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1914,7 +2082,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>302</v>
+        <v>358</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1943,7 +2111,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>303</v>
+        <v>359</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1972,7 +2140,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>304</v>
+        <v>360</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -2001,7 +2169,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>305</v>
+        <v>361</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -2030,7 +2198,7 @@
         <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>306</v>
+        <v>362</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2059,7 +2227,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>307</v>
+        <v>363</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -2088,7 +2256,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -2117,7 +2285,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -2146,7 +2314,7 @@
         <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -2175,7 +2343,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>311</v>
+        <v>367</v>
       </c>
       <c r="F17" t="s">
         <v>86</v>
@@ -2204,7 +2372,7 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -2233,7 +2401,7 @@
         <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>313</v>
+        <v>369</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
@@ -2262,7 +2430,7 @@
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -2291,7 +2459,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="F21" t="s">
         <v>98</v>
@@ -2320,7 +2488,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="F22" t="s">
         <v>101</v>
@@ -2349,7 +2517,7 @@
         <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="F23" t="s">
         <v>104</v>
@@ -2378,7 +2546,7 @@
         <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="F24" t="s">
         <v>108</v>
@@ -2407,7 +2575,7 @@
         <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="F25" t="s">
         <v>111</v>
@@ -2436,7 +2604,7 @@
         <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -2465,7 +2633,7 @@
         <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -2494,7 +2662,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
@@ -2523,7 +2691,7 @@
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="F29" t="s">
         <v>125</v>

--- a/Covid_19_Dataset_and_References/References/48.xlsx
+++ b/Covid_19_Dataset_and_References/References/48.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="437">
   <si>
     <t>Doi</t>
   </si>
@@ -1556,6 +1556,198 @@
   </si>
   <si>
     <t>[Ryan P%Barbaro%NULL%2,            Graeme%MacLaren%NULL%1,            Philip S%Boonstra%NULL%1,            Theodore J%Iwashyna%NULL%1,            Arthur S%Slutsky%NULL%1,            Eddy%Fan%NULL%1,            Robert H%Bartlett%NULL%1,            Joseph E%Tonna%NULL%1,            Robert%Hyslop%NULL%1,            Jeffrey J%Fanning%NULL%1,            Peter T%Rycus%NULL%1,            Steve J%Hyer%NULL%1,            Marc M%Anders%NULL%1,            Cara L%Agerstrand%NULL%1,            Katarzyna%Hryniewicz%NULL%1,            Rodrigo%Diaz%NULL%1,            Roberto%Lorusso%NULL%1,            Alain%Combes%NULL%1,            Daniel%Brodie%NULL%4,            Peta%Alexander%NULL%1,            Nicholas%Barrett%NULL%1,            Jan%Bělohlávek%NULL%1,            Dale%Fisher%NULL%1,            John%Fraser%NULL%1,            Ali Ait%Hssain%NULL%1,            Jae Sung%Jung%NULL%1,            Michael%McMullan%NULL%1,            Yatin%Mehta%NULL%1,            Mark T.%Ogino%NULL%1,            Matthew L.%Paden%NULL%1,            Kiran%Shekar%NULL%1,            Christine%Stead%NULL%1,            Yasir%Abu-Omar%NULL%1,            Vanni%Agnoletti%NULL%1,            Anzila%Akbar%NULL%1,            Huda%Alfoudri%NULL%1,            Carlos%Alviar%NULL%1,            Vladimir%Aronsky%NULL%1,            Erin%August%NULL%1,            Georg%Auzinger%NULL%1,            Hilda%Aveja%NULL%1,            Rhonda%Bakken%NULL%1,            Joan%Balcells%NULL%1,            Sripal%Bangalore%NULL%1,            Bernard W.%Barnes%NULL%1,            Alaiza%Bautista%NULL%1,            Lorraine L.%Bellows%NULL%1,            Felipe%Beltran%NULL%1,            Peyman%Benharash%NULL%1,            Marco%Benni%NULL%1,            Jennifer%Berg%NULL%1,            Pietro%Bertini%NULL%1,            Pablo%Blanco-Schweizer%NULL%1,            Melissa%Brunsvold%NULL%1,            Jenny%Budd%NULL%1,            Debra%Camp%NULL%1,            Mark%Caridi-Scheible%NULL%0,            Edmund%Carton%NULL%1,            Elena%Casanova-Ghosh%NULL%1,            Anthony%Castleberry%NULL%1,            Christopher T.%Chipongian%NULL%1,            Chang Woo%Choi%NULL%1,            Alessandro%Circelli%NULL%1,            Elliott%Cohen%NULL%1,            Michael%Collins%NULL%1,            Scott%Copus%NULL%1,            Jill%Coy%NULL%1,            Brandon%Crist%NULL%1,            Leonora%Cruz%NULL%1,            Mirosław%Czuczwar%NULL%1,            Mani%Daneshmand%NULL%1,            Daniel%Davis II%NULL%1,            Kim%De la Cruz%NULL%1,            Cyndie%Devers%NULL%1,            Toni%Duculan%NULL%1,            Lucian%Durham%NULL%1,            Subbarao%Elapavaluru%NULL%1,            Carlos V.%Elzo Kraemer%NULL%1,            EDMÍLSON CARDOSO%Filho%NULL%1,            Jillian%Fitzgerald%NULL%1,            Giuseppe%Foti%NULL%1,            Matthew%Fox%NULL%1,            David%Fritschen%NULL%1,            David%Fullerton%NULL%1,            Elton%Gelandt%NULL%1,            Stacy%Gerle%NULL%1,            Marco%Giani%NULL%1,            Si Guim%Goh%NULL%1,            Sara%Govener%NULL%1,            Julie%Grone%NULL%1,            Miles%Guber%NULL%1,            Vadim%Gudzenko%NULL%1,            Daniel%Gutteridge%NULL%1,            Jennifer%Guy%NULL%1,            Jonathan%Haft%NULL%1,            Cameron%Hall%NULL%1,            Ibrahim Fawzy%Hassan%NULL%1,            Rubén%Herrán%NULL%1,            Hitoshi%Hirose%NULL%1,            Abdulsalam Saif%Ibrahim%NULL%1,            Don%Igielski%NULL%1,            Felicia A.%Ivascu%NULL%1,            Jaume%Izquierdo Blasco%NULL%1,            Julie%Jackson%NULL%1,            Harsh%Jain%NULL%1,            Bhavini%Jaiswal%NULL%1,            Andrea C.%Johnson%NULL%1,            Jenniver A.%Jurynec%NULL%1,            Norma M%Kellter%NULL%1,            Adam%Kohl%NULL%1,            Zachary%Kon%NULL%1,            Markus%Kredel%NULL%1,            Karen%Kriska%NULL%1,            Chandra%Kunavarapu%NULL%1,            Oude%Lansink-Hartgring%NULL%1,            Jeliene%LaRocque%NULL%1,            Sharon Beth%Larson%NULL%1,            Tracie%Layne%NULL%1,            Stephane%Ledot%NULL%1,            Napolitan%Lena%NULL%1,            Jonathan%Lillie%NULL%1,            Gösta%Lotz%NULL%1,            Mark%Lucas%NULL%1,            Lee%Ludwigson%NULL%1,            Jacinta J.%Maas%NULL%1,            Joanna%Maertens%NULL%1,            David%Mast%NULL%1,            Scott%McCardle%NULL%1,            Bernard%McDonald%NULL%1,            Allison%McLarty%NULL%1,            Chelsea%McMahon%NULL%1,            Patrick%Meybohm%NULL%1,            Bart%Meyns%NULL%1,            Casey%Miller%NULL%1,            Fernando%Moraes Neto%NULL%1,            Kelly%Morris%NULL%1,            Ralf%Muellenbach%NULL%1,            Meghan%Nicholson%NULL%1,            Serena%O'Brien%NULL%1,            Kathryn%O'Keefe%NULL%1,            Tawnya%Ogston%NULL%1,            Gary%Oldenburg%NULL%1,            Fabiana M.%Oliveira%NULL%1,            Emily%Oppel%NULL%1,            Diego%Pardo%NULL%2,            Diego%Pardo%NULL%0,            Sara J.%Parker%NULL%1,            Finn M.%Pedersen%NULL%1,            Crescens%Pellecchia%NULL%1,            Jose A.S.%Pelligrini%NULL%1,            Thao T.N.%Pham%NULL%1,            Ann R.%Phillips%NULL%1,            Tasneem%Pirani%NULL%1,            Paweł%Piwowarczyk%NULL%1,            Robert%Plambeck%NULL%1,            William%Pruett%NULL%1,            Brittany%Quandt%NULL%1,            Kollengode%Ramanathan%NULL%1,            Alejandro%Rey%NULL%1,            Christian%Reyher%NULL%1,            Jordi%Riera del Brio%NULL%1,            Rachel%Roberts%NULL%1,            David%Roe%NULL%1,            Peter P.%Roeleveld%NULL%1,            Janet%Rudy%NULL%1,            Luis F.%Rueda%NULL%1,            Emanuele%Russo%NULL%1,            Jesús%Sánchez Ballesteros%NULL%1,            Nancy%Satou%NULL%1,            Mauricio Guidi%Saueressig%NULL%1,            Paul C.%Saunders%NULL%1,            Margaret%Schlotterbeck%NULL%1,            Patricia%Schwarz%NULL%1,            Nicole%Scriven%NULL%1,            Alexis%Serra%NULL%1,            Mohammad%Shamsah%NULL%1,            Lucy%Sim%NULL%1,            Alexandra%Smart%NULL%1,            Adam%Smith%NULL%1,            Deane%Smith%NULL%1,            Maggie%Smith%NULL%1,            Neel%Sodha%NULL%1,            Michael%Sonntagbauer%NULL%1,            Marc%Sorenson%NULL%1,            Eric B%Stallkamp%NULL%1,            Allison%Stewart%NULL%1,            Kathy%Swartz%NULL%1,            Koji%Takeda%NULL%1,            Shaun%Thompson%NULL%1,            Bridget%Toy%NULL%1,            Divina%Tuazon%NULL%1,            Makoto%Uchiyama%NULL%1,            Obiora I.%Udeozo%NULL%1,            Scott%van Poppel%NULL%1,            Corey%Ventetuolo%NULL%1,            Leen%Vercaemst%NULL%1,            Nguyen V.%Vinh Chau%NULL%1,            I-Wen%Wang%NULL%1,            Carrie%Williamson%NULL%1,            Brock%Wilson%NULL%1,            Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,     Xiaoyan%Chen%xref no email%0,     Yanping%Cai%xref no email%0,     Jia\u2019an%Xia%xref no email%0,     Xing%Zhou%xref no email%0,     Sha%Xu%xref no email%0,     Hanping%Huang%xref no email%0,     Li%Zhang%xref no email%0,     Xia%Zhou%xref no email%0,     Chunling%Du%xref no email%0,     Yuye%Zhang%xref no email%0,     Juan%Song%xref no email%0,     Sijiao%Wang%xref no email%0,     Yencheng%Chao%xref no email%0,     Zeyong%Yang%xref no email%0,     Jie%Xu%xref no email%0,     Xin%Zhou%xref no email%0,     Dechang%Chen%xref no email%0,     Weining%Xiong%xref no email%0,     Lei%Xu%xref no email%0,     Feng%Zhou%xref no email%0,     Jinjun%Jiang%xref no email%0,     Chunxue%Bai%xref no email%0,     Junhua%Zheng%xref no email%0,     Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,             Dhaval%Kolte%NULL%1,             Mary E.%Cadigan%NULL%1,             Elizabeth%Laikhter%NULL%1,             Kevin%Sinclair%NULL%1,             Eugene%Pomerantsev%NULL%1,             Michael A.%Fifer%NULL%1,             Thoralf M.%Sundt%NULL%1,             Robert W.%Yeh%NULL%1,             Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,            Cabrini%Luca%coreGivesNoEmail%1,            Castelli%Antonio%coreGivesNoEmail%1,            Cecconi%Maurizio%coreGivesNoEmail%1,            Cereda%Danilo%coreGivesNoEmail%1,            Coluccello%Antonio%coreGivesNoEmail%1,            Foti%Giuseppe%coreGivesNoEmail%1,            Fumagalli%Roberto%coreGivesNoEmail%1,            Grasselli%Giacomo%coreGivesNoEmail%1,            Iotti%Giorgio%coreGivesNoEmail%1,            Latronico%Nicola%coreGivesNoEmail%1,            Lorini%Luca%coreGivesNoEmail%1,            Merler%Stefano%coreGivesNoEmail%1,            Natalini%Giuseppe%coreGivesNoEmail%1,            Pesenti%Antonio%coreGivesNoEmail%1,            Piatti%Alessandra%coreGivesNoEmail%1,            Ranieri%Marco Vito%coreGivesNoEmail%1,            Scandroglio%Anna Mara%coreGivesNoEmail%1,            Storti%Enrico%coreGivesNoEmail%1,            Zanella%Alberto%coreGivesNoEmail%1,            Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,             Yeming%Wang%NULL%0,             Xingwang%Li%NULL%0,             Lili%Ren%NULL%0,             Jianping%Zhao%NULL%0,             Yi%Hu%NULL%0,             Li%Zhang%NULL%0,             Guohui%Fan%NULL%0,             Jiuyang%Xu%NULL%0,             Xiaoying%Gu%NULL%0,             Zhenshun%Cheng%NULL%0,             Ting%Yu%NULL%0,             Jiaan%Xia%NULL%0,             Yuan%Wei%NULL%0,             Wenjuan%Wu%NULL%0,             Xuelei%Xie%NULL%0,             Wen%Yin%NULL%0,             Hui%Li%NULL%0,             Min%Liu%NULL%0,             Yan%Xiao%NULL%0,             Hong%Gao%NULL%0,             Li%Guo%NULL%0,             Jungang%Xie%NULL%0,             Guangfa%Wang%NULL%0,             Rongmeng%Jiang%NULL%0,             Zhancheng%Gao%NULL%0,             Qi%Jin%NULL%0,             Jianwei%Wang%wangjw28@163.com%0,             Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,             Yi%Xiang%NULL%0,             Wei%Fang%NULL%0,             Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,             Boqun%Li%279685211@qq.com%0,             Boqun%Li%279685211@qq.com%0,             Yanjun%Hu%huyanjun@163.com%0,             Chunhui%Lang%NULL%0,             Daoqiu%Huang%NULL%0,             Qiuyan%Sun%NULL%0,             Yan%Xiong%NULL%0,             Xia%Huang%NULL%0,             Jinglong%Lv%NULL%0,             Yaling%Luo%NULL%0,             Li%Shen%NULL%0,             Haoran%Yang%NULL%0,             Gu%Huang%NULL%0,             Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,     Eric%Yim%xref no email%0,     Lindy%Klaff%xref no email%0,     Sharukh%Lokhandwala%xref no email%0,     Francis X.%Riedo%xref no email%0,     Maria%Chong%xref no email%0,     Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,             Mark%Caridi-Scheible%NULL%3,             James M.%Blum%NULL%2,             Chad%Robichaux%NULL%2,             Colleen%Kraft%NULL%2,             Jesse T.%Jacob%NULL%2,             Craig S.%Jabaley%NULL%2,             David%Carpenter%NULL%2,             Roberta%Kaplow%NULL%2,             Alfonso C.%Hernandez-Romieu%NULL%2,             Max W.%Adelman%NULL%2,             Greg S.%Martin%NULL%2,             Craig M.%Coopersmith%NULL%2,             David J.%Murphy%NULL%2,             NULL%NULL%NULL%0,              S.%Auld%null%1,              M.% Caridi-Scheible%null%1,              J. M.% Blum%null%1,              C. J.% Robichaux%null%1,              C. S.% Kraft%null%1,              J. T.% Jacob%null%1,              C. S.% Jabaley%null%1,              D.% Carpenter%null%1,              R.% Kaplow%null%1,              A. C.% Hernandez%null%1,              M. W.% Adelman%null%1,              G. S.% Martin%null%1,              C. M.% Coopersmith%null%1,              D. J.% Murphy%null%1,                % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,            S.%Auld%null%1,            M.% Caridi-Scheible%null%1,            J. M.% Blum%null%1,            C. J.% Robichaux%null%1,            C. S.% Kraft%null%1,            J. T.% Jacob%null%1,            C. S.% Jabaley%null%1,            D.% Carpenter%null%1,            R.% Kaplow%null%1,            A. C.% Hernandez%null%1,            M. W.% Adelman%null%1,            G. S.% Martin%null%1,            C. M.% Coopersmith%null%1,            D. J.% Murphy%null%1,              % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,             Bijan J.%Ghassemieh%NULL%2,             Michelle%Nichols%NULL%2,             Richard%Kim%NULL%2,             Keith R.%Jerome%NULL%2,             Arun K.%Nalla%NULL%2,             Alexander L.%Greninger%NULL%2,             Sudhakar%Pipavath%NULL%2,             Mark M.%Wurfel%NULL%2,             Laura%Evans%NULL%2,             Patricia A.%Kritek%NULL%2,             T. Eoin%West%NULL%2,             Andrew%Luks%NULL%2,             Anthony%Gerbino%NULL%2,             Chris R.%Dale%NULL%2,             Jason D.%Goldman%NULL%2,             Shane%O’Mahony%NULL%2,             Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,             Tangkai%Qi%NULL%0,             Li%Liu%NULL%0,             Yun%Ling%NULL%0,             Zhiping%Qian%NULL%0,             Tao%Li%NULL%0,             Feng%Li%NULL%0,             Qingnian%Xu%NULL%0,             Yuyi%Zhang%NULL%0,             Shuibao%Xu%NULL%0,             Zhigang%Song%NULL%0,             Yigang%Zeng%NULL%0,             Yinzhong%Shen%NULL%0,             Yuxin%Shi%NULL%0,             Tongyu%Zhu%NULL%0,             Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,             Min%Zhou%NULL%0,             Xuan%Dong%NULL%0,             Jieming%Qu%NULL%0,             Fengyun%Gong%NULL%0,             Yang%Han%NULL%0,             Yang%Qiu%NULL%0,             Jingli%Wang%NULL%0,             Ying%Liu%NULL%0,             Yuan%Wei%NULL%0,             Jia'an%Xia%NULL%0,             Ting%Yu%NULL%0,             Xinxin%Zhang%NULL%0,             Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,             Zheng-yi%Ni%NULL%0,             Zheng-yi%Ni%NULL%0,             Yu%Hu%NULL%0,             Wen-hua%Liang%NULL%0,             Chun-quan%Ou%NULL%0,             Jian-xing%He%NULL%0,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chun-liang%Lei%NULL%0,             David S.C.%Hui%NULL%0,             Bin%Du%NULL%0,             Lan-juan%Li%NULL%0,             Guang%Zeng%NULL%0,             Kwok-Yung%Yuen%NULL%0,             Ru-chong%Chen%NULL%0,             Chun-li%Tang%NULL%0,             Tao%Wang%NULL%0,             Ping-yan%Chen%NULL%0,             Jie%Xiang%NULL%0,             Shi-yue%Li%NULL%0,             Jin-lin%Wang%NULL%0,             Zi-jing%Liang%NULL%0,             Yi-xiang%Peng%NULL%0,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Ya-hua%Hu%NULL%0,             Peng%Peng%NULL%0,             Jian-ming%Wang%NULL%0,             Ji-yang%Liu%NULL%0,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhi-jian%Zheng%NULL%0,             Shao-qin%Qiu%NULL%0,             Jie%Luo%NULL%0,             Chang-jiang%Ye%NULL%0,             Shao-yong%Zhu%NULL%0,             Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,             Yuanyuan%Xing%NULL%0,             Yu%Xiao%NULL%0,             Liping%Deng%NULL%0,             Qiu%Zhao%NULL%0,             Hongling%Wang%NULL%0,             Yong%Xiong%NULL%0,             Zhenshun%Cheng%NULL%0,             Shicheng%Gao%NULL%0,             Ke%Liang%NULL%0,             Mingqi%Luo%NULL%0,             Tielong%Chen%NULL%0,             Shihui%Song%NULL%0,             Zhiyong%Ma%NULL%0,             Xiaoping%Chen%NULL%0,             Ruiying%Zheng%NULL%0,             Qian%Cao%NULL%0,             Fan%Wang%fanndywang@foxmail.com%0,             Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,             N -B%Yang%NULL%0,             F%Ding%NULL%0,             A H Y%Ma%NULL%0,             Z -Y%Wang%NULL%0,             Y -F%Shen%NULL%0,             C -W%Shi%NULL%0,             X%Lian%NULL%0,             J -G%Chu%NULL%0,             L%Chen%chxmin@hotmail.com%0,             Z -Y%Wang%NULL%0,             D -W%Ren%NULL%0,             G -X%Li%NULL%0,             X -Q%Chen%chxmin@hotmail.com%0,             H -J%Shen%NULL%0,             X -M%Chen%chxmin@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,             Hugues%Spillemaeker%NULL%1,             Maéva%Kyheng%NULL%1,             Cassandre%Belin‐Vincent%NULL%1,             Cédric%Delhaye%NULL%1,             Adeline%Piérache%NULL%1,             Tom%Denimal%NULL%1,             Basile%Verdier%NULL%1,             Nicolas%Debry%NULL%1,             Mouhamed%Moussa%NULL%1,             Guillaume%Schurtz%NULL%1,             Sina%Porouchani%NULL%1,             Alessandro%Cosenza%NULL%1,             Francis%Juthier%NULL%1,             Thibault%Pamart%NULL%1,             Marjorie%Richardson%NULL%1,             Augustin%Coisne%NULL%1,             Adrien%Hertault%NULL%1,             Jonathan%Sobocinski%NULL%1,             Thomas%Modine%NULL%1,             François%Pontana%NULL%1,             Alain%Duhamel%NULL%2,             Julien%Labreuche%NULL%2,             Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,            Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,            Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,            Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+In December 2019, coronavirus disease 2019 (COVID-19) outbreak was reported from Wuhan, China.
+ Information on the clinical course and prognosis of COVID-19 was not thoroughly described.
+ We described the clinical courses and prognosis in COVID-19 patients.
+Methods
+Retrospective case series of COVID-19 patients from Zhongnan Hospital of Wuhan University in Wuhan and Xishui Hospital, Hubei Province, China, up to February 10, 2020. Epidemiological, demographic, and clinical data were collected.
+ The clinical course of survivors and non-survivors were compared.
+ Risk factors for death were analyzed.
+Results
+A total of 107 discharged patients with COVID-19 were enrolled.
+ The clinical course of COVID-19 presented as a tri-phasic pattern.
+ Week 1 after illness onset was characterized by fever, cough, dyspnea, lymphopenia, and radiological multi-lobar pulmonary infiltrates.
+ In severe cases, thrombocytopenia, acute kidney injury, acute myocardial injury, and adult respiratory distress syndrome were observed.
+ During week 2, in mild cases, fever, cough, and systemic symptoms began to resolve and platelet count rose to normal range, but lymphopenia persisted.
+ In severe cases, leukocytosis, neutrophilia, and deteriorating multi-organ dysfunction were dominant.
+ By week 3, mild cases had clinically resolved except for lymphopenia.
+ However, severe cases showed persistent lymphopenia, severe acute respiratory dyspnea syndrome, refractory shock, anuric acute kidney injury, coagulopathy, thrombocytopenia, and death.
+ Older age and male sex were independent risk factors for poor outcome of the illness.
+Conclusions
+A period of 7–13 days after illness onset is the critical stage in the COVID-19 course.
+ Age and male gender were independent risk factors for death of COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,             Yimei%Yin%18256985@qq.com%1,             Chang%Hu%1391369733@qq.com%3,             Xing%Liu%375117565@qq.com%1,             Xingguo%Zhang%zhangxinguo7909@163.com%1,             Shuliang%Zhou%350925556@qq.com%1,             Mingzhi%Jian%Jmzhak@aliyun.com%1,             Haibo%Xu%xuhaibo1120@hotmail.com%0,             John%Prowle%j.prowle@qmul.ac.uk%1,             Bo%Hu%hobbier1979@163.com%0,             Yirong%Li%liyirong838@163.com%1,             Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wentao%Xu%xref no email%1,     Shuang%Qu%xref no email%1,     Mengying%Xing%xref no email%1,     Ming%Zhang%xref no email%1,     Geng%Lu%xref no email%1,     Zhicong%Liao%xref no email%1,     Kimberly%Griffin%xref no email%1,     Jun%Wang%xref no email%1,     Ke%Zen%xref no email%1,     Bing%Yao%xref no email%1,     Hongwei%Liang%xref no email%1,     Jianping%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,             Xiao-Xin%Wu%NULL%0,             Xian-Gao%Jiang%NULL%0,             Kai-Jin%Xu%NULL%0,             Ling-Jun%Ying%NULL%0,             Chun-Lian%Ma%NULL%0,             Shi-Bo%Li%NULL%0,             Hua-Ying%Wang%NULL%0,             Sheng%Zhang%NULL%0,             Hai-Nv%Gao%NULL%0,             Ji-Fang%Sheng%NULL%0,             Hong-Liu%Cai%NULL%0,             Yun-Qing%Qiu%NULL%0,             Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,             Chang%Hu%NULL%0,             Linjie%Luo%NULL%2,             Fang%Fang%NULL%0,             Yongfeng%Chen%NULL%2,             Jianguo%Li%NULL%2,             Zhiyong%Peng%NULL%0,             Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,             Chun%Liao%lc7spring@163.com%1,             Qi-hong%Fan%1187286305@qq.com%1,             Hong-bo%Chen%hbchen@hust.edu.cn%1,             Xue-gong%Zhao%NULL%1,             Zhong-guo%Xie%NULL%1,             Xi-lin%Li%NULL%1,             Chun-xi%Chen%NULL%1,             Xiao-xia%Lu%NULL%1,             Zhi-sheng%Liu%NULL%1,             Wei%Lu%NULL%1,             Chun-bao%Chen%NULL%1,             Rong%Jiao%NULL%1,             Ai-ming%Zhang%NULL%1,             Jin-tang%Wang%NULL%1,             Xi-wei%Ding%NULL%1,             Yao-guang%Zeng%NULL%1,             Li-ping%Cheng%NULL%1,             Qing-feng%Huang%NULL%1,             Jiang%Wu%NULL%0,             Xi-chang%Luo%NULL%1,             Zhu-jun%Wang%NULL%1,             Yan-yan%Zhong%NULL%1,             Yan%Bai%yanbaixh@hust.edu.cn%1,             Xiao-yan%Wu%xwu@hust.edu.cn%1,             Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,             Ting%Yu%NULL%0,             Ronghui%Du%NULL%0,             Guohui%Fan%NULL%0,             Ying%Liu%NULL%0,             Zhibo%Liu%NULL%0,             Jie%Xiang%NULL%0,             Yeming%Wang%NULL%0,             Bin%Song%NULL%0,             Xiaoying%Gu%NULL%0,             Lulu%Guan%NULL%0,             Yuan%Wei%NULL%0,             Hui%Li%NULL%0,             Xudong%Wu%NULL%0,             Jiuyang%Xu%NULL%0,             Shengjin%Tu%NULL%0,             Yi%Zhang%NULL%0,             Hua%Chen%NULL%0,             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,             Mengqi%Tu%NULL%0,             Shipei%Wang%NULL%0,             Sichao%Chen%NULL%0,             Wei%Zhou%NULL%0,             Danyang%Chen%NULL%0,             Lin%Zhou%NULL%0,             Min%Wang%NULL%0,             Yan%Zhao%NULL%0,             Wen%Zeng%NULL%0,             Qi%Huang%NULL%0,             Hai'bo%Xu%NULL%0,             Zeming%Liu%NULL%0,             Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,             Yuan%Yu%NULL%0,             Jiqian%Xu%NULL%0,             Huaqing%Shu%NULL%0,             Jia'an%Xia%NULL%0,             Hong%Liu%NULL%0,             Yongran%Wu%NULL%0,             Lu%Zhang%NULL%0,             Zhui%Yu%NULL%0,             Minghao%Fang%NULL%0,             Ting%Yu%NULL%0,             Yaxin%Wang%NULL%0,             Shangwen%Pan%NULL%0,             Xiaojing%Zou%NULL%0,             Shiying%Yuan%NULL%0,             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,             Wei-jie%Guan%NULL%2,             Cai-chen%Li%NULL%3,             Yi-min%Li%NULL%3,             Heng-rui%Liang%NULL%3,             Yi%Zhao%NULL%3,             Xiao-qing%Liu%NULL%3,             Ling%Sang%NULL%0,             Ru-chong%Chen%NULL%0,             Chun-li%Tang%NULL%0,             Tao%Wang%NULL%0,             Wei%Wang%NULL%0,             Qi-hua%He%NULL%2,             Zi-sheng%Chen%NULL%3,             Sook-San%Wong%NULL%2,             Mark%Zanin%NULL%2,             Jun%Liu%NULL%0,             Xin%Xu%NULL%0,             Jun%Huang%NULL%2,             Jian-fu%Li%NULL%3,             Li-min%Ou%NULL%3,             Bo%Cheng%NULL%3,             Shan%Xiong%NULL%3,             Zhan-hong%Xie%NULL%2,             Zheng-yi%Ni%NULL%0,             Yu%Hu%NULL%0,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chun-liang%Lei%NULL%0,             Yi-xiang%Peng%NULL%0,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Ya-hua%Hu%NULL%0,             Peng%Peng%NULL%0,             Jian-ming%Wang%NULL%0,             Ji-yang%Liu%NULL%0,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhi-jian%Zheng%NULL%0,             Shao-qin%Qiu%NULL%0,             Jie%Luo%NULL%0,             Chang-jiang%Ye%NULL%0,             Shao-yong%Zhu%NULL%0,             Lin-ling%Cheng%NULL%3,             Feng%Ye%NULL%5,             Shi-yue%Li%NULL%0,             Jin-ping%Zheng%NULL%3,             Nuo-fu%Zhang%NULL%3,             Nan-shan%Zhong%NULL%0,             Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,             Simon A%Jones%NULL%1,             Jie%Yang%NULL%0,             Harish%Rajagopalan%NULL%1,             Luke%O’Donnell%NULL%1,             Yelena%Chernyak%NULL%1,             Katie A%Tobin%NULL%1,             Robert J%Cerfolio%NULL%1,             Fritz%Francois%NULL%1,             Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0,             Stephanie%Bialek%NULL%1,             Ellen%Boundy%NULL%1,             Virginia%Bowen%NULL%1,             Nancy%Chow%NULL%2,             Amanda%Cohn%NULL%1,             Nicole%Dowling%NULL%1,             Sascha%Ellington%NULL%1,             Ryan%Gierke%NULL%2,             Aron%Hall%NULL%2,             Jessica%MacNeil%NULL%1,             Priti%Patel%NULL%1,             Georgina%Peacock%NULL%1,             Tamara%Pilishvili%NULL%2,             Hilda%Razzaghi%NULL%1,             Nia%Reed%NULL%1,             Matthew%Ritchey%NULL%2,             Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,             Pedro%Póvoa%NULL%1,             Vicente%Souza-Dantas%NULL%1,             André C.%Kalil%NULL%1,             Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,             Graeme%MacLaren%NULL%1,             Philip S%Boonstra%NULL%1,             Theodore J%Iwashyna%NULL%1,             Arthur S%Slutsky%NULL%1,             Eddy%Fan%NULL%1,             Robert H%Bartlett%NULL%1,             Joseph E%Tonna%NULL%1,             Robert%Hyslop%NULL%1,             Jeffrey J%Fanning%NULL%1,             Peter T%Rycus%NULL%1,             Steve J%Hyer%NULL%1,             Marc M%Anders%NULL%1,             Cara L%Agerstrand%NULL%1,             Katarzyna%Hryniewicz%NULL%1,             Rodrigo%Diaz%NULL%1,             Roberto%Lorusso%NULL%1,             Alain%Combes%NULL%1,             Daniel%Brodie%NULL%4,             Peta%Alexander%NULL%1,             Nicholas%Barrett%NULL%1,             Jan%Bělohlávek%NULL%1,             Dale%Fisher%NULL%1,             John%Fraser%NULL%1,             Ali Ait%Hssain%NULL%1,             Jae Sung%Jung%NULL%1,             Michael%McMullan%NULL%1,             Yatin%Mehta%NULL%1,             Mark T.%Ogino%NULL%1,             Matthew L.%Paden%NULL%1,             Kiran%Shekar%NULL%1,             Christine%Stead%NULL%1,             Yasir%Abu-Omar%NULL%1,             Vanni%Agnoletti%NULL%1,             Anzila%Akbar%NULL%1,             Huda%Alfoudri%NULL%1,             Carlos%Alviar%NULL%1,             Vladimir%Aronsky%NULL%1,             Erin%August%NULL%1,             Georg%Auzinger%NULL%1,             Hilda%Aveja%NULL%1,             Rhonda%Bakken%NULL%1,             Joan%Balcells%NULL%1,             Sripal%Bangalore%NULL%1,             Bernard W.%Barnes%NULL%1,             Alaiza%Bautista%NULL%1,             Lorraine L.%Bellows%NULL%1,             Felipe%Beltran%NULL%1,             Peyman%Benharash%NULL%1,             Marco%Benni%NULL%1,             Jennifer%Berg%NULL%1,             Pietro%Bertini%NULL%1,             Pablo%Blanco-Schweizer%NULL%1,             Melissa%Brunsvold%NULL%1,             Jenny%Budd%NULL%1,             Debra%Camp%NULL%1,             Mark%Caridi-Scheible%NULL%0,             Edmund%Carton%NULL%1,             Elena%Casanova-Ghosh%NULL%1,             Anthony%Castleberry%NULL%1,             Christopher T.%Chipongian%NULL%1,             Chang Woo%Choi%NULL%1,             Alessandro%Circelli%NULL%1,             Elliott%Cohen%NULL%1,             Michael%Collins%NULL%1,             Scott%Copus%NULL%1,             Jill%Coy%NULL%1,             Brandon%Crist%NULL%1,             Leonora%Cruz%NULL%1,             Mirosław%Czuczwar%NULL%1,             Mani%Daneshmand%NULL%1,             Daniel%Davis II%NULL%1,             Kim%De la Cruz%NULL%1,             Cyndie%Devers%NULL%1,             Toni%Duculan%NULL%1,             Lucian%Durham%NULL%1,             Subbarao%Elapavaluru%NULL%1,             Carlos V.%Elzo Kraemer%NULL%1,             EDMÍLSON CARDOSO%Filho%NULL%1,             Jillian%Fitzgerald%NULL%1,             Giuseppe%Foti%NULL%1,             Matthew%Fox%NULL%1,             David%Fritschen%NULL%1,             David%Fullerton%NULL%1,             Elton%Gelandt%NULL%1,             Stacy%Gerle%NULL%1,             Marco%Giani%NULL%1,             Si Guim%Goh%NULL%1,             Sara%Govener%NULL%1,             Julie%Grone%NULL%1,             Miles%Guber%NULL%1,             Vadim%Gudzenko%NULL%1,             Daniel%Gutteridge%NULL%1,             Jennifer%Guy%NULL%1,             Jonathan%Haft%NULL%1,             Cameron%Hall%NULL%1,             Ibrahim Fawzy%Hassan%NULL%1,             Rubén%Herrán%NULL%1,             Hitoshi%Hirose%NULL%1,             Abdulsalam Saif%Ibrahim%NULL%1,             Don%Igielski%NULL%1,             Felicia A.%Ivascu%NULL%1,             Jaume%Izquierdo Blasco%NULL%1,             Julie%Jackson%NULL%1,             Harsh%Jain%NULL%1,             Bhavini%Jaiswal%NULL%1,             Andrea C.%Johnson%NULL%1,             Jenniver A.%Jurynec%NULL%1,             Norma M%Kellter%NULL%1,             Adam%Kohl%NULL%1,             Zachary%Kon%NULL%1,             Markus%Kredel%NULL%1,             Karen%Kriska%NULL%1,             Chandra%Kunavarapu%NULL%1,             Oude%Lansink-Hartgring%NULL%1,             Jeliene%LaRocque%NULL%1,             Sharon Beth%Larson%NULL%1,             Tracie%Layne%NULL%1,             Stephane%Ledot%NULL%1,             Napolitan%Lena%NULL%1,             Jonathan%Lillie%NULL%1,             Gösta%Lotz%NULL%1,             Mark%Lucas%NULL%1,             Lee%Ludwigson%NULL%1,             Jacinta J.%Maas%NULL%1,             Joanna%Maertens%NULL%1,             David%Mast%NULL%1,             Scott%McCardle%NULL%1,             Bernard%McDonald%NULL%1,             Allison%McLarty%NULL%1,             Chelsea%McMahon%NULL%1,             Patrick%Meybohm%NULL%1,             Bart%Meyns%NULL%1,             Casey%Miller%NULL%1,             Fernando%Moraes Neto%NULL%1,             Kelly%Morris%NULL%1,             Ralf%Muellenbach%NULL%1,             Meghan%Nicholson%NULL%1,             Serena%O'Brien%NULL%1,             Kathryn%O'Keefe%NULL%1,             Tawnya%Ogston%NULL%1,             Gary%Oldenburg%NULL%1,             Fabiana M.%Oliveira%NULL%1,             Emily%Oppel%NULL%1,             Diego%Pardo%NULL%2,             Diego%Pardo%NULL%0,             Sara J.%Parker%NULL%1,             Finn M.%Pedersen%NULL%1,             Crescens%Pellecchia%NULL%1,             Jose A.S.%Pelligrini%NULL%1,             Thao T.N.%Pham%NULL%1,             Ann R.%Phillips%NULL%1,             Tasneem%Pirani%NULL%1,             Paweł%Piwowarczyk%NULL%1,             Robert%Plambeck%NULL%1,             William%Pruett%NULL%1,             Brittany%Quandt%NULL%1,             Kollengode%Ramanathan%NULL%1,             Alejandro%Rey%NULL%1,             Christian%Reyher%NULL%1,             Jordi%Riera del Brio%NULL%1,             Rachel%Roberts%NULL%1,             David%Roe%NULL%1,             Peter P.%Roeleveld%NULL%1,             Janet%Rudy%NULL%1,             Luis F.%Rueda%NULL%1,             Emanuele%Russo%NULL%1,             Jesús%Sánchez Ballesteros%NULL%1,             Nancy%Satou%NULL%1,             Mauricio Guidi%Saueressig%NULL%1,             Paul C.%Saunders%NULL%1,             Margaret%Schlotterbeck%NULL%1,             Patricia%Schwarz%NULL%1,             Nicole%Scriven%NULL%1,             Alexis%Serra%NULL%1,             Mohammad%Shamsah%NULL%1,             Lucy%Sim%NULL%1,             Alexandra%Smart%NULL%1,             Adam%Smith%NULL%1,             Deane%Smith%NULL%1,             Maggie%Smith%NULL%1,             Neel%Sodha%NULL%1,             Michael%Sonntagbauer%NULL%1,             Marc%Sorenson%NULL%1,             Eric B%Stallkamp%NULL%1,             Allison%Stewart%NULL%1,             Kathy%Swartz%NULL%1,             Koji%Takeda%NULL%1,             Shaun%Thompson%NULL%1,             Bridget%Toy%NULL%1,             Divina%Tuazon%NULL%1,             Makoto%Uchiyama%NULL%1,             Obiora I.%Udeozo%NULL%1,             Scott%van Poppel%NULL%1,             Corey%Ventetuolo%NULL%1,             Leen%Vercaemst%NULL%1,             Nguyen V.%Vinh Chau%NULL%1,             I-Wen%Wang%NULL%1,             Carrie%Williamson%NULL%1,             Brock%Wilson%NULL%1,             Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,      Xiaoyan%Chen%xref no email%0,      Yanping%Cai%xref no email%0,      Jia\u2019an%Xia%xref no email%0,      Xing%Zhou%xref no email%0,      Sha%Xu%xref no email%0,      Hanping%Huang%xref no email%0,      Li%Zhang%xref no email%0,      Xia%Zhou%xref no email%0,      Chunling%Du%xref no email%0,      Yuye%Zhang%xref no email%0,      Juan%Song%xref no email%0,      Sijiao%Wang%xref no email%0,      Yencheng%Chao%xref no email%0,      Zeyong%Yang%xref no email%0,      Jie%Xu%xref no email%0,      Xin%Zhou%xref no email%0,      Dechang%Chen%xref no email%0,      Weining%Xiong%xref no email%0,      Lei%Xu%xref no email%0,      Feng%Zhou%xref no email%0,      Jinjun%Jiang%xref no email%0,      Chunxue%Bai%xref no email%0,      Junhua%Zheng%xref no email%0,      Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,              Dhaval%Kolte%NULL%1,              Mary E.%Cadigan%NULL%1,              Elizabeth%Laikhter%NULL%1,              Kevin%Sinclair%NULL%1,              Eugene%Pomerantsev%NULL%1,              Michael A.%Fifer%NULL%1,              Thoralf M.%Sundt%NULL%1,              Robert W.%Yeh%NULL%1,              Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,             Cabrini%Luca%coreGivesNoEmail%1,             Castelli%Antonio%coreGivesNoEmail%1,             Cecconi%Maurizio%coreGivesNoEmail%1,             Cereda%Danilo%coreGivesNoEmail%1,             Coluccello%Antonio%coreGivesNoEmail%1,             Foti%Giuseppe%coreGivesNoEmail%1,             Fumagalli%Roberto%coreGivesNoEmail%1,             Grasselli%Giacomo%coreGivesNoEmail%1,             Iotti%Giorgio%coreGivesNoEmail%1,             Latronico%Nicola%coreGivesNoEmail%1,             Lorini%Luca%coreGivesNoEmail%1,             Merler%Stefano%coreGivesNoEmail%1,             Natalini%Giuseppe%coreGivesNoEmail%1,             Pesenti%Antonio%coreGivesNoEmail%1,             Piatti%Alessandra%coreGivesNoEmail%1,             Ranieri%Marco Vito%coreGivesNoEmail%1,             Scandroglio%Anna Mara%coreGivesNoEmail%1,             Storti%Enrico%coreGivesNoEmail%1,             Zanella%Alberto%coreGivesNoEmail%1,             Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,              Yeming%Wang%NULL%0,              Xingwang%Li%NULL%0,              Lili%Ren%NULL%0,              Jianping%Zhao%NULL%0,              Yi%Hu%NULL%0,              Li%Zhang%NULL%0,              Guohui%Fan%NULL%0,              Jiuyang%Xu%NULL%0,              Xiaoying%Gu%NULL%0,              Zhenshun%Cheng%NULL%0,              Ting%Yu%NULL%0,              Jiaan%Xia%NULL%0,              Yuan%Wei%NULL%0,              Wenjuan%Wu%NULL%0,              Xuelei%Xie%NULL%0,              Wen%Yin%NULL%0,              Hui%Li%NULL%0,              Min%Liu%NULL%0,              Yan%Xiao%NULL%0,              Hong%Gao%NULL%0,              Li%Guo%NULL%0,              Jungang%Xie%NULL%0,              Guangfa%Wang%NULL%0,              Rongmeng%Jiang%NULL%0,              Zhancheng%Gao%NULL%0,              Qi%Jin%NULL%0,              Jianwei%Wang%wangjw28@163.com%0,              Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,              Yi%Xiang%NULL%0,              Wei%Fang%NULL%0,              Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,              Boqun%Li%279685211@qq.com%0,              Boqun%Li%279685211@qq.com%0,              Yanjun%Hu%huyanjun@163.com%0,              Chunhui%Lang%NULL%0,              Daoqiu%Huang%NULL%0,              Qiuyan%Sun%NULL%0,              Yan%Xiong%NULL%0,              Xia%Huang%NULL%0,              Jinglong%Lv%NULL%0,              Yaling%Luo%NULL%0,              Li%Shen%NULL%0,              Haoran%Yang%NULL%0,              Gu%Huang%NULL%0,              Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,      Eric%Yim%xref no email%0,      Lindy%Klaff%xref no email%0,      Sharukh%Lokhandwala%xref no email%0,      Francis X.%Riedo%xref no email%0,      Maria%Chong%xref no email%0,      Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,              Mark%Caridi-Scheible%NULL%3,              James M.%Blum%NULL%2,              Chad%Robichaux%NULL%2,              Colleen%Kraft%NULL%2,              Jesse T.%Jacob%NULL%2,              Craig S.%Jabaley%NULL%2,              David%Carpenter%NULL%2,              Roberta%Kaplow%NULL%2,              Alfonso C.%Hernandez-Romieu%NULL%2,              Max W.%Adelman%NULL%2,              Greg S.%Martin%NULL%2,              Craig M.%Coopersmith%NULL%2,              David J.%Murphy%NULL%2,              NULL%NULL%NULL%0,               S.%Auld%null%1,               M.% Caridi-Scheible%null%1,               J. M.% Blum%null%1,               C. J.% Robichaux%null%1,               C. S.% Kraft%null%1,               J. T.% Jacob%null%1,               C. S.% Jabaley%null%1,               D.% Carpenter%null%1,               R.% Kaplow%null%1,               A. C.% Hernandez%null%1,               M. W.% Adelman%null%1,               G. S.% Martin%null%1,               C. M.% Coopersmith%null%1,               D. J.% Murphy%null%1,                 % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,             S.%Auld%null%1,             M.% Caridi-Scheible%null%1,             J. M.% Blum%null%1,             C. J.% Robichaux%null%1,             C. S.% Kraft%null%1,             J. T.% Jacob%null%1,             C. S.% Jabaley%null%1,             D.% Carpenter%null%1,             R.% Kaplow%null%1,             A. C.% Hernandez%null%1,             M. W.% Adelman%null%1,             G. S.% Martin%null%1,             C. M.% Coopersmith%null%1,             D. J.% Murphy%null%1,               % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,              Bijan J.%Ghassemieh%NULL%2,              Michelle%Nichols%NULL%2,              Richard%Kim%NULL%2,              Keith R.%Jerome%NULL%2,              Arun K.%Nalla%NULL%2,              Alexander L.%Greninger%NULL%2,              Sudhakar%Pipavath%NULL%2,              Mark M.%Wurfel%NULL%2,              Laura%Evans%NULL%2,              Patricia A.%Kritek%NULL%2,              T. Eoin%West%NULL%2,              Andrew%Luks%NULL%2,              Anthony%Gerbino%NULL%2,              Chris R.%Dale%NULL%2,              Jason D.%Goldman%NULL%2,              Shane%O’Mahony%NULL%2,              Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,              Tangkai%Qi%NULL%0,              Li%Liu%NULL%0,              Yun%Ling%NULL%0,              Zhiping%Qian%NULL%0,              Tao%Li%NULL%0,              Feng%Li%NULL%0,              Qingnian%Xu%NULL%0,              Yuyi%Zhang%NULL%0,              Shuibao%Xu%NULL%0,              Zhigang%Song%NULL%0,              Yigang%Zeng%NULL%0,              Yinzhong%Shen%NULL%0,              Yuxin%Shi%NULL%0,              Tongyu%Zhu%NULL%0,              Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,              Min%Zhou%NULL%0,              Xuan%Dong%NULL%0,              Jieming%Qu%NULL%0,              Fengyun%Gong%NULL%0,              Yang%Han%NULL%0,              Yang%Qiu%NULL%0,              Jingli%Wang%NULL%0,              Ying%Liu%NULL%0,              Yuan%Wei%NULL%0,              Jia'an%Xia%NULL%0,              Ting%Yu%NULL%0,              Xinxin%Zhang%NULL%0,              Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,              Zheng-yi%Ni%NULL%0,              Zheng-yi%Ni%NULL%0,              Yu%Hu%NULL%0,              Wen-hua%Liang%NULL%0,              Chun-quan%Ou%NULL%0,              Jian-xing%He%NULL%0,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chun-liang%Lei%NULL%0,              David S.C.%Hui%NULL%0,              Bin%Du%NULL%0,              Lan-juan%Li%NULL%0,              Guang%Zeng%NULL%0,              Kwok-Yung%Yuen%NULL%0,              Ru-chong%Chen%NULL%0,              Chun-li%Tang%NULL%0,              Tao%Wang%NULL%0,              Ping-yan%Chen%NULL%0,              Jie%Xiang%NULL%0,              Shi-yue%Li%NULL%0,              Jin-lin%Wang%NULL%0,              Zi-jing%Liang%NULL%0,              Yi-xiang%Peng%NULL%0,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Ya-hua%Hu%NULL%0,              Peng%Peng%NULL%0,              Jian-ming%Wang%NULL%0,              Ji-yang%Liu%NULL%0,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhi-jian%Zheng%NULL%0,              Shao-qin%Qiu%NULL%0,              Jie%Luo%NULL%0,              Chang-jiang%Ye%NULL%0,              Shao-yong%Zhu%NULL%0,              Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,              Yuanyuan%Xing%NULL%0,              Yu%Xiao%NULL%0,              Liping%Deng%NULL%0,              Qiu%Zhao%NULL%0,              Hongling%Wang%NULL%0,              Yong%Xiong%NULL%0,              Zhenshun%Cheng%NULL%0,              Shicheng%Gao%NULL%0,              Ke%Liang%NULL%0,              Mingqi%Luo%NULL%0,              Tielong%Chen%NULL%0,              Shihui%Song%NULL%0,              Zhiyong%Ma%NULL%0,              Xiaoping%Chen%NULL%0,              Ruiying%Zheng%NULL%0,              Qian%Cao%NULL%0,              Fan%Wang%fanndywang@foxmail.com%0,              Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,              N -B%Yang%NULL%0,              F%Ding%NULL%0,              A H Y%Ma%NULL%0,              Z -Y%Wang%NULL%0,              Y -F%Shen%NULL%0,              C -W%Shi%NULL%0,              X%Lian%NULL%0,              J -G%Chu%NULL%0,              L%Chen%chxmin@hotmail.com%0,              Z -Y%Wang%NULL%0,              D -W%Ren%NULL%0,              G -X%Li%NULL%0,              X -Q%Chen%chxmin@hotmail.com%0,              H -J%Shen%NULL%0,              X -M%Chen%chxmin@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,              Hugues%Spillemaeker%NULL%1,              Maéva%Kyheng%NULL%1,              Cassandre%Belin‐Vincent%NULL%1,              Cédric%Delhaye%NULL%1,              Adeline%Piérache%NULL%1,              Tom%Denimal%NULL%1,              Basile%Verdier%NULL%1,              Nicolas%Debry%NULL%1,              Mouhamed%Moussa%NULL%1,              Guillaume%Schurtz%NULL%1,              Sina%Porouchani%NULL%1,              Alessandro%Cosenza%NULL%1,              Francis%Juthier%NULL%1,              Thibault%Pamart%NULL%1,              Marjorie%Richardson%NULL%1,              Augustin%Coisne%NULL%1,              Adrien%Hertault%NULL%1,              Jonathan%Sobocinski%NULL%1,              Thomas%Modine%NULL%1,              François%Pontana%NULL%1,              Alain%Duhamel%NULL%2,              Julien%Labreuche%NULL%2,              Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,             Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,             Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,             Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,              Yimei%Yin%18256985@qq.com%1,              Chang%Hu%1391369733@qq.com%3,              Xing%Liu%375117565@qq.com%1,              Xingguo%Zhang%zhangxinguo7909@163.com%1,              Shuliang%Zhou%350925556@qq.com%1,              Mingzhi%Jian%Jmzhak@aliyun.com%1,              Haibo%Xu%xuhaibo1120@hotmail.com%0,              John%Prowle%j.prowle@qmul.ac.uk%1,              Bo%Hu%hobbier1979@163.com%0,              Yirong%Li%liyirong838@163.com%1,              Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wentao%Xu%xref no email%1,      Shuang%Qu%xref no email%1,      Mengying%Xing%xref no email%1,      Ming%Zhang%xref no email%1,      Geng%Lu%xref no email%1,      Zhicong%Liao%xref no email%1,      Kimberly%Griffin%xref no email%1,      Jun%Wang%xref no email%1,      Ke%Zen%xref no email%1,      Bing%Yao%xref no email%1,      Hongwei%Liang%xref no email%1,      Jianping%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,              Xiao-Xin%Wu%NULL%0,              Xian-Gao%Jiang%NULL%0,              Kai-Jin%Xu%NULL%0,              Ling-Jun%Ying%NULL%0,              Chun-Lian%Ma%NULL%0,              Shi-Bo%Li%NULL%0,              Hua-Ying%Wang%NULL%0,              Sheng%Zhang%NULL%0,              Hai-Nv%Gao%NULL%0,              Ji-Fang%Sheng%NULL%0,              Hong-Liu%Cai%NULL%0,              Yun-Qing%Qiu%NULL%0,              Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,              Chang%Hu%NULL%0,              Linjie%Luo%NULL%2,              Fang%Fang%NULL%0,              Yongfeng%Chen%NULL%2,              Jianguo%Li%NULL%2,              Zhiyong%Peng%NULL%0,              Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,              Chun%Liao%lc7spring@163.com%1,              Qi-hong%Fan%1187286305@qq.com%1,              Hong-bo%Chen%hbchen@hust.edu.cn%1,              Xue-gong%Zhao%NULL%1,              Zhong-guo%Xie%NULL%1,              Xi-lin%Li%NULL%1,              Chun-xi%Chen%NULL%1,              Xiao-xia%Lu%NULL%1,              Zhi-sheng%Liu%NULL%1,              Wei%Lu%NULL%1,              Chun-bao%Chen%NULL%1,              Rong%Jiao%NULL%1,              Ai-ming%Zhang%NULL%1,              Jin-tang%Wang%NULL%1,              Xi-wei%Ding%NULL%1,              Yao-guang%Zeng%NULL%1,              Li-ping%Cheng%NULL%1,              Qing-feng%Huang%NULL%1,              Jiang%Wu%NULL%0,              Xi-chang%Luo%NULL%1,              Zhu-jun%Wang%NULL%1,              Yan-yan%Zhong%NULL%1,              Yan%Bai%yanbaixh@hust.edu.cn%1,              Xiao-yan%Wu%xwu@hust.edu.cn%1,              Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,              Ting%Yu%NULL%0,              Ronghui%Du%NULL%0,              Guohui%Fan%NULL%0,              Ying%Liu%NULL%0,              Zhibo%Liu%NULL%0,              Jie%Xiang%NULL%0,              Yeming%Wang%NULL%0,              Bin%Song%NULL%0,              Xiaoying%Gu%NULL%0,              Lulu%Guan%NULL%0,              Yuan%Wei%NULL%0,              Hui%Li%NULL%0,              Xudong%Wu%NULL%0,              Jiuyang%Xu%NULL%0,              Shengjin%Tu%NULL%0,              Yi%Zhang%NULL%0,              Hua%Chen%NULL%0,              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,              Mengqi%Tu%NULL%0,              Shipei%Wang%NULL%0,              Sichao%Chen%NULL%0,              Wei%Zhou%NULL%0,              Danyang%Chen%NULL%0,              Lin%Zhou%NULL%0,              Min%Wang%NULL%0,              Yan%Zhao%NULL%0,              Wen%Zeng%NULL%0,              Qi%Huang%NULL%0,              Hai'bo%Xu%NULL%0,              Zeming%Liu%NULL%0,              Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,              Yuan%Yu%NULL%0,              Jiqian%Xu%NULL%0,              Huaqing%Shu%NULL%0,              Jia'an%Xia%NULL%0,              Hong%Liu%NULL%0,              Yongran%Wu%NULL%0,              Lu%Zhang%NULL%0,              Zhui%Yu%NULL%0,              Minghao%Fang%NULL%0,              Ting%Yu%NULL%0,              Yaxin%Wang%NULL%0,              Shangwen%Pan%NULL%0,              Xiaojing%Zou%NULL%0,              Shiying%Yuan%NULL%0,              You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,              Wei-jie%Guan%NULL%2,              Cai-chen%Li%NULL%3,              Yi-min%Li%NULL%3,              Heng-rui%Liang%NULL%3,              Yi%Zhao%NULL%3,              Xiao-qing%Liu%NULL%3,              Ling%Sang%NULL%0,              Ru-chong%Chen%NULL%0,              Chun-li%Tang%NULL%0,              Tao%Wang%NULL%0,              Wei%Wang%NULL%0,              Qi-hua%He%NULL%2,              Zi-sheng%Chen%NULL%3,              Sook-San%Wong%NULL%2,              Mark%Zanin%NULL%2,              Jun%Liu%NULL%0,              Xin%Xu%NULL%0,              Jun%Huang%NULL%2,              Jian-fu%Li%NULL%3,              Li-min%Ou%NULL%3,              Bo%Cheng%NULL%3,              Shan%Xiong%NULL%3,              Zhan-hong%Xie%NULL%2,              Zheng-yi%Ni%NULL%0,              Yu%Hu%NULL%0,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chun-liang%Lei%NULL%0,              Yi-xiang%Peng%NULL%0,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Ya-hua%Hu%NULL%0,              Peng%Peng%NULL%0,              Jian-ming%Wang%NULL%0,              Ji-yang%Liu%NULL%0,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhi-jian%Zheng%NULL%0,              Shao-qin%Qiu%NULL%0,              Jie%Luo%NULL%0,              Chang-jiang%Ye%NULL%0,              Shao-yong%Zhu%NULL%0,              Lin-ling%Cheng%NULL%3,              Feng%Ye%NULL%5,              Shi-yue%Li%NULL%0,              Jin-ping%Zheng%NULL%3,              Nuo-fu%Zhang%NULL%3,              Nan-shan%Zhong%NULL%0,              Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,              Simon A%Jones%NULL%1,              Jie%Yang%NULL%0,              Harish%Rajagopalan%NULL%1,              Luke%O’Donnell%NULL%1,              Yelena%Chernyak%NULL%1,              Katie A%Tobin%NULL%1,              Robert J%Cerfolio%NULL%1,              Fritz%Francois%NULL%1,              Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0,              Stephanie%Bialek%NULL%1,              Ellen%Boundy%NULL%1,              Virginia%Bowen%NULL%1,              Nancy%Chow%NULL%2,              Amanda%Cohn%NULL%1,              Nicole%Dowling%NULL%1,              Sascha%Ellington%NULL%1,              Ryan%Gierke%NULL%2,              Aron%Hall%NULL%2,              Jessica%MacNeil%NULL%1,              Priti%Patel%NULL%1,              Georgina%Peacock%NULL%1,              Tamara%Pilishvili%NULL%2,              Hilda%Razzaghi%NULL%1,              Nia%Reed%NULL%1,              Matthew%Ritchey%NULL%2,              Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,              Pedro%Póvoa%NULL%1,              Vicente%Souza-Dantas%NULL%1,              André C.%Kalil%NULL%1,              Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,              Graeme%MacLaren%NULL%1,              Philip S%Boonstra%NULL%1,              Theodore J%Iwashyna%NULL%1,              Arthur S%Slutsky%NULL%1,              Eddy%Fan%NULL%1,              Robert H%Bartlett%NULL%1,              Joseph E%Tonna%NULL%1,              Robert%Hyslop%NULL%1,              Jeffrey J%Fanning%NULL%1,              Peter T%Rycus%NULL%1,              Steve J%Hyer%NULL%1,              Marc M%Anders%NULL%1,              Cara L%Agerstrand%NULL%1,              Katarzyna%Hryniewicz%NULL%1,              Rodrigo%Diaz%NULL%1,              Roberto%Lorusso%NULL%1,              Alain%Combes%NULL%1,              Daniel%Brodie%NULL%4,              Peta%Alexander%NULL%1,              Nicholas%Barrett%NULL%1,              Jan%Bělohlávek%NULL%1,              Dale%Fisher%NULL%1,              John%Fraser%NULL%1,              Ali Ait%Hssain%NULL%1,              Jae Sung%Jung%NULL%1,              Michael%McMullan%NULL%1,              Yatin%Mehta%NULL%1,              Mark T.%Ogino%NULL%1,              Matthew L.%Paden%NULL%1,              Kiran%Shekar%NULL%1,              Christine%Stead%NULL%1,              Yasir%Abu-Omar%NULL%1,              Vanni%Agnoletti%NULL%1,              Anzila%Akbar%NULL%1,              Huda%Alfoudri%NULL%1,              Carlos%Alviar%NULL%1,              Vladimir%Aronsky%NULL%1,              Erin%August%NULL%1,              Georg%Auzinger%NULL%1,              Hilda%Aveja%NULL%1,              Rhonda%Bakken%NULL%1,              Joan%Balcells%NULL%1,              Sripal%Bangalore%NULL%1,              Bernard W.%Barnes%NULL%1,              Alaiza%Bautista%NULL%1,              Lorraine L.%Bellows%NULL%1,              Felipe%Beltran%NULL%1,              Peyman%Benharash%NULL%1,              Marco%Benni%NULL%1,              Jennifer%Berg%NULL%1,              Pietro%Bertini%NULL%1,              Pablo%Blanco-Schweizer%NULL%1,              Melissa%Brunsvold%NULL%1,              Jenny%Budd%NULL%1,              Debra%Camp%NULL%1,              Mark%Caridi-Scheible%NULL%0,              Edmund%Carton%NULL%1,              Elena%Casanova-Ghosh%NULL%1,              Anthony%Castleberry%NULL%1,              Christopher T.%Chipongian%NULL%1,              Chang Woo%Choi%NULL%1,              Alessandro%Circelli%NULL%1,              Elliott%Cohen%NULL%1,              Michael%Collins%NULL%1,              Scott%Copus%NULL%1,              Jill%Coy%NULL%1,              Brandon%Crist%NULL%1,              Leonora%Cruz%NULL%1,              Mirosław%Czuczwar%NULL%1,              Mani%Daneshmand%NULL%1,              Daniel%Davis II%NULL%1,              Kim%De la Cruz%NULL%1,              Cyndie%Devers%NULL%1,              Toni%Duculan%NULL%1,              Lucian%Durham%NULL%1,              Subbarao%Elapavaluru%NULL%1,              Carlos V.%Elzo Kraemer%NULL%1,              EDMÍLSON CARDOSO%Filho%NULL%1,              Jillian%Fitzgerald%NULL%1,              Giuseppe%Foti%NULL%1,              Matthew%Fox%NULL%1,              David%Fritschen%NULL%1,              David%Fullerton%NULL%1,              Elton%Gelandt%NULL%1,              Stacy%Gerle%NULL%1,              Marco%Giani%NULL%1,              Si Guim%Goh%NULL%1,              Sara%Govener%NULL%1,              Julie%Grone%NULL%1,              Miles%Guber%NULL%1,              Vadim%Gudzenko%NULL%1,              Daniel%Gutteridge%NULL%1,              Jennifer%Guy%NULL%1,              Jonathan%Haft%NULL%1,              Cameron%Hall%NULL%1,              Ibrahim Fawzy%Hassan%NULL%1,              Rubén%Herrán%NULL%1,              Hitoshi%Hirose%NULL%1,              Abdulsalam Saif%Ibrahim%NULL%1,              Don%Igielski%NULL%1,              Felicia A.%Ivascu%NULL%1,              Jaume%Izquierdo Blasco%NULL%1,              Julie%Jackson%NULL%1,              Harsh%Jain%NULL%1,              Bhavini%Jaiswal%NULL%1,              Andrea C.%Johnson%NULL%1,              Jenniver A.%Jurynec%NULL%1,              Norma M%Kellter%NULL%1,              Adam%Kohl%NULL%1,              Zachary%Kon%NULL%1,              Markus%Kredel%NULL%1,              Karen%Kriska%NULL%1,              Chandra%Kunavarapu%NULL%1,              Oude%Lansink-Hartgring%NULL%1,              Jeliene%LaRocque%NULL%1,              Sharon Beth%Larson%NULL%1,              Tracie%Layne%NULL%1,              Stephane%Ledot%NULL%1,              Napolitan%Lena%NULL%1,              Jonathan%Lillie%NULL%1,              Gösta%Lotz%NULL%1,              Mark%Lucas%NULL%1,              Lee%Ludwigson%NULL%1,              Jacinta J.%Maas%NULL%1,              Joanna%Maertens%NULL%1,              David%Mast%NULL%1,              Scott%McCardle%NULL%1,              Bernard%McDonald%NULL%1,              Allison%McLarty%NULL%1,              Chelsea%McMahon%NULL%1,              Patrick%Meybohm%NULL%1,              Bart%Meyns%NULL%1,              Casey%Miller%NULL%1,              Fernando%Moraes Neto%NULL%1,              Kelly%Morris%NULL%1,              Ralf%Muellenbach%NULL%1,              Meghan%Nicholson%NULL%1,              Serena%O'Brien%NULL%1,              Kathryn%O'Keefe%NULL%1,              Tawnya%Ogston%NULL%1,              Gary%Oldenburg%NULL%1,              Fabiana M.%Oliveira%NULL%1,              Emily%Oppel%NULL%1,              Diego%Pardo%NULL%2,              Diego%Pardo%NULL%0,              Sara J.%Parker%NULL%1,              Finn M.%Pedersen%NULL%1,              Crescens%Pellecchia%NULL%1,              Jose A.S.%Pelligrini%NULL%1,              Thao T.N.%Pham%NULL%1,              Ann R.%Phillips%NULL%1,              Tasneem%Pirani%NULL%1,              Paweł%Piwowarczyk%NULL%1,              Robert%Plambeck%NULL%1,              William%Pruett%NULL%1,              Brittany%Quandt%NULL%1,              Kollengode%Ramanathan%NULL%1,              Alejandro%Rey%NULL%1,              Christian%Reyher%NULL%1,              Jordi%Riera del Brio%NULL%1,              Rachel%Roberts%NULL%1,              David%Roe%NULL%1,              Peter P.%Roeleveld%NULL%1,              Janet%Rudy%NULL%1,              Luis F.%Rueda%NULL%1,              Emanuele%Russo%NULL%1,              Jesús%Sánchez Ballesteros%NULL%1,              Nancy%Satou%NULL%1,              Mauricio Guidi%Saueressig%NULL%1,              Paul C.%Saunders%NULL%1,              Margaret%Schlotterbeck%NULL%1,              Patricia%Schwarz%NULL%1,              Nicole%Scriven%NULL%1,              Alexis%Serra%NULL%1,              Mohammad%Shamsah%NULL%1,              Lucy%Sim%NULL%1,              Alexandra%Smart%NULL%1,              Adam%Smith%NULL%1,              Deane%Smith%NULL%1,              Maggie%Smith%NULL%1,              Neel%Sodha%NULL%1,              Michael%Sonntagbauer%NULL%1,              Marc%Sorenson%NULL%1,              Eric B%Stallkamp%NULL%1,              Allison%Stewart%NULL%1,              Kathy%Swartz%NULL%1,              Koji%Takeda%NULL%1,              Shaun%Thompson%NULL%1,              Bridget%Toy%NULL%1,              Divina%Tuazon%NULL%1,              Makoto%Uchiyama%NULL%1,              Obiora I.%Udeozo%NULL%1,              Scott%van Poppel%NULL%1,              Corey%Ventetuolo%NULL%1,              Leen%Vercaemst%NULL%1,              Nguyen V.%Vinh Chau%NULL%1,              I-Wen%Wang%NULL%1,              Carrie%Williamson%NULL%1,              Brock%Wilson%NULL%1,              Helen%Winkels%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1908,7 +2100,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1937,7 +2129,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -1966,7 +2158,7 @@
         <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1995,7 +2187,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2024,7 +2216,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -2053,7 +2245,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2082,7 +2274,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2111,7 +2303,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>359</v>
+        <v>416</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2140,7 +2332,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -2169,7 +2361,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -2198,7 +2390,7 @@
         <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2227,7 +2419,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -2256,7 +2448,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -2285,7 +2477,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -2314,7 +2506,7 @@
         <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -2340,10 +2532,10 @@
         <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>395</v>
       </c>
       <c r="E17" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="F17" t="s">
         <v>86</v>
@@ -2372,7 +2564,7 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -2401,7 +2593,7 @@
         <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
@@ -2430,7 +2622,7 @@
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -2459,7 +2651,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="F21" t="s">
         <v>98</v>
@@ -2488,7 +2680,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="F22" t="s">
         <v>101</v>
@@ -2517,7 +2709,7 @@
         <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>373</v>
+        <v>430</v>
       </c>
       <c r="F23" t="s">
         <v>104</v>
@@ -2546,7 +2738,7 @@
         <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>374</v>
+        <v>431</v>
       </c>
       <c r="F24" t="s">
         <v>108</v>
@@ -2575,7 +2767,7 @@
         <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>375</v>
+        <v>432</v>
       </c>
       <c r="F25" t="s">
         <v>111</v>
@@ -2604,7 +2796,7 @@
         <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>376</v>
+        <v>433</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -2633,7 +2825,7 @@
         <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>377</v>
+        <v>434</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -2662,7 +2854,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>378</v>
+        <v>435</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
@@ -2691,7 +2883,7 @@
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="F29" t="s">
         <v>125</v>

--- a/Covid_19_Dataset_and_References/References/48.xlsx
+++ b/Covid_19_Dataset_and_References/References/48.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="465">
   <si>
     <t>Doi</t>
   </si>
@@ -1748,6 +1748,90 @@
   </si>
   <si>
     <t>[Ryan P%Barbaro%NULL%2,              Graeme%MacLaren%NULL%1,              Philip S%Boonstra%NULL%1,              Theodore J%Iwashyna%NULL%1,              Arthur S%Slutsky%NULL%1,              Eddy%Fan%NULL%1,              Robert H%Bartlett%NULL%1,              Joseph E%Tonna%NULL%1,              Robert%Hyslop%NULL%1,              Jeffrey J%Fanning%NULL%1,              Peter T%Rycus%NULL%1,              Steve J%Hyer%NULL%1,              Marc M%Anders%NULL%1,              Cara L%Agerstrand%NULL%1,              Katarzyna%Hryniewicz%NULL%1,              Rodrigo%Diaz%NULL%1,              Roberto%Lorusso%NULL%1,              Alain%Combes%NULL%1,              Daniel%Brodie%NULL%4,              Peta%Alexander%NULL%1,              Nicholas%Barrett%NULL%1,              Jan%Bělohlávek%NULL%1,              Dale%Fisher%NULL%1,              John%Fraser%NULL%1,              Ali Ait%Hssain%NULL%1,              Jae Sung%Jung%NULL%1,              Michael%McMullan%NULL%1,              Yatin%Mehta%NULL%1,              Mark T.%Ogino%NULL%1,              Matthew L.%Paden%NULL%1,              Kiran%Shekar%NULL%1,              Christine%Stead%NULL%1,              Yasir%Abu-Omar%NULL%1,              Vanni%Agnoletti%NULL%1,              Anzila%Akbar%NULL%1,              Huda%Alfoudri%NULL%1,              Carlos%Alviar%NULL%1,              Vladimir%Aronsky%NULL%1,              Erin%August%NULL%1,              Georg%Auzinger%NULL%1,              Hilda%Aveja%NULL%1,              Rhonda%Bakken%NULL%1,              Joan%Balcells%NULL%1,              Sripal%Bangalore%NULL%1,              Bernard W.%Barnes%NULL%1,              Alaiza%Bautista%NULL%1,              Lorraine L.%Bellows%NULL%1,              Felipe%Beltran%NULL%1,              Peyman%Benharash%NULL%1,              Marco%Benni%NULL%1,              Jennifer%Berg%NULL%1,              Pietro%Bertini%NULL%1,              Pablo%Blanco-Schweizer%NULL%1,              Melissa%Brunsvold%NULL%1,              Jenny%Budd%NULL%1,              Debra%Camp%NULL%1,              Mark%Caridi-Scheible%NULL%0,              Edmund%Carton%NULL%1,              Elena%Casanova-Ghosh%NULL%1,              Anthony%Castleberry%NULL%1,              Christopher T.%Chipongian%NULL%1,              Chang Woo%Choi%NULL%1,              Alessandro%Circelli%NULL%1,              Elliott%Cohen%NULL%1,              Michael%Collins%NULL%1,              Scott%Copus%NULL%1,              Jill%Coy%NULL%1,              Brandon%Crist%NULL%1,              Leonora%Cruz%NULL%1,              Mirosław%Czuczwar%NULL%1,              Mani%Daneshmand%NULL%1,              Daniel%Davis II%NULL%1,              Kim%De la Cruz%NULL%1,              Cyndie%Devers%NULL%1,              Toni%Duculan%NULL%1,              Lucian%Durham%NULL%1,              Subbarao%Elapavaluru%NULL%1,              Carlos V.%Elzo Kraemer%NULL%1,              EDMÍLSON CARDOSO%Filho%NULL%1,              Jillian%Fitzgerald%NULL%1,              Giuseppe%Foti%NULL%1,              Matthew%Fox%NULL%1,              David%Fritschen%NULL%1,              David%Fullerton%NULL%1,              Elton%Gelandt%NULL%1,              Stacy%Gerle%NULL%1,              Marco%Giani%NULL%1,              Si Guim%Goh%NULL%1,              Sara%Govener%NULL%1,              Julie%Grone%NULL%1,              Miles%Guber%NULL%1,              Vadim%Gudzenko%NULL%1,              Daniel%Gutteridge%NULL%1,              Jennifer%Guy%NULL%1,              Jonathan%Haft%NULL%1,              Cameron%Hall%NULL%1,              Ibrahim Fawzy%Hassan%NULL%1,              Rubén%Herrán%NULL%1,              Hitoshi%Hirose%NULL%1,              Abdulsalam Saif%Ibrahim%NULL%1,              Don%Igielski%NULL%1,              Felicia A.%Ivascu%NULL%1,              Jaume%Izquierdo Blasco%NULL%1,              Julie%Jackson%NULL%1,              Harsh%Jain%NULL%1,              Bhavini%Jaiswal%NULL%1,              Andrea C.%Johnson%NULL%1,              Jenniver A.%Jurynec%NULL%1,              Norma M%Kellter%NULL%1,              Adam%Kohl%NULL%1,              Zachary%Kon%NULL%1,              Markus%Kredel%NULL%1,              Karen%Kriska%NULL%1,              Chandra%Kunavarapu%NULL%1,              Oude%Lansink-Hartgring%NULL%1,              Jeliene%LaRocque%NULL%1,              Sharon Beth%Larson%NULL%1,              Tracie%Layne%NULL%1,              Stephane%Ledot%NULL%1,              Napolitan%Lena%NULL%1,              Jonathan%Lillie%NULL%1,              Gösta%Lotz%NULL%1,              Mark%Lucas%NULL%1,              Lee%Ludwigson%NULL%1,              Jacinta J.%Maas%NULL%1,              Joanna%Maertens%NULL%1,              David%Mast%NULL%1,              Scott%McCardle%NULL%1,              Bernard%McDonald%NULL%1,              Allison%McLarty%NULL%1,              Chelsea%McMahon%NULL%1,              Patrick%Meybohm%NULL%1,              Bart%Meyns%NULL%1,              Casey%Miller%NULL%1,              Fernando%Moraes Neto%NULL%1,              Kelly%Morris%NULL%1,              Ralf%Muellenbach%NULL%1,              Meghan%Nicholson%NULL%1,              Serena%O'Brien%NULL%1,              Kathryn%O'Keefe%NULL%1,              Tawnya%Ogston%NULL%1,              Gary%Oldenburg%NULL%1,              Fabiana M.%Oliveira%NULL%1,              Emily%Oppel%NULL%1,              Diego%Pardo%NULL%2,              Diego%Pardo%NULL%0,              Sara J.%Parker%NULL%1,              Finn M.%Pedersen%NULL%1,              Crescens%Pellecchia%NULL%1,              Jose A.S.%Pelligrini%NULL%1,              Thao T.N.%Pham%NULL%1,              Ann R.%Phillips%NULL%1,              Tasneem%Pirani%NULL%1,              Paweł%Piwowarczyk%NULL%1,              Robert%Plambeck%NULL%1,              William%Pruett%NULL%1,              Brittany%Quandt%NULL%1,              Kollengode%Ramanathan%NULL%1,              Alejandro%Rey%NULL%1,              Christian%Reyher%NULL%1,              Jordi%Riera del Brio%NULL%1,              Rachel%Roberts%NULL%1,              David%Roe%NULL%1,              Peter P.%Roeleveld%NULL%1,              Janet%Rudy%NULL%1,              Luis F.%Rueda%NULL%1,              Emanuele%Russo%NULL%1,              Jesús%Sánchez Ballesteros%NULL%1,              Nancy%Satou%NULL%1,              Mauricio Guidi%Saueressig%NULL%1,              Paul C.%Saunders%NULL%1,              Margaret%Schlotterbeck%NULL%1,              Patricia%Schwarz%NULL%1,              Nicole%Scriven%NULL%1,              Alexis%Serra%NULL%1,              Mohammad%Shamsah%NULL%1,              Lucy%Sim%NULL%1,              Alexandra%Smart%NULL%1,              Adam%Smith%NULL%1,              Deane%Smith%NULL%1,              Maggie%Smith%NULL%1,              Neel%Sodha%NULL%1,              Michael%Sonntagbauer%NULL%1,              Marc%Sorenson%NULL%1,              Eric B%Stallkamp%NULL%1,              Allison%Stewart%NULL%1,              Kathy%Swartz%NULL%1,              Koji%Takeda%NULL%1,              Shaun%Thompson%NULL%1,              Bridget%Toy%NULL%1,              Divina%Tuazon%NULL%1,              Makoto%Uchiyama%NULL%1,              Obiora I.%Udeozo%NULL%1,              Scott%van Poppel%NULL%1,              Corey%Ventetuolo%NULL%1,              Leen%Vercaemst%NULL%1,              Nguyen V.%Vinh Chau%NULL%1,              I-Wen%Wang%NULL%1,              Carrie%Williamson%NULL%1,              Brock%Wilson%NULL%1,              Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,       Xiaoyan%Chen%xref no email%0,       Yanping%Cai%xref no email%0,       Jia\u2019an%Xia%xref no email%0,       Xing%Zhou%xref no email%0,       Sha%Xu%xref no email%0,       Hanping%Huang%xref no email%0,       Li%Zhang%xref no email%0,       Xia%Zhou%xref no email%0,       Chunling%Du%xref no email%0,       Yuye%Zhang%xref no email%0,       Juan%Song%xref no email%0,       Sijiao%Wang%xref no email%0,       Yencheng%Chao%xref no email%0,       Zeyong%Yang%xref no email%0,       Jie%Xu%xref no email%0,       Xin%Zhou%xref no email%0,       Dechang%Chen%xref no email%0,       Weining%Xiong%xref no email%0,       Lei%Xu%xref no email%0,       Feng%Zhou%xref no email%0,       Jinjun%Jiang%xref no email%0,       Chunxue%Bai%xref no email%0,       Junhua%Zheng%xref no email%0,       Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,               Dhaval%Kolte%NULL%1,               Mary E.%Cadigan%NULL%1,               Elizabeth%Laikhter%NULL%1,               Kevin%Sinclair%NULL%1,               Eugene%Pomerantsev%NULL%1,               Michael A.%Fifer%NULL%1,               Thoralf M.%Sundt%NULL%1,               Robert W.%Yeh%NULL%1,               Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,              Cabrini%Luca%coreGivesNoEmail%1,              Castelli%Antonio%coreGivesNoEmail%1,              Cecconi%Maurizio%coreGivesNoEmail%1,              Cereda%Danilo%coreGivesNoEmail%1,              Coluccello%Antonio%coreGivesNoEmail%1,              Foti%Giuseppe%coreGivesNoEmail%1,              Fumagalli%Roberto%coreGivesNoEmail%1,              Grasselli%Giacomo%coreGivesNoEmail%1,              Iotti%Giorgio%coreGivesNoEmail%1,              Latronico%Nicola%coreGivesNoEmail%1,              Lorini%Luca%coreGivesNoEmail%1,              Merler%Stefano%coreGivesNoEmail%1,              Natalini%Giuseppe%coreGivesNoEmail%1,              Pesenti%Antonio%coreGivesNoEmail%1,              Piatti%Alessandra%coreGivesNoEmail%1,              Ranieri%Marco Vito%coreGivesNoEmail%1,              Scandroglio%Anna Mara%coreGivesNoEmail%1,              Storti%Enrico%coreGivesNoEmail%1,              Zanella%Alberto%coreGivesNoEmail%1,              Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,               Yeming%Wang%NULL%0,               Xingwang%Li%NULL%0,               Lili%Ren%NULL%0,               Jianping%Zhao%NULL%0,               Yi%Hu%NULL%0,               Li%Zhang%NULL%0,               Guohui%Fan%NULL%0,               Jiuyang%Xu%NULL%0,               Xiaoying%Gu%NULL%0,               Zhenshun%Cheng%NULL%0,               Ting%Yu%NULL%0,               Jiaan%Xia%NULL%0,               Yuan%Wei%NULL%0,               Wenjuan%Wu%NULL%0,               Xuelei%Xie%NULL%0,               Wen%Yin%NULL%0,               Hui%Li%NULL%0,               Min%Liu%NULL%0,               Yan%Xiao%NULL%0,               Hong%Gao%NULL%0,               Li%Guo%NULL%0,               Jungang%Xie%NULL%0,               Guangfa%Wang%NULL%0,               Rongmeng%Jiang%NULL%0,               Zhancheng%Gao%NULL%0,               Qi%Jin%NULL%0,               Jianwei%Wang%wangjw28@163.com%0,               Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,               Yi%Xiang%NULL%0,               Wei%Fang%NULL%0,               Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,               Boqun%Li%279685211@qq.com%0,               Boqun%Li%279685211@qq.com%0,               Yanjun%Hu%huyanjun@163.com%0,               Chunhui%Lang%NULL%0,               Daoqiu%Huang%NULL%0,               Qiuyan%Sun%NULL%0,               Yan%Xiong%NULL%0,               Xia%Huang%NULL%0,               Jinglong%Lv%NULL%0,               Yaling%Luo%NULL%0,               Li%Shen%NULL%0,               Haoran%Yang%NULL%0,               Gu%Huang%NULL%0,               Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,       Eric%Yim%xref no email%0,       Lindy%Klaff%xref no email%0,       Sharukh%Lokhandwala%xref no email%0,       Francis X.%Riedo%xref no email%0,       Maria%Chong%xref no email%0,       Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,               Mark%Caridi-Scheible%NULL%3,               James M.%Blum%NULL%2,               Chad%Robichaux%NULL%2,               Colleen%Kraft%NULL%2,               Jesse T.%Jacob%NULL%2,               Craig S.%Jabaley%NULL%2,               David%Carpenter%NULL%2,               Roberta%Kaplow%NULL%2,               Alfonso C.%Hernandez-Romieu%NULL%2,               Max W.%Adelman%NULL%2,               Greg S.%Martin%NULL%2,               Craig M.%Coopersmith%NULL%2,               David J.%Murphy%NULL%2,               NULL%NULL%NULL%0,                S.%Auld%null%1,                M.% Caridi-Scheible%null%1,                J. M.% Blum%null%1,                C. J.% Robichaux%null%1,                C. S.% Kraft%null%1,                J. T.% Jacob%null%1,                C. S.% Jabaley%null%1,                D.% Carpenter%null%1,                R.% Kaplow%null%1,                A. C.% Hernandez%null%1,                M. W.% Adelman%null%1,                G. S.% Martin%null%1,                C. M.% Coopersmith%null%1,                D. J.% Murphy%null%1,                  % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,              S.%Auld%null%1,              M.% Caridi-Scheible%null%1,              J. M.% Blum%null%1,              C. J.% Robichaux%null%1,              C. S.% Kraft%null%1,              J. T.% Jacob%null%1,              C. S.% Jabaley%null%1,              D.% Carpenter%null%1,              R.% Kaplow%null%1,              A. C.% Hernandez%null%1,              M. W.% Adelman%null%1,              G. S.% Martin%null%1,              C. M.% Coopersmith%null%1,              D. J.% Murphy%null%1,                % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,               Bijan J.%Ghassemieh%NULL%2,               Michelle%Nichols%NULL%2,               Richard%Kim%NULL%2,               Keith R.%Jerome%NULL%2,               Arun K.%Nalla%NULL%2,               Alexander L.%Greninger%NULL%2,               Sudhakar%Pipavath%NULL%2,               Mark M.%Wurfel%NULL%2,               Laura%Evans%NULL%2,               Patricia A.%Kritek%NULL%2,               T. Eoin%West%NULL%2,               Andrew%Luks%NULL%2,               Anthony%Gerbino%NULL%2,               Chris R.%Dale%NULL%2,               Jason D.%Goldman%NULL%2,               Shane%O’Mahony%NULL%2,               Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,               Tangkai%Qi%NULL%0,               Li%Liu%NULL%0,               Yun%Ling%NULL%0,               Zhiping%Qian%NULL%0,               Tao%Li%NULL%0,               Feng%Li%NULL%0,               Qingnian%Xu%NULL%0,               Yuyi%Zhang%NULL%0,               Shuibao%Xu%NULL%0,               Zhigang%Song%NULL%0,               Yigang%Zeng%NULL%0,               Yinzhong%Shen%NULL%0,               Yuxin%Shi%NULL%0,               Tongyu%Zhu%NULL%0,               Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,               Min%Zhou%NULL%0,               Xuan%Dong%NULL%0,               Jieming%Qu%NULL%0,               Fengyun%Gong%NULL%0,               Yang%Han%NULL%0,               Yang%Qiu%NULL%0,               Jingli%Wang%NULL%0,               Ying%Liu%NULL%0,               Yuan%Wei%NULL%0,               Jia'an%Xia%NULL%0,               Ting%Yu%NULL%0,               Xinxin%Zhang%NULL%0,               Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,               Zheng-yi%Ni%NULL%0,               Zheng-yi%Ni%NULL%0,               Yu%Hu%NULL%0,               Wen-hua%Liang%NULL%0,               Chun-quan%Ou%NULL%0,               Jian-xing%He%NULL%0,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chun-liang%Lei%NULL%0,               David S.C.%Hui%NULL%0,               Bin%Du%NULL%0,               Lan-juan%Li%NULL%0,               Guang%Zeng%NULL%0,               Kwok-Yung%Yuen%NULL%0,               Ru-chong%Chen%NULL%0,               Chun-li%Tang%NULL%0,               Tao%Wang%NULL%0,               Ping-yan%Chen%NULL%0,               Jie%Xiang%NULL%0,               Shi-yue%Li%NULL%0,               Jin-lin%Wang%NULL%0,               Zi-jing%Liang%NULL%0,               Yi-xiang%Peng%NULL%0,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Ya-hua%Hu%NULL%0,               Peng%Peng%NULL%0,               Jian-ming%Wang%NULL%0,               Ji-yang%Liu%NULL%0,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhi-jian%Zheng%NULL%0,               Shao-qin%Qiu%NULL%0,               Jie%Luo%NULL%0,               Chang-jiang%Ye%NULL%0,               Shao-yong%Zhu%NULL%0,               Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,               Yuanyuan%Xing%NULL%0,               Yu%Xiao%NULL%0,               Liping%Deng%NULL%0,               Qiu%Zhao%NULL%0,               Hongling%Wang%NULL%0,               Yong%Xiong%NULL%0,               Zhenshun%Cheng%NULL%0,               Shicheng%Gao%NULL%0,               Ke%Liang%NULL%0,               Mingqi%Luo%NULL%0,               Tielong%Chen%NULL%0,               Shihui%Song%NULL%0,               Zhiyong%Ma%NULL%0,               Xiaoping%Chen%NULL%0,               Ruiying%Zheng%NULL%0,               Qian%Cao%NULL%0,               Fan%Wang%fanndywang@foxmail.com%0,               Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,               N -B%Yang%NULL%0,               F%Ding%NULL%0,               A H Y%Ma%NULL%0,               Z -Y%Wang%NULL%0,               Y -F%Shen%NULL%0,               C -W%Shi%NULL%0,               X%Lian%NULL%0,               J -G%Chu%NULL%0,               L%Chen%chxmin@hotmail.com%0,               Z -Y%Wang%NULL%0,               D -W%Ren%NULL%0,               G -X%Li%NULL%0,               X -Q%Chen%chxmin@hotmail.com%0,               H -J%Shen%NULL%0,               X -M%Chen%chxmin@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,               Hugues%Spillemaeker%NULL%1,               Maéva%Kyheng%NULL%1,               Cassandre%Belin‐Vincent%NULL%1,               Cédric%Delhaye%NULL%1,               Adeline%Piérache%NULL%1,               Tom%Denimal%NULL%1,               Basile%Verdier%NULL%1,               Nicolas%Debry%NULL%1,               Mouhamed%Moussa%NULL%1,               Guillaume%Schurtz%NULL%1,               Sina%Porouchani%NULL%1,               Alessandro%Cosenza%NULL%1,               Francis%Juthier%NULL%1,               Thibault%Pamart%NULL%1,               Marjorie%Richardson%NULL%1,               Augustin%Coisne%NULL%1,               Adrien%Hertault%NULL%1,               Jonathan%Sobocinski%NULL%1,               Thomas%Modine%NULL%1,               François%Pontana%NULL%1,               Alain%Duhamel%NULL%2,               Julien%Labreuche%NULL%2,               Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,              Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,              Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,              Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,               Yimei%Yin%18256985@qq.com%1,               Chang%Hu%1391369733@qq.com%3,               Xing%Liu%375117565@qq.com%1,               Xingguo%Zhang%zhangxinguo7909@163.com%1,               Shuliang%Zhou%350925556@qq.com%1,               Mingzhi%Jian%Jmzhak@aliyun.com%1,               Haibo%Xu%xuhaibo1120@hotmail.com%0,               John%Prowle%j.prowle@qmul.ac.uk%1,               Bo%Hu%hobbier1979@163.com%0,               Yirong%Li%liyirong838@163.com%1,               Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wentao%Xu%xref no email%1,       Shuang%Qu%xref no email%1,       Mengying%Xing%xref no email%1,       Ming%Zhang%xref no email%1,       Geng%Lu%xref no email%1,       Zhicong%Liao%xref no email%1,       Kimberly%Griffin%xref no email%1,       Jun%Wang%xref no email%1,       Ke%Zen%xref no email%1,       Bing%Yao%xref no email%1,       Hongwei%Liang%xref no email%1,       Jianping%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,               Xiao-Xin%Wu%NULL%0,               Xian-Gao%Jiang%NULL%0,               Kai-Jin%Xu%NULL%0,               Ling-Jun%Ying%NULL%0,               Chun-Lian%Ma%NULL%0,               Shi-Bo%Li%NULL%0,               Hua-Ying%Wang%NULL%0,               Sheng%Zhang%NULL%0,               Hai-Nv%Gao%NULL%0,               Ji-Fang%Sheng%NULL%0,               Hong-Liu%Cai%NULL%0,               Yun-Qing%Qiu%NULL%0,               Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,               Chang%Hu%NULL%0,               Linjie%Luo%NULL%2,               Fang%Fang%NULL%0,               Yongfeng%Chen%NULL%2,               Jianguo%Li%NULL%2,               Zhiyong%Peng%NULL%0,               Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,               Chun%Liao%lc7spring@163.com%1,               Qi-hong%Fan%1187286305@qq.com%1,               Hong-bo%Chen%hbchen@hust.edu.cn%1,               Xue-gong%Zhao%NULL%1,               Zhong-guo%Xie%NULL%1,               Xi-lin%Li%NULL%1,               Chun-xi%Chen%NULL%1,               Xiao-xia%Lu%NULL%1,               Zhi-sheng%Liu%NULL%1,               Wei%Lu%NULL%1,               Chun-bao%Chen%NULL%1,               Rong%Jiao%NULL%1,               Ai-ming%Zhang%NULL%1,               Jin-tang%Wang%NULL%1,               Xi-wei%Ding%NULL%1,               Yao-guang%Zeng%NULL%1,               Li-ping%Cheng%NULL%1,               Qing-feng%Huang%NULL%1,               Jiang%Wu%NULL%0,               Xi-chang%Luo%NULL%1,               Zhu-jun%Wang%NULL%1,               Yan-yan%Zhong%NULL%1,               Yan%Bai%yanbaixh@hust.edu.cn%1,               Xiao-yan%Wu%xwu@hust.edu.cn%1,               Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,               Ting%Yu%NULL%0,               Ronghui%Du%NULL%0,               Guohui%Fan%NULL%0,               Ying%Liu%NULL%0,               Zhibo%Liu%NULL%0,               Jie%Xiang%NULL%0,               Yeming%Wang%NULL%0,               Bin%Song%NULL%0,               Xiaoying%Gu%NULL%0,               Lulu%Guan%NULL%0,               Yuan%Wei%NULL%0,               Hui%Li%NULL%0,               Xudong%Wu%NULL%0,               Jiuyang%Xu%NULL%0,               Shengjin%Tu%NULL%0,               Yi%Zhang%NULL%0,               Hua%Chen%NULL%0,               Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,               Mengqi%Tu%NULL%0,               Shipei%Wang%NULL%0,               Sichao%Chen%NULL%0,               Wei%Zhou%NULL%0,               Danyang%Chen%NULL%0,               Lin%Zhou%NULL%0,               Min%Wang%NULL%0,               Yan%Zhao%NULL%0,               Wen%Zeng%NULL%0,               Qi%Huang%NULL%0,               Hai'bo%Xu%NULL%0,               Zeming%Liu%NULL%0,               Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,               Yuan%Yu%NULL%0,               Jiqian%Xu%NULL%0,               Huaqing%Shu%NULL%0,               Jia'an%Xia%NULL%0,               Hong%Liu%NULL%0,               Yongran%Wu%NULL%0,               Lu%Zhang%NULL%0,               Zhui%Yu%NULL%0,               Minghao%Fang%NULL%0,               Ting%Yu%NULL%0,               Yaxin%Wang%NULL%0,               Shangwen%Pan%NULL%0,               Xiaojing%Zou%NULL%0,               Shiying%Yuan%NULL%0,               You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,               Wei-jie%Guan%NULL%2,               Cai-chen%Li%NULL%3,               Yi-min%Li%NULL%3,               Heng-rui%Liang%NULL%3,               Yi%Zhao%NULL%3,               Xiao-qing%Liu%NULL%3,               Ling%Sang%NULL%0,               Ru-chong%Chen%NULL%0,               Chun-li%Tang%NULL%0,               Tao%Wang%NULL%0,               Wei%Wang%NULL%0,               Qi-hua%He%NULL%2,               Zi-sheng%Chen%NULL%3,               Sook-San%Wong%NULL%2,               Mark%Zanin%NULL%2,               Jun%Liu%NULL%0,               Xin%Xu%NULL%0,               Jun%Huang%NULL%2,               Jian-fu%Li%NULL%3,               Li-min%Ou%NULL%3,               Bo%Cheng%NULL%3,               Shan%Xiong%NULL%3,               Zhan-hong%Xie%NULL%2,               Zheng-yi%Ni%NULL%0,               Yu%Hu%NULL%0,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chun-liang%Lei%NULL%0,               Yi-xiang%Peng%NULL%0,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Ya-hua%Hu%NULL%0,               Peng%Peng%NULL%0,               Jian-ming%Wang%NULL%0,               Ji-yang%Liu%NULL%0,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhi-jian%Zheng%NULL%0,               Shao-qin%Qiu%NULL%0,               Jie%Luo%NULL%0,               Chang-jiang%Ye%NULL%0,               Shao-yong%Zhu%NULL%0,               Lin-ling%Cheng%NULL%3,               Feng%Ye%NULL%5,               Shi-yue%Li%NULL%0,               Jin-ping%Zheng%NULL%3,               Nuo-fu%Zhang%NULL%3,               Nan-shan%Zhong%NULL%0,               Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,               Simon A%Jones%NULL%1,               Jie%Yang%NULL%0,               Harish%Rajagopalan%NULL%1,               Luke%O’Donnell%NULL%1,               Yelena%Chernyak%NULL%1,               Katie A%Tobin%NULL%1,               Robert J%Cerfolio%NULL%1,               Fritz%Francois%NULL%1,               Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0,               Stephanie%Bialek%NULL%1,               Ellen%Boundy%NULL%1,               Virginia%Bowen%NULL%1,               Nancy%Chow%NULL%2,               Amanda%Cohn%NULL%1,               Nicole%Dowling%NULL%1,               Sascha%Ellington%NULL%1,               Ryan%Gierke%NULL%2,               Aron%Hall%NULL%2,               Jessica%MacNeil%NULL%1,               Priti%Patel%NULL%1,               Georgina%Peacock%NULL%1,               Tamara%Pilishvili%NULL%2,               Hilda%Razzaghi%NULL%1,               Nia%Reed%NULL%1,               Matthew%Ritchey%NULL%2,               Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,               Pedro%Póvoa%NULL%1,               Vicente%Souza-Dantas%NULL%1,               André C.%Kalil%NULL%1,               Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,               Graeme%MacLaren%NULL%1,               Philip S%Boonstra%NULL%1,               Theodore J%Iwashyna%NULL%1,               Arthur S%Slutsky%NULL%1,               Eddy%Fan%NULL%1,               Robert H%Bartlett%NULL%1,               Joseph E%Tonna%NULL%1,               Robert%Hyslop%NULL%1,               Jeffrey J%Fanning%NULL%1,               Peter T%Rycus%NULL%1,               Steve J%Hyer%NULL%1,               Marc M%Anders%NULL%1,               Cara L%Agerstrand%NULL%1,               Katarzyna%Hryniewicz%NULL%1,               Rodrigo%Diaz%NULL%1,               Roberto%Lorusso%NULL%1,               Alain%Combes%NULL%1,               Daniel%Brodie%NULL%4,               Peta%Alexander%NULL%1,               Nicholas%Barrett%NULL%1,               Jan%Bělohlávek%NULL%1,               Dale%Fisher%NULL%1,               John%Fraser%NULL%1,               Ali Ait%Hssain%NULL%1,               Jae Sung%Jung%NULL%1,               Michael%McMullan%NULL%1,               Yatin%Mehta%NULL%1,               Mark T.%Ogino%NULL%1,               Matthew L.%Paden%NULL%1,               Kiran%Shekar%NULL%1,               Christine%Stead%NULL%1,               Yasir%Abu-Omar%NULL%1,               Vanni%Agnoletti%NULL%1,               Anzila%Akbar%NULL%1,               Huda%Alfoudri%NULL%1,               Carlos%Alviar%NULL%1,               Vladimir%Aronsky%NULL%1,               Erin%August%NULL%1,               Georg%Auzinger%NULL%1,               Hilda%Aveja%NULL%1,               Rhonda%Bakken%NULL%1,               Joan%Balcells%NULL%1,               Sripal%Bangalore%NULL%1,               Bernard W.%Barnes%NULL%1,               Alaiza%Bautista%NULL%1,               Lorraine L.%Bellows%NULL%1,               Felipe%Beltran%NULL%1,               Peyman%Benharash%NULL%1,               Marco%Benni%NULL%1,               Jennifer%Berg%NULL%1,               Pietro%Bertini%NULL%1,               Pablo%Blanco-Schweizer%NULL%1,               Melissa%Brunsvold%NULL%1,               Jenny%Budd%NULL%1,               Debra%Camp%NULL%1,               Mark%Caridi-Scheible%NULL%0,               Edmund%Carton%NULL%1,               Elena%Casanova-Ghosh%NULL%1,               Anthony%Castleberry%NULL%1,               Christopher T.%Chipongian%NULL%1,               Chang Woo%Choi%NULL%1,               Alessandro%Circelli%NULL%1,               Elliott%Cohen%NULL%1,               Michael%Collins%NULL%1,               Scott%Copus%NULL%1,               Jill%Coy%NULL%1,               Brandon%Crist%NULL%1,               Leonora%Cruz%NULL%1,               Mirosław%Czuczwar%NULL%1,               Mani%Daneshmand%NULL%1,               Daniel%Davis II%NULL%1,               Kim%De la Cruz%NULL%1,               Cyndie%Devers%NULL%1,               Toni%Duculan%NULL%1,               Lucian%Durham%NULL%1,               Subbarao%Elapavaluru%NULL%1,               Carlos V.%Elzo Kraemer%NULL%1,               EDMÍLSON CARDOSO%Filho%NULL%1,               Jillian%Fitzgerald%NULL%1,               Giuseppe%Foti%NULL%1,               Matthew%Fox%NULL%1,               David%Fritschen%NULL%1,               David%Fullerton%NULL%1,               Elton%Gelandt%NULL%1,               Stacy%Gerle%NULL%1,               Marco%Giani%NULL%1,               Si Guim%Goh%NULL%1,               Sara%Govener%NULL%1,               Julie%Grone%NULL%1,               Miles%Guber%NULL%1,               Vadim%Gudzenko%NULL%1,               Daniel%Gutteridge%NULL%1,               Jennifer%Guy%NULL%1,               Jonathan%Haft%NULL%1,               Cameron%Hall%NULL%1,               Ibrahim Fawzy%Hassan%NULL%1,               Rubén%Herrán%NULL%1,               Hitoshi%Hirose%NULL%1,               Abdulsalam Saif%Ibrahim%NULL%1,               Don%Igielski%NULL%1,               Felicia A.%Ivascu%NULL%1,               Jaume%Izquierdo Blasco%NULL%1,               Julie%Jackson%NULL%1,               Harsh%Jain%NULL%1,               Bhavini%Jaiswal%NULL%1,               Andrea C.%Johnson%NULL%1,               Jenniver A.%Jurynec%NULL%1,               Norma M%Kellter%NULL%1,               Adam%Kohl%NULL%1,               Zachary%Kon%NULL%1,               Markus%Kredel%NULL%1,               Karen%Kriska%NULL%1,               Chandra%Kunavarapu%NULL%1,               Oude%Lansink-Hartgring%NULL%1,               Jeliene%LaRocque%NULL%1,               Sharon Beth%Larson%NULL%1,               Tracie%Layne%NULL%1,               Stephane%Ledot%NULL%1,               Napolitan%Lena%NULL%1,               Jonathan%Lillie%NULL%1,               Gösta%Lotz%NULL%1,               Mark%Lucas%NULL%1,               Lee%Ludwigson%NULL%1,               Jacinta J.%Maas%NULL%1,               Joanna%Maertens%NULL%1,               David%Mast%NULL%1,               Scott%McCardle%NULL%1,               Bernard%McDonald%NULL%1,               Allison%McLarty%NULL%1,               Chelsea%McMahon%NULL%1,               Patrick%Meybohm%NULL%1,               Bart%Meyns%NULL%1,               Casey%Miller%NULL%1,               Fernando%Moraes Neto%NULL%1,               Kelly%Morris%NULL%1,               Ralf%Muellenbach%NULL%1,               Meghan%Nicholson%NULL%1,               Serena%O'Brien%NULL%1,               Kathryn%O'Keefe%NULL%1,               Tawnya%Ogston%NULL%1,               Gary%Oldenburg%NULL%1,               Fabiana M.%Oliveira%NULL%1,               Emily%Oppel%NULL%1,               Diego%Pardo%NULL%2,               Diego%Pardo%NULL%0,               Sara J.%Parker%NULL%1,               Finn M.%Pedersen%NULL%1,               Crescens%Pellecchia%NULL%1,               Jose A.S.%Pelligrini%NULL%1,               Thao T.N.%Pham%NULL%1,               Ann R.%Phillips%NULL%1,               Tasneem%Pirani%NULL%1,               Paweł%Piwowarczyk%NULL%1,               Robert%Plambeck%NULL%1,               William%Pruett%NULL%1,               Brittany%Quandt%NULL%1,               Kollengode%Ramanathan%NULL%1,               Alejandro%Rey%NULL%1,               Christian%Reyher%NULL%1,               Jordi%Riera del Brio%NULL%1,               Rachel%Roberts%NULL%1,               David%Roe%NULL%1,               Peter P.%Roeleveld%NULL%1,               Janet%Rudy%NULL%1,               Luis F.%Rueda%NULL%1,               Emanuele%Russo%NULL%1,               Jesús%Sánchez Ballesteros%NULL%1,               Nancy%Satou%NULL%1,               Mauricio Guidi%Saueressig%NULL%1,               Paul C.%Saunders%NULL%1,               Margaret%Schlotterbeck%NULL%1,               Patricia%Schwarz%NULL%1,               Nicole%Scriven%NULL%1,               Alexis%Serra%NULL%1,               Mohammad%Shamsah%NULL%1,               Lucy%Sim%NULL%1,               Alexandra%Smart%NULL%1,               Adam%Smith%NULL%1,               Deane%Smith%NULL%1,               Maggie%Smith%NULL%1,               Neel%Sodha%NULL%1,               Michael%Sonntagbauer%NULL%1,               Marc%Sorenson%NULL%1,               Eric B%Stallkamp%NULL%1,               Allison%Stewart%NULL%1,               Kathy%Swartz%NULL%1,               Koji%Takeda%NULL%1,               Shaun%Thompson%NULL%1,               Bridget%Toy%NULL%1,               Divina%Tuazon%NULL%1,               Makoto%Uchiyama%NULL%1,               Obiora I.%Udeozo%NULL%1,               Scott%van Poppel%NULL%1,               Corey%Ventetuolo%NULL%1,               Leen%Vercaemst%NULL%1,               Nguyen V.%Vinh Chau%NULL%1,               I-Wen%Wang%NULL%1,               Carrie%Williamson%NULL%1,               Brock%Wilson%NULL%1,               Helen%Winkels%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2184,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2129,7 +2213,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -2158,7 +2242,7 @@
         <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2187,7 +2271,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2216,7 +2300,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -2245,7 +2329,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2274,7 +2358,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2303,7 +2387,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2332,7 +2416,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -2361,7 +2445,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -2390,7 +2474,7 @@
         <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2419,7 +2503,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -2448,7 +2532,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -2477,7 +2561,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -2506,7 +2590,7 @@
         <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -2535,7 +2619,7 @@
         <v>395</v>
       </c>
       <c r="E17" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="F17" t="s">
         <v>86</v>
@@ -2564,7 +2648,7 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -2593,7 +2677,7 @@
         <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
@@ -2622,7 +2706,7 @@
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -2651,7 +2735,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="F21" t="s">
         <v>98</v>
@@ -2680,7 +2764,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="F22" t="s">
         <v>101</v>
@@ -2709,7 +2793,7 @@
         <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="F23" t="s">
         <v>104</v>
@@ -2738,7 +2822,7 @@
         <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="F24" t="s">
         <v>108</v>
@@ -2767,7 +2851,7 @@
         <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="F25" t="s">
         <v>111</v>
@@ -2796,7 +2880,7 @@
         <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -2825,7 +2909,7 @@
         <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -2854,7 +2938,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
@@ -2883,7 +2967,7 @@
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="F29" t="s">
         <v>125</v>

--- a/Covid_19_Dataset_and_References/References/48.xlsx
+++ b/Covid_19_Dataset_and_References/References/48.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="493">
   <si>
     <t>Doi</t>
   </si>
@@ -1832,6 +1832,90 @@
   </si>
   <si>
     <t>[Ryan P%Barbaro%NULL%2,               Graeme%MacLaren%NULL%1,               Philip S%Boonstra%NULL%1,               Theodore J%Iwashyna%NULL%1,               Arthur S%Slutsky%NULL%1,               Eddy%Fan%NULL%1,               Robert H%Bartlett%NULL%1,               Joseph E%Tonna%NULL%1,               Robert%Hyslop%NULL%1,               Jeffrey J%Fanning%NULL%1,               Peter T%Rycus%NULL%1,               Steve J%Hyer%NULL%1,               Marc M%Anders%NULL%1,               Cara L%Agerstrand%NULL%1,               Katarzyna%Hryniewicz%NULL%1,               Rodrigo%Diaz%NULL%1,               Roberto%Lorusso%NULL%1,               Alain%Combes%NULL%1,               Daniel%Brodie%NULL%4,               Peta%Alexander%NULL%1,               Nicholas%Barrett%NULL%1,               Jan%Bělohlávek%NULL%1,               Dale%Fisher%NULL%1,               John%Fraser%NULL%1,               Ali Ait%Hssain%NULL%1,               Jae Sung%Jung%NULL%1,               Michael%McMullan%NULL%1,               Yatin%Mehta%NULL%1,               Mark T.%Ogino%NULL%1,               Matthew L.%Paden%NULL%1,               Kiran%Shekar%NULL%1,               Christine%Stead%NULL%1,               Yasir%Abu-Omar%NULL%1,               Vanni%Agnoletti%NULL%1,               Anzila%Akbar%NULL%1,               Huda%Alfoudri%NULL%1,               Carlos%Alviar%NULL%1,               Vladimir%Aronsky%NULL%1,               Erin%August%NULL%1,               Georg%Auzinger%NULL%1,               Hilda%Aveja%NULL%1,               Rhonda%Bakken%NULL%1,               Joan%Balcells%NULL%1,               Sripal%Bangalore%NULL%1,               Bernard W.%Barnes%NULL%1,               Alaiza%Bautista%NULL%1,               Lorraine L.%Bellows%NULL%1,               Felipe%Beltran%NULL%1,               Peyman%Benharash%NULL%1,               Marco%Benni%NULL%1,               Jennifer%Berg%NULL%1,               Pietro%Bertini%NULL%1,               Pablo%Blanco-Schweizer%NULL%1,               Melissa%Brunsvold%NULL%1,               Jenny%Budd%NULL%1,               Debra%Camp%NULL%1,               Mark%Caridi-Scheible%NULL%0,               Edmund%Carton%NULL%1,               Elena%Casanova-Ghosh%NULL%1,               Anthony%Castleberry%NULL%1,               Christopher T.%Chipongian%NULL%1,               Chang Woo%Choi%NULL%1,               Alessandro%Circelli%NULL%1,               Elliott%Cohen%NULL%1,               Michael%Collins%NULL%1,               Scott%Copus%NULL%1,               Jill%Coy%NULL%1,               Brandon%Crist%NULL%1,               Leonora%Cruz%NULL%1,               Mirosław%Czuczwar%NULL%1,               Mani%Daneshmand%NULL%1,               Daniel%Davis II%NULL%1,               Kim%De la Cruz%NULL%1,               Cyndie%Devers%NULL%1,               Toni%Duculan%NULL%1,               Lucian%Durham%NULL%1,               Subbarao%Elapavaluru%NULL%1,               Carlos V.%Elzo Kraemer%NULL%1,               EDMÍLSON CARDOSO%Filho%NULL%1,               Jillian%Fitzgerald%NULL%1,               Giuseppe%Foti%NULL%1,               Matthew%Fox%NULL%1,               David%Fritschen%NULL%1,               David%Fullerton%NULL%1,               Elton%Gelandt%NULL%1,               Stacy%Gerle%NULL%1,               Marco%Giani%NULL%1,               Si Guim%Goh%NULL%1,               Sara%Govener%NULL%1,               Julie%Grone%NULL%1,               Miles%Guber%NULL%1,               Vadim%Gudzenko%NULL%1,               Daniel%Gutteridge%NULL%1,               Jennifer%Guy%NULL%1,               Jonathan%Haft%NULL%1,               Cameron%Hall%NULL%1,               Ibrahim Fawzy%Hassan%NULL%1,               Rubén%Herrán%NULL%1,               Hitoshi%Hirose%NULL%1,               Abdulsalam Saif%Ibrahim%NULL%1,               Don%Igielski%NULL%1,               Felicia A.%Ivascu%NULL%1,               Jaume%Izquierdo Blasco%NULL%1,               Julie%Jackson%NULL%1,               Harsh%Jain%NULL%1,               Bhavini%Jaiswal%NULL%1,               Andrea C.%Johnson%NULL%1,               Jenniver A.%Jurynec%NULL%1,               Norma M%Kellter%NULL%1,               Adam%Kohl%NULL%1,               Zachary%Kon%NULL%1,               Markus%Kredel%NULL%1,               Karen%Kriska%NULL%1,               Chandra%Kunavarapu%NULL%1,               Oude%Lansink-Hartgring%NULL%1,               Jeliene%LaRocque%NULL%1,               Sharon Beth%Larson%NULL%1,               Tracie%Layne%NULL%1,               Stephane%Ledot%NULL%1,               Napolitan%Lena%NULL%1,               Jonathan%Lillie%NULL%1,               Gösta%Lotz%NULL%1,               Mark%Lucas%NULL%1,               Lee%Ludwigson%NULL%1,               Jacinta J.%Maas%NULL%1,               Joanna%Maertens%NULL%1,               David%Mast%NULL%1,               Scott%McCardle%NULL%1,               Bernard%McDonald%NULL%1,               Allison%McLarty%NULL%1,               Chelsea%McMahon%NULL%1,               Patrick%Meybohm%NULL%1,               Bart%Meyns%NULL%1,               Casey%Miller%NULL%1,               Fernando%Moraes Neto%NULL%1,               Kelly%Morris%NULL%1,               Ralf%Muellenbach%NULL%1,               Meghan%Nicholson%NULL%1,               Serena%O'Brien%NULL%1,               Kathryn%O'Keefe%NULL%1,               Tawnya%Ogston%NULL%1,               Gary%Oldenburg%NULL%1,               Fabiana M.%Oliveira%NULL%1,               Emily%Oppel%NULL%1,               Diego%Pardo%NULL%2,               Diego%Pardo%NULL%0,               Sara J.%Parker%NULL%1,               Finn M.%Pedersen%NULL%1,               Crescens%Pellecchia%NULL%1,               Jose A.S.%Pelligrini%NULL%1,               Thao T.N.%Pham%NULL%1,               Ann R.%Phillips%NULL%1,               Tasneem%Pirani%NULL%1,               Paweł%Piwowarczyk%NULL%1,               Robert%Plambeck%NULL%1,               William%Pruett%NULL%1,               Brittany%Quandt%NULL%1,               Kollengode%Ramanathan%NULL%1,               Alejandro%Rey%NULL%1,               Christian%Reyher%NULL%1,               Jordi%Riera del Brio%NULL%1,               Rachel%Roberts%NULL%1,               David%Roe%NULL%1,               Peter P.%Roeleveld%NULL%1,               Janet%Rudy%NULL%1,               Luis F.%Rueda%NULL%1,               Emanuele%Russo%NULL%1,               Jesús%Sánchez Ballesteros%NULL%1,               Nancy%Satou%NULL%1,               Mauricio Guidi%Saueressig%NULL%1,               Paul C.%Saunders%NULL%1,               Margaret%Schlotterbeck%NULL%1,               Patricia%Schwarz%NULL%1,               Nicole%Scriven%NULL%1,               Alexis%Serra%NULL%1,               Mohammad%Shamsah%NULL%1,               Lucy%Sim%NULL%1,               Alexandra%Smart%NULL%1,               Adam%Smith%NULL%1,               Deane%Smith%NULL%1,               Maggie%Smith%NULL%1,               Neel%Sodha%NULL%1,               Michael%Sonntagbauer%NULL%1,               Marc%Sorenson%NULL%1,               Eric B%Stallkamp%NULL%1,               Allison%Stewart%NULL%1,               Kathy%Swartz%NULL%1,               Koji%Takeda%NULL%1,               Shaun%Thompson%NULL%1,               Bridget%Toy%NULL%1,               Divina%Tuazon%NULL%1,               Makoto%Uchiyama%NULL%1,               Obiora I.%Udeozo%NULL%1,               Scott%van Poppel%NULL%1,               Corey%Ventetuolo%NULL%1,               Leen%Vercaemst%NULL%1,               Nguyen V.%Vinh Chau%NULL%1,               I-Wen%Wang%NULL%1,               Carrie%Williamson%NULL%1,               Brock%Wilson%NULL%1,               Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,        Xiaoyan%Chen%xref no email%0,        Yanping%Cai%xref no email%0,        Jia\u2019an%Xia%xref no email%0,        Xing%Zhou%xref no email%0,        Sha%Xu%xref no email%0,        Hanping%Huang%xref no email%0,        Li%Zhang%xref no email%0,        Xia%Zhou%xref no email%0,        Chunling%Du%xref no email%0,        Yuye%Zhang%xref no email%0,        Juan%Song%xref no email%0,        Sijiao%Wang%xref no email%0,        Yencheng%Chao%xref no email%0,        Zeyong%Yang%xref no email%0,        Jie%Xu%xref no email%0,        Xin%Zhou%xref no email%0,        Dechang%Chen%xref no email%0,        Weining%Xiong%xref no email%0,        Lei%Xu%xref no email%0,        Feng%Zhou%xref no email%0,        Jinjun%Jiang%xref no email%0,        Chunxue%Bai%xref no email%0,        Junhua%Zheng%xref no email%0,        Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,                Dhaval%Kolte%NULL%1,                Mary E.%Cadigan%NULL%1,                Elizabeth%Laikhter%NULL%1,                Kevin%Sinclair%NULL%1,                Eugene%Pomerantsev%NULL%1,                Michael A.%Fifer%NULL%1,                Thoralf M.%Sundt%NULL%1,                Robert W.%Yeh%NULL%1,                Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,               Cabrini%Luca%coreGivesNoEmail%1,               Castelli%Antonio%coreGivesNoEmail%1,               Cecconi%Maurizio%coreGivesNoEmail%1,               Cereda%Danilo%coreGivesNoEmail%1,               Coluccello%Antonio%coreGivesNoEmail%1,               Foti%Giuseppe%coreGivesNoEmail%1,               Fumagalli%Roberto%coreGivesNoEmail%1,               Grasselli%Giacomo%coreGivesNoEmail%1,               Iotti%Giorgio%coreGivesNoEmail%1,               Latronico%Nicola%coreGivesNoEmail%1,               Lorini%Luca%coreGivesNoEmail%1,               Merler%Stefano%coreGivesNoEmail%1,               Natalini%Giuseppe%coreGivesNoEmail%1,               Pesenti%Antonio%coreGivesNoEmail%1,               Piatti%Alessandra%coreGivesNoEmail%1,               Ranieri%Marco Vito%coreGivesNoEmail%1,               Scandroglio%Anna Mara%coreGivesNoEmail%1,               Storti%Enrico%coreGivesNoEmail%1,               Zanella%Alberto%coreGivesNoEmail%1,               Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                Yeming%Wang%NULL%0,                Xingwang%Li%NULL%0,                Lili%Ren%NULL%0,                Jianping%Zhao%NULL%0,                Yi%Hu%NULL%0,                Li%Zhang%NULL%0,                Guohui%Fan%NULL%0,                Jiuyang%Xu%NULL%0,                Xiaoying%Gu%NULL%0,                Zhenshun%Cheng%NULL%0,                Ting%Yu%NULL%0,                Jiaan%Xia%NULL%0,                Yuan%Wei%NULL%0,                Wenjuan%Wu%NULL%0,                Xuelei%Xie%NULL%0,                Wen%Yin%NULL%0,                Hui%Li%NULL%0,                Min%Liu%NULL%0,                Yan%Xiao%NULL%0,                Hong%Gao%NULL%0,                Li%Guo%NULL%0,                Jungang%Xie%NULL%0,                Guangfa%Wang%NULL%0,                Rongmeng%Jiang%NULL%0,                Zhancheng%Gao%NULL%0,                Qi%Jin%NULL%0,                Jianwei%Wang%wangjw28@163.com%0,                Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                Yi%Xiang%NULL%0,                Wei%Fang%NULL%0,                Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                Boqun%Li%279685211@qq.com%0,                Boqun%Li%279685211@qq.com%0,                Yanjun%Hu%huyanjun@163.com%0,                Chunhui%Lang%NULL%0,                Daoqiu%Huang%NULL%0,                Qiuyan%Sun%NULL%0,                Yan%Xiong%NULL%0,                Xia%Huang%NULL%0,                Jinglong%Lv%NULL%0,                Yaling%Luo%NULL%0,                Li%Shen%NULL%0,                Haoran%Yang%NULL%0,                Gu%Huang%NULL%0,                Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,        Eric%Yim%xref no email%0,        Lindy%Klaff%xref no email%0,        Sharukh%Lokhandwala%xref no email%0,        Francis X.%Riedo%xref no email%0,        Maria%Chong%xref no email%0,        Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                Mark%Caridi-Scheible%NULL%3,                James M.%Blum%NULL%2,                Chad%Robichaux%NULL%2,                Colleen%Kraft%NULL%2,                Jesse T.%Jacob%NULL%2,                Craig S.%Jabaley%NULL%2,                David%Carpenter%NULL%2,                Roberta%Kaplow%NULL%2,                Alfonso C.%Hernandez-Romieu%NULL%2,                Max W.%Adelman%NULL%2,                Greg S.%Martin%NULL%2,                Craig M.%Coopersmith%NULL%2,                David J.%Murphy%NULL%2,                NULL%NULL%NULL%0,                 S.%Auld%null%1,                 M.% Caridi-Scheible%null%1,                 J. M.% Blum%null%1,                 C. J.% Robichaux%null%1,                 C. S.% Kraft%null%1,                 J. T.% Jacob%null%1,                 C. S.% Jabaley%null%1,                 D.% Carpenter%null%1,                 R.% Kaplow%null%1,                 A. C.% Hernandez%null%1,                 M. W.% Adelman%null%1,                 G. S.% Martin%null%1,                 C. M.% Coopersmith%null%1,                 D. J.% Murphy%null%1,                   % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,               S.%Auld%null%1,               M.% Caridi-Scheible%null%1,               J. M.% Blum%null%1,               C. J.% Robichaux%null%1,               C. S.% Kraft%null%1,               J. T.% Jacob%null%1,               C. S.% Jabaley%null%1,               D.% Carpenter%null%1,               R.% Kaplow%null%1,               A. C.% Hernandez%null%1,               M. W.% Adelman%null%1,               G. S.% Martin%null%1,               C. M.% Coopersmith%null%1,               D. J.% Murphy%null%1,                 % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                Bijan J.%Ghassemieh%NULL%2,                Michelle%Nichols%NULL%2,                Richard%Kim%NULL%2,                Keith R.%Jerome%NULL%2,                Arun K.%Nalla%NULL%2,                Alexander L.%Greninger%NULL%2,                Sudhakar%Pipavath%NULL%2,                Mark M.%Wurfel%NULL%2,                Laura%Evans%NULL%2,                Patricia A.%Kritek%NULL%2,                T. Eoin%West%NULL%2,                Andrew%Luks%NULL%2,                Anthony%Gerbino%NULL%2,                Chris R.%Dale%NULL%2,                Jason D.%Goldman%NULL%2,                Shane%O’Mahony%NULL%2,                Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                Tangkai%Qi%NULL%0,                Li%Liu%NULL%0,                Yun%Ling%NULL%0,                Zhiping%Qian%NULL%0,                Tao%Li%NULL%0,                Feng%Li%NULL%0,                Qingnian%Xu%NULL%0,                Yuyi%Zhang%NULL%0,                Shuibao%Xu%NULL%0,                Zhigang%Song%NULL%0,                Yigang%Zeng%NULL%0,                Yinzhong%Shen%NULL%0,                Yuxin%Shi%NULL%0,                Tongyu%Zhu%NULL%0,                Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                Min%Zhou%NULL%0,                Xuan%Dong%NULL%0,                Jieming%Qu%NULL%0,                Fengyun%Gong%NULL%0,                Yang%Han%NULL%0,                Yang%Qiu%NULL%0,                Jingli%Wang%NULL%0,                Ying%Liu%NULL%0,                Yuan%Wei%NULL%0,                Jia'an%Xia%NULL%0,                Ting%Yu%NULL%0,                Xinxin%Zhang%NULL%0,                Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                Zheng-yi%Ni%NULL%0,                Zheng-yi%Ni%NULL%0,                Yu%Hu%NULL%0,                Wen-hua%Liang%NULL%0,                Chun-quan%Ou%NULL%0,                Jian-xing%He%NULL%0,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chun-liang%Lei%NULL%0,                David S.C.%Hui%NULL%0,                Bin%Du%NULL%0,                Lan-juan%Li%NULL%0,                Guang%Zeng%NULL%0,                Kwok-Yung%Yuen%NULL%0,                Ru-chong%Chen%NULL%0,                Chun-li%Tang%NULL%0,                Tao%Wang%NULL%0,                Ping-yan%Chen%NULL%0,                Jie%Xiang%NULL%0,                Shi-yue%Li%NULL%0,                Jin-lin%Wang%NULL%0,                Zi-jing%Liang%NULL%0,                Yi-xiang%Peng%NULL%0,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Ya-hua%Hu%NULL%0,                Peng%Peng%NULL%0,                Jian-ming%Wang%NULL%0,                Ji-yang%Liu%NULL%0,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhi-jian%Zheng%NULL%0,                Shao-qin%Qiu%NULL%0,                Jie%Luo%NULL%0,                Chang-jiang%Ye%NULL%0,                Shao-yong%Zhu%NULL%0,                Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                Yuanyuan%Xing%NULL%0,                Yu%Xiao%NULL%0,                Liping%Deng%NULL%0,                Qiu%Zhao%NULL%0,                Hongling%Wang%NULL%0,                Yong%Xiong%NULL%0,                Zhenshun%Cheng%NULL%0,                Shicheng%Gao%NULL%0,                Ke%Liang%NULL%0,                Mingqi%Luo%NULL%0,                Tielong%Chen%NULL%0,                Shihui%Song%NULL%0,                Zhiyong%Ma%NULL%0,                Xiaoping%Chen%NULL%0,                Ruiying%Zheng%NULL%0,                Qian%Cao%NULL%0,                Fan%Wang%fanndywang@foxmail.com%0,                Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,                N -B%Yang%NULL%0,                F%Ding%NULL%0,                A H Y%Ma%NULL%0,                Z -Y%Wang%NULL%0,                Y -F%Shen%NULL%0,                C -W%Shi%NULL%0,                X%Lian%NULL%0,                J -G%Chu%NULL%0,                L%Chen%chxmin@hotmail.com%0,                Z -Y%Wang%NULL%0,                D -W%Ren%NULL%0,                G -X%Li%NULL%0,                X -Q%Chen%chxmin@hotmail.com%0,                H -J%Shen%NULL%0,                X -M%Chen%chxmin@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,                Hugues%Spillemaeker%NULL%1,                Maéva%Kyheng%NULL%1,                Cassandre%Belin‐Vincent%NULL%1,                Cédric%Delhaye%NULL%1,                Adeline%Piérache%NULL%1,                Tom%Denimal%NULL%1,                Basile%Verdier%NULL%1,                Nicolas%Debry%NULL%1,                Mouhamed%Moussa%NULL%1,                Guillaume%Schurtz%NULL%1,                Sina%Porouchani%NULL%1,                Alessandro%Cosenza%NULL%1,                Francis%Juthier%NULL%1,                Thibault%Pamart%NULL%1,                Marjorie%Richardson%NULL%1,                Augustin%Coisne%NULL%1,                Adrien%Hertault%NULL%1,                Jonathan%Sobocinski%NULL%1,                Thomas%Modine%NULL%1,                François%Pontana%NULL%1,                Alain%Duhamel%NULL%2,                Julien%Labreuche%NULL%2,                Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,               Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,               Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,               Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,                Yimei%Yin%18256985@qq.com%1,                Chang%Hu%1391369733@qq.com%3,                Xing%Liu%375117565@qq.com%1,                Xingguo%Zhang%zhangxinguo7909@163.com%1,                Shuliang%Zhou%350925556@qq.com%1,                Mingzhi%Jian%Jmzhak@aliyun.com%1,                Haibo%Xu%xuhaibo1120@hotmail.com%0,                John%Prowle%j.prowle@qmul.ac.uk%1,                Bo%Hu%hobbier1979@163.com%0,                Yirong%Li%liyirong838@163.com%1,                Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wentao%Xu%xref no email%1,        Shuang%Qu%xref no email%1,        Mengying%Xing%xref no email%1,        Ming%Zhang%xref no email%1,        Geng%Lu%xref no email%1,        Zhicong%Liao%xref no email%1,        Kimberly%Griffin%xref no email%1,        Jun%Wang%xref no email%1,        Ke%Zen%xref no email%1,        Bing%Yao%xref no email%1,        Hongwei%Liang%xref no email%1,        Jianping%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                Xiao-Xin%Wu%NULL%0,                Xian-Gao%Jiang%NULL%0,                Kai-Jin%Xu%NULL%0,                Ling-Jun%Ying%NULL%0,                Chun-Lian%Ma%NULL%0,                Shi-Bo%Li%NULL%0,                Hua-Ying%Wang%NULL%0,                Sheng%Zhang%NULL%0,                Hai-Nv%Gao%NULL%0,                Ji-Fang%Sheng%NULL%0,                Hong-Liu%Cai%NULL%0,                Yun-Qing%Qiu%NULL%0,                Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                Chang%Hu%NULL%0,                Linjie%Luo%NULL%2,                Fang%Fang%NULL%0,                Yongfeng%Chen%NULL%2,                Jianguo%Li%NULL%2,                Zhiyong%Peng%NULL%0,                Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,                Chun%Liao%lc7spring@163.com%1,                Qi-hong%Fan%1187286305@qq.com%1,                Hong-bo%Chen%hbchen@hust.edu.cn%1,                Xue-gong%Zhao%NULL%1,                Zhong-guo%Xie%NULL%1,                Xi-lin%Li%NULL%1,                Chun-xi%Chen%NULL%1,                Xiao-xia%Lu%NULL%1,                Zhi-sheng%Liu%NULL%1,                Wei%Lu%NULL%1,                Chun-bao%Chen%NULL%1,                Rong%Jiao%NULL%1,                Ai-ming%Zhang%NULL%1,                Jin-tang%Wang%NULL%1,                Xi-wei%Ding%NULL%1,                Yao-guang%Zeng%NULL%1,                Li-ping%Cheng%NULL%1,                Qing-feng%Huang%NULL%1,                Jiang%Wu%NULL%0,                Xi-chang%Luo%NULL%1,                Zhu-jun%Wang%NULL%1,                Yan-yan%Zhong%NULL%1,                Yan%Bai%yanbaixh@hust.edu.cn%1,                Xiao-yan%Wu%xwu@hust.edu.cn%1,                Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                Ting%Yu%NULL%0,                Ronghui%Du%NULL%0,                Guohui%Fan%NULL%0,                Ying%Liu%NULL%0,                Zhibo%Liu%NULL%0,                Jie%Xiang%NULL%0,                Yeming%Wang%NULL%0,                Bin%Song%NULL%0,                Xiaoying%Gu%NULL%0,                Lulu%Guan%NULL%0,                Yuan%Wei%NULL%0,                Hui%Li%NULL%0,                Xudong%Wu%NULL%0,                Jiuyang%Xu%NULL%0,                Shengjin%Tu%NULL%0,                Yi%Zhang%NULL%0,                Hua%Chen%NULL%0,                Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                Mengqi%Tu%NULL%0,                Shipei%Wang%NULL%0,                Sichao%Chen%NULL%0,                Wei%Zhou%NULL%0,                Danyang%Chen%NULL%0,                Lin%Zhou%NULL%0,                Min%Wang%NULL%0,                Yan%Zhao%NULL%0,                Wen%Zeng%NULL%0,                Qi%Huang%NULL%0,                Hai'bo%Xu%NULL%0,                Zeming%Liu%NULL%0,                Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                Yuan%Yu%NULL%0,                Jiqian%Xu%NULL%0,                Huaqing%Shu%NULL%0,                Jia'an%Xia%NULL%0,                Hong%Liu%NULL%0,                Yongran%Wu%NULL%0,                Lu%Zhang%NULL%0,                Zhui%Yu%NULL%0,                Minghao%Fang%NULL%0,                Ting%Yu%NULL%0,                Yaxin%Wang%NULL%0,                Shangwen%Pan%NULL%0,                Xiaojing%Zou%NULL%0,                Shiying%Yuan%NULL%0,                You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,                Wei-jie%Guan%NULL%2,                Cai-chen%Li%NULL%3,                Yi-min%Li%NULL%3,                Heng-rui%Liang%NULL%3,                Yi%Zhao%NULL%3,                Xiao-qing%Liu%NULL%3,                Ling%Sang%NULL%0,                Ru-chong%Chen%NULL%0,                Chun-li%Tang%NULL%0,                Tao%Wang%NULL%0,                Wei%Wang%NULL%0,                Qi-hua%He%NULL%2,                Zi-sheng%Chen%NULL%3,                Sook-San%Wong%NULL%2,                Mark%Zanin%NULL%2,                Jun%Liu%NULL%0,                Xin%Xu%NULL%0,                Jun%Huang%NULL%2,                Jian-fu%Li%NULL%3,                Li-min%Ou%NULL%3,                Bo%Cheng%NULL%3,                Shan%Xiong%NULL%3,                Zhan-hong%Xie%NULL%2,                Zheng-yi%Ni%NULL%0,                Yu%Hu%NULL%0,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chun-liang%Lei%NULL%0,                Yi-xiang%Peng%NULL%0,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Ya-hua%Hu%NULL%0,                Peng%Peng%NULL%0,                Jian-ming%Wang%NULL%0,                Ji-yang%Liu%NULL%0,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhi-jian%Zheng%NULL%0,                Shao-qin%Qiu%NULL%0,                Jie%Luo%NULL%0,                Chang-jiang%Ye%NULL%0,                Shao-yong%Zhu%NULL%0,                Lin-ling%Cheng%NULL%3,                Feng%Ye%NULL%5,                Shi-yue%Li%NULL%0,                Jin-ping%Zheng%NULL%3,                Nuo-fu%Zhang%NULL%3,                Nan-shan%Zhong%NULL%0,                Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                Simon A%Jones%NULL%1,                Jie%Yang%NULL%0,                Harish%Rajagopalan%NULL%1,                Luke%O’Donnell%NULL%1,                Yelena%Chernyak%NULL%1,                Katie A%Tobin%NULL%1,                Robert J%Cerfolio%NULL%1,                Fritz%Francois%NULL%1,                Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0,                Stephanie%Bialek%NULL%1,                Ellen%Boundy%NULL%1,                Virginia%Bowen%NULL%1,                Nancy%Chow%NULL%2,                Amanda%Cohn%NULL%1,                Nicole%Dowling%NULL%1,                Sascha%Ellington%NULL%1,                Ryan%Gierke%NULL%2,                Aron%Hall%NULL%2,                Jessica%MacNeil%NULL%1,                Priti%Patel%NULL%1,                Georgina%Peacock%NULL%1,                Tamara%Pilishvili%NULL%2,                Hilda%Razzaghi%NULL%1,                Nia%Reed%NULL%1,                Matthew%Ritchey%NULL%2,                Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,                Pedro%Póvoa%NULL%1,                Vicente%Souza-Dantas%NULL%1,                André C.%Kalil%NULL%1,                Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,                Graeme%MacLaren%NULL%1,                Philip S%Boonstra%NULL%1,                Theodore J%Iwashyna%NULL%1,                Arthur S%Slutsky%NULL%1,                Eddy%Fan%NULL%1,                Robert H%Bartlett%NULL%1,                Joseph E%Tonna%NULL%1,                Robert%Hyslop%NULL%1,                Jeffrey J%Fanning%NULL%1,                Peter T%Rycus%NULL%1,                Steve J%Hyer%NULL%1,                Marc M%Anders%NULL%1,                Cara L%Agerstrand%NULL%1,                Katarzyna%Hryniewicz%NULL%1,                Rodrigo%Diaz%NULL%1,                Roberto%Lorusso%NULL%1,                Alain%Combes%NULL%1,                Daniel%Brodie%NULL%4,                Peta%Alexander%NULL%1,                Nicholas%Barrett%NULL%1,                Jan%Bělohlávek%NULL%1,                Dale%Fisher%NULL%1,                John%Fraser%NULL%1,                Ali Ait%Hssain%NULL%1,                Jae Sung%Jung%NULL%1,                Michael%McMullan%NULL%1,                Yatin%Mehta%NULL%1,                Mark T.%Ogino%NULL%1,                Matthew L.%Paden%NULL%1,                Kiran%Shekar%NULL%1,                Christine%Stead%NULL%1,                Yasir%Abu-Omar%NULL%1,                Vanni%Agnoletti%NULL%1,                Anzila%Akbar%NULL%1,                Huda%Alfoudri%NULL%1,                Carlos%Alviar%NULL%1,                Vladimir%Aronsky%NULL%1,                Erin%August%NULL%1,                Georg%Auzinger%NULL%1,                Hilda%Aveja%NULL%1,                Rhonda%Bakken%NULL%1,                Joan%Balcells%NULL%1,                Sripal%Bangalore%NULL%1,                Bernard W.%Barnes%NULL%1,                Alaiza%Bautista%NULL%1,                Lorraine L.%Bellows%NULL%1,                Felipe%Beltran%NULL%1,                Peyman%Benharash%NULL%1,                Marco%Benni%NULL%1,                Jennifer%Berg%NULL%1,                Pietro%Bertini%NULL%1,                Pablo%Blanco-Schweizer%NULL%1,                Melissa%Brunsvold%NULL%1,                Jenny%Budd%NULL%1,                Debra%Camp%NULL%1,                Mark%Caridi-Scheible%NULL%0,                Edmund%Carton%NULL%1,                Elena%Casanova-Ghosh%NULL%1,                Anthony%Castleberry%NULL%1,                Christopher T.%Chipongian%NULL%1,                Chang Woo%Choi%NULL%1,                Alessandro%Circelli%NULL%1,                Elliott%Cohen%NULL%1,                Michael%Collins%NULL%1,                Scott%Copus%NULL%1,                Jill%Coy%NULL%1,                Brandon%Crist%NULL%1,                Leonora%Cruz%NULL%1,                Mirosław%Czuczwar%NULL%1,                Mani%Daneshmand%NULL%1,                Daniel%Davis II%NULL%1,                Kim%De la Cruz%NULL%1,                Cyndie%Devers%NULL%1,                Toni%Duculan%NULL%1,                Lucian%Durham%NULL%1,                Subbarao%Elapavaluru%NULL%1,                Carlos V.%Elzo Kraemer%NULL%1,                EDMÍLSON CARDOSO%Filho%NULL%1,                Jillian%Fitzgerald%NULL%1,                Giuseppe%Foti%NULL%1,                Matthew%Fox%NULL%1,                David%Fritschen%NULL%1,                David%Fullerton%NULL%1,                Elton%Gelandt%NULL%1,                Stacy%Gerle%NULL%1,                Marco%Giani%NULL%1,                Si Guim%Goh%NULL%1,                Sara%Govener%NULL%1,                Julie%Grone%NULL%1,                Miles%Guber%NULL%1,                Vadim%Gudzenko%NULL%1,                Daniel%Gutteridge%NULL%1,                Jennifer%Guy%NULL%1,                Jonathan%Haft%NULL%1,                Cameron%Hall%NULL%1,                Ibrahim Fawzy%Hassan%NULL%1,                Rubén%Herrán%NULL%1,                Hitoshi%Hirose%NULL%1,                Abdulsalam Saif%Ibrahim%NULL%1,                Don%Igielski%NULL%1,                Felicia A.%Ivascu%NULL%1,                Jaume%Izquierdo Blasco%NULL%1,                Julie%Jackson%NULL%1,                Harsh%Jain%NULL%1,                Bhavini%Jaiswal%NULL%1,                Andrea C.%Johnson%NULL%1,                Jenniver A.%Jurynec%NULL%1,                Norma M%Kellter%NULL%1,                Adam%Kohl%NULL%1,                Zachary%Kon%NULL%1,                Markus%Kredel%NULL%1,                Karen%Kriska%NULL%1,                Chandra%Kunavarapu%NULL%1,                Oude%Lansink-Hartgring%NULL%1,                Jeliene%LaRocque%NULL%1,                Sharon Beth%Larson%NULL%1,                Tracie%Layne%NULL%1,                Stephane%Ledot%NULL%1,                Napolitan%Lena%NULL%1,                Jonathan%Lillie%NULL%1,                Gösta%Lotz%NULL%1,                Mark%Lucas%NULL%1,                Lee%Ludwigson%NULL%1,                Jacinta J.%Maas%NULL%1,                Joanna%Maertens%NULL%1,                David%Mast%NULL%1,                Scott%McCardle%NULL%1,                Bernard%McDonald%NULL%1,                Allison%McLarty%NULL%1,                Chelsea%McMahon%NULL%1,                Patrick%Meybohm%NULL%1,                Bart%Meyns%NULL%1,                Casey%Miller%NULL%1,                Fernando%Moraes Neto%NULL%1,                Kelly%Morris%NULL%1,                Ralf%Muellenbach%NULL%1,                Meghan%Nicholson%NULL%1,                Serena%O'Brien%NULL%1,                Kathryn%O'Keefe%NULL%1,                Tawnya%Ogston%NULL%1,                Gary%Oldenburg%NULL%1,                Fabiana M.%Oliveira%NULL%1,                Emily%Oppel%NULL%1,                Diego%Pardo%NULL%2,                Diego%Pardo%NULL%0,                Sara J.%Parker%NULL%1,                Finn M.%Pedersen%NULL%1,                Crescens%Pellecchia%NULL%1,                Jose A.S.%Pelligrini%NULL%1,                Thao T.N.%Pham%NULL%1,                Ann R.%Phillips%NULL%1,                Tasneem%Pirani%NULL%1,                Paweł%Piwowarczyk%NULL%1,                Robert%Plambeck%NULL%1,                William%Pruett%NULL%1,                Brittany%Quandt%NULL%1,                Kollengode%Ramanathan%NULL%1,                Alejandro%Rey%NULL%1,                Christian%Reyher%NULL%1,                Jordi%Riera del Brio%NULL%1,                Rachel%Roberts%NULL%1,                David%Roe%NULL%1,                Peter P.%Roeleveld%NULL%1,                Janet%Rudy%NULL%1,                Luis F.%Rueda%NULL%1,                Emanuele%Russo%NULL%1,                Jesús%Sánchez Ballesteros%NULL%1,                Nancy%Satou%NULL%1,                Mauricio Guidi%Saueressig%NULL%1,                Paul C.%Saunders%NULL%1,                Margaret%Schlotterbeck%NULL%1,                Patricia%Schwarz%NULL%1,                Nicole%Scriven%NULL%1,                Alexis%Serra%NULL%1,                Mohammad%Shamsah%NULL%1,                Lucy%Sim%NULL%1,                Alexandra%Smart%NULL%1,                Adam%Smith%NULL%1,                Deane%Smith%NULL%1,                Maggie%Smith%NULL%1,                Neel%Sodha%NULL%1,                Michael%Sonntagbauer%NULL%1,                Marc%Sorenson%NULL%1,                Eric B%Stallkamp%NULL%1,                Allison%Stewart%NULL%1,                Kathy%Swartz%NULL%1,                Koji%Takeda%NULL%1,                Shaun%Thompson%NULL%1,                Bridget%Toy%NULL%1,                Divina%Tuazon%NULL%1,                Makoto%Uchiyama%NULL%1,                Obiora I.%Udeozo%NULL%1,                Scott%van Poppel%NULL%1,                Corey%Ventetuolo%NULL%1,                Leen%Vercaemst%NULL%1,                Nguyen V.%Vinh Chau%NULL%1,                I-Wen%Wang%NULL%1,                Carrie%Williamson%NULL%1,                Brock%Wilson%NULL%1,                Helen%Winkels%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2184,7 +2268,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2213,7 +2297,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -2242,7 +2326,7 @@
         <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2271,7 +2355,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2300,7 +2384,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -2329,7 +2413,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2358,7 +2442,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2387,7 +2471,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2416,7 +2500,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -2445,7 +2529,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -2474,7 +2558,7 @@
         <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2503,7 +2587,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -2532,7 +2616,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -2561,7 +2645,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -2590,7 +2674,7 @@
         <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -2619,7 +2703,7 @@
         <v>395</v>
       </c>
       <c r="E17" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="F17" t="s">
         <v>86</v>
@@ -2648,7 +2732,7 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -2677,7 +2761,7 @@
         <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
@@ -2706,7 +2790,7 @@
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -2735,7 +2819,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="F21" t="s">
         <v>98</v>
@@ -2764,7 +2848,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="F22" t="s">
         <v>101</v>
@@ -2793,7 +2877,7 @@
         <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="F23" t="s">
         <v>104</v>
@@ -2822,7 +2906,7 @@
         <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="F24" t="s">
         <v>108</v>
@@ -2851,7 +2935,7 @@
         <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="F25" t="s">
         <v>111</v>
@@ -2880,7 +2964,7 @@
         <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -2909,7 +2993,7 @@
         <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -2938,7 +3022,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
@@ -2967,7 +3051,7 @@
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="F29" t="s">
         <v>125</v>

--- a/Covid_19_Dataset_and_References/References/48.xlsx
+++ b/Covid_19_Dataset_and_References/References/48.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="549">
   <si>
     <t>Doi</t>
   </si>
@@ -1916,6 +1916,174 @@
   </si>
   <si>
     <t>[Ryan P%Barbaro%NULL%2,                Graeme%MacLaren%NULL%1,                Philip S%Boonstra%NULL%1,                Theodore J%Iwashyna%NULL%1,                Arthur S%Slutsky%NULL%1,                Eddy%Fan%NULL%1,                Robert H%Bartlett%NULL%1,                Joseph E%Tonna%NULL%1,                Robert%Hyslop%NULL%1,                Jeffrey J%Fanning%NULL%1,                Peter T%Rycus%NULL%1,                Steve J%Hyer%NULL%1,                Marc M%Anders%NULL%1,                Cara L%Agerstrand%NULL%1,                Katarzyna%Hryniewicz%NULL%1,                Rodrigo%Diaz%NULL%1,                Roberto%Lorusso%NULL%1,                Alain%Combes%NULL%1,                Daniel%Brodie%NULL%4,                Peta%Alexander%NULL%1,                Nicholas%Barrett%NULL%1,                Jan%Bělohlávek%NULL%1,                Dale%Fisher%NULL%1,                John%Fraser%NULL%1,                Ali Ait%Hssain%NULL%1,                Jae Sung%Jung%NULL%1,                Michael%McMullan%NULL%1,                Yatin%Mehta%NULL%1,                Mark T.%Ogino%NULL%1,                Matthew L.%Paden%NULL%1,                Kiran%Shekar%NULL%1,                Christine%Stead%NULL%1,                Yasir%Abu-Omar%NULL%1,                Vanni%Agnoletti%NULL%1,                Anzila%Akbar%NULL%1,                Huda%Alfoudri%NULL%1,                Carlos%Alviar%NULL%1,                Vladimir%Aronsky%NULL%1,                Erin%August%NULL%1,                Georg%Auzinger%NULL%1,                Hilda%Aveja%NULL%1,                Rhonda%Bakken%NULL%1,                Joan%Balcells%NULL%1,                Sripal%Bangalore%NULL%1,                Bernard W.%Barnes%NULL%1,                Alaiza%Bautista%NULL%1,                Lorraine L.%Bellows%NULL%1,                Felipe%Beltran%NULL%1,                Peyman%Benharash%NULL%1,                Marco%Benni%NULL%1,                Jennifer%Berg%NULL%1,                Pietro%Bertini%NULL%1,                Pablo%Blanco-Schweizer%NULL%1,                Melissa%Brunsvold%NULL%1,                Jenny%Budd%NULL%1,                Debra%Camp%NULL%1,                Mark%Caridi-Scheible%NULL%0,                Edmund%Carton%NULL%1,                Elena%Casanova-Ghosh%NULL%1,                Anthony%Castleberry%NULL%1,                Christopher T.%Chipongian%NULL%1,                Chang Woo%Choi%NULL%1,                Alessandro%Circelli%NULL%1,                Elliott%Cohen%NULL%1,                Michael%Collins%NULL%1,                Scott%Copus%NULL%1,                Jill%Coy%NULL%1,                Brandon%Crist%NULL%1,                Leonora%Cruz%NULL%1,                Mirosław%Czuczwar%NULL%1,                Mani%Daneshmand%NULL%1,                Daniel%Davis II%NULL%1,                Kim%De la Cruz%NULL%1,                Cyndie%Devers%NULL%1,                Toni%Duculan%NULL%1,                Lucian%Durham%NULL%1,                Subbarao%Elapavaluru%NULL%1,                Carlos V.%Elzo Kraemer%NULL%1,                EDMÍLSON CARDOSO%Filho%NULL%1,                Jillian%Fitzgerald%NULL%1,                Giuseppe%Foti%NULL%1,                Matthew%Fox%NULL%1,                David%Fritschen%NULL%1,                David%Fullerton%NULL%1,                Elton%Gelandt%NULL%1,                Stacy%Gerle%NULL%1,                Marco%Giani%NULL%1,                Si Guim%Goh%NULL%1,                Sara%Govener%NULL%1,                Julie%Grone%NULL%1,                Miles%Guber%NULL%1,                Vadim%Gudzenko%NULL%1,                Daniel%Gutteridge%NULL%1,                Jennifer%Guy%NULL%1,                Jonathan%Haft%NULL%1,                Cameron%Hall%NULL%1,                Ibrahim Fawzy%Hassan%NULL%1,                Rubén%Herrán%NULL%1,                Hitoshi%Hirose%NULL%1,                Abdulsalam Saif%Ibrahim%NULL%1,                Don%Igielski%NULL%1,                Felicia A.%Ivascu%NULL%1,                Jaume%Izquierdo Blasco%NULL%1,                Julie%Jackson%NULL%1,                Harsh%Jain%NULL%1,                Bhavini%Jaiswal%NULL%1,                Andrea C.%Johnson%NULL%1,                Jenniver A.%Jurynec%NULL%1,                Norma M%Kellter%NULL%1,                Adam%Kohl%NULL%1,                Zachary%Kon%NULL%1,                Markus%Kredel%NULL%1,                Karen%Kriska%NULL%1,                Chandra%Kunavarapu%NULL%1,                Oude%Lansink-Hartgring%NULL%1,                Jeliene%LaRocque%NULL%1,                Sharon Beth%Larson%NULL%1,                Tracie%Layne%NULL%1,                Stephane%Ledot%NULL%1,                Napolitan%Lena%NULL%1,                Jonathan%Lillie%NULL%1,                Gösta%Lotz%NULL%1,                Mark%Lucas%NULL%1,                Lee%Ludwigson%NULL%1,                Jacinta J.%Maas%NULL%1,                Joanna%Maertens%NULL%1,                David%Mast%NULL%1,                Scott%McCardle%NULL%1,                Bernard%McDonald%NULL%1,                Allison%McLarty%NULL%1,                Chelsea%McMahon%NULL%1,                Patrick%Meybohm%NULL%1,                Bart%Meyns%NULL%1,                Casey%Miller%NULL%1,                Fernando%Moraes Neto%NULL%1,                Kelly%Morris%NULL%1,                Ralf%Muellenbach%NULL%1,                Meghan%Nicholson%NULL%1,                Serena%O'Brien%NULL%1,                Kathryn%O'Keefe%NULL%1,                Tawnya%Ogston%NULL%1,                Gary%Oldenburg%NULL%1,                Fabiana M.%Oliveira%NULL%1,                Emily%Oppel%NULL%1,                Diego%Pardo%NULL%2,                Diego%Pardo%NULL%0,                Sara J.%Parker%NULL%1,                Finn M.%Pedersen%NULL%1,                Crescens%Pellecchia%NULL%1,                Jose A.S.%Pelligrini%NULL%1,                Thao T.N.%Pham%NULL%1,                Ann R.%Phillips%NULL%1,                Tasneem%Pirani%NULL%1,                Paweł%Piwowarczyk%NULL%1,                Robert%Plambeck%NULL%1,                William%Pruett%NULL%1,                Brittany%Quandt%NULL%1,                Kollengode%Ramanathan%NULL%1,                Alejandro%Rey%NULL%1,                Christian%Reyher%NULL%1,                Jordi%Riera del Brio%NULL%1,                Rachel%Roberts%NULL%1,                David%Roe%NULL%1,                Peter P.%Roeleveld%NULL%1,                Janet%Rudy%NULL%1,                Luis F.%Rueda%NULL%1,                Emanuele%Russo%NULL%1,                Jesús%Sánchez Ballesteros%NULL%1,                Nancy%Satou%NULL%1,                Mauricio Guidi%Saueressig%NULL%1,                Paul C.%Saunders%NULL%1,                Margaret%Schlotterbeck%NULL%1,                Patricia%Schwarz%NULL%1,                Nicole%Scriven%NULL%1,                Alexis%Serra%NULL%1,                Mohammad%Shamsah%NULL%1,                Lucy%Sim%NULL%1,                Alexandra%Smart%NULL%1,                Adam%Smith%NULL%1,                Deane%Smith%NULL%1,                Maggie%Smith%NULL%1,                Neel%Sodha%NULL%1,                Michael%Sonntagbauer%NULL%1,                Marc%Sorenson%NULL%1,                Eric B%Stallkamp%NULL%1,                Allison%Stewart%NULL%1,                Kathy%Swartz%NULL%1,                Koji%Takeda%NULL%1,                Shaun%Thompson%NULL%1,                Bridget%Toy%NULL%1,                Divina%Tuazon%NULL%1,                Makoto%Uchiyama%NULL%1,                Obiora I.%Udeozo%NULL%1,                Scott%van Poppel%NULL%1,                Corey%Ventetuolo%NULL%1,                Leen%Vercaemst%NULL%1,                Nguyen V.%Vinh Chau%NULL%1,                I-Wen%Wang%NULL%1,                Carrie%Williamson%NULL%1,                Brock%Wilson%NULL%1,                Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,         Xiaoyan%Chen%xref no email%0,         Yanping%Cai%xref no email%0,         Jia\u2019an%Xia%xref no email%0,         Xing%Zhou%xref no email%0,         Sha%Xu%xref no email%0,         Hanping%Huang%xref no email%0,         Li%Zhang%xref no email%0,         Xia%Zhou%xref no email%0,         Chunling%Du%xref no email%0,         Yuye%Zhang%xref no email%0,         Juan%Song%xref no email%0,         Sijiao%Wang%xref no email%0,         Yencheng%Chao%xref no email%0,         Zeyong%Yang%xref no email%0,         Jie%Xu%xref no email%0,         Xin%Zhou%xref no email%0,         Dechang%Chen%xref no email%0,         Weining%Xiong%xref no email%0,         Lei%Xu%xref no email%0,         Feng%Zhou%xref no email%0,         Jinjun%Jiang%xref no email%0,         Chunxue%Bai%xref no email%0,         Junhua%Zheng%xref no email%0,         Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,                 Dhaval%Kolte%NULL%1,                 Mary E.%Cadigan%NULL%1,                 Elizabeth%Laikhter%NULL%1,                 Kevin%Sinclair%NULL%1,                 Eugene%Pomerantsev%NULL%1,                 Michael A.%Fifer%NULL%1,                 Thoralf M.%Sundt%NULL%1,                 Robert W.%Yeh%NULL%1,                 Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                Cabrini%Luca%coreGivesNoEmail%1,                Castelli%Antonio%coreGivesNoEmail%1,                Cecconi%Maurizio%coreGivesNoEmail%1,                Cereda%Danilo%coreGivesNoEmail%1,                Coluccello%Antonio%coreGivesNoEmail%1,                Foti%Giuseppe%coreGivesNoEmail%1,                Fumagalli%Roberto%coreGivesNoEmail%1,                Grasselli%Giacomo%coreGivesNoEmail%1,                Iotti%Giorgio%coreGivesNoEmail%1,                Latronico%Nicola%coreGivesNoEmail%1,                Lorini%Luca%coreGivesNoEmail%1,                Merler%Stefano%coreGivesNoEmail%1,                Natalini%Giuseppe%coreGivesNoEmail%1,                Pesenti%Antonio%coreGivesNoEmail%1,                Piatti%Alessandra%coreGivesNoEmail%1,                Ranieri%Marco Vito%coreGivesNoEmail%1,                Scandroglio%Anna Mara%coreGivesNoEmail%1,                Storti%Enrico%coreGivesNoEmail%1,                Zanella%Alberto%coreGivesNoEmail%1,                Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                 Yeming%Wang%NULL%0,                 Xingwang%Li%NULL%0,                 Lili%Ren%NULL%0,                 Jianping%Zhao%NULL%0,                 Yi%Hu%NULL%0,                 Li%Zhang%NULL%0,                 Guohui%Fan%NULL%0,                 Jiuyang%Xu%NULL%0,                 Xiaoying%Gu%NULL%0,                 Zhenshun%Cheng%NULL%0,                 Ting%Yu%NULL%0,                 Jiaan%Xia%NULL%0,                 Yuan%Wei%NULL%0,                 Wenjuan%Wu%NULL%0,                 Xuelei%Xie%NULL%0,                 Wen%Yin%NULL%0,                 Hui%Li%NULL%0,                 Min%Liu%NULL%0,                 Yan%Xiao%NULL%0,                 Hong%Gao%NULL%0,                 Li%Guo%NULL%0,                 Jungang%Xie%NULL%0,                 Guangfa%Wang%NULL%0,                 Rongmeng%Jiang%NULL%0,                 Zhancheng%Gao%NULL%0,                 Qi%Jin%NULL%0,                 Jianwei%Wang%wangjw28@163.com%0,                 Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                 Yi%Xiang%NULL%0,                 Wei%Fang%NULL%0,                 Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                 Boqun%Li%279685211@qq.com%0,                 Boqun%Li%279685211@qq.com%0,                 Yanjun%Hu%huyanjun@163.com%0,                 Chunhui%Lang%NULL%0,                 Daoqiu%Huang%NULL%0,                 Qiuyan%Sun%NULL%0,                 Yan%Xiong%NULL%0,                 Xia%Huang%NULL%0,                 Jinglong%Lv%NULL%0,                 Yaling%Luo%NULL%0,                 Li%Shen%NULL%0,                 Haoran%Yang%NULL%0,                 Gu%Huang%NULL%0,                 Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,         Eric%Yim%xref no email%0,         Lindy%Klaff%xref no email%0,         Sharukh%Lokhandwala%xref no email%0,         Francis X.%Riedo%xref no email%0,         Maria%Chong%xref no email%0,         Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                 Mark%Caridi-Scheible%NULL%3,                 James M.%Blum%NULL%2,                 Chad%Robichaux%NULL%2,                 Colleen%Kraft%NULL%2,                 Jesse T.%Jacob%NULL%2,                 Craig S.%Jabaley%NULL%2,                 David%Carpenter%NULL%2,                 Roberta%Kaplow%NULL%2,                 Alfonso C.%Hernandez-Romieu%NULL%2,                 Max W.%Adelman%NULL%2,                 Greg S.%Martin%NULL%2,                 Craig M.%Coopersmith%NULL%2,                 David J.%Murphy%NULL%2,                 NULL%NULL%NULL%0,                  S.%Auld%null%1,                  M.% Caridi-Scheible%null%1,                  J. M.% Blum%null%1,                  C. J.% Robichaux%null%1,                  C. S.% Kraft%null%1,                  J. T.% Jacob%null%1,                  C. S.% Jabaley%null%1,                  D.% Carpenter%null%1,                  R.% Kaplow%null%1,                  A. C.% Hernandez%null%1,                  M. W.% Adelman%null%1,                  G. S.% Martin%null%1,                  C. M.% Coopersmith%null%1,                  D. J.% Murphy%null%1,                    % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,                S.%Auld%null%1,                M.% Caridi-Scheible%null%1,                J. M.% Blum%null%1,                C. J.% Robichaux%null%1,                C. S.% Kraft%null%1,                J. T.% Jacob%null%1,                C. S.% Jabaley%null%1,                D.% Carpenter%null%1,                R.% Kaplow%null%1,                A. C.% Hernandez%null%1,                M. W.% Adelman%null%1,                G. S.% Martin%null%1,                C. M.% Coopersmith%null%1,                D. J.% Murphy%null%1,                  % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                 Bijan J.%Ghassemieh%NULL%2,                 Michelle%Nichols%NULL%2,                 Richard%Kim%NULL%2,                 Keith R.%Jerome%NULL%2,                 Arun K.%Nalla%NULL%2,                 Alexander L.%Greninger%NULL%2,                 Sudhakar%Pipavath%NULL%2,                 Mark M.%Wurfel%NULL%2,                 Laura%Evans%NULL%2,                 Patricia A.%Kritek%NULL%2,                 T. Eoin%West%NULL%2,                 Andrew%Luks%NULL%2,                 Anthony%Gerbino%NULL%2,                 Chris R.%Dale%NULL%2,                 Jason D.%Goldman%NULL%2,                 Shane%O’Mahony%NULL%2,                 Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                 Tangkai%Qi%NULL%0,                 Li%Liu%NULL%0,                 Yun%Ling%NULL%0,                 Zhiping%Qian%NULL%0,                 Tao%Li%NULL%0,                 Feng%Li%NULL%0,                 Qingnian%Xu%NULL%0,                 Yuyi%Zhang%NULL%0,                 Shuibao%Xu%NULL%0,                 Zhigang%Song%NULL%0,                 Yigang%Zeng%NULL%0,                 Yinzhong%Shen%NULL%0,                 Yuxin%Shi%NULL%0,                 Tongyu%Zhu%NULL%0,                 Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                 Min%Zhou%NULL%0,                 Xuan%Dong%NULL%0,                 Jieming%Qu%NULL%0,                 Fengyun%Gong%NULL%0,                 Yang%Han%NULL%0,                 Yang%Qiu%NULL%0,                 Jingli%Wang%NULL%0,                 Ying%Liu%NULL%0,                 Yuan%Wei%NULL%0,                 Jia'an%Xia%NULL%0,                 Ting%Yu%NULL%0,                 Xinxin%Zhang%NULL%0,                 Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                 Zheng-yi%Ni%NULL%0,                 Zheng-yi%Ni%NULL%0,                 Yu%Hu%NULL%0,                 Wen-hua%Liang%NULL%0,                 Chun-quan%Ou%NULL%0,                 Jian-xing%He%NULL%0,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chun-liang%Lei%NULL%0,                 David S.C.%Hui%NULL%0,                 Bin%Du%NULL%0,                 Lan-juan%Li%NULL%0,                 Guang%Zeng%NULL%0,                 Kwok-Yung%Yuen%NULL%0,                 Ru-chong%Chen%NULL%0,                 Chun-li%Tang%NULL%0,                 Tao%Wang%NULL%0,                 Ping-yan%Chen%NULL%0,                 Jie%Xiang%NULL%0,                 Shi-yue%Li%NULL%0,                 Jin-lin%Wang%NULL%0,                 Zi-jing%Liang%NULL%0,                 Yi-xiang%Peng%NULL%0,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Ya-hua%Hu%NULL%0,                 Peng%Peng%NULL%0,                 Jian-ming%Wang%NULL%0,                 Ji-yang%Liu%NULL%0,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhi-jian%Zheng%NULL%0,                 Shao-qin%Qiu%NULL%0,                 Jie%Luo%NULL%0,                 Chang-jiang%Ye%NULL%0,                 Shao-yong%Zhu%NULL%0,                 Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                 Yuanyuan%Xing%NULL%2,                 Yu%Xiao%NULL%2,                 Liping%Deng%NULL%3,                 Qiu%Zhao%NULL%2,                 Hongling%Wang%NULL%2,                 Yong%Xiong%NULL%4,                 Zhenshun%Cheng%NULL%0,                 Shicheng%Gao%NULL%3,                 Ke%Liang%NULL%3,                 Mingqi%Luo%NULL%3,                 Tielong%Chen%NULL%2,                 Shihui%Song%NULL%3,                 Zhiyong%Ma%NULL%3,                 Xiaoping%Chen%NULL%3,                 Ruiying%Zheng%NULL%2,                 Qian%Cao%NULL%2,                 Fan%Wang%fanndywang@foxmail.com%2,                 Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%1,                 N -B%Yang%NULL%1,                 F%Ding%NULL%1,                 A H Y%Ma%NULL%1,                 Z -Y%Wang%NULL%2,                 Y -F%Shen%NULL%1,                 C -W%Shi%NULL%1,                 X%Lian%NULL%1,                 J -G%Chu%NULL%1,                 L%Chen%chxmin@hotmail.com%1,                 Z -Y%Wang%NULL%0,                 D -W%Ren%NULL%1,                 G -X%Li%NULL%1,                 X -Q%Chen%chxmin@hotmail.com%1,                 H -J%Shen%NULL%1,                 X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,                 Hugues%Spillemaeker%NULL%1,                 Maéva%Kyheng%NULL%1,                 Cassandre%Belin‐Vincent%NULL%1,                 Cédric%Delhaye%NULL%1,                 Adeline%Piérache%NULL%1,                 Tom%Denimal%NULL%1,                 Basile%Verdier%NULL%1,                 Nicolas%Debry%NULL%1,                 Mouhamed%Moussa%NULL%1,                 Guillaume%Schurtz%NULL%1,                 Sina%Porouchani%NULL%1,                 Alessandro%Cosenza%NULL%1,                 Francis%Juthier%NULL%1,                 Thibault%Pamart%NULL%1,                 Marjorie%Richardson%NULL%1,                 Augustin%Coisne%NULL%1,                 Adrien%Hertault%NULL%1,                 Jonathan%Sobocinski%NULL%1,                 Thomas%Modine%NULL%1,                 François%Pontana%NULL%1,                 Alain%Duhamel%NULL%2,                 Julien%Labreuche%NULL%2,                 Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,                 Yimei%Yin%18256985@qq.com%1,                 Chang%Hu%1391369733@qq.com%3,                 Xing%Liu%375117565@qq.com%1,                 Xingguo%Zhang%zhangxinguo7909@163.com%1,                 Shuliang%Zhou%350925556@qq.com%1,                 Mingzhi%Jian%Jmzhak@aliyun.com%1,                 Haibo%Xu%xuhaibo1120@hotmail.com%0,                 John%Prowle%j.prowle@qmul.ac.uk%1,                 Bo%Hu%hobbier1979@163.com%0,                 Yirong%Li%liyirong838@163.com%1,                 Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wentao%Xu%xref no email%1,         Shuang%Qu%xref no email%1,         Mengying%Xing%xref no email%1,         Ming%Zhang%xref no email%1,         Geng%Lu%xref no email%1,         Zhicong%Liao%xref no email%1,         Kimberly%Griffin%xref no email%1,         Jun%Wang%xref no email%1,         Ke%Zen%xref no email%1,         Bing%Yao%xref no email%1,         Hongwei%Liang%xref no email%1,         Jianping%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                 Xiao-Xin%Wu%NULL%0,                 Xian-Gao%Jiang%NULL%0,                 Kai-Jin%Xu%NULL%0,                 Ling-Jun%Ying%NULL%0,                 Chun-Lian%Ma%NULL%0,                 Shi-Bo%Li%NULL%0,                 Hua-Ying%Wang%NULL%0,                 Sheng%Zhang%NULL%0,                 Hai-Nv%Gao%NULL%0,                 Ji-Fang%Sheng%NULL%0,                 Hong-Liu%Cai%NULL%0,                 Yun-Qing%Qiu%NULL%0,                 Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                 Chang%Hu%NULL%0,                 Linjie%Luo%NULL%2,                 Fang%Fang%NULL%0,                 Yongfeng%Chen%NULL%2,                 Jianguo%Li%NULL%2,                 Zhiyong%Peng%NULL%0,                 Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,                 Chun%Liao%lc7spring@163.com%1,                 Qi-hong%Fan%1187286305@qq.com%1,                 Hong-bo%Chen%hbchen@hust.edu.cn%1,                 Xue-gong%Zhao%NULL%1,                 Zhong-guo%Xie%NULL%1,                 Xi-lin%Li%NULL%1,                 Chun-xi%Chen%NULL%1,                 Xiao-xia%Lu%NULL%1,                 Zhi-sheng%Liu%NULL%1,                 Wei%Lu%NULL%1,                 Chun-bao%Chen%NULL%1,                 Rong%Jiao%NULL%1,                 Ai-ming%Zhang%NULL%1,                 Jin-tang%Wang%NULL%1,                 Xi-wei%Ding%NULL%1,                 Yao-guang%Zeng%NULL%1,                 Li-ping%Cheng%NULL%1,                 Qing-feng%Huang%NULL%1,                 Jiang%Wu%NULL%0,                 Xi-chang%Luo%NULL%1,                 Zhu-jun%Wang%NULL%1,                 Yan-yan%Zhong%NULL%1,                 Yan%Bai%yanbaixh@hust.edu.cn%1,                 Xiao-yan%Wu%xwu@hust.edu.cn%1,                 Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                 Ting%Yu%NULL%0,                 Ronghui%Du%NULL%0,                 Guohui%Fan%NULL%0,                 Ying%Liu%NULL%0,                 Zhibo%Liu%NULL%0,                 Jie%Xiang%NULL%0,                 Yeming%Wang%NULL%0,                 Bin%Song%NULL%0,                 Xiaoying%Gu%NULL%0,                 Lulu%Guan%NULL%0,                 Yuan%Wei%NULL%0,                 Hui%Li%NULL%0,                 Xudong%Wu%NULL%0,                 Jiuyang%Xu%NULL%0,                 Shengjin%Tu%NULL%0,                 Yi%Zhang%NULL%0,                 Hua%Chen%NULL%0,                 Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                 Mengqi%Tu%NULL%0,                 Shipei%Wang%NULL%0,                 Sichao%Chen%NULL%0,                 Wei%Zhou%NULL%0,                 Danyang%Chen%NULL%0,                 Lin%Zhou%NULL%0,                 Min%Wang%NULL%0,                 Yan%Zhao%NULL%0,                 Wen%Zeng%NULL%0,                 Qi%Huang%NULL%0,                 Hai'bo%Xu%NULL%0,                 Zeming%Liu%NULL%0,                 Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                 Yuan%Yu%NULL%0,                 Jiqian%Xu%NULL%0,                 Huaqing%Shu%NULL%0,                 Jia'an%Xia%NULL%0,                 Hong%Liu%NULL%0,                 Yongran%Wu%NULL%0,                 Lu%Zhang%NULL%0,                 Zhui%Yu%NULL%0,                 Minghao%Fang%NULL%0,                 Ting%Yu%NULL%0,                 Yaxin%Wang%NULL%0,                 Shangwen%Pan%NULL%0,                 Xiaojing%Zou%NULL%0,                 Shiying%Yuan%NULL%0,                 You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,                 Wei-jie%Guan%NULL%2,                 Cai-chen%Li%NULL%3,                 Yi-min%Li%NULL%3,                 Heng-rui%Liang%NULL%3,                 Yi%Zhao%NULL%3,                 Xiao-qing%Liu%NULL%3,                 Ling%Sang%NULL%0,                 Ru-chong%Chen%NULL%0,                 Chun-li%Tang%NULL%0,                 Tao%Wang%NULL%0,                 Wei%Wang%NULL%0,                 Qi-hua%He%NULL%2,                 Zi-sheng%Chen%NULL%3,                 Sook-San%Wong%NULL%2,                 Mark%Zanin%NULL%2,                 Jun%Liu%NULL%0,                 Xin%Xu%NULL%3,                 Jun%Huang%NULL%2,                 Jian-fu%Li%NULL%3,                 Li-min%Ou%NULL%3,                 Bo%Cheng%NULL%3,                 Shan%Xiong%NULL%3,                 Zhan-hong%Xie%NULL%2,                 Zheng-yi%Ni%NULL%0,                 Yu%Hu%NULL%0,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chun-liang%Lei%NULL%0,                 Yi-xiang%Peng%NULL%0,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Ya-hua%Hu%NULL%0,                 Peng%Peng%NULL%0,                 Jian-ming%Wang%NULL%0,                 Ji-yang%Liu%NULL%0,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhi-jian%Zheng%NULL%0,                 Shao-qin%Qiu%NULL%0,                 Jie%Luo%NULL%0,                 Chang-jiang%Ye%NULL%0,                 Shao-yong%Zhu%NULL%0,                 Lin-ling%Cheng%NULL%3,                 Feng%Ye%NULL%5,                 Shi-yue%Li%NULL%0,                 Jin-ping%Zheng%NULL%3,                 Nuo-fu%Zhang%NULL%3,                 Nan-shan%Zhong%NULL%0,                 Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                 Simon A%Jones%NULL%1,                 Jie%Yang%NULL%0,                 Harish%Rajagopalan%NULL%1,                 Luke%O’Donnell%NULL%1,                 Yelena%Chernyak%NULL%1,                 Katie A%Tobin%NULL%1,                 Robert J%Cerfolio%NULL%1,                 Fritz%Francois%NULL%1,                 Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0,                 Stephanie%Bialek%NULL%1,                 Ellen%Boundy%NULL%1,                 Virginia%Bowen%NULL%1,                 Nancy%Chow%NULL%2,                 Amanda%Cohn%NULL%1,                 Nicole%Dowling%NULL%1,                 Sascha%Ellington%NULL%1,                 Ryan%Gierke%NULL%2,                 Aron%Hall%NULL%2,                 Jessica%MacNeil%NULL%1,                 Priti%Patel%NULL%1,                 Georgina%Peacock%NULL%1,                 Tamara%Pilishvili%NULL%2,                 Hilda%Razzaghi%NULL%1,                 Nia%Reed%NULL%1,                 Matthew%Ritchey%NULL%2,                 Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,                 Pedro%Póvoa%NULL%1,                 Vicente%Souza-Dantas%NULL%1,                 André C.%Kalil%NULL%1,                 Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,                 Graeme%MacLaren%NULL%1,                 Philip S%Boonstra%NULL%1,                 Theodore J%Iwashyna%NULL%1,                 Arthur S%Slutsky%NULL%1,                 Eddy%Fan%NULL%1,                 Robert H%Bartlett%NULL%1,                 Joseph E%Tonna%NULL%1,                 Robert%Hyslop%NULL%1,                 Jeffrey J%Fanning%NULL%1,                 Peter T%Rycus%NULL%1,                 Steve J%Hyer%NULL%1,                 Marc M%Anders%NULL%1,                 Cara L%Agerstrand%NULL%1,                 Katarzyna%Hryniewicz%NULL%1,                 Rodrigo%Diaz%NULL%1,                 Roberto%Lorusso%NULL%1,                 Alain%Combes%NULL%1,                 Daniel%Brodie%NULL%4,                 Peta%Alexander%NULL%1,                 Nicholas%Barrett%NULL%1,                 Jan%Bělohlávek%NULL%1,                 Dale%Fisher%NULL%1,                 John%Fraser%NULL%1,                 Ali Ait%Hssain%NULL%1,                 Jae Sung%Jung%NULL%1,                 Michael%McMullan%NULL%1,                 Yatin%Mehta%NULL%1,                 Mark T.%Ogino%NULL%1,                 Matthew L.%Paden%NULL%1,                 Kiran%Shekar%NULL%1,                 Christine%Stead%NULL%1,                 Yasir%Abu-Omar%NULL%1,                 Vanni%Agnoletti%NULL%1,                 Anzila%Akbar%NULL%1,                 Huda%Alfoudri%NULL%1,                 Carlos%Alviar%NULL%1,                 Vladimir%Aronsky%NULL%1,                 Erin%August%NULL%1,                 Georg%Auzinger%NULL%1,                 Hilda%Aveja%NULL%1,                 Rhonda%Bakken%NULL%1,                 Joan%Balcells%NULL%1,                 Sripal%Bangalore%NULL%1,                 Bernard W.%Barnes%NULL%1,                 Alaiza%Bautista%NULL%1,                 Lorraine L.%Bellows%NULL%1,                 Felipe%Beltran%NULL%1,                 Peyman%Benharash%NULL%1,                 Marco%Benni%NULL%1,                 Jennifer%Berg%NULL%1,                 Pietro%Bertini%NULL%1,                 Pablo%Blanco-Schweizer%NULL%1,                 Melissa%Brunsvold%NULL%1,                 Jenny%Budd%NULL%1,                 Debra%Camp%NULL%1,                 Mark%Caridi-Scheible%NULL%0,                 Edmund%Carton%NULL%1,                 Elena%Casanova-Ghosh%NULL%1,                 Anthony%Castleberry%NULL%1,                 Christopher T.%Chipongian%NULL%1,                 Chang Woo%Choi%NULL%1,                 Alessandro%Circelli%NULL%1,                 Elliott%Cohen%NULL%1,                 Michael%Collins%NULL%1,                 Scott%Copus%NULL%1,                 Jill%Coy%NULL%1,                 Brandon%Crist%NULL%1,                 Leonora%Cruz%NULL%1,                 Mirosław%Czuczwar%NULL%1,                 Mani%Daneshmand%NULL%1,                 Daniel%Davis II%NULL%1,                 Kim%De la Cruz%NULL%1,                 Cyndie%Devers%NULL%1,                 Toni%Duculan%NULL%1,                 Lucian%Durham%NULL%1,                 Subbarao%Elapavaluru%NULL%1,                 Carlos V.%Elzo Kraemer%NULL%1,                 EDMÍLSON CARDOSO%Filho%NULL%1,                 Jillian%Fitzgerald%NULL%1,                 Giuseppe%Foti%NULL%1,                 Matthew%Fox%NULL%1,                 David%Fritschen%NULL%1,                 David%Fullerton%NULL%1,                 Elton%Gelandt%NULL%1,                 Stacy%Gerle%NULL%1,                 Marco%Giani%NULL%1,                 Si Guim%Goh%NULL%1,                 Sara%Govener%NULL%1,                 Julie%Grone%NULL%1,                 Miles%Guber%NULL%1,                 Vadim%Gudzenko%NULL%1,                 Daniel%Gutteridge%NULL%1,                 Jennifer%Guy%NULL%1,                 Jonathan%Haft%NULL%1,                 Cameron%Hall%NULL%1,                 Ibrahim Fawzy%Hassan%NULL%1,                 Rubén%Herrán%NULL%1,                 Hitoshi%Hirose%NULL%1,                 Abdulsalam Saif%Ibrahim%NULL%1,                 Don%Igielski%NULL%1,                 Felicia A.%Ivascu%NULL%1,                 Jaume%Izquierdo Blasco%NULL%1,                 Julie%Jackson%NULL%1,                 Harsh%Jain%NULL%1,                 Bhavini%Jaiswal%NULL%1,                 Andrea C.%Johnson%NULL%1,                 Jenniver A.%Jurynec%NULL%1,                 Norma M%Kellter%NULL%1,                 Adam%Kohl%NULL%1,                 Zachary%Kon%NULL%1,                 Markus%Kredel%NULL%1,                 Karen%Kriska%NULL%1,                 Chandra%Kunavarapu%NULL%1,                 Oude%Lansink-Hartgring%NULL%1,                 Jeliene%LaRocque%NULL%1,                 Sharon Beth%Larson%NULL%1,                 Tracie%Layne%NULL%1,                 Stephane%Ledot%NULL%1,                 Napolitan%Lena%NULL%1,                 Jonathan%Lillie%NULL%1,                 Gösta%Lotz%NULL%1,                 Mark%Lucas%NULL%1,                 Lee%Ludwigson%NULL%1,                 Jacinta J.%Maas%NULL%1,                 Joanna%Maertens%NULL%1,                 David%Mast%NULL%1,                 Scott%McCardle%NULL%1,                 Bernard%McDonald%NULL%1,                 Allison%McLarty%NULL%1,                 Chelsea%McMahon%NULL%1,                 Patrick%Meybohm%NULL%1,                 Bart%Meyns%NULL%1,                 Casey%Miller%NULL%1,                 Fernando%Moraes Neto%NULL%1,                 Kelly%Morris%NULL%1,                 Ralf%Muellenbach%NULL%1,                 Meghan%Nicholson%NULL%1,                 Serena%O'Brien%NULL%1,                 Kathryn%O'Keefe%NULL%1,                 Tawnya%Ogston%NULL%1,                 Gary%Oldenburg%NULL%1,                 Fabiana M.%Oliveira%NULL%1,                 Emily%Oppel%NULL%1,                 Diego%Pardo%NULL%2,                 Diego%Pardo%NULL%0,                 Sara J.%Parker%NULL%1,                 Finn M.%Pedersen%NULL%1,                 Crescens%Pellecchia%NULL%1,                 Jose A.S.%Pelligrini%NULL%1,                 Thao T.N.%Pham%NULL%1,                 Ann R.%Phillips%NULL%1,                 Tasneem%Pirani%NULL%1,                 Paweł%Piwowarczyk%NULL%1,                 Robert%Plambeck%NULL%1,                 William%Pruett%NULL%1,                 Brittany%Quandt%NULL%1,                 Kollengode%Ramanathan%NULL%1,                 Alejandro%Rey%NULL%1,                 Christian%Reyher%NULL%1,                 Jordi%Riera del Brio%NULL%1,                 Rachel%Roberts%NULL%1,                 David%Roe%NULL%1,                 Peter P.%Roeleveld%NULL%1,                 Janet%Rudy%NULL%1,                 Luis F.%Rueda%NULL%1,                 Emanuele%Russo%NULL%1,                 Jesús%Sánchez Ballesteros%NULL%1,                 Nancy%Satou%NULL%1,                 Mauricio Guidi%Saueressig%NULL%1,                 Paul C.%Saunders%NULL%1,                 Margaret%Schlotterbeck%NULL%1,                 Patricia%Schwarz%NULL%1,                 Nicole%Scriven%NULL%1,                 Alexis%Serra%NULL%1,                 Mohammad%Shamsah%NULL%1,                 Lucy%Sim%NULL%1,                 Alexandra%Smart%NULL%1,                 Adam%Smith%NULL%1,                 Deane%Smith%NULL%1,                 Maggie%Smith%NULL%1,                 Neel%Sodha%NULL%1,                 Michael%Sonntagbauer%NULL%1,                 Marc%Sorenson%NULL%1,                 Eric B%Stallkamp%NULL%1,                 Allison%Stewart%NULL%1,                 Kathy%Swartz%NULL%1,                 Koji%Takeda%NULL%1,                 Shaun%Thompson%NULL%1,                 Bridget%Toy%NULL%1,                 Divina%Tuazon%NULL%1,                 Makoto%Uchiyama%NULL%1,                 Obiora I.%Udeozo%NULL%1,                 Scott%van Poppel%NULL%1,                 Corey%Ventetuolo%NULL%1,                 Leen%Vercaemst%NULL%1,                 Nguyen V.%Vinh Chau%NULL%1,                 I-Wen%Wang%NULL%1,                 Carrie%Williamson%NULL%1,                 Brock%Wilson%NULL%1,                 Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,          Xiaoyan%Chen%xref no email%0,          Yanping%Cai%xref no email%0,          Jia\u2019an%Xia%xref no email%0,          Xing%Zhou%xref no email%0,          Sha%Xu%xref no email%0,          Hanping%Huang%xref no email%0,          Li%Zhang%xref no email%0,          Xia%Zhou%xref no email%0,          Chunling%Du%xref no email%0,          Yuye%Zhang%xref no email%0,          Juan%Song%xref no email%0,          Sijiao%Wang%xref no email%0,          Yencheng%Chao%xref no email%0,          Zeyong%Yang%xref no email%0,          Jie%Xu%xref no email%0,          Xin%Zhou%xref no email%0,          Dechang%Chen%xref no email%0,          Weining%Xiong%xref no email%0,          Lei%Xu%xref no email%0,          Feng%Zhou%xref no email%0,          Jinjun%Jiang%xref no email%0,          Chunxue%Bai%xref no email%0,          Junhua%Zheng%xref no email%0,          Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,                  Dhaval%Kolte%NULL%1,                  Mary E.%Cadigan%NULL%1,                  Elizabeth%Laikhter%NULL%1,                  Kevin%Sinclair%NULL%1,                  Eugene%Pomerantsev%NULL%1,                  Michael A.%Fifer%NULL%1,                  Thoralf M.%Sundt%NULL%1,                  Robert W.%Yeh%NULL%1,                  Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                 Cabrini%Luca%coreGivesNoEmail%1,                 Castelli%Antonio%coreGivesNoEmail%1,                 Cecconi%Maurizio%coreGivesNoEmail%1,                 Cereda%Danilo%coreGivesNoEmail%1,                 Coluccello%Antonio%coreGivesNoEmail%1,                 Foti%Giuseppe%coreGivesNoEmail%1,                 Fumagalli%Roberto%coreGivesNoEmail%1,                 Grasselli%Giacomo%coreGivesNoEmail%1,                 Iotti%Giorgio%coreGivesNoEmail%1,                 Latronico%Nicola%coreGivesNoEmail%1,                 Lorini%Luca%coreGivesNoEmail%1,                 Merler%Stefano%coreGivesNoEmail%1,                 Natalini%Giuseppe%coreGivesNoEmail%1,                 Pesenti%Antonio%coreGivesNoEmail%1,                 Piatti%Alessandra%coreGivesNoEmail%1,                 Ranieri%Marco Vito%coreGivesNoEmail%1,                 Scandroglio%Anna Mara%coreGivesNoEmail%1,                 Storti%Enrico%coreGivesNoEmail%1,                 Zanella%Alberto%coreGivesNoEmail%1,                 Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                  Yeming%Wang%NULL%0,                  Xingwang%Li%NULL%0,                  Lili%Ren%NULL%0,                  Jianping%Zhao%NULL%0,                  Yi%Hu%NULL%0,                  Li%Zhang%NULL%0,                  Guohui%Fan%NULL%0,                  Jiuyang%Xu%NULL%0,                  Xiaoying%Gu%NULL%0,                  Zhenshun%Cheng%NULL%0,                  Ting%Yu%NULL%0,                  Jiaan%Xia%NULL%0,                  Yuan%Wei%NULL%0,                  Wenjuan%Wu%NULL%0,                  Xuelei%Xie%NULL%0,                  Wen%Yin%NULL%0,                  Hui%Li%NULL%0,                  Min%Liu%NULL%0,                  Yan%Xiao%NULL%0,                  Hong%Gao%NULL%0,                  Li%Guo%NULL%0,                  Jungang%Xie%NULL%0,                  Guangfa%Wang%NULL%0,                  Rongmeng%Jiang%NULL%0,                  Zhancheng%Gao%NULL%0,                  Qi%Jin%NULL%0,                  Jianwei%Wang%wangjw28@163.com%0,                  Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                  Yi%Xiang%NULL%0,                  Wei%Fang%NULL%0,                  Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                  Boqun%Li%279685211@qq.com%0,                  Boqun%Li%279685211@qq.com%0,                  Yanjun%Hu%huyanjun@163.com%0,                  Chunhui%Lang%NULL%0,                  Daoqiu%Huang%NULL%0,                  Qiuyan%Sun%NULL%0,                  Yan%Xiong%NULL%0,                  Xia%Huang%NULL%0,                  Jinglong%Lv%NULL%0,                  Yaling%Luo%NULL%0,                  Li%Shen%NULL%0,                  Haoran%Yang%NULL%0,                  Gu%Huang%NULL%0,                  Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,          Eric%Yim%xref no email%0,          Lindy%Klaff%xref no email%0,          Sharukh%Lokhandwala%xref no email%0,          Francis X.%Riedo%xref no email%0,          Maria%Chong%xref no email%0,          Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                  Mark%Caridi-Scheible%NULL%3,                  James M.%Blum%NULL%2,                  Chad%Robichaux%NULL%2,                  Colleen%Kraft%NULL%2,                  Jesse T.%Jacob%NULL%2,                  Craig S.%Jabaley%NULL%2,                  David%Carpenter%NULL%2,                  Roberta%Kaplow%NULL%2,                  Alfonso C.%Hernandez-Romieu%NULL%2,                  Max W.%Adelman%NULL%2,                  Greg S.%Martin%NULL%2,                  Craig M.%Coopersmith%NULL%2,                  David J.%Murphy%NULL%2,                  NULL%NULL%NULL%0,                   S.%Auld%null%1,                   M.% Caridi-Scheible%null%1,                   J. M.% Blum%null%1,                   C. J.% Robichaux%null%1,                   C. S.% Kraft%null%1,                   J. T.% Jacob%null%1,                   C. S.% Jabaley%null%1,                   D.% Carpenter%null%1,                   R.% Kaplow%null%1,                   A. C.% Hernandez%null%1,                   M. W.% Adelman%null%1,                   G. S.% Martin%null%1,                   C. M.% Coopersmith%null%1,                   D. J.% Murphy%null%1,                     % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,                 S.%Auld%null%1,                 M.% Caridi-Scheible%null%1,                 J. M.% Blum%null%1,                 C. J.% Robichaux%null%1,                 C. S.% Kraft%null%1,                 J. T.% Jacob%null%1,                 C. S.% Jabaley%null%1,                 D.% Carpenter%null%1,                 R.% Kaplow%null%1,                 A. C.% Hernandez%null%1,                 M. W.% Adelman%null%1,                 G. S.% Martin%null%1,                 C. M.% Coopersmith%null%1,                 D. J.% Murphy%null%1,                   % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                  Bijan J.%Ghassemieh%NULL%2,                  Michelle%Nichols%NULL%2,                  Richard%Kim%NULL%2,                  Keith R.%Jerome%NULL%2,                  Arun K.%Nalla%NULL%2,                  Alexander L.%Greninger%NULL%2,                  Sudhakar%Pipavath%NULL%2,                  Mark M.%Wurfel%NULL%2,                  Laura%Evans%NULL%2,                  Patricia A.%Kritek%NULL%2,                  T. Eoin%West%NULL%2,                  Andrew%Luks%NULL%2,                  Anthony%Gerbino%NULL%2,                  Chris R.%Dale%NULL%2,                  Jason D.%Goldman%NULL%2,                  Shane%O’Mahony%NULL%2,                  Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                  Tangkai%Qi%NULL%0,                  Li%Liu%NULL%0,                  Yun%Ling%NULL%0,                  Zhiping%Qian%NULL%0,                  Tao%Li%NULL%0,                  Feng%Li%NULL%0,                  Qingnian%Xu%NULL%0,                  Yuyi%Zhang%NULL%0,                  Shuibao%Xu%NULL%0,                  Zhigang%Song%NULL%0,                  Yigang%Zeng%NULL%0,                  Yinzhong%Shen%NULL%0,                  Yuxin%Shi%NULL%0,                  Tongyu%Zhu%NULL%0,                  Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                  Min%Zhou%NULL%0,                  Xuan%Dong%NULL%0,                  Jieming%Qu%NULL%0,                  Fengyun%Gong%NULL%0,                  Yang%Han%NULL%0,                  Yang%Qiu%NULL%0,                  Jingli%Wang%NULL%0,                  Ying%Liu%NULL%0,                  Yuan%Wei%NULL%0,                  Jia'an%Xia%NULL%0,                  Ting%Yu%NULL%0,                  Xinxin%Zhang%NULL%0,                  Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                  Zheng-yi%Ni%NULL%0,                  Zheng-yi%Ni%NULL%0,                  Yu%Hu%NULL%0,                  Wen-hua%Liang%NULL%0,                  Chun-quan%Ou%NULL%0,                  Jian-xing%He%NULL%0,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chun-liang%Lei%NULL%0,                  David S.C.%Hui%NULL%0,                  Bin%Du%NULL%0,                  Lan-juan%Li%NULL%0,                  Guang%Zeng%NULL%0,                  Kwok-Yung%Yuen%NULL%0,                  Ru-chong%Chen%NULL%0,                  Chun-li%Tang%NULL%0,                  Tao%Wang%NULL%0,                  Ping-yan%Chen%NULL%0,                  Jie%Xiang%NULL%0,                  Shi-yue%Li%NULL%0,                  Jin-lin%Wang%NULL%0,                  Zi-jing%Liang%NULL%0,                  Yi-xiang%Peng%NULL%0,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Ya-hua%Hu%NULL%0,                  Peng%Peng%NULL%0,                  Jian-ming%Wang%NULL%0,                  Ji-yang%Liu%NULL%0,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhi-jian%Zheng%NULL%0,                  Shao-qin%Qiu%NULL%0,                  Jie%Luo%NULL%0,                  Chang-jiang%Ye%NULL%0,                  Shao-yong%Zhu%NULL%0,                  Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                  Yuanyuan%Xing%NULL%2,                  Yu%Xiao%NULL%2,                  Liping%Deng%NULL%3,                  Qiu%Zhao%NULL%2,                  Hongling%Wang%NULL%2,                  Yong%Xiong%NULL%4,                  Zhenshun%Cheng%NULL%0,                  Shicheng%Gao%NULL%3,                  Ke%Liang%NULL%3,                  Mingqi%Luo%NULL%3,                  Tielong%Chen%NULL%2,                  Shihui%Song%NULL%3,                  Zhiyong%Ma%NULL%3,                  Xiaoping%Chen%NULL%3,                  Ruiying%Zheng%NULL%2,                  Qian%Cao%NULL%2,                  Fan%Wang%fanndywang@foxmail.com%2,                  Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%1,                  N -B%Yang%NULL%1,                  F%Ding%NULL%1,                  A H Y%Ma%NULL%1,                  Z -Y%Wang%NULL%2,                  Y -F%Shen%NULL%1,                  C -W%Shi%NULL%1,                  X%Lian%NULL%1,                  J -G%Chu%NULL%1,                  L%Chen%chxmin@hotmail.com%1,                  Z -Y%Wang%NULL%0,                  D -W%Ren%NULL%1,                  G -X%Li%NULL%1,                  X -Q%Chen%chxmin@hotmail.com%1,                  H -J%Shen%NULL%1,                  X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,                  Hugues%Spillemaeker%NULL%1,                  Maéva%Kyheng%NULL%1,                  Cassandre%Belin‐Vincent%NULL%1,                  Cédric%Delhaye%NULL%1,                  Adeline%Piérache%NULL%1,                  Tom%Denimal%NULL%1,                  Basile%Verdier%NULL%1,                  Nicolas%Debry%NULL%1,                  Mouhamed%Moussa%NULL%1,                  Guillaume%Schurtz%NULL%1,                  Sina%Porouchani%NULL%1,                  Alessandro%Cosenza%NULL%1,                  Francis%Juthier%NULL%1,                  Thibault%Pamart%NULL%1,                  Marjorie%Richardson%NULL%1,                  Augustin%Coisne%NULL%1,                  Adrien%Hertault%NULL%1,                  Jonathan%Sobocinski%NULL%1,                  Thomas%Modine%NULL%1,                  François%Pontana%NULL%1,                  Alain%Duhamel%NULL%2,                  Julien%Labreuche%NULL%2,                  Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                 Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                 Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                 Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,                  Yimei%Yin%18256985@qq.com%1,                  Chang%Hu%1391369733@qq.com%3,                  Xing%Liu%375117565@qq.com%1,                  Xingguo%Zhang%zhangxinguo7909@163.com%1,                  Shuliang%Zhou%350925556@qq.com%1,                  Mingzhi%Jian%Jmzhak@aliyun.com%1,                  Haibo%Xu%xuhaibo1120@hotmail.com%0,                  John%Prowle%j.prowle@qmul.ac.uk%1,                  Bo%Hu%hobbier1979@163.com%0,                  Yirong%Li%liyirong838@163.com%1,                  Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wentao%Xu%xref no email%1,          Shuang%Qu%xref no email%1,          Mengying%Xing%xref no email%1,          Ming%Zhang%xref no email%1,          Geng%Lu%xref no email%1,          Zhicong%Liao%xref no email%1,          Kimberly%Griffin%xref no email%1,          Jun%Wang%xref no email%1,          Ke%Zen%xref no email%1,          Bing%Yao%xref no email%1,          Hongwei%Liang%xref no email%1,          Jianping%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                  Xiao-Xin%Wu%NULL%0,                  Xian-Gao%Jiang%NULL%0,                  Kai-Jin%Xu%NULL%0,                  Ling-Jun%Ying%NULL%0,                  Chun-Lian%Ma%NULL%0,                  Shi-Bo%Li%NULL%0,                  Hua-Ying%Wang%NULL%0,                  Sheng%Zhang%NULL%0,                  Hai-Nv%Gao%NULL%0,                  Ji-Fang%Sheng%NULL%0,                  Hong-Liu%Cai%NULL%0,                  Yun-Qing%Qiu%NULL%0,                  Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                  Chang%Hu%NULL%0,                  Linjie%Luo%NULL%2,                  Fang%Fang%NULL%0,                  Yongfeng%Chen%NULL%2,                  Jianguo%Li%NULL%2,                  Zhiyong%Peng%NULL%0,                  Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,                  Chun%Liao%lc7spring@163.com%1,                  Qi-hong%Fan%1187286305@qq.com%1,                  Hong-bo%Chen%hbchen@hust.edu.cn%1,                  Xue-gong%Zhao%NULL%1,                  Zhong-guo%Xie%NULL%1,                  Xi-lin%Li%NULL%1,                  Chun-xi%Chen%NULL%1,                  Xiao-xia%Lu%NULL%1,                  Zhi-sheng%Liu%NULL%1,                  Wei%Lu%NULL%1,                  Chun-bao%Chen%NULL%1,                  Rong%Jiao%NULL%1,                  Ai-ming%Zhang%NULL%1,                  Jin-tang%Wang%NULL%1,                  Xi-wei%Ding%NULL%1,                  Yao-guang%Zeng%NULL%1,                  Li-ping%Cheng%NULL%1,                  Qing-feng%Huang%NULL%1,                  Jiang%Wu%NULL%0,                  Xi-chang%Luo%NULL%1,                  Zhu-jun%Wang%NULL%1,                  Yan-yan%Zhong%NULL%1,                  Yan%Bai%yanbaixh@hust.edu.cn%1,                  Xiao-yan%Wu%xwu@hust.edu.cn%1,                  Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                  Ting%Yu%NULL%0,                  Ronghui%Du%NULL%0,                  Guohui%Fan%NULL%0,                  Ying%Liu%NULL%0,                  Zhibo%Liu%NULL%0,                  Jie%Xiang%NULL%0,                  Yeming%Wang%NULL%0,                  Bin%Song%NULL%0,                  Xiaoying%Gu%NULL%0,                  Lulu%Guan%NULL%0,                  Yuan%Wei%NULL%0,                  Hui%Li%NULL%0,                  Xudong%Wu%NULL%0,                  Jiuyang%Xu%NULL%0,                  Shengjin%Tu%NULL%0,                  Yi%Zhang%NULL%0,                  Hua%Chen%NULL%0,                  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                  Mengqi%Tu%NULL%0,                  Shipei%Wang%NULL%0,                  Sichao%Chen%NULL%0,                  Wei%Zhou%NULL%0,                  Danyang%Chen%NULL%0,                  Lin%Zhou%NULL%0,                  Min%Wang%NULL%0,                  Yan%Zhao%NULL%0,                  Wen%Zeng%NULL%0,                  Qi%Huang%NULL%0,                  Hai'bo%Xu%NULL%0,                  Zeming%Liu%NULL%0,                  Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                  Yuan%Yu%NULL%0,                  Jiqian%Xu%NULL%0,                  Huaqing%Shu%NULL%0,                  Jia'an%Xia%NULL%0,                  Hong%Liu%NULL%0,                  Yongran%Wu%NULL%0,                  Lu%Zhang%NULL%0,                  Zhui%Yu%NULL%0,                  Minghao%Fang%NULL%0,                  Ting%Yu%NULL%0,                  Yaxin%Wang%NULL%0,                  Shangwen%Pan%NULL%0,                  Xiaojing%Zou%NULL%0,                  Shiying%Yuan%NULL%0,                  You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,                  Wei-jie%Guan%NULL%2,                  Cai-chen%Li%NULL%3,                  Yi-min%Li%NULL%3,                  Heng-rui%Liang%NULL%3,                  Yi%Zhao%NULL%3,                  Xiao-qing%Liu%NULL%3,                  Ling%Sang%NULL%0,                  Ru-chong%Chen%NULL%0,                  Chun-li%Tang%NULL%0,                  Tao%Wang%NULL%0,                  Wei%Wang%NULL%0,                  Qi-hua%He%NULL%2,                  Zi-sheng%Chen%NULL%3,                  Sook-San%Wong%NULL%2,                  Mark%Zanin%NULL%2,                  Jun%Liu%NULL%0,                  Xin%Xu%NULL%3,                  Jun%Huang%NULL%2,                  Jian-fu%Li%NULL%3,                  Li-min%Ou%NULL%3,                  Bo%Cheng%NULL%3,                  Shan%Xiong%NULL%3,                  Zhan-hong%Xie%NULL%2,                  Zheng-yi%Ni%NULL%0,                  Yu%Hu%NULL%0,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chun-liang%Lei%NULL%0,                  Yi-xiang%Peng%NULL%0,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Ya-hua%Hu%NULL%0,                  Peng%Peng%NULL%0,                  Jian-ming%Wang%NULL%0,                  Ji-yang%Liu%NULL%0,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhi-jian%Zheng%NULL%0,                  Shao-qin%Qiu%NULL%0,                  Jie%Luo%NULL%0,                  Chang-jiang%Ye%NULL%0,                  Shao-yong%Zhu%NULL%0,                  Lin-ling%Cheng%NULL%3,                  Feng%Ye%NULL%5,                  Shi-yue%Li%NULL%0,                  Jin-ping%Zheng%NULL%3,                  Nuo-fu%Zhang%NULL%3,                  Nan-shan%Zhong%NULL%0,                  Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                  Simon A%Jones%NULL%1,                  Jie%Yang%NULL%0,                  Harish%Rajagopalan%NULL%1,                  Luke%O’Donnell%NULL%1,                  Yelena%Chernyak%NULL%1,                  Katie A%Tobin%NULL%1,                  Robert J%Cerfolio%NULL%1,                  Fritz%Francois%NULL%1,                  Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0,                  Stephanie%Bialek%NULL%1,                  Ellen%Boundy%NULL%1,                  Virginia%Bowen%NULL%1,                  Nancy%Chow%NULL%2,                  Amanda%Cohn%NULL%1,                  Nicole%Dowling%NULL%1,                  Sascha%Ellington%NULL%1,                  Ryan%Gierke%NULL%2,                  Aron%Hall%NULL%2,                  Jessica%MacNeil%NULL%1,                  Priti%Patel%NULL%1,                  Georgina%Peacock%NULL%1,                  Tamara%Pilishvili%NULL%2,                  Hilda%Razzaghi%NULL%1,                  Nia%Reed%NULL%1,                  Matthew%Ritchey%NULL%2,                  Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,                  Pedro%Póvoa%NULL%1,                  Vicente%Souza-Dantas%NULL%1,                  André C.%Kalil%NULL%1,                  Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,                  Graeme%MacLaren%NULL%1,                  Philip S%Boonstra%NULL%1,                  Theodore J%Iwashyna%NULL%1,                  Arthur S%Slutsky%NULL%1,                  Eddy%Fan%NULL%1,                  Robert H%Bartlett%NULL%1,                  Joseph E%Tonna%NULL%1,                  Robert%Hyslop%NULL%1,                  Jeffrey J%Fanning%NULL%1,                  Peter T%Rycus%NULL%1,                  Steve J%Hyer%NULL%1,                  Marc M%Anders%NULL%1,                  Cara L%Agerstrand%NULL%1,                  Katarzyna%Hryniewicz%NULL%1,                  Rodrigo%Diaz%NULL%1,                  Roberto%Lorusso%NULL%1,                  Alain%Combes%NULL%1,                  Daniel%Brodie%NULL%4,                  Peta%Alexander%NULL%1,                  Nicholas%Barrett%NULL%1,                  Jan%Bělohlávek%NULL%1,                  Dale%Fisher%NULL%1,                  John%Fraser%NULL%1,                  Ali Ait%Hssain%NULL%1,                  Jae Sung%Jung%NULL%1,                  Michael%McMullan%NULL%1,                  Yatin%Mehta%NULL%1,                  Mark T.%Ogino%NULL%1,                  Matthew L.%Paden%NULL%1,                  Kiran%Shekar%NULL%1,                  Christine%Stead%NULL%1,                  Yasir%Abu-Omar%NULL%1,                  Vanni%Agnoletti%NULL%1,                  Anzila%Akbar%NULL%1,                  Huda%Alfoudri%NULL%1,                  Carlos%Alviar%NULL%1,                  Vladimir%Aronsky%NULL%1,                  Erin%August%NULL%1,                  Georg%Auzinger%NULL%1,                  Hilda%Aveja%NULL%1,                  Rhonda%Bakken%NULL%1,                  Joan%Balcells%NULL%1,                  Sripal%Bangalore%NULL%1,                  Bernard W.%Barnes%NULL%1,                  Alaiza%Bautista%NULL%1,                  Lorraine L.%Bellows%NULL%1,                  Felipe%Beltran%NULL%1,                  Peyman%Benharash%NULL%1,                  Marco%Benni%NULL%1,                  Jennifer%Berg%NULL%1,                  Pietro%Bertini%NULL%1,                  Pablo%Blanco-Schweizer%NULL%1,                  Melissa%Brunsvold%NULL%1,                  Jenny%Budd%NULL%1,                  Debra%Camp%NULL%1,                  Mark%Caridi-Scheible%NULL%0,                  Edmund%Carton%NULL%1,                  Elena%Casanova-Ghosh%NULL%1,                  Anthony%Castleberry%NULL%1,                  Christopher T.%Chipongian%NULL%1,                  Chang Woo%Choi%NULL%1,                  Alessandro%Circelli%NULL%1,                  Elliott%Cohen%NULL%1,                  Michael%Collins%NULL%1,                  Scott%Copus%NULL%1,                  Jill%Coy%NULL%1,                  Brandon%Crist%NULL%1,                  Leonora%Cruz%NULL%1,                  Mirosław%Czuczwar%NULL%1,                  Mani%Daneshmand%NULL%1,                  Daniel%Davis II%NULL%1,                  Kim%De la Cruz%NULL%1,                  Cyndie%Devers%NULL%1,                  Toni%Duculan%NULL%1,                  Lucian%Durham%NULL%1,                  Subbarao%Elapavaluru%NULL%1,                  Carlos V.%Elzo Kraemer%NULL%1,                  EDMÍLSON CARDOSO%Filho%NULL%1,                  Jillian%Fitzgerald%NULL%1,                  Giuseppe%Foti%NULL%1,                  Matthew%Fox%NULL%1,                  David%Fritschen%NULL%1,                  David%Fullerton%NULL%1,                  Elton%Gelandt%NULL%1,                  Stacy%Gerle%NULL%1,                  Marco%Giani%NULL%1,                  Si Guim%Goh%NULL%1,                  Sara%Govener%NULL%1,                  Julie%Grone%NULL%1,                  Miles%Guber%NULL%1,                  Vadim%Gudzenko%NULL%1,                  Daniel%Gutteridge%NULL%1,                  Jennifer%Guy%NULL%1,                  Jonathan%Haft%NULL%1,                  Cameron%Hall%NULL%1,                  Ibrahim Fawzy%Hassan%NULL%1,                  Rubén%Herrán%NULL%1,                  Hitoshi%Hirose%NULL%1,                  Abdulsalam Saif%Ibrahim%NULL%1,                  Don%Igielski%NULL%1,                  Felicia A.%Ivascu%NULL%1,                  Jaume%Izquierdo Blasco%NULL%1,                  Julie%Jackson%NULL%1,                  Harsh%Jain%NULL%1,                  Bhavini%Jaiswal%NULL%1,                  Andrea C.%Johnson%NULL%1,                  Jenniver A.%Jurynec%NULL%1,                  Norma M%Kellter%NULL%1,                  Adam%Kohl%NULL%1,                  Zachary%Kon%NULL%1,                  Markus%Kredel%NULL%1,                  Karen%Kriska%NULL%1,                  Chandra%Kunavarapu%NULL%1,                  Oude%Lansink-Hartgring%NULL%1,                  Jeliene%LaRocque%NULL%1,                  Sharon Beth%Larson%NULL%1,                  Tracie%Layne%NULL%1,                  Stephane%Ledot%NULL%1,                  Napolitan%Lena%NULL%1,                  Jonathan%Lillie%NULL%1,                  Gösta%Lotz%NULL%1,                  Mark%Lucas%NULL%1,                  Lee%Ludwigson%NULL%1,                  Jacinta J.%Maas%NULL%1,                  Joanna%Maertens%NULL%1,                  David%Mast%NULL%1,                  Scott%McCardle%NULL%1,                  Bernard%McDonald%NULL%1,                  Allison%McLarty%NULL%1,                  Chelsea%McMahon%NULL%1,                  Patrick%Meybohm%NULL%1,                  Bart%Meyns%NULL%1,                  Casey%Miller%NULL%1,                  Fernando%Moraes Neto%NULL%1,                  Kelly%Morris%NULL%1,                  Ralf%Muellenbach%NULL%1,                  Meghan%Nicholson%NULL%1,                  Serena%O'Brien%NULL%1,                  Kathryn%O'Keefe%NULL%1,                  Tawnya%Ogston%NULL%1,                  Gary%Oldenburg%NULL%1,                  Fabiana M.%Oliveira%NULL%1,                  Emily%Oppel%NULL%1,                  Diego%Pardo%NULL%2,                  Diego%Pardo%NULL%0,                  Sara J.%Parker%NULL%1,                  Finn M.%Pedersen%NULL%1,                  Crescens%Pellecchia%NULL%1,                  Jose A.S.%Pelligrini%NULL%1,                  Thao T.N.%Pham%NULL%1,                  Ann R.%Phillips%NULL%1,                  Tasneem%Pirani%NULL%1,                  Paweł%Piwowarczyk%NULL%1,                  Robert%Plambeck%NULL%1,                  William%Pruett%NULL%1,                  Brittany%Quandt%NULL%1,                  Kollengode%Ramanathan%NULL%1,                  Alejandro%Rey%NULL%1,                  Christian%Reyher%NULL%1,                  Jordi%Riera del Brio%NULL%1,                  Rachel%Roberts%NULL%1,                  David%Roe%NULL%1,                  Peter P.%Roeleveld%NULL%1,                  Janet%Rudy%NULL%1,                  Luis F.%Rueda%NULL%1,                  Emanuele%Russo%NULL%1,                  Jesús%Sánchez Ballesteros%NULL%1,                  Nancy%Satou%NULL%1,                  Mauricio Guidi%Saueressig%NULL%1,                  Paul C.%Saunders%NULL%1,                  Margaret%Schlotterbeck%NULL%1,                  Patricia%Schwarz%NULL%1,                  Nicole%Scriven%NULL%1,                  Alexis%Serra%NULL%1,                  Mohammad%Shamsah%NULL%1,                  Lucy%Sim%NULL%1,                  Alexandra%Smart%NULL%1,                  Adam%Smith%NULL%1,                  Deane%Smith%NULL%1,                  Maggie%Smith%NULL%1,                  Neel%Sodha%NULL%1,                  Michael%Sonntagbauer%NULL%1,                  Marc%Sorenson%NULL%1,                  Eric B%Stallkamp%NULL%1,                  Allison%Stewart%NULL%1,                  Kathy%Swartz%NULL%1,                  Koji%Takeda%NULL%1,                  Shaun%Thompson%NULL%1,                  Bridget%Toy%NULL%1,                  Divina%Tuazon%NULL%1,                  Makoto%Uchiyama%NULL%1,                  Obiora I.%Udeozo%NULL%1,                  Scott%van Poppel%NULL%1,                  Corey%Ventetuolo%NULL%1,                  Leen%Vercaemst%NULL%1,                  Nguyen V.%Vinh Chau%NULL%1,                  I-Wen%Wang%NULL%1,                  Carrie%Williamson%NULL%1,                  Brock%Wilson%NULL%1,                  Helen%Winkels%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2268,7 +2436,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2297,7 +2465,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -2326,7 +2494,7 @@
         <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2355,7 +2523,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2384,7 +2552,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -2413,7 +2581,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2442,7 +2610,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2471,7 +2639,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2500,7 +2668,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -2529,7 +2697,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -2558,7 +2726,7 @@
         <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2587,7 +2755,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -2616,7 +2784,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -2645,7 +2813,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -2674,7 +2842,7 @@
         <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -2703,7 +2871,7 @@
         <v>395</v>
       </c>
       <c r="E17" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="F17" t="s">
         <v>86</v>
@@ -2732,7 +2900,7 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -2761,7 +2929,7 @@
         <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
@@ -2790,7 +2958,7 @@
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -2819,7 +2987,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="F21" t="s">
         <v>98</v>
@@ -2848,7 +3016,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="F22" t="s">
         <v>101</v>
@@ -2877,7 +3045,7 @@
         <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="F23" t="s">
         <v>104</v>
@@ -2906,7 +3074,7 @@
         <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="F24" t="s">
         <v>108</v>
@@ -2935,7 +3103,7 @@
         <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="F25" t="s">
         <v>111</v>
@@ -2964,7 +3132,7 @@
         <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -2993,7 +3161,7 @@
         <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -3022,7 +3190,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
@@ -3051,7 +3219,7 @@
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="F29" t="s">
         <v>125</v>

--- a/Covid_19_Dataset_and_References/References/48.xlsx
+++ b/Covid_19_Dataset_and_References/References/48.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="577">
   <si>
     <t>Doi</t>
   </si>
@@ -2084,6 +2084,90 @@
   </si>
   <si>
     <t>[Ryan P%Barbaro%NULL%2,                  Graeme%MacLaren%NULL%1,                  Philip S%Boonstra%NULL%1,                  Theodore J%Iwashyna%NULL%1,                  Arthur S%Slutsky%NULL%1,                  Eddy%Fan%NULL%1,                  Robert H%Bartlett%NULL%1,                  Joseph E%Tonna%NULL%1,                  Robert%Hyslop%NULL%1,                  Jeffrey J%Fanning%NULL%1,                  Peter T%Rycus%NULL%1,                  Steve J%Hyer%NULL%1,                  Marc M%Anders%NULL%1,                  Cara L%Agerstrand%NULL%1,                  Katarzyna%Hryniewicz%NULL%1,                  Rodrigo%Diaz%NULL%1,                  Roberto%Lorusso%NULL%1,                  Alain%Combes%NULL%1,                  Daniel%Brodie%NULL%4,                  Peta%Alexander%NULL%1,                  Nicholas%Barrett%NULL%1,                  Jan%Bělohlávek%NULL%1,                  Dale%Fisher%NULL%1,                  John%Fraser%NULL%1,                  Ali Ait%Hssain%NULL%1,                  Jae Sung%Jung%NULL%1,                  Michael%McMullan%NULL%1,                  Yatin%Mehta%NULL%1,                  Mark T.%Ogino%NULL%1,                  Matthew L.%Paden%NULL%1,                  Kiran%Shekar%NULL%1,                  Christine%Stead%NULL%1,                  Yasir%Abu-Omar%NULL%1,                  Vanni%Agnoletti%NULL%1,                  Anzila%Akbar%NULL%1,                  Huda%Alfoudri%NULL%1,                  Carlos%Alviar%NULL%1,                  Vladimir%Aronsky%NULL%1,                  Erin%August%NULL%1,                  Georg%Auzinger%NULL%1,                  Hilda%Aveja%NULL%1,                  Rhonda%Bakken%NULL%1,                  Joan%Balcells%NULL%1,                  Sripal%Bangalore%NULL%1,                  Bernard W.%Barnes%NULL%1,                  Alaiza%Bautista%NULL%1,                  Lorraine L.%Bellows%NULL%1,                  Felipe%Beltran%NULL%1,                  Peyman%Benharash%NULL%1,                  Marco%Benni%NULL%1,                  Jennifer%Berg%NULL%1,                  Pietro%Bertini%NULL%1,                  Pablo%Blanco-Schweizer%NULL%1,                  Melissa%Brunsvold%NULL%1,                  Jenny%Budd%NULL%1,                  Debra%Camp%NULL%1,                  Mark%Caridi-Scheible%NULL%0,                  Edmund%Carton%NULL%1,                  Elena%Casanova-Ghosh%NULL%1,                  Anthony%Castleberry%NULL%1,                  Christopher T.%Chipongian%NULL%1,                  Chang Woo%Choi%NULL%1,                  Alessandro%Circelli%NULL%1,                  Elliott%Cohen%NULL%1,                  Michael%Collins%NULL%1,                  Scott%Copus%NULL%1,                  Jill%Coy%NULL%1,                  Brandon%Crist%NULL%1,                  Leonora%Cruz%NULL%1,                  Mirosław%Czuczwar%NULL%1,                  Mani%Daneshmand%NULL%1,                  Daniel%Davis II%NULL%1,                  Kim%De la Cruz%NULL%1,                  Cyndie%Devers%NULL%1,                  Toni%Duculan%NULL%1,                  Lucian%Durham%NULL%1,                  Subbarao%Elapavaluru%NULL%1,                  Carlos V.%Elzo Kraemer%NULL%1,                  EDMÍLSON CARDOSO%Filho%NULL%1,                  Jillian%Fitzgerald%NULL%1,                  Giuseppe%Foti%NULL%1,                  Matthew%Fox%NULL%1,                  David%Fritschen%NULL%1,                  David%Fullerton%NULL%1,                  Elton%Gelandt%NULL%1,                  Stacy%Gerle%NULL%1,                  Marco%Giani%NULL%1,                  Si Guim%Goh%NULL%1,                  Sara%Govener%NULL%1,                  Julie%Grone%NULL%1,                  Miles%Guber%NULL%1,                  Vadim%Gudzenko%NULL%1,                  Daniel%Gutteridge%NULL%1,                  Jennifer%Guy%NULL%1,                  Jonathan%Haft%NULL%1,                  Cameron%Hall%NULL%1,                  Ibrahim Fawzy%Hassan%NULL%1,                  Rubén%Herrán%NULL%1,                  Hitoshi%Hirose%NULL%1,                  Abdulsalam Saif%Ibrahim%NULL%1,                  Don%Igielski%NULL%1,                  Felicia A.%Ivascu%NULL%1,                  Jaume%Izquierdo Blasco%NULL%1,                  Julie%Jackson%NULL%1,                  Harsh%Jain%NULL%1,                  Bhavini%Jaiswal%NULL%1,                  Andrea C.%Johnson%NULL%1,                  Jenniver A.%Jurynec%NULL%1,                  Norma M%Kellter%NULL%1,                  Adam%Kohl%NULL%1,                  Zachary%Kon%NULL%1,                  Markus%Kredel%NULL%1,                  Karen%Kriska%NULL%1,                  Chandra%Kunavarapu%NULL%1,                  Oude%Lansink-Hartgring%NULL%1,                  Jeliene%LaRocque%NULL%1,                  Sharon Beth%Larson%NULL%1,                  Tracie%Layne%NULL%1,                  Stephane%Ledot%NULL%1,                  Napolitan%Lena%NULL%1,                  Jonathan%Lillie%NULL%1,                  Gösta%Lotz%NULL%1,                  Mark%Lucas%NULL%1,                  Lee%Ludwigson%NULL%1,                  Jacinta J.%Maas%NULL%1,                  Joanna%Maertens%NULL%1,                  David%Mast%NULL%1,                  Scott%McCardle%NULL%1,                  Bernard%McDonald%NULL%1,                  Allison%McLarty%NULL%1,                  Chelsea%McMahon%NULL%1,                  Patrick%Meybohm%NULL%1,                  Bart%Meyns%NULL%1,                  Casey%Miller%NULL%1,                  Fernando%Moraes Neto%NULL%1,                  Kelly%Morris%NULL%1,                  Ralf%Muellenbach%NULL%1,                  Meghan%Nicholson%NULL%1,                  Serena%O'Brien%NULL%1,                  Kathryn%O'Keefe%NULL%1,                  Tawnya%Ogston%NULL%1,                  Gary%Oldenburg%NULL%1,                  Fabiana M.%Oliveira%NULL%1,                  Emily%Oppel%NULL%1,                  Diego%Pardo%NULL%2,                  Diego%Pardo%NULL%0,                  Sara J.%Parker%NULL%1,                  Finn M.%Pedersen%NULL%1,                  Crescens%Pellecchia%NULL%1,                  Jose A.S.%Pelligrini%NULL%1,                  Thao T.N.%Pham%NULL%1,                  Ann R.%Phillips%NULL%1,                  Tasneem%Pirani%NULL%1,                  Paweł%Piwowarczyk%NULL%1,                  Robert%Plambeck%NULL%1,                  William%Pruett%NULL%1,                  Brittany%Quandt%NULL%1,                  Kollengode%Ramanathan%NULL%1,                  Alejandro%Rey%NULL%1,                  Christian%Reyher%NULL%1,                  Jordi%Riera del Brio%NULL%1,                  Rachel%Roberts%NULL%1,                  David%Roe%NULL%1,                  Peter P.%Roeleveld%NULL%1,                  Janet%Rudy%NULL%1,                  Luis F.%Rueda%NULL%1,                  Emanuele%Russo%NULL%1,                  Jesús%Sánchez Ballesteros%NULL%1,                  Nancy%Satou%NULL%1,                  Mauricio Guidi%Saueressig%NULL%1,                  Paul C.%Saunders%NULL%1,                  Margaret%Schlotterbeck%NULL%1,                  Patricia%Schwarz%NULL%1,                  Nicole%Scriven%NULL%1,                  Alexis%Serra%NULL%1,                  Mohammad%Shamsah%NULL%1,                  Lucy%Sim%NULL%1,                  Alexandra%Smart%NULL%1,                  Adam%Smith%NULL%1,                  Deane%Smith%NULL%1,                  Maggie%Smith%NULL%1,                  Neel%Sodha%NULL%1,                  Michael%Sonntagbauer%NULL%1,                  Marc%Sorenson%NULL%1,                  Eric B%Stallkamp%NULL%1,                  Allison%Stewart%NULL%1,                  Kathy%Swartz%NULL%1,                  Koji%Takeda%NULL%1,                  Shaun%Thompson%NULL%1,                  Bridget%Toy%NULL%1,                  Divina%Tuazon%NULL%1,                  Makoto%Uchiyama%NULL%1,                  Obiora I.%Udeozo%NULL%1,                  Scott%van Poppel%NULL%1,                  Corey%Ventetuolo%NULL%1,                  Leen%Vercaemst%NULL%1,                  Nguyen V.%Vinh Chau%NULL%1,                  I-Wen%Wang%NULL%1,                  Carrie%Williamson%NULL%1,                  Brock%Wilson%NULL%1,                  Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,           Xiaoyan%Chen%xref no email%0,           Yanping%Cai%xref no email%0,           Jia\u2019an%Xia%xref no email%0,           Xing%Zhou%xref no email%0,           Sha%Xu%xref no email%0,           Hanping%Huang%xref no email%0,           Li%Zhang%xref no email%0,           Xia%Zhou%xref no email%0,           Chunling%Du%xref no email%0,           Yuye%Zhang%xref no email%0,           Juan%Song%xref no email%0,           Sijiao%Wang%xref no email%0,           Yencheng%Chao%xref no email%0,           Zeyong%Yang%xref no email%0,           Jie%Xu%xref no email%0,           Xin%Zhou%xref no email%0,           Dechang%Chen%xref no email%0,           Weining%Xiong%xref no email%0,           Lei%Xu%xref no email%0,           Feng%Zhou%xref no email%0,           Jinjun%Jiang%xref no email%0,           Chunxue%Bai%xref no email%0,           Junhua%Zheng%xref no email%0,           Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,                   Dhaval%Kolte%NULL%1,                   Mary E.%Cadigan%NULL%1,                   Elizabeth%Laikhter%NULL%1,                   Kevin%Sinclair%NULL%1,                   Eugene%Pomerantsev%NULL%1,                   Michael A.%Fifer%NULL%1,                   Thoralf M.%Sundt%NULL%1,                   Robert W.%Yeh%NULL%1,                   Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                  Cabrini%Luca%coreGivesNoEmail%1,                  Castelli%Antonio%coreGivesNoEmail%1,                  Cecconi%Maurizio%coreGivesNoEmail%1,                  Cereda%Danilo%coreGivesNoEmail%1,                  Coluccello%Antonio%coreGivesNoEmail%1,                  Foti%Giuseppe%coreGivesNoEmail%1,                  Fumagalli%Roberto%coreGivesNoEmail%1,                  Grasselli%Giacomo%coreGivesNoEmail%1,                  Iotti%Giorgio%coreGivesNoEmail%1,                  Latronico%Nicola%coreGivesNoEmail%1,                  Lorini%Luca%coreGivesNoEmail%1,                  Merler%Stefano%coreGivesNoEmail%1,                  Natalini%Giuseppe%coreGivesNoEmail%1,                  Pesenti%Antonio%coreGivesNoEmail%1,                  Piatti%Alessandra%coreGivesNoEmail%1,                  Ranieri%Marco Vito%coreGivesNoEmail%1,                  Scandroglio%Anna Mara%coreGivesNoEmail%1,                  Storti%Enrico%coreGivesNoEmail%1,                  Zanella%Alberto%coreGivesNoEmail%1,                  Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                   Yeming%Wang%NULL%0,                   Xingwang%Li%NULL%0,                   Lili%Ren%NULL%0,                   Jianping%Zhao%NULL%0,                   Yi%Hu%NULL%0,                   Li%Zhang%NULL%0,                   Guohui%Fan%NULL%0,                   Jiuyang%Xu%NULL%0,                   Xiaoying%Gu%NULL%0,                   Zhenshun%Cheng%NULL%0,                   Ting%Yu%NULL%0,                   Jiaan%Xia%NULL%0,                   Yuan%Wei%NULL%0,                   Wenjuan%Wu%NULL%0,                   Xuelei%Xie%NULL%0,                   Wen%Yin%NULL%0,                   Hui%Li%NULL%0,                   Min%Liu%NULL%0,                   Yan%Xiao%NULL%0,                   Hong%Gao%NULL%0,                   Li%Guo%NULL%0,                   Jungang%Xie%NULL%0,                   Guangfa%Wang%NULL%0,                   Rongmeng%Jiang%NULL%0,                   Zhancheng%Gao%NULL%0,                   Qi%Jin%NULL%0,                   Jianwei%Wang%wangjw28@163.com%0,                   Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                   Yi%Xiang%NULL%0,                   Wei%Fang%NULL%0,                   Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                   Boqun%Li%279685211@qq.com%0,                   Boqun%Li%279685211@qq.com%0,                   Yanjun%Hu%huyanjun@163.com%0,                   Chunhui%Lang%NULL%0,                   Daoqiu%Huang%NULL%0,                   Qiuyan%Sun%NULL%0,                   Yan%Xiong%NULL%0,                   Xia%Huang%NULL%0,                   Jinglong%Lv%NULL%0,                   Yaling%Luo%NULL%0,                   Li%Shen%NULL%0,                   Haoran%Yang%NULL%0,                   Gu%Huang%NULL%0,                   Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,           Eric%Yim%xref no email%0,           Lindy%Klaff%xref no email%0,           Sharukh%Lokhandwala%xref no email%0,           Francis X.%Riedo%xref no email%0,           Maria%Chong%xref no email%0,           Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                   Mark%Caridi-Scheible%NULL%3,                   James M.%Blum%NULL%2,                   Chad%Robichaux%NULL%2,                   Colleen%Kraft%NULL%2,                   Jesse T.%Jacob%NULL%2,                   Craig S.%Jabaley%NULL%2,                   David%Carpenter%NULL%2,                   Roberta%Kaplow%NULL%2,                   Alfonso C.%Hernandez-Romieu%NULL%2,                   Max W.%Adelman%NULL%2,                   Greg S.%Martin%NULL%2,                   Craig M.%Coopersmith%NULL%2,                   David J.%Murphy%NULL%2,                   NULL%NULL%NULL%0,                    S.%Auld%null%1,                    M.% Caridi-Scheible%null%1,                    J. M.% Blum%null%1,                    C. J.% Robichaux%null%1,                    C. S.% Kraft%null%1,                    J. T.% Jacob%null%1,                    C. S.% Jabaley%null%1,                    D.% Carpenter%null%1,                    R.% Kaplow%null%1,                    A. C.% Hernandez%null%1,                    M. W.% Adelman%null%1,                    G. S.% Martin%null%1,                    C. M.% Coopersmith%null%1,                    D. J.% Murphy%null%1,                      % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,                  S.%Auld%null%1,                  M.% Caridi-Scheible%null%1,                  J. M.% Blum%null%1,                  C. J.% Robichaux%null%1,                  C. S.% Kraft%null%1,                  J. T.% Jacob%null%1,                  C. S.% Jabaley%null%1,                  D.% Carpenter%null%1,                  R.% Kaplow%null%1,                  A. C.% Hernandez%null%1,                  M. W.% Adelman%null%1,                  G. S.% Martin%null%1,                  C. M.% Coopersmith%null%1,                  D. J.% Murphy%null%1,                    % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                   Bijan J.%Ghassemieh%NULL%2,                   Michelle%Nichols%NULL%2,                   Richard%Kim%NULL%2,                   Keith R.%Jerome%NULL%2,                   Arun K.%Nalla%NULL%2,                   Alexander L.%Greninger%NULL%2,                   Sudhakar%Pipavath%NULL%2,                   Mark M.%Wurfel%NULL%2,                   Laura%Evans%NULL%2,                   Patricia A.%Kritek%NULL%2,                   T. Eoin%West%NULL%2,                   Andrew%Luks%NULL%2,                   Anthony%Gerbino%NULL%2,                   Chris R.%Dale%NULL%2,                   Jason D.%Goldman%NULL%2,                   Shane%O’Mahony%NULL%2,                   Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                   Tangkai%Qi%NULL%0,                   Li%Liu%NULL%0,                   Yun%Ling%NULL%0,                   Zhiping%Qian%NULL%0,                   Tao%Li%NULL%0,                   Feng%Li%NULL%0,                   Qingnian%Xu%NULL%0,                   Yuyi%Zhang%NULL%0,                   Shuibao%Xu%NULL%0,                   Zhigang%Song%NULL%0,                   Yigang%Zeng%NULL%0,                   Yinzhong%Shen%NULL%0,                   Yuxin%Shi%NULL%0,                   Tongyu%Zhu%NULL%0,                   Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                   Min%Zhou%NULL%0,                   Xuan%Dong%NULL%0,                   Jieming%Qu%NULL%0,                   Fengyun%Gong%NULL%0,                   Yang%Han%NULL%0,                   Yang%Qiu%NULL%0,                   Jingli%Wang%NULL%0,                   Ying%Liu%NULL%0,                   Yuan%Wei%NULL%0,                   Jia'an%Xia%NULL%0,                   Ting%Yu%NULL%0,                   Xinxin%Zhang%NULL%0,                   Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                   Zheng-yi%Ni%NULL%0,                   Zheng-yi%Ni%NULL%0,                   Yu%Hu%NULL%0,                   Wen-hua%Liang%NULL%0,                   Chun-quan%Ou%NULL%0,                   Jian-xing%He%NULL%0,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chun-liang%Lei%NULL%0,                   David S.C.%Hui%NULL%0,                   Bin%Du%NULL%0,                   Lan-juan%Li%NULL%0,                   Guang%Zeng%NULL%0,                   Kwok-Yung%Yuen%NULL%0,                   Ru-chong%Chen%NULL%0,                   Chun-li%Tang%NULL%0,                   Tao%Wang%NULL%0,                   Ping-yan%Chen%NULL%0,                   Jie%Xiang%NULL%0,                   Shi-yue%Li%NULL%0,                   Jin-lin%Wang%NULL%0,                   Zi-jing%Liang%NULL%0,                   Yi-xiang%Peng%NULL%0,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Ya-hua%Hu%NULL%0,                   Peng%Peng%NULL%0,                   Jian-ming%Wang%NULL%0,                   Ji-yang%Liu%NULL%0,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhi-jian%Zheng%NULL%0,                   Shao-qin%Qiu%NULL%0,                   Jie%Luo%NULL%0,                   Chang-jiang%Ye%NULL%0,                   Shao-yong%Zhu%NULL%0,                   Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                   Yuanyuan%Xing%NULL%2,                   Yu%Xiao%NULL%2,                   Liping%Deng%NULL%3,                   Qiu%Zhao%NULL%2,                   Hongling%Wang%NULL%2,                   Yong%Xiong%NULL%4,                   Zhenshun%Cheng%NULL%0,                   Shicheng%Gao%NULL%3,                   Ke%Liang%NULL%3,                   Mingqi%Luo%NULL%3,                   Tielong%Chen%NULL%2,                   Shihui%Song%NULL%3,                   Zhiyong%Ma%NULL%3,                   Xiaoping%Chen%NULL%3,                   Ruiying%Zheng%NULL%2,                   Qian%Cao%NULL%2,                   Fan%Wang%fanndywang@foxmail.com%2,                   Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%2,                   N -B%Yang%NULL%1,                   F%Ding%NULL%1,                   A H Y%Ma%NULL%1,                   Z -Y%Wang%NULL%2,                   Y -F%Shen%NULL%1,                   C -W%Shi%NULL%1,                   X%Lian%NULL%1,                   J -G%Chu%NULL%1,                   L%Chen%chxmin@hotmail.com%1,                   Z -Y%Wang%NULL%0,                   D -W%Ren%NULL%1,                   G -X%Li%NULL%1,                   X -Q%Chen%chxmin@hotmail.com%1,                   H -J%Shen%NULL%1,                   X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,                   Hugues%Spillemaeker%NULL%1,                   Maéva%Kyheng%NULL%1,                   Cassandre%Belin‐Vincent%NULL%1,                   Cédric%Delhaye%NULL%1,                   Adeline%Piérache%NULL%1,                   Tom%Denimal%NULL%1,                   Basile%Verdier%NULL%1,                   Nicolas%Debry%NULL%1,                   Mouhamed%Moussa%NULL%1,                   Guillaume%Schurtz%NULL%1,                   Sina%Porouchani%NULL%1,                   Alessandro%Cosenza%NULL%1,                   Francis%Juthier%NULL%1,                   Thibault%Pamart%NULL%1,                   Marjorie%Richardson%NULL%1,                   Augustin%Coisne%NULL%1,                   Adrien%Hertault%NULL%1,                   Jonathan%Sobocinski%NULL%1,                   Thomas%Modine%NULL%1,                   François%Pontana%NULL%1,                   Alain%Duhamel%NULL%2,                   Julien%Labreuche%NULL%2,                   Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                  Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%2,                   Yimei%Yin%18256985@qq.com%1,                   Chang%Hu%1391369733@qq.com%3,                   Xing%Liu%375117565@qq.com%1,                   Xingguo%Zhang%zhangxinguo7909@163.com%1,                   Shuliang%Zhou%350925556@qq.com%1,                   Mingzhi%Jian%Jmzhak@aliyun.com%1,                   Haibo%Xu%xuhaibo1120@hotmail.com%0,                   John%Prowle%j.prowle@qmul.ac.uk%1,                   Bo%Hu%hobbier1979@163.com%0,                   Yirong%Li%liyirong838@163.com%1,                   Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wentao%Xu%xref no email%1,           Shuang%Qu%xref no email%1,           Mengying%Xing%xref no email%1,           Ming%Zhang%xref no email%1,           Geng%Lu%xref no email%1,           Zhicong%Liao%xref no email%1,           Kimberly%Griffin%xref no email%1,           Jun%Wang%xref no email%1,           Ke%Zen%xref no email%1,           Bing%Yao%xref no email%1,           Hongwei%Liang%xref no email%1,           Jianping%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                   Xiao-Xin%Wu%NULL%0,                   Xian-Gao%Jiang%NULL%0,                   Kai-Jin%Xu%NULL%0,                   Ling-Jun%Ying%NULL%0,                   Chun-Lian%Ma%NULL%0,                   Shi-Bo%Li%NULL%0,                   Hua-Ying%Wang%NULL%0,                   Sheng%Zhang%NULL%0,                   Hai-Nv%Gao%NULL%0,                   Ji-Fang%Sheng%NULL%0,                   Hong-Liu%Cai%NULL%0,                   Yun-Qing%Qiu%NULL%0,                   Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                   Chang%Hu%NULL%0,                   Linjie%Luo%NULL%2,                   Fang%Fang%NULL%0,                   Yongfeng%Chen%NULL%2,                   Jianguo%Li%NULL%2,                   Zhiyong%Peng%NULL%0,                   Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,                   Chun%Liao%lc7spring@163.com%1,                   Qi-hong%Fan%1187286305@qq.com%1,                   Hong-bo%Chen%hbchen@hust.edu.cn%1,                   Xue-gong%Zhao%NULL%1,                   Zhong-guo%Xie%NULL%1,                   Xi-lin%Li%NULL%1,                   Chun-xi%Chen%NULL%1,                   Xiao-xia%Lu%NULL%1,                   Zhi-sheng%Liu%NULL%1,                   Wei%Lu%NULL%1,                   Chun-bao%Chen%NULL%1,                   Rong%Jiao%NULL%1,                   Ai-ming%Zhang%NULL%1,                   Jin-tang%Wang%NULL%1,                   Xi-wei%Ding%NULL%1,                   Yao-guang%Zeng%NULL%1,                   Li-ping%Cheng%NULL%1,                   Qing-feng%Huang%NULL%1,                   Jiang%Wu%NULL%0,                   Xi-chang%Luo%NULL%1,                   Zhu-jun%Wang%NULL%1,                   Yan-yan%Zhong%NULL%1,                   Yan%Bai%yanbaixh@hust.edu.cn%1,                   Xiao-yan%Wu%xwu@hust.edu.cn%1,                   Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                   Ting%Yu%NULL%0,                   Ronghui%Du%NULL%0,                   Guohui%Fan%NULL%0,                   Ying%Liu%NULL%0,                   Zhibo%Liu%NULL%0,                   Jie%Xiang%NULL%0,                   Yeming%Wang%NULL%0,                   Bin%Song%NULL%0,                   Xiaoying%Gu%NULL%0,                   Lulu%Guan%NULL%0,                   Yuan%Wei%NULL%0,                   Hui%Li%NULL%0,                   Xudong%Wu%NULL%0,                   Jiuyang%Xu%NULL%0,                   Shengjin%Tu%NULL%0,                   Yi%Zhang%NULL%0,                   Hua%Chen%NULL%0,                   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                   Mengqi%Tu%NULL%0,                   Shipei%Wang%NULL%0,                   Sichao%Chen%NULL%0,                   Wei%Zhou%NULL%0,                   Danyang%Chen%NULL%0,                   Lin%Zhou%NULL%0,                   Min%Wang%NULL%0,                   Yan%Zhao%NULL%0,                   Wen%Zeng%NULL%0,                   Qi%Huang%NULL%0,                   Hai'bo%Xu%NULL%0,                   Zeming%Liu%NULL%0,                   Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                   Yuan%Yu%NULL%0,                   Jiqian%Xu%NULL%0,                   Huaqing%Shu%NULL%0,                   Jia'an%Xia%NULL%0,                   Hong%Liu%NULL%0,                   Yongran%Wu%NULL%0,                   Lu%Zhang%NULL%0,                   Zhui%Yu%NULL%0,                   Minghao%Fang%NULL%0,                   Ting%Yu%NULL%0,                   Yaxin%Wang%NULL%0,                   Shangwen%Pan%NULL%0,                   Xiaojing%Zou%NULL%0,                   Shiying%Yuan%NULL%0,                   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,                   Wei-jie%Guan%NULL%2,                   Cai-chen%Li%NULL%3,                   Yi-min%Li%NULL%3,                   Heng-rui%Liang%NULL%3,                   Yi%Zhao%NULL%3,                   Xiao-qing%Liu%NULL%3,                   Ling%Sang%NULL%0,                   Ru-chong%Chen%NULL%0,                   Chun-li%Tang%NULL%0,                   Tao%Wang%NULL%0,                   Wei%Wang%NULL%0,                   Qi-hua%He%NULL%2,                   Zi-sheng%Chen%NULL%3,                   Sook-San%Wong%NULL%2,                   Mark%Zanin%NULL%2,                   Jun%Liu%NULL%0,                   Xin%Xu%NULL%3,                   Jun%Huang%NULL%2,                   Jian-fu%Li%NULL%3,                   Li-min%Ou%NULL%3,                   Bo%Cheng%NULL%3,                   Shan%Xiong%NULL%3,                   Zhan-hong%Xie%NULL%2,                   Zheng-yi%Ni%NULL%0,                   Yu%Hu%NULL%0,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chun-liang%Lei%NULL%0,                   Yi-xiang%Peng%NULL%0,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Ya-hua%Hu%NULL%0,                   Peng%Peng%NULL%0,                   Jian-ming%Wang%NULL%0,                   Ji-yang%Liu%NULL%0,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhi-jian%Zheng%NULL%0,                   Shao-qin%Qiu%NULL%0,                   Jie%Luo%NULL%0,                   Chang-jiang%Ye%NULL%0,                   Shao-yong%Zhu%NULL%0,                   Lin-ling%Cheng%NULL%3,                   Feng%Ye%NULL%5,                   Shi-yue%Li%NULL%0,                   Jin-ping%Zheng%NULL%3,                   Nuo-fu%Zhang%NULL%3,                   Nan-shan%Zhong%NULL%0,                   Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                   Simon A%Jones%NULL%1,                   Jie%Yang%NULL%0,                   Harish%Rajagopalan%NULL%1,                   Luke%O’Donnell%NULL%1,                   Yelena%Chernyak%NULL%1,                   Katie A%Tobin%NULL%1,                   Robert J%Cerfolio%NULL%1,                   Fritz%Francois%NULL%1,                   Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0,                   Stephanie%Bialek%NULL%1,                   Ellen%Boundy%NULL%1,                   Virginia%Bowen%NULL%1,                   Nancy%Chow%NULL%2,                   Amanda%Cohn%NULL%1,                   Nicole%Dowling%NULL%1,                   Sascha%Ellington%NULL%1,                   Ryan%Gierke%NULL%2,                   Aron%Hall%NULL%2,                   Jessica%MacNeil%NULL%1,                   Priti%Patel%NULL%1,                   Georgina%Peacock%NULL%1,                   Tamara%Pilishvili%NULL%2,                   Hilda%Razzaghi%NULL%1,                   Nia%Reed%NULL%1,                   Matthew%Ritchey%NULL%2,                   Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,                   Pedro%Póvoa%NULL%1,                   Vicente%Souza-Dantas%NULL%1,                   André C.%Kalil%NULL%1,                   Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,                   Graeme%MacLaren%NULL%1,                   Philip S%Boonstra%NULL%1,                   Theodore J%Iwashyna%NULL%1,                   Arthur S%Slutsky%NULL%1,                   Eddy%Fan%NULL%1,                   Robert H%Bartlett%NULL%1,                   Joseph E%Tonna%NULL%1,                   Robert%Hyslop%NULL%1,                   Jeffrey J%Fanning%NULL%1,                   Peter T%Rycus%NULL%1,                   Steve J%Hyer%NULL%1,                   Marc M%Anders%NULL%1,                   Cara L%Agerstrand%NULL%1,                   Katarzyna%Hryniewicz%NULL%1,                   Rodrigo%Diaz%NULL%1,                   Roberto%Lorusso%NULL%1,                   Alain%Combes%NULL%1,                   Daniel%Brodie%NULL%4,                   Peta%Alexander%NULL%1,                   Nicholas%Barrett%NULL%1,                   Jan%Bělohlávek%NULL%1,                   Dale%Fisher%NULL%1,                   John%Fraser%NULL%1,                   Ali Ait%Hssain%NULL%1,                   Jae Sung%Jung%NULL%1,                   Michael%McMullan%NULL%1,                   Yatin%Mehta%NULL%1,                   Mark T.%Ogino%NULL%1,                   Matthew L.%Paden%NULL%1,                   Kiran%Shekar%NULL%1,                   Christine%Stead%NULL%1,                   Yasir%Abu-Omar%NULL%1,                   Vanni%Agnoletti%NULL%1,                   Anzila%Akbar%NULL%1,                   Huda%Alfoudri%NULL%1,                   Carlos%Alviar%NULL%1,                   Vladimir%Aronsky%NULL%1,                   Erin%August%NULL%1,                   Georg%Auzinger%NULL%1,                   Hilda%Aveja%NULL%1,                   Rhonda%Bakken%NULL%1,                   Joan%Balcells%NULL%1,                   Sripal%Bangalore%NULL%1,                   Bernard W.%Barnes%NULL%1,                   Alaiza%Bautista%NULL%1,                   Lorraine L.%Bellows%NULL%1,                   Felipe%Beltran%NULL%1,                   Peyman%Benharash%NULL%1,                   Marco%Benni%NULL%1,                   Jennifer%Berg%NULL%1,                   Pietro%Bertini%NULL%1,                   Pablo%Blanco-Schweizer%NULL%1,                   Melissa%Brunsvold%NULL%1,                   Jenny%Budd%NULL%1,                   Debra%Camp%NULL%1,                   Mark%Caridi-Scheible%NULL%0,                   Edmund%Carton%NULL%1,                   Elena%Casanova-Ghosh%NULL%1,                   Anthony%Castleberry%NULL%1,                   Christopher T.%Chipongian%NULL%1,                   Chang Woo%Choi%NULL%1,                   Alessandro%Circelli%NULL%1,                   Elliott%Cohen%NULL%1,                   Michael%Collins%NULL%1,                   Scott%Copus%NULL%1,                   Jill%Coy%NULL%1,                   Brandon%Crist%NULL%1,                   Leonora%Cruz%NULL%1,                   Mirosław%Czuczwar%NULL%1,                   Mani%Daneshmand%NULL%1,                   Daniel%Davis II%NULL%1,                   Kim%De la Cruz%NULL%1,                   Cyndie%Devers%NULL%1,                   Toni%Duculan%NULL%1,                   Lucian%Durham%NULL%1,                   Subbarao%Elapavaluru%NULL%1,                   Carlos V.%Elzo Kraemer%NULL%1,                   EDMÍLSON CARDOSO%Filho%NULL%1,                   Jillian%Fitzgerald%NULL%1,                   Giuseppe%Foti%NULL%1,                   Matthew%Fox%NULL%1,                   David%Fritschen%NULL%1,                   David%Fullerton%NULL%1,                   Elton%Gelandt%NULL%1,                   Stacy%Gerle%NULL%1,                   Marco%Giani%NULL%1,                   Si Guim%Goh%NULL%1,                   Sara%Govener%NULL%1,                   Julie%Grone%NULL%1,                   Miles%Guber%NULL%1,                   Vadim%Gudzenko%NULL%1,                   Daniel%Gutteridge%NULL%1,                   Jennifer%Guy%NULL%1,                   Jonathan%Haft%NULL%1,                   Cameron%Hall%NULL%1,                   Ibrahim Fawzy%Hassan%NULL%1,                   Rubén%Herrán%NULL%1,                   Hitoshi%Hirose%NULL%1,                   Abdulsalam Saif%Ibrahim%NULL%1,                   Don%Igielski%NULL%1,                   Felicia A.%Ivascu%NULL%1,                   Jaume%Izquierdo Blasco%NULL%1,                   Julie%Jackson%NULL%1,                   Harsh%Jain%NULL%1,                   Bhavini%Jaiswal%NULL%1,                   Andrea C.%Johnson%NULL%1,                   Jenniver A.%Jurynec%NULL%1,                   Norma M%Kellter%NULL%1,                   Adam%Kohl%NULL%1,                   Zachary%Kon%NULL%1,                   Markus%Kredel%NULL%1,                   Karen%Kriska%NULL%1,                   Chandra%Kunavarapu%NULL%1,                   Oude%Lansink-Hartgring%NULL%1,                   Jeliene%LaRocque%NULL%1,                   Sharon Beth%Larson%NULL%1,                   Tracie%Layne%NULL%1,                   Stephane%Ledot%NULL%1,                   Napolitan%Lena%NULL%1,                   Jonathan%Lillie%NULL%1,                   Gösta%Lotz%NULL%1,                   Mark%Lucas%NULL%1,                   Lee%Ludwigson%NULL%1,                   Jacinta J.%Maas%NULL%1,                   Joanna%Maertens%NULL%1,                   David%Mast%NULL%1,                   Scott%McCardle%NULL%1,                   Bernard%McDonald%NULL%1,                   Allison%McLarty%NULL%1,                   Chelsea%McMahon%NULL%1,                   Patrick%Meybohm%NULL%1,                   Bart%Meyns%NULL%1,                   Casey%Miller%NULL%1,                   Fernando%Moraes Neto%NULL%1,                   Kelly%Morris%NULL%1,                   Ralf%Muellenbach%NULL%1,                   Meghan%Nicholson%NULL%1,                   Serena%O'Brien%NULL%1,                   Kathryn%O'Keefe%NULL%1,                   Tawnya%Ogston%NULL%1,                   Gary%Oldenburg%NULL%1,                   Fabiana M.%Oliveira%NULL%1,                   Emily%Oppel%NULL%1,                   Diego%Pardo%NULL%2,                   Diego%Pardo%NULL%0,                   Sara J.%Parker%NULL%1,                   Finn M.%Pedersen%NULL%1,                   Crescens%Pellecchia%NULL%1,                   Jose A.S.%Pelligrini%NULL%1,                   Thao T.N.%Pham%NULL%1,                   Ann R.%Phillips%NULL%1,                   Tasneem%Pirani%NULL%1,                   Paweł%Piwowarczyk%NULL%1,                   Robert%Plambeck%NULL%1,                   William%Pruett%NULL%1,                   Brittany%Quandt%NULL%1,                   Kollengode%Ramanathan%NULL%1,                   Alejandro%Rey%NULL%1,                   Christian%Reyher%NULL%1,                   Jordi%Riera del Brio%NULL%1,                   Rachel%Roberts%NULL%1,                   David%Roe%NULL%1,                   Peter P.%Roeleveld%NULL%1,                   Janet%Rudy%NULL%1,                   Luis F.%Rueda%NULL%1,                   Emanuele%Russo%NULL%1,                   Jesús%Sánchez Ballesteros%NULL%1,                   Nancy%Satou%NULL%1,                   Mauricio Guidi%Saueressig%NULL%1,                   Paul C.%Saunders%NULL%1,                   Margaret%Schlotterbeck%NULL%1,                   Patricia%Schwarz%NULL%1,                   Nicole%Scriven%NULL%1,                   Alexis%Serra%NULL%1,                   Mohammad%Shamsah%NULL%1,                   Lucy%Sim%NULL%1,                   Alexandra%Smart%NULL%1,                   Adam%Smith%NULL%1,                   Deane%Smith%NULL%1,                   Maggie%Smith%NULL%1,                   Neel%Sodha%NULL%1,                   Michael%Sonntagbauer%NULL%1,                   Marc%Sorenson%NULL%1,                   Eric B%Stallkamp%NULL%1,                   Allison%Stewart%NULL%1,                   Kathy%Swartz%NULL%1,                   Koji%Takeda%NULL%1,                   Shaun%Thompson%NULL%1,                   Bridget%Toy%NULL%1,                   Divina%Tuazon%NULL%1,                   Makoto%Uchiyama%NULL%1,                   Obiora I.%Udeozo%NULL%1,                   Scott%van Poppel%NULL%1,                   Corey%Ventetuolo%NULL%1,                   Leen%Vercaemst%NULL%1,                   Nguyen V.%Vinh Chau%NULL%1,                   I-Wen%Wang%NULL%1,                   Carrie%Williamson%NULL%1,                   Brock%Wilson%NULL%1,                   Helen%Winkels%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2436,7 +2520,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2465,7 +2549,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -2494,7 +2578,7 @@
         <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2523,7 +2607,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2552,7 +2636,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>525</v>
+        <v>553</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -2581,7 +2665,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>526</v>
+        <v>554</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2610,7 +2694,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2639,7 +2723,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2668,7 +2752,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -2697,7 +2781,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -2726,7 +2810,7 @@
         <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2755,7 +2839,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -2784,7 +2868,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -2813,7 +2897,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -2842,7 +2926,7 @@
         <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -2871,7 +2955,7 @@
         <v>395</v>
       </c>
       <c r="E17" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="F17" t="s">
         <v>86</v>
@@ -2900,7 +2984,7 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -2929,7 +3013,7 @@
         <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
@@ -2958,7 +3042,7 @@
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -2987,7 +3071,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="F21" t="s">
         <v>98</v>
@@ -3016,7 +3100,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="F22" t="s">
         <v>101</v>
@@ -3045,7 +3129,7 @@
         <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="F23" t="s">
         <v>104</v>
@@ -3074,7 +3158,7 @@
         <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="F24" t="s">
         <v>108</v>
@@ -3103,7 +3187,7 @@
         <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="F25" t="s">
         <v>111</v>
@@ -3132,7 +3216,7 @@
         <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -3161,7 +3245,7 @@
         <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -3190,7 +3274,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
@@ -3219,7 +3303,7 @@
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="F29" t="s">
         <v>125</v>

--- a/Covid_19_Dataset_and_References/References/48.xlsx
+++ b/Covid_19_Dataset_and_References/References/48.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3486" uniqueCount="609">
   <si>
     <t>Doi</t>
   </si>
@@ -2168,6 +2168,102 @@
   </si>
   <si>
     <t>[Ryan P%Barbaro%NULL%2,                   Graeme%MacLaren%NULL%1,                   Philip S%Boonstra%NULL%1,                   Theodore J%Iwashyna%NULL%1,                   Arthur S%Slutsky%NULL%1,                   Eddy%Fan%NULL%1,                   Robert H%Bartlett%NULL%1,                   Joseph E%Tonna%NULL%1,                   Robert%Hyslop%NULL%1,                   Jeffrey J%Fanning%NULL%1,                   Peter T%Rycus%NULL%1,                   Steve J%Hyer%NULL%1,                   Marc M%Anders%NULL%1,                   Cara L%Agerstrand%NULL%1,                   Katarzyna%Hryniewicz%NULL%1,                   Rodrigo%Diaz%NULL%1,                   Roberto%Lorusso%NULL%1,                   Alain%Combes%NULL%1,                   Daniel%Brodie%NULL%4,                   Peta%Alexander%NULL%1,                   Nicholas%Barrett%NULL%1,                   Jan%Bělohlávek%NULL%1,                   Dale%Fisher%NULL%1,                   John%Fraser%NULL%1,                   Ali Ait%Hssain%NULL%1,                   Jae Sung%Jung%NULL%1,                   Michael%McMullan%NULL%1,                   Yatin%Mehta%NULL%1,                   Mark T.%Ogino%NULL%1,                   Matthew L.%Paden%NULL%1,                   Kiran%Shekar%NULL%1,                   Christine%Stead%NULL%1,                   Yasir%Abu-Omar%NULL%1,                   Vanni%Agnoletti%NULL%1,                   Anzila%Akbar%NULL%1,                   Huda%Alfoudri%NULL%1,                   Carlos%Alviar%NULL%1,                   Vladimir%Aronsky%NULL%1,                   Erin%August%NULL%1,                   Georg%Auzinger%NULL%1,                   Hilda%Aveja%NULL%1,                   Rhonda%Bakken%NULL%1,                   Joan%Balcells%NULL%1,                   Sripal%Bangalore%NULL%1,                   Bernard W.%Barnes%NULL%1,                   Alaiza%Bautista%NULL%1,                   Lorraine L.%Bellows%NULL%1,                   Felipe%Beltran%NULL%1,                   Peyman%Benharash%NULL%1,                   Marco%Benni%NULL%1,                   Jennifer%Berg%NULL%1,                   Pietro%Bertini%NULL%1,                   Pablo%Blanco-Schweizer%NULL%1,                   Melissa%Brunsvold%NULL%1,                   Jenny%Budd%NULL%1,                   Debra%Camp%NULL%1,                   Mark%Caridi-Scheible%NULL%0,                   Edmund%Carton%NULL%1,                   Elena%Casanova-Ghosh%NULL%1,                   Anthony%Castleberry%NULL%1,                   Christopher T.%Chipongian%NULL%1,                   Chang Woo%Choi%NULL%1,                   Alessandro%Circelli%NULL%1,                   Elliott%Cohen%NULL%1,                   Michael%Collins%NULL%1,                   Scott%Copus%NULL%1,                   Jill%Coy%NULL%1,                   Brandon%Crist%NULL%1,                   Leonora%Cruz%NULL%1,                   Mirosław%Czuczwar%NULL%1,                   Mani%Daneshmand%NULL%1,                   Daniel%Davis II%NULL%1,                   Kim%De la Cruz%NULL%1,                   Cyndie%Devers%NULL%1,                   Toni%Duculan%NULL%1,                   Lucian%Durham%NULL%1,                   Subbarao%Elapavaluru%NULL%1,                   Carlos V.%Elzo Kraemer%NULL%1,                   EDMÍLSON CARDOSO%Filho%NULL%1,                   Jillian%Fitzgerald%NULL%1,                   Giuseppe%Foti%NULL%1,                   Matthew%Fox%NULL%1,                   David%Fritschen%NULL%1,                   David%Fullerton%NULL%1,                   Elton%Gelandt%NULL%1,                   Stacy%Gerle%NULL%1,                   Marco%Giani%NULL%1,                   Si Guim%Goh%NULL%1,                   Sara%Govener%NULL%1,                   Julie%Grone%NULL%1,                   Miles%Guber%NULL%1,                   Vadim%Gudzenko%NULL%1,                   Daniel%Gutteridge%NULL%1,                   Jennifer%Guy%NULL%1,                   Jonathan%Haft%NULL%1,                   Cameron%Hall%NULL%1,                   Ibrahim Fawzy%Hassan%NULL%1,                   Rubén%Herrán%NULL%1,                   Hitoshi%Hirose%NULL%1,                   Abdulsalam Saif%Ibrahim%NULL%1,                   Don%Igielski%NULL%1,                   Felicia A.%Ivascu%NULL%1,                   Jaume%Izquierdo Blasco%NULL%1,                   Julie%Jackson%NULL%1,                   Harsh%Jain%NULL%1,                   Bhavini%Jaiswal%NULL%1,                   Andrea C.%Johnson%NULL%1,                   Jenniver A.%Jurynec%NULL%1,                   Norma M%Kellter%NULL%1,                   Adam%Kohl%NULL%1,                   Zachary%Kon%NULL%1,                   Markus%Kredel%NULL%1,                   Karen%Kriska%NULL%1,                   Chandra%Kunavarapu%NULL%1,                   Oude%Lansink-Hartgring%NULL%1,                   Jeliene%LaRocque%NULL%1,                   Sharon Beth%Larson%NULL%1,                   Tracie%Layne%NULL%1,                   Stephane%Ledot%NULL%1,                   Napolitan%Lena%NULL%1,                   Jonathan%Lillie%NULL%1,                   Gösta%Lotz%NULL%1,                   Mark%Lucas%NULL%1,                   Lee%Ludwigson%NULL%1,                   Jacinta J.%Maas%NULL%1,                   Joanna%Maertens%NULL%1,                   David%Mast%NULL%1,                   Scott%McCardle%NULL%1,                   Bernard%McDonald%NULL%1,                   Allison%McLarty%NULL%1,                   Chelsea%McMahon%NULL%1,                   Patrick%Meybohm%NULL%1,                   Bart%Meyns%NULL%1,                   Casey%Miller%NULL%1,                   Fernando%Moraes Neto%NULL%1,                   Kelly%Morris%NULL%1,                   Ralf%Muellenbach%NULL%1,                   Meghan%Nicholson%NULL%1,                   Serena%O'Brien%NULL%1,                   Kathryn%O'Keefe%NULL%1,                   Tawnya%Ogston%NULL%1,                   Gary%Oldenburg%NULL%1,                   Fabiana M.%Oliveira%NULL%1,                   Emily%Oppel%NULL%1,                   Diego%Pardo%NULL%2,                   Diego%Pardo%NULL%0,                   Sara J.%Parker%NULL%1,                   Finn M.%Pedersen%NULL%1,                   Crescens%Pellecchia%NULL%1,                   Jose A.S.%Pelligrini%NULL%1,                   Thao T.N.%Pham%NULL%1,                   Ann R.%Phillips%NULL%1,                   Tasneem%Pirani%NULL%1,                   Paweł%Piwowarczyk%NULL%1,                   Robert%Plambeck%NULL%1,                   William%Pruett%NULL%1,                   Brittany%Quandt%NULL%1,                   Kollengode%Ramanathan%NULL%1,                   Alejandro%Rey%NULL%1,                   Christian%Reyher%NULL%1,                   Jordi%Riera del Brio%NULL%1,                   Rachel%Roberts%NULL%1,                   David%Roe%NULL%1,                   Peter P.%Roeleveld%NULL%1,                   Janet%Rudy%NULL%1,                   Luis F.%Rueda%NULL%1,                   Emanuele%Russo%NULL%1,                   Jesús%Sánchez Ballesteros%NULL%1,                   Nancy%Satou%NULL%1,                   Mauricio Guidi%Saueressig%NULL%1,                   Paul C.%Saunders%NULL%1,                   Margaret%Schlotterbeck%NULL%1,                   Patricia%Schwarz%NULL%1,                   Nicole%Scriven%NULL%1,                   Alexis%Serra%NULL%1,                   Mohammad%Shamsah%NULL%1,                   Lucy%Sim%NULL%1,                   Alexandra%Smart%NULL%1,                   Adam%Smith%NULL%1,                   Deane%Smith%NULL%1,                   Maggie%Smith%NULL%1,                   Neel%Sodha%NULL%1,                   Michael%Sonntagbauer%NULL%1,                   Marc%Sorenson%NULL%1,                   Eric B%Stallkamp%NULL%1,                   Allison%Stewart%NULL%1,                   Kathy%Swartz%NULL%1,                   Koji%Takeda%NULL%1,                   Shaun%Thompson%NULL%1,                   Bridget%Toy%NULL%1,                   Divina%Tuazon%NULL%1,                   Makoto%Uchiyama%NULL%1,                   Obiora I.%Udeozo%NULL%1,                   Scott%van Poppel%NULL%1,                   Corey%Ventetuolo%NULL%1,                   Leen%Vercaemst%NULL%1,                   Nguyen V.%Vinh Chau%NULL%1,                   I-Wen%Wang%NULL%1,                   Carrie%Williamson%NULL%1,                   Brock%Wilson%NULL%1,                   Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,            Xiaoyan%Chen%xref no email%0,            Yanping%Cai%xref no email%0,            Jia\u2019an%Xia%xref no email%0,            Xing%Zhou%xref no email%0,            Sha%Xu%xref no email%0,            Hanping%Huang%xref no email%0,            Li%Zhang%xref no email%0,            Xia%Zhou%xref no email%0,            Chunling%Du%xref no email%0,            Yuye%Zhang%xref no email%0,            Juan%Song%xref no email%0,            Sijiao%Wang%xref no email%0,            Yencheng%Chao%xref no email%0,            Zeyong%Yang%xref no email%0,            Jie%Xu%xref no email%0,            Xin%Zhou%xref no email%0,            Dechang%Chen%xref no email%0,            Weining%Xiong%xref no email%0,            Lei%Xu%xref no email%0,            Feng%Zhou%xref no email%0,            Jinjun%Jiang%xref no email%0,            Chunxue%Bai%xref no email%0,            Junhua%Zheng%xref no email%0,            Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,                    Dhaval%Kolte%NULL%1,                    Mary E.%Cadigan%NULL%1,                    Elizabeth%Laikhter%NULL%1,                    Kevin%Sinclair%NULL%1,                    Eugene%Pomerantsev%NULL%1,                    Michael A.%Fifer%NULL%1,                    Thoralf M.%Sundt%NULL%1,                    Robert W.%Yeh%NULL%1,                    Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                   Cabrini%Luca%coreGivesNoEmail%1,                   Castelli%Antonio%coreGivesNoEmail%1,                   Cecconi%Maurizio%coreGivesNoEmail%1,                   Cereda%Danilo%coreGivesNoEmail%1,                   Coluccello%Antonio%coreGivesNoEmail%1,                   Foti%Giuseppe%coreGivesNoEmail%1,                   Fumagalli%Roberto%coreGivesNoEmail%1,                   Grasselli%Giacomo%coreGivesNoEmail%1,                   Iotti%Giorgio%coreGivesNoEmail%1,                   Latronico%Nicola%coreGivesNoEmail%1,                   Lorini%Luca%coreGivesNoEmail%1,                   Merler%Stefano%coreGivesNoEmail%1,                   Natalini%Giuseppe%coreGivesNoEmail%1,                   Pesenti%Antonio%coreGivesNoEmail%1,                   Piatti%Alessandra%coreGivesNoEmail%1,                   Ranieri%Marco Vito%coreGivesNoEmail%1,                   Scandroglio%Anna Mara%coreGivesNoEmail%1,                   Storti%Enrico%coreGivesNoEmail%1,                   Zanella%Alberto%coreGivesNoEmail%1,                   Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                    Yeming%Wang%NULL%0,                    Xingwang%Li%NULL%0,                    Lili%Ren%NULL%0,                    Jianping%Zhao%NULL%0,                    Yi%Hu%NULL%0,                    Li%Zhang%NULL%0,                    Guohui%Fan%NULL%0,                    Jiuyang%Xu%NULL%0,                    Xiaoying%Gu%NULL%0,                    Zhenshun%Cheng%NULL%0,                    Ting%Yu%NULL%0,                    Jiaan%Xia%NULL%0,                    Yuan%Wei%NULL%0,                    Wenjuan%Wu%NULL%0,                    Xuelei%Xie%NULL%0,                    Wen%Yin%NULL%0,                    Hui%Li%NULL%0,                    Min%Liu%NULL%0,                    Yan%Xiao%NULL%0,                    Hong%Gao%NULL%0,                    Li%Guo%NULL%0,                    Jungang%Xie%NULL%0,                    Guangfa%Wang%NULL%0,                    Rongmeng%Jiang%NULL%0,                    Zhancheng%Gao%NULL%0,                    Qi%Jin%NULL%0,                    Jianwei%Wang%wangjw28@163.com%0,                    Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                    Yi%Xiang%NULL%0,                    Wei%Fang%NULL%0,                    Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                    Boqun%Li%279685211@qq.com%0,                    Boqun%Li%279685211@qq.com%0,                    Yanjun%Hu%huyanjun@163.com%0,                    Chunhui%Lang%NULL%0,                    Daoqiu%Huang%NULL%0,                    Qiuyan%Sun%NULL%0,                    Yan%Xiong%NULL%0,                    Xia%Huang%NULL%0,                    Jinglong%Lv%NULL%0,                    Yaling%Luo%NULL%0,                    Li%Shen%NULL%0,                    Haoran%Yang%NULL%0,                    Gu%Huang%NULL%0,                    Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,            Eric%Yim%xref no email%0,            Lindy%Klaff%xref no email%0,            Sharukh%Lokhandwala%xref no email%0,            Francis X.%Riedo%xref no email%0,            Maria%Chong%xref no email%0,            Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                    Mark%Caridi-Scheible%NULL%3,                    James M.%Blum%NULL%2,                    Chad%Robichaux%NULL%2,                    Colleen%Kraft%NULL%2,                    Jesse T.%Jacob%NULL%2,                    Craig S.%Jabaley%NULL%2,                    David%Carpenter%NULL%2,                    Roberta%Kaplow%NULL%2,                    Alfonso C.%Hernandez-Romieu%NULL%2,                    Max W.%Adelman%NULL%2,                    Greg S.%Martin%NULL%2,                    Craig M.%Coopersmith%NULL%2,                    David J.%Murphy%NULL%2,                    NULL%NULL%NULL%0,                     S.%Auld%null%1,                     M.% Caridi-Scheible%null%1,                     J. M.% Blum%null%1,                     C. J.% Robichaux%null%1,                     C. S.% Kraft%null%1,                     J. T.% Jacob%null%1,                     C. S.% Jabaley%null%1,                     D.% Carpenter%null%1,                     R.% Kaplow%null%1,                     A. C.% Hernandez%null%1,                     M. W.% Adelman%null%1,                     G. S.% Martin%null%1,                     C. M.% Coopersmith%null%1,                     D. J.% Murphy%null%1,                       % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,                   S.%Auld%null%1,                   M.% Caridi-Scheible%null%1,                   J. M.% Blum%null%1,                   C. J.% Robichaux%null%1,                   C. S.% Kraft%null%1,                   J. T.% Jacob%null%1,                   C. S.% Jabaley%null%1,                   D.% Carpenter%null%1,                   R.% Kaplow%null%1,                   A. C.% Hernandez%null%1,                   M. W.% Adelman%null%1,                   G. S.% Martin%null%1,                   C. M.% Coopersmith%null%1,                   D. J.% Murphy%null%1,                     % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                    Bijan J.%Ghassemieh%NULL%2,                    Michelle%Nichols%NULL%2,                    Richard%Kim%NULL%2,                    Keith R.%Jerome%NULL%2,                    Arun K.%Nalla%NULL%2,                    Alexander L.%Greninger%NULL%2,                    Sudhakar%Pipavath%NULL%2,                    Mark M.%Wurfel%NULL%2,                    Laura%Evans%NULL%2,                    Patricia A.%Kritek%NULL%2,                    T. Eoin%West%NULL%2,                    Andrew%Luks%NULL%2,                    Anthony%Gerbino%NULL%2,                    Chris R.%Dale%NULL%2,                    Jason D.%Goldman%NULL%2,                    Shane%O’Mahony%NULL%2,                    Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                    Tangkai%Qi%NULL%1,                    Li%Liu%NULL%1,                    Yun%Ling%NULL%0,                    Zhiping%Qian%NULL%1,                    Tao%Li%NULL%0,                    Feng%Li%NULL%1,                    Qingnian%Xu%NULL%1,                    Yuyi%Zhang%NULL%1,                    Shuibao%Xu%NULL%1,                    Zhigang%Song%NULL%1,                    Yigang%Zeng%NULL%1,                    Yinzhong%Shen%NULL%1,                    Yuxin%Shi%NULL%2,                    Tongyu%Zhu%NULL%2,                    Hongzhou%Lu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                    Min%Zhou%NULL%0,                    Xuan%Dong%NULL%0,                    Jieming%Qu%NULL%0,                    Fengyun%Gong%NULL%0,                    Yang%Han%NULL%0,                    Yang%Qiu%NULL%0,                    Jingli%Wang%NULL%0,                    Ying%Liu%NULL%0,                    Yuan%Wei%NULL%0,                    Jia'an%Xia%NULL%0,                    Ting%Yu%NULL%0,                    Xinxin%Zhang%NULL%0,                    Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                    Zheng-yi%Ni%NULL%0,                    Zheng-yi%Ni%NULL%0,                    Yu%Hu%NULL%0,                    Wen-hua%Liang%NULL%0,                    Chun-quan%Ou%NULL%0,                    Jian-xing%He%NULL%0,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chun-liang%Lei%NULL%0,                    David S.C.%Hui%NULL%0,                    Bin%Du%NULL%0,                    Lan-juan%Li%NULL%0,                    Guang%Zeng%NULL%0,                    Kwok-Yung%Yuen%NULL%0,                    Ru-chong%Chen%NULL%0,                    Chun-li%Tang%NULL%0,                    Tao%Wang%NULL%0,                    Ping-yan%Chen%NULL%0,                    Jie%Xiang%NULL%0,                    Shi-yue%Li%NULL%0,                    Jin-lin%Wang%NULL%0,                    Zi-jing%Liang%NULL%0,                    Yi-xiang%Peng%NULL%0,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Ya-hua%Hu%NULL%0,                    Peng%Peng%NULL%0,                    Jian-ming%Wang%NULL%0,                    Ji-yang%Liu%NULL%0,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhi-jian%Zheng%NULL%0,                    Shao-qin%Qiu%NULL%0,                    Jie%Luo%NULL%0,                    Chang-jiang%Ye%NULL%0,                    Shao-yong%Zhu%NULL%0,                    Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                    Yuanyuan%Xing%NULL%2,                    Yu%Xiao%NULL%2,                    Liping%Deng%NULL%3,                    Qiu%Zhao%NULL%2,                    Hongling%Wang%NULL%2,                    Yong%Xiong%NULL%4,                    Zhenshun%Cheng%NULL%0,                    Shicheng%Gao%NULL%3,                    Ke%Liang%NULL%3,                    Mingqi%Luo%NULL%3,                    Tielong%Chen%NULL%2,                    Shihui%Song%NULL%3,                    Zhiyong%Ma%NULL%3,                    Xiaoping%Chen%NULL%3,                    Ruiying%Zheng%NULL%2,                    Qian%Cao%NULL%2,                    Fan%Wang%fanndywang@foxmail.com%2,                    Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,                    N -B%Yang%NULL%1,                    F%Ding%NULL%1,                    A H Y%Ma%NULL%1,                    Z -Y%Wang%NULL%2,                    Y -F%Shen%NULL%1,                    C -W%Shi%NULL%1,                    X%Lian%NULL%1,                    J -G%Chu%NULL%1,                    L%Chen%chxmin@hotmail.com%1,                    Z -Y%Wang%NULL%0,                    D -W%Ren%NULL%1,                    G -X%Li%NULL%1,                    X -Q%Chen%chxmin@hotmail.com%1,                    H -J%Shen%NULL%1,                    X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,                    Hugues%Spillemaeker%NULL%1,                    Maéva%Kyheng%NULL%1,                    Cassandre%Belin‐Vincent%NULL%1,                    Cédric%Delhaye%NULL%1,                    Adeline%Piérache%NULL%1,                    Tom%Denimal%NULL%1,                    Basile%Verdier%NULL%1,                    Nicolas%Debry%NULL%1,                    Mouhamed%Moussa%NULL%1,                    Guillaume%Schurtz%NULL%1,                    Sina%Porouchani%NULL%1,                    Alessandro%Cosenza%NULL%1,                    Francis%Juthier%NULL%1,                    Thibault%Pamart%NULL%1,                    Marjorie%Richardson%NULL%1,                    Augustin%Coisne%NULL%1,                    Adrien%Hertault%NULL%1,                    Jonathan%Sobocinski%NULL%1,                    Thomas%Modine%NULL%1,                    François%Pontana%NULL%1,                    Alain%Duhamel%NULL%2,                    Julien%Labreuche%NULL%2,                    Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                   Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,                    Yimei%Yin%18256985@qq.com%1,                    Chang%Hu%1391369733@qq.com%3,                    Xing%Liu%375117565@qq.com%1,                    Xingguo%Zhang%zhangxinguo7909@163.com%1,                    Shuliang%Zhou%350925556@qq.com%1,                    Mingzhi%Jian%Jmzhak@aliyun.com%1,                    Haibo%Xu%xuhaibo1120@hotmail.com%0,                    John%Prowle%j.prowle@qmul.ac.uk%1,                    Bo%Hu%hobbier1979@163.com%0,                    Yirong%Li%liyirong838@163.com%1,                    Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Wentao%Xu%xref no email%1,            Shuang%Qu%xref no email%1,            Mengying%Xing%xref no email%1,            Ming%Zhang%xref no email%1,            Geng%Lu%xref no email%1,            Zhicong%Liao%xref no email%1,            Kimberly%Griffin%xref no email%1,            Jun%Wang%xref no email%1,            Ke%Zen%xref no email%1,            Bing%Yao%xref no email%1,            Hongwei%Liang%xref no email%1,            Jianping%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                    Xiao-Xin%Wu%NULL%2,                    Xian-Gao%Jiang%NULL%2,                    Kai-Jin%Xu%NULL%2,                    Ling-Jun%Ying%NULL%2,                    Chun-Lian%Ma%NULL%2,                    Shi-Bo%Li%NULL%2,                    Hua-Ying%Wang%NULL%2,                    Sheng%Zhang%NULL%2,                    Hai-Nv%Gao%NULL%2,                    Ji-Fang%Sheng%NULL%2,                    Hong-Liu%Cai%NULL%2,                    Yun-Qing%Qiu%NULL%2,                    Lan-Juan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                    Chang%Hu%NULL%0,                    Linjie%Luo%NULL%2,                    Fang%Fang%NULL%0,                    Yongfeng%Chen%NULL%2,                    Jianguo%Li%NULL%2,                    Zhiyong%Peng%NULL%0,                    Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,                    Chun%Liao%lc7spring@163.com%1,                    Qi-hong%Fan%1187286305@qq.com%1,                    Hong-bo%Chen%hbchen@hust.edu.cn%1,                    Xue-gong%Zhao%NULL%1,                    Zhong-guo%Xie%NULL%1,                    Xi-lin%Li%NULL%1,                    Chun-xi%Chen%NULL%1,                    Xiao-xia%Lu%NULL%1,                    Zhi-sheng%Liu%NULL%1,                    Wei%Lu%NULL%1,                    Chun-bao%Chen%NULL%1,                    Rong%Jiao%NULL%1,                    Ai-ming%Zhang%NULL%1,                    Jin-tang%Wang%NULL%1,                    Xi-wei%Ding%NULL%1,                    Yao-guang%Zeng%NULL%1,                    Li-ping%Cheng%NULL%1,                    Qing-feng%Huang%NULL%1,                    Jiang%Wu%NULL%0,                    Xi-chang%Luo%NULL%1,                    Zhu-jun%Wang%NULL%1,                    Yan-yan%Zhong%NULL%1,                    Yan%Bai%yanbaixh@hust.edu.cn%1,                    Xiao-yan%Wu%xwu@hust.edu.cn%1,                    Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                    Ting%Yu%NULL%0,                    Ronghui%Du%NULL%0,                    Guohui%Fan%NULL%0,                    Ying%Liu%NULL%0,                    Zhibo%Liu%NULL%0,                    Jie%Xiang%NULL%0,                    Yeming%Wang%NULL%0,                    Bin%Song%NULL%0,                    Xiaoying%Gu%NULL%0,                    Lulu%Guan%NULL%0,                    Yuan%Wei%NULL%0,                    Hui%Li%NULL%0,                    Xudong%Wu%NULL%0,                    Jiuyang%Xu%NULL%0,                    Shengjin%Tu%NULL%0,                    Yi%Zhang%NULL%0,                    Hua%Chen%NULL%0,                    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                    Mengqi%Tu%NULL%2,                    Shipei%Wang%NULL%2,                    Sichao%Chen%NULL%2,                    Wei%Zhou%NULL%0,                    Danyang%Chen%NULL%2,                    Lin%Zhou%NULL%2,                    Min%Wang%NULL%2,                    Yan%Zhao%NULL%4,                    Wen%Zeng%NULL%2,                    Qi%Huang%NULL%2,                    Hai'bo%Xu%NULL%2,                    Zeming%Liu%NULL%2,                    Liang%Guo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                    Yuan%Yu%NULL%0,                    Jiqian%Xu%NULL%0,                    Huaqing%Shu%NULL%0,                    Jia'an%Xia%NULL%0,                    Hong%Liu%NULL%0,                    Yongran%Wu%NULL%0,                    Lu%Zhang%NULL%0,                    Zhui%Yu%NULL%0,                    Minghao%Fang%NULL%0,                    Ting%Yu%NULL%0,                    Yaxin%Wang%NULL%0,                    Shangwen%Pan%NULL%0,                    Xiaojing%Zou%NULL%0,                    Shiying%Yuan%NULL%0,                    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,                    Wei-jie%Guan%NULL%2,                    Cai-chen%Li%NULL%3,                    Yi-min%Li%NULL%3,                    Heng-rui%Liang%NULL%3,                    Yi%Zhao%NULL%3,                    Xiao-qing%Liu%NULL%3,                    Ling%Sang%NULL%0,                    Ru-chong%Chen%NULL%0,                    Chun-li%Tang%NULL%0,                    Tao%Wang%NULL%0,                    Wei%Wang%NULL%0,                    Qi-hua%He%NULL%2,                    Zi-sheng%Chen%NULL%3,                    Sook-San%Wong%NULL%2,                    Mark%Zanin%NULL%2,                    Jun%Liu%NULL%2,                    Xin%Xu%NULL%3,                    Jun%Huang%NULL%2,                    Jian-fu%Li%NULL%3,                    Li-min%Ou%NULL%3,                    Bo%Cheng%NULL%3,                    Shan%Xiong%NULL%3,                    Zhan-hong%Xie%NULL%2,                    Zheng-yi%Ni%NULL%0,                    Yu%Hu%NULL%0,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chun-liang%Lei%NULL%0,                    Yi-xiang%Peng%NULL%0,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Ya-hua%Hu%NULL%0,                    Peng%Peng%NULL%0,                    Jian-ming%Wang%NULL%0,                    Ji-yang%Liu%NULL%0,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhi-jian%Zheng%NULL%0,                    Shao-qin%Qiu%NULL%0,                    Jie%Luo%NULL%0,                    Chang-jiang%Ye%NULL%0,                    Shao-yong%Zhu%NULL%0,                    Lin-ling%Cheng%NULL%3,                    Feng%Ye%NULL%5,                    Shi-yue%Li%NULL%0,                    Jin-ping%Zheng%NULL%3,                    Nuo-fu%Zhang%NULL%3,                    Nan-shan%Zhong%NULL%0,                    Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                    Simon A%Jones%NULL%1,                    Jie%Yang%NULL%0,                    Harish%Rajagopalan%NULL%1,                    Luke%O’Donnell%NULL%1,                    Yelena%Chernyak%NULL%1,                    Katie A%Tobin%NULL%1,                    Robert J%Cerfolio%NULL%1,                    Fritz%Francois%NULL%1,                    Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0,                    Stephanie%Bialek%NULL%1,                    Ellen%Boundy%NULL%1,                    Virginia%Bowen%NULL%1,                    Nancy%Chow%NULL%2,                    Amanda%Cohn%NULL%1,                    Nicole%Dowling%NULL%1,                    Sascha%Ellington%NULL%1,                    Ryan%Gierke%NULL%2,                    Aron%Hall%NULL%2,                    Jessica%MacNeil%NULL%1,                    Priti%Patel%NULL%1,                    Georgina%Peacock%NULL%1,                    Tamara%Pilishvili%NULL%2,                    Hilda%Razzaghi%NULL%1,                    Nia%Reed%NULL%1,                    Matthew%Ritchey%NULL%2,                    Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,                    Pedro%Póvoa%NULL%1,                    Vicente%Souza-Dantas%NULL%1,                    André C.%Kalil%NULL%1,                    Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,                    Graeme%MacLaren%NULL%1,                    Philip S%Boonstra%NULL%1,                    Theodore J%Iwashyna%NULL%1,                    Arthur S%Slutsky%NULL%1,                    Eddy%Fan%NULL%1,                    Robert H%Bartlett%NULL%1,                    Joseph E%Tonna%NULL%1,                    Robert%Hyslop%NULL%1,                    Jeffrey J%Fanning%NULL%1,                    Peter T%Rycus%NULL%1,                    Steve J%Hyer%NULL%1,                    Marc M%Anders%NULL%1,                    Cara L%Agerstrand%NULL%1,                    Katarzyna%Hryniewicz%NULL%1,                    Rodrigo%Diaz%NULL%1,                    Roberto%Lorusso%NULL%1,                    Alain%Combes%NULL%1,                    Daniel%Brodie%NULL%4,                    Peta%Alexander%NULL%1,                    Nicholas%Barrett%NULL%1,                    Jan%Bělohlávek%NULL%1,                    Dale%Fisher%NULL%1,                    John%Fraser%NULL%1,                    Ali Ait%Hssain%NULL%1,                    Jae Sung%Jung%NULL%1,                    Michael%McMullan%NULL%1,                    Yatin%Mehta%NULL%1,                    Mark T.%Ogino%NULL%1,                    Matthew L.%Paden%NULL%1,                    Kiran%Shekar%NULL%1,                    Christine%Stead%NULL%1,                    Yasir%Abu-Omar%NULL%1,                    Vanni%Agnoletti%NULL%1,                    Anzila%Akbar%NULL%1,                    Huda%Alfoudri%NULL%1,                    Carlos%Alviar%NULL%1,                    Vladimir%Aronsky%NULL%1,                    Erin%August%NULL%1,                    Georg%Auzinger%NULL%1,                    Hilda%Aveja%NULL%1,                    Rhonda%Bakken%NULL%1,                    Joan%Balcells%NULL%1,                    Sripal%Bangalore%NULL%1,                    Bernard W.%Barnes%NULL%1,                    Alaiza%Bautista%NULL%1,                    Lorraine L.%Bellows%NULL%1,                    Felipe%Beltran%NULL%1,                    Peyman%Benharash%NULL%1,                    Marco%Benni%NULL%1,                    Jennifer%Berg%NULL%1,                    Pietro%Bertini%NULL%1,                    Pablo%Blanco-Schweizer%NULL%1,                    Melissa%Brunsvold%NULL%1,                    Jenny%Budd%NULL%1,                    Debra%Camp%NULL%1,                    Mark%Caridi-Scheible%NULL%0,                    Edmund%Carton%NULL%1,                    Elena%Casanova-Ghosh%NULL%1,                    Anthony%Castleberry%NULL%1,                    Christopher T.%Chipongian%NULL%1,                    Chang Woo%Choi%NULL%1,                    Alessandro%Circelli%NULL%1,                    Elliott%Cohen%NULL%1,                    Michael%Collins%NULL%1,                    Scott%Copus%NULL%1,                    Jill%Coy%NULL%1,                    Brandon%Crist%NULL%1,                    Leonora%Cruz%NULL%1,                    Mirosław%Czuczwar%NULL%1,                    Mani%Daneshmand%NULL%1,                    Daniel%Davis II%NULL%1,                    Kim%De la Cruz%NULL%1,                    Cyndie%Devers%NULL%1,                    Toni%Duculan%NULL%1,                    Lucian%Durham%NULL%1,                    Subbarao%Elapavaluru%NULL%1,                    Carlos V.%Elzo Kraemer%NULL%1,                    EDMÍLSON CARDOSO%Filho%NULL%1,                    Jillian%Fitzgerald%NULL%1,                    Giuseppe%Foti%NULL%1,                    Matthew%Fox%NULL%1,                    David%Fritschen%NULL%1,                    David%Fullerton%NULL%1,                    Elton%Gelandt%NULL%1,                    Stacy%Gerle%NULL%1,                    Marco%Giani%NULL%1,                    Si Guim%Goh%NULL%1,                    Sara%Govener%NULL%1,                    Julie%Grone%NULL%1,                    Miles%Guber%NULL%1,                    Vadim%Gudzenko%NULL%1,                    Daniel%Gutteridge%NULL%1,                    Jennifer%Guy%NULL%1,                    Jonathan%Haft%NULL%1,                    Cameron%Hall%NULL%1,                    Ibrahim Fawzy%Hassan%NULL%1,                    Rubén%Herrán%NULL%1,                    Hitoshi%Hirose%NULL%1,                    Abdulsalam Saif%Ibrahim%NULL%1,                    Don%Igielski%NULL%1,                    Felicia A.%Ivascu%NULL%1,                    Jaume%Izquierdo Blasco%NULL%1,                    Julie%Jackson%NULL%1,                    Harsh%Jain%NULL%1,                    Bhavini%Jaiswal%NULL%1,                    Andrea C.%Johnson%NULL%1,                    Jenniver A.%Jurynec%NULL%1,                    Norma M%Kellter%NULL%1,                    Adam%Kohl%NULL%1,                    Zachary%Kon%NULL%1,                    Markus%Kredel%NULL%1,                    Karen%Kriska%NULL%1,                    Chandra%Kunavarapu%NULL%1,                    Oude%Lansink-Hartgring%NULL%1,                    Jeliene%LaRocque%NULL%1,                    Sharon Beth%Larson%NULL%1,                    Tracie%Layne%NULL%1,                    Stephane%Ledot%NULL%1,                    Napolitan%Lena%NULL%1,                    Jonathan%Lillie%NULL%1,                    Gösta%Lotz%NULL%1,                    Mark%Lucas%NULL%1,                    Lee%Ludwigson%NULL%1,                    Jacinta J.%Maas%NULL%1,                    Joanna%Maertens%NULL%1,                    David%Mast%NULL%1,                    Scott%McCardle%NULL%1,                    Bernard%McDonald%NULL%1,                    Allison%McLarty%NULL%1,                    Chelsea%McMahon%NULL%1,                    Patrick%Meybohm%NULL%1,                    Bart%Meyns%NULL%1,                    Casey%Miller%NULL%1,                    Fernando%Moraes Neto%NULL%1,                    Kelly%Morris%NULL%1,                    Ralf%Muellenbach%NULL%1,                    Meghan%Nicholson%NULL%1,                    Serena%O'Brien%NULL%1,                    Kathryn%O'Keefe%NULL%1,                    Tawnya%Ogston%NULL%1,                    Gary%Oldenburg%NULL%1,                    Fabiana M.%Oliveira%NULL%1,                    Emily%Oppel%NULL%1,                    Diego%Pardo%NULL%2,                    Diego%Pardo%NULL%0,                    Sara J.%Parker%NULL%1,                    Finn M.%Pedersen%NULL%1,                    Crescens%Pellecchia%NULL%1,                    Jose A.S.%Pelligrini%NULL%1,                    Thao T.N.%Pham%NULL%1,                    Ann R.%Phillips%NULL%1,                    Tasneem%Pirani%NULL%1,                    Paweł%Piwowarczyk%NULL%1,                    Robert%Plambeck%NULL%1,                    William%Pruett%NULL%1,                    Brittany%Quandt%NULL%1,                    Kollengode%Ramanathan%NULL%1,                    Alejandro%Rey%NULL%1,                    Christian%Reyher%NULL%1,                    Jordi%Riera del Brio%NULL%1,                    Rachel%Roberts%NULL%1,                    David%Roe%NULL%1,                    Peter P.%Roeleveld%NULL%1,                    Janet%Rudy%NULL%1,                    Luis F.%Rueda%NULL%1,                    Emanuele%Russo%NULL%1,                    Jesús%Sánchez Ballesteros%NULL%1,                    Nancy%Satou%NULL%1,                    Mauricio Guidi%Saueressig%NULL%1,                    Paul C.%Saunders%NULL%1,                    Margaret%Schlotterbeck%NULL%1,                    Patricia%Schwarz%NULL%1,                    Nicole%Scriven%NULL%1,                    Alexis%Serra%NULL%1,                    Mohammad%Shamsah%NULL%1,                    Lucy%Sim%NULL%1,                    Alexandra%Smart%NULL%1,                    Adam%Smith%NULL%1,                    Deane%Smith%NULL%1,                    Maggie%Smith%NULL%1,                    Neel%Sodha%NULL%1,                    Michael%Sonntagbauer%NULL%1,                    Marc%Sorenson%NULL%1,                    Eric B%Stallkamp%NULL%1,                    Allison%Stewart%NULL%1,                    Kathy%Swartz%NULL%1,                    Koji%Takeda%NULL%1,                    Shaun%Thompson%NULL%1,                    Bridget%Toy%NULL%1,                    Divina%Tuazon%NULL%1,                    Makoto%Uchiyama%NULL%1,                    Obiora I.%Udeozo%NULL%1,                    Scott%van Poppel%NULL%1,                    Corey%Ventetuolo%NULL%1,                    Leen%Vercaemst%NULL%1,                    Nguyen V.%Vinh Chau%NULL%1,                    I-Wen%Wang%NULL%1,                    Carrie%Williamson%NULL%1,                    Brock%Wilson%NULL%1,                    Helen%Winkels%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2520,7 +2616,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2532,7 +2628,7 @@
         <v>264</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2549,7 +2645,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -2561,7 +2657,7 @@
         <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>131</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2578,7 +2674,7 @@
         <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2590,7 +2686,7 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2607,7 +2703,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2619,7 +2715,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2636,7 +2732,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>553</v>
+        <v>584</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -2648,7 +2744,7 @@
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2665,7 +2761,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>554</v>
+        <v>585</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2677,7 +2773,7 @@
         <v>271</v>
       </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2694,7 +2790,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>555</v>
+        <v>586</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2706,7 +2802,7 @@
         <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>131</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2723,7 +2819,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>556</v>
+        <v>587</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2735,7 +2831,7 @@
         <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>131</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2752,7 +2848,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>557</v>
+        <v>588</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -2764,7 +2860,7 @@
         <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2781,7 +2877,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>558</v>
+        <v>589</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -2793,7 +2889,7 @@
         <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2810,7 +2906,7 @@
         <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>559</v>
+        <v>590</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2822,7 +2918,7 @@
         <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2839,7 +2935,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -2851,7 +2947,7 @@
         <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,7 +2964,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -2880,7 +2976,7 @@
         <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2897,7 +2993,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>562</v>
+        <v>593</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -2909,7 +3005,7 @@
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2926,7 +3022,7 @@
         <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>563</v>
+        <v>594</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -2938,7 +3034,7 @@
         <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2955,7 +3051,7 @@
         <v>395</v>
       </c>
       <c r="E17" t="s">
-        <v>564</v>
+        <v>595</v>
       </c>
       <c r="F17" t="s">
         <v>86</v>
@@ -2967,7 +3063,7 @@
         <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2984,7 +3080,7 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -2996,7 +3092,7 @@
         <v>284</v>
       </c>
       <c r="I18" t="s">
-        <v>103</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3013,7 +3109,7 @@
         <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
@@ -3025,7 +3121,7 @@
         <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>131</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -3042,7 +3138,7 @@
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -3054,7 +3150,7 @@
         <v>95</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3071,7 +3167,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="F21" t="s">
         <v>98</v>
@@ -3083,7 +3179,7 @@
         <v>45</v>
       </c>
       <c r="I21" t="s">
-        <v>134</v>
+        <v>596</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3100,7 +3196,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
       <c r="F22" t="s">
         <v>101</v>
@@ -3112,7 +3208,7 @@
         <v>45</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3129,7 +3225,7 @@
         <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>570</v>
+        <v>602</v>
       </c>
       <c r="F23" t="s">
         <v>104</v>
@@ -3141,7 +3237,7 @@
         <v>105</v>
       </c>
       <c r="I23" t="s">
-        <v>132</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3158,7 +3254,7 @@
         <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="F24" t="s">
         <v>108</v>
@@ -3170,7 +3266,7 @@
         <v>45</v>
       </c>
       <c r="I24" t="s">
-        <v>132</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3187,7 +3283,7 @@
         <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="F25" t="s">
         <v>111</v>
@@ -3199,7 +3295,7 @@
         <v>112</v>
       </c>
       <c r="I25" t="s">
-        <v>131</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -3216,7 +3312,7 @@
         <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -3228,7 +3324,7 @@
         <v>116</v>
       </c>
       <c r="I26" t="s">
-        <v>131</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3245,7 +3341,7 @@
         <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -3257,7 +3353,7 @@
         <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>131</v>
+        <v>580</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3274,7 +3370,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
@@ -3286,7 +3382,7 @@
         <v>122</v>
       </c>
       <c r="I28" t="s">
-        <v>132</v>
+        <v>583</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3303,7 +3399,7 @@
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="F29" t="s">
         <v>125</v>
@@ -3315,7 +3411,7 @@
         <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>132</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/48.xlsx
+++ b/Covid_19_Dataset_and_References/References/48.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3486" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3689" uniqueCount="637">
   <si>
     <t>Doi</t>
   </si>
@@ -2264,6 +2264,90 @@
   </si>
   <si>
     <t>[Ryan P%Barbaro%NULL%2,                    Graeme%MacLaren%NULL%1,                    Philip S%Boonstra%NULL%1,                    Theodore J%Iwashyna%NULL%1,                    Arthur S%Slutsky%NULL%1,                    Eddy%Fan%NULL%1,                    Robert H%Bartlett%NULL%1,                    Joseph E%Tonna%NULL%1,                    Robert%Hyslop%NULL%1,                    Jeffrey J%Fanning%NULL%1,                    Peter T%Rycus%NULL%1,                    Steve J%Hyer%NULL%1,                    Marc M%Anders%NULL%1,                    Cara L%Agerstrand%NULL%1,                    Katarzyna%Hryniewicz%NULL%1,                    Rodrigo%Diaz%NULL%1,                    Roberto%Lorusso%NULL%1,                    Alain%Combes%NULL%1,                    Daniel%Brodie%NULL%4,                    Peta%Alexander%NULL%1,                    Nicholas%Barrett%NULL%1,                    Jan%Bělohlávek%NULL%1,                    Dale%Fisher%NULL%1,                    John%Fraser%NULL%1,                    Ali Ait%Hssain%NULL%1,                    Jae Sung%Jung%NULL%1,                    Michael%McMullan%NULL%1,                    Yatin%Mehta%NULL%1,                    Mark T.%Ogino%NULL%1,                    Matthew L.%Paden%NULL%1,                    Kiran%Shekar%NULL%1,                    Christine%Stead%NULL%1,                    Yasir%Abu-Omar%NULL%1,                    Vanni%Agnoletti%NULL%1,                    Anzila%Akbar%NULL%1,                    Huda%Alfoudri%NULL%1,                    Carlos%Alviar%NULL%1,                    Vladimir%Aronsky%NULL%1,                    Erin%August%NULL%1,                    Georg%Auzinger%NULL%1,                    Hilda%Aveja%NULL%1,                    Rhonda%Bakken%NULL%1,                    Joan%Balcells%NULL%1,                    Sripal%Bangalore%NULL%1,                    Bernard W.%Barnes%NULL%1,                    Alaiza%Bautista%NULL%1,                    Lorraine L.%Bellows%NULL%1,                    Felipe%Beltran%NULL%1,                    Peyman%Benharash%NULL%1,                    Marco%Benni%NULL%1,                    Jennifer%Berg%NULL%1,                    Pietro%Bertini%NULL%1,                    Pablo%Blanco-Schweizer%NULL%1,                    Melissa%Brunsvold%NULL%1,                    Jenny%Budd%NULL%1,                    Debra%Camp%NULL%1,                    Mark%Caridi-Scheible%NULL%0,                    Edmund%Carton%NULL%1,                    Elena%Casanova-Ghosh%NULL%1,                    Anthony%Castleberry%NULL%1,                    Christopher T.%Chipongian%NULL%1,                    Chang Woo%Choi%NULL%1,                    Alessandro%Circelli%NULL%1,                    Elliott%Cohen%NULL%1,                    Michael%Collins%NULL%1,                    Scott%Copus%NULL%1,                    Jill%Coy%NULL%1,                    Brandon%Crist%NULL%1,                    Leonora%Cruz%NULL%1,                    Mirosław%Czuczwar%NULL%1,                    Mani%Daneshmand%NULL%1,                    Daniel%Davis II%NULL%1,                    Kim%De la Cruz%NULL%1,                    Cyndie%Devers%NULL%1,                    Toni%Duculan%NULL%1,                    Lucian%Durham%NULL%1,                    Subbarao%Elapavaluru%NULL%1,                    Carlos V.%Elzo Kraemer%NULL%1,                    EDMÍLSON CARDOSO%Filho%NULL%1,                    Jillian%Fitzgerald%NULL%1,                    Giuseppe%Foti%NULL%1,                    Matthew%Fox%NULL%1,                    David%Fritschen%NULL%1,                    David%Fullerton%NULL%1,                    Elton%Gelandt%NULL%1,                    Stacy%Gerle%NULL%1,                    Marco%Giani%NULL%1,                    Si Guim%Goh%NULL%1,                    Sara%Govener%NULL%1,                    Julie%Grone%NULL%1,                    Miles%Guber%NULL%1,                    Vadim%Gudzenko%NULL%1,                    Daniel%Gutteridge%NULL%1,                    Jennifer%Guy%NULL%1,                    Jonathan%Haft%NULL%1,                    Cameron%Hall%NULL%1,                    Ibrahim Fawzy%Hassan%NULL%1,                    Rubén%Herrán%NULL%1,                    Hitoshi%Hirose%NULL%1,                    Abdulsalam Saif%Ibrahim%NULL%1,                    Don%Igielski%NULL%1,                    Felicia A.%Ivascu%NULL%1,                    Jaume%Izquierdo Blasco%NULL%1,                    Julie%Jackson%NULL%1,                    Harsh%Jain%NULL%1,                    Bhavini%Jaiswal%NULL%1,                    Andrea C.%Johnson%NULL%1,                    Jenniver A.%Jurynec%NULL%1,                    Norma M%Kellter%NULL%1,                    Adam%Kohl%NULL%1,                    Zachary%Kon%NULL%1,                    Markus%Kredel%NULL%1,                    Karen%Kriska%NULL%1,                    Chandra%Kunavarapu%NULL%1,                    Oude%Lansink-Hartgring%NULL%1,                    Jeliene%LaRocque%NULL%1,                    Sharon Beth%Larson%NULL%1,                    Tracie%Layne%NULL%1,                    Stephane%Ledot%NULL%1,                    Napolitan%Lena%NULL%1,                    Jonathan%Lillie%NULL%1,                    Gösta%Lotz%NULL%1,                    Mark%Lucas%NULL%1,                    Lee%Ludwigson%NULL%1,                    Jacinta J.%Maas%NULL%1,                    Joanna%Maertens%NULL%1,                    David%Mast%NULL%1,                    Scott%McCardle%NULL%1,                    Bernard%McDonald%NULL%1,                    Allison%McLarty%NULL%1,                    Chelsea%McMahon%NULL%1,                    Patrick%Meybohm%NULL%1,                    Bart%Meyns%NULL%1,                    Casey%Miller%NULL%1,                    Fernando%Moraes Neto%NULL%1,                    Kelly%Morris%NULL%1,                    Ralf%Muellenbach%NULL%1,                    Meghan%Nicholson%NULL%1,                    Serena%O'Brien%NULL%1,                    Kathryn%O'Keefe%NULL%1,                    Tawnya%Ogston%NULL%1,                    Gary%Oldenburg%NULL%1,                    Fabiana M.%Oliveira%NULL%1,                    Emily%Oppel%NULL%1,                    Diego%Pardo%NULL%2,                    Diego%Pardo%NULL%0,                    Sara J.%Parker%NULL%1,                    Finn M.%Pedersen%NULL%1,                    Crescens%Pellecchia%NULL%1,                    Jose A.S.%Pelligrini%NULL%1,                    Thao T.N.%Pham%NULL%1,                    Ann R.%Phillips%NULL%1,                    Tasneem%Pirani%NULL%1,                    Paweł%Piwowarczyk%NULL%1,                    Robert%Plambeck%NULL%1,                    William%Pruett%NULL%1,                    Brittany%Quandt%NULL%1,                    Kollengode%Ramanathan%NULL%1,                    Alejandro%Rey%NULL%1,                    Christian%Reyher%NULL%1,                    Jordi%Riera del Brio%NULL%1,                    Rachel%Roberts%NULL%1,                    David%Roe%NULL%1,                    Peter P.%Roeleveld%NULL%1,                    Janet%Rudy%NULL%1,                    Luis F.%Rueda%NULL%1,                    Emanuele%Russo%NULL%1,                    Jesús%Sánchez Ballesteros%NULL%1,                    Nancy%Satou%NULL%1,                    Mauricio Guidi%Saueressig%NULL%1,                    Paul C.%Saunders%NULL%1,                    Margaret%Schlotterbeck%NULL%1,                    Patricia%Schwarz%NULL%1,                    Nicole%Scriven%NULL%1,                    Alexis%Serra%NULL%1,                    Mohammad%Shamsah%NULL%1,                    Lucy%Sim%NULL%1,                    Alexandra%Smart%NULL%1,                    Adam%Smith%NULL%1,                    Deane%Smith%NULL%1,                    Maggie%Smith%NULL%1,                    Neel%Sodha%NULL%1,                    Michael%Sonntagbauer%NULL%1,                    Marc%Sorenson%NULL%1,                    Eric B%Stallkamp%NULL%1,                    Allison%Stewart%NULL%1,                    Kathy%Swartz%NULL%1,                    Koji%Takeda%NULL%1,                    Shaun%Thompson%NULL%1,                    Bridget%Toy%NULL%1,                    Divina%Tuazon%NULL%1,                    Makoto%Uchiyama%NULL%1,                    Obiora I.%Udeozo%NULL%1,                    Scott%van Poppel%NULL%1,                    Corey%Ventetuolo%NULL%1,                    Leen%Vercaemst%NULL%1,                    Nguyen V.%Vinh Chau%NULL%1,                    I-Wen%Wang%NULL%1,                    Carrie%Williamson%NULL%1,                    Brock%Wilson%NULL%1,                    Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,             Xiaoyan%Chen%xref no email%0,             Yanping%Cai%xref no email%0,             Jia\u2019an%Xia%xref no email%0,             Xing%Zhou%xref no email%0,             Sha%Xu%xref no email%0,             Hanping%Huang%xref no email%0,             Li%Zhang%xref no email%0,             Xia%Zhou%xref no email%0,             Chunling%Du%xref no email%0,             Yuye%Zhang%xref no email%0,             Juan%Song%xref no email%0,             Sijiao%Wang%xref no email%0,             Yencheng%Chao%xref no email%0,             Zeyong%Yang%xref no email%0,             Jie%Xu%xref no email%0,             Xin%Zhou%xref no email%0,             Dechang%Chen%xref no email%0,             Weining%Xiong%xref no email%0,             Lei%Xu%xref no email%0,             Feng%Zhou%xref no email%0,             Jinjun%Jiang%xref no email%0,             Chunxue%Bai%xref no email%0,             Junhua%Zheng%xref no email%0,             Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,                     Dhaval%Kolte%NULL%1,                     Mary E.%Cadigan%NULL%1,                     Elizabeth%Laikhter%NULL%1,                     Kevin%Sinclair%NULL%1,                     Eugene%Pomerantsev%NULL%1,                     Michael A.%Fifer%NULL%1,                     Thoralf M.%Sundt%NULL%1,                     Robert W.%Yeh%NULL%1,                     Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                    Cabrini%Luca%coreGivesNoEmail%1,                    Castelli%Antonio%coreGivesNoEmail%1,                    Cecconi%Maurizio%coreGivesNoEmail%1,                    Cereda%Danilo%coreGivesNoEmail%1,                    Coluccello%Antonio%coreGivesNoEmail%1,                    Foti%Giuseppe%coreGivesNoEmail%1,                    Fumagalli%Roberto%coreGivesNoEmail%1,                    Grasselli%Giacomo%coreGivesNoEmail%1,                    Iotti%Giorgio%coreGivesNoEmail%1,                    Latronico%Nicola%coreGivesNoEmail%1,                    Lorini%Luca%coreGivesNoEmail%1,                    Merler%Stefano%coreGivesNoEmail%1,                    Natalini%Giuseppe%coreGivesNoEmail%1,                    Pesenti%Antonio%coreGivesNoEmail%1,                    Piatti%Alessandra%coreGivesNoEmail%1,                    Ranieri%Marco Vito%coreGivesNoEmail%1,                    Scandroglio%Anna Mara%coreGivesNoEmail%1,                    Storti%Enrico%coreGivesNoEmail%1,                    Zanella%Alberto%coreGivesNoEmail%1,                    Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                     Yeming%Wang%NULL%0,                     Xingwang%Li%NULL%0,                     Lili%Ren%NULL%0,                     Jianping%Zhao%NULL%0,                     Yi%Hu%NULL%0,                     Li%Zhang%NULL%0,                     Guohui%Fan%NULL%0,                     Jiuyang%Xu%NULL%0,                     Xiaoying%Gu%NULL%0,                     Zhenshun%Cheng%NULL%0,                     Ting%Yu%NULL%0,                     Jiaan%Xia%NULL%0,                     Yuan%Wei%NULL%0,                     Wenjuan%Wu%NULL%0,                     Xuelei%Xie%NULL%0,                     Wen%Yin%NULL%0,                     Hui%Li%NULL%0,                     Min%Liu%NULL%0,                     Yan%Xiao%NULL%0,                     Hong%Gao%NULL%0,                     Li%Guo%NULL%0,                     Jungang%Xie%NULL%0,                     Guangfa%Wang%NULL%0,                     Rongmeng%Jiang%NULL%0,                     Zhancheng%Gao%NULL%0,                     Qi%Jin%NULL%0,                     Jianwei%Wang%wangjw28@163.com%0,                     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                     Yi%Xiang%NULL%0,                     Wei%Fang%NULL%0,                     Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                     Boqun%Li%279685211@qq.com%0,                     Boqun%Li%279685211@qq.com%0,                     Yanjun%Hu%huyanjun@163.com%0,                     Chunhui%Lang%NULL%0,                     Daoqiu%Huang%NULL%0,                     Qiuyan%Sun%NULL%0,                     Yan%Xiong%NULL%0,                     Xia%Huang%NULL%0,                     Jinglong%Lv%NULL%0,                     Yaling%Luo%NULL%0,                     Li%Shen%NULL%0,                     Haoran%Yang%NULL%0,                     Gu%Huang%NULL%0,                     Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,             Eric%Yim%xref no email%0,             Lindy%Klaff%xref no email%0,             Sharukh%Lokhandwala%xref no email%0,             Francis X.%Riedo%xref no email%0,             Maria%Chong%xref no email%0,             Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                     Mark%Caridi-Scheible%NULL%3,                     James M.%Blum%NULL%2,                     Chad%Robichaux%NULL%2,                     Colleen%Kraft%NULL%2,                     Jesse T.%Jacob%NULL%2,                     Craig S.%Jabaley%NULL%2,                     David%Carpenter%NULL%2,                     Roberta%Kaplow%NULL%2,                     Alfonso C.%Hernandez-Romieu%NULL%2,                     Max W.%Adelman%NULL%2,                     Greg S.%Martin%NULL%2,                     Craig M.%Coopersmith%NULL%2,                     David J.%Murphy%NULL%2,                     NULL%NULL%NULL%0,                      S.%Auld%null%1,                      M.% Caridi-Scheible%null%1,                      J. M.% Blum%null%1,                      C. J.% Robichaux%null%1,                      C. S.% Kraft%null%1,                      J. T.% Jacob%null%1,                      C. S.% Jabaley%null%1,                      D.% Carpenter%null%1,                      R.% Kaplow%null%1,                      A. C.% Hernandez%null%1,                      M. W.% Adelman%null%1,                      G. S.% Martin%null%1,                      C. M.% Coopersmith%null%1,                      D. J.% Murphy%null%1,                        % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,                    S.%Auld%null%1,                    M.% Caridi-Scheible%null%1,                    J. M.% Blum%null%1,                    C. J.% Robichaux%null%1,                    C. S.% Kraft%null%1,                    J. T.% Jacob%null%1,                    C. S.% Jabaley%null%1,                    D.% Carpenter%null%1,                    R.% Kaplow%null%1,                    A. C.% Hernandez%null%1,                    M. W.% Adelman%null%1,                    G. S.% Martin%null%1,                    C. M.% Coopersmith%null%1,                    D. J.% Murphy%null%1,                      % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,  S.%Auld%null%1,  M.% Caridi-Scheible%null%1,  J. M.% Blum%null%1,  C. J.% Robichaux%null%1,  C. S.% Kraft%null%1,  J. T.% Jacob%null%1,  C. S.% Jabaley%null%1,  D.% Carpenter%null%1,  R.% Kaplow%null%1,  A. C.% Hernandez%null%1,  M. W.% Adelman%null%1,  G. S.% Martin%null%1,  C. M.% Coopersmith%null%1,  D. J.% Murphy%null%1,    % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                     Bijan J.%Ghassemieh%NULL%2,                     Michelle%Nichols%NULL%2,                     Richard%Kim%NULL%2,                     Keith R.%Jerome%NULL%2,                     Arun K.%Nalla%NULL%2,                     Alexander L.%Greninger%NULL%2,                     Sudhakar%Pipavath%NULL%2,                     Mark M.%Wurfel%NULL%2,                     Laura%Evans%NULL%2,                     Patricia A.%Kritek%NULL%2,                     T. Eoin%West%NULL%2,                     Andrew%Luks%NULL%2,                     Anthony%Gerbino%NULL%2,                     Chris R.%Dale%NULL%2,                     Jason D.%Goldman%NULL%2,                     Shane%O’Mahony%NULL%2,                     Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                     Tangkai%Qi%NULL%1,                     Li%Liu%NULL%1,                     Yun%Ling%NULL%0,                     Zhiping%Qian%NULL%1,                     Tao%Li%NULL%0,                     Feng%Li%NULL%1,                     Qingnian%Xu%NULL%1,                     Yuyi%Zhang%NULL%1,                     Shuibao%Xu%NULL%1,                     Zhigang%Song%NULL%1,                     Yigang%Zeng%NULL%1,                     Yinzhong%Shen%NULL%1,                     Yuxin%Shi%NULL%2,                     Tongyu%Zhu%NULL%2,                     Hongzhou%Lu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                     Min%Zhou%NULL%0,                     Xuan%Dong%NULL%0,                     Jieming%Qu%NULL%0,                     Fengyun%Gong%NULL%0,                     Yang%Han%NULL%0,                     Yang%Qiu%NULL%0,                     Jingli%Wang%NULL%0,                     Ying%Liu%NULL%0,                     Yuan%Wei%NULL%0,                     Jia'an%Xia%NULL%0,                     Ting%Yu%NULL%0,                     Xinxin%Zhang%NULL%0,                     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                     Zheng-yi%Ni%NULL%0,                     Zheng-yi%Ni%NULL%0,                     Yu%Hu%NULL%0,                     Wen-hua%Liang%NULL%0,                     Chun-quan%Ou%NULL%0,                     Jian-xing%He%NULL%0,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chun-liang%Lei%NULL%0,                     David S.C.%Hui%NULL%0,                     Bin%Du%NULL%0,                     Lan-juan%Li%NULL%0,                     Guang%Zeng%NULL%0,                     Kwok-Yung%Yuen%NULL%0,                     Ru-chong%Chen%NULL%0,                     Chun-li%Tang%NULL%0,                     Tao%Wang%NULL%0,                     Ping-yan%Chen%NULL%0,                     Jie%Xiang%NULL%0,                     Shi-yue%Li%NULL%0,                     Jin-lin%Wang%NULL%0,                     Zi-jing%Liang%NULL%0,                     Yi-xiang%Peng%NULL%0,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Ya-hua%Hu%NULL%0,                     Peng%Peng%NULL%0,                     Jian-ming%Wang%NULL%0,                     Ji-yang%Liu%NULL%0,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhi-jian%Zheng%NULL%0,                     Shao-qin%Qiu%NULL%0,                     Jie%Luo%NULL%0,                     Chang-jiang%Ye%NULL%0,                     Shao-yong%Zhu%NULL%0,                     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                     Yuanyuan%Xing%NULL%2,                     Yu%Xiao%NULL%2,                     Liping%Deng%NULL%3,                     Qiu%Zhao%NULL%2,                     Hongling%Wang%NULL%2,                     Yong%Xiong%NULL%4,                     Zhenshun%Cheng%NULL%0,                     Shicheng%Gao%NULL%3,                     Ke%Liang%NULL%3,                     Mingqi%Luo%NULL%3,                     Tielong%Chen%NULL%2,                     Shihui%Song%NULL%3,                     Zhiyong%Ma%NULL%3,                     Xiaoping%Chen%NULL%3,                     Ruiying%Zheng%NULL%2,                     Qian%Cao%NULL%2,                     Fan%Wang%fanndywang@foxmail.com%2,                     Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,                     N -B%Yang%NULL%1,                     F%Ding%NULL%1,                     A H Y%Ma%NULL%1,                     Z -Y%Wang%NULL%2,                     Y -F%Shen%NULL%1,                     C -W%Shi%NULL%1,                     X%Lian%NULL%1,                     J -G%Chu%NULL%1,                     L%Chen%chxmin@hotmail.com%1,                     Z -Y%Wang%NULL%0,                     D -W%Ren%NULL%1,                     G -X%Li%NULL%1,                     X -Q%Chen%chxmin@hotmail.com%1,                     H -J%Shen%NULL%1,                     X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,                     Hugues%Spillemaeker%NULL%1,                     Maéva%Kyheng%NULL%1,                     Cassandre%Belin‐Vincent%NULL%1,                     Cédric%Delhaye%NULL%1,                     Adeline%Piérache%NULL%1,                     Tom%Denimal%NULL%1,                     Basile%Verdier%NULL%1,                     Nicolas%Debry%NULL%1,                     Mouhamed%Moussa%NULL%1,                     Guillaume%Schurtz%NULL%1,                     Sina%Porouchani%NULL%1,                     Alessandro%Cosenza%NULL%1,                     Francis%Juthier%NULL%1,                     Thibault%Pamart%NULL%1,                     Marjorie%Richardson%NULL%1,                     Augustin%Coisne%NULL%1,                     Adrien%Hertault%NULL%1,                     Jonathan%Sobocinski%NULL%1,                     Thomas%Modine%NULL%1,                     François%Pontana%NULL%1,                     Alain%Duhamel%NULL%2,                     Julien%Labreuche%NULL%2,                     Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                    Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,                     Yimei%Yin%18256985@qq.com%1,                     Chang%Hu%1391369733@qq.com%3,                     Xing%Liu%375117565@qq.com%1,                     Xingguo%Zhang%zhangxinguo7909@163.com%1,                     Shuliang%Zhou%350925556@qq.com%1,                     Mingzhi%Jian%Jmzhak@aliyun.com%1,                     Haibo%Xu%xuhaibo1120@hotmail.com%0,                     John%Prowle%j.prowle@qmul.ac.uk%1,                     Bo%Hu%hobbier1979@163.com%0,                     Yirong%Li%liyirong838@163.com%1,                     Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wentao%Xu%xref no email%1,             Shuang%Qu%xref no email%1,             Mengying%Xing%xref no email%1,             Ming%Zhang%xref no email%1,             Geng%Lu%xref no email%1,             Zhicong%Liao%xref no email%1,             Kimberly%Griffin%xref no email%1,             Jun%Wang%xref no email%1,             Ke%Zen%xref no email%1,             Bing%Yao%xref no email%1,             Hongwei%Liang%xref no email%1,             Jianping%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                     Xiao-Xin%Wu%NULL%2,                     Xian-Gao%Jiang%NULL%2,                     Kai-Jin%Xu%NULL%2,                     Ling-Jun%Ying%NULL%2,                     Chun-Lian%Ma%NULL%2,                     Shi-Bo%Li%NULL%2,                     Hua-Ying%Wang%NULL%2,                     Sheng%Zhang%NULL%2,                     Hai-Nv%Gao%NULL%2,                     Ji-Fang%Sheng%NULL%2,                     Hong-Liu%Cai%NULL%2,                     Yun-Qing%Qiu%NULL%2,                     Lan-Juan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                     Chang%Hu%NULL%0,                     Linjie%Luo%NULL%2,                     Fang%Fang%NULL%0,                     Yongfeng%Chen%NULL%2,                     Jianguo%Li%NULL%2,                     Zhiyong%Peng%NULL%0,                     Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,                     Chun%Liao%lc7spring@163.com%1,                     Qi-hong%Fan%1187286305@qq.com%1,                     Hong-bo%Chen%hbchen@hust.edu.cn%1,                     Xue-gong%Zhao%NULL%1,                     Zhong-guo%Xie%NULL%1,                     Xi-lin%Li%NULL%1,                     Chun-xi%Chen%NULL%1,                     Xiao-xia%Lu%NULL%1,                     Zhi-sheng%Liu%NULL%1,                     Wei%Lu%NULL%1,                     Chun-bao%Chen%NULL%1,                     Rong%Jiao%NULL%1,                     Ai-ming%Zhang%NULL%1,                     Jin-tang%Wang%NULL%1,                     Xi-wei%Ding%NULL%1,                     Yao-guang%Zeng%NULL%1,                     Li-ping%Cheng%NULL%1,                     Qing-feng%Huang%NULL%1,                     Jiang%Wu%NULL%0,                     Xi-chang%Luo%NULL%1,                     Zhu-jun%Wang%NULL%1,                     Yan-yan%Zhong%NULL%1,                     Yan%Bai%yanbaixh@hust.edu.cn%1,                     Xiao-yan%Wu%xwu@hust.edu.cn%1,                     Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                     Ting%Yu%NULL%0,                     Ronghui%Du%NULL%0,                     Guohui%Fan%NULL%0,                     Ying%Liu%NULL%0,                     Zhibo%Liu%NULL%0,                     Jie%Xiang%NULL%0,                     Yeming%Wang%NULL%0,                     Bin%Song%NULL%0,                     Xiaoying%Gu%NULL%0,                     Lulu%Guan%NULL%0,                     Yuan%Wei%NULL%0,                     Hui%Li%NULL%0,                     Xudong%Wu%NULL%0,                     Jiuyang%Xu%NULL%0,                     Shengjin%Tu%NULL%0,                     Yi%Zhang%NULL%0,                     Hua%Chen%NULL%0,                     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                     Mengqi%Tu%NULL%2,                     Shipei%Wang%NULL%2,                     Sichao%Chen%NULL%2,                     Wei%Zhou%NULL%0,                     Danyang%Chen%NULL%2,                     Lin%Zhou%NULL%2,                     Min%Wang%NULL%2,                     Yan%Zhao%NULL%4,                     Wen%Zeng%NULL%2,                     Qi%Huang%NULL%2,                     Hai'bo%Xu%NULL%2,                     Zeming%Liu%NULL%2,                     Liang%Guo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                     Yuan%Yu%NULL%0,                     Jiqian%Xu%NULL%0,                     Huaqing%Shu%NULL%0,                     Jia'an%Xia%NULL%0,                     Hong%Liu%NULL%0,                     Yongran%Wu%NULL%0,                     Lu%Zhang%NULL%0,                     Zhui%Yu%NULL%0,                     Minghao%Fang%NULL%0,                     Ting%Yu%NULL%0,                     Yaxin%Wang%NULL%0,                     Shangwen%Pan%NULL%0,                     Xiaojing%Zou%NULL%0,                     Shiying%Yuan%NULL%0,                     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,                     Wei-jie%Guan%NULL%2,                     Cai-chen%Li%NULL%3,                     Yi-min%Li%NULL%3,                     Heng-rui%Liang%NULL%3,                     Yi%Zhao%NULL%3,                     Xiao-qing%Liu%NULL%3,                     Ling%Sang%NULL%0,                     Ru-chong%Chen%NULL%0,                     Chun-li%Tang%NULL%0,                     Tao%Wang%NULL%0,                     Wei%Wang%NULL%0,                     Qi-hua%He%NULL%2,                     Zi-sheng%Chen%NULL%3,                     Sook-San%Wong%NULL%2,                     Mark%Zanin%NULL%2,                     Jun%Liu%NULL%2,                     Xin%Xu%NULL%3,                     Jun%Huang%NULL%2,                     Jian-fu%Li%NULL%3,                     Li-min%Ou%NULL%3,                     Bo%Cheng%NULL%3,                     Shan%Xiong%NULL%3,                     Zhan-hong%Xie%NULL%2,                     Zheng-yi%Ni%NULL%0,                     Yu%Hu%NULL%0,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chun-liang%Lei%NULL%0,                     Yi-xiang%Peng%NULL%0,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Ya-hua%Hu%NULL%0,                     Peng%Peng%NULL%0,                     Jian-ming%Wang%NULL%0,                     Ji-yang%Liu%NULL%0,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhi-jian%Zheng%NULL%0,                     Shao-qin%Qiu%NULL%0,                     Jie%Luo%NULL%0,                     Chang-jiang%Ye%NULL%0,                     Shao-yong%Zhu%NULL%0,                     Lin-ling%Cheng%NULL%3,                     Feng%Ye%NULL%5,                     Shi-yue%Li%NULL%0,                     Jin-ping%Zheng%NULL%3,                     Nuo-fu%Zhang%NULL%3,                     Nan-shan%Zhong%NULL%0,                     Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                     Simon A%Jones%NULL%1,                     Jie%Yang%NULL%0,                     Harish%Rajagopalan%NULL%1,                     Luke%O’Donnell%NULL%1,                     Yelena%Chernyak%NULL%1,                     Katie A%Tobin%NULL%1,                     Robert J%Cerfolio%NULL%1,                     Fritz%Francois%NULL%1,                     Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0,                     Stephanie%Bialek%NULL%1,                     Ellen%Boundy%NULL%1,                     Virginia%Bowen%NULL%1,                     Nancy%Chow%NULL%2,                     Amanda%Cohn%NULL%1,                     Nicole%Dowling%NULL%1,                     Sascha%Ellington%NULL%1,                     Ryan%Gierke%NULL%2,                     Aron%Hall%NULL%2,                     Jessica%MacNeil%NULL%1,                     Priti%Patel%NULL%1,                     Georgina%Peacock%NULL%1,                     Tamara%Pilishvili%NULL%2,                     Hilda%Razzaghi%NULL%1,                     Nia%Reed%NULL%1,                     Matthew%Ritchey%NULL%2,                     Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,                     Pedro%Póvoa%NULL%1,                     Vicente%Souza-Dantas%NULL%1,                     André C.%Kalil%NULL%1,                     Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,                     Graeme%MacLaren%NULL%1,                     Philip S%Boonstra%NULL%1,                     Theodore J%Iwashyna%NULL%1,                     Arthur S%Slutsky%NULL%1,                     Eddy%Fan%NULL%1,                     Robert H%Bartlett%NULL%1,                     Joseph E%Tonna%NULL%1,                     Robert%Hyslop%NULL%1,                     Jeffrey J%Fanning%NULL%1,                     Peter T%Rycus%NULL%1,                     Steve J%Hyer%NULL%1,                     Marc M%Anders%NULL%1,                     Cara L%Agerstrand%NULL%1,                     Katarzyna%Hryniewicz%NULL%1,                     Rodrigo%Diaz%NULL%1,                     Roberto%Lorusso%NULL%1,                     Alain%Combes%NULL%1,                     Daniel%Brodie%NULL%4,                     Peta%Alexander%NULL%1,                     Nicholas%Barrett%NULL%1,                     Jan%Bělohlávek%NULL%1,                     Dale%Fisher%NULL%1,                     John%Fraser%NULL%1,                     Ali Ait%Hssain%NULL%1,                     Jae Sung%Jung%NULL%1,                     Michael%McMullan%NULL%1,                     Yatin%Mehta%NULL%1,                     Mark T.%Ogino%NULL%1,                     Matthew L.%Paden%NULL%1,                     Kiran%Shekar%NULL%1,                     Christine%Stead%NULL%1,                     Yasir%Abu-Omar%NULL%1,                     Vanni%Agnoletti%NULL%1,                     Anzila%Akbar%NULL%1,                     Huda%Alfoudri%NULL%1,                     Carlos%Alviar%NULL%1,                     Vladimir%Aronsky%NULL%1,                     Erin%August%NULL%1,                     Georg%Auzinger%NULL%1,                     Hilda%Aveja%NULL%1,                     Rhonda%Bakken%NULL%1,                     Joan%Balcells%NULL%1,                     Sripal%Bangalore%NULL%1,                     Bernard W.%Barnes%NULL%1,                     Alaiza%Bautista%NULL%1,                     Lorraine L.%Bellows%NULL%1,                     Felipe%Beltran%NULL%1,                     Peyman%Benharash%NULL%1,                     Marco%Benni%NULL%1,                     Jennifer%Berg%NULL%1,                     Pietro%Bertini%NULL%1,                     Pablo%Blanco-Schweizer%NULL%1,                     Melissa%Brunsvold%NULL%1,                     Jenny%Budd%NULL%1,                     Debra%Camp%NULL%1,                     Mark%Caridi-Scheible%NULL%0,                     Edmund%Carton%NULL%1,                     Elena%Casanova-Ghosh%NULL%1,                     Anthony%Castleberry%NULL%1,                     Christopher T.%Chipongian%NULL%1,                     Chang Woo%Choi%NULL%1,                     Alessandro%Circelli%NULL%1,                     Elliott%Cohen%NULL%1,                     Michael%Collins%NULL%1,                     Scott%Copus%NULL%1,                     Jill%Coy%NULL%1,                     Brandon%Crist%NULL%1,                     Leonora%Cruz%NULL%1,                     Mirosław%Czuczwar%NULL%1,                     Mani%Daneshmand%NULL%1,                     Daniel%Davis II%NULL%1,                     Kim%De la Cruz%NULL%1,                     Cyndie%Devers%NULL%1,                     Toni%Duculan%NULL%1,                     Lucian%Durham%NULL%1,                     Subbarao%Elapavaluru%NULL%1,                     Carlos V.%Elzo Kraemer%NULL%1,                     EDMÍLSON CARDOSO%Filho%NULL%1,                     Jillian%Fitzgerald%NULL%1,                     Giuseppe%Foti%NULL%1,                     Matthew%Fox%NULL%1,                     David%Fritschen%NULL%1,                     David%Fullerton%NULL%1,                     Elton%Gelandt%NULL%1,                     Stacy%Gerle%NULL%1,                     Marco%Giani%NULL%1,                     Si Guim%Goh%NULL%1,                     Sara%Govener%NULL%1,                     Julie%Grone%NULL%1,                     Miles%Guber%NULL%1,                     Vadim%Gudzenko%NULL%1,                     Daniel%Gutteridge%NULL%1,                     Jennifer%Guy%NULL%1,                     Jonathan%Haft%NULL%1,                     Cameron%Hall%NULL%1,                     Ibrahim Fawzy%Hassan%NULL%1,                     Rubén%Herrán%NULL%1,                     Hitoshi%Hirose%NULL%1,                     Abdulsalam Saif%Ibrahim%NULL%1,                     Don%Igielski%NULL%1,                     Felicia A.%Ivascu%NULL%1,                     Jaume%Izquierdo Blasco%NULL%1,                     Julie%Jackson%NULL%1,                     Harsh%Jain%NULL%1,                     Bhavini%Jaiswal%NULL%1,                     Andrea C.%Johnson%NULL%1,                     Jenniver A.%Jurynec%NULL%1,                     Norma M%Kellter%NULL%1,                     Adam%Kohl%NULL%1,                     Zachary%Kon%NULL%1,                     Markus%Kredel%NULL%1,                     Karen%Kriska%NULL%1,                     Chandra%Kunavarapu%NULL%1,                     Oude%Lansink-Hartgring%NULL%1,                     Jeliene%LaRocque%NULL%1,                     Sharon Beth%Larson%NULL%1,                     Tracie%Layne%NULL%1,                     Stephane%Ledot%NULL%1,                     Napolitan%Lena%NULL%1,                     Jonathan%Lillie%NULL%1,                     Gösta%Lotz%NULL%1,                     Mark%Lucas%NULL%1,                     Lee%Ludwigson%NULL%1,                     Jacinta J.%Maas%NULL%1,                     Joanna%Maertens%NULL%1,                     David%Mast%NULL%1,                     Scott%McCardle%NULL%1,                     Bernard%McDonald%NULL%1,                     Allison%McLarty%NULL%1,                     Chelsea%McMahon%NULL%1,                     Patrick%Meybohm%NULL%1,                     Bart%Meyns%NULL%1,                     Casey%Miller%NULL%1,                     Fernando%Moraes Neto%NULL%1,                     Kelly%Morris%NULL%1,                     Ralf%Muellenbach%NULL%1,                     Meghan%Nicholson%NULL%1,                     Serena%O'Brien%NULL%1,                     Kathryn%O'Keefe%NULL%1,                     Tawnya%Ogston%NULL%1,                     Gary%Oldenburg%NULL%1,                     Fabiana M.%Oliveira%NULL%1,                     Emily%Oppel%NULL%1,                     Diego%Pardo%NULL%2,                     Diego%Pardo%NULL%0,                     Sara J.%Parker%NULL%1,                     Finn M.%Pedersen%NULL%1,                     Crescens%Pellecchia%NULL%1,                     Jose A.S.%Pelligrini%NULL%1,                     Thao T.N.%Pham%NULL%1,                     Ann R.%Phillips%NULL%1,                     Tasneem%Pirani%NULL%1,                     Paweł%Piwowarczyk%NULL%1,                     Robert%Plambeck%NULL%1,                     William%Pruett%NULL%1,                     Brittany%Quandt%NULL%1,                     Kollengode%Ramanathan%NULL%1,                     Alejandro%Rey%NULL%1,                     Christian%Reyher%NULL%1,                     Jordi%Riera del Brio%NULL%1,                     Rachel%Roberts%NULL%1,                     David%Roe%NULL%1,                     Peter P.%Roeleveld%NULL%1,                     Janet%Rudy%NULL%1,                     Luis F.%Rueda%NULL%1,                     Emanuele%Russo%NULL%1,                     Jesús%Sánchez Ballesteros%NULL%1,                     Nancy%Satou%NULL%1,                     Mauricio Guidi%Saueressig%NULL%1,                     Paul C.%Saunders%NULL%1,                     Margaret%Schlotterbeck%NULL%1,                     Patricia%Schwarz%NULL%1,                     Nicole%Scriven%NULL%1,                     Alexis%Serra%NULL%1,                     Mohammad%Shamsah%NULL%1,                     Lucy%Sim%NULL%1,                     Alexandra%Smart%NULL%1,                     Adam%Smith%NULL%1,                     Deane%Smith%NULL%1,                     Maggie%Smith%NULL%1,                     Neel%Sodha%NULL%1,                     Michael%Sonntagbauer%NULL%1,                     Marc%Sorenson%NULL%1,                     Eric B%Stallkamp%NULL%1,                     Allison%Stewart%NULL%1,                     Kathy%Swartz%NULL%1,                     Koji%Takeda%NULL%1,                     Shaun%Thompson%NULL%1,                     Bridget%Toy%NULL%1,                     Divina%Tuazon%NULL%1,                     Makoto%Uchiyama%NULL%1,                     Obiora I.%Udeozo%NULL%1,                     Scott%van Poppel%NULL%1,                     Corey%Ventetuolo%NULL%1,                     Leen%Vercaemst%NULL%1,                     Nguyen V.%Vinh Chau%NULL%1,                     I-Wen%Wang%NULL%1,                     Carrie%Williamson%NULL%1,                     Brock%Wilson%NULL%1,                     Helen%Winkels%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2616,7 +2700,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2645,7 +2729,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>579</v>
+        <v>610</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -2674,7 +2758,7 @@
         <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>581</v>
+        <v>611</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2703,7 +2787,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2732,7 +2816,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -2761,7 +2845,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>585</v>
+        <v>614</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2790,7 +2874,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>586</v>
+        <v>615</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2819,7 +2903,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2848,7 +2932,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -2877,7 +2961,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -2906,7 +2990,7 @@
         <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>590</v>
+        <v>619</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2935,7 +3019,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>591</v>
+        <v>620</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -2964,7 +3048,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -2993,7 +3077,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -3022,7 +3106,7 @@
         <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>594</v>
+        <v>623</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -3051,7 +3135,7 @@
         <v>395</v>
       </c>
       <c r="E17" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
       <c r="F17" t="s">
         <v>86</v>
@@ -3080,7 +3164,7 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -3109,7 +3193,7 @@
         <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
@@ -3138,7 +3222,7 @@
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>599</v>
+        <v>627</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -3167,7 +3251,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>600</v>
+        <v>628</v>
       </c>
       <c r="F21" t="s">
         <v>98</v>
@@ -3196,7 +3280,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>601</v>
+        <v>629</v>
       </c>
       <c r="F22" t="s">
         <v>101</v>
@@ -3225,7 +3309,7 @@
         <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>602</v>
+        <v>630</v>
       </c>
       <c r="F23" t="s">
         <v>104</v>
@@ -3254,7 +3338,7 @@
         <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
       <c r="F24" t="s">
         <v>108</v>
@@ -3283,7 +3367,7 @@
         <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="F25" t="s">
         <v>111</v>
@@ -3312,7 +3396,7 @@
         <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -3341,7 +3425,7 @@
         <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -3370,7 +3454,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
@@ -3399,7 +3483,7 @@
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
       <c r="F29" t="s">
         <v>125</v>

--- a/Covid_19_Dataset_and_References/References/48.xlsx
+++ b/Covid_19_Dataset_and_References/References/48.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3689" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="767">
   <si>
     <t>Doi</t>
   </si>
@@ -2348,6 +2348,396 @@
   </si>
   <si>
     <t>[Ryan P%Barbaro%NULL%2,                     Graeme%MacLaren%NULL%1,                     Philip S%Boonstra%NULL%1,                     Theodore J%Iwashyna%NULL%1,                     Arthur S%Slutsky%NULL%1,                     Eddy%Fan%NULL%1,                     Robert H%Bartlett%NULL%1,                     Joseph E%Tonna%NULL%1,                     Robert%Hyslop%NULL%1,                     Jeffrey J%Fanning%NULL%1,                     Peter T%Rycus%NULL%1,                     Steve J%Hyer%NULL%1,                     Marc M%Anders%NULL%1,                     Cara L%Agerstrand%NULL%1,                     Katarzyna%Hryniewicz%NULL%1,                     Rodrigo%Diaz%NULL%1,                     Roberto%Lorusso%NULL%1,                     Alain%Combes%NULL%1,                     Daniel%Brodie%NULL%4,                     Peta%Alexander%NULL%1,                     Nicholas%Barrett%NULL%1,                     Jan%Bělohlávek%NULL%1,                     Dale%Fisher%NULL%1,                     John%Fraser%NULL%1,                     Ali Ait%Hssain%NULL%1,                     Jae Sung%Jung%NULL%1,                     Michael%McMullan%NULL%1,                     Yatin%Mehta%NULL%1,                     Mark T.%Ogino%NULL%1,                     Matthew L.%Paden%NULL%1,                     Kiran%Shekar%NULL%1,                     Christine%Stead%NULL%1,                     Yasir%Abu-Omar%NULL%1,                     Vanni%Agnoletti%NULL%1,                     Anzila%Akbar%NULL%1,                     Huda%Alfoudri%NULL%1,                     Carlos%Alviar%NULL%1,                     Vladimir%Aronsky%NULL%1,                     Erin%August%NULL%1,                     Georg%Auzinger%NULL%1,                     Hilda%Aveja%NULL%1,                     Rhonda%Bakken%NULL%1,                     Joan%Balcells%NULL%1,                     Sripal%Bangalore%NULL%1,                     Bernard W.%Barnes%NULL%1,                     Alaiza%Bautista%NULL%1,                     Lorraine L.%Bellows%NULL%1,                     Felipe%Beltran%NULL%1,                     Peyman%Benharash%NULL%1,                     Marco%Benni%NULL%1,                     Jennifer%Berg%NULL%1,                     Pietro%Bertini%NULL%1,                     Pablo%Blanco-Schweizer%NULL%1,                     Melissa%Brunsvold%NULL%1,                     Jenny%Budd%NULL%1,                     Debra%Camp%NULL%1,                     Mark%Caridi-Scheible%NULL%0,                     Edmund%Carton%NULL%1,                     Elena%Casanova-Ghosh%NULL%1,                     Anthony%Castleberry%NULL%1,                     Christopher T.%Chipongian%NULL%1,                     Chang Woo%Choi%NULL%1,                     Alessandro%Circelli%NULL%1,                     Elliott%Cohen%NULL%1,                     Michael%Collins%NULL%1,                     Scott%Copus%NULL%1,                     Jill%Coy%NULL%1,                     Brandon%Crist%NULL%1,                     Leonora%Cruz%NULL%1,                     Mirosław%Czuczwar%NULL%1,                     Mani%Daneshmand%NULL%1,                     Daniel%Davis II%NULL%1,                     Kim%De la Cruz%NULL%1,                     Cyndie%Devers%NULL%1,                     Toni%Duculan%NULL%1,                     Lucian%Durham%NULL%1,                     Subbarao%Elapavaluru%NULL%1,                     Carlos V.%Elzo Kraemer%NULL%1,                     EDMÍLSON CARDOSO%Filho%NULL%1,                     Jillian%Fitzgerald%NULL%1,                     Giuseppe%Foti%NULL%1,                     Matthew%Fox%NULL%1,                     David%Fritschen%NULL%1,                     David%Fullerton%NULL%1,                     Elton%Gelandt%NULL%1,                     Stacy%Gerle%NULL%1,                     Marco%Giani%NULL%1,                     Si Guim%Goh%NULL%1,                     Sara%Govener%NULL%1,                     Julie%Grone%NULL%1,                     Miles%Guber%NULL%1,                     Vadim%Gudzenko%NULL%1,                     Daniel%Gutteridge%NULL%1,                     Jennifer%Guy%NULL%1,                     Jonathan%Haft%NULL%1,                     Cameron%Hall%NULL%1,                     Ibrahim Fawzy%Hassan%NULL%1,                     Rubén%Herrán%NULL%1,                     Hitoshi%Hirose%NULL%1,                     Abdulsalam Saif%Ibrahim%NULL%1,                     Don%Igielski%NULL%1,                     Felicia A.%Ivascu%NULL%1,                     Jaume%Izquierdo Blasco%NULL%1,                     Julie%Jackson%NULL%1,                     Harsh%Jain%NULL%1,                     Bhavini%Jaiswal%NULL%1,                     Andrea C.%Johnson%NULL%1,                     Jenniver A.%Jurynec%NULL%1,                     Norma M%Kellter%NULL%1,                     Adam%Kohl%NULL%1,                     Zachary%Kon%NULL%1,                     Markus%Kredel%NULL%1,                     Karen%Kriska%NULL%1,                     Chandra%Kunavarapu%NULL%1,                     Oude%Lansink-Hartgring%NULL%1,                     Jeliene%LaRocque%NULL%1,                     Sharon Beth%Larson%NULL%1,                     Tracie%Layne%NULL%1,                     Stephane%Ledot%NULL%1,                     Napolitan%Lena%NULL%1,                     Jonathan%Lillie%NULL%1,                     Gösta%Lotz%NULL%1,                     Mark%Lucas%NULL%1,                     Lee%Ludwigson%NULL%1,                     Jacinta J.%Maas%NULL%1,                     Joanna%Maertens%NULL%1,                     David%Mast%NULL%1,                     Scott%McCardle%NULL%1,                     Bernard%McDonald%NULL%1,                     Allison%McLarty%NULL%1,                     Chelsea%McMahon%NULL%1,                     Patrick%Meybohm%NULL%1,                     Bart%Meyns%NULL%1,                     Casey%Miller%NULL%1,                     Fernando%Moraes Neto%NULL%1,                     Kelly%Morris%NULL%1,                     Ralf%Muellenbach%NULL%1,                     Meghan%Nicholson%NULL%1,                     Serena%O'Brien%NULL%1,                     Kathryn%O'Keefe%NULL%1,                     Tawnya%Ogston%NULL%1,                     Gary%Oldenburg%NULL%1,                     Fabiana M.%Oliveira%NULL%1,                     Emily%Oppel%NULL%1,                     Diego%Pardo%NULL%2,                     Diego%Pardo%NULL%0,                     Sara J.%Parker%NULL%1,                     Finn M.%Pedersen%NULL%1,                     Crescens%Pellecchia%NULL%1,                     Jose A.S.%Pelligrini%NULL%1,                     Thao T.N.%Pham%NULL%1,                     Ann R.%Phillips%NULL%1,                     Tasneem%Pirani%NULL%1,                     Paweł%Piwowarczyk%NULL%1,                     Robert%Plambeck%NULL%1,                     William%Pruett%NULL%1,                     Brittany%Quandt%NULL%1,                     Kollengode%Ramanathan%NULL%1,                     Alejandro%Rey%NULL%1,                     Christian%Reyher%NULL%1,                     Jordi%Riera del Brio%NULL%1,                     Rachel%Roberts%NULL%1,                     David%Roe%NULL%1,                     Peter P.%Roeleveld%NULL%1,                     Janet%Rudy%NULL%1,                     Luis F.%Rueda%NULL%1,                     Emanuele%Russo%NULL%1,                     Jesús%Sánchez Ballesteros%NULL%1,                     Nancy%Satou%NULL%1,                     Mauricio Guidi%Saueressig%NULL%1,                     Paul C.%Saunders%NULL%1,                     Margaret%Schlotterbeck%NULL%1,                     Patricia%Schwarz%NULL%1,                     Nicole%Scriven%NULL%1,                     Alexis%Serra%NULL%1,                     Mohammad%Shamsah%NULL%1,                     Lucy%Sim%NULL%1,                     Alexandra%Smart%NULL%1,                     Adam%Smith%NULL%1,                     Deane%Smith%NULL%1,                     Maggie%Smith%NULL%1,                     Neel%Sodha%NULL%1,                     Michael%Sonntagbauer%NULL%1,                     Marc%Sorenson%NULL%1,                     Eric B%Stallkamp%NULL%1,                     Allison%Stewart%NULL%1,                     Kathy%Swartz%NULL%1,                     Koji%Takeda%NULL%1,                     Shaun%Thompson%NULL%1,                     Bridget%Toy%NULL%1,                     Divina%Tuazon%NULL%1,                     Makoto%Uchiyama%NULL%1,                     Obiora I.%Udeozo%NULL%1,                     Scott%van Poppel%NULL%1,                     Corey%Ventetuolo%NULL%1,                     Leen%Vercaemst%NULL%1,                     Nguyen V.%Vinh Chau%NULL%1,                     I-Wen%Wang%NULL%1,                     Carrie%Williamson%NULL%1,                     Brock%Wilson%NULL%1,                     Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,                      Dhaval%Kolte%NULL%1,                      Mary E.%Cadigan%NULL%1,                      Elizabeth%Laikhter%NULL%1,                      Kevin%Sinclair%NULL%1,                      Eugene%Pomerantsev%NULL%1,                      Michael A.%Fifer%NULL%1,                      Thoralf M.%Sundt%NULL%1,                      Robert W.%Yeh%NULL%1,                      Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                     Cabrini%Luca%coreGivesNoEmail%1,                     Castelli%Antonio%coreGivesNoEmail%1,                     Cecconi%Maurizio%coreGivesNoEmail%1,                     Cereda%Danilo%coreGivesNoEmail%1,                     Coluccello%Antonio%coreGivesNoEmail%1,                     Foti%Giuseppe%coreGivesNoEmail%1,                     Fumagalli%Roberto%coreGivesNoEmail%1,                     Grasselli%Giacomo%coreGivesNoEmail%1,                     Iotti%Giorgio%coreGivesNoEmail%1,                     Latronico%Nicola%coreGivesNoEmail%1,                     Lorini%Luca%coreGivesNoEmail%1,                     Merler%Stefano%coreGivesNoEmail%1,                     Natalini%Giuseppe%coreGivesNoEmail%1,                     Pesenti%Antonio%coreGivesNoEmail%1,                     Piatti%Alessandra%coreGivesNoEmail%1,                     Ranieri%Marco Vito%coreGivesNoEmail%1,                     Scandroglio%Anna Mara%coreGivesNoEmail%1,                     Storti%Enrico%coreGivesNoEmail%1,                     Zanella%Alberto%coreGivesNoEmail%1,                     Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                      Yeming%Wang%NULL%0,                      Xingwang%Li%NULL%0,                      Lili%Ren%NULL%0,                      Jianping%Zhao%NULL%0,                      Yi%Hu%NULL%0,                      Li%Zhang%NULL%0,                      Guohui%Fan%NULL%0,                      Jiuyang%Xu%NULL%0,                      Xiaoying%Gu%NULL%0,                      Zhenshun%Cheng%NULL%0,                      Ting%Yu%NULL%0,                      Jiaan%Xia%NULL%0,                      Yuan%Wei%NULL%0,                      Wenjuan%Wu%NULL%0,                      Xuelei%Xie%NULL%0,                      Wen%Yin%NULL%0,                      Hui%Li%NULL%0,                      Min%Liu%NULL%0,                      Yan%Xiao%NULL%0,                      Hong%Gao%NULL%0,                      Li%Guo%NULL%0,                      Jungang%Xie%NULL%0,                      Guangfa%Wang%NULL%0,                      Rongmeng%Jiang%NULL%0,                      Zhancheng%Gao%NULL%0,                      Qi%Jin%NULL%0,                      Jianwei%Wang%wangjw28@163.com%0,                      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                      Yi%Xiang%NULL%0,                      Wei%Fang%NULL%0,                      Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                      Boqun%Li%279685211@qq.com%0,                      Boqun%Li%279685211@qq.com%0,                      Yanjun%Hu%huyanjun@163.com%0,                      Chunhui%Lang%NULL%0,                      Daoqiu%Huang%NULL%0,                      Qiuyan%Sun%NULL%0,                      Yan%Xiong%NULL%0,                      Xia%Huang%NULL%0,                      Jinglong%Lv%NULL%0,                      Yaling%Luo%NULL%0,                      Li%Shen%NULL%0,                      Haoran%Yang%NULL%0,                      Gu%Huang%NULL%0,                      Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                      Mark%Caridi-Scheible%NULL%3,                      James M.%Blum%NULL%2,                      Chad%Robichaux%NULL%2,                      Colleen%Kraft%NULL%2,                      Jesse T.%Jacob%NULL%2,                      Craig S.%Jabaley%NULL%2,                      David%Carpenter%NULL%2,                      Roberta%Kaplow%NULL%2,                      Alfonso C.%Hernandez-Romieu%NULL%2,                      Max W.%Adelman%NULL%2,                      Greg S.%Martin%NULL%2,                      Craig M.%Coopersmith%NULL%2,                      David J.%Murphy%NULL%2,                      NULL%NULL%NULL%0,                       S.%Auld%null%1,                       M.% Caridi-Scheible%null%1,                       J. M.% Blum%null%1,                       C. J.% Robichaux%null%1,                       C. S.% Kraft%null%1,                       J. T.% Jacob%null%1,                       C. S.% Jabaley%null%1,                       D.% Carpenter%null%1,                       R.% Kaplow%null%1,                       A. C.% Hernandez%null%1,                       M. W.% Adelman%null%1,                       G. S.% Martin%null%1,                       C. M.% Coopersmith%null%1,                       D. J.% Murphy%null%1,                         % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,                     S.%Auld%null%1,                     M.% Caridi-Scheible%null%1,                     J. M.% Blum%null%1,                     C. J.% Robichaux%null%1,                     C. S.% Kraft%null%1,                     J. T.% Jacob%null%1,                     C. S.% Jabaley%null%1,                     D.% Carpenter%null%1,                     R.% Kaplow%null%1,                     A. C.% Hernandez%null%1,                     M. W.% Adelman%null%1,                     G. S.% Martin%null%1,                     C. M.% Coopersmith%null%1,                     D. J.% Murphy%null%1,                       % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,   S.%Auld%null%1,   M.% Caridi-Scheible%null%1,   J. M.% Blum%null%1,   C. J.% Robichaux%null%1,   C. S.% Kraft%null%1,   J. T.% Jacob%null%1,   C. S.% Jabaley%null%1,   D.% Carpenter%null%1,   R.% Kaplow%null%1,   A. C.% Hernandez%null%1,   M. W.% Adelman%null%1,   G. S.% Martin%null%1,   C. M.% Coopersmith%null%1,   D. J.% Murphy%null%1,     % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                      Bijan J.%Ghassemieh%NULL%2,                      Michelle%Nichols%NULL%2,                      Richard%Kim%NULL%2,                      Keith R.%Jerome%NULL%2,                      Arun K.%Nalla%NULL%2,                      Alexander L.%Greninger%NULL%2,                      Sudhakar%Pipavath%NULL%2,                      Mark M.%Wurfel%NULL%2,                      Laura%Evans%NULL%2,                      Patricia A.%Kritek%NULL%2,                      T. Eoin%West%NULL%2,                      Andrew%Luks%NULL%2,                      Anthony%Gerbino%NULL%2,                      Chris R.%Dale%NULL%2,                      Jason D.%Goldman%NULL%2,                      Shane%O’Mahony%NULL%2,                      Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                      Tangkai%Qi%NULL%1,                      Li%Liu%NULL%1,                      Yun%Ling%NULL%0,                      Zhiping%Qian%NULL%1,                      Tao%Li%NULL%0,                      Feng%Li%NULL%1,                      Qingnian%Xu%NULL%1,                      Yuyi%Zhang%NULL%1,                      Shuibao%Xu%NULL%1,                      Zhigang%Song%NULL%1,                      Yigang%Zeng%NULL%1,                      Yinzhong%Shen%NULL%1,                      Yuxin%Shi%NULL%2,                      Tongyu%Zhu%NULL%2,                      Hongzhou%Lu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                      Min%Zhou%NULL%0,                      Xuan%Dong%NULL%0,                      Jieming%Qu%NULL%0,                      Fengyun%Gong%NULL%0,                      Yang%Han%NULL%0,                      Yang%Qiu%NULL%0,                      Jingli%Wang%NULL%0,                      Ying%Liu%NULL%0,                      Yuan%Wei%NULL%0,                      Jia'an%Xia%NULL%0,                      Ting%Yu%NULL%0,                      Xinxin%Zhang%NULL%0,                      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                      Zheng-yi%Ni%NULL%0,                      Zheng-yi%Ni%NULL%0,                      Yu%Hu%NULL%0,                      Wen-hua%Liang%NULL%0,                      Chun-quan%Ou%NULL%0,                      Jian-xing%He%NULL%0,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chun-liang%Lei%NULL%0,                      David S.C.%Hui%NULL%0,                      Bin%Du%NULL%0,                      Lan-juan%Li%NULL%0,                      Guang%Zeng%NULL%0,                      Kwok-Yung%Yuen%NULL%0,                      Ru-chong%Chen%NULL%0,                      Chun-li%Tang%NULL%0,                      Tao%Wang%NULL%0,                      Ping-yan%Chen%NULL%0,                      Jie%Xiang%NULL%0,                      Shi-yue%Li%NULL%0,                      Jin-lin%Wang%NULL%0,                      Zi-jing%Liang%NULL%0,                      Yi-xiang%Peng%NULL%0,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Ya-hua%Hu%NULL%0,                      Peng%Peng%NULL%0,                      Jian-ming%Wang%NULL%0,                      Ji-yang%Liu%NULL%0,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhi-jian%Zheng%NULL%0,                      Shao-qin%Qiu%NULL%0,                      Jie%Luo%NULL%0,                      Chang-jiang%Ye%NULL%0,                      Shao-yong%Zhu%NULL%0,                      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                      Yuanyuan%Xing%NULL%2,                      Yu%Xiao%NULL%2,                      Liping%Deng%NULL%3,                      Qiu%Zhao%NULL%2,                      Hongling%Wang%NULL%2,                      Yong%Xiong%NULL%4,                      Zhenshun%Cheng%NULL%0,                      Shicheng%Gao%NULL%3,                      Ke%Liang%NULL%3,                      Mingqi%Luo%NULL%3,                      Tielong%Chen%NULL%2,                      Shihui%Song%NULL%3,                      Zhiyong%Ma%NULL%3,                      Xiaoping%Chen%NULL%3,                      Ruiying%Zheng%NULL%2,                      Qian%Cao%NULL%2,                      Fan%Wang%fanndywang@foxmail.com%2,                      Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,                      N -B%Yang%NULL%1,                      F%Ding%NULL%1,                      A H Y%Ma%NULL%1,                      Z -Y%Wang%NULL%2,                      Y -F%Shen%NULL%1,                      C -W%Shi%NULL%1,                      X%Lian%NULL%1,                      J -G%Chu%NULL%1,                      L%Chen%chxmin@hotmail.com%1,                      Z -Y%Wang%NULL%0,                      D -W%Ren%NULL%1,                      G -X%Li%NULL%1,                      X -Q%Chen%chxmin@hotmail.com%1,                      H -J%Shen%NULL%1,                      X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,                      Hugues%Spillemaeker%NULL%1,                      Maéva%Kyheng%NULL%1,                      Cassandre%Belin‐Vincent%NULL%1,                      Cédric%Delhaye%NULL%1,                      Adeline%Piérache%NULL%1,                      Tom%Denimal%NULL%1,                      Basile%Verdier%NULL%1,                      Nicolas%Debry%NULL%1,                      Mouhamed%Moussa%NULL%1,                      Guillaume%Schurtz%NULL%1,                      Sina%Porouchani%NULL%1,                      Alessandro%Cosenza%NULL%1,                      Francis%Juthier%NULL%1,                      Thibault%Pamart%NULL%1,                      Marjorie%Richardson%NULL%1,                      Augustin%Coisne%NULL%1,                      Adrien%Hertault%NULL%1,                      Jonathan%Sobocinski%NULL%1,                      Thomas%Modine%NULL%1,                      François%Pontana%NULL%1,                      Alain%Duhamel%NULL%2,                      Julien%Labreuche%NULL%2,                      Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                     Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,                      Yimei%Yin%18256985@qq.com%1,                      Chang%Hu%1391369733@qq.com%3,                      Xing%Liu%375117565@qq.com%1,                      Xingguo%Zhang%zhangxinguo7909@163.com%1,                      Shuliang%Zhou%350925556@qq.com%1,                      Mingzhi%Jian%Jmzhak@aliyun.com%1,                      Haibo%Xu%xuhaibo1120@hotmail.com%0,                      John%Prowle%j.prowle@qmul.ac.uk%1,                      Bo%Hu%hobbier1979@163.com%0,                      Yirong%Li%liyirong838@163.com%1,                      Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Wentao%Xu%xref no email%0, Shuang%Qu%xref no email%1, Mengying%Xing%xref no email%1, Ming%Zhang%xref no email%1, Geng%Lu%xref no email%1, Zhicong%Liao%xref no email%1, Kimberly%Griffin%xref no email%1, Jun%Wang%xref no email%1, Ke%Zen%xref no email%1, Bing%Yao%xref no email%1, Hongwei%Liang%xref no email%1, Jianping%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Elsevier BV</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                      Xiao-Xin%Wu%NULL%2,                      Xian-Gao%Jiang%NULL%2,                      Kai-Jin%Xu%NULL%2,                      Ling-Jun%Ying%NULL%2,                      Chun-Lian%Ma%NULL%2,                      Shi-Bo%Li%NULL%2,                      Hua-Ying%Wang%NULL%2,                      Sheng%Zhang%NULL%2,                      Hai-Nv%Gao%NULL%2,                      Ji-Fang%Sheng%NULL%2,                      Hong-Liu%Cai%NULL%2,                      Yun-Qing%Qiu%NULL%2,                      Lan-Juan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                      Chang%Hu%NULL%0,                      Linjie%Luo%NULL%2,                      Fang%Fang%NULL%0,                      Yongfeng%Chen%NULL%2,                      Jianguo%Li%NULL%2,                      Zhiyong%Peng%NULL%0,                      Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,                      Chun%Liao%lc7spring@163.com%1,                      Qi-hong%Fan%1187286305@qq.com%1,                      Hong-bo%Chen%hbchen@hust.edu.cn%1,                      Xue-gong%Zhao%NULL%1,                      Zhong-guo%Xie%NULL%1,                      Xi-lin%Li%NULL%1,                      Chun-xi%Chen%NULL%1,                      Xiao-xia%Lu%NULL%1,                      Zhi-sheng%Liu%NULL%1,                      Wei%Lu%NULL%1,                      Chun-bao%Chen%NULL%1,                      Rong%Jiao%NULL%1,                      Ai-ming%Zhang%NULL%1,                      Jin-tang%Wang%NULL%1,                      Xi-wei%Ding%NULL%1,                      Yao-guang%Zeng%NULL%1,                      Li-ping%Cheng%NULL%1,                      Qing-feng%Huang%NULL%1,                      Jiang%Wu%NULL%0,                      Xi-chang%Luo%NULL%1,                      Zhu-jun%Wang%NULL%1,                      Yan-yan%Zhong%NULL%1,                      Yan%Bai%yanbaixh@hust.edu.cn%1,                      Xiao-yan%Wu%xwu@hust.edu.cn%1,                      Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                      Ting%Yu%NULL%0,                      Ronghui%Du%NULL%0,                      Guohui%Fan%NULL%0,                      Ying%Liu%NULL%0,                      Zhibo%Liu%NULL%0,                      Jie%Xiang%NULL%0,                      Yeming%Wang%NULL%0,                      Bin%Song%NULL%0,                      Xiaoying%Gu%NULL%0,                      Lulu%Guan%NULL%0,                      Yuan%Wei%NULL%0,                      Hui%Li%NULL%0,                      Xudong%Wu%NULL%0,                      Jiuyang%Xu%NULL%0,                      Shengjin%Tu%NULL%0,                      Yi%Zhang%NULL%0,                      Hua%Chen%NULL%0,                      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                      Mengqi%Tu%NULL%2,                      Shipei%Wang%NULL%2,                      Sichao%Chen%NULL%2,                      Wei%Zhou%NULL%0,                      Danyang%Chen%NULL%2,                      Lin%Zhou%NULL%2,                      Min%Wang%NULL%2,                      Yan%Zhao%NULL%4,                      Wen%Zeng%NULL%2,                      Qi%Huang%NULL%2,                      Hai'bo%Xu%NULL%2,                      Zeming%Liu%NULL%2,                      Liang%Guo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                      Yuan%Yu%NULL%0,                      Jiqian%Xu%NULL%0,                      Huaqing%Shu%NULL%0,                      Jia'an%Xia%NULL%0,                      Hong%Liu%NULL%0,                      Yongran%Wu%NULL%0,                      Lu%Zhang%NULL%0,                      Zhui%Yu%NULL%0,                      Minghao%Fang%NULL%0,                      Ting%Yu%NULL%0,                      Yaxin%Wang%NULL%0,                      Shangwen%Pan%NULL%0,                      Xiaojing%Zou%NULL%0,                      Shiying%Yuan%NULL%0,                      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,                      Wei-jie%Guan%NULL%2,                      Cai-chen%Li%NULL%3,                      Yi-min%Li%NULL%3,                      Heng-rui%Liang%NULL%3,                      Yi%Zhao%NULL%3,                      Xiao-qing%Liu%NULL%3,                      Ling%Sang%NULL%0,                      Ru-chong%Chen%NULL%0,                      Chun-li%Tang%NULL%0,                      Tao%Wang%NULL%0,                      Wei%Wang%NULL%0,                      Qi-hua%He%NULL%2,                      Zi-sheng%Chen%NULL%3,                      Sook-San%Wong%NULL%2,                      Mark%Zanin%NULL%2,                      Jun%Liu%NULL%2,                      Xin%Xu%NULL%3,                      Jun%Huang%NULL%2,                      Jian-fu%Li%NULL%3,                      Li-min%Ou%NULL%3,                      Bo%Cheng%NULL%3,                      Shan%Xiong%NULL%3,                      Zhan-hong%Xie%NULL%2,                      Zheng-yi%Ni%NULL%0,                      Yu%Hu%NULL%0,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chun-liang%Lei%NULL%0,                      Yi-xiang%Peng%NULL%0,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Ya-hua%Hu%NULL%0,                      Peng%Peng%NULL%0,                      Jian-ming%Wang%NULL%0,                      Ji-yang%Liu%NULL%0,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhi-jian%Zheng%NULL%0,                      Shao-qin%Qiu%NULL%0,                      Jie%Luo%NULL%0,                      Chang-jiang%Ye%NULL%0,                      Shao-yong%Zhu%NULL%0,                      Lin-ling%Cheng%NULL%3,                      Feng%Ye%NULL%5,                      Shi-yue%Li%NULL%0,                      Jin-ping%Zheng%NULL%3,                      Nuo-fu%Zhang%NULL%3,                      Nan-shan%Zhong%NULL%0,                      Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                      Simon A%Jones%NULL%1,                      Jie%Yang%NULL%0,                      Harish%Rajagopalan%NULL%1,                      Luke%O’Donnell%NULL%1,                      Yelena%Chernyak%NULL%1,                      Katie A%Tobin%NULL%1,                      Robert J%Cerfolio%NULL%1,                      Fritz%Francois%NULL%1,                      Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0,                      Stephanie%Bialek%NULL%1,                      Ellen%Boundy%NULL%1,                      Virginia%Bowen%NULL%1,                      Nancy%Chow%NULL%2,                      Amanda%Cohn%NULL%1,                      Nicole%Dowling%NULL%1,                      Sascha%Ellington%NULL%1,                      Ryan%Gierke%NULL%2,                      Aron%Hall%NULL%2,                      Jessica%MacNeil%NULL%1,                      Priti%Patel%NULL%1,                      Georgina%Peacock%NULL%1,                      Tamara%Pilishvili%NULL%2,                      Hilda%Razzaghi%NULL%1,                      Nia%Reed%NULL%1,                      Matthew%Ritchey%NULL%2,                      Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,                      Pedro%Póvoa%NULL%1,                      Vicente%Souza-Dantas%NULL%1,                      André C.%Kalil%NULL%1,                      Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,                      Graeme%MacLaren%NULL%1,                      Philip S%Boonstra%NULL%1,                      Theodore J%Iwashyna%NULL%1,                      Arthur S%Slutsky%NULL%1,                      Eddy%Fan%NULL%1,                      Robert H%Bartlett%NULL%1,                      Joseph E%Tonna%NULL%1,                      Robert%Hyslop%NULL%1,                      Jeffrey J%Fanning%NULL%1,                      Peter T%Rycus%NULL%1,                      Steve J%Hyer%NULL%1,                      Marc M%Anders%NULL%1,                      Cara L%Agerstrand%NULL%1,                      Katarzyna%Hryniewicz%NULL%1,                      Rodrigo%Diaz%NULL%1,                      Roberto%Lorusso%NULL%1,                      Alain%Combes%NULL%1,                      Daniel%Brodie%NULL%4,                      Peta%Alexander%NULL%1,                      Nicholas%Barrett%NULL%1,                      Jan%Bělohlávek%NULL%1,                      Dale%Fisher%NULL%1,                      John%Fraser%NULL%1,                      Ali Ait%Hssain%NULL%1,                      Jae Sung%Jung%NULL%1,                      Michael%McMullan%NULL%1,                      Yatin%Mehta%NULL%1,                      Mark T.%Ogino%NULL%1,                      Matthew L.%Paden%NULL%1,                      Kiran%Shekar%NULL%1,                      Christine%Stead%NULL%1,                      Yasir%Abu-Omar%NULL%1,                      Vanni%Agnoletti%NULL%1,                      Anzila%Akbar%NULL%1,                      Huda%Alfoudri%NULL%1,                      Carlos%Alviar%NULL%1,                      Vladimir%Aronsky%NULL%1,                      Erin%August%NULL%1,                      Georg%Auzinger%NULL%1,                      Hilda%Aveja%NULL%1,                      Rhonda%Bakken%NULL%1,                      Joan%Balcells%NULL%1,                      Sripal%Bangalore%NULL%1,                      Bernard W.%Barnes%NULL%1,                      Alaiza%Bautista%NULL%1,                      Lorraine L.%Bellows%NULL%1,                      Felipe%Beltran%NULL%1,                      Peyman%Benharash%NULL%1,                      Marco%Benni%NULL%1,                      Jennifer%Berg%NULL%1,                      Pietro%Bertini%NULL%1,                      Pablo%Blanco-Schweizer%NULL%1,                      Melissa%Brunsvold%NULL%1,                      Jenny%Budd%NULL%1,                      Debra%Camp%NULL%1,                      Mark%Caridi-Scheible%NULL%0,                      Edmund%Carton%NULL%1,                      Elena%Casanova-Ghosh%NULL%1,                      Anthony%Castleberry%NULL%1,                      Christopher T.%Chipongian%NULL%1,                      Chang Woo%Choi%NULL%1,                      Alessandro%Circelli%NULL%1,                      Elliott%Cohen%NULL%1,                      Michael%Collins%NULL%1,                      Scott%Copus%NULL%1,                      Jill%Coy%NULL%1,                      Brandon%Crist%NULL%1,                      Leonora%Cruz%NULL%1,                      Mirosław%Czuczwar%NULL%1,                      Mani%Daneshmand%NULL%1,                      Daniel%Davis II%NULL%1,                      Kim%De la Cruz%NULL%1,                      Cyndie%Devers%NULL%1,                      Toni%Duculan%NULL%1,                      Lucian%Durham%NULL%1,                      Subbarao%Elapavaluru%NULL%1,                      Carlos V.%Elzo Kraemer%NULL%1,                      EDMÍLSON CARDOSO%Filho%NULL%1,                      Jillian%Fitzgerald%NULL%1,                      Giuseppe%Foti%NULL%1,                      Matthew%Fox%NULL%1,                      David%Fritschen%NULL%1,                      David%Fullerton%NULL%1,                      Elton%Gelandt%NULL%1,                      Stacy%Gerle%NULL%1,                      Marco%Giani%NULL%1,                      Si Guim%Goh%NULL%1,                      Sara%Govener%NULL%1,                      Julie%Grone%NULL%1,                      Miles%Guber%NULL%1,                      Vadim%Gudzenko%NULL%1,                      Daniel%Gutteridge%NULL%1,                      Jennifer%Guy%NULL%1,                      Jonathan%Haft%NULL%1,                      Cameron%Hall%NULL%1,                      Ibrahim Fawzy%Hassan%NULL%1,                      Rubén%Herrán%NULL%1,                      Hitoshi%Hirose%NULL%1,                      Abdulsalam Saif%Ibrahim%NULL%1,                      Don%Igielski%NULL%1,                      Felicia A.%Ivascu%NULL%1,                      Jaume%Izquierdo Blasco%NULL%1,                      Julie%Jackson%NULL%1,                      Harsh%Jain%NULL%1,                      Bhavini%Jaiswal%NULL%1,                      Andrea C.%Johnson%NULL%1,                      Jenniver A.%Jurynec%NULL%1,                      Norma M%Kellter%NULL%1,                      Adam%Kohl%NULL%1,                      Zachary%Kon%NULL%1,                      Markus%Kredel%NULL%1,                      Karen%Kriska%NULL%1,                      Chandra%Kunavarapu%NULL%1,                      Oude%Lansink-Hartgring%NULL%1,                      Jeliene%LaRocque%NULL%1,                      Sharon Beth%Larson%NULL%1,                      Tracie%Layne%NULL%1,                      Stephane%Ledot%NULL%1,                      Napolitan%Lena%NULL%1,                      Jonathan%Lillie%NULL%1,                      Gösta%Lotz%NULL%1,                      Mark%Lucas%NULL%1,                      Lee%Ludwigson%NULL%1,                      Jacinta J.%Maas%NULL%1,                      Joanna%Maertens%NULL%1,                      David%Mast%NULL%1,                      Scott%McCardle%NULL%1,                      Bernard%McDonald%NULL%1,                      Allison%McLarty%NULL%1,                      Chelsea%McMahon%NULL%1,                      Patrick%Meybohm%NULL%1,                      Bart%Meyns%NULL%1,                      Casey%Miller%NULL%1,                      Fernando%Moraes Neto%NULL%1,                      Kelly%Morris%NULL%1,                      Ralf%Muellenbach%NULL%1,                      Meghan%Nicholson%NULL%1,                      Serena%O'Brien%NULL%1,                      Kathryn%O'Keefe%NULL%1,                      Tawnya%Ogston%NULL%1,                      Gary%Oldenburg%NULL%1,                      Fabiana M.%Oliveira%NULL%1,                      Emily%Oppel%NULL%1,                      Diego%Pardo%NULL%2,                      Diego%Pardo%NULL%0,                      Sara J.%Parker%NULL%1,                      Finn M.%Pedersen%NULL%1,                      Crescens%Pellecchia%NULL%1,                      Jose A.S.%Pelligrini%NULL%1,                      Thao T.N.%Pham%NULL%1,                      Ann R.%Phillips%NULL%1,                      Tasneem%Pirani%NULL%1,                      Paweł%Piwowarczyk%NULL%1,                      Robert%Plambeck%NULL%1,                      William%Pruett%NULL%1,                      Brittany%Quandt%NULL%1,                      Kollengode%Ramanathan%NULL%1,                      Alejandro%Rey%NULL%1,                      Christian%Reyher%NULL%1,                      Jordi%Riera del Brio%NULL%1,                      Rachel%Roberts%NULL%1,                      David%Roe%NULL%1,                      Peter P.%Roeleveld%NULL%1,                      Janet%Rudy%NULL%1,                      Luis F.%Rueda%NULL%1,                      Emanuele%Russo%NULL%1,                      Jesús%Sánchez Ballesteros%NULL%1,                      Nancy%Satou%NULL%1,                      Mauricio Guidi%Saueressig%NULL%1,                      Paul C.%Saunders%NULL%1,                      Margaret%Schlotterbeck%NULL%1,                      Patricia%Schwarz%NULL%1,                      Nicole%Scriven%NULL%1,                      Alexis%Serra%NULL%1,                      Mohammad%Shamsah%NULL%1,                      Lucy%Sim%NULL%1,                      Alexandra%Smart%NULL%1,                      Adam%Smith%NULL%1,                      Deane%Smith%NULL%1,                      Maggie%Smith%NULL%1,                      Neel%Sodha%NULL%1,                      Michael%Sonntagbauer%NULL%1,                      Marc%Sorenson%NULL%1,                      Eric B%Stallkamp%NULL%1,                      Allison%Stewart%NULL%1,                      Kathy%Swartz%NULL%1,                      Koji%Takeda%NULL%1,                      Shaun%Thompson%NULL%1,                      Bridget%Toy%NULL%1,                      Divina%Tuazon%NULL%1,                      Makoto%Uchiyama%NULL%1,                      Obiora I.%Udeozo%NULL%1,                      Scott%van Poppel%NULL%1,                      Corey%Ventetuolo%NULL%1,                      Leen%Vercaemst%NULL%1,                      Nguyen V.%Vinh Chau%NULL%1,                      I-Wen%Wang%NULL%1,                      Carrie%Williamson%NULL%1,                      Brock%Wilson%NULL%1,                      Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,                       Dhaval%Kolte%NULL%1,                       Mary E.%Cadigan%NULL%1,                       Elizabeth%Laikhter%NULL%1,                       Kevin%Sinclair%NULL%1,                       Eugene%Pomerantsev%NULL%1,                       Michael A.%Fifer%NULL%1,                       Thoralf M.%Sundt%NULL%1,                       Robert W.%Yeh%NULL%1,                       Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                      Cabrini%Luca%coreGivesNoEmail%1,                      Castelli%Antonio%coreGivesNoEmail%1,                      Cecconi%Maurizio%coreGivesNoEmail%1,                      Cereda%Danilo%coreGivesNoEmail%1,                      Coluccello%Antonio%coreGivesNoEmail%1,                      Foti%Giuseppe%coreGivesNoEmail%1,                      Fumagalli%Roberto%coreGivesNoEmail%1,                      Grasselli%Giacomo%coreGivesNoEmail%1,                      Iotti%Giorgio%coreGivesNoEmail%1,                      Latronico%Nicola%coreGivesNoEmail%1,                      Lorini%Luca%coreGivesNoEmail%1,                      Merler%Stefano%coreGivesNoEmail%1,                      Natalini%Giuseppe%coreGivesNoEmail%1,                      Pesenti%Antonio%coreGivesNoEmail%1,                      Piatti%Alessandra%coreGivesNoEmail%1,                      Ranieri%Marco Vito%coreGivesNoEmail%1,                      Scandroglio%Anna Mara%coreGivesNoEmail%1,                      Storti%Enrico%coreGivesNoEmail%1,                      Zanella%Alberto%coreGivesNoEmail%1,                      Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                       Yeming%Wang%NULL%0,                       Xingwang%Li%NULL%0,                       Lili%Ren%NULL%0,                       Jianping%Zhao%NULL%0,                       Yi%Hu%NULL%0,                       Li%Zhang%NULL%0,                       Guohui%Fan%NULL%0,                       Jiuyang%Xu%NULL%0,                       Xiaoying%Gu%NULL%0,                       Zhenshun%Cheng%NULL%0,                       Ting%Yu%NULL%0,                       Jiaan%Xia%NULL%0,                       Yuan%Wei%NULL%0,                       Wenjuan%Wu%NULL%0,                       Xuelei%Xie%NULL%0,                       Wen%Yin%NULL%0,                       Hui%Li%NULL%0,                       Min%Liu%NULL%0,                       Yan%Xiao%NULL%0,                       Hong%Gao%NULL%0,                       Li%Guo%NULL%0,                       Jungang%Xie%NULL%0,                       Guangfa%Wang%NULL%0,                       Rongmeng%Jiang%NULL%0,                       Zhancheng%Gao%NULL%0,                       Qi%Jin%NULL%0,                       Jianwei%Wang%wangjw28@163.com%0,                       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                       Yi%Xiang%NULL%0,                       Wei%Fang%NULL%0,                       Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                       Boqun%Li%279685211@qq.com%0,                       Boqun%Li%279685211@qq.com%0,                       Yanjun%Hu%huyanjun@163.com%0,                       Chunhui%Lang%NULL%0,                       Daoqiu%Huang%NULL%0,                       Qiuyan%Sun%NULL%0,                       Yan%Xiong%NULL%0,                       Xia%Huang%NULL%0,                       Jinglong%Lv%NULL%0,                       Yaling%Luo%NULL%0,                       Li%Shen%NULL%0,                       Haoran%Yang%NULL%0,                       Gu%Huang%NULL%0,                       Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                       Mark%Caridi-Scheible%NULL%3,                       James M.%Blum%NULL%2,                       Chad%Robichaux%NULL%2,                       Colleen%Kraft%NULL%2,                       Jesse T.%Jacob%NULL%2,                       Craig S.%Jabaley%NULL%2,                       David%Carpenter%NULL%2,                       Roberta%Kaplow%NULL%2,                       Alfonso C.%Hernandez-Romieu%NULL%2,                       Max W.%Adelman%NULL%2,                       Greg S.%Martin%NULL%2,                       Craig M.%Coopersmith%NULL%2,                       David J.%Murphy%NULL%2,                       NULL%NULL%NULL%0,                        S.%Auld%null%1,                        M.% Caridi-Scheible%null%1,                        J. M.% Blum%null%1,                        C. J.% Robichaux%null%1,                        C. S.% Kraft%null%1,                        J. T.% Jacob%null%1,                        C. S.% Jabaley%null%1,                        D.% Carpenter%null%1,                        R.% Kaplow%null%1,                        A. C.% Hernandez%null%1,                        M. W.% Adelman%null%1,                        G. S.% Martin%null%1,                        C. M.% Coopersmith%null%1,                        D. J.% Murphy%null%1,                          % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,                      S.%Auld%null%1,                      M.% Caridi-Scheible%null%1,                      J. M.% Blum%null%1,                      C. J.% Robichaux%null%1,                      C. S.% Kraft%null%1,                      J. T.% Jacob%null%1,                      C. S.% Jabaley%null%1,                      D.% Carpenter%null%1,                      R.% Kaplow%null%1,                      A. C.% Hernandez%null%1,                      M. W.% Adelman%null%1,                      G. S.% Martin%null%1,                      C. M.% Coopersmith%null%1,                      D. J.% Murphy%null%1,                        % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,    S.%Auld%null%1,    M.% Caridi-Scheible%null%1,    J. M.% Blum%null%1,    C. J.% Robichaux%null%1,    C. S.% Kraft%null%1,    J. T.% Jacob%null%1,    C. S.% Jabaley%null%1,    D.% Carpenter%null%1,    R.% Kaplow%null%1,    A. C.% Hernandez%null%1,    M. W.% Adelman%null%1,    G. S.% Martin%null%1,    C. M.% Coopersmith%null%1,    D. J.% Murphy%null%1,      % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                       Bijan J.%Ghassemieh%NULL%2,                       Michelle%Nichols%NULL%2,                       Richard%Kim%NULL%2,                       Keith R.%Jerome%NULL%2,                       Arun K.%Nalla%NULL%2,                       Alexander L.%Greninger%NULL%2,                       Sudhakar%Pipavath%NULL%2,                       Mark M.%Wurfel%NULL%2,                       Laura%Evans%NULL%2,                       Patricia A.%Kritek%NULL%2,                       T. Eoin%West%NULL%2,                       Andrew%Luks%NULL%2,                       Anthony%Gerbino%NULL%2,                       Chris R.%Dale%NULL%2,                       Jason D.%Goldman%NULL%2,                       Shane%O’Mahony%NULL%2,                       Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                       Tangkai%Qi%NULL%1,                       Li%Liu%NULL%1,                       Yun%Ling%NULL%0,                       Zhiping%Qian%NULL%1,                       Tao%Li%NULL%0,                       Feng%Li%NULL%1,                       Qingnian%Xu%NULL%1,                       Yuyi%Zhang%NULL%1,                       Shuibao%Xu%NULL%1,                       Zhigang%Song%NULL%1,                       Yigang%Zeng%NULL%1,                       Yinzhong%Shen%NULL%1,                       Yuxin%Shi%NULL%2,                       Tongyu%Zhu%NULL%2,                       Hongzhou%Lu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                       Min%Zhou%NULL%0,                       Xuan%Dong%NULL%0,                       Jieming%Qu%NULL%0,                       Fengyun%Gong%NULL%0,                       Yang%Han%NULL%0,                       Yang%Qiu%NULL%0,                       Jingli%Wang%NULL%0,                       Ying%Liu%NULL%0,                       Yuan%Wei%NULL%0,                       Jia'an%Xia%NULL%0,                       Ting%Yu%NULL%0,                       Xinxin%Zhang%NULL%0,                       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                       Zheng-yi%Ni%NULL%0,                       Zheng-yi%Ni%NULL%0,                       Yu%Hu%NULL%0,                       Wen-hua%Liang%NULL%0,                       Chun-quan%Ou%NULL%0,                       Jian-xing%He%NULL%0,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chun-liang%Lei%NULL%0,                       David S.C.%Hui%NULL%0,                       Bin%Du%NULL%0,                       Lan-juan%Li%NULL%0,                       Guang%Zeng%NULL%0,                       Kwok-Yung%Yuen%NULL%0,                       Ru-chong%Chen%NULL%0,                       Chun-li%Tang%NULL%0,                       Tao%Wang%NULL%0,                       Ping-yan%Chen%NULL%0,                       Jie%Xiang%NULL%0,                       Shi-yue%Li%NULL%0,                       Jin-lin%Wang%NULL%0,                       Zi-jing%Liang%NULL%0,                       Yi-xiang%Peng%NULL%0,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Ya-hua%Hu%NULL%0,                       Peng%Peng%NULL%0,                       Jian-ming%Wang%NULL%0,                       Ji-yang%Liu%NULL%0,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhi-jian%Zheng%NULL%0,                       Shao-qin%Qiu%NULL%0,                       Jie%Luo%NULL%0,                       Chang-jiang%Ye%NULL%0,                       Shao-yong%Zhu%NULL%0,                       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                       Yuanyuan%Xing%NULL%2,                       Yu%Xiao%NULL%2,                       Liping%Deng%NULL%3,                       Qiu%Zhao%NULL%2,                       Hongling%Wang%NULL%2,                       Yong%Xiong%NULL%4,                       Zhenshun%Cheng%NULL%0,                       Shicheng%Gao%NULL%3,                       Ke%Liang%NULL%3,                       Mingqi%Luo%NULL%3,                       Tielong%Chen%NULL%2,                       Shihui%Song%NULL%3,                       Zhiyong%Ma%NULL%3,                       Xiaoping%Chen%NULL%3,                       Ruiying%Zheng%NULL%2,                       Qian%Cao%NULL%2,                       Fan%Wang%fanndywang@foxmail.com%2,                       Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,                       N -B%Yang%NULL%1,                       F%Ding%NULL%1,                       A H Y%Ma%NULL%1,                       Z -Y%Wang%NULL%2,                       Y -F%Shen%NULL%1,                       C -W%Shi%NULL%1,                       X%Lian%NULL%1,                       J -G%Chu%NULL%1,                       L%Chen%chxmin@hotmail.com%1,                       Z -Y%Wang%NULL%0,                       D -W%Ren%NULL%1,                       G -X%Li%NULL%1,                       X -Q%Chen%chxmin@hotmail.com%1,                       H -J%Shen%NULL%1,                       X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,                       Hugues%Spillemaeker%NULL%1,                       Maéva%Kyheng%NULL%1,                       Cassandre%Belin‐Vincent%NULL%1,                       Cédric%Delhaye%NULL%1,                       Adeline%Piérache%NULL%1,                       Tom%Denimal%NULL%1,                       Basile%Verdier%NULL%1,                       Nicolas%Debry%NULL%1,                       Mouhamed%Moussa%NULL%1,                       Guillaume%Schurtz%NULL%1,                       Sina%Porouchani%NULL%1,                       Alessandro%Cosenza%NULL%1,                       Francis%Juthier%NULL%1,                       Thibault%Pamart%NULL%1,                       Marjorie%Richardson%NULL%1,                       Augustin%Coisne%NULL%1,                       Adrien%Hertault%NULL%1,                       Jonathan%Sobocinski%NULL%1,                       Thomas%Modine%NULL%1,                       François%Pontana%NULL%1,                       Alain%Duhamel%NULL%2,                       Julien%Labreuche%NULL%2,                       Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                      Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,                       Yimei%Yin%18256985@qq.com%1,                       Chang%Hu%1391369733@qq.com%3,                       Xing%Liu%375117565@qq.com%1,                       Xingguo%Zhang%zhangxinguo7909@163.com%1,                       Shuliang%Zhou%350925556@qq.com%1,                       Mingzhi%Jian%Jmzhak@aliyun.com%1,                       Haibo%Xu%xuhaibo1120@hotmail.com%0,                       John%Prowle%j.prowle@qmul.ac.uk%1,                       Bo%Hu%hobbier1979@163.com%0,                       Yirong%Li%liyirong838@163.com%1,                       Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                       Xiao-Xin%Wu%NULL%2,                       Xian-Gao%Jiang%NULL%2,                       Kai-Jin%Xu%NULL%2,                       Ling-Jun%Ying%NULL%2,                       Chun-Lian%Ma%NULL%2,                       Shi-Bo%Li%NULL%2,                       Hua-Ying%Wang%NULL%2,                       Sheng%Zhang%NULL%2,                       Hai-Nv%Gao%NULL%2,                       Ji-Fang%Sheng%NULL%2,                       Hong-Liu%Cai%NULL%2,                       Yun-Qing%Qiu%NULL%2,                       Lan-Juan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                       Chang%Hu%NULL%0,                       Linjie%Luo%NULL%2,                       Fang%Fang%NULL%0,                       Yongfeng%Chen%NULL%2,                       Jianguo%Li%NULL%2,                       Zhiyong%Peng%NULL%0,                       Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,                       Chun%Liao%lc7spring@163.com%1,                       Qi-hong%Fan%1187286305@qq.com%1,                       Hong-bo%Chen%hbchen@hust.edu.cn%1,                       Xue-gong%Zhao%NULL%1,                       Zhong-guo%Xie%NULL%1,                       Xi-lin%Li%NULL%1,                       Chun-xi%Chen%NULL%1,                       Xiao-xia%Lu%NULL%1,                       Zhi-sheng%Liu%NULL%1,                       Wei%Lu%NULL%1,                       Chun-bao%Chen%NULL%1,                       Rong%Jiao%NULL%1,                       Ai-ming%Zhang%NULL%1,                       Jin-tang%Wang%NULL%1,                       Xi-wei%Ding%NULL%1,                       Yao-guang%Zeng%NULL%1,                       Li-ping%Cheng%NULL%1,                       Qing-feng%Huang%NULL%1,                       Jiang%Wu%NULL%0,                       Xi-chang%Luo%NULL%1,                       Zhu-jun%Wang%NULL%1,                       Yan-yan%Zhong%NULL%1,                       Yan%Bai%yanbaixh@hust.edu.cn%1,                       Xiao-yan%Wu%xwu@hust.edu.cn%1,                       Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                       Ting%Yu%NULL%0,                       Ronghui%Du%NULL%0,                       Guohui%Fan%NULL%0,                       Ying%Liu%NULL%0,                       Zhibo%Liu%NULL%0,                       Jie%Xiang%NULL%0,                       Yeming%Wang%NULL%0,                       Bin%Song%NULL%0,                       Xiaoying%Gu%NULL%0,                       Lulu%Guan%NULL%0,                       Yuan%Wei%NULL%0,                       Hui%Li%NULL%0,                       Xudong%Wu%NULL%0,                       Jiuyang%Xu%NULL%0,                       Shengjin%Tu%NULL%0,                       Yi%Zhang%NULL%0,                       Hua%Chen%NULL%0,                       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                       Mengqi%Tu%NULL%2,                       Shipei%Wang%NULL%2,                       Sichao%Chen%NULL%2,                       Wei%Zhou%NULL%0,                       Danyang%Chen%NULL%2,                       Lin%Zhou%NULL%2,                       Min%Wang%NULL%2,                       Yan%Zhao%NULL%4,                       Wen%Zeng%NULL%2,                       Qi%Huang%NULL%2,                       Hai'bo%Xu%NULL%2,                       Zeming%Liu%NULL%2,                       Liang%Guo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                       Yuan%Yu%NULL%0,                       Jiqian%Xu%NULL%0,                       Huaqing%Shu%NULL%0,                       Jia'an%Xia%NULL%0,                       Hong%Liu%NULL%0,                       Yongran%Wu%NULL%0,                       Lu%Zhang%NULL%0,                       Zhui%Yu%NULL%0,                       Minghao%Fang%NULL%0,                       Ting%Yu%NULL%0,                       Yaxin%Wang%NULL%0,                       Shangwen%Pan%NULL%0,                       Xiaojing%Zou%NULL%0,                       Shiying%Yuan%NULL%0,                       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,                       Wei-jie%Guan%NULL%2,                       Cai-chen%Li%NULL%3,                       Yi-min%Li%NULL%3,                       Heng-rui%Liang%NULL%3,                       Yi%Zhao%NULL%3,                       Xiao-qing%Liu%NULL%3,                       Ling%Sang%NULL%0,                       Ru-chong%Chen%NULL%0,                       Chun-li%Tang%NULL%0,                       Tao%Wang%NULL%0,                       Wei%Wang%NULL%0,                       Qi-hua%He%NULL%2,                       Zi-sheng%Chen%NULL%3,                       Sook-San%Wong%NULL%2,                       Mark%Zanin%NULL%2,                       Jun%Liu%NULL%2,                       Xin%Xu%NULL%3,                       Jun%Huang%NULL%2,                       Jian-fu%Li%NULL%3,                       Li-min%Ou%NULL%3,                       Bo%Cheng%NULL%3,                       Shan%Xiong%NULL%3,                       Zhan-hong%Xie%NULL%2,                       Zheng-yi%Ni%NULL%0,                       Yu%Hu%NULL%0,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chun-liang%Lei%NULL%0,                       Yi-xiang%Peng%NULL%0,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Ya-hua%Hu%NULL%0,                       Peng%Peng%NULL%0,                       Jian-ming%Wang%NULL%0,                       Ji-yang%Liu%NULL%0,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhi-jian%Zheng%NULL%0,                       Shao-qin%Qiu%NULL%0,                       Jie%Luo%NULL%0,                       Chang-jiang%Ye%NULL%0,                       Shao-yong%Zhu%NULL%0,                       Lin-ling%Cheng%NULL%3,                       Feng%Ye%NULL%5,                       Shi-yue%Li%NULL%0,                       Jin-ping%Zheng%NULL%3,                       Nuo-fu%Zhang%NULL%3,                       Nan-shan%Zhong%NULL%0,                       Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                       Simon A%Jones%NULL%1,                       Jie%Yang%NULL%0,                       Harish%Rajagopalan%NULL%1,                       Luke%O’Donnell%NULL%1,                       Yelena%Chernyak%NULL%1,                       Katie A%Tobin%NULL%1,                       Robert J%Cerfolio%NULL%1,                       Fritz%Francois%NULL%1,                       Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0,                       Stephanie%Bialek%NULL%1,                       Ellen%Boundy%NULL%1,                       Virginia%Bowen%NULL%1,                       Nancy%Chow%NULL%2,                       Amanda%Cohn%NULL%1,                       Nicole%Dowling%NULL%1,                       Sascha%Ellington%NULL%1,                       Ryan%Gierke%NULL%2,                       Aron%Hall%NULL%2,                       Jessica%MacNeil%NULL%1,                       Priti%Patel%NULL%1,                       Georgina%Peacock%NULL%1,                       Tamara%Pilishvili%NULL%2,                       Hilda%Razzaghi%NULL%1,                       Nia%Reed%NULL%1,                       Matthew%Ritchey%NULL%2,                       Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,                       Pedro%Póvoa%NULL%1,                       Vicente%Souza-Dantas%NULL%1,                       André C.%Kalil%NULL%1,                       Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,                       Graeme%MacLaren%NULL%1,                       Philip S%Boonstra%NULL%1,                       Theodore J%Iwashyna%NULL%1,                       Arthur S%Slutsky%NULL%1,                       Eddy%Fan%NULL%1,                       Robert H%Bartlett%NULL%1,                       Joseph E%Tonna%NULL%1,                       Robert%Hyslop%NULL%1,                       Jeffrey J%Fanning%NULL%1,                       Peter T%Rycus%NULL%1,                       Steve J%Hyer%NULL%1,                       Marc M%Anders%NULL%1,                       Cara L%Agerstrand%NULL%1,                       Katarzyna%Hryniewicz%NULL%1,                       Rodrigo%Diaz%NULL%1,                       Roberto%Lorusso%NULL%1,                       Alain%Combes%NULL%1,                       Daniel%Brodie%NULL%4,                       Peta%Alexander%NULL%1,                       Nicholas%Barrett%NULL%1,                       Jan%Bělohlávek%NULL%1,                       Dale%Fisher%NULL%1,                       John%Fraser%NULL%1,                       Ali Ait%Hssain%NULL%1,                       Jae Sung%Jung%NULL%1,                       Michael%McMullan%NULL%1,                       Yatin%Mehta%NULL%1,                       Mark T.%Ogino%NULL%1,                       Matthew L.%Paden%NULL%1,                       Kiran%Shekar%NULL%1,                       Christine%Stead%NULL%1,                       Yasir%Abu-Omar%NULL%1,                       Vanni%Agnoletti%NULL%1,                       Anzila%Akbar%NULL%1,                       Huda%Alfoudri%NULL%1,                       Carlos%Alviar%NULL%1,                       Vladimir%Aronsky%NULL%1,                       Erin%August%NULL%1,                       Georg%Auzinger%NULL%1,                       Hilda%Aveja%NULL%1,                       Rhonda%Bakken%NULL%1,                       Joan%Balcells%NULL%1,                       Sripal%Bangalore%NULL%1,                       Bernard W.%Barnes%NULL%1,                       Alaiza%Bautista%NULL%1,                       Lorraine L.%Bellows%NULL%1,                       Felipe%Beltran%NULL%1,                       Peyman%Benharash%NULL%1,                       Marco%Benni%NULL%1,                       Jennifer%Berg%NULL%1,                       Pietro%Bertini%NULL%1,                       Pablo%Blanco-Schweizer%NULL%1,                       Melissa%Brunsvold%NULL%1,                       Jenny%Budd%NULL%1,                       Debra%Camp%NULL%1,                       Mark%Caridi-Scheible%NULL%0,                       Edmund%Carton%NULL%1,                       Elena%Casanova-Ghosh%NULL%1,                       Anthony%Castleberry%NULL%1,                       Christopher T.%Chipongian%NULL%1,                       Chang Woo%Choi%NULL%1,                       Alessandro%Circelli%NULL%1,                       Elliott%Cohen%NULL%1,                       Michael%Collins%NULL%1,                       Scott%Copus%NULL%1,                       Jill%Coy%NULL%1,                       Brandon%Crist%NULL%1,                       Leonora%Cruz%NULL%1,                       Mirosław%Czuczwar%NULL%1,                       Mani%Daneshmand%NULL%1,                       Daniel%Davis II%NULL%1,                       Kim%De la Cruz%NULL%1,                       Cyndie%Devers%NULL%1,                       Toni%Duculan%NULL%1,                       Lucian%Durham%NULL%1,                       Subbarao%Elapavaluru%NULL%1,                       Carlos V.%Elzo Kraemer%NULL%1,                       EDMÍLSON CARDOSO%Filho%NULL%1,                       Jillian%Fitzgerald%NULL%1,                       Giuseppe%Foti%NULL%1,                       Matthew%Fox%NULL%1,                       David%Fritschen%NULL%1,                       David%Fullerton%NULL%1,                       Elton%Gelandt%NULL%1,                       Stacy%Gerle%NULL%1,                       Marco%Giani%NULL%1,                       Si Guim%Goh%NULL%1,                       Sara%Govener%NULL%1,                       Julie%Grone%NULL%1,                       Miles%Guber%NULL%1,                       Vadim%Gudzenko%NULL%1,                       Daniel%Gutteridge%NULL%1,                       Jennifer%Guy%NULL%1,                       Jonathan%Haft%NULL%1,                       Cameron%Hall%NULL%1,                       Ibrahim Fawzy%Hassan%NULL%1,                       Rubén%Herrán%NULL%1,                       Hitoshi%Hirose%NULL%1,                       Abdulsalam Saif%Ibrahim%NULL%1,                       Don%Igielski%NULL%1,                       Felicia A.%Ivascu%NULL%1,                       Jaume%Izquierdo Blasco%NULL%1,                       Julie%Jackson%NULL%1,                       Harsh%Jain%NULL%1,                       Bhavini%Jaiswal%NULL%1,                       Andrea C.%Johnson%NULL%1,                       Jenniver A.%Jurynec%NULL%1,                       Norma M%Kellter%NULL%1,                       Adam%Kohl%NULL%1,                       Zachary%Kon%NULL%1,                       Markus%Kredel%NULL%1,                       Karen%Kriska%NULL%1,                       Chandra%Kunavarapu%NULL%1,                       Oude%Lansink-Hartgring%NULL%1,                       Jeliene%LaRocque%NULL%1,                       Sharon Beth%Larson%NULL%1,                       Tracie%Layne%NULL%1,                       Stephane%Ledot%NULL%1,                       Napolitan%Lena%NULL%1,                       Jonathan%Lillie%NULL%1,                       Gösta%Lotz%NULL%1,                       Mark%Lucas%NULL%1,                       Lee%Ludwigson%NULL%1,                       Jacinta J.%Maas%NULL%1,                       Joanna%Maertens%NULL%1,                       David%Mast%NULL%1,                       Scott%McCardle%NULL%1,                       Bernard%McDonald%NULL%1,                       Allison%McLarty%NULL%1,                       Chelsea%McMahon%NULL%1,                       Patrick%Meybohm%NULL%1,                       Bart%Meyns%NULL%1,                       Casey%Miller%NULL%1,                       Fernando%Moraes Neto%NULL%1,                       Kelly%Morris%NULL%1,                       Ralf%Muellenbach%NULL%1,                       Meghan%Nicholson%NULL%1,                       Serena%O'Brien%NULL%1,                       Kathryn%O'Keefe%NULL%1,                       Tawnya%Ogston%NULL%1,                       Gary%Oldenburg%NULL%1,                       Fabiana M.%Oliveira%NULL%1,                       Emily%Oppel%NULL%1,                       Diego%Pardo%NULL%2,                       Diego%Pardo%NULL%0,                       Sara J.%Parker%NULL%1,                       Finn M.%Pedersen%NULL%1,                       Crescens%Pellecchia%NULL%1,                       Jose A.S.%Pelligrini%NULL%1,                       Thao T.N.%Pham%NULL%1,                       Ann R.%Phillips%NULL%1,                       Tasneem%Pirani%NULL%1,                       Paweł%Piwowarczyk%NULL%1,                       Robert%Plambeck%NULL%1,                       William%Pruett%NULL%1,                       Brittany%Quandt%NULL%1,                       Kollengode%Ramanathan%NULL%1,                       Alejandro%Rey%NULL%1,                       Christian%Reyher%NULL%1,                       Jordi%Riera del Brio%NULL%1,                       Rachel%Roberts%NULL%1,                       David%Roe%NULL%1,                       Peter P.%Roeleveld%NULL%1,                       Janet%Rudy%NULL%1,                       Luis F.%Rueda%NULL%1,                       Emanuele%Russo%NULL%1,                       Jesús%Sánchez Ballesteros%NULL%1,                       Nancy%Satou%NULL%1,                       Mauricio Guidi%Saueressig%NULL%1,                       Paul C.%Saunders%NULL%1,                       Margaret%Schlotterbeck%NULL%1,                       Patricia%Schwarz%NULL%1,                       Nicole%Scriven%NULL%1,                       Alexis%Serra%NULL%1,                       Mohammad%Shamsah%NULL%1,                       Lucy%Sim%NULL%1,                       Alexandra%Smart%NULL%1,                       Adam%Smith%NULL%1,                       Deane%Smith%NULL%1,                       Maggie%Smith%NULL%1,                       Neel%Sodha%NULL%1,                       Michael%Sonntagbauer%NULL%1,                       Marc%Sorenson%NULL%1,                       Eric B%Stallkamp%NULL%1,                       Allison%Stewart%NULL%1,                       Kathy%Swartz%NULL%1,                       Koji%Takeda%NULL%1,                       Shaun%Thompson%NULL%1,                       Bridget%Toy%NULL%1,                       Divina%Tuazon%NULL%1,                       Makoto%Uchiyama%NULL%1,                       Obiora I.%Udeozo%NULL%1,                       Scott%van Poppel%NULL%1,                       Corey%Ventetuolo%NULL%1,                       Leen%Vercaemst%NULL%1,                       Nguyen V.%Vinh Chau%NULL%1,                       I-Wen%Wang%NULL%1,                       Carrie%Williamson%NULL%1,                       Brock%Wilson%NULL%1,                       Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,                        Dhaval%Kolte%NULL%1,                        Mary E.%Cadigan%NULL%1,                        Elizabeth%Laikhter%NULL%1,                        Kevin%Sinclair%NULL%1,                        Eugene%Pomerantsev%NULL%1,                        Michael A.%Fifer%NULL%1,                        Thoralf M.%Sundt%NULL%1,                        Robert W.%Yeh%NULL%1,                        Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                       Cabrini%Luca%coreGivesNoEmail%1,                       Castelli%Antonio%coreGivesNoEmail%1,                       Cecconi%Maurizio%coreGivesNoEmail%1,                       Cereda%Danilo%coreGivesNoEmail%1,                       Coluccello%Antonio%coreGivesNoEmail%1,                       Foti%Giuseppe%coreGivesNoEmail%1,                       Fumagalli%Roberto%coreGivesNoEmail%1,                       Grasselli%Giacomo%coreGivesNoEmail%1,                       Iotti%Giorgio%coreGivesNoEmail%1,                       Latronico%Nicola%coreGivesNoEmail%1,                       Lorini%Luca%coreGivesNoEmail%1,                       Merler%Stefano%coreGivesNoEmail%1,                       Natalini%Giuseppe%coreGivesNoEmail%1,                       Pesenti%Antonio%coreGivesNoEmail%1,                       Piatti%Alessandra%coreGivesNoEmail%1,                       Ranieri%Marco Vito%coreGivesNoEmail%1,                       Scandroglio%Anna Mara%coreGivesNoEmail%1,                       Storti%Enrico%coreGivesNoEmail%1,                       Zanella%Alberto%coreGivesNoEmail%1,                       Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                        Yeming%Wang%NULL%0,                        Xingwang%Li%NULL%0,                        Lili%Ren%NULL%0,                        Jianping%Zhao%NULL%0,                        Yi%Hu%NULL%0,                        Li%Zhang%NULL%0,                        Guohui%Fan%NULL%0,                        Jiuyang%Xu%NULL%0,                        Xiaoying%Gu%NULL%0,                        Zhenshun%Cheng%NULL%0,                        Ting%Yu%NULL%0,                        Jiaan%Xia%NULL%0,                        Yuan%Wei%NULL%0,                        Wenjuan%Wu%NULL%0,                        Xuelei%Xie%NULL%0,                        Wen%Yin%NULL%0,                        Hui%Li%NULL%0,                        Min%Liu%NULL%0,                        Yan%Xiao%NULL%0,                        Hong%Gao%NULL%0,                        Li%Guo%NULL%0,                        Jungang%Xie%NULL%0,                        Guangfa%Wang%NULL%0,                        Rongmeng%Jiang%NULL%0,                        Zhancheng%Gao%NULL%0,                        Qi%Jin%NULL%0,                        Jianwei%Wang%wangjw28@163.com%0,                        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                        Yi%Xiang%NULL%0,                        Wei%Fang%NULL%0,                        Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                        Boqun%Li%279685211@qq.com%0,                        Boqun%Li%279685211@qq.com%0,                        Yanjun%Hu%huyanjun@163.com%0,                        Chunhui%Lang%NULL%0,                        Daoqiu%Huang%NULL%0,                        Qiuyan%Sun%NULL%0,                        Yan%Xiong%NULL%0,                        Xia%Huang%NULL%0,                        Jinglong%Lv%NULL%0,                        Yaling%Luo%NULL%0,                        Li%Shen%NULL%0,                        Haoran%Yang%NULL%0,                        Gu%Huang%NULL%0,                        Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                        Mark%Caridi-Scheible%NULL%3,                        James M.%Blum%NULL%2,                        Chad%Robichaux%NULL%2,                        Colleen%Kraft%NULL%2,                        Jesse T.%Jacob%NULL%2,                        Craig S.%Jabaley%NULL%2,                        David%Carpenter%NULL%2,                        Roberta%Kaplow%NULL%2,                        Alfonso C.%Hernandez-Romieu%NULL%2,                        Max W.%Adelman%NULL%2,                        Greg S.%Martin%NULL%2,                        Craig M.%Coopersmith%NULL%2,                        David J.%Murphy%NULL%2,                        NULL%NULL%NULL%0,                         S.%Auld%null%1,                         M.% Caridi-Scheible%null%1,                         J. M.% Blum%null%1,                         C. J.% Robichaux%null%1,                         C. S.% Kraft%null%1,                         J. T.% Jacob%null%1,                         C. S.% Jabaley%null%1,                         D.% Carpenter%null%1,                         R.% Kaplow%null%1,                         A. C.% Hernandez%null%1,                         M. W.% Adelman%null%1,                         G. S.% Martin%null%1,                         C. M.% Coopersmith%null%1,                         D. J.% Murphy%null%1,                           % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,                       S.%Auld%null%1,                       M.% Caridi-Scheible%null%1,                       J. M.% Blum%null%1,                       C. J.% Robichaux%null%1,                       C. S.% Kraft%null%1,                       J. T.% Jacob%null%1,                       C. S.% Jabaley%null%1,                       D.% Carpenter%null%1,                       R.% Kaplow%null%1,                       A. C.% Hernandez%null%1,                       M. W.% Adelman%null%1,                       G. S.% Martin%null%1,                       C. M.% Coopersmith%null%1,                       D. J.% Murphy%null%1,                         % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,     S.%Auld%null%1,     M.% Caridi-Scheible%null%1,     J. M.% Blum%null%1,     C. J.% Robichaux%null%1,     C. S.% Kraft%null%1,     J. T.% Jacob%null%1,     C. S.% Jabaley%null%1,     D.% Carpenter%null%1,     R.% Kaplow%null%1,     A. C.% Hernandez%null%1,     M. W.% Adelman%null%1,     G. S.% Martin%null%1,     C. M.% Coopersmith%null%1,     D. J.% Murphy%null%1,       % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                        Bijan J.%Ghassemieh%NULL%2,                        Michelle%Nichols%NULL%2,                        Richard%Kim%NULL%2,                        Keith R.%Jerome%NULL%2,                        Arun K.%Nalla%NULL%2,                        Alexander L.%Greninger%NULL%2,                        Sudhakar%Pipavath%NULL%2,                        Mark M.%Wurfel%NULL%2,                        Laura%Evans%NULL%2,                        Patricia A.%Kritek%NULL%2,                        T. Eoin%West%NULL%2,                        Andrew%Luks%NULL%2,                        Anthony%Gerbino%NULL%2,                        Chris R.%Dale%NULL%2,                        Jason D.%Goldman%NULL%2,                        Shane%O’Mahony%NULL%2,                        Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                        Tangkai%Qi%NULL%1,                        Li%Liu%NULL%1,                        Yun%Ling%NULL%0,                        Zhiping%Qian%NULL%1,                        Tao%Li%NULL%0,                        Feng%Li%NULL%1,                        Qingnian%Xu%NULL%1,                        Yuyi%Zhang%NULL%1,                        Shuibao%Xu%NULL%1,                        Zhigang%Song%NULL%1,                        Yigang%Zeng%NULL%1,                        Yinzhong%Shen%NULL%1,                        Yuxin%Shi%NULL%2,                        Tongyu%Zhu%NULL%2,                        Hongzhou%Lu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                        Min%Zhou%NULL%0,                        Xuan%Dong%NULL%0,                        Jieming%Qu%NULL%0,                        Fengyun%Gong%NULL%0,                        Yang%Han%NULL%0,                        Yang%Qiu%NULL%0,                        Jingli%Wang%NULL%0,                        Ying%Liu%NULL%0,                        Yuan%Wei%NULL%0,                        Jia'an%Xia%NULL%0,                        Ting%Yu%NULL%0,                        Xinxin%Zhang%NULL%0,                        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                        Zheng-yi%Ni%NULL%0,                        Zheng-yi%Ni%NULL%0,                        Yu%Hu%NULL%0,                        Wen-hua%Liang%NULL%0,                        Chun-quan%Ou%NULL%0,                        Jian-xing%He%NULL%0,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chun-liang%Lei%NULL%0,                        David S.C.%Hui%NULL%0,                        Bin%Du%NULL%0,                        Lan-juan%Li%NULL%0,                        Guang%Zeng%NULL%0,                        Kwok-Yung%Yuen%NULL%0,                        Ru-chong%Chen%NULL%0,                        Chun-li%Tang%NULL%0,                        Tao%Wang%NULL%0,                        Ping-yan%Chen%NULL%0,                        Jie%Xiang%NULL%0,                        Shi-yue%Li%NULL%0,                        Jin-lin%Wang%NULL%0,                        Zi-jing%Liang%NULL%0,                        Yi-xiang%Peng%NULL%0,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Ya-hua%Hu%NULL%0,                        Peng%Peng%NULL%0,                        Jian-ming%Wang%NULL%0,                        Ji-yang%Liu%NULL%0,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhi-jian%Zheng%NULL%0,                        Shao-qin%Qiu%NULL%0,                        Jie%Luo%NULL%0,                        Chang-jiang%Ye%NULL%0,                        Shao-yong%Zhu%NULL%0,                        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                        Yuanyuan%Xing%NULL%2,                        Yu%Xiao%NULL%2,                        Liping%Deng%NULL%3,                        Qiu%Zhao%NULL%2,                        Hongling%Wang%NULL%2,                        Yong%Xiong%NULL%4,                        Zhenshun%Cheng%NULL%0,                        Shicheng%Gao%NULL%3,                        Ke%Liang%NULL%3,                        Mingqi%Luo%NULL%3,                        Tielong%Chen%NULL%2,                        Shihui%Song%NULL%3,                        Zhiyong%Ma%NULL%3,                        Xiaoping%Chen%NULL%3,                        Ruiying%Zheng%NULL%2,                        Qian%Cao%NULL%2,                        Fan%Wang%fanndywang@foxmail.com%2,                        Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,                        N -B%Yang%NULL%1,                        F%Ding%NULL%1,                        A H Y%Ma%NULL%1,                        Z -Y%Wang%NULL%2,                        Y -F%Shen%NULL%1,                        C -W%Shi%NULL%1,                        X%Lian%NULL%1,                        J -G%Chu%NULL%1,                        L%Chen%chxmin@hotmail.com%1,                        Z -Y%Wang%NULL%0,                        D -W%Ren%NULL%1,                        G -X%Li%NULL%1,                        X -Q%Chen%chxmin@hotmail.com%1,                        H -J%Shen%NULL%1,                        X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,                        Hugues%Spillemaeker%NULL%1,                        Maéva%Kyheng%NULL%1,                        Cassandre%Belin‐Vincent%NULL%1,                        Cédric%Delhaye%NULL%1,                        Adeline%Piérache%NULL%1,                        Tom%Denimal%NULL%1,                        Basile%Verdier%NULL%1,                        Nicolas%Debry%NULL%1,                        Mouhamed%Moussa%NULL%1,                        Guillaume%Schurtz%NULL%1,                        Sina%Porouchani%NULL%1,                        Alessandro%Cosenza%NULL%1,                        Francis%Juthier%NULL%1,                        Thibault%Pamart%NULL%1,                        Marjorie%Richardson%NULL%1,                        Augustin%Coisne%NULL%1,                        Adrien%Hertault%NULL%1,                        Jonathan%Sobocinski%NULL%1,                        Thomas%Modine%NULL%1,                        François%Pontana%NULL%1,                        Alain%Duhamel%NULL%2,                        Julien%Labreuche%NULL%2,                        Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                       Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,                        Yimei%Yin%18256985@qq.com%1,                        Chang%Hu%1391369733@qq.com%3,                        Xing%Liu%375117565@qq.com%1,                        Xingguo%Zhang%zhangxinguo7909@163.com%1,                        Shuliang%Zhou%350925556@qq.com%1,                        Mingzhi%Jian%Jmzhak@aliyun.com%1,                        Haibo%Xu%xuhaibo1120@hotmail.com%0,                        John%Prowle%j.prowle@qmul.ac.uk%1,                        Bo%Hu%hobbier1979@163.com%0,                        Yirong%Li%liyirong838@163.com%1,                        Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                        Xiao-Xin%Wu%NULL%2,                        Xian-Gao%Jiang%NULL%2,                        Kai-Jin%Xu%NULL%2,                        Ling-Jun%Ying%NULL%2,                        Chun-Lian%Ma%NULL%2,                        Shi-Bo%Li%NULL%2,                        Hua-Ying%Wang%NULL%2,                        Sheng%Zhang%NULL%2,                        Hai-Nv%Gao%NULL%2,                        Ji-Fang%Sheng%NULL%2,                        Hong-Liu%Cai%NULL%2,                        Yun-Qing%Qiu%NULL%2,                        Lan-Juan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                        Chang%Hu%NULL%0,                        Linjie%Luo%NULL%2,                        Fang%Fang%NULL%0,                        Yongfeng%Chen%NULL%2,                        Jianguo%Li%NULL%2,                        Zhiyong%Peng%NULL%0,                        Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,                        Chun%Liao%lc7spring@163.com%1,                        Qi-hong%Fan%1187286305@qq.com%1,                        Hong-bo%Chen%hbchen@hust.edu.cn%1,                        Xue-gong%Zhao%NULL%1,                        Zhong-guo%Xie%NULL%1,                        Xi-lin%Li%NULL%1,                        Chun-xi%Chen%NULL%1,                        Xiao-xia%Lu%NULL%1,                        Zhi-sheng%Liu%NULL%1,                        Wei%Lu%NULL%1,                        Chun-bao%Chen%NULL%1,                        Rong%Jiao%NULL%1,                        Ai-ming%Zhang%NULL%1,                        Jin-tang%Wang%NULL%1,                        Xi-wei%Ding%NULL%1,                        Yao-guang%Zeng%NULL%1,                        Li-ping%Cheng%NULL%1,                        Qing-feng%Huang%NULL%1,                        Jiang%Wu%NULL%0,                        Xi-chang%Luo%NULL%1,                        Zhu-jun%Wang%NULL%1,                        Yan-yan%Zhong%NULL%1,                        Yan%Bai%yanbaixh@hust.edu.cn%1,                        Xiao-yan%Wu%xwu@hust.edu.cn%1,                        Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                        Ting%Yu%NULL%0,                        Ronghui%Du%NULL%0,                        Guohui%Fan%NULL%0,                        Ying%Liu%NULL%0,                        Zhibo%Liu%NULL%0,                        Jie%Xiang%NULL%0,                        Yeming%Wang%NULL%0,                        Bin%Song%NULL%0,                        Xiaoying%Gu%NULL%0,                        Lulu%Guan%NULL%0,                        Yuan%Wei%NULL%0,                        Hui%Li%NULL%0,                        Xudong%Wu%NULL%0,                        Jiuyang%Xu%NULL%0,                        Shengjin%Tu%NULL%0,                        Yi%Zhang%NULL%0,                        Hua%Chen%NULL%0,                        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                        Mengqi%Tu%NULL%2,                        Shipei%Wang%NULL%2,                        Sichao%Chen%NULL%2,                        Wei%Zhou%NULL%0,                        Danyang%Chen%NULL%2,                        Lin%Zhou%NULL%2,                        Min%Wang%NULL%2,                        Yan%Zhao%NULL%4,                        Wen%Zeng%NULL%2,                        Qi%Huang%NULL%2,                        Hai'bo%Xu%NULL%2,                        Zeming%Liu%NULL%2,                        Liang%Guo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                        Yuan%Yu%NULL%0,                        Jiqian%Xu%NULL%0,                        Huaqing%Shu%NULL%0,                        Jia'an%Xia%NULL%0,                        Hong%Liu%NULL%0,                        Yongran%Wu%NULL%0,                        Lu%Zhang%NULL%0,                        Zhui%Yu%NULL%0,                        Minghao%Fang%NULL%0,                        Ting%Yu%NULL%0,                        Yaxin%Wang%NULL%0,                        Shangwen%Pan%NULL%0,                        Xiaojing%Zou%NULL%0,                        Shiying%Yuan%NULL%0,                        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,                        Wei-jie%Guan%NULL%2,                        Cai-chen%Li%NULL%3,                        Yi-min%Li%NULL%3,                        Heng-rui%Liang%NULL%3,                        Yi%Zhao%NULL%3,                        Xiao-qing%Liu%NULL%3,                        Ling%Sang%NULL%0,                        Ru-chong%Chen%NULL%0,                        Chun-li%Tang%NULL%0,                        Tao%Wang%NULL%0,                        Wei%Wang%NULL%0,                        Qi-hua%He%NULL%2,                        Zi-sheng%Chen%NULL%3,                        Sook-San%Wong%NULL%2,                        Mark%Zanin%NULL%2,                        Jun%Liu%NULL%2,                        Xin%Xu%NULL%3,                        Jun%Huang%NULL%2,                        Jian-fu%Li%NULL%3,                        Li-min%Ou%NULL%3,                        Bo%Cheng%NULL%3,                        Shan%Xiong%NULL%3,                        Zhan-hong%Xie%NULL%2,                        Zheng-yi%Ni%NULL%0,                        Yu%Hu%NULL%0,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chun-liang%Lei%NULL%0,                        Yi-xiang%Peng%NULL%0,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Ya-hua%Hu%NULL%0,                        Peng%Peng%NULL%0,                        Jian-ming%Wang%NULL%0,                        Ji-yang%Liu%NULL%0,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhi-jian%Zheng%NULL%0,                        Shao-qin%Qiu%NULL%0,                        Jie%Luo%NULL%0,                        Chang-jiang%Ye%NULL%0,                        Shao-yong%Zhu%NULL%0,                        Lin-ling%Cheng%NULL%3,                        Feng%Ye%NULL%5,                        Shi-yue%Li%NULL%0,                        Jin-ping%Zheng%NULL%3,                        Nuo-fu%Zhang%NULL%3,                        Nan-shan%Zhong%NULL%0,                        Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                        Simon A%Jones%NULL%1,                        Jie%Yang%NULL%0,                        Harish%Rajagopalan%NULL%1,                        Luke%O’Donnell%NULL%1,                        Yelena%Chernyak%NULL%1,                        Katie A%Tobin%NULL%1,                        Robert J%Cerfolio%NULL%1,                        Fritz%Francois%NULL%1,                        Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0,                        Stephanie%Bialek%NULL%1,                        Ellen%Boundy%NULL%1,                        Virginia%Bowen%NULL%1,                        Nancy%Chow%NULL%2,                        Amanda%Cohn%NULL%1,                        Nicole%Dowling%NULL%1,                        Sascha%Ellington%NULL%1,                        Ryan%Gierke%NULL%2,                        Aron%Hall%NULL%2,                        Jessica%MacNeil%NULL%1,                        Priti%Patel%NULL%1,                        Georgina%Peacock%NULL%1,                        Tamara%Pilishvili%NULL%2,                        Hilda%Razzaghi%NULL%1,                        Nia%Reed%NULL%1,                        Matthew%Ritchey%NULL%2,                        Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,                        Pedro%Póvoa%NULL%1,                        Vicente%Souza-Dantas%NULL%1,                        André C.%Kalil%NULL%1,                        Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,                        Graeme%MacLaren%NULL%1,                        Philip S%Boonstra%NULL%1,                        Theodore J%Iwashyna%NULL%1,                        Arthur S%Slutsky%NULL%1,                        Eddy%Fan%NULL%1,                        Robert H%Bartlett%NULL%1,                        Joseph E%Tonna%NULL%1,                        Robert%Hyslop%NULL%1,                        Jeffrey J%Fanning%NULL%1,                        Peter T%Rycus%NULL%1,                        Steve J%Hyer%NULL%1,                        Marc M%Anders%NULL%1,                        Cara L%Agerstrand%NULL%1,                        Katarzyna%Hryniewicz%NULL%1,                        Rodrigo%Diaz%NULL%1,                        Roberto%Lorusso%NULL%1,                        Alain%Combes%NULL%1,                        Daniel%Brodie%NULL%4,                        Peta%Alexander%NULL%1,                        Nicholas%Barrett%NULL%1,                        Jan%Bělohlávek%NULL%1,                        Dale%Fisher%NULL%1,                        John%Fraser%NULL%1,                        Ali Ait%Hssain%NULL%1,                        Jae Sung%Jung%NULL%1,                        Michael%McMullan%NULL%1,                        Yatin%Mehta%NULL%1,                        Mark T.%Ogino%NULL%1,                        Matthew L.%Paden%NULL%1,                        Kiran%Shekar%NULL%1,                        Christine%Stead%NULL%1,                        Yasir%Abu-Omar%NULL%1,                        Vanni%Agnoletti%NULL%1,                        Anzila%Akbar%NULL%1,                        Huda%Alfoudri%NULL%1,                        Carlos%Alviar%NULL%1,                        Vladimir%Aronsky%NULL%1,                        Erin%August%NULL%1,                        Georg%Auzinger%NULL%1,                        Hilda%Aveja%NULL%1,                        Rhonda%Bakken%NULL%1,                        Joan%Balcells%NULL%1,                        Sripal%Bangalore%NULL%1,                        Bernard W.%Barnes%NULL%1,                        Alaiza%Bautista%NULL%1,                        Lorraine L.%Bellows%NULL%1,                        Felipe%Beltran%NULL%1,                        Peyman%Benharash%NULL%1,                        Marco%Benni%NULL%1,                        Jennifer%Berg%NULL%1,                        Pietro%Bertini%NULL%1,                        Pablo%Blanco-Schweizer%NULL%1,                        Melissa%Brunsvold%NULL%1,                        Jenny%Budd%NULL%1,                        Debra%Camp%NULL%1,                        Mark%Caridi-Scheible%NULL%0,                        Edmund%Carton%NULL%1,                        Elena%Casanova-Ghosh%NULL%1,                        Anthony%Castleberry%NULL%1,                        Christopher T.%Chipongian%NULL%1,                        Chang Woo%Choi%NULL%1,                        Alessandro%Circelli%NULL%1,                        Elliott%Cohen%NULL%1,                        Michael%Collins%NULL%1,                        Scott%Copus%NULL%1,                        Jill%Coy%NULL%1,                        Brandon%Crist%NULL%1,                        Leonora%Cruz%NULL%1,                        Mirosław%Czuczwar%NULL%1,                        Mani%Daneshmand%NULL%1,                        Daniel%Davis II%NULL%1,                        Kim%De la Cruz%NULL%1,                        Cyndie%Devers%NULL%1,                        Toni%Duculan%NULL%1,                        Lucian%Durham%NULL%1,                        Subbarao%Elapavaluru%NULL%1,                        Carlos V.%Elzo Kraemer%NULL%1,                        EDMÍLSON CARDOSO%Filho%NULL%1,                        Jillian%Fitzgerald%NULL%1,                        Giuseppe%Foti%NULL%1,                        Matthew%Fox%NULL%1,                        David%Fritschen%NULL%1,                        David%Fullerton%NULL%1,                        Elton%Gelandt%NULL%1,                        Stacy%Gerle%NULL%1,                        Marco%Giani%NULL%1,                        Si Guim%Goh%NULL%1,                        Sara%Govener%NULL%1,                        Julie%Grone%NULL%1,                        Miles%Guber%NULL%1,                        Vadim%Gudzenko%NULL%1,                        Daniel%Gutteridge%NULL%1,                        Jennifer%Guy%NULL%1,                        Jonathan%Haft%NULL%1,                        Cameron%Hall%NULL%1,                        Ibrahim Fawzy%Hassan%NULL%1,                        Rubén%Herrán%NULL%1,                        Hitoshi%Hirose%NULL%1,                        Abdulsalam Saif%Ibrahim%NULL%1,                        Don%Igielski%NULL%1,                        Felicia A.%Ivascu%NULL%1,                        Jaume%Izquierdo Blasco%NULL%1,                        Julie%Jackson%NULL%1,                        Harsh%Jain%NULL%1,                        Bhavini%Jaiswal%NULL%1,                        Andrea C.%Johnson%NULL%1,                        Jenniver A.%Jurynec%NULL%1,                        Norma M%Kellter%NULL%1,                        Adam%Kohl%NULL%1,                        Zachary%Kon%NULL%1,                        Markus%Kredel%NULL%1,                        Karen%Kriska%NULL%1,                        Chandra%Kunavarapu%NULL%1,                        Oude%Lansink-Hartgring%NULL%1,                        Jeliene%LaRocque%NULL%1,                        Sharon Beth%Larson%NULL%1,                        Tracie%Layne%NULL%1,                        Stephane%Ledot%NULL%1,                        Napolitan%Lena%NULL%1,                        Jonathan%Lillie%NULL%1,                        Gösta%Lotz%NULL%1,                        Mark%Lucas%NULL%1,                        Lee%Ludwigson%NULL%1,                        Jacinta J.%Maas%NULL%1,                        Joanna%Maertens%NULL%1,                        David%Mast%NULL%1,                        Scott%McCardle%NULL%1,                        Bernard%McDonald%NULL%1,                        Allison%McLarty%NULL%1,                        Chelsea%McMahon%NULL%1,                        Patrick%Meybohm%NULL%1,                        Bart%Meyns%NULL%1,                        Casey%Miller%NULL%1,                        Fernando%Moraes Neto%NULL%1,                        Kelly%Morris%NULL%1,                        Ralf%Muellenbach%NULL%1,                        Meghan%Nicholson%NULL%1,                        Serena%O'Brien%NULL%1,                        Kathryn%O'Keefe%NULL%1,                        Tawnya%Ogston%NULL%1,                        Gary%Oldenburg%NULL%1,                        Fabiana M.%Oliveira%NULL%1,                        Emily%Oppel%NULL%1,                        Diego%Pardo%NULL%2,                        Diego%Pardo%NULL%0,                        Sara J.%Parker%NULL%1,                        Finn M.%Pedersen%NULL%1,                        Crescens%Pellecchia%NULL%1,                        Jose A.S.%Pelligrini%NULL%1,                        Thao T.N.%Pham%NULL%1,                        Ann R.%Phillips%NULL%1,                        Tasneem%Pirani%NULL%1,                        Paweł%Piwowarczyk%NULL%1,                        Robert%Plambeck%NULL%1,                        William%Pruett%NULL%1,                        Brittany%Quandt%NULL%1,                        Kollengode%Ramanathan%NULL%1,                        Alejandro%Rey%NULL%1,                        Christian%Reyher%NULL%1,                        Jordi%Riera del Brio%NULL%1,                        Rachel%Roberts%NULL%1,                        David%Roe%NULL%1,                        Peter P.%Roeleveld%NULL%1,                        Janet%Rudy%NULL%1,                        Luis F.%Rueda%NULL%1,                        Emanuele%Russo%NULL%1,                        Jesús%Sánchez Ballesteros%NULL%1,                        Nancy%Satou%NULL%1,                        Mauricio Guidi%Saueressig%NULL%1,                        Paul C.%Saunders%NULL%1,                        Margaret%Schlotterbeck%NULL%1,                        Patricia%Schwarz%NULL%1,                        Nicole%Scriven%NULL%1,                        Alexis%Serra%NULL%1,                        Mohammad%Shamsah%NULL%1,                        Lucy%Sim%NULL%1,                        Alexandra%Smart%NULL%1,                        Adam%Smith%NULL%1,                        Deane%Smith%NULL%1,                        Maggie%Smith%NULL%1,                        Neel%Sodha%NULL%1,                        Michael%Sonntagbauer%NULL%1,                        Marc%Sorenson%NULL%1,                        Eric B%Stallkamp%NULL%1,                        Allison%Stewart%NULL%1,                        Kathy%Swartz%NULL%1,                        Koji%Takeda%NULL%1,                        Shaun%Thompson%NULL%1,                        Bridget%Toy%NULL%1,                        Divina%Tuazon%NULL%1,                        Makoto%Uchiyama%NULL%1,                        Obiora I.%Udeozo%NULL%1,                        Scott%van Poppel%NULL%1,                        Corey%Ventetuolo%NULL%1,                        Leen%Vercaemst%NULL%1,                        Nguyen V.%Vinh Chau%NULL%1,                        I-Wen%Wang%NULL%1,                        Carrie%Williamson%NULL%1,                        Brock%Wilson%NULL%1,                        Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,                         Dhaval%Kolte%NULL%1,                         Mary E.%Cadigan%NULL%1,                         Elizabeth%Laikhter%NULL%1,                         Kevin%Sinclair%NULL%1,                         Eugene%Pomerantsev%NULL%1,                         Michael A.%Fifer%NULL%1,                         Thoralf M.%Sundt%NULL%1,                         Robert W.%Yeh%NULL%1,                         Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                        Cabrini%Luca%coreGivesNoEmail%1,                        Castelli%Antonio%coreGivesNoEmail%1,                        Cecconi%Maurizio%coreGivesNoEmail%1,                        Cereda%Danilo%coreGivesNoEmail%1,                        Coluccello%Antonio%coreGivesNoEmail%1,                        Foti%Giuseppe%coreGivesNoEmail%1,                        Fumagalli%Roberto%coreGivesNoEmail%1,                        Grasselli%Giacomo%coreGivesNoEmail%1,                        Iotti%Giorgio%coreGivesNoEmail%1,                        Latronico%Nicola%coreGivesNoEmail%1,                        Lorini%Luca%coreGivesNoEmail%1,                        Merler%Stefano%coreGivesNoEmail%1,                        Natalini%Giuseppe%coreGivesNoEmail%1,                        Pesenti%Antonio%coreGivesNoEmail%1,                        Piatti%Alessandra%coreGivesNoEmail%1,                        Ranieri%Marco Vito%coreGivesNoEmail%1,                        Scandroglio%Anna Mara%coreGivesNoEmail%1,                        Storti%Enrico%coreGivesNoEmail%1,                        Zanella%Alberto%coreGivesNoEmail%1,                        Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                         Yeming%Wang%NULL%0,                         Xingwang%Li%NULL%0,                         Lili%Ren%NULL%0,                         Jianping%Zhao%NULL%0,                         Yi%Hu%NULL%0,                         Li%Zhang%NULL%0,                         Guohui%Fan%NULL%0,                         Jiuyang%Xu%NULL%0,                         Xiaoying%Gu%NULL%0,                         Zhenshun%Cheng%NULL%0,                         Ting%Yu%NULL%0,                         Jiaan%Xia%NULL%0,                         Yuan%Wei%NULL%0,                         Wenjuan%Wu%NULL%0,                         Xuelei%Xie%NULL%0,                         Wen%Yin%NULL%0,                         Hui%Li%NULL%0,                         Min%Liu%NULL%0,                         Yan%Xiao%NULL%0,                         Hong%Gao%NULL%0,                         Li%Guo%NULL%0,                         Jungang%Xie%NULL%0,                         Guangfa%Wang%NULL%0,                         Rongmeng%Jiang%NULL%0,                         Zhancheng%Gao%NULL%0,                         Qi%Jin%NULL%0,                         Jianwei%Wang%wangjw28@163.com%0,                         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                         Yi%Xiang%NULL%0,                         Wei%Fang%NULL%0,                         Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                         Boqun%Li%279685211@qq.com%0,                         Boqun%Li%279685211@qq.com%0,                         Yanjun%Hu%huyanjun@163.com%0,                         Chunhui%Lang%NULL%0,                         Daoqiu%Huang%NULL%0,                         Qiuyan%Sun%NULL%0,                         Yan%Xiong%NULL%0,                         Xia%Huang%NULL%0,                         Jinglong%Lv%NULL%0,                         Yaling%Luo%NULL%0,                         Li%Shen%NULL%0,                         Haoran%Yang%NULL%0,                         Gu%Huang%NULL%0,                         Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                         Mark%Caridi-Scheible%NULL%3,                         James M.%Blum%NULL%2,                         Chad%Robichaux%NULL%2,                         Colleen%Kraft%NULL%2,                         Jesse T.%Jacob%NULL%2,                         Craig S.%Jabaley%NULL%2,                         David%Carpenter%NULL%2,                         Roberta%Kaplow%NULL%2,                         Alfonso C.%Hernandez-Romieu%NULL%2,                         Max W.%Adelman%NULL%2,                         Greg S.%Martin%NULL%2,                         Craig M.%Coopersmith%NULL%2,                         David J.%Murphy%NULL%2,                         NULL%NULL%NULL%0,                          S.%Auld%null%1,                          M.% Caridi-Scheible%null%1,                          J. M.% Blum%null%1,                          C. J.% Robichaux%null%1,                          C. S.% Kraft%null%1,                          J. T.% Jacob%null%1,                          C. S.% Jabaley%null%1,                          D.% Carpenter%null%1,                          R.% Kaplow%null%1,                          A. C.% Hernandez%null%1,                          M. W.% Adelman%null%1,                          G. S.% Martin%null%1,                          C. M.% Coopersmith%null%1,                          D. J.% Murphy%null%1,                            % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,                        S.%Auld%null%1,                        M.% Caridi-Scheible%null%1,                        J. M.% Blum%null%1,                        C. J.% Robichaux%null%1,                        C. S.% Kraft%null%1,                        J. T.% Jacob%null%1,                        C. S.% Jabaley%null%1,                        D.% Carpenter%null%1,                        R.% Kaplow%null%1,                        A. C.% Hernandez%null%1,                        M. W.% Adelman%null%1,                        G. S.% Martin%null%1,                        C. M.% Coopersmith%null%1,                        D. J.% Murphy%null%1,                          % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,      S.%Auld%null%1,      M.% Caridi-Scheible%null%1,      J. M.% Blum%null%1,      C. J.% Robichaux%null%1,      C. S.% Kraft%null%1,      J. T.% Jacob%null%1,      C. S.% Jabaley%null%1,      D.% Carpenter%null%1,      R.% Kaplow%null%1,      A. C.% Hernandez%null%1,      M. W.% Adelman%null%1,      G. S.% Martin%null%1,      C. M.% Coopersmith%null%1,      D. J.% Murphy%null%1,        % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                         Bijan J.%Ghassemieh%NULL%2,                         Michelle%Nichols%NULL%2,                         Richard%Kim%NULL%2,                         Keith R.%Jerome%NULL%2,                         Arun K.%Nalla%NULL%2,                         Alexander L.%Greninger%NULL%2,                         Sudhakar%Pipavath%NULL%2,                         Mark M.%Wurfel%NULL%2,                         Laura%Evans%NULL%2,                         Patricia A.%Kritek%NULL%2,                         T. Eoin%West%NULL%2,                         Andrew%Luks%NULL%2,                         Anthony%Gerbino%NULL%2,                         Chris R.%Dale%NULL%2,                         Jason D.%Goldman%NULL%2,                         Shane%O’Mahony%NULL%2,                         Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                         Tangkai%Qi%NULL%1,                         Li%Liu%NULL%1,                         Yun%Ling%NULL%0,                         Zhiping%Qian%NULL%1,                         Tao%Li%NULL%0,                         Feng%Li%NULL%1,                         Qingnian%Xu%NULL%1,                         Yuyi%Zhang%NULL%1,                         Shuibao%Xu%NULL%1,                         Zhigang%Song%NULL%1,                         Yigang%Zeng%NULL%1,                         Yinzhong%Shen%NULL%1,                         Yuxin%Shi%NULL%2,                         Tongyu%Zhu%NULL%2,                         Hongzhou%Lu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                         Min%Zhou%NULL%0,                         Xuan%Dong%NULL%0,                         Jieming%Qu%NULL%0,                         Fengyun%Gong%NULL%0,                         Yang%Han%NULL%0,                         Yang%Qiu%NULL%0,                         Jingli%Wang%NULL%0,                         Ying%Liu%NULL%0,                         Yuan%Wei%NULL%0,                         Jia'an%Xia%NULL%0,                         Ting%Yu%NULL%0,                         Xinxin%Zhang%NULL%0,                         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                         Zheng-yi%Ni%NULL%0,                         Zheng-yi%Ni%NULL%0,                         Yu%Hu%NULL%0,                         Wen-hua%Liang%NULL%0,                         Chun-quan%Ou%NULL%0,                         Jian-xing%He%NULL%0,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chun-liang%Lei%NULL%0,                         David S.C.%Hui%NULL%0,                         Bin%Du%NULL%0,                         Lan-juan%Li%NULL%0,                         Guang%Zeng%NULL%0,                         Kwok-Yung%Yuen%NULL%0,                         Ru-chong%Chen%NULL%0,                         Chun-li%Tang%NULL%0,                         Tao%Wang%NULL%0,                         Ping-yan%Chen%NULL%0,                         Jie%Xiang%NULL%0,                         Shi-yue%Li%NULL%0,                         Jin-lin%Wang%NULL%0,                         Zi-jing%Liang%NULL%0,                         Yi-xiang%Peng%NULL%0,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Ya-hua%Hu%NULL%0,                         Peng%Peng%NULL%0,                         Jian-ming%Wang%NULL%0,                         Ji-yang%Liu%NULL%0,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhi-jian%Zheng%NULL%0,                         Shao-qin%Qiu%NULL%0,                         Jie%Luo%NULL%0,                         Chang-jiang%Ye%NULL%0,                         Shao-yong%Zhu%NULL%0,                         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                         Yuanyuan%Xing%NULL%2,                         Yu%Xiao%NULL%2,                         Liping%Deng%NULL%3,                         Qiu%Zhao%NULL%2,                         Hongling%Wang%NULL%2,                         Yong%Xiong%NULL%4,                         Zhenshun%Cheng%NULL%0,                         Shicheng%Gao%NULL%3,                         Ke%Liang%NULL%3,                         Mingqi%Luo%NULL%3,                         Tielong%Chen%NULL%2,                         Shihui%Song%NULL%3,                         Zhiyong%Ma%NULL%3,                         Xiaoping%Chen%NULL%3,                         Ruiying%Zheng%NULL%2,                         Qian%Cao%NULL%2,                         Fan%Wang%fanndywang@foxmail.com%2,                         Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,                         N -B%Yang%NULL%1,                         F%Ding%NULL%1,                         A H Y%Ma%NULL%1,                         Z -Y%Wang%NULL%2,                         Y -F%Shen%NULL%1,                         C -W%Shi%NULL%1,                         X%Lian%NULL%1,                         J -G%Chu%NULL%1,                         L%Chen%chxmin@hotmail.com%1,                         Z -Y%Wang%NULL%0,                         D -W%Ren%NULL%1,                         G -X%Li%NULL%1,                         X -Q%Chen%chxmin@hotmail.com%1,                         H -J%Shen%NULL%1,                         X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,                         Hugues%Spillemaeker%NULL%1,                         Maéva%Kyheng%NULL%1,                         Cassandre%Belin‐Vincent%NULL%1,                         Cédric%Delhaye%NULL%1,                         Adeline%Piérache%NULL%1,                         Tom%Denimal%NULL%1,                         Basile%Verdier%NULL%1,                         Nicolas%Debry%NULL%1,                         Mouhamed%Moussa%NULL%1,                         Guillaume%Schurtz%NULL%1,                         Sina%Porouchani%NULL%1,                         Alessandro%Cosenza%NULL%1,                         Francis%Juthier%NULL%1,                         Thibault%Pamart%NULL%1,                         Marjorie%Richardson%NULL%1,                         Augustin%Coisne%NULL%1,                         Adrien%Hertault%NULL%1,                         Jonathan%Sobocinski%NULL%1,                         Thomas%Modine%NULL%1,                         François%Pontana%NULL%1,                         Alain%Duhamel%NULL%2,                         Julien%Labreuche%NULL%2,                         Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                        Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,                         Yimei%Yin%18256985@qq.com%1,                         Chang%Hu%1391369733@qq.com%3,                         Xing%Liu%375117565@qq.com%1,                         Xingguo%Zhang%zhangxinguo7909@163.com%1,                         Shuliang%Zhou%350925556@qq.com%1,                         Mingzhi%Jian%Jmzhak@aliyun.com%1,                         Haibo%Xu%xuhaibo1120@hotmail.com%0,                         John%Prowle%j.prowle@qmul.ac.uk%1,                         Bo%Hu%hobbier1979@163.com%0,                         Yirong%Li%liyirong838@163.com%1,                         Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                         Xiao-Xin%Wu%NULL%2,                         Xian-Gao%Jiang%NULL%2,                         Kai-Jin%Xu%NULL%2,                         Ling-Jun%Ying%NULL%2,                         Chun-Lian%Ma%NULL%2,                         Shi-Bo%Li%NULL%2,                         Hua-Ying%Wang%NULL%2,                         Sheng%Zhang%NULL%2,                         Hai-Nv%Gao%NULL%2,                         Ji-Fang%Sheng%NULL%2,                         Hong-Liu%Cai%NULL%2,                         Yun-Qing%Qiu%NULL%2,                         Lan-Juan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                         Chang%Hu%NULL%0,                         Linjie%Luo%NULL%2,                         Fang%Fang%NULL%0,                         Yongfeng%Chen%NULL%2,                         Jianguo%Li%NULL%2,                         Zhiyong%Peng%NULL%0,                         Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,                         Chun%Liao%lc7spring@163.com%1,                         Qi-hong%Fan%1187286305@qq.com%1,                         Hong-bo%Chen%hbchen@hust.edu.cn%1,                         Xue-gong%Zhao%NULL%1,                         Zhong-guo%Xie%NULL%1,                         Xi-lin%Li%NULL%1,                         Chun-xi%Chen%NULL%1,                         Xiao-xia%Lu%NULL%1,                         Zhi-sheng%Liu%NULL%1,                         Wei%Lu%NULL%1,                         Chun-bao%Chen%NULL%1,                         Rong%Jiao%NULL%1,                         Ai-ming%Zhang%NULL%1,                         Jin-tang%Wang%NULL%1,                         Xi-wei%Ding%NULL%1,                         Yao-guang%Zeng%NULL%1,                         Li-ping%Cheng%NULL%1,                         Qing-feng%Huang%NULL%1,                         Jiang%Wu%NULL%0,                         Xi-chang%Luo%NULL%1,                         Zhu-jun%Wang%NULL%1,                         Yan-yan%Zhong%NULL%1,                         Yan%Bai%yanbaixh@hust.edu.cn%1,                         Xiao-yan%Wu%xwu@hust.edu.cn%1,                         Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                         Ting%Yu%NULL%0,                         Ronghui%Du%NULL%0,                         Guohui%Fan%NULL%0,                         Ying%Liu%NULL%0,                         Zhibo%Liu%NULL%0,                         Jie%Xiang%NULL%0,                         Yeming%Wang%NULL%0,                         Bin%Song%NULL%0,                         Xiaoying%Gu%NULL%0,                         Lulu%Guan%NULL%0,                         Yuan%Wei%NULL%0,                         Hui%Li%NULL%0,                         Xudong%Wu%NULL%0,                         Jiuyang%Xu%NULL%0,                         Shengjin%Tu%NULL%0,                         Yi%Zhang%NULL%0,                         Hua%Chen%NULL%0,                         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                         Mengqi%Tu%NULL%2,                         Shipei%Wang%NULL%2,                         Sichao%Chen%NULL%2,                         Wei%Zhou%NULL%0,                         Danyang%Chen%NULL%2,                         Lin%Zhou%NULL%2,                         Min%Wang%NULL%2,                         Yan%Zhao%NULL%4,                         Wen%Zeng%NULL%2,                         Qi%Huang%NULL%2,                         Hai'bo%Xu%NULL%2,                         Zeming%Liu%NULL%2,                         Liang%Guo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                         Yuan%Yu%NULL%0,                         Jiqian%Xu%NULL%0,                         Huaqing%Shu%NULL%0,                         Jia'an%Xia%NULL%0,                         Hong%Liu%NULL%0,                         Yongran%Wu%NULL%0,                         Lu%Zhang%NULL%0,                         Zhui%Yu%NULL%0,                         Minghao%Fang%NULL%0,                         Ting%Yu%NULL%0,                         Yaxin%Wang%NULL%0,                         Shangwen%Pan%NULL%0,                         Xiaojing%Zou%NULL%0,                         Shiying%Yuan%NULL%0,                         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,                         Wei-jie%Guan%NULL%2,                         Cai-chen%Li%NULL%3,                         Yi-min%Li%NULL%3,                         Heng-rui%Liang%NULL%3,                         Yi%Zhao%NULL%3,                         Xiao-qing%Liu%NULL%3,                         Ling%Sang%NULL%0,                         Ru-chong%Chen%NULL%0,                         Chun-li%Tang%NULL%0,                         Tao%Wang%NULL%0,                         Wei%Wang%NULL%0,                         Qi-hua%He%NULL%2,                         Zi-sheng%Chen%NULL%3,                         Sook-San%Wong%NULL%2,                         Mark%Zanin%NULL%2,                         Jun%Liu%NULL%2,                         Xin%Xu%NULL%3,                         Jun%Huang%NULL%2,                         Jian-fu%Li%NULL%3,                         Li-min%Ou%NULL%3,                         Bo%Cheng%NULL%3,                         Shan%Xiong%NULL%3,                         Zhan-hong%Xie%NULL%2,                         Zheng-yi%Ni%NULL%0,                         Yu%Hu%NULL%0,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chun-liang%Lei%NULL%0,                         Yi-xiang%Peng%NULL%0,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Ya-hua%Hu%NULL%0,                         Peng%Peng%NULL%0,                         Jian-ming%Wang%NULL%0,                         Ji-yang%Liu%NULL%0,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhi-jian%Zheng%NULL%0,                         Shao-qin%Qiu%NULL%0,                         Jie%Luo%NULL%0,                         Chang-jiang%Ye%NULL%0,                         Shao-yong%Zhu%NULL%0,                         Lin-ling%Cheng%NULL%3,                         Feng%Ye%NULL%5,                         Shi-yue%Li%NULL%0,                         Jin-ping%Zheng%NULL%3,                         Nuo-fu%Zhang%NULL%3,                         Nan-shan%Zhong%NULL%0,                         Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                         Simon A%Jones%NULL%1,                         Jie%Yang%NULL%0,                         Harish%Rajagopalan%NULL%1,                         Luke%O’Donnell%NULL%1,                         Yelena%Chernyak%NULL%1,                         Katie A%Tobin%NULL%1,                         Robert J%Cerfolio%NULL%1,                         Fritz%Francois%NULL%1,                         Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0,                         Stephanie%Bialek%NULL%1,                         Ellen%Boundy%NULL%1,                         Virginia%Bowen%NULL%1,                         Nancy%Chow%NULL%2,                         Amanda%Cohn%NULL%1,                         Nicole%Dowling%NULL%1,                         Sascha%Ellington%NULL%1,                         Ryan%Gierke%NULL%2,                         Aron%Hall%NULL%2,                         Jessica%MacNeil%NULL%1,                         Priti%Patel%NULL%1,                         Georgina%Peacock%NULL%1,                         Tamara%Pilishvili%NULL%2,                         Hilda%Razzaghi%NULL%1,                         Nia%Reed%NULL%1,                         Matthew%Ritchey%NULL%2,                         Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,                         Pedro%Póvoa%NULL%1,                         Vicente%Souza-Dantas%NULL%1,                         André C.%Kalil%NULL%1,                         Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,                         Graeme%MacLaren%NULL%1,                         Philip S%Boonstra%NULL%1,                         Theodore J%Iwashyna%NULL%1,                         Arthur S%Slutsky%NULL%1,                         Eddy%Fan%NULL%1,                         Robert H%Bartlett%NULL%1,                         Joseph E%Tonna%NULL%1,                         Robert%Hyslop%NULL%1,                         Jeffrey J%Fanning%NULL%1,                         Peter T%Rycus%NULL%1,                         Steve J%Hyer%NULL%1,                         Marc M%Anders%NULL%1,                         Cara L%Agerstrand%NULL%1,                         Katarzyna%Hryniewicz%NULL%1,                         Rodrigo%Diaz%NULL%1,                         Roberto%Lorusso%NULL%1,                         Alain%Combes%NULL%1,                         Daniel%Brodie%NULL%4,                         Peta%Alexander%NULL%1,                         Nicholas%Barrett%NULL%1,                         Jan%Bělohlávek%NULL%1,                         Dale%Fisher%NULL%1,                         John%Fraser%NULL%1,                         Ali Ait%Hssain%NULL%1,                         Jae Sung%Jung%NULL%1,                         Michael%McMullan%NULL%1,                         Yatin%Mehta%NULL%1,                         Mark T.%Ogino%NULL%1,                         Matthew L.%Paden%NULL%1,                         Kiran%Shekar%NULL%1,                         Christine%Stead%NULL%1,                         Yasir%Abu-Omar%NULL%1,                         Vanni%Agnoletti%NULL%1,                         Anzila%Akbar%NULL%1,                         Huda%Alfoudri%NULL%1,                         Carlos%Alviar%NULL%1,                         Vladimir%Aronsky%NULL%1,                         Erin%August%NULL%1,                         Georg%Auzinger%NULL%1,                         Hilda%Aveja%NULL%1,                         Rhonda%Bakken%NULL%1,                         Joan%Balcells%NULL%1,                         Sripal%Bangalore%NULL%1,                         Bernard W.%Barnes%NULL%1,                         Alaiza%Bautista%NULL%1,                         Lorraine L.%Bellows%NULL%1,                         Felipe%Beltran%NULL%1,                         Peyman%Benharash%NULL%1,                         Marco%Benni%NULL%1,                         Jennifer%Berg%NULL%1,                         Pietro%Bertini%NULL%1,                         Pablo%Blanco-Schweizer%NULL%1,                         Melissa%Brunsvold%NULL%1,                         Jenny%Budd%NULL%1,                         Debra%Camp%NULL%1,                         Mark%Caridi-Scheible%NULL%0,                         Edmund%Carton%NULL%1,                         Elena%Casanova-Ghosh%NULL%1,                         Anthony%Castleberry%NULL%1,                         Christopher T.%Chipongian%NULL%1,                         Chang Woo%Choi%NULL%1,                         Alessandro%Circelli%NULL%1,                         Elliott%Cohen%NULL%1,                         Michael%Collins%NULL%1,                         Scott%Copus%NULL%1,                         Jill%Coy%NULL%1,                         Brandon%Crist%NULL%1,                         Leonora%Cruz%NULL%1,                         Mirosław%Czuczwar%NULL%1,                         Mani%Daneshmand%NULL%1,                         Daniel%Davis II%NULL%1,                         Kim%De la Cruz%NULL%1,                         Cyndie%Devers%NULL%1,                         Toni%Duculan%NULL%1,                         Lucian%Durham%NULL%1,                         Subbarao%Elapavaluru%NULL%1,                         Carlos V.%Elzo Kraemer%NULL%1,                         EDMÍLSON CARDOSO%Filho%NULL%1,                         Jillian%Fitzgerald%NULL%1,                         Giuseppe%Foti%NULL%1,                         Matthew%Fox%NULL%1,                         David%Fritschen%NULL%1,                         David%Fullerton%NULL%1,                         Elton%Gelandt%NULL%1,                         Stacy%Gerle%NULL%1,                         Marco%Giani%NULL%1,                         Si Guim%Goh%NULL%1,                         Sara%Govener%NULL%1,                         Julie%Grone%NULL%1,                         Miles%Guber%NULL%1,                         Vadim%Gudzenko%NULL%1,                         Daniel%Gutteridge%NULL%1,                         Jennifer%Guy%NULL%1,                         Jonathan%Haft%NULL%1,                         Cameron%Hall%NULL%1,                         Ibrahim Fawzy%Hassan%NULL%1,                         Rubén%Herrán%NULL%1,                         Hitoshi%Hirose%NULL%1,                         Abdulsalam Saif%Ibrahim%NULL%1,                         Don%Igielski%NULL%1,                         Felicia A.%Ivascu%NULL%1,                         Jaume%Izquierdo Blasco%NULL%1,                         Julie%Jackson%NULL%1,                         Harsh%Jain%NULL%1,                         Bhavini%Jaiswal%NULL%1,                         Andrea C.%Johnson%NULL%1,                         Jenniver A.%Jurynec%NULL%1,                         Norma M%Kellter%NULL%1,                         Adam%Kohl%NULL%1,                         Zachary%Kon%NULL%1,                         Markus%Kredel%NULL%1,                         Karen%Kriska%NULL%1,                         Chandra%Kunavarapu%NULL%1,                         Oude%Lansink-Hartgring%NULL%1,                         Jeliene%LaRocque%NULL%1,                         Sharon Beth%Larson%NULL%1,                         Tracie%Layne%NULL%1,                         Stephane%Ledot%NULL%1,                         Napolitan%Lena%NULL%1,                         Jonathan%Lillie%NULL%1,                         Gösta%Lotz%NULL%1,                         Mark%Lucas%NULL%1,                         Lee%Ludwigson%NULL%1,                         Jacinta J.%Maas%NULL%1,                         Joanna%Maertens%NULL%1,                         David%Mast%NULL%1,                         Scott%McCardle%NULL%1,                         Bernard%McDonald%NULL%1,                         Allison%McLarty%NULL%1,                         Chelsea%McMahon%NULL%1,                         Patrick%Meybohm%NULL%1,                         Bart%Meyns%NULL%1,                         Casey%Miller%NULL%1,                         Fernando%Moraes Neto%NULL%1,                         Kelly%Morris%NULL%1,                         Ralf%Muellenbach%NULL%1,                         Meghan%Nicholson%NULL%1,                         Serena%O'Brien%NULL%1,                         Kathryn%O'Keefe%NULL%1,                         Tawnya%Ogston%NULL%1,                         Gary%Oldenburg%NULL%1,                         Fabiana M.%Oliveira%NULL%1,                         Emily%Oppel%NULL%1,                         Diego%Pardo%NULL%2,                         Diego%Pardo%NULL%0,                         Sara J.%Parker%NULL%1,                         Finn M.%Pedersen%NULL%1,                         Crescens%Pellecchia%NULL%1,                         Jose A.S.%Pelligrini%NULL%1,                         Thao T.N.%Pham%NULL%1,                         Ann R.%Phillips%NULL%1,                         Tasneem%Pirani%NULL%1,                         Paweł%Piwowarczyk%NULL%1,                         Robert%Plambeck%NULL%1,                         William%Pruett%NULL%1,                         Brittany%Quandt%NULL%1,                         Kollengode%Ramanathan%NULL%1,                         Alejandro%Rey%NULL%1,                         Christian%Reyher%NULL%1,                         Jordi%Riera del Brio%NULL%1,                         Rachel%Roberts%NULL%1,                         David%Roe%NULL%1,                         Peter P.%Roeleveld%NULL%1,                         Janet%Rudy%NULL%1,                         Luis F.%Rueda%NULL%1,                         Emanuele%Russo%NULL%1,                         Jesús%Sánchez Ballesteros%NULL%1,                         Nancy%Satou%NULL%1,                         Mauricio Guidi%Saueressig%NULL%1,                         Paul C.%Saunders%NULL%1,                         Margaret%Schlotterbeck%NULL%1,                         Patricia%Schwarz%NULL%1,                         Nicole%Scriven%NULL%1,                         Alexis%Serra%NULL%1,                         Mohammad%Shamsah%NULL%1,                         Lucy%Sim%NULL%1,                         Alexandra%Smart%NULL%1,                         Adam%Smith%NULL%1,                         Deane%Smith%NULL%1,                         Maggie%Smith%NULL%1,                         Neel%Sodha%NULL%1,                         Michael%Sonntagbauer%NULL%1,                         Marc%Sorenson%NULL%1,                         Eric B%Stallkamp%NULL%1,                         Allison%Stewart%NULL%1,                         Kathy%Swartz%NULL%1,                         Koji%Takeda%NULL%1,                         Shaun%Thompson%NULL%1,                         Bridget%Toy%NULL%1,                         Divina%Tuazon%NULL%1,                         Makoto%Uchiyama%NULL%1,                         Obiora I.%Udeozo%NULL%1,                         Scott%van Poppel%NULL%1,                         Corey%Ventetuolo%NULL%1,                         Leen%Vercaemst%NULL%1,                         Nguyen V.%Vinh Chau%NULL%1,                         I-Wen%Wang%NULL%1,                         Carrie%Williamson%NULL%1,                         Brock%Wilson%NULL%1,                         Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,                          Dhaval%Kolte%NULL%1,                          Mary E.%Cadigan%NULL%1,                          Elizabeth%Laikhter%NULL%1,                          Kevin%Sinclair%NULL%1,                          Eugene%Pomerantsev%NULL%1,                          Michael A.%Fifer%NULL%1,                          Thoralf M.%Sundt%NULL%1,                          Robert W.%Yeh%NULL%1,                          Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                         Cabrini%Luca%coreGivesNoEmail%1,                         Castelli%Antonio%coreGivesNoEmail%1,                         Cecconi%Maurizio%coreGivesNoEmail%1,                         Cereda%Danilo%coreGivesNoEmail%1,                         Coluccello%Antonio%coreGivesNoEmail%1,                         Foti%Giuseppe%coreGivesNoEmail%1,                         Fumagalli%Roberto%coreGivesNoEmail%1,                         Grasselli%Giacomo%coreGivesNoEmail%1,                         Iotti%Giorgio%coreGivesNoEmail%1,                         Latronico%Nicola%coreGivesNoEmail%1,                         Lorini%Luca%coreGivesNoEmail%1,                         Merler%Stefano%coreGivesNoEmail%1,                         Natalini%Giuseppe%coreGivesNoEmail%1,                         Pesenti%Antonio%coreGivesNoEmail%1,                         Piatti%Alessandra%coreGivesNoEmail%1,                         Ranieri%Marco Vito%coreGivesNoEmail%1,                         Scandroglio%Anna Mara%coreGivesNoEmail%1,                         Storti%Enrico%coreGivesNoEmail%1,                         Zanella%Alberto%coreGivesNoEmail%1,                         Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                          Yeming%Wang%NULL%0,                          Xingwang%Li%NULL%0,                          Lili%Ren%NULL%0,                          Jianping%Zhao%NULL%0,                          Yi%Hu%NULL%0,                          Li%Zhang%NULL%0,                          Guohui%Fan%NULL%0,                          Jiuyang%Xu%NULL%0,                          Xiaoying%Gu%NULL%0,                          Zhenshun%Cheng%NULL%0,                          Ting%Yu%NULL%0,                          Jiaan%Xia%NULL%0,                          Yuan%Wei%NULL%0,                          Wenjuan%Wu%NULL%0,                          Xuelei%Xie%NULL%0,                          Wen%Yin%NULL%0,                          Hui%Li%NULL%0,                          Min%Liu%NULL%0,                          Yan%Xiao%NULL%0,                          Hong%Gao%NULL%0,                          Li%Guo%NULL%0,                          Jungang%Xie%NULL%0,                          Guangfa%Wang%NULL%0,                          Rongmeng%Jiang%NULL%0,                          Zhancheng%Gao%NULL%0,                          Qi%Jin%NULL%0,                          Jianwei%Wang%wangjw28@163.com%0,                          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                          Yi%Xiang%NULL%0,                          Wei%Fang%NULL%0,                          Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                          Boqun%Li%279685211@qq.com%0,                          Boqun%Li%279685211@qq.com%0,                          Yanjun%Hu%huyanjun@163.com%0,                          Chunhui%Lang%NULL%0,                          Daoqiu%Huang%NULL%0,                          Qiuyan%Sun%NULL%0,                          Yan%Xiong%NULL%0,                          Xia%Huang%NULL%0,                          Jinglong%Lv%NULL%0,                          Yaling%Luo%NULL%0,                          Li%Shen%NULL%0,                          Haoran%Yang%NULL%0,                          Gu%Huang%NULL%0,                          Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                          Mark%Caridi-Scheible%NULL%3,                          James M.%Blum%NULL%2,                          Chad%Robichaux%NULL%2,                          Colleen%Kraft%NULL%2,                          Jesse T.%Jacob%NULL%2,                          Craig S.%Jabaley%NULL%2,                          David%Carpenter%NULL%2,                          Roberta%Kaplow%NULL%2,                          Alfonso C.%Hernandez-Romieu%NULL%2,                          Max W.%Adelman%NULL%2,                          Greg S.%Martin%NULL%2,                          Craig M.%Coopersmith%NULL%2,                          David J.%Murphy%NULL%2,                          NULL%NULL%NULL%0,                           S.%Auld%null%1,                           M.% Caridi-Scheible%null%1,                           J. M.% Blum%null%1,                           C. J.% Robichaux%null%1,                           C. S.% Kraft%null%1,                           J. T.% Jacob%null%1,                           C. S.% Jabaley%null%1,                           D.% Carpenter%null%1,                           R.% Kaplow%null%1,                           A. C.% Hernandez%null%1,                           M. W.% Adelman%null%1,                           G. S.% Martin%null%1,                           C. M.% Coopersmith%null%1,                           D. J.% Murphy%null%1,                             % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,                         S.%Auld%null%1,                         M.% Caridi-Scheible%null%1,                         J. M.% Blum%null%1,                         C. J.% Robichaux%null%1,                         C. S.% Kraft%null%1,                         J. T.% Jacob%null%1,                         C. S.% Jabaley%null%1,                         D.% Carpenter%null%1,                         R.% Kaplow%null%1,                         A. C.% Hernandez%null%1,                         M. W.% Adelman%null%1,                         G. S.% Martin%null%1,                         C. M.% Coopersmith%null%1,                         D. J.% Murphy%null%1,                           % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,       S.%Auld%null%1,       M.% Caridi-Scheible%null%1,       J. M.% Blum%null%1,       C. J.% Robichaux%null%1,       C. S.% Kraft%null%1,       J. T.% Jacob%null%1,       C. S.% Jabaley%null%1,       D.% Carpenter%null%1,       R.% Kaplow%null%1,       A. C.% Hernandez%null%1,       M. W.% Adelman%null%1,       G. S.% Martin%null%1,       C. M.% Coopersmith%null%1,       D. J.% Murphy%null%1,         % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                          Bijan J.%Ghassemieh%NULL%2,                          Michelle%Nichols%NULL%2,                          Richard%Kim%NULL%2,                          Keith R.%Jerome%NULL%2,                          Arun K.%Nalla%NULL%2,                          Alexander L.%Greninger%NULL%2,                          Sudhakar%Pipavath%NULL%2,                          Mark M.%Wurfel%NULL%2,                          Laura%Evans%NULL%2,                          Patricia A.%Kritek%NULL%2,                          T. Eoin%West%NULL%2,                          Andrew%Luks%NULL%2,                          Anthony%Gerbino%NULL%2,                          Chris R.%Dale%NULL%2,                          Jason D.%Goldman%NULL%2,                          Shane%O’Mahony%NULL%2,                          Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                          Tangkai%Qi%NULL%1,                          Li%Liu%NULL%1,                          Yun%Ling%NULL%0,                          Zhiping%Qian%NULL%1,                          Tao%Li%NULL%0,                          Feng%Li%NULL%1,                          Qingnian%Xu%NULL%1,                          Yuyi%Zhang%NULL%1,                          Shuibao%Xu%NULL%1,                          Zhigang%Song%NULL%1,                          Yigang%Zeng%NULL%1,                          Yinzhong%Shen%NULL%1,                          Yuxin%Shi%NULL%2,                          Tongyu%Zhu%NULL%2,                          Hongzhou%Lu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                          Min%Zhou%NULL%0,                          Xuan%Dong%NULL%0,                          Jieming%Qu%NULL%0,                          Fengyun%Gong%NULL%0,                          Yang%Han%NULL%0,                          Yang%Qiu%NULL%0,                          Jingli%Wang%NULL%0,                          Ying%Liu%NULL%0,                          Yuan%Wei%NULL%0,                          Jia'an%Xia%NULL%0,                          Ting%Yu%NULL%0,                          Xinxin%Zhang%NULL%0,                          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                          Zheng-yi%Ni%NULL%0,                          Zheng-yi%Ni%NULL%0,                          Yu%Hu%NULL%0,                          Wen-hua%Liang%NULL%0,                          Chun-quan%Ou%NULL%0,                          Jian-xing%He%NULL%0,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chun-liang%Lei%NULL%0,                          David S.C.%Hui%NULL%0,                          Bin%Du%NULL%0,                          Lan-juan%Li%NULL%0,                          Guang%Zeng%NULL%0,                          Kwok-Yung%Yuen%NULL%0,                          Ru-chong%Chen%NULL%0,                          Chun-li%Tang%NULL%0,                          Tao%Wang%NULL%0,                          Ping-yan%Chen%NULL%0,                          Jie%Xiang%NULL%0,                          Shi-yue%Li%NULL%0,                          Jin-lin%Wang%NULL%0,                          Zi-jing%Liang%NULL%0,                          Yi-xiang%Peng%NULL%0,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Ya-hua%Hu%NULL%0,                          Peng%Peng%NULL%0,                          Jian-ming%Wang%NULL%0,                          Ji-yang%Liu%NULL%0,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhi-jian%Zheng%NULL%0,                          Shao-qin%Qiu%NULL%0,                          Jie%Luo%NULL%0,                          Chang-jiang%Ye%NULL%0,                          Shao-yong%Zhu%NULL%0,                          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                          Yuanyuan%Xing%NULL%2,                          Yu%Xiao%NULL%2,                          Liping%Deng%NULL%3,                          Qiu%Zhao%NULL%2,                          Hongling%Wang%NULL%2,                          Yong%Xiong%NULL%4,                          Zhenshun%Cheng%NULL%0,                          Shicheng%Gao%NULL%3,                          Ke%Liang%NULL%3,                          Mingqi%Luo%NULL%3,                          Tielong%Chen%NULL%2,                          Shihui%Song%NULL%3,                          Zhiyong%Ma%NULL%3,                          Xiaoping%Chen%NULL%3,                          Ruiying%Zheng%NULL%2,                          Qian%Cao%NULL%2,                          Fan%Wang%fanndywang@foxmail.com%2,                          Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,                          N -B%Yang%NULL%1,                          F%Ding%NULL%1,                          A H Y%Ma%NULL%1,                          Z -Y%Wang%NULL%2,                          Y -F%Shen%NULL%1,                          C -W%Shi%NULL%1,                          X%Lian%NULL%1,                          J -G%Chu%NULL%1,                          L%Chen%chxmin@hotmail.com%1,                          Z -Y%Wang%NULL%0,                          D -W%Ren%NULL%1,                          G -X%Li%NULL%1,                          X -Q%Chen%chxmin@hotmail.com%1,                          H -J%Shen%NULL%1,                          X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,                          Hugues%Spillemaeker%NULL%1,                          Maéva%Kyheng%NULL%1,                          Cassandre%Belin‐Vincent%NULL%1,                          Cédric%Delhaye%NULL%1,                          Adeline%Piérache%NULL%1,                          Tom%Denimal%NULL%1,                          Basile%Verdier%NULL%1,                          Nicolas%Debry%NULL%1,                          Mouhamed%Moussa%NULL%1,                          Guillaume%Schurtz%NULL%1,                          Sina%Porouchani%NULL%1,                          Alessandro%Cosenza%NULL%1,                          Francis%Juthier%NULL%1,                          Thibault%Pamart%NULL%1,                          Marjorie%Richardson%NULL%1,                          Augustin%Coisne%NULL%1,                          Adrien%Hertault%NULL%1,                          Jonathan%Sobocinski%NULL%1,                          Thomas%Modine%NULL%1,                          François%Pontana%NULL%1,                          Alain%Duhamel%NULL%2,                          Julien%Labreuche%NULL%2,                          Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                         Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                         Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                         Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,                          Yimei%Yin%18256985@qq.com%1,                          Chang%Hu%1391369733@qq.com%3,                          Xing%Liu%375117565@qq.com%1,                          Xingguo%Zhang%zhangxinguo7909@163.com%1,                          Shuliang%Zhou%350925556@qq.com%1,                          Mingzhi%Jian%Jmzhak@aliyun.com%1,                          Haibo%Xu%xuhaibo1120@hotmail.com%0,                          John%Prowle%j.prowle@qmul.ac.uk%1,                          Bo%Hu%hobbier1979@163.com%0,                          Yirong%Li%liyirong838@163.com%1,                          Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                          Xiao-Xin%Wu%NULL%2,                          Xian-Gao%Jiang%NULL%2,                          Kai-Jin%Xu%NULL%2,                          Ling-Jun%Ying%NULL%2,                          Chun-Lian%Ma%NULL%2,                          Shi-Bo%Li%NULL%2,                          Hua-Ying%Wang%NULL%2,                          Sheng%Zhang%NULL%2,                          Hai-Nv%Gao%NULL%2,                          Ji-Fang%Sheng%NULL%2,                          Hong-Liu%Cai%NULL%2,                          Yun-Qing%Qiu%NULL%2,                          Lan-Juan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                          Chang%Hu%NULL%0,                          Linjie%Luo%NULL%2,                          Fang%Fang%NULL%0,                          Yongfeng%Chen%NULL%2,                          Jianguo%Li%NULL%2,                          Zhiyong%Peng%NULL%0,                          Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,                          Chun%Liao%lc7spring@163.com%1,                          Qi-hong%Fan%1187286305@qq.com%1,                          Hong-bo%Chen%hbchen@hust.edu.cn%1,                          Xue-gong%Zhao%NULL%1,                          Zhong-guo%Xie%NULL%1,                          Xi-lin%Li%NULL%1,                          Chun-xi%Chen%NULL%1,                          Xiao-xia%Lu%NULL%1,                          Zhi-sheng%Liu%NULL%1,                          Wei%Lu%NULL%1,                          Chun-bao%Chen%NULL%1,                          Rong%Jiao%NULL%1,                          Ai-ming%Zhang%NULL%1,                          Jin-tang%Wang%NULL%1,                          Xi-wei%Ding%NULL%1,                          Yao-guang%Zeng%NULL%1,                          Li-ping%Cheng%NULL%1,                          Qing-feng%Huang%NULL%1,                          Jiang%Wu%NULL%0,                          Xi-chang%Luo%NULL%1,                          Zhu-jun%Wang%NULL%1,                          Yan-yan%Zhong%NULL%1,                          Yan%Bai%yanbaixh@hust.edu.cn%1,                          Xiao-yan%Wu%xwu@hust.edu.cn%1,                          Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                          Ting%Yu%NULL%0,                          Ronghui%Du%NULL%0,                          Guohui%Fan%NULL%0,                          Ying%Liu%NULL%0,                          Zhibo%Liu%NULL%0,                          Jie%Xiang%NULL%0,                          Yeming%Wang%NULL%0,                          Bin%Song%NULL%0,                          Xiaoying%Gu%NULL%0,                          Lulu%Guan%NULL%0,                          Yuan%Wei%NULL%0,                          Hui%Li%NULL%0,                          Xudong%Wu%NULL%0,                          Jiuyang%Xu%NULL%0,                          Shengjin%Tu%NULL%0,                          Yi%Zhang%NULL%0,                          Hua%Chen%NULL%0,                          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                          Mengqi%Tu%NULL%2,                          Shipei%Wang%NULL%2,                          Sichao%Chen%NULL%2,                          Wei%Zhou%NULL%0,                          Danyang%Chen%NULL%2,                          Lin%Zhou%NULL%2,                          Min%Wang%NULL%2,                          Yan%Zhao%NULL%4,                          Wen%Zeng%NULL%2,                          Qi%Huang%NULL%2,                          Hai'bo%Xu%NULL%2,                          Zeming%Liu%NULL%2,                          Liang%Guo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                          Yuan%Yu%NULL%0,                          Jiqian%Xu%NULL%0,                          Huaqing%Shu%NULL%0,                          Jia'an%Xia%NULL%0,                          Hong%Liu%NULL%0,                          Yongran%Wu%NULL%0,                          Lu%Zhang%NULL%0,                          Zhui%Yu%NULL%0,                          Minghao%Fang%NULL%0,                          Ting%Yu%NULL%0,                          Yaxin%Wang%NULL%0,                          Shangwen%Pan%NULL%0,                          Xiaojing%Zou%NULL%0,                          Shiying%Yuan%NULL%0,                          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,                          Wei-jie%Guan%NULL%2,                          Cai-chen%Li%NULL%3,                          Yi-min%Li%NULL%3,                          Heng-rui%Liang%NULL%3,                          Yi%Zhao%NULL%3,                          Xiao-qing%Liu%NULL%3,                          Ling%Sang%NULL%0,                          Ru-chong%Chen%NULL%0,                          Chun-li%Tang%NULL%0,                          Tao%Wang%NULL%0,                          Wei%Wang%NULL%0,                          Qi-hua%He%NULL%2,                          Zi-sheng%Chen%NULL%3,                          Sook-San%Wong%NULL%2,                          Mark%Zanin%NULL%2,                          Jun%Liu%NULL%2,                          Xin%Xu%NULL%3,                          Jun%Huang%NULL%2,                          Jian-fu%Li%NULL%3,                          Li-min%Ou%NULL%3,                          Bo%Cheng%NULL%3,                          Shan%Xiong%NULL%3,                          Zhan-hong%Xie%NULL%2,                          Zheng-yi%Ni%NULL%0,                          Yu%Hu%NULL%0,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chun-liang%Lei%NULL%0,                          Yi-xiang%Peng%NULL%0,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Ya-hua%Hu%NULL%0,                          Peng%Peng%NULL%0,                          Jian-ming%Wang%NULL%0,                          Ji-yang%Liu%NULL%0,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhi-jian%Zheng%NULL%0,                          Shao-qin%Qiu%NULL%0,                          Jie%Luo%NULL%0,                          Chang-jiang%Ye%NULL%0,                          Shao-yong%Zhu%NULL%0,                          Lin-ling%Cheng%NULL%3,                          Feng%Ye%NULL%5,                          Shi-yue%Li%NULL%0,                          Jin-ping%Zheng%NULL%3,                          Nuo-fu%Zhang%NULL%3,                          Nan-shan%Zhong%NULL%0,                          Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                          Simon A%Jones%NULL%1,                          Jie%Yang%NULL%0,                          Harish%Rajagopalan%NULL%1,                          Luke%O’Donnell%NULL%1,                          Yelena%Chernyak%NULL%1,                          Katie A%Tobin%NULL%1,                          Robert J%Cerfolio%NULL%1,                          Fritz%Francois%NULL%1,                          Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0,                          Stephanie%Bialek%NULL%1,                          Ellen%Boundy%NULL%1,                          Virginia%Bowen%NULL%1,                          Nancy%Chow%NULL%2,                          Amanda%Cohn%NULL%1,                          Nicole%Dowling%NULL%1,                          Sascha%Ellington%NULL%1,                          Ryan%Gierke%NULL%2,                          Aron%Hall%NULL%2,                          Jessica%MacNeil%NULL%1,                          Priti%Patel%NULL%1,                          Georgina%Peacock%NULL%1,                          Tamara%Pilishvili%NULL%2,                          Hilda%Razzaghi%NULL%1,                          Nia%Reed%NULL%1,                          Matthew%Ritchey%NULL%2,                          Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,                          Pedro%Póvoa%NULL%1,                          Vicente%Souza-Dantas%NULL%1,                          André C.%Kalil%NULL%1,                          Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,                          Graeme%MacLaren%NULL%1,                          Philip S%Boonstra%NULL%1,                          Theodore J%Iwashyna%NULL%1,                          Arthur S%Slutsky%NULL%1,                          Eddy%Fan%NULL%1,                          Robert H%Bartlett%NULL%1,                          Joseph E%Tonna%NULL%1,                          Robert%Hyslop%NULL%1,                          Jeffrey J%Fanning%NULL%1,                          Peter T%Rycus%NULL%1,                          Steve J%Hyer%NULL%1,                          Marc M%Anders%NULL%1,                          Cara L%Agerstrand%NULL%1,                          Katarzyna%Hryniewicz%NULL%1,                          Rodrigo%Diaz%NULL%1,                          Roberto%Lorusso%NULL%1,                          Alain%Combes%NULL%1,                          Daniel%Brodie%NULL%4,                          Peta%Alexander%NULL%1,                          Nicholas%Barrett%NULL%1,                          Jan%Bělohlávek%NULL%1,                          Dale%Fisher%NULL%1,                          John%Fraser%NULL%1,                          Ali Ait%Hssain%NULL%1,                          Jae Sung%Jung%NULL%1,                          Michael%McMullan%NULL%1,                          Yatin%Mehta%NULL%1,                          Mark T.%Ogino%NULL%1,                          Matthew L.%Paden%NULL%1,                          Kiran%Shekar%NULL%1,                          Christine%Stead%NULL%1,                          Yasir%Abu-Omar%NULL%1,                          Vanni%Agnoletti%NULL%1,                          Anzila%Akbar%NULL%1,                          Huda%Alfoudri%NULL%1,                          Carlos%Alviar%NULL%1,                          Vladimir%Aronsky%NULL%1,                          Erin%August%NULL%1,                          Georg%Auzinger%NULL%1,                          Hilda%Aveja%NULL%1,                          Rhonda%Bakken%NULL%1,                          Joan%Balcells%NULL%1,                          Sripal%Bangalore%NULL%1,                          Bernard W.%Barnes%NULL%1,                          Alaiza%Bautista%NULL%1,                          Lorraine L.%Bellows%NULL%1,                          Felipe%Beltran%NULL%1,                          Peyman%Benharash%NULL%1,                          Marco%Benni%NULL%1,                          Jennifer%Berg%NULL%1,                          Pietro%Bertini%NULL%1,                          Pablo%Blanco-Schweizer%NULL%1,                          Melissa%Brunsvold%NULL%1,                          Jenny%Budd%NULL%1,                          Debra%Camp%NULL%1,                          Mark%Caridi-Scheible%NULL%0,                          Edmund%Carton%NULL%1,                          Elena%Casanova-Ghosh%NULL%1,                          Anthony%Castleberry%NULL%1,                          Christopher T.%Chipongian%NULL%1,                          Chang Woo%Choi%NULL%1,                          Alessandro%Circelli%NULL%1,                          Elliott%Cohen%NULL%1,                          Michael%Collins%NULL%1,                          Scott%Copus%NULL%1,                          Jill%Coy%NULL%1,                          Brandon%Crist%NULL%1,                          Leonora%Cruz%NULL%1,                          Mirosław%Czuczwar%NULL%1,                          Mani%Daneshmand%NULL%1,                          Daniel%Davis II%NULL%1,                          Kim%De la Cruz%NULL%1,                          Cyndie%Devers%NULL%1,                          Toni%Duculan%NULL%1,                          Lucian%Durham%NULL%1,                          Subbarao%Elapavaluru%NULL%1,                          Carlos V.%Elzo Kraemer%NULL%1,                          EDMÍLSON CARDOSO%Filho%NULL%1,                          Jillian%Fitzgerald%NULL%1,                          Giuseppe%Foti%NULL%1,                          Matthew%Fox%NULL%1,                          David%Fritschen%NULL%1,                          David%Fullerton%NULL%1,                          Elton%Gelandt%NULL%1,                          Stacy%Gerle%NULL%1,                          Marco%Giani%NULL%1,                          Si Guim%Goh%NULL%1,                          Sara%Govener%NULL%1,                          Julie%Grone%NULL%1,                          Miles%Guber%NULL%1,                          Vadim%Gudzenko%NULL%1,                          Daniel%Gutteridge%NULL%1,                          Jennifer%Guy%NULL%1,                          Jonathan%Haft%NULL%1,                          Cameron%Hall%NULL%1,                          Ibrahim Fawzy%Hassan%NULL%1,                          Rubén%Herrán%NULL%1,                          Hitoshi%Hirose%NULL%1,                          Abdulsalam Saif%Ibrahim%NULL%1,                          Don%Igielski%NULL%1,                          Felicia A.%Ivascu%NULL%1,                          Jaume%Izquierdo Blasco%NULL%1,                          Julie%Jackson%NULL%1,                          Harsh%Jain%NULL%1,                          Bhavini%Jaiswal%NULL%1,                          Andrea C.%Johnson%NULL%1,                          Jenniver A.%Jurynec%NULL%1,                          Norma M%Kellter%NULL%1,                          Adam%Kohl%NULL%1,                          Zachary%Kon%NULL%1,                          Markus%Kredel%NULL%1,                          Karen%Kriska%NULL%1,                          Chandra%Kunavarapu%NULL%1,                          Oude%Lansink-Hartgring%NULL%1,                          Jeliene%LaRocque%NULL%1,                          Sharon Beth%Larson%NULL%1,                          Tracie%Layne%NULL%1,                          Stephane%Ledot%NULL%1,                          Napolitan%Lena%NULL%1,                          Jonathan%Lillie%NULL%1,                          Gösta%Lotz%NULL%1,                          Mark%Lucas%NULL%1,                          Lee%Ludwigson%NULL%1,                          Jacinta J.%Maas%NULL%1,                          Joanna%Maertens%NULL%1,                          David%Mast%NULL%1,                          Scott%McCardle%NULL%1,                          Bernard%McDonald%NULL%1,                          Allison%McLarty%NULL%1,                          Chelsea%McMahon%NULL%1,                          Patrick%Meybohm%NULL%1,                          Bart%Meyns%NULL%1,                          Casey%Miller%NULL%1,                          Fernando%Moraes Neto%NULL%1,                          Kelly%Morris%NULL%1,                          Ralf%Muellenbach%NULL%1,                          Meghan%Nicholson%NULL%1,                          Serena%O'Brien%NULL%1,                          Kathryn%O'Keefe%NULL%1,                          Tawnya%Ogston%NULL%1,                          Gary%Oldenburg%NULL%1,                          Fabiana M.%Oliveira%NULL%1,                          Emily%Oppel%NULL%1,                          Diego%Pardo%NULL%2,                          Diego%Pardo%NULL%0,                          Sara J.%Parker%NULL%1,                          Finn M.%Pedersen%NULL%1,                          Crescens%Pellecchia%NULL%1,                          Jose A.S.%Pelligrini%NULL%1,                          Thao T.N.%Pham%NULL%1,                          Ann R.%Phillips%NULL%1,                          Tasneem%Pirani%NULL%1,                          Paweł%Piwowarczyk%NULL%1,                          Robert%Plambeck%NULL%1,                          William%Pruett%NULL%1,                          Brittany%Quandt%NULL%1,                          Kollengode%Ramanathan%NULL%1,                          Alejandro%Rey%NULL%1,                          Christian%Reyher%NULL%1,                          Jordi%Riera del Brio%NULL%1,                          Rachel%Roberts%NULL%1,                          David%Roe%NULL%1,                          Peter P.%Roeleveld%NULL%1,                          Janet%Rudy%NULL%1,                          Luis F.%Rueda%NULL%1,                          Emanuele%Russo%NULL%1,                          Jesús%Sánchez Ballesteros%NULL%1,                          Nancy%Satou%NULL%1,                          Mauricio Guidi%Saueressig%NULL%1,                          Paul C.%Saunders%NULL%1,                          Margaret%Schlotterbeck%NULL%1,                          Patricia%Schwarz%NULL%1,                          Nicole%Scriven%NULL%1,                          Alexis%Serra%NULL%1,                          Mohammad%Shamsah%NULL%1,                          Lucy%Sim%NULL%1,                          Alexandra%Smart%NULL%1,                          Adam%Smith%NULL%1,                          Deane%Smith%NULL%1,                          Maggie%Smith%NULL%1,                          Neel%Sodha%NULL%1,                          Michael%Sonntagbauer%NULL%1,                          Marc%Sorenson%NULL%1,                          Eric B%Stallkamp%NULL%1,                          Allison%Stewart%NULL%1,                          Kathy%Swartz%NULL%1,                          Koji%Takeda%NULL%1,                          Shaun%Thompson%NULL%1,                          Bridget%Toy%NULL%1,                          Divina%Tuazon%NULL%1,                          Makoto%Uchiyama%NULL%1,                          Obiora I.%Udeozo%NULL%1,                          Scott%van Poppel%NULL%1,                          Corey%Ventetuolo%NULL%1,                          Leen%Vercaemst%NULL%1,                          Nguyen V.%Vinh Chau%NULL%1,                          I-Wen%Wang%NULL%1,                          Carrie%Williamson%NULL%1,                          Brock%Wilson%NULL%1,                          Helen%Winkels%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2685,6 +3075,9 @@
       <c r="I1" t="s">
         <v>130</v>
       </c>
+      <c r="J1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2700,7 +3093,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>609</v>
+        <v>380</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2709,10 +3102,13 @@
         <v>263</v>
       </c>
       <c r="H2" t="s">
-        <v>264</v>
+        <v>638</v>
       </c>
       <c r="I2" t="s">
-        <v>578</v>
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2729,7 +3125,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>610</v>
+        <v>742</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -2742,6 +3138,9 @@
       </c>
       <c r="I3" t="s">
         <v>580</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2758,7 +3157,7 @@
         <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>611</v>
+        <v>743</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2771,6 +3170,9 @@
       </c>
       <c r="I4" t="s">
         <v>578</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2787,7 +3189,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>612</v>
+        <v>744</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2800,6 +3202,9 @@
       </c>
       <c r="I5" t="s">
         <v>583</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2816,7 +3221,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>613</v>
+        <v>745</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -2829,6 +3234,9 @@
       </c>
       <c r="I6" t="s">
         <v>580</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2845,7 +3253,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>614</v>
+        <v>385</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2854,10 +3262,13 @@
         <v>263</v>
       </c>
       <c r="H7" t="s">
-        <v>271</v>
+        <v>638</v>
       </c>
       <c r="I7" t="s">
-        <v>578</v>
+        <v>103</v>
+      </c>
+      <c r="J7" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2874,7 +3285,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>615</v>
+        <v>746</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2887,6 +3298,9 @@
       </c>
       <c r="I8" t="s">
         <v>580</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2903,7 +3317,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>616</v>
+        <v>747</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2916,6 +3330,9 @@
       </c>
       <c r="I9" t="s">
         <v>580</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2932,7 +3349,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>617</v>
+        <v>748</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -2945,6 +3362,9 @@
       </c>
       <c r="I10" t="s">
         <v>583</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2961,7 +3381,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>618</v>
+        <v>749</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -2974,6 +3394,9 @@
       </c>
       <c r="I11" t="s">
         <v>583</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2990,7 +3413,7 @@
         <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>619</v>
+        <v>750</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -3003,6 +3426,9 @@
       </c>
       <c r="I12" t="s">
         <v>580</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3019,7 +3445,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>620</v>
+        <v>751</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -3032,6 +3458,9 @@
       </c>
       <c r="I13" t="s">
         <v>580</v>
+      </c>
+      <c r="J13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3048,7 +3477,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>621</v>
+        <v>752</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -3061,6 +3490,9 @@
       </c>
       <c r="I14" t="s">
         <v>580</v>
+      </c>
+      <c r="J14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3077,7 +3509,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>622</v>
+        <v>753</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -3090,6 +3522,9 @@
       </c>
       <c r="I15" t="s">
         <v>580</v>
+      </c>
+      <c r="J15" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3106,7 +3541,7 @@
         <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>623</v>
+        <v>754</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -3119,6 +3554,9 @@
       </c>
       <c r="I16" t="s">
         <v>578</v>
+      </c>
+      <c r="J16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -3135,7 +3573,7 @@
         <v>395</v>
       </c>
       <c r="E17" t="s">
-        <v>624</v>
+        <v>755</v>
       </c>
       <c r="F17" t="s">
         <v>86</v>
@@ -3148,6 +3586,9 @@
       </c>
       <c r="I17" t="s">
         <v>596</v>
+      </c>
+      <c r="J17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -3164,7 +3605,7 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>625</v>
+        <v>397</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -3176,7 +3617,10 @@
         <v>284</v>
       </c>
       <c r="I18" t="s">
-        <v>578</v>
+        <v>103</v>
+      </c>
+      <c r="J18" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3193,7 +3637,7 @@
         <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>626</v>
+        <v>756</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
@@ -3206,6 +3650,9 @@
       </c>
       <c r="I19" t="s">
         <v>580</v>
+      </c>
+      <c r="J19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -3222,7 +3669,7 @@
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>627</v>
+        <v>757</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -3235,6 +3682,9 @@
       </c>
       <c r="I20" t="s">
         <v>583</v>
+      </c>
+      <c r="J20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3251,7 +3701,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>628</v>
+        <v>758</v>
       </c>
       <c r="F21" t="s">
         <v>98</v>
@@ -3264,6 +3714,9 @@
       </c>
       <c r="I21" t="s">
         <v>596</v>
+      </c>
+      <c r="J21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3280,7 +3733,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>629</v>
+        <v>759</v>
       </c>
       <c r="F22" t="s">
         <v>101</v>
@@ -3293,6 +3746,9 @@
       </c>
       <c r="I22" t="s">
         <v>583</v>
+      </c>
+      <c r="J22" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3309,7 +3765,7 @@
         <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>630</v>
+        <v>760</v>
       </c>
       <c r="F23" t="s">
         <v>104</v>
@@ -3322,6 +3778,9 @@
       </c>
       <c r="I23" t="s">
         <v>583</v>
+      </c>
+      <c r="J23" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3338,7 +3797,7 @@
         <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>631</v>
+        <v>761</v>
       </c>
       <c r="F24" t="s">
         <v>108</v>
@@ -3351,6 +3810,9 @@
       </c>
       <c r="I24" t="s">
         <v>583</v>
+      </c>
+      <c r="J24" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3367,7 +3829,7 @@
         <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>632</v>
+        <v>762</v>
       </c>
       <c r="F25" t="s">
         <v>111</v>
@@ -3380,6 +3842,9 @@
       </c>
       <c r="I25" t="s">
         <v>580</v>
+      </c>
+      <c r="J25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -3396,7 +3861,7 @@
         <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>633</v>
+        <v>763</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -3409,6 +3874,9 @@
       </c>
       <c r="I26" t="s">
         <v>580</v>
+      </c>
+      <c r="J26" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3425,7 +3893,7 @@
         <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>634</v>
+        <v>764</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -3438,6 +3906,9 @@
       </c>
       <c r="I27" t="s">
         <v>580</v>
+      </c>
+      <c r="J27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3454,7 +3925,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>635</v>
+        <v>765</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
@@ -3467,6 +3938,9 @@
       </c>
       <c r="I28" t="s">
         <v>583</v>
+      </c>
+      <c r="J28" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3483,7 +3957,7 @@
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>636</v>
+        <v>766</v>
       </c>
       <c r="F29" t="s">
         <v>125</v>
@@ -3496,6 +3970,9 @@
       </c>
       <c r="I29" t="s">
         <v>583</v>
+      </c>
+      <c r="J29" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/48.xlsx
+++ b/Covid_19_Dataset_and_References/References/48.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5313" uniqueCount="817">
   <si>
     <t>Doi</t>
   </si>
@@ -2738,6 +2738,156 @@
   </si>
   <si>
     <t>[Ryan P%Barbaro%NULL%2,                          Graeme%MacLaren%NULL%1,                          Philip S%Boonstra%NULL%1,                          Theodore J%Iwashyna%NULL%1,                          Arthur S%Slutsky%NULL%1,                          Eddy%Fan%NULL%1,                          Robert H%Bartlett%NULL%1,                          Joseph E%Tonna%NULL%1,                          Robert%Hyslop%NULL%1,                          Jeffrey J%Fanning%NULL%1,                          Peter T%Rycus%NULL%1,                          Steve J%Hyer%NULL%1,                          Marc M%Anders%NULL%1,                          Cara L%Agerstrand%NULL%1,                          Katarzyna%Hryniewicz%NULL%1,                          Rodrigo%Diaz%NULL%1,                          Roberto%Lorusso%NULL%1,                          Alain%Combes%NULL%1,                          Daniel%Brodie%NULL%4,                          Peta%Alexander%NULL%1,                          Nicholas%Barrett%NULL%1,                          Jan%Bělohlávek%NULL%1,                          Dale%Fisher%NULL%1,                          John%Fraser%NULL%1,                          Ali Ait%Hssain%NULL%1,                          Jae Sung%Jung%NULL%1,                          Michael%McMullan%NULL%1,                          Yatin%Mehta%NULL%1,                          Mark T.%Ogino%NULL%1,                          Matthew L.%Paden%NULL%1,                          Kiran%Shekar%NULL%1,                          Christine%Stead%NULL%1,                          Yasir%Abu-Omar%NULL%1,                          Vanni%Agnoletti%NULL%1,                          Anzila%Akbar%NULL%1,                          Huda%Alfoudri%NULL%1,                          Carlos%Alviar%NULL%1,                          Vladimir%Aronsky%NULL%1,                          Erin%August%NULL%1,                          Georg%Auzinger%NULL%1,                          Hilda%Aveja%NULL%1,                          Rhonda%Bakken%NULL%1,                          Joan%Balcells%NULL%1,                          Sripal%Bangalore%NULL%1,                          Bernard W.%Barnes%NULL%1,                          Alaiza%Bautista%NULL%1,                          Lorraine L.%Bellows%NULL%1,                          Felipe%Beltran%NULL%1,                          Peyman%Benharash%NULL%1,                          Marco%Benni%NULL%1,                          Jennifer%Berg%NULL%1,                          Pietro%Bertini%NULL%1,                          Pablo%Blanco-Schweizer%NULL%1,                          Melissa%Brunsvold%NULL%1,                          Jenny%Budd%NULL%1,                          Debra%Camp%NULL%1,                          Mark%Caridi-Scheible%NULL%0,                          Edmund%Carton%NULL%1,                          Elena%Casanova-Ghosh%NULL%1,                          Anthony%Castleberry%NULL%1,                          Christopher T.%Chipongian%NULL%1,                          Chang Woo%Choi%NULL%1,                          Alessandro%Circelli%NULL%1,                          Elliott%Cohen%NULL%1,                          Michael%Collins%NULL%1,                          Scott%Copus%NULL%1,                          Jill%Coy%NULL%1,                          Brandon%Crist%NULL%1,                          Leonora%Cruz%NULL%1,                          Mirosław%Czuczwar%NULL%1,                          Mani%Daneshmand%NULL%1,                          Daniel%Davis II%NULL%1,                          Kim%De la Cruz%NULL%1,                          Cyndie%Devers%NULL%1,                          Toni%Duculan%NULL%1,                          Lucian%Durham%NULL%1,                          Subbarao%Elapavaluru%NULL%1,                          Carlos V.%Elzo Kraemer%NULL%1,                          EDMÍLSON CARDOSO%Filho%NULL%1,                          Jillian%Fitzgerald%NULL%1,                          Giuseppe%Foti%NULL%1,                          Matthew%Fox%NULL%1,                          David%Fritschen%NULL%1,                          David%Fullerton%NULL%1,                          Elton%Gelandt%NULL%1,                          Stacy%Gerle%NULL%1,                          Marco%Giani%NULL%1,                          Si Guim%Goh%NULL%1,                          Sara%Govener%NULL%1,                          Julie%Grone%NULL%1,                          Miles%Guber%NULL%1,                          Vadim%Gudzenko%NULL%1,                          Daniel%Gutteridge%NULL%1,                          Jennifer%Guy%NULL%1,                          Jonathan%Haft%NULL%1,                          Cameron%Hall%NULL%1,                          Ibrahim Fawzy%Hassan%NULL%1,                          Rubén%Herrán%NULL%1,                          Hitoshi%Hirose%NULL%1,                          Abdulsalam Saif%Ibrahim%NULL%1,                          Don%Igielski%NULL%1,                          Felicia A.%Ivascu%NULL%1,                          Jaume%Izquierdo Blasco%NULL%1,                          Julie%Jackson%NULL%1,                          Harsh%Jain%NULL%1,                          Bhavini%Jaiswal%NULL%1,                          Andrea C.%Johnson%NULL%1,                          Jenniver A.%Jurynec%NULL%1,                          Norma M%Kellter%NULL%1,                          Adam%Kohl%NULL%1,                          Zachary%Kon%NULL%1,                          Markus%Kredel%NULL%1,                          Karen%Kriska%NULL%1,                          Chandra%Kunavarapu%NULL%1,                          Oude%Lansink-Hartgring%NULL%1,                          Jeliene%LaRocque%NULL%1,                          Sharon Beth%Larson%NULL%1,                          Tracie%Layne%NULL%1,                          Stephane%Ledot%NULL%1,                          Napolitan%Lena%NULL%1,                          Jonathan%Lillie%NULL%1,                          Gösta%Lotz%NULL%1,                          Mark%Lucas%NULL%1,                          Lee%Ludwigson%NULL%1,                          Jacinta J.%Maas%NULL%1,                          Joanna%Maertens%NULL%1,                          David%Mast%NULL%1,                          Scott%McCardle%NULL%1,                          Bernard%McDonald%NULL%1,                          Allison%McLarty%NULL%1,                          Chelsea%McMahon%NULL%1,                          Patrick%Meybohm%NULL%1,                          Bart%Meyns%NULL%1,                          Casey%Miller%NULL%1,                          Fernando%Moraes Neto%NULL%1,                          Kelly%Morris%NULL%1,                          Ralf%Muellenbach%NULL%1,                          Meghan%Nicholson%NULL%1,                          Serena%O'Brien%NULL%1,                          Kathryn%O'Keefe%NULL%1,                          Tawnya%Ogston%NULL%1,                          Gary%Oldenburg%NULL%1,                          Fabiana M.%Oliveira%NULL%1,                          Emily%Oppel%NULL%1,                          Diego%Pardo%NULL%2,                          Diego%Pardo%NULL%0,                          Sara J.%Parker%NULL%1,                          Finn M.%Pedersen%NULL%1,                          Crescens%Pellecchia%NULL%1,                          Jose A.S.%Pelligrini%NULL%1,                          Thao T.N.%Pham%NULL%1,                          Ann R.%Phillips%NULL%1,                          Tasneem%Pirani%NULL%1,                          Paweł%Piwowarczyk%NULL%1,                          Robert%Plambeck%NULL%1,                          William%Pruett%NULL%1,                          Brittany%Quandt%NULL%1,                          Kollengode%Ramanathan%NULL%1,                          Alejandro%Rey%NULL%1,                          Christian%Reyher%NULL%1,                          Jordi%Riera del Brio%NULL%1,                          Rachel%Roberts%NULL%1,                          David%Roe%NULL%1,                          Peter P.%Roeleveld%NULL%1,                          Janet%Rudy%NULL%1,                          Luis F.%Rueda%NULL%1,                          Emanuele%Russo%NULL%1,                          Jesús%Sánchez Ballesteros%NULL%1,                          Nancy%Satou%NULL%1,                          Mauricio Guidi%Saueressig%NULL%1,                          Paul C.%Saunders%NULL%1,                          Margaret%Schlotterbeck%NULL%1,                          Patricia%Schwarz%NULL%1,                          Nicole%Scriven%NULL%1,                          Alexis%Serra%NULL%1,                          Mohammad%Shamsah%NULL%1,                          Lucy%Sim%NULL%1,                          Alexandra%Smart%NULL%1,                          Adam%Smith%NULL%1,                          Deane%Smith%NULL%1,                          Maggie%Smith%NULL%1,                          Neel%Sodha%NULL%1,                          Michael%Sonntagbauer%NULL%1,                          Marc%Sorenson%NULL%1,                          Eric B%Stallkamp%NULL%1,                          Allison%Stewart%NULL%1,                          Kathy%Swartz%NULL%1,                          Koji%Takeda%NULL%1,                          Shaun%Thompson%NULL%1,                          Bridget%Toy%NULL%1,                          Divina%Tuazon%NULL%1,                          Makoto%Uchiyama%NULL%1,                          Obiora I.%Udeozo%NULL%1,                          Scott%van Poppel%NULL%1,                          Corey%Ventetuolo%NULL%1,                          Leen%Vercaemst%NULL%1,                          Nguyen V.%Vinh Chau%NULL%1,                          I-Wen%Wang%NULL%1,                          Carrie%Williamson%NULL%1,                          Brock%Wilson%NULL%1,                          Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,                           Dhaval%Kolte%NULL%1,                           Mary E.%Cadigan%NULL%1,                           Elizabeth%Laikhter%NULL%1,                           Kevin%Sinclair%NULL%1,                           Eugene%Pomerantsev%NULL%1,                           Michael A.%Fifer%NULL%1,                           Thoralf M.%Sundt%NULL%1,                           Robert W.%Yeh%NULL%1,                           Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                          Cabrini%Luca%coreGivesNoEmail%1,                          Castelli%Antonio%coreGivesNoEmail%1,                          Cecconi%Maurizio%coreGivesNoEmail%1,                          Cereda%Danilo%coreGivesNoEmail%1,                          Coluccello%Antonio%coreGivesNoEmail%1,                          Foti%Giuseppe%coreGivesNoEmail%1,                          Fumagalli%Roberto%coreGivesNoEmail%1,                          Grasselli%Giacomo%coreGivesNoEmail%1,                          Iotti%Giorgio%coreGivesNoEmail%1,                          Latronico%Nicola%coreGivesNoEmail%1,                          Lorini%Luca%coreGivesNoEmail%1,                          Merler%Stefano%coreGivesNoEmail%1,                          Natalini%Giuseppe%coreGivesNoEmail%1,                          Pesenti%Antonio%coreGivesNoEmail%1,                          Piatti%Alessandra%coreGivesNoEmail%1,                          Ranieri%Marco Vito%coreGivesNoEmail%1,                          Scandroglio%Anna Mara%coreGivesNoEmail%1,                          Storti%Enrico%coreGivesNoEmail%1,                          Zanella%Alberto%coreGivesNoEmail%1,                          Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                           Yeming%Wang%NULL%0,                           Xingwang%Li%NULL%0,                           Lili%Ren%NULL%0,                           Jianping%Zhao%NULL%0,                           Yi%Hu%NULL%0,                           Li%Zhang%NULL%0,                           Guohui%Fan%NULL%0,                           Jiuyang%Xu%NULL%0,                           Xiaoying%Gu%NULL%0,                           Zhenshun%Cheng%NULL%0,                           Ting%Yu%NULL%0,                           Jiaan%Xia%NULL%0,                           Yuan%Wei%NULL%0,                           Wenjuan%Wu%NULL%0,                           Xuelei%Xie%NULL%0,                           Wen%Yin%NULL%0,                           Hui%Li%NULL%0,                           Min%Liu%NULL%0,                           Yan%Xiao%NULL%0,                           Hong%Gao%NULL%0,                           Li%Guo%NULL%0,                           Jungang%Xie%NULL%0,                           Guangfa%Wang%NULL%0,                           Rongmeng%Jiang%NULL%0,                           Zhancheng%Gao%NULL%0,                           Qi%Jin%NULL%0,                           Jianwei%Wang%wangjw28@163.com%0,                           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                           Yi%Xiang%NULL%0,                           Wei%Fang%NULL%0,                           Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                           Boqun%Li%279685211@qq.com%0,                           Boqun%Li%279685211@qq.com%0,                           Yanjun%Hu%huyanjun@163.com%0,                           Chunhui%Lang%NULL%0,                           Daoqiu%Huang%NULL%0,                           Qiuyan%Sun%NULL%0,                           Yan%Xiong%NULL%0,                           Xia%Huang%NULL%0,                           Jinglong%Lv%NULL%0,                           Yaling%Luo%NULL%0,                           Li%Shen%NULL%0,                           Haoran%Yang%NULL%0,                           Gu%Huang%NULL%0,                           Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                           Mark%Caridi-Scheible%NULL%3,                           James M.%Blum%NULL%2,                           Chad%Robichaux%NULL%2,                           Colleen%Kraft%NULL%2,                           Jesse T.%Jacob%NULL%2,                           Craig S.%Jabaley%NULL%2,                           David%Carpenter%NULL%2,                           Roberta%Kaplow%NULL%2,                           Alfonso C.%Hernandez-Romieu%NULL%2,                           Max W.%Adelman%NULL%2,                           Greg S.%Martin%NULL%2,                           Craig M.%Coopersmith%NULL%2,                           David J.%Murphy%NULL%2,                           NULL%NULL%NULL%0,                            S.%Auld%null%1,                            M.% Caridi-Scheible%null%1,                            J. M.% Blum%null%1,                            C. J.% Robichaux%null%1,                            C. S.% Kraft%null%1,                            J. T.% Jacob%null%1,                            C. S.% Jabaley%null%1,                            D.% Carpenter%null%1,                            R.% Kaplow%null%1,                            A. C.% Hernandez%null%1,                            M. W.% Adelman%null%1,                            G. S.% Martin%null%1,                            C. M.% Coopersmith%null%1,                            D. J.% Murphy%null%1,                              % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,                          S.%Auld%null%1,                          M.% Caridi-Scheible%null%1,                          J. M.% Blum%null%1,                          C. J.% Robichaux%null%1,                          C. S.% Kraft%null%1,                          J. T.% Jacob%null%1,                          C. S.% Jabaley%null%1,                          D.% Carpenter%null%1,                          R.% Kaplow%null%1,                          A. C.% Hernandez%null%1,                          M. W.% Adelman%null%1,                          G. S.% Martin%null%1,                          C. M.% Coopersmith%null%1,                          D. J.% Murphy%null%1,                            % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,        S.%Auld%null%1,        M.% Caridi-Scheible%null%1,        J. M.% Blum%null%1,        C. J.% Robichaux%null%1,        C. S.% Kraft%null%1,        J. T.% Jacob%null%1,        C. S.% Jabaley%null%1,        D.% Carpenter%null%1,        R.% Kaplow%null%1,        A. C.% Hernandez%null%1,        M. W.% Adelman%null%1,        G. S.% Martin%null%1,        C. M.% Coopersmith%null%1,        D. J.% Murphy%null%1,          % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                           Bijan J.%Ghassemieh%NULL%2,                           Michelle%Nichols%NULL%2,                           Richard%Kim%NULL%2,                           Keith R.%Jerome%NULL%2,                           Arun K.%Nalla%NULL%2,                           Alexander L.%Greninger%NULL%2,                           Sudhakar%Pipavath%NULL%2,                           Mark M.%Wurfel%NULL%2,                           Laura%Evans%NULL%2,                           Patricia A.%Kritek%NULL%2,                           T. Eoin%West%NULL%2,                           Andrew%Luks%NULL%2,                           Anthony%Gerbino%NULL%2,                           Chris R.%Dale%NULL%2,                           Jason D.%Goldman%NULL%2,                           Shane%O’Mahony%NULL%2,                           Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                           Tangkai%Qi%NULL%1,                           Li%Liu%NULL%1,                           Yun%Ling%NULL%0,                           Zhiping%Qian%NULL%1,                           Tao%Li%NULL%0,                           Feng%Li%NULL%1,                           Qingnian%Xu%NULL%1,                           Yuyi%Zhang%NULL%1,                           Shuibao%Xu%NULL%1,                           Zhigang%Song%NULL%1,                           Yigang%Zeng%NULL%1,                           Yinzhong%Shen%NULL%1,                           Yuxin%Shi%NULL%2,                           Tongyu%Zhu%NULL%2,                           Hongzhou%Lu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                           Min%Zhou%NULL%0,                           Xuan%Dong%NULL%0,                           Jieming%Qu%NULL%0,                           Fengyun%Gong%NULL%0,                           Yang%Han%NULL%0,                           Yang%Qiu%NULL%0,                           Jingli%Wang%NULL%0,                           Ying%Liu%NULL%0,                           Yuan%Wei%NULL%0,                           Jia'an%Xia%NULL%0,                           Ting%Yu%NULL%0,                           Xinxin%Zhang%NULL%0,                           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                           Zheng-yi%Ni%NULL%0,                           Zheng-yi%Ni%NULL%0,                           Yu%Hu%NULL%0,                           Wen-hua%Liang%NULL%0,                           Chun-quan%Ou%NULL%0,                           Jian-xing%He%NULL%0,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chun-liang%Lei%NULL%0,                           David S.C.%Hui%NULL%0,                           Bin%Du%NULL%0,                           Lan-juan%Li%NULL%0,                           Guang%Zeng%NULL%0,                           Kwok-Yung%Yuen%NULL%0,                           Ru-chong%Chen%NULL%0,                           Chun-li%Tang%NULL%0,                           Tao%Wang%NULL%0,                           Ping-yan%Chen%NULL%0,                           Jie%Xiang%NULL%0,                           Shi-yue%Li%NULL%0,                           Jin-lin%Wang%NULL%0,                           Zi-jing%Liang%NULL%0,                           Yi-xiang%Peng%NULL%0,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Ya-hua%Hu%NULL%0,                           Peng%Peng%NULL%0,                           Jian-ming%Wang%NULL%0,                           Ji-yang%Liu%NULL%0,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhi-jian%Zheng%NULL%0,                           Shao-qin%Qiu%NULL%0,                           Jie%Luo%NULL%0,                           Chang-jiang%Ye%NULL%0,                           Shao-yong%Zhu%NULL%0,                           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                           Yuanyuan%Xing%NULL%2,                           Yu%Xiao%NULL%2,                           Liping%Deng%NULL%3,                           Qiu%Zhao%NULL%2,                           Hongling%Wang%NULL%2,                           Yong%Xiong%NULL%4,                           Zhenshun%Cheng%NULL%0,                           Shicheng%Gao%NULL%3,                           Ke%Liang%NULL%3,                           Mingqi%Luo%NULL%3,                           Tielong%Chen%NULL%2,                           Shihui%Song%NULL%3,                           Zhiyong%Ma%NULL%3,                           Xiaoping%Chen%NULL%3,                           Ruiying%Zheng%NULL%2,                           Qian%Cao%NULL%2,                           Fan%Wang%fanndywang@foxmail.com%2,                           Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,                           N -B%Yang%NULL%1,                           F%Ding%NULL%1,                           A H Y%Ma%NULL%1,                           Z -Y%Wang%NULL%2,                           Y -F%Shen%NULL%1,                           C -W%Shi%NULL%1,                           X%Lian%NULL%1,                           J -G%Chu%NULL%1,                           L%Chen%chxmin@hotmail.com%1,                           Z -Y%Wang%NULL%0,                           D -W%Ren%NULL%1,                           G -X%Li%NULL%1,                           X -Q%Chen%chxmin@hotmail.com%1,                           H -J%Shen%NULL%1,                           X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,                           Hugues%Spillemaeker%NULL%1,                           Maéva%Kyheng%NULL%1,                           Cassandre%Belin‐Vincent%NULL%1,                           Cédric%Delhaye%NULL%1,                           Adeline%Piérache%NULL%1,                           Tom%Denimal%NULL%1,                           Basile%Verdier%NULL%1,                           Nicolas%Debry%NULL%1,                           Mouhamed%Moussa%NULL%1,                           Guillaume%Schurtz%NULL%1,                           Sina%Porouchani%NULL%1,                           Alessandro%Cosenza%NULL%1,                           Francis%Juthier%NULL%1,                           Thibault%Pamart%NULL%1,                           Marjorie%Richardson%NULL%1,                           Augustin%Coisne%NULL%1,                           Adrien%Hertault%NULL%1,                           Jonathan%Sobocinski%NULL%1,                           Thomas%Modine%NULL%1,                           François%Pontana%NULL%1,                           Alain%Duhamel%NULL%2,                           Julien%Labreuche%NULL%2,                           Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                          Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                          Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                          Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,                           Yimei%Yin%18256985@qq.com%1,                           Chang%Hu%1391369733@qq.com%3,                           Xing%Liu%375117565@qq.com%1,                           Xingguo%Zhang%zhangxinguo7909@163.com%1,                           Shuliang%Zhou%350925556@qq.com%1,                           Mingzhi%Jian%Jmzhak@aliyun.com%1,                           Haibo%Xu%xuhaibo1120@hotmail.com%0,                           John%Prowle%j.prowle@qmul.ac.uk%1,                           Bo%Hu%hobbier1979@163.com%0,                           Yirong%Li%liyirong838@163.com%1,                           Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                           Xiao-Xin%Wu%NULL%2,                           Xian-Gao%Jiang%NULL%2,                           Kai-Jin%Xu%NULL%2,                           Ling-Jun%Ying%NULL%2,                           Chun-Lian%Ma%NULL%2,                           Shi-Bo%Li%NULL%2,                           Hua-Ying%Wang%NULL%2,                           Sheng%Zhang%NULL%2,                           Hai-Nv%Gao%NULL%2,                           Ji-Fang%Sheng%NULL%2,                           Hong-Liu%Cai%NULL%2,                           Yun-Qing%Qiu%NULL%2,                           Lan-Juan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                           Chang%Hu%NULL%0,                           Linjie%Luo%NULL%2,                           Fang%Fang%NULL%0,                           Yongfeng%Chen%NULL%2,                           Jianguo%Li%NULL%2,                           Zhiyong%Peng%NULL%0,                           Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,                           Chun%Liao%lc7spring@163.com%1,                           Qi-hong%Fan%1187286305@qq.com%1,                           Hong-bo%Chen%hbchen@hust.edu.cn%1,                           Xue-gong%Zhao%NULL%1,                           Zhong-guo%Xie%NULL%1,                           Xi-lin%Li%NULL%1,                           Chun-xi%Chen%NULL%1,                           Xiao-xia%Lu%NULL%1,                           Zhi-sheng%Liu%NULL%1,                           Wei%Lu%NULL%1,                           Chun-bao%Chen%NULL%1,                           Rong%Jiao%NULL%1,                           Ai-ming%Zhang%NULL%1,                           Jin-tang%Wang%NULL%1,                           Xi-wei%Ding%NULL%1,                           Yao-guang%Zeng%NULL%1,                           Li-ping%Cheng%NULL%1,                           Qing-feng%Huang%NULL%1,                           Jiang%Wu%NULL%0,                           Xi-chang%Luo%NULL%1,                           Zhu-jun%Wang%NULL%1,                           Yan-yan%Zhong%NULL%1,                           Yan%Bai%yanbaixh@hust.edu.cn%1,                           Xiao-yan%Wu%xwu@hust.edu.cn%1,                           Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                           Ting%Yu%NULL%0,                           Ronghui%Du%NULL%0,                           Guohui%Fan%NULL%0,                           Ying%Liu%NULL%0,                           Zhibo%Liu%NULL%0,                           Jie%Xiang%NULL%0,                           Yeming%Wang%NULL%0,                           Bin%Song%NULL%0,                           Xiaoying%Gu%NULL%0,                           Lulu%Guan%NULL%0,                           Yuan%Wei%NULL%0,                           Hui%Li%NULL%0,                           Xudong%Wu%NULL%0,                           Jiuyang%Xu%NULL%0,                           Shengjin%Tu%NULL%0,                           Yi%Zhang%NULL%0,                           Hua%Chen%NULL%0,                           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                           Mengqi%Tu%NULL%2,                           Shipei%Wang%NULL%2,                           Sichao%Chen%NULL%2,                           Wei%Zhou%NULL%0,                           Danyang%Chen%NULL%2,                           Lin%Zhou%NULL%2,                           Min%Wang%NULL%2,                           Yan%Zhao%NULL%4,                           Wen%Zeng%NULL%2,                           Qi%Huang%NULL%2,                           Hai'bo%Xu%NULL%2,                           Zeming%Liu%NULL%2,                           Liang%Guo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                           Yuan%Yu%NULL%0,                           Jiqian%Xu%NULL%0,                           Huaqing%Shu%NULL%0,                           Jia'an%Xia%NULL%0,                           Hong%Liu%NULL%0,                           Yongran%Wu%NULL%0,                           Lu%Zhang%NULL%0,                           Zhui%Yu%NULL%0,                           Minghao%Fang%NULL%0,                           Ting%Yu%NULL%0,                           Yaxin%Wang%NULL%0,                           Shangwen%Pan%NULL%0,                           Xiaojing%Zou%NULL%0,                           Shiying%Yuan%NULL%0,                           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,                           Wei-jie%Guan%NULL%2,                           Cai-chen%Li%NULL%3,                           Yi-min%Li%NULL%3,                           Heng-rui%Liang%NULL%3,                           Yi%Zhao%NULL%3,                           Xiao-qing%Liu%NULL%3,                           Ling%Sang%NULL%0,                           Ru-chong%Chen%NULL%0,                           Chun-li%Tang%NULL%0,                           Tao%Wang%NULL%0,                           Wei%Wang%NULL%0,                           Qi-hua%He%NULL%2,                           Zi-sheng%Chen%NULL%3,                           Sook-San%Wong%NULL%2,                           Mark%Zanin%NULL%2,                           Jun%Liu%NULL%2,                           Xin%Xu%NULL%3,                           Jun%Huang%NULL%2,                           Jian-fu%Li%NULL%3,                           Li-min%Ou%NULL%3,                           Bo%Cheng%NULL%3,                           Shan%Xiong%NULL%3,                           Zhan-hong%Xie%NULL%2,                           Zheng-yi%Ni%NULL%0,                           Yu%Hu%NULL%0,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chun-liang%Lei%NULL%0,                           Yi-xiang%Peng%NULL%0,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Ya-hua%Hu%NULL%0,                           Peng%Peng%NULL%0,                           Jian-ming%Wang%NULL%0,                           Ji-yang%Liu%NULL%0,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhi-jian%Zheng%NULL%0,                           Shao-qin%Qiu%NULL%0,                           Jie%Luo%NULL%0,                           Chang-jiang%Ye%NULL%0,                           Shao-yong%Zhu%NULL%0,                           Lin-ling%Cheng%NULL%3,                           Feng%Ye%NULL%5,                           Shi-yue%Li%NULL%0,                           Jin-ping%Zheng%NULL%3,                           Nuo-fu%Zhang%NULL%3,                           Nan-shan%Zhong%NULL%0,                           Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                           Simon A%Jones%NULL%1,                           Jie%Yang%NULL%0,                           Harish%Rajagopalan%NULL%1,                           Luke%O’Donnell%NULL%1,                           Yelena%Chernyak%NULL%1,                           Katie A%Tobin%NULL%1,                           Robert J%Cerfolio%NULL%1,                           Fritz%Francois%NULL%1,                           Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0,                           Stephanie%Bialek%NULL%1,                           Ellen%Boundy%NULL%1,                           Virginia%Bowen%NULL%1,                           Nancy%Chow%NULL%2,                           Amanda%Cohn%NULL%1,                           Nicole%Dowling%NULL%1,                           Sascha%Ellington%NULL%1,                           Ryan%Gierke%NULL%2,                           Aron%Hall%NULL%2,                           Jessica%MacNeil%NULL%1,                           Priti%Patel%NULL%1,                           Georgina%Peacock%NULL%1,                           Tamara%Pilishvili%NULL%2,                           Hilda%Razzaghi%NULL%1,                           Nia%Reed%NULL%1,                           Matthew%Ritchey%NULL%2,                           Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,                           Pedro%Póvoa%NULL%1,                           Vicente%Souza-Dantas%NULL%1,                           André C.%Kalil%NULL%1,                           Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,                           Graeme%MacLaren%NULL%1,                           Philip S%Boonstra%NULL%1,                           Theodore J%Iwashyna%NULL%1,                           Arthur S%Slutsky%NULL%1,                           Eddy%Fan%NULL%1,                           Robert H%Bartlett%NULL%1,                           Joseph E%Tonna%NULL%1,                           Robert%Hyslop%NULL%1,                           Jeffrey J%Fanning%NULL%1,                           Peter T%Rycus%NULL%1,                           Steve J%Hyer%NULL%1,                           Marc M%Anders%NULL%1,                           Cara L%Agerstrand%NULL%1,                           Katarzyna%Hryniewicz%NULL%1,                           Rodrigo%Diaz%NULL%1,                           Roberto%Lorusso%NULL%1,                           Alain%Combes%NULL%1,                           Daniel%Brodie%NULL%4,                           Peta%Alexander%NULL%1,                           Nicholas%Barrett%NULL%1,                           Jan%Bělohlávek%NULL%1,                           Dale%Fisher%NULL%1,                           John%Fraser%NULL%1,                           Ali Ait%Hssain%NULL%1,                           Jae Sung%Jung%NULL%1,                           Michael%McMullan%NULL%1,                           Yatin%Mehta%NULL%1,                           Mark T.%Ogino%NULL%1,                           Matthew L.%Paden%NULL%1,                           Kiran%Shekar%NULL%1,                           Christine%Stead%NULL%1,                           Yasir%Abu-Omar%NULL%1,                           Vanni%Agnoletti%NULL%1,                           Anzila%Akbar%NULL%1,                           Huda%Alfoudri%NULL%1,                           Carlos%Alviar%NULL%1,                           Vladimir%Aronsky%NULL%1,                           Erin%August%NULL%1,                           Georg%Auzinger%NULL%1,                           Hilda%Aveja%NULL%1,                           Rhonda%Bakken%NULL%1,                           Joan%Balcells%NULL%1,                           Sripal%Bangalore%NULL%1,                           Bernard W.%Barnes%NULL%1,                           Alaiza%Bautista%NULL%1,                           Lorraine L.%Bellows%NULL%1,                           Felipe%Beltran%NULL%1,                           Peyman%Benharash%NULL%1,                           Marco%Benni%NULL%1,                           Jennifer%Berg%NULL%1,                           Pietro%Bertini%NULL%1,                           Pablo%Blanco-Schweizer%NULL%1,                           Melissa%Brunsvold%NULL%1,                           Jenny%Budd%NULL%1,                           Debra%Camp%NULL%1,                           Mark%Caridi-Scheible%NULL%0,                           Edmund%Carton%NULL%1,                           Elena%Casanova-Ghosh%NULL%1,                           Anthony%Castleberry%NULL%1,                           Christopher T.%Chipongian%NULL%1,                           Chang Woo%Choi%NULL%1,                           Alessandro%Circelli%NULL%1,                           Elliott%Cohen%NULL%1,                           Michael%Collins%NULL%1,                           Scott%Copus%NULL%1,                           Jill%Coy%NULL%1,                           Brandon%Crist%NULL%1,                           Leonora%Cruz%NULL%1,                           Mirosław%Czuczwar%NULL%1,                           Mani%Daneshmand%NULL%1,                           Daniel%Davis II%NULL%1,                           Kim%De la Cruz%NULL%1,                           Cyndie%Devers%NULL%1,                           Toni%Duculan%NULL%1,                           Lucian%Durham%NULL%1,                           Subbarao%Elapavaluru%NULL%1,                           Carlos V.%Elzo Kraemer%NULL%1,                           EDMÍLSON CARDOSO%Filho%NULL%1,                           Jillian%Fitzgerald%NULL%1,                           Giuseppe%Foti%NULL%1,                           Matthew%Fox%NULL%1,                           David%Fritschen%NULL%1,                           David%Fullerton%NULL%1,                           Elton%Gelandt%NULL%1,                           Stacy%Gerle%NULL%1,                           Marco%Giani%NULL%1,                           Si Guim%Goh%NULL%1,                           Sara%Govener%NULL%1,                           Julie%Grone%NULL%1,                           Miles%Guber%NULL%1,                           Vadim%Gudzenko%NULL%1,                           Daniel%Gutteridge%NULL%1,                           Jennifer%Guy%NULL%1,                           Jonathan%Haft%NULL%1,                           Cameron%Hall%NULL%1,                           Ibrahim Fawzy%Hassan%NULL%1,                           Rubén%Herrán%NULL%1,                           Hitoshi%Hirose%NULL%1,                           Abdulsalam Saif%Ibrahim%NULL%1,                           Don%Igielski%NULL%1,                           Felicia A.%Ivascu%NULL%1,                           Jaume%Izquierdo Blasco%NULL%1,                           Julie%Jackson%NULL%1,                           Harsh%Jain%NULL%1,                           Bhavini%Jaiswal%NULL%1,                           Andrea C.%Johnson%NULL%1,                           Jenniver A.%Jurynec%NULL%1,                           Norma M%Kellter%NULL%1,                           Adam%Kohl%NULL%1,                           Zachary%Kon%NULL%1,                           Markus%Kredel%NULL%1,                           Karen%Kriska%NULL%1,                           Chandra%Kunavarapu%NULL%1,                           Oude%Lansink-Hartgring%NULL%1,                           Jeliene%LaRocque%NULL%1,                           Sharon Beth%Larson%NULL%1,                           Tracie%Layne%NULL%1,                           Stephane%Ledot%NULL%1,                           Napolitan%Lena%NULL%1,                           Jonathan%Lillie%NULL%1,                           Gösta%Lotz%NULL%1,                           Mark%Lucas%NULL%1,                           Lee%Ludwigson%NULL%1,                           Jacinta J.%Maas%NULL%1,                           Joanna%Maertens%NULL%1,                           David%Mast%NULL%1,                           Scott%McCardle%NULL%1,                           Bernard%McDonald%NULL%1,                           Allison%McLarty%NULL%1,                           Chelsea%McMahon%NULL%1,                           Patrick%Meybohm%NULL%1,                           Bart%Meyns%NULL%1,                           Casey%Miller%NULL%1,                           Fernando%Moraes Neto%NULL%1,                           Kelly%Morris%NULL%1,                           Ralf%Muellenbach%NULL%1,                           Meghan%Nicholson%NULL%1,                           Serena%O'Brien%NULL%1,                           Kathryn%O'Keefe%NULL%1,                           Tawnya%Ogston%NULL%1,                           Gary%Oldenburg%NULL%1,                           Fabiana M.%Oliveira%NULL%1,                           Emily%Oppel%NULL%1,                           Diego%Pardo%NULL%2,                           Diego%Pardo%NULL%0,                           Sara J.%Parker%NULL%1,                           Finn M.%Pedersen%NULL%1,                           Crescens%Pellecchia%NULL%1,                           Jose A.S.%Pelligrini%NULL%1,                           Thao T.N.%Pham%NULL%1,                           Ann R.%Phillips%NULL%1,                           Tasneem%Pirani%NULL%1,                           Paweł%Piwowarczyk%NULL%1,                           Robert%Plambeck%NULL%1,                           William%Pruett%NULL%1,                           Brittany%Quandt%NULL%1,                           Kollengode%Ramanathan%NULL%1,                           Alejandro%Rey%NULL%1,                           Christian%Reyher%NULL%1,                           Jordi%Riera del Brio%NULL%1,                           Rachel%Roberts%NULL%1,                           David%Roe%NULL%1,                           Peter P.%Roeleveld%NULL%1,                           Janet%Rudy%NULL%1,                           Luis F.%Rueda%NULL%1,                           Emanuele%Russo%NULL%1,                           Jesús%Sánchez Ballesteros%NULL%1,                           Nancy%Satou%NULL%1,                           Mauricio Guidi%Saueressig%NULL%1,                           Paul C.%Saunders%NULL%1,                           Margaret%Schlotterbeck%NULL%1,                           Patricia%Schwarz%NULL%1,                           Nicole%Scriven%NULL%1,                           Alexis%Serra%NULL%1,                           Mohammad%Shamsah%NULL%1,                           Lucy%Sim%NULL%1,                           Alexandra%Smart%NULL%1,                           Adam%Smith%NULL%1,                           Deane%Smith%NULL%1,                           Maggie%Smith%NULL%1,                           Neel%Sodha%NULL%1,                           Michael%Sonntagbauer%NULL%1,                           Marc%Sorenson%NULL%1,                           Eric B%Stallkamp%NULL%1,                           Allison%Stewart%NULL%1,                           Kathy%Swartz%NULL%1,                           Koji%Takeda%NULL%1,                           Shaun%Thompson%NULL%1,                           Bridget%Toy%NULL%1,                           Divina%Tuazon%NULL%1,                           Makoto%Uchiyama%NULL%1,                           Obiora I.%Udeozo%NULL%1,                           Scott%van Poppel%NULL%1,                           Corey%Ventetuolo%NULL%1,                           Leen%Vercaemst%NULL%1,                           Nguyen V.%Vinh Chau%NULL%1,                           I-Wen%Wang%NULL%1,                           Carrie%Williamson%NULL%1,                           Brock%Wilson%NULL%1,                           Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael N.%Young%NULL%1,                            Dhaval%Kolte%NULL%1,                            Mary E.%Cadigan%NULL%1,                            Elizabeth%Laikhter%NULL%1,                            Kevin%Sinclair%NULL%1,                            Eugene%Pomerantsev%NULL%1,                            Michael A.%Fifer%NULL%1,                            Thoralf M.%Sundt%NULL%1,                            Robert W.%Yeh%NULL%1,                            Farouc A.%Jaffer%fjaffer@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                           Cabrini%Luca%coreGivesNoEmail%1,                           Castelli%Antonio%coreGivesNoEmail%1,                           Cecconi%Maurizio%coreGivesNoEmail%1,                           Cereda%Danilo%coreGivesNoEmail%1,                           Coluccello%Antonio%coreGivesNoEmail%1,                           Foti%Giuseppe%coreGivesNoEmail%1,                           Fumagalli%Roberto%coreGivesNoEmail%1,                           Grasselli%Giacomo%coreGivesNoEmail%1,                           Iotti%Giorgio%coreGivesNoEmail%1,                           Latronico%Nicola%coreGivesNoEmail%1,                           Lorini%Luca%coreGivesNoEmail%1,                           Merler%Stefano%coreGivesNoEmail%1,                           Natalini%Giuseppe%coreGivesNoEmail%1,                           Pesenti%Antonio%coreGivesNoEmail%1,                           Piatti%Alessandra%coreGivesNoEmail%1,                           Ranieri%Marco Vito%coreGivesNoEmail%1,                           Scandroglio%Anna Mara%coreGivesNoEmail%1,                           Storti%Enrico%coreGivesNoEmail%1,                           Zanella%Alberto%coreGivesNoEmail%1,                           Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                            Yeming%Wang%NULL%0,                            Xingwang%Li%NULL%0,                            Lili%Ren%NULL%0,                            Jianping%Zhao%NULL%0,                            Yi%Hu%NULL%0,                            Li%Zhang%NULL%0,                            Guohui%Fan%NULL%0,                            Jiuyang%Xu%NULL%0,                            Xiaoying%Gu%NULL%0,                            Zhenshun%Cheng%NULL%0,                            Ting%Yu%NULL%0,                            Jiaan%Xia%NULL%0,                            Yuan%Wei%NULL%0,                            Wenjuan%Wu%NULL%0,                            Xuelei%Xie%NULL%0,                            Wen%Yin%NULL%0,                            Hui%Li%NULL%0,                            Min%Liu%NULL%0,                            Yan%Xiao%NULL%0,                            Hong%Gao%NULL%0,                            Li%Guo%NULL%0,                            Jungang%Xie%NULL%0,                            Guangfa%Wang%NULL%0,                            Rongmeng%Jiang%NULL%0,                            Zhancheng%Gao%NULL%0,                            Qi%Jin%NULL%0,                            Jianwei%Wang%wangjw28@163.com%0,                            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                            Yi%Xiang%NULL%0,                            Wei%Fang%NULL%0,                            Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,                            Boqun%Li%279685211@qq.com%0,                            Boqun%Li%279685211@qq.com%0,                            Yanjun%Hu%huyanjun@163.com%0,                            Chunhui%Lang%NULL%0,                            Daoqiu%Huang%NULL%0,                            Qiuyan%Sun%NULL%0,                            Yan%Xiong%NULL%0,                            Xia%Huang%NULL%0,                            Jinglong%Lv%NULL%0,                            Yaling%Luo%NULL%0,                            Li%Shen%NULL%0,                            Haoran%Yang%NULL%0,                            Gu%Huang%NULL%0,                            Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                            Mark%Caridi-Scheible%NULL%3,                            James M.%Blum%NULL%2,                            Chad%Robichaux%NULL%2,                            Colleen%Kraft%NULL%2,                            Jesse T.%Jacob%NULL%2,                            Craig S.%Jabaley%NULL%2,                            David%Carpenter%NULL%2,                            Roberta%Kaplow%NULL%2,                            Alfonso C.%Hernandez-Romieu%NULL%2,                            Max W.%Adelman%NULL%2,                            Greg S.%Martin%NULL%2,                            Craig M.%Coopersmith%NULL%2,                            David J.%Murphy%NULL%2,                            NULL%NULL%NULL%0,                             S.%Auld%null%1,                             M.% Caridi-Scheible%null%1,                             J. M.% Blum%null%1,                             C. J.% Robichaux%null%1,                             C. S.% Kraft%null%1,                             J. T.% Jacob%null%1,                             C. S.% Jabaley%null%1,                             D.% Carpenter%null%1,                             R.% Kaplow%null%1,                             A. C.% Hernandez%null%1,                             M. W.% Adelman%null%1,                             G. S.% Martin%null%1,                             C. M.% Coopersmith%null%1,                             D. J.% Murphy%null%1,                               % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,                           S.%Auld%null%1,                           M.% Caridi-Scheible%null%1,                           J. M.% Blum%null%1,                           C. J.% Robichaux%null%1,                           C. S.% Kraft%null%1,                           J. T.% Jacob%null%1,                           C. S.% Jabaley%null%1,                           D.% Carpenter%null%1,                           R.% Kaplow%null%1,                           A. C.% Hernandez%null%1,                           M. W.% Adelman%null%1,                           G. S.% Martin%null%1,                           C. M.% Coopersmith%null%1,                           D. J.% Murphy%null%1,                             % Emory COVID-19 Quality and Clinical Research Collaborative%null%1,         S.%Auld%null%1,         M.% Caridi-Scheible%null%1,         J. M.% Blum%null%1,         C. J.% Robichaux%null%1,         C. S.% Kraft%null%1,         J. T.% Jacob%null%1,         C. S.% Jabaley%null%1,         D.% Carpenter%null%1,         R.% Kaplow%null%1,         A. C.% Hernandez%null%1,         M. W.% Adelman%null%1,         G. S.% Martin%null%1,         C. M.% Coopersmith%null%1,         D. J.% Murphy%null%1,           % Emory COVID-19 Quality and Clinical Research Collaborative%null%1]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                            Bijan J.%Ghassemieh%NULL%2,                            Michelle%Nichols%NULL%2,                            Richard%Kim%NULL%2,                            Keith R.%Jerome%NULL%2,                            Arun K.%Nalla%NULL%2,                            Alexander L.%Greninger%NULL%2,                            Sudhakar%Pipavath%NULL%2,                            Mark M.%Wurfel%NULL%2,                            Laura%Evans%NULL%2,                            Patricia A.%Kritek%NULL%2,                            T. Eoin%West%NULL%2,                            Andrew%Luks%NULL%2,                            Anthony%Gerbino%NULL%2,                            Chris R.%Dale%NULL%2,                            Jason D.%Goldman%NULL%2,                            Shane%O’Mahony%NULL%2,                            Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                            Tangkai%Qi%NULL%1,                            Li%Liu%NULL%1,                            Yun%Ling%NULL%0,                            Zhiping%Qian%NULL%1,                            Tao%Li%NULL%0,                            Feng%Li%NULL%1,                            Qingnian%Xu%NULL%1,                            Yuyi%Zhang%NULL%1,                            Shuibao%Xu%NULL%1,                            Zhigang%Song%NULL%1,                            Yigang%Zeng%NULL%1,                            Yinzhong%Shen%NULL%1,                            Yuxin%Shi%NULL%2,                            Tongyu%Zhu%NULL%2,                            Hongzhou%Lu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                            Min%Zhou%NULL%0,                            Xuan%Dong%NULL%0,                            Jieming%Qu%NULL%0,                            Fengyun%Gong%NULL%0,                            Yang%Han%NULL%0,                            Yang%Qiu%NULL%0,                            Jingli%Wang%NULL%0,                            Ying%Liu%NULL%0,                            Yuan%Wei%NULL%0,                            Jia'an%Xia%NULL%0,                            Ting%Yu%NULL%0,                            Xinxin%Zhang%NULL%0,                            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                            Zheng-yi%Ni%NULL%0,                            Zheng-yi%Ni%NULL%0,                            Yu%Hu%NULL%0,                            Wen-hua%Liang%NULL%0,                            Chun-quan%Ou%NULL%0,                            Jian-xing%He%NULL%0,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chun-liang%Lei%NULL%0,                            David S.C.%Hui%NULL%0,                            Bin%Du%NULL%0,                            Lan-juan%Li%NULL%0,                            Guang%Zeng%NULL%0,                            Kwok-Yung%Yuen%NULL%0,                            Ru-chong%Chen%NULL%0,                            Chun-li%Tang%NULL%0,                            Tao%Wang%NULL%0,                            Ping-yan%Chen%NULL%0,                            Jie%Xiang%NULL%0,                            Shi-yue%Li%NULL%0,                            Jin-lin%Wang%NULL%0,                            Zi-jing%Liang%NULL%0,                            Yi-xiang%Peng%NULL%0,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Ya-hua%Hu%NULL%0,                            Peng%Peng%NULL%0,                            Jian-ming%Wang%NULL%0,                            Ji-yang%Liu%NULL%0,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhi-jian%Zheng%NULL%0,                            Shao-qin%Qiu%NULL%0,                            Jie%Luo%NULL%0,                            Chang-jiang%Ye%NULL%0,                            Shao-yong%Zhu%NULL%0,                            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                            Yuanyuan%Xing%NULL%2,                            Yu%Xiao%NULL%2,                            Liping%Deng%NULL%3,                            Qiu%Zhao%NULL%2,                            Hongling%Wang%NULL%2,                            Yong%Xiong%NULL%4,                            Zhenshun%Cheng%NULL%0,                            Shicheng%Gao%NULL%3,                            Ke%Liang%NULL%3,                            Mingqi%Luo%NULL%3,                            Tielong%Chen%NULL%2,                            Shihui%Song%NULL%3,                            Zhiyong%Ma%NULL%3,                            Xiaoping%Chen%NULL%3,                            Ruiying%Zheng%NULL%2,                            Qian%Cao%NULL%2,                            Fan%Wang%fanndywang@foxmail.com%2,                            Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[G -Q%Qian%NULL%0,                            N -B%Yang%NULL%1,                            F%Ding%NULL%1,                            A H Y%Ma%NULL%1,                            Z -Y%Wang%NULL%2,                            Y -F%Shen%NULL%1,                            C -W%Shi%NULL%1,                            X%Lian%NULL%1,                            J -G%Chu%NULL%1,                            L%Chen%chxmin@hotmail.com%1,                            Z -Y%Wang%NULL%0,                            D -W%Ren%NULL%1,                            G -X%Li%NULL%1,                            X -Q%Chen%chxmin@hotmail.com%1,                            H -J%Shen%NULL%1,                            X -M%Chen%chxmin@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Flavien%Vincent%NULL%1,                            Hugues%Spillemaeker%NULL%1,                            Maéva%Kyheng%NULL%1,                            Cassandre%Belin‐Vincent%NULL%1,                            Cédric%Delhaye%NULL%1,                            Adeline%Piérache%NULL%1,                            Tom%Denimal%NULL%1,                            Basile%Verdier%NULL%1,                            Nicolas%Debry%NULL%1,                            Mouhamed%Moussa%NULL%1,                            Guillaume%Schurtz%NULL%1,                            Sina%Porouchani%NULL%1,                            Alessandro%Cosenza%NULL%1,                            Francis%Juthier%NULL%1,                            Thibault%Pamart%NULL%1,                            Marjorie%Richardson%NULL%1,                            Augustin%Coisne%NULL%1,                            Adrien%Hertault%NULL%1,                            Jonathan%Sobocinski%NULL%1,                            Thomas%Modine%NULL%1,                            François%Pontana%NULL%1,                            Alain%Duhamel%NULL%2,                            Julien%Labreuche%NULL%2,                            Eric%Van Belle%ericvanbelle@aol.com%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                           Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                           Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                           Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Wang%wdw_syr@163.com%1,                            Yimei%Yin%18256985@qq.com%1,                            Chang%Hu%1391369733@qq.com%3,                            Xing%Liu%375117565@qq.com%1,                            Xingguo%Zhang%zhangxinguo7909@163.com%1,                            Shuliang%Zhou%350925556@qq.com%1,                            Mingzhi%Jian%Jmzhak@aliyun.com%1,                            Haibo%Xu%xuhaibo1120@hotmail.com%0,                            John%Prowle%j.prowle@qmul.ac.uk%1,                            Bo%Hu%hobbier1979@163.com%0,                            Yirong%Li%liyirong838@163.com%1,                            Zhiyong%Peng%Pengzy5@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                            Xiao-Xin%Wu%NULL%2,                            Xian-Gao%Jiang%NULL%2,                            Kai-Jin%Xu%NULL%2,                            Ling-Jun%Ying%NULL%2,                            Chun-Lian%Ma%NULL%2,                            Shi-Bo%Li%NULL%2,                            Hua-Ying%Wang%NULL%2,                            Sheng%Zhang%NULL%2,                            Hai-Nv%Gao%NULL%2,                            Ji-Fang%Sheng%NULL%2,                            Hong-Liu%Cai%NULL%2,                            Yun-Qing%Qiu%NULL%2,                            Lan-Juan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                            Chang%Hu%NULL%0,                            Linjie%Luo%NULL%2,                            Fang%Fang%NULL%0,                            Yongfeng%Chen%NULL%2,                            Jianguo%Li%NULL%2,                            Zhiyong%Peng%NULL%0,                            Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Fang%Zheng%fangzheng99@sina.cn%1,                            Chun%Liao%lc7spring@163.com%1,                            Qi-hong%Fan%1187286305@qq.com%1,                            Hong-bo%Chen%hbchen@hust.edu.cn%1,                            Xue-gong%Zhao%NULL%1,                            Zhong-guo%Xie%NULL%1,                            Xi-lin%Li%NULL%1,                            Chun-xi%Chen%NULL%1,                            Xiao-xia%Lu%NULL%1,                            Zhi-sheng%Liu%NULL%1,                            Wei%Lu%NULL%1,                            Chun-bao%Chen%NULL%1,                            Rong%Jiao%NULL%1,                            Ai-ming%Zhang%NULL%1,                            Jin-tang%Wang%NULL%1,                            Xi-wei%Ding%NULL%1,                            Yao-guang%Zeng%NULL%1,                            Li-ping%Cheng%NULL%1,                            Qing-feng%Huang%NULL%1,                            Jiang%Wu%NULL%0,                            Xi-chang%Luo%NULL%1,                            Zhu-jun%Wang%NULL%1,                            Yan-yan%Zhong%NULL%1,                            Yan%Bai%yanbaixh@hust.edu.cn%1,                            Xiao-yan%Wu%xwu@hust.edu.cn%1,                            Run-ming%Jin%jinrunm@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                            Ting%Yu%NULL%0,                            Ronghui%Du%NULL%0,                            Guohui%Fan%NULL%0,                            Ying%Liu%NULL%0,                            Zhibo%Liu%NULL%0,                            Jie%Xiang%NULL%0,                            Yeming%Wang%NULL%0,                            Bin%Song%NULL%0,                            Xiaoying%Gu%NULL%0,                            Lulu%Guan%NULL%0,                            Yuan%Wei%NULL%0,                            Hui%Li%NULL%0,                            Xudong%Wu%NULL%0,                            Jiuyang%Xu%NULL%0,                            Shengjin%Tu%NULL%0,                            Yi%Zhang%NULL%0,                            Hua%Chen%NULL%0,                            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                            Mengqi%Tu%NULL%2,                            Shipei%Wang%NULL%2,                            Sichao%Chen%NULL%2,                            Wei%Zhou%NULL%0,                            Danyang%Chen%NULL%2,                            Lin%Zhou%NULL%2,                            Min%Wang%NULL%2,                            Yan%Zhao%NULL%4,                            Wen%Zeng%NULL%2,                            Qi%Huang%NULL%2,                            Hai'bo%Xu%NULL%2,                            Zeming%Liu%NULL%2,                            Liang%Guo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                            Yuan%Yu%NULL%0,                            Jiqian%Xu%NULL%0,                            Huaqing%Shu%NULL%0,                            Jia'an%Xia%NULL%0,                            Hong%Liu%NULL%0,                            Yongran%Wu%NULL%0,                            Lu%Zhang%NULL%0,                            Zhui%Yu%NULL%0,                            Minghao%Fang%NULL%0,                            Ting%Yu%NULL%0,                            Yaxin%Wang%NULL%0,                            Shangwen%Pan%NULL%0,                            Xiaojing%Zou%NULL%0,                            Shiying%Yuan%NULL%0,                            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%2,                            Wei-jie%Guan%NULL%2,                            Cai-chen%Li%NULL%3,                            Yi-min%Li%NULL%3,                            Heng-rui%Liang%NULL%3,                            Yi%Zhao%NULL%3,                            Xiao-qing%Liu%NULL%3,                            Ling%Sang%NULL%0,                            Ru-chong%Chen%NULL%0,                            Chun-li%Tang%NULL%0,                            Tao%Wang%NULL%0,                            Wei%Wang%NULL%0,                            Qi-hua%He%NULL%2,                            Zi-sheng%Chen%NULL%3,                            Sook-San%Wong%NULL%2,                            Mark%Zanin%NULL%2,                            Jun%Liu%NULL%2,                            Xin%Xu%NULL%3,                            Jun%Huang%NULL%2,                            Jian-fu%Li%NULL%3,                            Li-min%Ou%NULL%3,                            Bo%Cheng%NULL%3,                            Shan%Xiong%NULL%3,                            Zhan-hong%Xie%NULL%2,                            Zheng-yi%Ni%NULL%0,                            Yu%Hu%NULL%0,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chun-liang%Lei%NULL%0,                            Yi-xiang%Peng%NULL%0,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Ya-hua%Hu%NULL%0,                            Peng%Peng%NULL%0,                            Jian-ming%Wang%NULL%0,                            Ji-yang%Liu%NULL%0,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhi-jian%Zheng%NULL%0,                            Shao-qin%Qiu%NULL%0,                            Jie%Luo%NULL%0,                            Chang-jiang%Ye%NULL%0,                            Shao-yong%Zhu%NULL%0,                            Lin-ling%Cheng%NULL%3,                            Feng%Ye%NULL%5,                            Shi-yue%Li%NULL%0,                            Jin-ping%Zheng%NULL%3,                            Nuo-fu%Zhang%NULL%3,                            Nan-shan%Zhong%NULL%0,                            Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                            Simon A%Jones%NULL%1,                            Jie%Yang%NULL%0,                            Harish%Rajagopalan%NULL%1,                            Luke%O’Donnell%NULL%1,                            Yelena%Chernyak%NULL%1,                            Katie A%Tobin%NULL%1,                            Robert J%Cerfolio%NULL%1,                            Fritz%Francois%NULL%1,                            Leora I%Horwitz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0,                            Stephanie%Bialek%NULL%1,                            Ellen%Boundy%NULL%1,                            Virginia%Bowen%NULL%1,                            Nancy%Chow%NULL%2,                            Amanda%Cohn%NULL%1,                            Nicole%Dowling%NULL%1,                            Sascha%Ellington%NULL%1,                            Ryan%Gierke%NULL%2,                            Aron%Hall%NULL%2,                            Jessica%MacNeil%NULL%1,                            Priti%Patel%NULL%1,                            Georgina%Peacock%NULL%1,                            Tamara%Pilishvili%NULL%2,                            Hilda%Razzaghi%NULL%1,                            Nia%Reed%NULL%1,                            Matthew%Ritchey%NULL%2,                            Erin%Sauber-Schatz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%1,                            Pedro%Póvoa%NULL%1,                            Vicente%Souza-Dantas%NULL%1,                            André C.%Kalil%NULL%1,                            Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%2,                            Graeme%MacLaren%NULL%1,                            Philip S%Boonstra%NULL%1,                            Theodore J%Iwashyna%NULL%1,                            Arthur S%Slutsky%NULL%1,                            Eddy%Fan%NULL%1,                            Robert H%Bartlett%NULL%1,                            Joseph E%Tonna%NULL%1,                            Robert%Hyslop%NULL%1,                            Jeffrey J%Fanning%NULL%1,                            Peter T%Rycus%NULL%1,                            Steve J%Hyer%NULL%1,                            Marc M%Anders%NULL%1,                            Cara L%Agerstrand%NULL%1,                            Katarzyna%Hryniewicz%NULL%1,                            Rodrigo%Diaz%NULL%1,                            Roberto%Lorusso%NULL%1,                            Alain%Combes%NULL%1,                            Daniel%Brodie%NULL%4,                            Peta%Alexander%NULL%1,                            Nicholas%Barrett%NULL%1,                            Jan%Bělohlávek%NULL%1,                            Dale%Fisher%NULL%1,                            John%Fraser%NULL%1,                            Ali Ait%Hssain%NULL%1,                            Jae Sung%Jung%NULL%1,                            Michael%McMullan%NULL%1,                            Yatin%Mehta%NULL%1,                            Mark T.%Ogino%NULL%1,                            Matthew L.%Paden%NULL%1,                            Kiran%Shekar%NULL%1,                            Christine%Stead%NULL%1,                            Yasir%Abu-Omar%NULL%1,                            Vanni%Agnoletti%NULL%1,                            Anzila%Akbar%NULL%1,                            Huda%Alfoudri%NULL%1,                            Carlos%Alviar%NULL%1,                            Vladimir%Aronsky%NULL%1,                            Erin%August%NULL%1,                            Georg%Auzinger%NULL%1,                            Hilda%Aveja%NULL%1,                            Rhonda%Bakken%NULL%1,                            Joan%Balcells%NULL%1,                            Sripal%Bangalore%NULL%1,                            Bernard W.%Barnes%NULL%1,                            Alaiza%Bautista%NULL%1,                            Lorraine L.%Bellows%NULL%1,                            Felipe%Beltran%NULL%1,                            Peyman%Benharash%NULL%1,                            Marco%Benni%NULL%1,                            Jennifer%Berg%NULL%1,                            Pietro%Bertini%NULL%1,                            Pablo%Blanco-Schweizer%NULL%1,                            Melissa%Brunsvold%NULL%1,                            Jenny%Budd%NULL%1,                            Debra%Camp%NULL%1,                            Mark%Caridi-Scheible%NULL%0,                            Edmund%Carton%NULL%1,                            Elena%Casanova-Ghosh%NULL%1,                            Anthony%Castleberry%NULL%1,                            Christopher T.%Chipongian%NULL%1,                            Chang Woo%Choi%NULL%1,                            Alessandro%Circelli%NULL%1,                            Elliott%Cohen%NULL%1,                            Michael%Collins%NULL%1,                            Scott%Copus%NULL%1,                            Jill%Coy%NULL%1,                            Brandon%Crist%NULL%1,                            Leonora%Cruz%NULL%1,                            Mirosław%Czuczwar%NULL%1,                            Mani%Daneshmand%NULL%1,                            Daniel%Davis II%NULL%1,                            Kim%De la Cruz%NULL%1,                            Cyndie%Devers%NULL%1,                            Toni%Duculan%NULL%1,                            Lucian%Durham%NULL%1,                            Subbarao%Elapavaluru%NULL%1,                            Carlos V.%Elzo Kraemer%NULL%1,                            EDMÍLSON CARDOSO%Filho%NULL%1,                            Jillian%Fitzgerald%NULL%1,                            Giuseppe%Foti%NULL%1,                            Matthew%Fox%NULL%1,                            David%Fritschen%NULL%1,                            David%Fullerton%NULL%1,                            Elton%Gelandt%NULL%1,                            Stacy%Gerle%NULL%1,                            Marco%Giani%NULL%1,                            Si Guim%Goh%NULL%1,                            Sara%Govener%NULL%1,                            Julie%Grone%NULL%1,                            Miles%Guber%NULL%1,                            Vadim%Gudzenko%NULL%1,                            Daniel%Gutteridge%NULL%1,                            Jennifer%Guy%NULL%1,                            Jonathan%Haft%NULL%1,                            Cameron%Hall%NULL%1,                            Ibrahim Fawzy%Hassan%NULL%1,                            Rubén%Herrán%NULL%1,                            Hitoshi%Hirose%NULL%1,                            Abdulsalam Saif%Ibrahim%NULL%1,                            Don%Igielski%NULL%1,                            Felicia A.%Ivascu%NULL%1,                            Jaume%Izquierdo Blasco%NULL%1,                            Julie%Jackson%NULL%1,                            Harsh%Jain%NULL%1,                            Bhavini%Jaiswal%NULL%1,                            Andrea C.%Johnson%NULL%1,                            Jenniver A.%Jurynec%NULL%1,                            Norma M%Kellter%NULL%1,                            Adam%Kohl%NULL%1,                            Zachary%Kon%NULL%1,                            Markus%Kredel%NULL%1,                            Karen%Kriska%NULL%1,                            Chandra%Kunavarapu%NULL%1,                            Oude%Lansink-Hartgring%NULL%1,                            Jeliene%LaRocque%NULL%1,                            Sharon Beth%Larson%NULL%1,                            Tracie%Layne%NULL%1,                            Stephane%Ledot%NULL%1,                            Napolitan%Lena%NULL%1,                            Jonathan%Lillie%NULL%1,                            Gösta%Lotz%NULL%1,                            Mark%Lucas%NULL%1,                            Lee%Ludwigson%NULL%1,                            Jacinta J.%Maas%NULL%1,                            Joanna%Maertens%NULL%1,                            David%Mast%NULL%1,                            Scott%McCardle%NULL%1,                            Bernard%McDonald%NULL%1,                            Allison%McLarty%NULL%1,                            Chelsea%McMahon%NULL%1,                            Patrick%Meybohm%NULL%1,                            Bart%Meyns%NULL%1,                            Casey%Miller%NULL%1,                            Fernando%Moraes Neto%NULL%1,                            Kelly%Morris%NULL%1,                            Ralf%Muellenbach%NULL%1,                            Meghan%Nicholson%NULL%1,                            Serena%O'Brien%NULL%1,                            Kathryn%O'Keefe%NULL%1,                            Tawnya%Ogston%NULL%1,                            Gary%Oldenburg%NULL%1,                            Fabiana M.%Oliveira%NULL%1,                            Emily%Oppel%NULL%1,                            Diego%Pardo%NULL%2,                            Diego%Pardo%NULL%0,                            Sara J.%Parker%NULL%1,                            Finn M.%Pedersen%NULL%1,                            Crescens%Pellecchia%NULL%1,                            Jose A.S.%Pelligrini%NULL%1,                            Thao T.N.%Pham%NULL%1,                            Ann R.%Phillips%NULL%1,                            Tasneem%Pirani%NULL%1,                            Paweł%Piwowarczyk%NULL%1,                            Robert%Plambeck%NULL%1,                            William%Pruett%NULL%1,                            Brittany%Quandt%NULL%1,                            Kollengode%Ramanathan%NULL%1,                            Alejandro%Rey%NULL%1,                            Christian%Reyher%NULL%1,                            Jordi%Riera del Brio%NULL%1,                            Rachel%Roberts%NULL%1,                            David%Roe%NULL%1,                            Peter P.%Roeleveld%NULL%1,                            Janet%Rudy%NULL%1,                            Luis F.%Rueda%NULL%1,                            Emanuele%Russo%NULL%1,                            Jesús%Sánchez Ballesteros%NULL%1,                            Nancy%Satou%NULL%1,                            Mauricio Guidi%Saueressig%NULL%1,                            Paul C.%Saunders%NULL%1,                            Margaret%Schlotterbeck%NULL%1,                            Patricia%Schwarz%NULL%1,                            Nicole%Scriven%NULL%1,                            Alexis%Serra%NULL%1,                            Mohammad%Shamsah%NULL%1,                            Lucy%Sim%NULL%1,                            Alexandra%Smart%NULL%1,                            Adam%Smith%NULL%1,                            Deane%Smith%NULL%1,                            Maggie%Smith%NULL%1,                            Neel%Sodha%NULL%1,                            Michael%Sonntagbauer%NULL%1,                            Marc%Sorenson%NULL%1,                            Eric B%Stallkamp%NULL%1,                            Allison%Stewart%NULL%1,                            Kathy%Swartz%NULL%1,                            Koji%Takeda%NULL%1,                            Shaun%Thompson%NULL%1,                            Bridget%Toy%NULL%1,                            Divina%Tuazon%NULL%1,                            Makoto%Uchiyama%NULL%1,                            Obiora I.%Udeozo%NULL%1,                            Scott%van Poppel%NULL%1,                            Corey%Ventetuolo%NULL%1,                            Leen%Vercaemst%NULL%1,                            Nguyen V.%Vinh Chau%NULL%1,                            I-Wen%Wang%NULL%1,                            Carrie%Williamson%NULL%1,                            Brock%Wilson%NULL%1,                            Helen%Winkels%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3093,7 +3243,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3125,7 +3275,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>742</v>
+        <v>792</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -3157,7 +3307,7 @@
         <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>743</v>
+        <v>793</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -3189,7 +3339,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>744</v>
+        <v>794</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -3221,7 +3371,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>745</v>
+        <v>795</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -3253,7 +3403,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -3285,7 +3435,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>746</v>
+        <v>796</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -3317,7 +3467,7 @@
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>747</v>
+        <v>797</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -3349,7 +3499,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>748</v>
+        <v>798</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -3381,7 +3531,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>749</v>
+        <v>799</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -3413,7 +3563,7 @@
         <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -3445,7 +3595,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>751</v>
+        <v>801</v>
       </c>
       <c r="F13" t="s">
         <v>76</v>
@@ -3477,7 +3627,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>752</v>
+        <v>802</v>
       </c>
       <c r="F14" t="s">
         <v>79</v>
@@ -3509,7 +3659,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>753</v>
+        <v>803</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -3541,7 +3691,7 @@
         <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>754</v>
+        <v>804</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -3573,7 +3723,7 @@
         <v>395</v>
       </c>
       <c r="E17" t="s">
-        <v>755</v>
+        <v>805</v>
       </c>
       <c r="F17" t="s">
         <v>86</v>
@@ -3605,7 +3755,7 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -3637,7 +3787,7 @@
         <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>756</v>
+        <v>806</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
@@ -3669,7 +3819,7 @@
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>757</v>
+        <v>807</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -3701,7 +3851,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>758</v>
+        <v>808</v>
       </c>
       <c r="F21" t="s">
         <v>98</v>
@@ -3733,7 +3883,7 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>759</v>
+        <v>809</v>
       </c>
       <c r="F22" t="s">
         <v>101</v>
@@ -3765,7 +3915,7 @@
         <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>760</v>
+        <v>810</v>
       </c>
       <c r="F23" t="s">
         <v>104</v>
@@ -3797,7 +3947,7 @@
         <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>761</v>
+        <v>811</v>
       </c>
       <c r="F24" t="s">
         <v>108</v>
@@ -3829,7 +3979,7 @@
         <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>762</v>
+        <v>812</v>
       </c>
       <c r="F25" t="s">
         <v>111</v>
@@ -3861,7 +4011,7 @@
         <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>763</v>
+        <v>813</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -3893,7 +4043,7 @@
         <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>764</v>
+        <v>814</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -3925,7 +4075,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>765</v>
+        <v>815</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
@@ -3957,7 +4107,7 @@
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>766</v>
+        <v>816</v>
       </c>
       <c r="F29" t="s">
         <v>125</v>
